--- a/data/02_intermediate/cleaned_Doc_Gynéco_songs.xlsx
+++ b/data/02_intermediate/cleaned_Doc_Gynéco_songs.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Je sors de chez moi, salut mon gars Tu sors de prison, dis moi comment ça va ? Tu veux que je t'enregistre les nouveaux sons Le dernier Ministère et la première consultation Tu veux être à la page avant de rejoindre l'entourage De ceux qui boivent du douze ans d'âge Prisonnier du quartier, pris dans la fonce-dé Plus rien ne m'étonne, plus rien ne me fait bander Depuis que j'ai la tête collée sur une pochette Certaines font semblant de ne pas me reconnaître D'autres me guettent, s'entêtent, m'embêtent Alors je les baise... ah ouais Et tout est si facile quand on marche dans sa ville Même les bleus pour moi sont en civil Je veux changer d'air, changer d'atmosphère Je vais me foutre en l'air comme Patrick Dewaere Me droguer aux aspirines, façon Marilyn Oooh..... faut que je me supprime Comme Beregovoy, aussi vite que Senna Je veux atteindre le nirvana Comme Beregovoy, clic clic boum ! Aussi vite que Senna Je veux atteindre le nirvana You might also like C'est donc ça la vie, c'est pour ça qu'on bosse Voir son gosse traîner dans le quartier Dans une poche les feuilles OCB Dans une chaussette la boulette à effriter Une cage d'escalier et le tout est roulé Mais stone, le monde est stone Y'a plus de couche d'ozone Et les seins des meufs sont en silicone Tu rêves de pez, fini le guez 1 2 3 tu m'emmènes avec toi 4 5 6 cueillir du vice 7 8 9 dans ton cabriolet neuf J'ai connu les bandes, les gangs Les meufs de gang bang, et les gros bang Bang bang dans la tête de mes amis N'y pense même pas si tu tiens à ta vie J'ai troqué ma famille, contre ces amis Et je me moque de ton avis Je veux me doper à la Maradona Car je suis triste comme le clown Zavatta Comme Beregovoy, aussi vite que Senna Je veux atteindre le nirvana Comme Beregovoy, clic clic boum ! Aussi vite que Senna Je veux atteindre le nirvana Le docteur ne joue plus au fraudeur J'achète des tickets par simple peur D'avoir à buter un contrôleur Je flirte avec le meurtre, je flirte avec mon suicide Vive le volontaire homicide Je ne crois plus en Dieu et deviens nerveux Allah, Krishna, Bouddha ou Jéhovah Moi j'opte pour ma paire de Puma Elle guide mes pas à pas J'ai fait le bon choix, et j'y crois Je n'ai pas touché, mais caressé tous mes rêves Je demande une trêve, le Doc est en grève Plus rien ne me fait kiffer Plus rien ne me fait marrer De la fille du voisin, je suis passé À de jolies mannequins très convoités Ma petite amie, elle est belle, elle est bonne Elle s'appelle Brandi Quinones, si tu veux je te la donne Car plus rien ne m'étonne J'en ai marre des meufs, j'en ai marre des keufs C'est toujours la même mouille, toujours les mêmes fouilles Comme Beregovoy, aussi vite que Senna Je veux atteindre le nirvana Comme Beregovoy, clic clic boum ! Aussi vite que Senna Je veux atteindre le nirvana6</t>
+          <t>Je sors de chez moi, salut mon gars Tu sors de prison, dis moi comment ça va ? Tu veux que je t'enregistre les nouveaux sons Le dernier Ministère et la première consultation Tu veux être à la page avant de rejoindre l'entourage De ceux qui boivent du douze ans d'âge Prisonnier du quartier, pris dans la fonce-dé Plus rien ne m'étonne, plus rien ne me fait bander Depuis que j'ai la tête collée sur une pochette Certaines font semblant de ne pas me reconnaître D'autres me guettent, s'entêtent, m'embêtent Alors je les baise... ah ouais Et tout est si facile quand on marche dans sa ville Même les bleus pour moi sont en civil Je veux changer d'air, changer d'atmosphère Je vais me foutre en l'air comme Patrick Dewaere Me droguer aux aspirines, façon Marilyn Oooh..... faut que je me supprime Comme Beregovoy, aussi vite que Senna Je veux atteindre le nirvana Comme Beregovoy, clic clic boum ! Aussi vite que Senna Je veux atteindre le nirvana C'est donc ça la vie, c'est pour ça qu'on bosse Voir son gosse traîner dans le quartier Dans une poche les feuilles OCB Dans une chaussette la boulette à effriter Une cage d'escalier et le tout est roulé Mais stone, le monde est stone Y'a plus de couche d'ozone Et les seins des meufs sont en silicone Tu rêves de pez, fini le guez 1 2 3 tu m'emmènes avec toi 4 5 6 cueillir du vice 7 8 9 dans ton cabriolet neuf J'ai connu les bandes, les gangs Les meufs de gang bang, et les gros bang Bang bang dans la tête de mes amis N'y pense même pas si tu tiens à ta vie J'ai troqué ma famille, contre ces amis Et je me moque de ton avis Je veux me doper à la Maradona Car je suis triste comme le clown Zavatta Comme Beregovoy, aussi vite que Senna Je veux atteindre le nirvana Comme Beregovoy, clic clic boum ! Aussi vite que Senna Je veux atteindre le nirvana Le docteur ne joue plus au fraudeur J'achète des tickets par simple peur D'avoir à buter un contrôleur Je flirte avec le meurtre, je flirte avec mon suicide Vive le volontaire homicide Je ne crois plus en Dieu et deviens nerveux Allah, Krishna, Bouddha ou Jéhovah Moi j'opte pour ma paire de Puma Elle guide mes pas à pas J'ai fait le bon choix, et j'y crois Je n'ai pas touché, mais caressé tous mes rêves Je demande une trêve, le Doc est en grève Plus rien ne me fait kiffer Plus rien ne me fait marrer De la fille du voisin, je suis passé À de jolies mannequins très convoités Ma petite amie, elle est belle, elle est bonne Elle s'appelle Brandi Quinones, si tu veux je te la donne Car plus rien ne m'étonne J'en ai marre des meufs, j'en ai marre des keufs C'est toujours la même mouille, toujours les mêmes fouilles Comme Beregovoy, aussi vite que Senna Je veux atteindre le nirvana Comme Beregovoy, clic clic boum ! Aussi vite que Senna Je veux atteindre le nirvana6</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Non, je n'ai pas oublié tous ces talons carrés Ces filles aux beaux fessiers qui firent fureur cet été Je lis SAS pour me remémorer Je rêve de bas résilles, de filles qu'on déshabille Qui glapent et s'égosillent, et déjà mes yeux brillent Devant une photo de ... oh Vanessa Que je mate à la mort, j'ai déjà des remords Car je pense à des ventre-à-ventre, à des corps-à-corps À du va-et-vient, encore, encore Oh Vanessa je pense à toi, j'ai les dessous mouillés mouillés Je dois me réveiller Toilettes plus lavabo, changement de caleçon Recouché aussitôt et je fais dodo Dans ma tête j'entends résonner La phrase préférée des gamins du quartier J'veux une tasse-pé yeah yeah yeah yech J'veux une tasse-pé yeah yeah yeah yeah yech Dis-moi, pourquoi tu fais ça Pourquoi tu veux pas sortir avec moi? Vanessa... You might also like Lenny, c'est fini, il t'a pris la tête Big nichons, planque à chichon La boulette, c'est dans la chaussette Petit conseil à ma starlette Je suis un pro, le Doc Gynéco Je déroule les slips d'un coup Puis ils roulent sur les cuisses et s'enroulent comme un scoubidou Parlons de Scooby-Dooby-Doo Même Daphné me fait craquer Ce n'est qu'un dessin mais je veux l'animer Tous les premiers samedis du mois J'ai les deux mains sous les draps Et mon petit coussin pour m'essuyer les doigts Canal pour actif, à minuit c'est extra Sur le petit écran je m'imagine avec Vanessa Sa bouche fiévreuse, nos étreintes ravageuses Sa langue brûlante et son corps excité Sa voix haletante, bordée dobscénités Son fond de gorge et mon sucre d'orge Ses mains pleines de réactions en chaîne, oh ! Je me réveille en sursaut et... J'veux une tasse-pé yeah yeah yeah yech J'veux une tasse-pé yeah yeah yeah yeah yech Dis-moi, pourquoi tu fais ça Pourquoi tu veux pas sortir avec moi? Vanessa... Contaminé le soir, je me réveille pour crier Après avoir rêvé de totale nudité Vaporeuse, humide, suave et chaleureuse D'expériences sadiques, de plaisirs maléfiques De tétons mordillés, de cambrure et de volupté Pratique sans complexe du sexe De jambes entrelacées, respiration coordonnée D'orgie clandestine, d'abstinence brisée Recherche des douces, Vanessa Dans ta bouche mon pouce Jouissance primaire, jouissance secondaire Tertiaire, quaternaire...... Je veux une rate, une seuf, une meuf, mais je... J'veux une tasse-pé yeah yeah yeah yech J'veux une tasse-pé yeah yeah yeah yeah yech Dis-moi, pourquoi tu fais ça Pourquoi tu veux pas sortir avec moi? Vanessa...2</t>
+          <t>Non, je n'ai pas oublié tous ces talons carrés Ces filles aux beaux fessiers qui firent fureur cet été Je lis SAS pour me remémorer Je rêve de bas résilles, de filles qu'on déshabille Qui glapent et s'égosillent, et déjà mes yeux brillent Devant une photo de ... oh Vanessa Que je mate à la mort, j'ai déjà des remords Car je pense à des ventre-à-ventre, à des corps-à-corps À du va-et-vient, encore, encore Oh Vanessa je pense à toi, j'ai les dessous mouillés mouillés Je dois me réveiller Toilettes plus lavabo, changement de caleçon Recouché aussitôt et je fais dodo Dans ma tête j'entends résonner La phrase préférée des gamins du quartier J'veux une tasse-pé yeah yeah yeah yech J'veux une tasse-pé yeah yeah yeah yeah yech Dis-moi, pourquoi tu fais ça Pourquoi tu veux pas sortir avec moi? Vanessa... Lenny, c'est fini, il t'a pris la tête Big nichons, planque à chichon La boulette, c'est dans la chaussette Petit conseil à ma starlette Je suis un pro, le Doc Gynéco Je déroule les slips d'un coup Puis ils roulent sur les cuisses et s'enroulent comme un scoubidou Parlons de Scooby-Dooby-Doo Même Daphné me fait craquer Ce n'est qu'un dessin mais je veux l'animer Tous les premiers samedis du mois J'ai les deux mains sous les draps Et mon petit coussin pour m'essuyer les doigts Canal pour actif, à minuit c'est extra Sur le petit écran je m'imagine avec Vanessa Sa bouche fiévreuse, nos étreintes ravageuses Sa langue brûlante et son corps excité Sa voix haletante, bordée dobscénités Son fond de gorge et mon sucre d'orge Ses mains pleines de réactions en chaîne, oh ! Je me réveille en sursaut et... J'veux une tasse-pé yeah yeah yeah yech J'veux une tasse-pé yeah yeah yeah yeah yech Dis-moi, pourquoi tu fais ça Pourquoi tu veux pas sortir avec moi? Vanessa... Contaminé le soir, je me réveille pour crier Après avoir rêvé de totale nudité Vaporeuse, humide, suave et chaleureuse D'expériences sadiques, de plaisirs maléfiques De tétons mordillés, de cambrure et de volupté Pratique sans complexe du sexe De jambes entrelacées, respiration coordonnée D'orgie clandestine, d'abstinence brisée Recherche des douces, Vanessa Dans ta bouche mon pouce Jouissance primaire, jouissance secondaire Tertiaire, quaternaire...... Je veux une rate, une seuf, une meuf, mais je... J'veux une tasse-pé yeah yeah yeah yech J'veux une tasse-pé yeah yeah yeah yeah yech Dis-moi, pourquoi tu fais ça Pourquoi tu veux pas sortir avec moi? Vanessa...2</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Comme beaucoup de filles tu rêves dêtre Brenda Davoir ton Dylan et dinsulter ton papa Tu viens davoir quinze ans, mmmmh intéressant Ne dis rien à tes copines, je ne dirai rien à tes parents Mais si tu acceptes ces conditions On jouera à des jeux polissons Tu seras Hélène et je serai tous les garçons Je serai labeille qui va lécher ton miel Je te ferai ton premier baiser Mais ne sois pas fâchée contre les filles dà côté Qui dans leur classe de mannequin veulent mattirer Test psychologique, méfie-toi des bluffs astrologiques Si tu te demandes comment draguer cet été Pour te conseiller je suis OK Monte sur mon podium Naie pas peur de lhomme ni de son spéculum Tu naimes pas les mineurs et préfères les majeurs Bravo, girl Mon cabinet est ouvert à toutes les heures Pour toi, ma chérie, viens voir le docteur Viens, voir, viens voir le docteur Non, naie pas peur You might also like Cette année, oui, cest ton année Tout le monde te la répété Tu seras avocat comme a dit ta mère Ou médecin comme le veut ton père Le bac cest lenfer, cette année tas flair Normal quand on passe sa vie en boîte de nuit dans le délire Tu as raison dallier travail et plaisir Mais laisse de côté l'écrit que tu maitrises mal Je te ferai passer loral sur ma fleur de mâle Viens réviser, oui viens réviser Révise tes mathématiques en mesurant ma trique Pour te faire délivrer mon ordonnance Passe à mon cabinet, mais en cas dabsence Je te rappelle quil faut tappelles Si je ne suis pas là que tu rappelles Je tépelle mon numéro de phone-tél Le 36 63 63 40 Le docteur devient correcteur pour sa patiente Comme mon cur, mon cabinet est ouvert à toutes les heures Pour toi, ma chérie, viens voir le docteur Viens, voir, viens voir le docteur Non, naie pas peur Ça fait cinq ans que tu travailles au même endroit Que tu classes, ranges pour la même paie à fin du mois Ton patron te fait des avances et pour linstant tu recules Ton mari critique tes dépenses alors tu tricotes des pulls Tu veux sortir et aller en soirée mais il est trop occupé A regarder Weah, Ginola et ses potes du PSG Femme battue rime avec coupe du monde Si relation sexuelle saccorde avec victoire Ne compte pas sur léquipe nationale qui foire Il se saoule, il joue aux boules Et toi pour que ta vie saméliore tattends ta promotion Et la montée de Marseille en première division Si tu cherches un amant, si tu veux un mec marrant Mon cabinet est ouvert à toutes les heures Pour toi, ma chérie, viens voir le docteur Viens, voir, viens voir le docteur Non, naie pas peur - Ha mademoiselle ce n'est pas possible, le docteur ne reçoit que individuellement - Oh écoutez, je connais le docteur, et... - Bon, déshabillez-vous - Complètement ?! - Bah oui !2</t>
+          <t>Comme beaucoup de filles tu rêves dêtre Brenda Davoir ton Dylan et dinsulter ton papa Tu viens davoir quinze ans, mmmmh intéressant Ne dis rien à tes copines, je ne dirai rien à tes parents Mais si tu acceptes ces conditions On jouera à des jeux polissons Tu seras Hélène et je serai tous les garçons Je serai labeille qui va lécher ton miel Je te ferai ton premier baiser Mais ne sois pas fâchée contre les filles dà côté Qui dans leur classe de mannequin veulent mattirer Test psychologique, méfie-toi des bluffs astrologiques Si tu te demandes comment draguer cet été Pour te conseiller je suis OK Monte sur mon podium Naie pas peur de lhomme ni de son spéculum Tu naimes pas les mineurs et préfères les majeurs Bravo, girl Mon cabinet est ouvert à toutes les heures Pour toi, ma chérie, viens voir le docteur Viens, voir, viens voir le docteur Non, naie pas peur Cette année, oui, cest ton année Tout le monde te la répété Tu seras avocat comme a dit ta mère Ou médecin comme le veut ton père Le bac cest lenfer, cette année tas flair Normal quand on passe sa vie en boîte de nuit dans le délire Tu as raison dallier travail et plaisir Mais laisse de côté l'écrit que tu maitrises mal Je te ferai passer loral sur ma fleur de mâle Viens réviser, oui viens réviser Révise tes mathématiques en mesurant ma trique Pour te faire délivrer mon ordonnance Passe à mon cabinet, mais en cas dabsence Je te rappelle quil faut tappelles Si je ne suis pas là que tu rappelles Je tépelle mon numéro de phone-tél Le 36 63 63 40 Le docteur devient correcteur pour sa patiente Comme mon cur, mon cabinet est ouvert à toutes les heures Pour toi, ma chérie, viens voir le docteur Viens, voir, viens voir le docteur Non, naie pas peur Ça fait cinq ans que tu travailles au même endroit Que tu classes, ranges pour la même paie à fin du mois Ton patron te fait des avances et pour linstant tu recules Ton mari critique tes dépenses alors tu tricotes des pulls Tu veux sortir et aller en soirée mais il est trop occupé A regarder Weah, Ginola et ses potes du PSG Femme battue rime avec coupe du monde Si relation sexuelle saccorde avec victoire Ne compte pas sur léquipe nationale qui foire Il se saoule, il joue aux boules Et toi pour que ta vie saméliore tattends ta promotion Et la montée de Marseille en première division Si tu cherches un amant, si tu veux un mec marrant Mon cabinet est ouvert à toutes les heures Pour toi, ma chérie, viens voir le docteur Viens, voir, viens voir le docteur Non, naie pas peur - Ha mademoiselle ce n'est pas possible, le docteur ne reçoit que individuellement - Oh écoutez, je connais le docteur, et... - Bon, déshabillez-vous - Complètement ?! - Bah oui !2</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Y'a beaucoup d'ragots qui circulent sur ton dos Entendu des cassettes et j'ai vu des vidéos T'as fait des saltos dans la cage d'escalier Y'a écrit Tass-pé avec ton nom sur mon palier Mais j'te pardonne, pour toute la vie Fais-toi fourrer, si t'as envie Mais l'aime jamais, t'as juré sur ta vie Moi j'veux une tass-pé i-é-i-é-i-é Y'a des tass-pé i-é-i-é-i-é Dans tous les quartiers i-é-i-é-i-é Des meufs grillées i-é-i-é-i-é Qu'on a fait tourner i-é-i-é-i-é Quoi qu'on dise sur toi, ma salope à moi Quoi qu'on dise sur toi, j'suis love de toi Quoi qu'on dise sur toi, t'es ma salope à moi Quoi qu'on dise sur toi, girl, j'suis love de toi À toi le frère, que je n'ai jamais eu Et toi la femme, qui m'fera jamais cocu M'ouvre pas ta porte Faut pas qu'je sorte Les rues sont mortes La bière est bien trop forte Y'a aucun salaud, qui pourra te souiller T'es belle comme une doudoune que je viens de dépouiller Tu m'dis la vérité pour mon confort sécurité Cet hiver j'te donne du sexe en attendant l'été C'est pour elle que je dérape, et que mon rap sent la fleur J'ai rangé mon jeu d'frappe et ma pince Monseigneur Acceptez cette prière, elle vient du cur Ma Tass poupée i-é-i-é-i-é Y'a des tass-pé i-é-i-é-i-é Dans tous les quartiers i-é-i-é-i-é Des meufs grillées i-é-i-é-i-é Qu'on a fait tourner i-é-i-é-i-é You might also like Quoi qu'on dise sur toi, ma salope à moi Quoi qu'on dise sur toi, j'suis love de toi Quoi qu'on dise sur toi, t'es ma salope à moi Quoi qu'on dise sur toi, meuf, j'suis love de toi Ma tass ma tass ma tass ma tass poupée Ma tass ma tasse-pé ma tass ma tass poupée On peut trouver d'l'amour sur la rue Clignancourt Mais si t'es camionneur, attends ton tour Si ça te fait flipper, d'aimer une tass-pé Tu peux l'échanger, la faire tourner Mais tu seras goute-dé, faut respecter Même les tass-pé i-é-i-é-i-é Font des bébés i-é-i-é-i-é Y'a des tass-pé, dans tous les quartiers Des meufs grillées i-é-i-é-i-é Qu'on a fait tourner i-é-i-é-i-é Quoi qu'on dise sur toi, ma salope à moi Quoi qu'on dise sur toi, j'suis love de toi Quoi qu'on dise sur toi, t'es ma salope à moi Quoi qu'on dise sur toi, meuf, j'suis love de toi T'es ma salope à moi... J'suis love de toi... Ma tass ma tass ma tass ma tass poupée Ma tass ma tasse-pé ma tass ma tass poupée</t>
+          <t>Y'a beaucoup d'ragots qui circulent sur ton dos Entendu des cassettes et j'ai vu des vidéos T'as fait des saltos dans la cage d'escalier Y'a écrit Tass-pé avec ton nom sur mon palier Mais j'te pardonne, pour toute la vie Fais-toi fourrer, si t'as envie Mais l'aime jamais, t'as juré sur ta vie Moi j'veux une tass-pé i-é-i-é-i-é Y'a des tass-pé i-é-i-é-i-é Dans tous les quartiers i-é-i-é-i-é Des meufs grillées i-é-i-é-i-é Qu'on a fait tourner i-é-i-é-i-é Quoi qu'on dise sur toi, ma salope à moi Quoi qu'on dise sur toi, j'suis love de toi Quoi qu'on dise sur toi, t'es ma salope à moi Quoi qu'on dise sur toi, girl, j'suis love de toi À toi le frère, que je n'ai jamais eu Et toi la femme, qui m'fera jamais cocu M'ouvre pas ta porte Faut pas qu'je sorte Les rues sont mortes La bière est bien trop forte Y'a aucun salaud, qui pourra te souiller T'es belle comme une doudoune que je viens de dépouiller Tu m'dis la vérité pour mon confort sécurité Cet hiver j'te donne du sexe en attendant l'été C'est pour elle que je dérape, et que mon rap sent la fleur J'ai rangé mon jeu d'frappe et ma pince Monseigneur Acceptez cette prière, elle vient du cur Ma Tass poupée i-é-i-é-i-é Y'a des tass-pé i-é-i-é-i-é Dans tous les quartiers i-é-i-é-i-é Des meufs grillées i-é-i-é-i-é Qu'on a fait tourner i-é-i-é-i-é Quoi qu'on dise sur toi, ma salope à moi Quoi qu'on dise sur toi, j'suis love de toi Quoi qu'on dise sur toi, t'es ma salope à moi Quoi qu'on dise sur toi, meuf, j'suis love de toi Ma tass ma tass ma tass ma tass poupée Ma tass ma tasse-pé ma tass ma tass poupée On peut trouver d'l'amour sur la rue Clignancourt Mais si t'es camionneur, attends ton tour Si ça te fait flipper, d'aimer une tass-pé Tu peux l'échanger, la faire tourner Mais tu seras goute-dé, faut respecter Même les tass-pé i-é-i-é-i-é Font des bébés i-é-i-é-i-é Y'a des tass-pé, dans tous les quartiers Des meufs grillées i-é-i-é-i-é Qu'on a fait tourner i-é-i-é-i-é Quoi qu'on dise sur toi, ma salope à moi Quoi qu'on dise sur toi, j'suis love de toi Quoi qu'on dise sur toi, t'es ma salope à moi Quoi qu'on dise sur toi, meuf, j'suis love de toi T'es ma salope à moi... J'suis love de toi... Ma tass ma tass ma tass ma tass poupée Ma tass ma tasse-pé ma tass ma tass poupée</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Ma rue est bourrée de vice À chacun ses délices, à chacun sa 8.6 Dans ma rue, les lascars se serrent la main Ce n'est pas comme dans le show-biz où les mecs se font la bise Dans ma rue, les Chinois s'entraident et se tiennent par la main Les Youpins s'éclatent et font des magasins Et tous les lascars fument sur les mêmes joints Dans ma rue, c'est une pub pour Benetton Et tout le monde écoute les mêmes sons à fond Mangeurs de casher ou de saucisson Dans ma rue, je suis posé, je marche tranquille dans la ville J'esquive les civils et reste le patron du style À chacun sa banlieue. La mienne, je l'aime Et elle s'appelle le 18ème Dans ma rue, pour communiquer il faut être trilingue Et faire attention quand on marche sur des seringues Se méfier des dingues qui sortent leurs flingues Dans ma rue, les péripatéticiennes craquent pour du Crack Les pompiers les réveillent en leur mettant des claques Personne ne veut tenter le bouche à bouche Les clodos s'échappent pour ne pas prendre de douche Dans ma rue, le vendeur de grec veut nous empoisonner Sa viande est bizarre, son huile est périmée Comme moi l'épicier fait ses courses à Ed Il m'revend les mêmes produits que j'achète l'aprés-midi 4 ou 5 fois plus cher la nuit Dans ma rue, ça vole, ça viole Mais qu'est-ce que tu veux ? À chacun sa banlieue La mienne, je l'aime et elle s'appelle You might also like Porte de la Chapelle, terminus Tout le monde descend, reste ou prend son bus Bienvenue dans ma rue Où la crasse colle à tes pieds sur le trottoir comme de la glu Bienvenue dans ma rue Où les pigeons meurent dans le caniveau À force de manger du dégueulis de toxico Dans ma rue, autant de flics que de mecs cocus Le coiffeur raconte des blagues au dealer Les policiers donnent des planques aux voleurs Le facteur aide le maquereau à relever les compteurs J'ai été élu président de ma rue J'ai placé mes ministres, tout le monde est corrompu... À chacun sa banlieue. La mienne, je l'aime Et elle s'appelle le 18ème I'm high for the chronic and I can't get up I'm high for the chronic and I can't get up I'm high for the chronic and I can't get up I'm high for the chronic and I can't get up I'm high for the chronic and I can't get up I'm high for the chronic and I can't get up I'm high for the chronic and I can't get up I'm high for the chronic and I can't get up3</t>
+          <t>Ma rue est bourrée de vice À chacun ses délices, à chacun sa 8.6 Dans ma rue, les lascars se serrent la main Ce n'est pas comme dans le show-biz où les mecs se font la bise Dans ma rue, les Chinois s'entraident et se tiennent par la main Les Youpins s'éclatent et font des magasins Et tous les lascars fument sur les mêmes joints Dans ma rue, c'est une pub pour Benetton Et tout le monde écoute les mêmes sons à fond Mangeurs de casher ou de saucisson Dans ma rue, je suis posé, je marche tranquille dans la ville J'esquive les civils et reste le patron du style À chacun sa banlieue. La mienne, je l'aime Et elle s'appelle le 18ème Dans ma rue, pour communiquer il faut être trilingue Et faire attention quand on marche sur des seringues Se méfier des dingues qui sortent leurs flingues Dans ma rue, les péripatéticiennes craquent pour du Crack Les pompiers les réveillent en leur mettant des claques Personne ne veut tenter le bouche à bouche Les clodos s'échappent pour ne pas prendre de douche Dans ma rue, le vendeur de grec veut nous empoisonner Sa viande est bizarre, son huile est périmée Comme moi l'épicier fait ses courses à Ed Il m'revend les mêmes produits que j'achète l'aprés-midi 4 ou 5 fois plus cher la nuit Dans ma rue, ça vole, ça viole Mais qu'est-ce que tu veux ? À chacun sa banlieue La mienne, je l'aime et elle s'appelle Porte de la Chapelle, terminus Tout le monde descend, reste ou prend son bus Bienvenue dans ma rue Où la crasse colle à tes pieds sur le trottoir comme de la glu Bienvenue dans ma rue Où les pigeons meurent dans le caniveau À force de manger du dégueulis de toxico Dans ma rue, autant de flics que de mecs cocus Le coiffeur raconte des blagues au dealer Les policiers donnent des planques aux voleurs Le facteur aide le maquereau à relever les compteurs J'ai été élu président de ma rue J'ai placé mes ministres, tout le monde est corrompu... À chacun sa banlieue. La mienne, je l'aime Et elle s'appelle le 18ème I'm high for the chronic and I can't get up I'm high for the chronic and I can't get up I'm high for the chronic and I can't get up I'm high for the chronic and I can't get up I'm high for the chronic and I can't get up I'm high for the chronic and I can't get up I'm high for the chronic and I can't get up I'm high for the chronic and I can't get up3</t>
         </is>
       </c>
     </row>
@@ -548,7 +548,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2014 11 décembre Suicide commercial Lino 24 octobre Wolfgang Lino 27 août VLB Lino feat. T-Killa 9 avril 12ème Lettre Lino 2013 9 juillet C'est là-bas Calbo feat. VR 2011 19 mai Philosophie de Pare-Choc feat. 2Bal 2007 Mille et Une Vies Lino 2005 Où Les Anges Brûlent Lino Paradis Airlines Lino 2002 You might also likeJ't'emmerde Regarde le Monde P.O.I.S.O.N 1998 Affaires de Famille feat. Doc Gynéco Assia Boxe avec les Mots</t>
+          <t>2014 11 décembre Suicide commercial Lino 24 octobre Wolfgang Lino 27 août VLB Lino feat. T-Killa 9 avril 12ème Lettre Lino 2013 9 juillet C'est là-bas Calbo feat. VR 2011 19 mai Philosophie de Pare-Choc feat. 2Bal 2007 Mille et Une Vies Lino 2005 Où Les Anges Brûlent Lino Paradis Airlines Lino 2002 J't'emmerde Regarde le Monde P.O.I.S.O.N 1998 Affaires de Famille feat. Doc Gynéco Assia Boxe avec les Mots</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Tenu éloigné du niveau des pros Je reviens agile comme Bebeto Guette ma technique, je suis physique Numéro 1 au classement des tchatcheurs La division 1 ne me fait pas peur Le Kaiser du rap, le roi, le pape Mène l'attaque et les sponsors attaquent On m'attaque et j'évite les tacles C'est comme à l'entrainement quand je saute les obstacles Je me ballade sur le terrain musical Je tue au micro comme je shoote dans la balle Sur ta console, tu luttes à Kick Off Moi je marque des buts même à Dino Zoff Je suis le filou, Michel Platini qui échappe aux griffes Du gros Basile Boli Oui j'en veux, comme Rummenigge Je mouille mon maillot, quand je suis au micro 212475 C'est un passement de jambes, sur le beat je flambe Un passement de jambes, un passement de jambes C'est un passement de jambes, sur le beat je flambe Un passement de jambes, une mise à l'amende Transfert effectué, l'homme de l'année a enfin signé Prêté par la Secte au Virgin AC Ma tchatche est brossée, tous mes mots sont cadrés Même Mark Landers en tombe à la renverse À l'aise dans mes Copa, stylé en Diadora Je suis le prince du parc Guadalajara On fait la ola pour Umbro Gynéco Et hou ha, hou ha, pour Cantona Rescapé de la grand époque des Verts Je remonte le score quand ma Clinique perd Vainqueur de la coupe des vainqueurs de coupe Le lion indomptable a de la force dans ses shoots J'ai le Ballon d'Or, le micro d'or Le Soulier d'Or et les Disques d'Or Les hooligans sont gan, morgan de moi Et comme ils disent vive le roi ! You might also like C'est un passement de jambes, sur le beat je flambe Un passement de jambes, un passement de jambes C'est un passement de jambes, sur le beat je flambe Un passement de jambes, une mise à l'amende Rencontre au sommet, TF1 retransmet La crise sera cardiaque dans les foyers français C'est moi qui arrache la qualification Je marque de la main et empoche le pognon Ce soir je vous mets... de l'huile est sur le feu ! Coup de sifflet final, pas de prolongations J'ai mené le bal, repasse-toi mes actions J'ai des millions de francs cachés dans mon jardin Je bois du Cacolac, ça c'est Jean Pierre Papin Le foot c'est malsain, comme la musique y'a que des requins Pas d'échange de maillot, tu pourrais prendre mon flow C'est un passement de jambes, sur le beat je flambe Un passement de jambes, un passement de jambes C'est un passement de jambes, sur le beat je flambe Un passement de jambes, une mise à l'amende6</t>
+          <t>Tenu éloigné du niveau des pros Je reviens agile comme Bebeto Guette ma technique, je suis physique Numéro 1 au classement des tchatcheurs La division 1 ne me fait pas peur Le Kaiser du rap, le roi, le pape Mène l'attaque et les sponsors attaquent On m'attaque et j'évite les tacles C'est comme à l'entrainement quand je saute les obstacles Je me ballade sur le terrain musical Je tue au micro comme je shoote dans la balle Sur ta console, tu luttes à Kick Off Moi je marque des buts même à Dino Zoff Je suis le filou, Michel Platini qui échappe aux griffes Du gros Basile Boli Oui j'en veux, comme Rummenigge Je mouille mon maillot, quand je suis au micro 212475 C'est un passement de jambes, sur le beat je flambe Un passement de jambes, un passement de jambes C'est un passement de jambes, sur le beat je flambe Un passement de jambes, une mise à l'amende Transfert effectué, l'homme de l'année a enfin signé Prêté par la Secte au Virgin AC Ma tchatche est brossée, tous mes mots sont cadrés Même Mark Landers en tombe à la renverse À l'aise dans mes Copa, stylé en Diadora Je suis le prince du parc Guadalajara On fait la ola pour Umbro Gynéco Et hou ha, hou ha, pour Cantona Rescapé de la grand époque des Verts Je remonte le score quand ma Clinique perd Vainqueur de la coupe des vainqueurs de coupe Le lion indomptable a de la force dans ses shoots J'ai le Ballon d'Or, le micro d'or Le Soulier d'Or et les Disques d'Or Les hooligans sont gan, morgan de moi Et comme ils disent vive le roi ! C'est un passement de jambes, sur le beat je flambe Un passement de jambes, un passement de jambes C'est un passement de jambes, sur le beat je flambe Un passement de jambes, une mise à l'amende Rencontre au sommet, TF1 retransmet La crise sera cardiaque dans les foyers français C'est moi qui arrache la qualification Je marque de la main et empoche le pognon Ce soir je vous mets... de l'huile est sur le feu ! Coup de sifflet final, pas de prolongations J'ai mené le bal, repasse-toi mes actions J'ai des millions de francs cachés dans mon jardin Je bois du Cacolac, ça c'est Jean Pierre Papin Le foot c'est malsain, comme la musique y'a que des requins Pas d'échange de maillot, tu pourrais prendre mon flow C'est un passement de jambes, sur le beat je flambe Un passement de jambes, un passement de jambes C'est un passement de jambes, sur le beat je flambe Un passement de jambes, une mise à l'amende6</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>001. Rocé - On s'habitue 002. Scred Connexion - Scred Connexion Un nouveau nom dans ta collection 003. Oxmo Puccino - L'Amour est mort 004. OFX - Je n'ose y croire 005. Ideal J - Le Combat Continue 2 006. Beat de Boul - Dans la Sono 007. Suprême NTM - On est encore là 008. East - Straight From The Underground 009. MC Solaar - Samedi Soir Sur un Banc 010. IAM - Un bon son brut pour les truands 011. Zoxea - Rap, musique que j'aime 012. Sheryo - Ghetto-Trip 013. Triptik - Panam' 014. Vicelow feat. Akhenaton, Sako Rachel Claudio - Nouvel Automne remix 015. Hocus Pocus - Une Zone de Tensions 016. Doc Gyneco - L'Homme qui ne valait pas dix centimes 017. Fabe - Comme un Rat dans l'Coin 018. X-Men - Retour aux Pyramides 019. Kohndo - Un Idéal 020. Explicit Samouraï - X. Plicit Sentence 021. Akhenaton - Entrer dans la Légende 022. N.A.P. - Le Ghetto Pleure 023. Diam's - Premier Mandat 024. Passi feat. Akhenaton - Le Monde est à Moi 025. Mo'vez Lang feat. Zoxea - On vient de loin 026. Chiens de Paille - Comme un Aimant 027. Nakk feat. Les 10', Wallen - On se reverra là-haut 028. Lunatic - Introduction 029. Hocus Pocus - Seconde Formule 030. Koma - Et si chacun 031. Bambi Cruz - Ouvre les yeux 032. Haroun - La Routine 033. Mokless - Ca tourne pas rond 034. Morad - Un Point c'est Tout 035. Koma - Loin des Rêves 036. Fabe - Classique 037. Passi feat. Les Choeurs de l'Armée Rouge - Emeutes 038. Saïan Supa Crew - La Preuve par 3 039. MC Solaar - La Belle et le Bad Boy 040. La Cliqua - Tué dans la Rue 041. Ärsenik - L'Enfer remonte à la surface 042. Les Sages Poètes de la Rue - Bons Baisers du Poste 043. Lunatic - Le Crime Paie 044. IAM - Demain, c'est loin 045. Suprême NTM - Laisse pas traîner ton fils 046. X-Men - Pendez-les ! Bandez-les ! Descendez-les ! 047. Sir Doum's - Je lutte en rimant 048. Scred Connexion - Partis de Rien 049. Ideal J - Hardcore 050. Oxmo Puccino - L'Enfant Seul 051. Doc Gyneco - Dans ma Rue 052. Assassin - La Formule Secrète 053. Busta Flex - J'fais mon job à plein temps 054. Rocé - Plus d'Feeling 055. Too Leust - Le Roseau 056. Explicit Samouraï - Le Roseau 057. MC Solaar - Nouveau Western 058. Fabe - Excusez-nous 059. Fabe - Des Durs, des Boss des Dombis ! 060. Fabe - L'Impertinent 061. Fabe - Le Rap et Moi 062. Fabe - L'Emmerdeur Public n1 063. Rohff - Génération Sacrifiée 064. La Rumeur - L'oiseau fait sa cage 065. Ministère A.M.E.R - Sacrifice de Poulets 066. Ideal J - Si je rappe ici 067. Hocus Pocus - 7.fa.7 068. Saïan Supa Crew - KLR 069. Oxmo Puccino - LAmour est mort 070. Suprême NTM - Outro 071. Dicidens feat. Lunatic - De Larmes et de Sang 072. MC Solaar - Solaar Pleure II 073. OFX - France 074. Time Bomb - Explose 075. Time Bomb - Les Bidons veulent le Guidon 076. IAM - Petit Frère 077. Fonky Family - Art de Rue 078. Lunatic - Le Son qui met la Pression 079. Disiz la Peste - Jpète les plombs 080. ShurikN - Samourai 081. MC Solaar - Obsolète 082. Saïan Supa Crew - 14.02.2002 083. Les Sages Poètes de la Rue - Quest-ce qui fait marcher les Sages ? 084. MC Jean Gab1 - Jtemmerde 085. Mafia K1 Fry - Pour Ceux 086. Akhenaton - Jai pas de face 087. Oxmo Puccino - Mama Lova 088. Booba feat. Nessbeal - Sans Ratures 089. MC Solaar - Arkansas 090. Hocus Pocus - Panique au Saloon 091. Fabe - Aujourd'hui 092. Saïan Supa Crew - J'adore ça 093. Suprême NTM - Seine-Saint-Denis Style 094. Rohff - 94 095. Shurik'N feat. Akhenaton - Manifeste 096. Mo'vez Lang feat. Mala - C'est ça gars 097. Ministère A.M.E.R. - Plus vite que les balles 098. Ideal J feat. Demon One Rohff - L'Amour 099. La Clinique - On avance 100. Rocé - Pour l'Horizon 101. 11'30 contre les Lois Racistes 102. Booba - Repose en Paix 103. Oxmo Puccino - L'Amour est mort, mets... 104. KDD - Qui tu es ? 105. X-Men - J'attaque du Mike 106. IAM - Pharaon Reviens 107. Ärsenik - Boxe avec les mots 108. Expression Direkt - Dealer Pour Survivre 109. Passi - Les Flammes du Mal 110. Chiens de Paille - Maudits soient les yeux fermés 111. Suprême NTM - Le Monde de Demain 112. Oxmo Puccino feat. Booba - Pucc' Fiction 113. 113 - Les Princes de la Ville 114. Doc Gyneco - Nirvana 115. Akhenaton - Mon Texte, le Savon 116. Fabe - La Tête Haute Tenue 117. Saïan Supa Crew - G-Padpo 118. MC Solaar - Caroline 119. Casey - Dans nos Histoires 120. Keny Arkana - VictoriaYou might also like16</t>
+          <t>001. Rocé - On s'habitue 002. Scred Connexion - Scred Connexion Un nouveau nom dans ta collection 003. Oxmo Puccino - L'Amour est mort 004. OFX - Je n'ose y croire 005. Ideal J - Le Combat Continue 2 006. Beat de Boul - Dans la Sono 007. Suprême NTM - On est encore là 008. East - Straight From The Underground 009. MC Solaar - Samedi Soir Sur un Banc 010. IAM - Un bon son brut pour les truands 011. Zoxea - Rap, musique que j'aime 012. Sheryo - Ghetto-Trip 013. Triptik - Panam' 014. Vicelow feat. Akhenaton, Sako Rachel Claudio - Nouvel Automne remix 015. Hocus Pocus - Une Zone de Tensions 016. Doc Gyneco - L'Homme qui ne valait pas dix centimes 017. Fabe - Comme un Rat dans l'Coin 018. X-Men - Retour aux Pyramides 019. Kohndo - Un Idéal 020. Explicit Samouraï - X. Plicit Sentence 021. Akhenaton - Entrer dans la Légende 022. N.A.P. - Le Ghetto Pleure 023. Diam's - Premier Mandat 024. Passi feat. Akhenaton - Le Monde est à Moi 025. Mo'vez Lang feat. Zoxea - On vient de loin 026. Chiens de Paille - Comme un Aimant 027. Nakk feat. Les 10', Wallen - On se reverra là-haut 028. Lunatic - Introduction 029. Hocus Pocus - Seconde Formule 030. Koma - Et si chacun 031. Bambi Cruz - Ouvre les yeux 032. Haroun - La Routine 033. Mokless - Ca tourne pas rond 034. Morad - Un Point c'est Tout 035. Koma - Loin des Rêves 036. Fabe - Classique 037. Passi feat. Les Choeurs de l'Armée Rouge - Emeutes 038. Saïan Supa Crew - La Preuve par 3 039. MC Solaar - La Belle et le Bad Boy 040. La Cliqua - Tué dans la Rue 041. Ärsenik - L'Enfer remonte à la surface 042. Les Sages Poètes de la Rue - Bons Baisers du Poste 043. Lunatic - Le Crime Paie 044. IAM - Demain, c'est loin 045. Suprême NTM - Laisse pas traîner ton fils 046. X-Men - Pendez-les ! Bandez-les ! Descendez-les ! 047. Sir Doum's - Je lutte en rimant 048. Scred Connexion - Partis de Rien 049. Ideal J - Hardcore 050. Oxmo Puccino - L'Enfant Seul 051. Doc Gyneco - Dans ma Rue 052. Assassin - La Formule Secrète 053. Busta Flex - J'fais mon job à plein temps 054. Rocé - Plus d'Feeling 055. Too Leust - Le Roseau 056. Explicit Samouraï - Le Roseau 057. MC Solaar - Nouveau Western 058. Fabe - Excusez-nous 059. Fabe - Des Durs, des Boss des Dombis ! 060. Fabe - L'Impertinent 061. Fabe - Le Rap et Moi 062. Fabe - L'Emmerdeur Public n1 063. Rohff - Génération Sacrifiée 064. La Rumeur - L'oiseau fait sa cage 065. Ministère A.M.E.R - Sacrifice de Poulets 066. Ideal J - Si je rappe ici 067. Hocus Pocus - 7.fa.7 068. Saïan Supa Crew - KLR 069. Oxmo Puccino - LAmour est mort 070. Suprême NTM - Outro 071. Dicidens feat. Lunatic - De Larmes et de Sang 072. MC Solaar - Solaar Pleure II 073. OFX - France 074. Time Bomb - Explose 075. Time Bomb - Les Bidons veulent le Guidon 076. IAM - Petit Frère 077. Fonky Family - Art de Rue 078. Lunatic - Le Son qui met la Pression 079. Disiz la Peste - Jpète les plombs 080. ShurikN - Samourai 081. MC Solaar - Obsolète 082. Saïan Supa Crew - 14.02.2002 083. Les Sages Poètes de la Rue - Quest-ce qui fait marcher les Sages ? 084. MC Jean Gab1 - Jtemmerde 085. Mafia K1 Fry - Pour Ceux 086. Akhenaton - Jai pas de face 087. Oxmo Puccino - Mama Lova 088. Booba feat. Nessbeal - Sans Ratures 089. MC Solaar - Arkansas 090. Hocus Pocus - Panique au Saloon 091. Fabe - Aujourd'hui 092. Saïan Supa Crew - J'adore ça 093. Suprême NTM - Seine-Saint-Denis Style 094. Rohff - 94 095. Shurik'N feat. Akhenaton - Manifeste 096. Mo'vez Lang feat. Mala - C'est ça gars 097. Ministère A.M.E.R. - Plus vite que les balles 098. Ideal J feat. Demon One Rohff - L'Amour 099. La Clinique - On avance 100. Rocé - Pour l'Horizon 101. 11'30 contre les Lois Racistes 102. Booba - Repose en Paix 103. Oxmo Puccino - L'Amour est mort, mets... 104. KDD - Qui tu es ? 105. X-Men - J'attaque du Mike 106. IAM - Pharaon Reviens 107. Ärsenik - Boxe avec les mots 108. Expression Direkt - Dealer Pour Survivre 109. Passi - Les Flammes du Mal 110. Chiens de Paille - Maudits soient les yeux fermés 111. Suprême NTM - Le Monde de Demain 112. Oxmo Puccino feat. Booba - Pucc' Fiction 113. 113 - Les Princes de la Ville 114. Doc Gyneco - Nirvana 115. Akhenaton - Mon Texte, le Savon 116. Fabe - La Tête Haute Tenue 117. Saïan Supa Crew - G-Padpo 118. MC Solaar - Caroline 119. Casey - Dans nos Histoires 120. Keny Arkana - Victoria16</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Là-bas, il fait chaud, on boit l'eau du coco Sous les cocotiers, les filles sont dorées Les maillots mouillés et les bondas bombés Ça sent le Colombo, les plats épicés Y a du zouk à fond, des fruits de la passion Francky Vincent est le saint patron On coupe la canne pour en prendre le sucre Mélanger citron vert et rhum Trois Rivières Bologne ou La Mauny et oui c'est clair Clair comme l'eau comme l'eau de la mer J'y vais quand c'est gratuit, congés bonifiés Dis-moi Timal, est-ce que tu connais ? Suis-moi dans les hauteurs de la Soufrière Je suis le guide touristique qui temmène en Basse-Terre On tape une pointe pour aller à la pointe C'est du frotter-frotter et des gens qui s'éreintent Ma mère est née là-bas Mon père est né là-bas Moi, je suis né ici Dans la misère et les cris bis You might also like C'est le deuxième couplet, j'espère qu'on va clipper Tu pourras voir la tristesse de mon quartier Ici tout est gris, ça s'appelle Paris Les rues sont mortes, les filles décolorées Pour rester bronzées, elles brûlent sous UV Toujours fâchée, la fille de la ville Est agressive comme un flic en civil Il y a comme une odeur de gaz sur les Champs-Élysées Et des bombes pètent dans le RER D Ma mère est fatiguée, je la laisse respirer Je vis de mon côté et tente de subsister Arrête de rapper me crie-t-elle toute la journée Ce n'est pas sérieux, trouve un métier Fumer ça donne faim, je suis Arsène Lupin Je tape à E.D même sans les mains Sur mon canapé, on est moins serrés C'est sûr certains se sont fait soulever Je pense aux novices et n'oublie pas mes complices Ma mère est née là-bas Mon père est né là-bas Moi, je suis né ici Dans la misère et les cris J'veux porter des shorts de toute ma vie Avec mon escorte, quitter Paris Manger du poisson grillé sur la plage du Gosier Prendre des bains de mer avec le ministère Mais je me suis noyé, je ne sais pas nager Les rues sont profondes et mènent toutes au boulevard Ney Comment s'en sortir pour la fille du quartier Elle croit que pour percer, il faut se faire trouer Certains jouent au foot et veulent devenir pros D'autres dealent et rêvent de kilos Les seringues mortes se ramassent à la pelle Sur les trottoirs de la rue La Chapelle On protège nos fils de tout ce vice Dans les cours d'école on ne sniffe plus de colle Drogue et alcool ont pris le monopole Ma vie n'est pas simple, elle n'est pas funky Moi, je suis né ici et mon enfant aussi Ma mère est née là-bas Mon père est né là-bas Moi, je suis né ici Dans la misère et les cris</t>
+          <t>Là-bas, il fait chaud, on boit l'eau du coco Sous les cocotiers, les filles sont dorées Les maillots mouillés et les bondas bombés Ça sent le Colombo, les plats épicés Y a du zouk à fond, des fruits de la passion Francky Vincent est le saint patron On coupe la canne pour en prendre le sucre Mélanger citron vert et rhum Trois Rivières Bologne ou La Mauny et oui c'est clair Clair comme l'eau comme l'eau de la mer J'y vais quand c'est gratuit, congés bonifiés Dis-moi Timal, est-ce que tu connais ? Suis-moi dans les hauteurs de la Soufrière Je suis le guide touristique qui temmène en Basse-Terre On tape une pointe pour aller à la pointe C'est du frotter-frotter et des gens qui s'éreintent Ma mère est née là-bas Mon père est né là-bas Moi, je suis né ici Dans la misère et les cris bis C'est le deuxième couplet, j'espère qu'on va clipper Tu pourras voir la tristesse de mon quartier Ici tout est gris, ça s'appelle Paris Les rues sont mortes, les filles décolorées Pour rester bronzées, elles brûlent sous UV Toujours fâchée, la fille de la ville Est agressive comme un flic en civil Il y a comme une odeur de gaz sur les Champs-Élysées Et des bombes pètent dans le RER D Ma mère est fatiguée, je la laisse respirer Je vis de mon côté et tente de subsister Arrête de rapper me crie-t-elle toute la journée Ce n'est pas sérieux, trouve un métier Fumer ça donne faim, je suis Arsène Lupin Je tape à E.D même sans les mains Sur mon canapé, on est moins serrés C'est sûr certains se sont fait soulever Je pense aux novices et n'oublie pas mes complices Ma mère est née là-bas Mon père est né là-bas Moi, je suis né ici Dans la misère et les cris J'veux porter des shorts de toute ma vie Avec mon escorte, quitter Paris Manger du poisson grillé sur la plage du Gosier Prendre des bains de mer avec le ministère Mais je me suis noyé, je ne sais pas nager Les rues sont profondes et mènent toutes au boulevard Ney Comment s'en sortir pour la fille du quartier Elle croit que pour percer, il faut se faire trouer Certains jouent au foot et veulent devenir pros D'autres dealent et rêvent de kilos Les seringues mortes se ramassent à la pelle Sur les trottoirs de la rue La Chapelle On protège nos fils de tout ce vice Dans les cours d'école on ne sniffe plus de colle Drogue et alcool ont pris le monopole Ma vie n'est pas simple, elle n'est pas funky Moi, je suis né ici et mon enfant aussi Ma mère est née là-bas Mon père est né là-bas Moi, je suis né ici Dans la misère et les cris</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Mandarina double M, etc Les sacs remplis de tracts de soirées La chaussure, y'a pour les talons carrés Morgan ou Kookaï pour les sapes serrées Le tout parfumé au Trésor, leur parfum sacré La plupart en BEP, les meilleures passent un bac G Elles rêvent de cinéma et de rôles à la Madonna De chanter comme Vanessa, et de mecs comme Apache Elles veulent des flashs de photo, défiler sur du yoyo Toutes ces femelles envoutées par Chanel, Paco Ne se soignent plus chez Gynéco Leur livre de chevet s'appelle Photo, Mode ou Casting Elles prennent des cours et courent de casting en casting Je suis une fille du moove, tu mens Je suis une fille du moove, tu mens Je suis une fille du moove, tu mens Je suis une fille du moove, tu mens Toc, toc, toc, quoi de neuf Doc ? Toc, toc, toc, suis-je en cloque ? Enfin tu vas toucher des allocs Avec l'argent de ton enfant Tu iras en soirées rap, jazz, rock Pas de Pampers, mais du Poppers Au lieu de lui acheter des couches Tu essaieras de rentrer au Bains-douches Tu l'appelleras Malcom, Jordan ou Dylan Oh nan il ment À trois mois tu l'emmèneras à Châtelet-les-Halles À six mois tu lui présenteras son nouveau Papa Squale À neuf mois il mangera au KFC Et à un an, il ira tout seul en soirée Les filles du mouvement rêvent d'enfants assortis À leur sac, à leurs sapes, je suis pas d'ac, mais je m'en tape Depuis que Nike a sorti des Jordan pour tout petits pieds Les filles de soirées veulent de tout petits bébés You might also like Je suis une fille du moove, tu mens Je suis une fille du moove, tu mens Je suis une fille du moove, tu mens Je suis une fille du moove, tu mens C'est Barbie Zoulette qui va dans toutes les fêtes Elle joue la starlette et moi ça me prend la tête Elle sort avec Ken même sans plastique Rappelle-toi de l'époque ou tu sautais à l'élastique Ton sac de bonbons devenu carnet de téléphone Fini dêtre mignonne, tu préfères être bonne Respecte-toi, je ne le ferai pas pour toi Une fille du mouvement, ça tourne avec le vent Je suis une fille du moove, tu mens Je suis une fille du moove, tu mens Je suis une fille du moove, tu mens Je suis une fille du moove, tu mens J'aime la rouler, la feuille à rouler J'aime la fumer, la p'tite fille bien roulée J'aime la rouler, la feuille à rouler J'aime la fumer, la p'tite fille bien roulée J'aime la rouler, la feuille à rouler J'aime la fumer, la p'tite fille bien roulée</t>
+          <t>Mandarina double M, etc Les sacs remplis de tracts de soirées La chaussure, y'a pour les talons carrés Morgan ou Kookaï pour les sapes serrées Le tout parfumé au Trésor, leur parfum sacré La plupart en BEP, les meilleures passent un bac G Elles rêvent de cinéma et de rôles à la Madonna De chanter comme Vanessa, et de mecs comme Apache Elles veulent des flashs de photo, défiler sur du yoyo Toutes ces femelles envoutées par Chanel, Paco Ne se soignent plus chez Gynéco Leur livre de chevet s'appelle Photo, Mode ou Casting Elles prennent des cours et courent de casting en casting Je suis une fille du moove, tu mens Je suis une fille du moove, tu mens Je suis une fille du moove, tu mens Je suis une fille du moove, tu mens Toc, toc, toc, quoi de neuf Doc ? Toc, toc, toc, suis-je en cloque ? Enfin tu vas toucher des allocs Avec l'argent de ton enfant Tu iras en soirées rap, jazz, rock Pas de Pampers, mais du Poppers Au lieu de lui acheter des couches Tu essaieras de rentrer au Bains-douches Tu l'appelleras Malcom, Jordan ou Dylan Oh nan il ment À trois mois tu l'emmèneras à Châtelet-les-Halles À six mois tu lui présenteras son nouveau Papa Squale À neuf mois il mangera au KFC Et à un an, il ira tout seul en soirée Les filles du mouvement rêvent d'enfants assortis À leur sac, à leurs sapes, je suis pas d'ac, mais je m'en tape Depuis que Nike a sorti des Jordan pour tout petits pieds Les filles de soirées veulent de tout petits bébés Je suis une fille du moove, tu mens Je suis une fille du moove, tu mens Je suis une fille du moove, tu mens Je suis une fille du moove, tu mens C'est Barbie Zoulette qui va dans toutes les fêtes Elle joue la starlette et moi ça me prend la tête Elle sort avec Ken même sans plastique Rappelle-toi de l'époque ou tu sautais à l'élastique Ton sac de bonbons devenu carnet de téléphone Fini dêtre mignonne, tu préfères être bonne Respecte-toi, je ne le ferai pas pour toi Une fille du mouvement, ça tourne avec le vent Je suis une fille du moove, tu mens Je suis une fille du moove, tu mens Je suis une fille du moove, tu mens Je suis une fille du moove, tu mens J'aime la rouler, la feuille à rouler J'aime la fumer, la p'tite fille bien roulée J'aime la rouler, la feuille à rouler J'aime la fumer, la p'tite fille bien roulée J'aime la rouler, la feuille à rouler J'aime la fumer, la p'tite fille bien roulée</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Liaisons dangerous Doc Gyneco Si tu savais ce qu'ils pensent des gens de couleur, ma sur ! Y'a pas de fleurs dans mon malheur Pour t'en offrir, je me fais rappeur Pourquoi subir tel un cireur de chaussures ? Pour m'en sortir, je suis conteur de mésaventures Un mec à la recherche d'une femme pure Qui se la raconte pas et qui a de l'allure, c'est sûr Et si toutes les meufs étaient carrées comme Mariah Je fumerais moins, je boirais moins de Bavaria Je combattrais la peste, la malaria J'aurais la Foi comme Mère Teresa Toutes ces promesses gravées sur le cercueil de Lady Di Comme à Dallas pour Kennedy Vous m'aurez pas, j'ai un holster sous mon Teddy Le Pape endort la masse avec des promesses à la messe Laisse, j'encaisse... Vamos todos juntos ! Que la guerra va a empezar La guerra empezará Como Zapata lo diría Hacer la revolución La victoria reinará Reinará Et si, pour percer, bercer les gens de bonne musique Faut signer sur des labels qui ne pensent qu'au fric Je le fais, et si je pouvais je ferais les pubs Qui vont avec les tubes et tu comprendrais comment on t'entube Demande à Virgin si j'ai des copines dans la machine Elle, elle a changé le cours de ma vie C'est des sadiques Je veux le contrôle de mes clips, de ma musique Fonce-dé mais pas te-bê Je suis pas la poule aux disques d'or ni le presse-billet Un coup de rhum vieux et je m'arrache si Dieu le veut J'en ai 23 et Il a des projets pour moi J'ai pas raison de vouloir faire les Liaisons ? Ou t'as peur qu'enfin arrive notre saison ? T'es qu'une balance, un mec comme toi peut suffire A faire sauter tout ce qu'on veut créer, notre empire Vamos todos juntos ! Que la guerra va a empezar La guerra empezará Como Zapata lo diría Hacer la revolución La victoria reinará Reinará Sortir de la musique comme j'y suis entré, libre Reprendre les livraisons lorsque mon bippeur vibre On déclare ce jeune branleur ivre révolutionnaire Avec le recul, la vérité a dû leur plaire Ils parlent de moi en exemplaire Ils disent que je suis fou Que dans la vie, j'ai fait mon trou Pas besoin de grimper dans leur estime Moi je suis l'homme qui ne valait pas dix centimes Y'a que les morts qui parlent pas Un dernier skeud avant qu'on me fasse sauter le pas Quoi qu'il arrive sur la planète Terre Dans le monde des affaires, le rap, les ministères C'est toujours un gangster qui contrôle l'affaire x2 Vamos todos juntos ! Que la guerra va a empezar La guerra empezará Como Zapata lo diría Hacer la revolución La victoria reinará ReinaráYou might also like</t>
+          <t>Liaisons dangerous Doc Gyneco Si tu savais ce qu'ils pensent des gens de couleur, ma sur ! Y'a pas de fleurs dans mon malheur Pour t'en offrir, je me fais rappeur Pourquoi subir tel un cireur de chaussures ? Pour m'en sortir, je suis conteur de mésaventures Un mec à la recherche d'une femme pure Qui se la raconte pas et qui a de l'allure, c'est sûr Et si toutes les meufs étaient carrées comme Mariah Je fumerais moins, je boirais moins de Bavaria Je combattrais la peste, la malaria J'aurais la Foi comme Mère Teresa Toutes ces promesses gravées sur le cercueil de Lady Di Comme à Dallas pour Kennedy Vous m'aurez pas, j'ai un holster sous mon Teddy Le Pape endort la masse avec des promesses à la messe Laisse, j'encaisse... Vamos todos juntos ! Que la guerra va a empezar La guerra empezará Como Zapata lo diría Hacer la revolución La victoria reinará Reinará Et si, pour percer, bercer les gens de bonne musique Faut signer sur des labels qui ne pensent qu'au fric Je le fais, et si je pouvais je ferais les pubs Qui vont avec les tubes et tu comprendrais comment on t'entube Demande à Virgin si j'ai des copines dans la machine Elle, elle a changé le cours de ma vie C'est des sadiques Je veux le contrôle de mes clips, de ma musique Fonce-dé mais pas te-bê Je suis pas la poule aux disques d'or ni le presse-billet Un coup de rhum vieux et je m'arrache si Dieu le veut J'en ai 23 et Il a des projets pour moi J'ai pas raison de vouloir faire les Liaisons ? Ou t'as peur qu'enfin arrive notre saison ? T'es qu'une balance, un mec comme toi peut suffire A faire sauter tout ce qu'on veut créer, notre empire Vamos todos juntos ! Que la guerra va a empezar La guerra empezará Como Zapata lo diría Hacer la revolución La victoria reinará Reinará Sortir de la musique comme j'y suis entré, libre Reprendre les livraisons lorsque mon bippeur vibre On déclare ce jeune branleur ivre révolutionnaire Avec le recul, la vérité a dû leur plaire Ils parlent de moi en exemplaire Ils disent que je suis fou Que dans la vie, j'ai fait mon trou Pas besoin de grimper dans leur estime Moi je suis l'homme qui ne valait pas dix centimes Y'a que les morts qui parlent pas Un dernier skeud avant qu'on me fasse sauter le pas Quoi qu'il arrive sur la planète Terre Dans le monde des affaires, le rap, les ministères C'est toujours un gangster qui contrôle l'affaire x2 Vamos todos juntos ! Que la guerra va a empezar La guerra empezará Como Zapata lo diría Hacer la revolución La victoria reinará Reinará</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>On prend des risques sur disque, au micro On pose notre discours sur beat disco, miss pointe chez ton disquaire Puisqu'au fond, on veut tous percer l'plafond J'fous d'la forme dans mon fond, mate c'que mes scarlas font Et si ça te parle à fond fous ta radio Et dis aux gosses fous qu'il faut foncer pour ses idéaux Époque silicone, j'sais plus à quel saint m'vouer Sur qui compter quand j'coule ma clique, ma seule bouée Ma famille c'est mes soss', en assoc' pour tout dégommer Gommer, grosse arnaque, gosse paumée, venu pour trôner Le biz du siècle, le casse de la décennie L'occase saisie, l'affaire qui roule pour l'état leucémie La roue a tourné, c'est ma tournée, né-tour avec nous Cours avec ton verre, trinquer, visnétour la journée La nuit on fff, on crrr, des cranes, tchtchi des veaucers Des boulots, déboulons sur Paname, déroulons tout ce que nous voulons Rimes dégueulasses, des histoires de slash sous flash Je t'en donne pendant deux heures gratuites au bash Tu donnes des styles pour poser sur ma compile Tu joues l'hostile, mais y a pas d'zoulettes viriles Rendons le verbe à ceux qui cognent Dur, au-delà des mots, on fera toute la sale besogne J'peux pas mentir aux jeunes, leur dire que j'ai des guns J'veux pas non-plus qu'ils pensent qu'on peut s'en sortir seul Calmes, posés, les miens en veulent Violent dans tes raps, écarte-toi idiot, et ferme ta gueule Y'a pas d'gangsters dans les studios, y a que des grandes gueules ! Il me manque une phase en eule eule eule You might also like C'est une affaire, une affaire de famille Fonder une famille car c'est tout ce qu'on a Viens dans ma famille et tu ne te feras plus jamais karna Tous on veut quéma la musique, le cinéma Tous on a trimé pour sortir de ce putain de coma Ta fête pue la défaite, c'est la victoire d'avance Mais au final à trois on pète ton équipe de France Un coffee shop, une casse, pour mon cop, madame Je cotise pour ma retraite à Amsterdam On monte tellement haut qu'on pourra plus redescendre On monte, on monte, et t'essayes de nous descendre Je sais qui sont les traîtres, on sait qui nous respecte Je sais c'que me réserve l'avenir, les armes sont prêtes C'est une affaire à faire en louzdé, lourdé Les louzes défoncés, rien que du lourd des vrais loups Derrière une louve prête à tout nettoyer jusqu'au bout Il faut que ça brille chez nous, on ché-la rien On préfère laver notre linge en famille C'est une affaire, une affaire de famille Nettoyer l'secteur, je crache ma vision vue d'l'intérieur J'pose une bombe, une spéciale pour ton postérieur Ma tronche en poster, style austère, et personne bronche On explose ta soirée, mes soces, moi et mon verre de punch. Et si on mise c'est pour rectifier les erreurs commises Mon rap guide les lascars comme Moïse sur la terre promise La mouise, ça renforce les liens, et quand la musique sonne Partout les groupies font péter le standard sur nos Ericsson Du succès, on a les clés, mon clan maque les réseaux sur beat musclé vif, à la Cassius Clay, à vif kiffe mon riff pète jusqu'en Haute-Volta Pose ton colt, bouge ton cul, et swingue comme Travolta. J'en place une pour les miens, car la famille y'a que ca qui compte J'en fais mon affaire, et à la surface ma clique remonte Que tous les lascars se bougent, que toutes les meufs remuent leurs fesses Que Dieu bénisse le mic quand Arsenik est dans la pièce Encaisse et danse, laisse tes rrr roule avec mon secteur Allume tes feux, craque l'allumette, fais feu sur le pera Affaire de mifa, te mouilles pas là-dedans, évite ca brille Pas la peine de te faire remarquer, gicle de là, mec te grille pas Te mêle pas de ca, laisse nous foutre le souk On va changer le pera, le disco, même en foutre au souk Arsenik, Doc Gynéco, ca part en vrilles, brillent Les quilles tombent, on s'en bat, c'est une affaire de famille C'est une affaire, une affaire de famille C'est une affaire, une affaire de famille</t>
+          <t>On prend des risques sur disque, au micro On pose notre discours sur beat disco, miss pointe chez ton disquaire Puisqu'au fond, on veut tous percer l'plafond J'fous d'la forme dans mon fond, mate c'que mes scarlas font Et si ça te parle à fond fous ta radio Et dis aux gosses fous qu'il faut foncer pour ses idéaux Époque silicone, j'sais plus à quel saint m'vouer Sur qui compter quand j'coule ma clique, ma seule bouée Ma famille c'est mes soss', en assoc' pour tout dégommer Gommer, grosse arnaque, gosse paumée, venu pour trôner Le biz du siècle, le casse de la décennie L'occase saisie, l'affaire qui roule pour l'état leucémie La roue a tourné, c'est ma tournée, né-tour avec nous Cours avec ton verre, trinquer, visnétour la journée La nuit on fff, on crrr, des cranes, tchtchi des veaucers Des boulots, déboulons sur Paname, déroulons tout ce que nous voulons Rimes dégueulasses, des histoires de slash sous flash Je t'en donne pendant deux heures gratuites au bash Tu donnes des styles pour poser sur ma compile Tu joues l'hostile, mais y a pas d'zoulettes viriles Rendons le verbe à ceux qui cognent Dur, au-delà des mots, on fera toute la sale besogne J'peux pas mentir aux jeunes, leur dire que j'ai des guns J'veux pas non-plus qu'ils pensent qu'on peut s'en sortir seul Calmes, posés, les miens en veulent Violent dans tes raps, écarte-toi idiot, et ferme ta gueule Y'a pas d'gangsters dans les studios, y a que des grandes gueules ! Il me manque une phase en eule eule eule C'est une affaire, une affaire de famille Fonder une famille car c'est tout ce qu'on a Viens dans ma famille et tu ne te feras plus jamais karna Tous on veut quéma la musique, le cinéma Tous on a trimé pour sortir de ce putain de coma Ta fête pue la défaite, c'est la victoire d'avance Mais au final à trois on pète ton équipe de France Un coffee shop, une casse, pour mon cop, madame Je cotise pour ma retraite à Amsterdam On monte tellement haut qu'on pourra plus redescendre On monte, on monte, et t'essayes de nous descendre Je sais qui sont les traîtres, on sait qui nous respecte Je sais c'que me réserve l'avenir, les armes sont prêtes C'est une affaire à faire en louzdé, lourdé Les louzes défoncés, rien que du lourd des vrais loups Derrière une louve prête à tout nettoyer jusqu'au bout Il faut que ça brille chez nous, on ché-la rien On préfère laver notre linge en famille C'est une affaire, une affaire de famille Nettoyer l'secteur, je crache ma vision vue d'l'intérieur J'pose une bombe, une spéciale pour ton postérieur Ma tronche en poster, style austère, et personne bronche On explose ta soirée, mes soces, moi et mon verre de punch. Et si on mise c'est pour rectifier les erreurs commises Mon rap guide les lascars comme Moïse sur la terre promise La mouise, ça renforce les liens, et quand la musique sonne Partout les groupies font péter le standard sur nos Ericsson Du succès, on a les clés, mon clan maque les réseaux sur beat musclé vif, à la Cassius Clay, à vif kiffe mon riff pète jusqu'en Haute-Volta Pose ton colt, bouge ton cul, et swingue comme Travolta. J'en place une pour les miens, car la famille y'a que ca qui compte J'en fais mon affaire, et à la surface ma clique remonte Que tous les lascars se bougent, que toutes les meufs remuent leurs fesses Que Dieu bénisse le mic quand Arsenik est dans la pièce Encaisse et danse, laisse tes rrr roule avec mon secteur Allume tes feux, craque l'allumette, fais feu sur le pera Affaire de mifa, te mouilles pas là-dedans, évite ca brille Pas la peine de te faire remarquer, gicle de là, mec te grille pas Te mêle pas de ca, laisse nous foutre le souk On va changer le pera, le disco, même en foutre au souk Arsenik, Doc Gynéco, ca part en vrilles, brillent Les quilles tombent, on s'en bat, c'est une affaire de famille C'est une affaire, une affaire de famille C'est une affaire, une affaire de famille</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Et voilà le retour du plus fonce-dé de la Clinique Moi Space l'Anesthésiste de la tour de contrôle Avec le Doom Décadent, Doc Gynéco hééééééééé Les sales gosses font leur entrée sur le boulevard Tant attendus par les rates et lascars du tier-quar On pète le champagne, on nique les bénéfices Les 2 schizos ont abandonné la 10 Sur le morceau, les gamins de la cité se baladent Plus fous que jamais, les colt et uzi dans le cab Comme le dit Bruno, y'a que du rap à l'eau Sur toutes les radios, heureusement v'la les sses-go La Clinique, la Clinique cercle vicieux Tu veux mettre une blouse, cela fait partie du jeu Tout n'est pas si facile, tout ne tient qu'à mon style Regarde moi ai-je l'air d'une zoulette qui part en vrille Je suis fou c'est certain, Paris nous appartient Tu peux te garder le soi-disant hip hop Parisien Je prends du gent-ar, j'ai mis ta rate sur le trottoir On ne peut te la rendre, elle nous rapporte des milliards Ne me considère pas comme le pantin du rap actuel Je n'ai pas toujours la virgule au dessus de mes semelles Moi je suis aussi libre que l'air Aussi bien réglé qu'une bombe dans un R.E.R Si t'as pris le train en marche, on te ramène au point de départ La paire de schizos vous coupe le tête en plein sur le boulevard You might also like - Les sales gosses sont dans la place - Tout saigne - Y'a du groove dans la basse - Ça paye - La Clinique est dans la place - Tout saigne - Y'a du groove dans la basse - Ça paie - Les sales gosses sont dans la place - Tout saigne - Y'a du groove dans la basse - Ça paye - La Clinique est dans la place - Tout saigne - Y'a du groove dans la basse Toujours 'chiré, chaque minute défoncé N'invite pas la Clinique à ta putain de soirée Mais quoi qu'il en soit je préfère rester chez moi Le défilé hip hop caille-ra ne m'intéresse pas J'ai la flemmardise de bouger dans les bêtises La capitale est une surface où chaque fois je m'enlise J'aime donner des rendez-vous aux zippos du QG Fumer, fumer, les cônes, les cônes et les rates les lécher Sûrement qu'un de ces jours, on verra ma tête en première page Piégé par les paparazzi en train d'ouvrir une cage D'où sortiront mes lascars par centaines par milliers Une caverne où résident les bandits du quartier La tête dans les vapes, les poings sur la table Les scalpels sont dans les poches, sommes-nous des gens aimables ? Non ! Car je ne veux pas dealer avec le mouvement Comprends que les enfants de la Clinique veulent vivre longtemps Ma vie je la conçois avec des femmes et du fric Ainsi s'achève mon couplet digne d'un môme hystérique - Les sales gosses sont dans la place - Tout saigne - Y'a du groove dans la basse - Ça paye - La Clinique est dans la place - Tout saigne - Y'a du groove dans la basse - Ça paie - Les sales gosses sont dans la place - Tout saigne - Y'a du groove dans la basse - Ça paye - La Clinique est dans la place - Tout saigne - Y'a du groove dans la basse Je ne suis pas là pour appuyer, pour faire exister Tous les mecs du quartier qui s'la racontent rappeurs Ma destinée à moi c'est Ministère A.M.E.R Alors kiffe mon solo et ferme ta gueule négro Je suis aigri comme le pit à Chico J'ai 200 tasspés et 50 unités Je n'fais que serrer et m'la raconter J'ai bluffé des nonnes en pleines prières Moi j'insulte mon père et j'invoque Lucifer J'ai fourré mon doigt dans ton intimité Écarte les cuisses si tu veux apprécier Ne viens pas chercher le plus grand chien du quartier J'ai déjà piqué toutes les chiennes enragées Remonte ton froc quand tu sors du studio Pantin pour promo, MC rap à l'eau Laisse-moi passer, je suis chiré, je suis foncedé Le rap part en couilles et je lui prête mes boules Moi j'ai le manche et c'est ma femme qui roule Même à l'envers si tu n'sais pas l'faire Mon enfant va naître et le Doc en est fier Si tu veux pécho, viens voir Gynéco Mon grossiste est Virgin achète en kilos - Les sales gosses sont dans la place - Tout saigne - Y'a du groove dans la basse - Ça paye - La Clinique est dans la place - Tout saigne - Y'a du groove dans la basse - Ça paie - Les sales gosses sont dans la place - Tout saigne - Y'a du groove dans la basse - Ça paye - La Clinique est dans la place - Tout saigne - Y'a du groove dans la basse3</t>
+          <t>Et voilà le retour du plus fonce-dé de la Clinique Moi Space l'Anesthésiste de la tour de contrôle Avec le Doom Décadent, Doc Gynéco hééééééééé Les sales gosses font leur entrée sur le boulevard Tant attendus par les rates et lascars du tier-quar On pète le champagne, on nique les bénéfices Les 2 schizos ont abandonné la 10 Sur le morceau, les gamins de la cité se baladent Plus fous que jamais, les colt et uzi dans le cab Comme le dit Bruno, y'a que du rap à l'eau Sur toutes les radios, heureusement v'la les sses-go La Clinique, la Clinique cercle vicieux Tu veux mettre une blouse, cela fait partie du jeu Tout n'est pas si facile, tout ne tient qu'à mon style Regarde moi ai-je l'air d'une zoulette qui part en vrille Je suis fou c'est certain, Paris nous appartient Tu peux te garder le soi-disant hip hop Parisien Je prends du gent-ar, j'ai mis ta rate sur le trottoir On ne peut te la rendre, elle nous rapporte des milliards Ne me considère pas comme le pantin du rap actuel Je n'ai pas toujours la virgule au dessus de mes semelles Moi je suis aussi libre que l'air Aussi bien réglé qu'une bombe dans un R.E.R Si t'as pris le train en marche, on te ramène au point de départ La paire de schizos vous coupe le tête en plein sur le boulevard - Les sales gosses sont dans la place - Tout saigne - Y'a du groove dans la basse - Ça paye - La Clinique est dans la place - Tout saigne - Y'a du groove dans la basse - Ça paie - Les sales gosses sont dans la place - Tout saigne - Y'a du groove dans la basse - Ça paye - La Clinique est dans la place - Tout saigne - Y'a du groove dans la basse Toujours 'chiré, chaque minute défoncé N'invite pas la Clinique à ta putain de soirée Mais quoi qu'il en soit je préfère rester chez moi Le défilé hip hop caille-ra ne m'intéresse pas J'ai la flemmardise de bouger dans les bêtises La capitale est une surface où chaque fois je m'enlise J'aime donner des rendez-vous aux zippos du QG Fumer, fumer, les cônes, les cônes et les rates les lécher Sûrement qu'un de ces jours, on verra ma tête en première page Piégé par les paparazzi en train d'ouvrir une cage D'où sortiront mes lascars par centaines par milliers Une caverne où résident les bandits du quartier La tête dans les vapes, les poings sur la table Les scalpels sont dans les poches, sommes-nous des gens aimables ? Non ! Car je ne veux pas dealer avec le mouvement Comprends que les enfants de la Clinique veulent vivre longtemps Ma vie je la conçois avec des femmes et du fric Ainsi s'achève mon couplet digne d'un môme hystérique - Les sales gosses sont dans la place - Tout saigne - Y'a du groove dans la basse - Ça paye - La Clinique est dans la place - Tout saigne - Y'a du groove dans la basse - Ça paie - Les sales gosses sont dans la place - Tout saigne - Y'a du groove dans la basse - Ça paye - La Clinique est dans la place - Tout saigne - Y'a du groove dans la basse Je ne suis pas là pour appuyer, pour faire exister Tous les mecs du quartier qui s'la racontent rappeurs Ma destinée à moi c'est Ministère A.M.E.R Alors kiffe mon solo et ferme ta gueule négro Je suis aigri comme le pit à Chico J'ai 200 tasspés et 50 unités Je n'fais que serrer et m'la raconter J'ai bluffé des nonnes en pleines prières Moi j'insulte mon père et j'invoque Lucifer J'ai fourré mon doigt dans ton intimité Écarte les cuisses si tu veux apprécier Ne viens pas chercher le plus grand chien du quartier J'ai déjà piqué toutes les chiennes enragées Remonte ton froc quand tu sors du studio Pantin pour promo, MC rap à l'eau Laisse-moi passer, je suis chiré, je suis foncedé Le rap part en couilles et je lui prête mes boules Moi j'ai le manche et c'est ma femme qui roule Même à l'envers si tu n'sais pas l'faire Mon enfant va naître et le Doc en est fier Si tu veux pécho, viens voir Gynéco Mon grossiste est Virgin achète en kilos - Les sales gosses sont dans la place - Tout saigne - Y'a du groove dans la basse - Ça paye - La Clinique est dans la place - Tout saigne - Y'a du groove dans la basse - Ça paie - Les sales gosses sont dans la place - Tout saigne - Y'a du groove dans la basse - Ça paye - La Clinique est dans la place - Tout saigne - Y'a du groove dans la basse3</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Passi au micro et mes mots sont flow Le son au niveau, mon rap est réglo Ma voix est lourde, mon style est pro Je suis le Double S, le numero uno dans le Calcio Promo, télé, radio terreau Peu importe, je reviens et m'exporte J'force tes portes, c'est la fête, l'ambiance est forte Ils fixent, je mixe sans oublier mes risques Pour ce monceau de risque, comme du Vicks 91, premier disque, première part dans les bacs Je deale l'artistique, tu craques sur ma musique Tac Après l'diagnostic et beaucoup d'critiques Tac Les journalistes tiquent et les syndicats Tac Tic tac tic tac, ma tactique c'est l'attaque Tac Ouais ouais, j'ai pour habitude d'être posé Comme Tyson, je suis du circuit des jeux, des jambes et des mots amers J'en ai des tonnes dans mon vestiaire J'éduque de toutes façons le rap et la boxe c'est comme du uc' Toujours direct droite, démarré pour déchirer Ok c'est bon, éclate-toi sur mon son Quoi qu'on dise, quoi qu'on fasse Laisse-les parler, j'suis toujours en place You might also like Est-ce que ça l'fait ? Ouais, ouais Faut qu'ça l'fasse, j'suis en place Laisse-moi passer, j'suis chiré, j'suis foncedé Laisse-moi passer, c'est à moi de donner J'suis le Doc Gyneco, j'suis le mec en gue-vo Le mec à la de-mo dont elles sont toutes accrocs Pas que des mots, elles kiffent mes jeux d'mots Et mon numéro, je le donne à toutes dans... Viens voir... Oh tu connais la suite, nan ? N'aie pas peur en créole Mwen ka baw ca kon ca pa ni pon bawawaw ! Doc Gyneco, kame te ça en shoua waw ! Doc Gyneco, oui je l'nais-co Oui tu l'nais-co, c'est l'gosse-bo qui lè-lè-lè-lè-lèche la feuille à rouler J'la lè-lè-lè-lèche car j'aime la fumer Tu sais qui a tué ouais, tu sais qu'j'ai flambé ouais Que j'ai donné des tonnes de styles ouuuuais Est-ce que ça l'fait ? Ouais, ouais Faut qu'ça l'fasse, j'suis en place En place, toujours en place Les patrons du rap montent en première classe À l'aise sur nos chaises, oui on pèèèèèze Et sur ce son, on te baaaaaise En place, comme Vegeta le Super Guerrier de l'Espace J'ai mauvaise réputation et un cur de glace Écoute ces feelings, prends tous ces ding-ding Ça te rend dingue-dingue mais ne sors pas ton flingue Pom Pom ! Double S pour Gyneco sur son premier album Pour toutes les métropoles-poles et pour les DOM-TOM ISSAP Kaméhamé-Ok comme Sangoku sur Sega, faya ! Dans le rap, augmente mon aura Là j'décolle, ton esprit j'cambriole T'en perds la boussole comme dans une chirée d'alcool Bourré M.A. Sol, tu connais mon symbole Est-ce que ça l'fait ? Ouais, ouais Faut qu'ça l'fasse, j'suis en place En place, quoi qu'il se passe Nous sommes toujours en place En place, quoi qu'il se passe Nous sommes toujours en place Passi, Gyneco, toujours en place Toujours en place Quoi qu'il se passe Nous sommes toujours en place</t>
+          <t>Passi au micro et mes mots sont flow Le son au niveau, mon rap est réglo Ma voix est lourde, mon style est pro Je suis le Double S, le numero uno dans le Calcio Promo, télé, radio terreau Peu importe, je reviens et m'exporte J'force tes portes, c'est la fête, l'ambiance est forte Ils fixent, je mixe sans oublier mes risques Pour ce monceau de risque, comme du Vicks 91, premier disque, première part dans les bacs Je deale l'artistique, tu craques sur ma musique Tac Après l'diagnostic et beaucoup d'critiques Tac Les journalistes tiquent et les syndicats Tac Tic tac tic tac, ma tactique c'est l'attaque Tac Ouais ouais, j'ai pour habitude d'être posé Comme Tyson, je suis du circuit des jeux, des jambes et des mots amers J'en ai des tonnes dans mon vestiaire J'éduque de toutes façons le rap et la boxe c'est comme du uc' Toujours direct droite, démarré pour déchirer Ok c'est bon, éclate-toi sur mon son Quoi qu'on dise, quoi qu'on fasse Laisse-les parler, j'suis toujours en place Est-ce que ça l'fait ? Ouais, ouais Faut qu'ça l'fasse, j'suis en place Laisse-moi passer, j'suis chiré, j'suis foncedé Laisse-moi passer, c'est à moi de donner J'suis le Doc Gyneco, j'suis le mec en gue-vo Le mec à la de-mo dont elles sont toutes accrocs Pas que des mots, elles kiffent mes jeux d'mots Et mon numéro, je le donne à toutes dans... Viens voir... Oh tu connais la suite, nan ? N'aie pas peur en créole Mwen ka baw ca kon ca pa ni pon bawawaw ! Doc Gyneco, kame te ça en shoua waw ! Doc Gyneco, oui je l'nais-co Oui tu l'nais-co, c'est l'gosse-bo qui lè-lè-lè-lè-lèche la feuille à rouler J'la lè-lè-lè-lèche car j'aime la fumer Tu sais qui a tué ouais, tu sais qu'j'ai flambé ouais Que j'ai donné des tonnes de styles ouuuuais Est-ce que ça l'fait ? Ouais, ouais Faut qu'ça l'fasse, j'suis en place En place, toujours en place Les patrons du rap montent en première classe À l'aise sur nos chaises, oui on pèèèèèze Et sur ce son, on te baaaaaise En place, comme Vegeta le Super Guerrier de l'Espace J'ai mauvaise réputation et un cur de glace Écoute ces feelings, prends tous ces ding-ding Ça te rend dingue-dingue mais ne sors pas ton flingue Pom Pom ! Double S pour Gyneco sur son premier album Pour toutes les métropoles-poles et pour les DOM-TOM ISSAP Kaméhamé-Ok comme Sangoku sur Sega, faya ! Dans le rap, augmente mon aura Là j'décolle, ton esprit j'cambriole T'en perds la boussole comme dans une chirée d'alcool Bourré M.A. Sol, tu connais mon symbole Est-ce que ça l'fait ? Ouais, ouais Faut qu'ça l'fasse, j'suis en place En place, quoi qu'il se passe Nous sommes toujours en place En place, quoi qu'il se passe Nous sommes toujours en place Passi, Gyneco, toujours en place Toujours en place Quoi qu'il se passe Nous sommes toujours en place</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Adidas, gants blancs, ho oui t'étais classe Le roi du smurf, c'était toi l'as des as Pour vingt francs l'entrée, la vie était belle Tous tes dimanches après-midi c'était La grange aux belles Au temps du Globo, tu tournais sur le dos Et moi Bruno, je me prenais pour Zico Tu dépouillais des doudounes et des casquettes Moi j'évitais les tacles et marquais d'une pichenette Pendant que tu salissais les murs à coups de graffitis Moi je tentais le coup franc magique de Michel Platini La carte d'Afrique autour du cou A fait de toi un vrai zoulou Si Afrika Bambataa te l'a mis dans le baba Moi j'ai encore la foi en Diego Maradona T'as rangé ton marqueur et tes bombes de peinture Car le phénomène de mode est passé à tout allure Je ne suis pas un charlatan de l'ancienne école Encore moins un zoulou de la nouvelle ras le bol Arrêtez de lui prendre la tête Arrêtez de jouer vos zoulettes Y'a que du rap à l'eau sur toutes les radios Classez-le dans la variet' You might also like Je me moque du hip-hop, ce n'est pas ma dope Je suis le type au top qui te critique non-stop Je me fous de la nation Zoulou Je ne sais pas danser ta hype, ni ta gogo La seule danse que je connais, c'est la danse des canards Qui en sortant de la mare, se secouent le bas des reins En faisant coin coin. T'aimes les Américains Tu copies leur attitude et leurs manières rudes, mec T'es abruti par MTV, Nike, Cross Colours et Karl Kani Si la variet' te prend la tête, moi dessus je fais la fête Et je pense que tes conquêtes s'éclatent sur mes chansonnettes Et dans les bacs de la Fnac Aux cotés des productions AB tu pourras me trouver Car je préfère être classé dans la variet' Arrêtez de lui prendre la tête Arrêtez de jouer vos zoulettes Y'a que du rap à l'eau sur toutes les radios Classez-le dans la variet' Classez classez classez classez-moi dans la variet' Classez classez classez classez-moi dans la variet' Oui je sais je me répète mais classez-moi dans la variet' Jette un il sur les States, c'est d'être hardcore la meilleure variet' Plus tu dis de fuck et de bitch dans tes textes Plus tu vends de disques et deviens une vedette Le rappeur gangsta tue devant les caméras Et regagne sa villa en Porsche Carrera Tes états d'âmes sont pour moi, comme les États d'Amérique Copieur... Arrêtez de lui prendre la tête Arrêtez de jouer vos zoulettes Y'a que du rap à l'eau sur toutes les radios Classez-le dans la variet'</t>
+          <t>Adidas, gants blancs, ho oui t'étais classe Le roi du smurf, c'était toi l'as des as Pour vingt francs l'entrée, la vie était belle Tous tes dimanches après-midi c'était La grange aux belles Au temps du Globo, tu tournais sur le dos Et moi Bruno, je me prenais pour Zico Tu dépouillais des doudounes et des casquettes Moi j'évitais les tacles et marquais d'une pichenette Pendant que tu salissais les murs à coups de graffitis Moi je tentais le coup franc magique de Michel Platini La carte d'Afrique autour du cou A fait de toi un vrai zoulou Si Afrika Bambataa te l'a mis dans le baba Moi j'ai encore la foi en Diego Maradona T'as rangé ton marqueur et tes bombes de peinture Car le phénomène de mode est passé à tout allure Je ne suis pas un charlatan de l'ancienne école Encore moins un zoulou de la nouvelle ras le bol Arrêtez de lui prendre la tête Arrêtez de jouer vos zoulettes Y'a que du rap à l'eau sur toutes les radios Classez-le dans la variet' Je me moque du hip-hop, ce n'est pas ma dope Je suis le type au top qui te critique non-stop Je me fous de la nation Zoulou Je ne sais pas danser ta hype, ni ta gogo La seule danse que je connais, c'est la danse des canards Qui en sortant de la mare, se secouent le bas des reins En faisant coin coin. T'aimes les Américains Tu copies leur attitude et leurs manières rudes, mec T'es abruti par MTV, Nike, Cross Colours et Karl Kani Si la variet' te prend la tête, moi dessus je fais la fête Et je pense que tes conquêtes s'éclatent sur mes chansonnettes Et dans les bacs de la Fnac Aux cotés des productions AB tu pourras me trouver Car je préfère être classé dans la variet' Arrêtez de lui prendre la tête Arrêtez de jouer vos zoulettes Y'a que du rap à l'eau sur toutes les radios Classez-le dans la variet' Classez classez classez classez-moi dans la variet' Classez classez classez classez-moi dans la variet' Oui je sais je me répète mais classez-moi dans la variet' Jette un il sur les States, c'est d'être hardcore la meilleure variet' Plus tu dis de fuck et de bitch dans tes textes Plus tu vends de disques et deviens une vedette Le rappeur gangsta tue devant les caméras Et regagne sa villa en Porsche Carrera Tes états d'âmes sont pour moi, comme les États d'Amérique Copieur... Arrêtez de lui prendre la tête Arrêtez de jouer vos zoulettes Y'a que du rap à l'eau sur toutes les radios Classez-le dans la variet'</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Fais-moi voir ton côté intelectuel J'veux pas voir ton cul mais ton QI Pourquoi tu mets des bas résilles sur ton cerveau ? J'fais du gyneco, pas d'la philo T'es l'gars devant la porte qu'essaie de rentrer Tu connais même pas leurs codes Même si t'as l'dress-code, ils vont te bloquer Ta date de naissance, le nom d'ta belle-mêre Essaie tous les chiffres que tu connais Mais sache que la porte ne s'ouvrira jamais Et si tu t'demandes comment j'suis rentré J'ai juste poussé la porte, t'as oublié d'essayé J'ai pas d'problèmes avec Gavalda Mais j'mets pas d'science dans mon peu-Ra J'fais partie des gens simples et j'réfléchis pas Fais un voyage d'étude à BLC, dans la zone 4, aux Michelettes De la droiture avant l'cash, quand la vie t'rend muet Mon nom sur une vitre embuée avant l'crash de la voiture C'est comme ça qu'j'vois le Rap une écriture insignifiante Avant qu'on parte, le dernier cri d'une jeunesse édifiante Personne t'explique la vie, c'est un chemin introspectif L'unique défi, schéma atroce Une ligne de fuite pour perspective d'avenir Nos vies sont crades donc on défonce notre crâne Et plus j'connais la musique, plus j'aime les fausses notes Ce soir, ça part en impro, parait qu'ça kicke pas mal Comme Doc Gyneco, j'veux atteindre le nirvana Ouais, mon gars, tu sais bien, c'est pour les tiques-fana Mais surtout pour les frères qui sont là depuis l'début, là-bas Ceux qui écoutent depuis Paname, qui mettent pas de soupape C'est l'tou-bab toujours coupable, tu vois bien qu'tout part Tout l'monde parle de ça, tout l'monde parle de nous C'est comme ça qu'ça s'passe, j'arrive à pas de loup Afflelou comme Alph Lau', c'est comme ça qu'ça s'passe On a l'flow, on a le Ralph Lau', vas-y, Doums, balance le flow OK, on balance ça avec le popo Rien à foutre de tous ces pédés, nique la po-po -lice, j'arrive avec mes gars, on est posés àl Pour l'album de Nekfeu, on crache weed et flammes Que aç avec mes gars laxistes Pourquoi tu veux nous tester, négro, là ? Oui, j'insiste Pour te dire que c'est le fire, putain, oui, c'est trop dar On est des mecs de Paname, t'inquiète qu'on a la flamme Olympique, on baise ces pitres, rien à foutre de ces bitchs J'arrive avec mes gars et j'te rackette depuis les Pitch's Fucked up, j'en place pour mes gavas du 9 Qui va kicker ça ? Vas-y, balance ça, mon reuf J'ai le flow embrumé, en plus, j'suis enrhumé On vient pas pour t'entuber, le studio est enfumé Car y'a Doums et y'a Doc Gyneco, c'est bon ça C'est pour tous les mecs qui nnait-co, c'est comme ça C'est comme ça qu'on l'fait, on a les codes, fuck l'école Fuck les cops quand ils sont pas sympas C'est comme ça qu'ça s'passe sur l'instru Framal, j'sens qu't'es prêt à partir, c'est l'départ Fais ça vite comme un guépard, yeah Hé, putain, j'suis chire-dé, j'suis fonce-dé Qu'est-ce qu'tu demandes de faire ? A cette heure-ci, putain, j'sais pas quoi faire On m'appelle Doc alors j'vais t'mettre à l'heure Mais t'es mon petit frère alors je t'aime et j'te parle avec le cur Putain, les phrases elles sont longues J'arrive à débiter mais j'sais pas quoi t'dire J'ai pas assez d'feuilles longues et j'peux pas fumer Merde, putain, vous êtes sûrs que j'peux pas donner ? Oh, et puis j'donne à l'ancienne, on dirait Lionel D Fuck ton crew, sale pédale, ça bouge ap T'es tout naze, écoute, ça fait breh ! Rien qu'on fait des classiques, S-Crew, le nom d'mon gang Y'a que dans l'ombre qu'on tranche pour pas finir aux assises Souvent dans un camouflage vert kaki L'ambiance est pourave, y'a des toux grasses ça vi-ser d'la weed Ici, tu perds ta vie, on t'nique ta mère à 6 Une bonne paire de Nike Air dans la tête, c'est facile Le leust est entouré donc on fait ça à notre manière Bientôt le L est en tournée donc prenez garde à vos arrières Bitch ! Et toi, dis moi pourquoi tu causes On est au festival de Cannes, toi, tu traînes à la Foire du Trône Comme l'Homme de l'Est, j'attends l'apocalypse Je profite avant qu'on m'refroidisse, avant qu'ma peau palisse Dans mon ciboulot, j'suis mitigé, oui, si j'ai un petit boulot Un salaire, j'irais prendre l'air même si j'vivais ma vie sous l'eau Le Rap me dégoûte comme les pires aspects des filles gâtées J'vais vite gratter malgré que j'dérive, là, mais j'déprime jamais Les vices cachés des miss fâchées, ça entraine des vies gâchées Dédicacer des petites tasses-pé ? Autant caner déshydraté Ma vie d'avant, merde ! J'peux pas la quitter Zer-2 va rappliquer, faire de l'art appliqué J'vais devoir jouer les crevards, plus qu'deux lattes à tirer Tous maladifs, touche pas la mif' ou j'vais te ratatiner Faut que j'devienne légendaire, que j'éclaire les lanternes mais Ici, c'est l'enfer depuis qu'j'vois mes frères s'faire enfermer Nique le système carcéral, j'ai pris flemme de passer àl Je préféré les décibels et puis les péritels des caméras Ne m'colle pas d'étiquette, j'bicrave des citernes de came hélas J'baise les fliquettes, éviscère des criquets de chaque tié-quar Nous allons nous équiper comme les p'tits mecs des favelas Le ballon, j'l'ai esquivé, j'ai fait vibrer des tas d'pétasses Wesh kafass ? Moi, j'froisse des spliffs La poisse m'esquive, j'suis la poussière dans l'mauvais il Tous les yeux m'guettent, à croire que j'm'exhibe Bandes de sales vermines, que pourrez-vous faire quand j'aurai l'seum ? Nada, ça va trouer des schnecks Et puis clouer des becs, t'es dégouté, t'es dèf Venez gouter mes textes, allez, courez les mecs Ca va couper des têtes, tout est prétexte à jouer les chefs Ouais, masquez vos pulsions, j'viens pas rouler des pelles Dans l'trou de tes fesses j'fait ma révolution Je suis ce shaolin intégrant le Rap aux arts martiaux Quand t'es déjà au lit, transformant le cro-mi en arme d'acier Que celui qui parle de la vie des autres regarde la sienne Trop d'astreintes, on passe plus de temps A s'plaindre qu'à remercier, que Dieu m'pardonne Dans la vie aucun format simple, mes reufs à l'instinct carnassier Vendent plus de drogue qu'un pharmacien J'ai qu'l'envie d'karna ces mêmes clones Coulée dhémoglobine, le mic' s'tache Un texte de Mac de mon clan clean Pendant qu'les mecs s'touchent Ça peut ler-par mon premier flow s'appelait placentas Je sors du sas et rentre dans l'south quand mon soss' place un tag Teubé sors ton nez d'la poudre J'suis un peu désordonné mais rien à tref' des ordres donnés J'entends que des remarques, personne le fait mieux, à part ça On m'appelle Dead Man, A.K.A le vieux bâtard sale On a pas d'manager et l'équipe fait sa com', ça-comme On a pas d'mal à gérer, c'est toujours 5050, ça cogne, ça cogne C'est comme quand les keufs courent te rattraper Le juge goûtera la joie quand, toi, tu goûteras ta peine Quelques gouttes de Rap, à peine Sauf que maintenant, c'est plus des essais On peut conclure en ce sens qu'la concurrence pue des aisselles Que faire de plus, gars ? À part les effacer Yo, sucez moi bien jusqu'à, la paralysie faciale ×2 T'es le boss de qui ? T'es le boss de quoi ? Tu te prends pour qui ? Tu te prends pour quoi ? Pourquoi tu tires ? Ici, ça tire Alors rentre chez 'oit c'est l'son du ghetto Et si tu connais pas mon blaze, c'est B.2O.Z.2O Si y'a d'la monnaie j'suis chaud, y'aura pas besoin d'me ffer-chau J'aime pas les fachos, veulent voir les blacks au cachot , c'est trop chaud mais, moi, j'suis dans l'pochon Je te ferai pas l'amour, bitch, t'as les pieds de cochon Le jour où je vais prendre du gallon Mes deux bras seront trop longs, frelon, j'vais ramener des ballons C'est pour mes gars sûrs et certains Bakary 93.150, on a des couilles en béton , j'lui montre ma tête de python Des billets violets dans un putain d'sac Louis Vuitton Rien à foutre même si ils ont débranché la table Faut pas déranger madame, faut pas mélanger la came C'est comme ça qu'ça s'passe, j'ai un truc macabre J'dis n'importe quoi pour gagner du temps car y'a blanco C'est comme ça qu'ça s'passe, c'est pour les gars de Blankok Tu vas bouncer jusqu'à Bangkok, t'sais, quand mon gang cogne C'est comme un gomme-cogne comme à Boston Retour des shinobis mais crois pas que c'est l'fric notre pilier J'compte plus les rivaux pliés encore immobiles On a acquis notre biz comme Nino B., Jack City Faut qu'on s'lance dans l'immobilier, faut qu'on multiplie nos billes Crois qu'les paillettes et les strass' vont aliéner mes srhabs Ils trouvent mes alliés détestables Ils s'disent Ça y est, c'est des stars On passe à base de tasses calientes, slash, variétés d'sapes On confond plus les Cayenne et les Smart Très vite, les bitchs voient que j'évite les filles d'joie J'effrite et puis j'bois, si l'ennemi s'précise Très vite l'équipe s'équipe, méfie-toi On fait l'beurre, on intercepte le cash, ton espèce De garce veut réchauffer mon cur et mon zgeg de glace On laissera les archives, ouais, Phaal gifle J'envoie les dragées, j'les laisse à l'état léthargique Trop d'écart j'les calcine, les garces s'écartent vite On est classes, on te-cla les gares-ci J'appelle ta pétasse Bécassine Oublie la paix, kho, on monte de 0 à 100 Verse pour les frérots absents pendant l'apéro J'ai la conscience qui part en couille, tu vas galérer pour m'cerner Regarde le diable partir en douce avant qu'tu t'enfonces dans le gouffre J'te regarde, t'as vraiment pas de fouf et j'me sens pas concerné J'ai vu des guesh en pleine se-cri, c'est par le nez qu'ils gerbaient Petit message pour toi raciste avec ta face d'alien Tu veux nous briser, maitriser, enculé d'ta race aryenne Regarde-moi Marianne, putain, non, je n'vais pas chipoter Ton pays m'rend toxico, t'es bien la pire des home sweet home La vie n'est pas un roman, tout s'accumule comme des briques donc tu laisses place à l'arrogance Le soir tu veilles, tu parles à ta 'teille, tu dragues dans ta tête T'espères la fortune de Karl Lagarfeld, c'est le carnage infernal Bien évidemment, cela va faire mal, j'en perds ma rancur comme le but de mon exercice On n'fait qu'm'exorciser pour qu'je m'éclaircisse Tu veux tester mes salauds, ça fait bang, genre saloon Frère, si je t'allume c'est que j'suis prêt pour l'salut T'es pas d'la mif, parle-moi biff ou parle-moi d'profit Dix kilos d'weed, un kilo d'shit, le tout sera blanchi On fume le matos, mes vatos vont tuer ces rappeurs Ça sera du gâteau comme rotte-ca le XXX de l'éducateur A bord d'une Merco Benz, vitres teintées, grosse boisson C'est la moisson, les mousseux sont d'sortie, ouais Rentre dans le VIP si tu veux changer de vie Si tu rentres dans le lit, sache qu'on rentre dans le mille J'suis un hot nigga Mes gavas derrière oim ne craignent que God, nigga Mon équipe pète les scores pendant qu'tu t'fichas, kho Rebeu, renois, babtous, chicanos Tes négros softs ont des chichas roses Suffit pas d'pomper tous les rappeurs de Chicago Bien souvent, c'est pour une poule que démarre un combat d'coq A Paname, ça s'embrouille autour d'une boite duf Si t'as l'moral dans l'zen, sache que je l'ai dans la poche mon boule, j'me confesse sur la prod Man, c'est D6 le barge Toujours posé fonce-dé dans ton canap' quand la pénombre se cache Un moment d'colère face à c'monde de lâche On dit qu'le vent l'emporte mais je ne suis qu'un rocher Resté accroché à un moule façonné par lÉlysée Pour eux, nous sommes des poules prêtes à s'faire plumer J'survis devant 2012, j'vis l'enfer C'est sur la Seine que les premières lueurs du matin déteignent L'humanité meurt depuis qu'on a quitté l'Jardin d'Éden On a le rêve dans le cur, le cauchemar dans les veines Mais plus je monte et plus j'm'identifie à Martin Eden Moi, j'suis un babtou à part j'vois plein de babtous pompeux Mais sache que les babtous comme moi N'aiment pas les babtous comme eux Surtout quand les babtous ont peur Tout l'monde m'invite dans les plans Fils de pute, bien sûr qu'c'est plus facile pour toi quand t'es blanc Les riches font partie des plus radins dans cet empire de piranhas Parfois, j'reconnais même plus ma patrie comme mon pote Iranien T'oublies tout tellement tu rappes, hein, obligé d'se mentir un peu Du genre si jamais j'mets c'panier du premier coup, tout ira bien J'ai jamais tté-gra, t'as rien quand tu taffes peu Il m'faut un casque intégral J'vais braquer l'industrie comme les Daft Punk J'ai la rage d'un animal, cannibale, poto, j'manie l'mic Mais j'suis resté sur l'carreau Comme une chemise de Charles Ingalls J'garde la foi comme Abidal, hélas, le cash est capital Rebeu, la carte bleu c'est la seule carte qui soit vitale Bah ouais, j'ai eu des bonnes notes sans ter-chan Trempé dans de sales affaires, j'ai eu mon bac en séchant J'péra c'est embêtant, j'aime pas danser j'suis lancé dans La vie, tout l'monde peut s'en sortir, j'veux juste lui rentrer dedans Car j'ai grandi à Aulnay-Sous, Emmaüs la favelas On nique les chevaliers, qu'ils soient d'la rue ou d'Athéna Compte pas sur nous pour parler quand les schtars débarquent Pas d'messes basses, les keufs tournent, silence des cathédrales J'ai compris qu'les faux potes et l'honneur font bande à part Quand la haine, l'amour et la jalousie font des plans à trois J'donne plus d'amour à la rue, elle m'le rendra pas Comment faire partie des meubles Sans finir dans un grand placard ? Dans l'peu-Ra, trop d'suceurs qui m'foutent le seum Fermez vos gueules, si on est cheum, vous êtes tous plus cheum J'suis ce jeune parisien, américain dans l'état d'esprit Prends rendez-vous avec ton médecin légiste Ici, en plus des gouttes de pluie, souvent les coups pleuvent Mon crew est fait de vrais amis, à ton avis Pourquoi les putes se retrouvent toutes seules ? J'écris des rimes, j'envoie des torgnoles de malade Et pourtant, j'ai pas lu d'livre depuis TomTom Nana J'sors du Mordor de Paname, viens la bonne drogue est par là Une grosse pensée à nos proches pour qui l'horloge s'emballa Moi, j'suis debout, au-dessus d'moi, je vois voler les corbeaux J'ai besoin de joindre les deux bouts avant d'recoller les morceaux Tu mets des coups d'épée dans l'eau, l'affreux, on s'propage Prépare tes adieux, on fout le feu comme des Ghostriders Il faut que toutes les mains se lèvent haut Rimes façon West Coast, Gangsta à la Death Row On fuck les ennemis, miskine, ils se croient peut-être drôles Ça cartonne comme au rallye, on cartonne même sans khaliss Mes alliés se rallient, mental de patron On ne dit pas pardon, y'a que comme ça que tu seras libre Si j'tombe à Fleury, c'est qu'y a un beau million à prendre Ou qu'y a une tombe à fleurir, les tes-trai vont prendre des pralines J'ai pas vu d'boulot tendre Faut prendre pas l'9ar9ob face à la drogue Ils ont la boule au ventre, on a des abdos Les traitres sont de vraies balances Wesh, mais tétais dla bande, ouais, ouais, ouais... Faut quon tsaigne avant qutu mènes la danse Lami est éphémère, yen a qui parlent derrière ton dos Yen a même qui tbaisent et prennent ton cash, bellek, mon soss Putain de merde ! Cest quoi ce délire de faire Le soss et voler dans les mêmes dièses, oser se dire deux frères ? Tous hypocrites, les gens thypnotisent Leurs masques cachent leurs émotions et se disent trop vif Yen a qui servent du charme et te font croire à des rêves dars Et yen a qui tcachent des choses, et ouais, pour pas te faire mal Trop dacteurs, de squatteurs, de bâtards, de gratteurs de biff Faut des valeurs, le malheur tarrache la peur de vivre You might also like</t>
+          <t>Fais-moi voir ton côté intelectuel J'veux pas voir ton cul mais ton QI Pourquoi tu mets des bas résilles sur ton cerveau ? J'fais du gyneco, pas d'la philo T'es l'gars devant la porte qu'essaie de rentrer Tu connais même pas leurs codes Même si t'as l'dress-code, ils vont te bloquer Ta date de naissance, le nom d'ta belle-mêre Essaie tous les chiffres que tu connais Mais sache que la porte ne s'ouvrira jamais Et si tu t'demandes comment j'suis rentré J'ai juste poussé la porte, t'as oublié d'essayé J'ai pas d'problèmes avec Gavalda Mais j'mets pas d'science dans mon peu-Ra J'fais partie des gens simples et j'réfléchis pas Fais un voyage d'étude à BLC, dans la zone 4, aux Michelettes De la droiture avant l'cash, quand la vie t'rend muet Mon nom sur une vitre embuée avant l'crash de la voiture C'est comme ça qu'j'vois le Rap une écriture insignifiante Avant qu'on parte, le dernier cri d'une jeunesse édifiante Personne t'explique la vie, c'est un chemin introspectif L'unique défi, schéma atroce Une ligne de fuite pour perspective d'avenir Nos vies sont crades donc on défonce notre crâne Et plus j'connais la musique, plus j'aime les fausses notes Ce soir, ça part en impro, parait qu'ça kicke pas mal Comme Doc Gyneco, j'veux atteindre le nirvana Ouais, mon gars, tu sais bien, c'est pour les tiques-fana Mais surtout pour les frères qui sont là depuis l'début, là-bas Ceux qui écoutent depuis Paname, qui mettent pas de soupape C'est l'tou-bab toujours coupable, tu vois bien qu'tout part Tout l'monde parle de ça, tout l'monde parle de nous C'est comme ça qu'ça s'passe, j'arrive à pas de loup Afflelou comme Alph Lau', c'est comme ça qu'ça s'passe On a l'flow, on a le Ralph Lau', vas-y, Doums, balance le flow OK, on balance ça avec le popo Rien à foutre de tous ces pédés, nique la po-po -lice, j'arrive avec mes gars, on est posés àl Pour l'album de Nekfeu, on crache weed et flammes Que aç avec mes gars laxistes Pourquoi tu veux nous tester, négro, là ? Oui, j'insiste Pour te dire que c'est le fire, putain, oui, c'est trop dar On est des mecs de Paname, t'inquiète qu'on a la flamme Olympique, on baise ces pitres, rien à foutre de ces bitchs J'arrive avec mes gars et j'te rackette depuis les Pitch's Fucked up, j'en place pour mes gavas du 9 Qui va kicker ça ? Vas-y, balance ça, mon reuf J'ai le flow embrumé, en plus, j'suis enrhumé On vient pas pour t'entuber, le studio est enfumé Car y'a Doums et y'a Doc Gyneco, c'est bon ça C'est pour tous les mecs qui nnait-co, c'est comme ça C'est comme ça qu'on l'fait, on a les codes, fuck l'école Fuck les cops quand ils sont pas sympas C'est comme ça qu'ça s'passe sur l'instru Framal, j'sens qu't'es prêt à partir, c'est l'départ Fais ça vite comme un guépard, yeah Hé, putain, j'suis chire-dé, j'suis fonce-dé Qu'est-ce qu'tu demandes de faire ? A cette heure-ci, putain, j'sais pas quoi faire On m'appelle Doc alors j'vais t'mettre à l'heure Mais t'es mon petit frère alors je t'aime et j'te parle avec le cur Putain, les phrases elles sont longues J'arrive à débiter mais j'sais pas quoi t'dire J'ai pas assez d'feuilles longues et j'peux pas fumer Merde, putain, vous êtes sûrs que j'peux pas donner ? Oh, et puis j'donne à l'ancienne, on dirait Lionel D Fuck ton crew, sale pédale, ça bouge ap T'es tout naze, écoute, ça fait breh ! Rien qu'on fait des classiques, S-Crew, le nom d'mon gang Y'a que dans l'ombre qu'on tranche pour pas finir aux assises Souvent dans un camouflage vert kaki L'ambiance est pourave, y'a des toux grasses ça vi-ser d'la weed Ici, tu perds ta vie, on t'nique ta mère à 6 Une bonne paire de Nike Air dans la tête, c'est facile Le leust est entouré donc on fait ça à notre manière Bientôt le L est en tournée donc prenez garde à vos arrières Bitch ! Et toi, dis moi pourquoi tu causes On est au festival de Cannes, toi, tu traînes à la Foire du Trône Comme l'Homme de l'Est, j'attends l'apocalypse Je profite avant qu'on m'refroidisse, avant qu'ma peau palisse Dans mon ciboulot, j'suis mitigé, oui, si j'ai un petit boulot Un salaire, j'irais prendre l'air même si j'vivais ma vie sous l'eau Le Rap me dégoûte comme les pires aspects des filles gâtées J'vais vite gratter malgré que j'dérive, là, mais j'déprime jamais Les vices cachés des miss fâchées, ça entraine des vies gâchées Dédicacer des petites tasses-pé ? Autant caner déshydraté Ma vie d'avant, merde ! J'peux pas la quitter Zer-2 va rappliquer, faire de l'art appliqué J'vais devoir jouer les crevards, plus qu'deux lattes à tirer Tous maladifs, touche pas la mif' ou j'vais te ratatiner Faut que j'devienne légendaire, que j'éclaire les lanternes mais Ici, c'est l'enfer depuis qu'j'vois mes frères s'faire enfermer Nique le système carcéral, j'ai pris flemme de passer àl Je préféré les décibels et puis les péritels des caméras Ne m'colle pas d'étiquette, j'bicrave des citernes de came hélas J'baise les fliquettes, éviscère des criquets de chaque tié-quar Nous allons nous équiper comme les p'tits mecs des favelas Le ballon, j'l'ai esquivé, j'ai fait vibrer des tas d'pétasses Wesh kafass ? Moi, j'froisse des spliffs La poisse m'esquive, j'suis la poussière dans l'mauvais il Tous les yeux m'guettent, à croire que j'm'exhibe Bandes de sales vermines, que pourrez-vous faire quand j'aurai l'seum ? Nada, ça va trouer des schnecks Et puis clouer des becs, t'es dégouté, t'es dèf Venez gouter mes textes, allez, courez les mecs Ca va couper des têtes, tout est prétexte à jouer les chefs Ouais, masquez vos pulsions, j'viens pas rouler des pelles Dans l'trou de tes fesses j'fait ma révolution Je suis ce shaolin intégrant le Rap aux arts martiaux Quand t'es déjà au lit, transformant le cro-mi en arme d'acier Que celui qui parle de la vie des autres regarde la sienne Trop d'astreintes, on passe plus de temps A s'plaindre qu'à remercier, que Dieu m'pardonne Dans la vie aucun format simple, mes reufs à l'instinct carnassier Vendent plus de drogue qu'un pharmacien J'ai qu'l'envie d'karna ces mêmes clones Coulée dhémoglobine, le mic' s'tache Un texte de Mac de mon clan clean Pendant qu'les mecs s'touchent Ça peut ler-par mon premier flow s'appelait placentas Je sors du sas et rentre dans l'south quand mon soss' place un tag Teubé sors ton nez d'la poudre J'suis un peu désordonné mais rien à tref' des ordres donnés J'entends que des remarques, personne le fait mieux, à part ça On m'appelle Dead Man, A.K.A le vieux bâtard sale On a pas d'manager et l'équipe fait sa com', ça-comme On a pas d'mal à gérer, c'est toujours 5050, ça cogne, ça cogne C'est comme quand les keufs courent te rattraper Le juge goûtera la joie quand, toi, tu goûteras ta peine Quelques gouttes de Rap, à peine Sauf que maintenant, c'est plus des essais On peut conclure en ce sens qu'la concurrence pue des aisselles Que faire de plus, gars ? À part les effacer Yo, sucez moi bien jusqu'à, la paralysie faciale ×2 T'es le boss de qui ? T'es le boss de quoi ? Tu te prends pour qui ? Tu te prends pour quoi ? Pourquoi tu tires ? Ici, ça tire Alors rentre chez 'oit c'est l'son du ghetto Et si tu connais pas mon blaze, c'est B.2O.Z.2O Si y'a d'la monnaie j'suis chaud, y'aura pas besoin d'me ffer-chau J'aime pas les fachos, veulent voir les blacks au cachot , c'est trop chaud mais, moi, j'suis dans l'pochon Je te ferai pas l'amour, bitch, t'as les pieds de cochon Le jour où je vais prendre du gallon Mes deux bras seront trop longs, frelon, j'vais ramener des ballons C'est pour mes gars sûrs et certains Bakary 93.150, on a des couilles en béton , j'lui montre ma tête de python Des billets violets dans un putain d'sac Louis Vuitton Rien à foutre même si ils ont débranché la table Faut pas déranger madame, faut pas mélanger la came C'est comme ça qu'ça s'passe, j'ai un truc macabre J'dis n'importe quoi pour gagner du temps car y'a blanco C'est comme ça qu'ça s'passe, c'est pour les gars de Blankok Tu vas bouncer jusqu'à Bangkok, t'sais, quand mon gang cogne C'est comme un gomme-cogne comme à Boston Retour des shinobis mais crois pas que c'est l'fric notre pilier J'compte plus les rivaux pliés encore immobiles On a acquis notre biz comme Nino B., Jack City Faut qu'on s'lance dans l'immobilier, faut qu'on multiplie nos billes Crois qu'les paillettes et les strass' vont aliéner mes srhabs Ils trouvent mes alliés détestables Ils s'disent Ça y est, c'est des stars On passe à base de tasses calientes, slash, variétés d'sapes On confond plus les Cayenne et les Smart Très vite, les bitchs voient que j'évite les filles d'joie J'effrite et puis j'bois, si l'ennemi s'précise Très vite l'équipe s'équipe, méfie-toi On fait l'beurre, on intercepte le cash, ton espèce De garce veut réchauffer mon cur et mon zgeg de glace On laissera les archives, ouais, Phaal gifle J'envoie les dragées, j'les laisse à l'état léthargique Trop d'écart j'les calcine, les garces s'écartent vite On est classes, on te-cla les gares-ci J'appelle ta pétasse Bécassine Oublie la paix, kho, on monte de 0 à 100 Verse pour les frérots absents pendant l'apéro J'ai la conscience qui part en couille, tu vas galérer pour m'cerner Regarde le diable partir en douce avant qu'tu t'enfonces dans le gouffre J'te regarde, t'as vraiment pas de fouf et j'me sens pas concerné J'ai vu des guesh en pleine se-cri, c'est par le nez qu'ils gerbaient Petit message pour toi raciste avec ta face d'alien Tu veux nous briser, maitriser, enculé d'ta race aryenne Regarde-moi Marianne, putain, non, je n'vais pas chipoter Ton pays m'rend toxico, t'es bien la pire des home sweet home La vie n'est pas un roman, tout s'accumule comme des briques donc tu laisses place à l'arrogance Le soir tu veilles, tu parles à ta 'teille, tu dragues dans ta tête T'espères la fortune de Karl Lagarfeld, c'est le carnage infernal Bien évidemment, cela va faire mal, j'en perds ma rancur comme le but de mon exercice On n'fait qu'm'exorciser pour qu'je m'éclaircisse Tu veux tester mes salauds, ça fait bang, genre saloon Frère, si je t'allume c'est que j'suis prêt pour l'salut T'es pas d'la mif, parle-moi biff ou parle-moi d'profit Dix kilos d'weed, un kilo d'shit, le tout sera blanchi On fume le matos, mes vatos vont tuer ces rappeurs Ça sera du gâteau comme rotte-ca le XXX de l'éducateur A bord d'une Merco Benz, vitres teintées, grosse boisson C'est la moisson, les mousseux sont d'sortie, ouais Rentre dans le VIP si tu veux changer de vie Si tu rentres dans le lit, sache qu'on rentre dans le mille J'suis un hot nigga Mes gavas derrière oim ne craignent que God, nigga Mon équipe pète les scores pendant qu'tu t'fichas, kho Rebeu, renois, babtous, chicanos Tes négros softs ont des chichas roses Suffit pas d'pomper tous les rappeurs de Chicago Bien souvent, c'est pour une poule que démarre un combat d'coq A Paname, ça s'embrouille autour d'une boite duf Si t'as l'moral dans l'zen, sache que je l'ai dans la poche mon boule, j'me confesse sur la prod Man, c'est D6 le barge Toujours posé fonce-dé dans ton canap' quand la pénombre se cache Un moment d'colère face à c'monde de lâche On dit qu'le vent l'emporte mais je ne suis qu'un rocher Resté accroché à un moule façonné par lÉlysée Pour eux, nous sommes des poules prêtes à s'faire plumer J'survis devant 2012, j'vis l'enfer C'est sur la Seine que les premières lueurs du matin déteignent L'humanité meurt depuis qu'on a quitté l'Jardin d'Éden On a le rêve dans le cur, le cauchemar dans les veines Mais plus je monte et plus j'm'identifie à Martin Eden Moi, j'suis un babtou à part j'vois plein de babtous pompeux Mais sache que les babtous comme moi N'aiment pas les babtous comme eux Surtout quand les babtous ont peur Tout l'monde m'invite dans les plans Fils de pute, bien sûr qu'c'est plus facile pour toi quand t'es blanc Les riches font partie des plus radins dans cet empire de piranhas Parfois, j'reconnais même plus ma patrie comme mon pote Iranien T'oublies tout tellement tu rappes, hein, obligé d'se mentir un peu Du genre si jamais j'mets c'panier du premier coup, tout ira bien J'ai jamais tté-gra, t'as rien quand tu taffes peu Il m'faut un casque intégral J'vais braquer l'industrie comme les Daft Punk J'ai la rage d'un animal, cannibale, poto, j'manie l'mic Mais j'suis resté sur l'carreau Comme une chemise de Charles Ingalls J'garde la foi comme Abidal, hélas, le cash est capital Rebeu, la carte bleu c'est la seule carte qui soit vitale Bah ouais, j'ai eu des bonnes notes sans ter-chan Trempé dans de sales affaires, j'ai eu mon bac en séchant J'péra c'est embêtant, j'aime pas danser j'suis lancé dans La vie, tout l'monde peut s'en sortir, j'veux juste lui rentrer dedans Car j'ai grandi à Aulnay-Sous, Emmaüs la favelas On nique les chevaliers, qu'ils soient d'la rue ou d'Athéna Compte pas sur nous pour parler quand les schtars débarquent Pas d'messes basses, les keufs tournent, silence des cathédrales J'ai compris qu'les faux potes et l'honneur font bande à part Quand la haine, l'amour et la jalousie font des plans à trois J'donne plus d'amour à la rue, elle m'le rendra pas Comment faire partie des meubles Sans finir dans un grand placard ? Dans l'peu-Ra, trop d'suceurs qui m'foutent le seum Fermez vos gueules, si on est cheum, vous êtes tous plus cheum J'suis ce jeune parisien, américain dans l'état d'esprit Prends rendez-vous avec ton médecin légiste Ici, en plus des gouttes de pluie, souvent les coups pleuvent Mon crew est fait de vrais amis, à ton avis Pourquoi les putes se retrouvent toutes seules ? J'écris des rimes, j'envoie des torgnoles de malade Et pourtant, j'ai pas lu d'livre depuis TomTom Nana J'sors du Mordor de Paname, viens la bonne drogue est par là Une grosse pensée à nos proches pour qui l'horloge s'emballa Moi, j'suis debout, au-dessus d'moi, je vois voler les corbeaux J'ai besoin de joindre les deux bouts avant d'recoller les morceaux Tu mets des coups d'épée dans l'eau, l'affreux, on s'propage Prépare tes adieux, on fout le feu comme des Ghostriders Il faut que toutes les mains se lèvent haut Rimes façon West Coast, Gangsta à la Death Row On fuck les ennemis, miskine, ils se croient peut-être drôles Ça cartonne comme au rallye, on cartonne même sans khaliss Mes alliés se rallient, mental de patron On ne dit pas pardon, y'a que comme ça que tu seras libre Si j'tombe à Fleury, c'est qu'y a un beau million à prendre Ou qu'y a une tombe à fleurir, les tes-trai vont prendre des pralines J'ai pas vu d'boulot tendre Faut prendre pas l'9ar9ob face à la drogue Ils ont la boule au ventre, on a des abdos Les traitres sont de vraies balances Wesh, mais tétais dla bande, ouais, ouais, ouais... Faut quon tsaigne avant qutu mènes la danse Lami est éphémère, yen a qui parlent derrière ton dos Yen a même qui tbaisent et prennent ton cash, bellek, mon soss Putain de merde ! Cest quoi ce délire de faire Le soss et voler dans les mêmes dièses, oser se dire deux frères ? Tous hypocrites, les gens thypnotisent Leurs masques cachent leurs émotions et se disent trop vif Yen a qui servent du charme et te font croire à des rêves dars Et yen a qui tcachent des choses, et ouais, pour pas te faire mal Trop dacteurs, de squatteurs, de bâtards, de gratteurs de biff Faut des valeurs, le malheur tarrache la peur de vivre</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Hey fonblard, j'ai rancard avec Nanard Appelle les chtards v'la Bruno Escobar Touché mais pas coulé, merci d'l'invitation Sur ce, on est en sursis, noublies jamais doù tu viens La rue, cest mon terrain chacun sa part dans la bagarre Tu les as vus les ptits taulards, tu les a croisés au parloir Jai vu ce quest qule désespoir faites le canard Garder lespoir faut quon se lève pour croire à leur mhyto Adhère à notre parti, mec, cest pas trop tôt Arrête de compter en barrettes, on te manipule la tête Faut que tu votes mon pote You might also like Et quoi quil arrive sur la planète Terre Dans le foot, les affaires, le rap, les ministères, cest toujours Le gangster Qui contrôle laffaire Cest beau, cest beau la vie Cest beau, cest beau la vie Cest beau, cest beau la vie Cest beau, cest beau Dis Bruno, à ton avis, quest-ce quon vient foutre ici? Engraisser des banquiers qui sur nos vies font des crédits Dis Bruno quest-ce quon peut foutre ici? Balancer la vérité risquer nos vies à la télé Alors putain dis-moi ce match on tla vendu? Mais tu rigole jles aimes à Valenciennes A lancienne! Jai rangé mon jeux de frappes et ma pince-monseigneur Acceptez cette prière! Elle vient du cur Et quoi quil arrive sur la planète Terre Dans le foot, les affaires, le rap, les ministères, cest toujours Le gangster Qui contrôle laffaire, qui contrôle laffaire au Refrain Levez la gauche et dites je l'jure! Tu croyais quoi? Quyavait les bons, quyavait les blancs Quyavait les noirs et les méchants Quyavait dehors et puis dedans Ah, tout n'est pas si facile Tout ne tient qu'à notre style On absorbe la lumière, on ne la rendra pas, jamais Dans les ténèbres on a fais nos premiers pas Ya qules morts qui ne parlent pas Avant quon mfasse sauter lpas Dans une Merco 600 Dans une histoire de point ou de pour cent Deux pour cent, deux pour cent Ouais et quoi quil arrive sur la planète Terre Dans le foot, les affaires, le rap, les ministères, cest toujours Le gangster Qui contrôle laffaire, qui contrôle laffaire Qui contrôle laffaire, qui contrôle laffaire au Refrain1</t>
+          <t>Hey fonblard, j'ai rancard avec Nanard Appelle les chtards v'la Bruno Escobar Touché mais pas coulé, merci d'l'invitation Sur ce, on est en sursis, noublies jamais doù tu viens La rue, cest mon terrain chacun sa part dans la bagarre Tu les as vus les ptits taulards, tu les a croisés au parloir Jai vu ce quest qule désespoir faites le canard Garder lespoir faut quon se lève pour croire à leur mhyto Adhère à notre parti, mec, cest pas trop tôt Arrête de compter en barrettes, on te manipule la tête Faut que tu votes mon pote Et quoi quil arrive sur la planète Terre Dans le foot, les affaires, le rap, les ministères, cest toujours Le gangster Qui contrôle laffaire Cest beau, cest beau la vie Cest beau, cest beau la vie Cest beau, cest beau la vie Cest beau, cest beau Dis Bruno, à ton avis, quest-ce quon vient foutre ici? Engraisser des banquiers qui sur nos vies font des crédits Dis Bruno quest-ce quon peut foutre ici? Balancer la vérité risquer nos vies à la télé Alors putain dis-moi ce match on tla vendu? Mais tu rigole jles aimes à Valenciennes A lancienne! Jai rangé mon jeux de frappes et ma pince-monseigneur Acceptez cette prière! Elle vient du cur Et quoi quil arrive sur la planète Terre Dans le foot, les affaires, le rap, les ministères, cest toujours Le gangster Qui contrôle laffaire, qui contrôle laffaire au Refrain Levez la gauche et dites je l'jure! Tu croyais quoi? Quyavait les bons, quyavait les blancs Quyavait les noirs et les méchants Quyavait dehors et puis dedans Ah, tout n'est pas si facile Tout ne tient qu'à notre style On absorbe la lumière, on ne la rendra pas, jamais Dans les ténèbres on a fais nos premiers pas Ya qules morts qui ne parlent pas Avant quon mfasse sauter lpas Dans une Merco 600 Dans une histoire de point ou de pour cent Deux pour cent, deux pour cent Ouais et quoi quil arrive sur la planète Terre Dans le foot, les affaires, le rap, les ministères, cest toujours Le gangster Qui contrôle laffaire, qui contrôle laffaire Qui contrôle laffaire, qui contrôle laffaire au Refrain1</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Hahahahahaha ! Hiiii ! Yeah, han han, huh Tres lenguajes got mise, three languages Doc Gyneco, welcome to Los Angeles Here we gotta pretty girls, aqui tenemos la nena bella Send the ugly ones, aquí tenemos la nena bella I hear you got it goin on kickin' much science Fast like a cheetah, strong like a lion XXXXXXXXX but the streets still scandalous Doc Gyneco, welcome to Los Angeles J'aaaaaaaaaai stoppé l'école et commencé l'alcool J'suis pris dans les femmes, dans la flambe et le rap Faut qu'j'm'échappe, ça fait longtemps, ça date Toutes ces soirées où j'étais bien sapé La tête alcoolisée, j'me mettais à tchatcher Celles qu'en temps normal j'n'aurais pas calculées Mysto-Bruno le duo du quartier De Porte de la Chapelle, je suis passé à Sarcelles Où j'ai visité la seconde capitale Où les baskets sont blanches et les mecs s'appellent Timal Stomy, Bouboule, Guetch, Passi et Kenzy Des mecs sans faille qui tirent et ciao, bye bye Ok je stoppe sur les détails Car je sais que tu bloques sur la Secte Äbdoulaï Et si maintenant je rappe et que mon style décape Dac' ou pas dac', Doc t'a mis une tape Grâce à Mysto, j'ai erré dans les studios J'ai posé mes mots et instauré mon flow Dis-moi, qui suis-je ? Le Doc Gyneco You might also like A donde quieras vas, las calles son igual Ningún océano puede separar De Francia La rue n'est pas à vendre De Francia La rue n'est pas à vendre A donde quieras vas, las calles son igual Ningún océano puede separar De España La rue n'est pas à vendre De Francia Ça fait vingt ans que j'la loue Era una noche oscura cuando esto ocurio Estaba caminando y una nena me llamo No lo pense dos veces caminé donde ella Le pasa algo a mi carro, De verdad, niña bella ? A lo puedes arreglar ?, Chica, claro que si Tengo que usar el telefono, me esperas aquí ? Checkee el motor y parecia mentira Estaba el dispositivo destapao de la batería Será una trampa ? Una trampa, era Donde, donde pero donde está esta nena ? En el bolsillo de frente escondí mi cartera Debajo la camisa, encondí mi cadena Mire hacia el cielo y la luna estaba llena Tres otros pasos, por detras, en la acera No mire a nadie, será mi imaginación En la calle no confío y lo escribo en la cancíon Observe dos hombres cruzando la calle De esta noche terrible yo me recuerdo en detalle Si te sacan un revolver, dime que tu vas a hacer ? Hice lo que pude, empece a correr Oí un balazo y despues lo sentí Con mi espalda llena sangre, tropeze y caí Me quitaron la cadena, la cartera y los zapatos Uno me dijo Si te mueves, te mato A donde quieras vas, las calles son igual Ningún océano puede separar De Francia La rue n'est pas à vendre De Francia La rue n'est pas à vendre A donde quieras vas, las calles son igual Ningún océano puede separar De España La rue n'est pas à vendre De Francia Ça fait vingt ans que j'la loue Welcome to Los Angeles Welcome to Los Angeles Aah, Doc Gyneco et El Maestro C'est les mêmes ghettos, c'est les mêmes negros On boit la même bière, on fait les mêmes prières Ouais ! PLC</t>
+          <t>Hahahahahaha ! Hiiii ! Yeah, han han, huh Tres lenguajes got mise, three languages Doc Gyneco, welcome to Los Angeles Here we gotta pretty girls, aqui tenemos la nena bella Send the ugly ones, aquí tenemos la nena bella I hear you got it goin on kickin' much science Fast like a cheetah, strong like a lion XXXXXXXXX but the streets still scandalous Doc Gyneco, welcome to Los Angeles J'aaaaaaaaaai stoppé l'école et commencé l'alcool J'suis pris dans les femmes, dans la flambe et le rap Faut qu'j'm'échappe, ça fait longtemps, ça date Toutes ces soirées où j'étais bien sapé La tête alcoolisée, j'me mettais à tchatcher Celles qu'en temps normal j'n'aurais pas calculées Mysto-Bruno le duo du quartier De Porte de la Chapelle, je suis passé à Sarcelles Où j'ai visité la seconde capitale Où les baskets sont blanches et les mecs s'appellent Timal Stomy, Bouboule, Guetch, Passi et Kenzy Des mecs sans faille qui tirent et ciao, bye bye Ok je stoppe sur les détails Car je sais que tu bloques sur la Secte Äbdoulaï Et si maintenant je rappe et que mon style décape Dac' ou pas dac', Doc t'a mis une tape Grâce à Mysto, j'ai erré dans les studios J'ai posé mes mots et instauré mon flow Dis-moi, qui suis-je ? Le Doc Gyneco A donde quieras vas, las calles son igual Ningún océano puede separar De Francia La rue n'est pas à vendre De Francia La rue n'est pas à vendre A donde quieras vas, las calles son igual Ningún océano puede separar De España La rue n'est pas à vendre De Francia Ça fait vingt ans que j'la loue Era una noche oscura cuando esto ocurio Estaba caminando y una nena me llamo No lo pense dos veces caminé donde ella Le pasa algo a mi carro, De verdad, niña bella ? A lo puedes arreglar ?, Chica, claro que si Tengo que usar el telefono, me esperas aquí ? Checkee el motor y parecia mentira Estaba el dispositivo destapao de la batería Será una trampa ? Una trampa, era Donde, donde pero donde está esta nena ? En el bolsillo de frente escondí mi cartera Debajo la camisa, encondí mi cadena Mire hacia el cielo y la luna estaba llena Tres otros pasos, por detras, en la acera No mire a nadie, será mi imaginación En la calle no confío y lo escribo en la cancíon Observe dos hombres cruzando la calle De esta noche terrible yo me recuerdo en detalle Si te sacan un revolver, dime que tu vas a hacer ? Hice lo que pude, empece a correr Oí un balazo y despues lo sentí Con mi espalda llena sangre, tropeze y caí Me quitaron la cadena, la cartera y los zapatos Uno me dijo Si te mueves, te mato A donde quieras vas, las calles son igual Ningún océano puede separar De Francia La rue n'est pas à vendre De Francia La rue n'est pas à vendre A donde quieras vas, las calles son igual Ningún océano puede separar De España La rue n'est pas à vendre De Francia Ça fait vingt ans que j'la loue Welcome to Los Angeles Welcome to Los Angeles Aah, Doc Gyneco et El Maestro C'est les mêmes ghettos, c'est les mêmes negros On boit la même bière, on fait les mêmes prières Ouais ! PLC</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>J'aimerais tant te rencontrer, pouvoir te parler Être en face de toi mais ta femme ne veut pas C'est louche, on se croise sans jamais se coincer Quand tu prends l'ascenseur, je prends l'escalier Dès que tu téléphones, je décroche à côté Ta voix de dictateur la fait toujours flipper, mais Chez toi c'est la bonne humeur, tout est OK Je laisse des indices mais tu ne les trouve pas Je dévalise ta cuisine et je fume dans tes draps S'il n'y a plus de tequila, c'n'est pas toi mais moi qui la bois Chez toi c'est l'Italie, y a toujours des spaghetti Les pieds sur ton bureau, je mate l'album photo Jolies noces, huh, j'étais bogosse Je regarde tes vidéos et j'écoute ta sono Elle me masse le dos et je branche la radio Haa, il n'y a que chez toi que je trouve du repos Ne viens pas chez moi quand je n'suis pas là Ne viens pas chez moi, Doc Gyneco Ne viens pas chez moi quand je n'suis pas là Ne viens pas chez moi You might also like Je te vois facilement en militaire de carrière Ou, en business affaires Vas-y pars à l'étranger comme ça j'pourrais m'installer Jamais je n'm'en lasse, toutes tes poches y passent Malgré son aide, je ne trouve pas tes liasses On fait les courses avec ta carte bleue J'en profite, je prends tout c'que je peux Tu es notre seul sujet de conversation Et ta voiture, mon seul moyen de locomotion Je n'mange pas chez moi, exprès pour manger chez toi Entre nos demeures, il y a une grande différence T'as un plus grand canapé, une télé coins carrés Sur laquelle je zappe les chaînes câblées Mais quand j'y pense, t'as vraiment d'la chance Que je sois, celui qui vient chez toi quand tu n'es pas là Ne viens pas chez moi quand je n'suis pas là Ne viens pas chez moi, Doc Gyneco Ne viens pas chez moi quand je n'suis pas là Ne viens pas chez moi Tu ne m'connais pas, ta femme me connaît Je suis ton meilleur ami, ton cousin, ton reufré Son nouveau délire, le mec qui l'inspire Le démon qui l'attire dans d'infinis plaisirs Tu perds la cadence, manque de puissance C'est à moi qu'elle pense quand tu l'offenses À mes reins en acier, vitesse TGV Je vais dans les coins où tu n'as jamais été Adultère féroce avec un sale gosse Ne viens pas chez moi quand je n'suis pas là Ne viens pas chez moi, Doc Gyneco Ne viens pas chez moi quand je n'suis pas là Ne viens pas chez moi1</t>
+          <t>J'aimerais tant te rencontrer, pouvoir te parler Être en face de toi mais ta femme ne veut pas C'est louche, on se croise sans jamais se coincer Quand tu prends l'ascenseur, je prends l'escalier Dès que tu téléphones, je décroche à côté Ta voix de dictateur la fait toujours flipper, mais Chez toi c'est la bonne humeur, tout est OK Je laisse des indices mais tu ne les trouve pas Je dévalise ta cuisine et je fume dans tes draps S'il n'y a plus de tequila, c'n'est pas toi mais moi qui la bois Chez toi c'est l'Italie, y a toujours des spaghetti Les pieds sur ton bureau, je mate l'album photo Jolies noces, huh, j'étais bogosse Je regarde tes vidéos et j'écoute ta sono Elle me masse le dos et je branche la radio Haa, il n'y a que chez toi que je trouve du repos Ne viens pas chez moi quand je n'suis pas là Ne viens pas chez moi, Doc Gyneco Ne viens pas chez moi quand je n'suis pas là Ne viens pas chez moi Je te vois facilement en militaire de carrière Ou, en business affaires Vas-y pars à l'étranger comme ça j'pourrais m'installer Jamais je n'm'en lasse, toutes tes poches y passent Malgré son aide, je ne trouve pas tes liasses On fait les courses avec ta carte bleue J'en profite, je prends tout c'que je peux Tu es notre seul sujet de conversation Et ta voiture, mon seul moyen de locomotion Je n'mange pas chez moi, exprès pour manger chez toi Entre nos demeures, il y a une grande différence T'as un plus grand canapé, une télé coins carrés Sur laquelle je zappe les chaînes câblées Mais quand j'y pense, t'as vraiment d'la chance Que je sois, celui qui vient chez toi quand tu n'es pas là Ne viens pas chez moi quand je n'suis pas là Ne viens pas chez moi, Doc Gyneco Ne viens pas chez moi quand je n'suis pas là Ne viens pas chez moi Tu ne m'connais pas, ta femme me connaît Je suis ton meilleur ami, ton cousin, ton reufré Son nouveau délire, le mec qui l'inspire Le démon qui l'attire dans d'infinis plaisirs Tu perds la cadence, manque de puissance C'est à moi qu'elle pense quand tu l'offenses À mes reins en acier, vitesse TGV Je vais dans les coins où tu n'as jamais été Adultère féroce avec un sale gosse Ne viens pas chez moi quand je n'suis pas là Ne viens pas chez moi, Doc Gyneco Ne viens pas chez moi quand je n'suis pas là Ne viens pas chez moi1</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Non pas de l'underground, du noyau dur Sache que mon français restera toujours pur et dur De Porte de la Chapelle, oui j'assure Plus longtemps qu'une Duracell, mademoiselle je dure Épurer tous nos pêchés, même M. le curé veut se marier Laisse-moi donc prier mais à qui m'adresser ? J'ai trop agressé et contre le zoulou Maintenant Gynéco vient se dresser Tu verras quand les miens passeront à la télé On verra quand les miens seront radio-fusés Enfin la vérité grâce au Secteur promotionné Écoute cette assoc de malfaiteurs Y a tous mes soss, ils mettent du cur Sale zoulette, range ta panoplie, ta casquette Va écrire tes textes à la bibliothèque Racaille Canada Dry, Bye, bye,bye... Ne raconte pas ce qui se passe dans nos cages d'escaliers Tu sais, non tu ne sais pas, je sais que tu nous bluffes sur ton papier Les pieds en avant tu peux finir si de ma vie tu t'inspires Raconte que ce que tu vis avant que le bitume t'aspire Rien à foutre des mecs qui me disent que pour un rappeur j'ai un look clean J'ai grandi dans une cité en France et pas au Queens, à Brooklyn Rien à foutre des clowns, des clônes, des franco Wu Tang Clan Moi je vi-sère mes ien-clarts et fais swinguer les skwalls au Bataclan Ouais, des rimes chocs, des mots en bloc J'en ai en stock, Gloc-Lyrical Lino Ärsenik épaule le Doc Ne raconte pas ce qui se passe dans nos blocs mec Ruffneck en toc mec, gaze tu perds ton froc sec Nazes, sont tes phrases quand tu me parles de rue Je te laisse l'underground et pour lui l'instru, un round Sur mon ring et tu subis des sévices, une lame dans mon Levi's Le renard perd ses poils mais pas le vice Glisse, sur le ons, mon rap se deale comme un bon style Enfonce-toi ça dans l'crâne et fronce pas les sourcils Je sais que tu sais que je sais qui tu es Essaie pas de bluffer MC, j'ai tué Je deviens ton Senseï La merde, mais demain ça ira Deux fois plus en testos, putain les Zoulous veulent devenir des kaïras Ton H.I.P. Français a chopé ce foutu virus aux States Les baltringues ont pris la grosse tête You might also like Ne raconte pas ce qui se passe dans nos cages d'escaliers Tu sais, non tu ne sais pas, je sais que tu nous bluffes sur ton papier Les pieds en avant tu peux finir si de ma vie tu t'inspires Raconte que ce que tu vis avant que le bitume t'aspire Ne raconte pas ce qui se passe en bas ou sur mon palier Ne remue pas la de-mer chez moi où les fous sont à lier Allez petit salaud lâche ce bedo Je sais que tu veux pas ré-ti, tu veux tellement en être Maintenant t'es accroc à la se-ti, 1.6.6.4.8.6 Tu me saoules, tu causes de moules De rouler des oinj's, de casses en cagoules Foule mon turf et je te coupe les... non Et je te coupe les... arrêtes Et je te coupe les... Tchi tchi tchi, yeah!!! Je te raterai pas, tu joues la 'caille, on va racailler Tel ce morceau taillé spécialement pour t'encanailler Guette le tour de vice, l'école du tournevis S'entre-pète à plus de 10, ça se passe devant la police Reprends tes clics et tes clacs et redescends dans le réel Ma réalité à moi c'est un gros chaudron à Villiers-le-Bel T'aimerais vivre à ma place menteur tu t'serais douté Parqué dans un bloc de béton, à l'affût de la moindre pouille-dé Sois pas vex' si je pète ton concept, tu veux vivre dans ma jungle Alors mon style gars tu l'acceptes Ne me raconte pas tes conneries, arrête de nous faire gole-ri Cesse un peu de t'inspirer de ma vie Aspiré par le bitume, attiré dans la spirale, chiré Des thunes j'en veux, t'en as et tu ne cesses de m'admirer Laisse faire les experts, les putains de paroliers Ne raconte pas ce qui se passe dans nos cages d'escalier Ne raconte pas ce qui se passe dans nos cages d'escaliers Tu sais, non tu ne sais pas, je sais que tu nous bluffes sur ton papier Les pieds en avant tu peux finir si de ma vie tu t'inspires Raconte que ce que tu vis avant que le bitume t'aspire</t>
+          <t>Non pas de l'underground, du noyau dur Sache que mon français restera toujours pur et dur De Porte de la Chapelle, oui j'assure Plus longtemps qu'une Duracell, mademoiselle je dure Épurer tous nos pêchés, même M. le curé veut se marier Laisse-moi donc prier mais à qui m'adresser ? J'ai trop agressé et contre le zoulou Maintenant Gynéco vient se dresser Tu verras quand les miens passeront à la télé On verra quand les miens seront radio-fusés Enfin la vérité grâce au Secteur promotionné Écoute cette assoc de malfaiteurs Y a tous mes soss, ils mettent du cur Sale zoulette, range ta panoplie, ta casquette Va écrire tes textes à la bibliothèque Racaille Canada Dry, Bye, bye,bye... Ne raconte pas ce qui se passe dans nos cages d'escaliers Tu sais, non tu ne sais pas, je sais que tu nous bluffes sur ton papier Les pieds en avant tu peux finir si de ma vie tu t'inspires Raconte que ce que tu vis avant que le bitume t'aspire Rien à foutre des mecs qui me disent que pour un rappeur j'ai un look clean J'ai grandi dans une cité en France et pas au Queens, à Brooklyn Rien à foutre des clowns, des clônes, des franco Wu Tang Clan Moi je vi-sère mes ien-clarts et fais swinguer les skwalls au Bataclan Ouais, des rimes chocs, des mots en bloc J'en ai en stock, Gloc-Lyrical Lino Ärsenik épaule le Doc Ne raconte pas ce qui se passe dans nos blocs mec Ruffneck en toc mec, gaze tu perds ton froc sec Nazes, sont tes phrases quand tu me parles de rue Je te laisse l'underground et pour lui l'instru, un round Sur mon ring et tu subis des sévices, une lame dans mon Levi's Le renard perd ses poils mais pas le vice Glisse, sur le ons, mon rap se deale comme un bon style Enfonce-toi ça dans l'crâne et fronce pas les sourcils Je sais que tu sais que je sais qui tu es Essaie pas de bluffer MC, j'ai tué Je deviens ton Senseï La merde, mais demain ça ira Deux fois plus en testos, putain les Zoulous veulent devenir des kaïras Ton H.I.P. Français a chopé ce foutu virus aux States Les baltringues ont pris la grosse tête Ne raconte pas ce qui se passe dans nos cages d'escaliers Tu sais, non tu ne sais pas, je sais que tu nous bluffes sur ton papier Les pieds en avant tu peux finir si de ma vie tu t'inspires Raconte que ce que tu vis avant que le bitume t'aspire Ne raconte pas ce qui se passe en bas ou sur mon palier Ne remue pas la de-mer chez moi où les fous sont à lier Allez petit salaud lâche ce bedo Je sais que tu veux pas ré-ti, tu veux tellement en être Maintenant t'es accroc à la se-ti, 1.6.6.4.8.6 Tu me saoules, tu causes de moules De rouler des oinj's, de casses en cagoules Foule mon turf et je te coupe les... non Et je te coupe les... arrêtes Et je te coupe les... Tchi tchi tchi, yeah!!! Je te raterai pas, tu joues la 'caille, on va racailler Tel ce morceau taillé spécialement pour t'encanailler Guette le tour de vice, l'école du tournevis S'entre-pète à plus de 10, ça se passe devant la police Reprends tes clics et tes clacs et redescends dans le réel Ma réalité à moi c'est un gros chaudron à Villiers-le-Bel T'aimerais vivre à ma place menteur tu t'serais douté Parqué dans un bloc de béton, à l'affût de la moindre pouille-dé Sois pas vex' si je pète ton concept, tu veux vivre dans ma jungle Alors mon style gars tu l'acceptes Ne me raconte pas tes conneries, arrête de nous faire gole-ri Cesse un peu de t'inspirer de ma vie Aspiré par le bitume, attiré dans la spirale, chiré Des thunes j'en veux, t'en as et tu ne cesses de m'admirer Laisse faire les experts, les putains de paroliers Ne raconte pas ce qui se passe dans nos cages d'escalier Ne raconte pas ce qui se passe dans nos cages d'escaliers Tu sais, non tu ne sais pas, je sais que tu nous bluffes sur ton papier Les pieds en avant tu peux finir si de ma vie tu t'inspires Raconte que ce que tu vis avant que le bitume t'aspire</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>On prend des risques sur disque, au micro On pose notre discours sur beat disco, miss pointe chez ton disquaire Puisqu'au fond, on veut tous percer l'plafond J'fous d'la forme dans mon fond, mate c'que mes scarlas font Et si ça te parle à fond fous ta radio Et dis aux gosses fous qu'il faut foncer pour ses idéaux Époque silicone, j'sais plus à quel saint m'vouer Sur qui compter quand j'coule ma clique, ma seule bouée Ma famille c'est mes soss', en assoc' pour tout dégommer Gommer, grosse arnaque, gosse paumée, venu pour trôner Le biz du siècle, le casse de la décennie L'occase saisie, l'affaire qui roule pour l'état leucémie La roue a tourné, c'est ma tournée, né-tour avec nous Cours avec ton verre, trinquer, visnétour la journée La nuit on fff, on crrr, des cranes, tchtchi des veaucers Des boulots, déboulons sur Paname, déroulons tout ce que nous voulons Rimes dégueulasses, des histoires de slash sous flash Je t'en donne pendant deux heures gratuites au bash Tu donnes des styles pour poser sur ma compile Tu joues l'hostile, mais y a pas d'zoulettes viriles Rendons le verbe à ceux qui cognent Dur, au-delà des mots, on fera toute la sale besogne J'peux pas mentir aux jeunes, leur dire que j'ai des guns J'veux pas non-plus qu'ils pensent qu'on peut s'en sortir seul Calmes, posés, les miens en veulent Violent dans tes raps, écarte-toi idiot, et ferme ta gueule Y'a pas d'gangsters dans les studios, y a que des grandes gueules ! Il me manque une phase en eule eule eule You might also like C'est une affaire, une affaire de famille Fonder une famille car c'est tout ce qu'on a Viens dans ma famille et tu ne te feras plus jamais karna Tous on veut quéma la musique, le cinéma Tous on a trimé pour sortir de ce putain de coma Ta fête pue la défaite, c'est la victoire d'avance Mais au final à trois on pète ton équipe de France Un coffee shop, une casse, pour mon cop, madame Je cotise pour ma retraite à Amsterdam On monte tellement haut qu'on pourra plus redescendre On monte, on monte, et t'essayes de nous descendre Je sais qui sont les traîtres, on sait qui nous respecte Je sais c'que me réserve l'avenir, les armes sont prêtes C'est une affaire à faire en louzdé, lourdé Les louzes défoncés, rien que du lourd des vrais loups Derrière une louve prête à tout nettoyer jusqu'au bout Il faut que ça brille chez nous, on ché-la rien On préfère laver notre linge en famille C'est une affaire, une affaire de famille Nettoyer l'secteur, je crache ma vision vue d'l'intérieur J'pose une bombe, une spéciale pour ton postérieur Ma tronche en poster, style austère, et personne bronche On explose ta soirée, mes soces, moi et mon verre de punch. Et si on mise c'est pour rectifier les erreurs commises Mon rap guide les lascars comme Moïse sur la terre promise La mouise, ça renforce les liens, et quand la musique sonne Partout les groupies font péter le standard sur nos Ericsson Du succès, on a les clés, mon clan maque les réseaux sur beat musclé vif, à la Cassius Clay, à vif kiffe mon riff pète jusqu'en Haute-Volta Pose ton colt, bouge ton cul, et swingue comme Travolta. J'en place une pour les miens, car la famille y'a que ca qui compte J'en fais mon affaire, et à la surface ma clique remonte Que tous les lascars se bougent, que toutes les meufs remuent leurs fesses Que Dieu bénisse le mic quand Arsenik est dans la pièce Encaisse et danse, laisse tes rrr roule avec mon secteur Allume tes feux, craque l'allumette, fais feu sur le pera Affaire de mifa, te mouilles pas là-dedans, évite ca brille Pas la peine de te faire remarquer, gicle de là, mec te grille pas Te mêle pas de ca, laisse nous foutre le souk On va changer le pera, le disco, même en foutre au souk Arsenik, Doc Gynéco, ca part en vrilles, brillent Les quilles tombent, on s'en bat, c'est une affaire de famille C'est une affaire, une affaire de famille C'est une affaire, une affaire de famille</t>
+          <t>On prend des risques sur disque, au micro On pose notre discours sur beat disco, miss pointe chez ton disquaire Puisqu'au fond, on veut tous percer l'plafond J'fous d'la forme dans mon fond, mate c'que mes scarlas font Et si ça te parle à fond fous ta radio Et dis aux gosses fous qu'il faut foncer pour ses idéaux Époque silicone, j'sais plus à quel saint m'vouer Sur qui compter quand j'coule ma clique, ma seule bouée Ma famille c'est mes soss', en assoc' pour tout dégommer Gommer, grosse arnaque, gosse paumée, venu pour trôner Le biz du siècle, le casse de la décennie L'occase saisie, l'affaire qui roule pour l'état leucémie La roue a tourné, c'est ma tournée, né-tour avec nous Cours avec ton verre, trinquer, visnétour la journée La nuit on fff, on crrr, des cranes, tchtchi des veaucers Des boulots, déboulons sur Paname, déroulons tout ce que nous voulons Rimes dégueulasses, des histoires de slash sous flash Je t'en donne pendant deux heures gratuites au bash Tu donnes des styles pour poser sur ma compile Tu joues l'hostile, mais y a pas d'zoulettes viriles Rendons le verbe à ceux qui cognent Dur, au-delà des mots, on fera toute la sale besogne J'peux pas mentir aux jeunes, leur dire que j'ai des guns J'veux pas non-plus qu'ils pensent qu'on peut s'en sortir seul Calmes, posés, les miens en veulent Violent dans tes raps, écarte-toi idiot, et ferme ta gueule Y'a pas d'gangsters dans les studios, y a que des grandes gueules ! Il me manque une phase en eule eule eule C'est une affaire, une affaire de famille Fonder une famille car c'est tout ce qu'on a Viens dans ma famille et tu ne te feras plus jamais karna Tous on veut quéma la musique, le cinéma Tous on a trimé pour sortir de ce putain de coma Ta fête pue la défaite, c'est la victoire d'avance Mais au final à trois on pète ton équipe de France Un coffee shop, une casse, pour mon cop, madame Je cotise pour ma retraite à Amsterdam On monte tellement haut qu'on pourra plus redescendre On monte, on monte, et t'essayes de nous descendre Je sais qui sont les traîtres, on sait qui nous respecte Je sais c'que me réserve l'avenir, les armes sont prêtes C'est une affaire à faire en louzdé, lourdé Les louzes défoncés, rien que du lourd des vrais loups Derrière une louve prête à tout nettoyer jusqu'au bout Il faut que ça brille chez nous, on ché-la rien On préfère laver notre linge en famille C'est une affaire, une affaire de famille Nettoyer l'secteur, je crache ma vision vue d'l'intérieur J'pose une bombe, une spéciale pour ton postérieur Ma tronche en poster, style austère, et personne bronche On explose ta soirée, mes soces, moi et mon verre de punch. Et si on mise c'est pour rectifier les erreurs commises Mon rap guide les lascars comme Moïse sur la terre promise La mouise, ça renforce les liens, et quand la musique sonne Partout les groupies font péter le standard sur nos Ericsson Du succès, on a les clés, mon clan maque les réseaux sur beat musclé vif, à la Cassius Clay, à vif kiffe mon riff pète jusqu'en Haute-Volta Pose ton colt, bouge ton cul, et swingue comme Travolta. J'en place une pour les miens, car la famille y'a que ca qui compte J'en fais mon affaire, et à la surface ma clique remonte Que tous les lascars se bougent, que toutes les meufs remuent leurs fesses Que Dieu bénisse le mic quand Arsenik est dans la pièce Encaisse et danse, laisse tes rrr roule avec mon secteur Allume tes feux, craque l'allumette, fais feu sur le pera Affaire de mifa, te mouilles pas là-dedans, évite ca brille Pas la peine de te faire remarquer, gicle de là, mec te grille pas Te mêle pas de ca, laisse nous foutre le souk On va changer le pera, le disco, même en foutre au souk Arsenik, Doc Gynéco, ca part en vrilles, brillent Les quilles tombent, on s'en bat, c'est une affaire de famille C'est une affaire, une affaire de famille C'est une affaire, une affaire de famille</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Tu t'poses des questions mais pourquoi Tu t'demande quel sens a la vie T'as une maison solaire, une voiture électrique, une meuf Sexy Ne t'envoie pas en l'air dans d'autres galaxies Garde les pieds sur terre pense à ta famille Tu deviens natural mystique Mais les enfants aussi c'est magique Tu veux t'barrer à la montagne Faire pousser d'l'herbe dans la campagne Changer ta religion Tu t'poses trop de questions T'hésites entre Jah, Bouddha ou le Dalai Lama Tu n'sais plus qui est le papa Tu veux détruire le système Mais comme dans matrix, c'est grâce à toi qu'la société L'aime Tu voudrais qu'on légalise le cannabis Tu lances des pavés sur la police Mais quand on sait fumer le message c'est love and peace J'ai besoin de toi à mes cotés Forts et fiers comme quand on était maudit Mais que vas tu chercher si loin Tu cours, tu cours mais après quoi ? Tu n'as qu'un choix à faire écoute ton cur mon frère You might also likeTu dis la prochaine guerre sera la dernière Elle sera nucléaire, qu'on est tous frère Qu'il faut protéger la terre mère Mais tu poses des bombes pour que dieux entende tes prières Tu penses que les médias contrôlent Alors je joue mon meilleurs rôle Je ne sais pas si j'pourrais sauver l'univers Mais j'peux t'aider à y voir plus clair Nourris ton âme de mes mots Si tu n'veux plus manger d'animaux Plus de guerre, plus de révolver Tu veux fumer des pétards Comme un soixante huitard Tu m'parles de Shiva, des Sadhou Tu deviens fou Tu t'poses trop de questions Des questions à propos d'tout Arrête ta déprime Penses à ceux qui t'estiment Lâches ton pseudonyme sur Meetic T'as quarante ans mais tu t'comportes Comme un gosse de seize piges Pourquoi recherche tu le vertige, la voltige Refrain T'es pas né à la bonne époque Techno pokéro Anti héros J'ai le bon karma J'cultive mon dharma Ma larme les désarme On fait les choses en équipe, en synergie Sur les ondes, y'a plus qu'des bonnes énergies Il faut que tu bosses, que tu sortes du cosmos Viens on va s'faire une toile C'est la guerre des étoiles Le cuisinier se suicide si il lui manque une étoile Les visages se dévoilent Tu dois souffrir J'te connais tu t'forces à sourire Viens du bon coté d'la force Tu vas t'en sortir Ton fils et ta femme t'attendent les bras grands ouverts Cesse cette vie de chat de gouttière T'as l'âme au creux de l'estomac Et je sais quelle peut remonter à la surface Alors cours et dépêches toi ya Car le temps passe ya Sans laisser de trace ya</t>
+          <t>Tu t'poses des questions mais pourquoi Tu t'demande quel sens a la vie T'as une maison solaire, une voiture électrique, une meuf Sexy Ne t'envoie pas en l'air dans d'autres galaxies Garde les pieds sur terre pense à ta famille Tu deviens natural mystique Mais les enfants aussi c'est magique Tu veux t'barrer à la montagne Faire pousser d'l'herbe dans la campagne Changer ta religion Tu t'poses trop de questions T'hésites entre Jah, Bouddha ou le Dalai Lama Tu n'sais plus qui est le papa Tu veux détruire le système Mais comme dans matrix, c'est grâce à toi qu'la société L'aime Tu voudrais qu'on légalise le cannabis Tu lances des pavés sur la police Mais quand on sait fumer le message c'est love and peace J'ai besoin de toi à mes cotés Forts et fiers comme quand on était maudit Mais que vas tu chercher si loin Tu cours, tu cours mais après quoi ? Tu n'as qu'un choix à faire écoute ton cur mon frère Tu dis la prochaine guerre sera la dernière Elle sera nucléaire, qu'on est tous frère Qu'il faut protéger la terre mère Mais tu poses des bombes pour que dieux entende tes prières Tu penses que les médias contrôlent Alors je joue mon meilleurs rôle Je ne sais pas si j'pourrais sauver l'univers Mais j'peux t'aider à y voir plus clair Nourris ton âme de mes mots Si tu n'veux plus manger d'animaux Plus de guerre, plus de révolver Tu veux fumer des pétards Comme un soixante huitard Tu m'parles de Shiva, des Sadhou Tu deviens fou Tu t'poses trop de questions Des questions à propos d'tout Arrête ta déprime Penses à ceux qui t'estiment Lâches ton pseudonyme sur Meetic T'as quarante ans mais tu t'comportes Comme un gosse de seize piges Pourquoi recherche tu le vertige, la voltige Refrain T'es pas né à la bonne époque Techno pokéro Anti héros J'ai le bon karma J'cultive mon dharma Ma larme les désarme On fait les choses en équipe, en synergie Sur les ondes, y'a plus qu'des bonnes énergies Il faut que tu bosses, que tu sortes du cosmos Viens on va s'faire une toile C'est la guerre des étoiles Le cuisinier se suicide si il lui manque une étoile Les visages se dévoilent Tu dois souffrir J'te connais tu t'forces à sourire Viens du bon coté d'la force Tu vas t'en sortir Ton fils et ta femme t'attendent les bras grands ouverts Cesse cette vie de chat de gouttière T'as l'âme au creux de l'estomac Et je sais quelle peut remonter à la surface Alors cours et dépêches toi ya Car le temps passe ya Sans laisser de trace ya</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>C'est d'l'intox Non, j'viens d'un quartier à tox' J'coupe mes locks et c'est filmé par la Fox Un mec du PLC, scolarisé au boulevard Ney Dans ma rue, du crack, la BAC, les mecs qu'ont eu leur bac Des macs, sous l'vent l'odeur du chichon, le bruit des coups d'klaxon C'est pas d'la fiction, c'est mieux qu'un film d'action Dans mon quartier, très peu finiront curés Y a qu'des cheminots, des ouvriers Je voulais voyager, j'allais pas plus loin qu'les Champs Élysées Y a pas plus dur que c'qu'y a dans mon caleçon Graver mon nom sur les murs à la be-bom Y a pas d'lettrage quand tu graves Armageddon Ls rues sont vides et j'ingurgit mon liquide Échange tes biftons contre ma weed Je sais qui je suis Ainsi tu sais d'où je suis et d'où je viens On s'en est sortis, sains de corps et d'esprit À la prison, mais avec sursis Toujours la pluie, jamais de beau temps Délits et faits-divers, j'ai un abonnement Qu'est c'qui s'passe dans les rues? Le Parisien est au courant, il sort son chien Et si c'est chaud, il s'sauve en courant Rien à ger-man, une bouffée d'herbe et autant en emporte le vent On met l'accent sur tous les immigrants Si les Ricains n'étaient pas là, on parlerait tous allemand Y aurait d'la choucroute dans mon cassoulet Appuie, y a pas d'euro qui soit plus franc, incultes Il me demande si j'en ai une grande, on m'insulte Sans me comprendre Problèmes de com' Et culturels Les Droits de l'Homme sont éternels Métis unique à cinquante pourcents You might also like Je sais qui je suis Ainsi tu sais d'où je suis et d'où je viens La plus forte des bières J'attends l'été, un maximum de degrés J'suis dopé, capotes usagées, cannettes explosées Le béton fleurit, de seringues il est parsemé J'y laisse tomber mes mots comme des pétales La pâle vérité sur instrumentale Enfant du caniveau, du ruisseau Et les femmes dans tout ça Je n'serai jamais là, je suis ici Je communique autrement, XXX Il y a des mélodies qui restent dans la tête Il y a des mélodies qui restent gravées dans le cur On n'saura jamais là, on n'a rien inventé Si tout est programmé, on sera tous jugés D'après des références, je suis une référence Je sais qui je suis Ainsi tu sais d'où je suis et d'où je viens</t>
+          <t>C'est d'l'intox Non, j'viens d'un quartier à tox' J'coupe mes locks et c'est filmé par la Fox Un mec du PLC, scolarisé au boulevard Ney Dans ma rue, du crack, la BAC, les mecs qu'ont eu leur bac Des macs, sous l'vent l'odeur du chichon, le bruit des coups d'klaxon C'est pas d'la fiction, c'est mieux qu'un film d'action Dans mon quartier, très peu finiront curés Y a qu'des cheminots, des ouvriers Je voulais voyager, j'allais pas plus loin qu'les Champs Élysées Y a pas plus dur que c'qu'y a dans mon caleçon Graver mon nom sur les murs à la be-bom Y a pas d'lettrage quand tu graves Armageddon Ls rues sont vides et j'ingurgit mon liquide Échange tes biftons contre ma weed Je sais qui je suis Ainsi tu sais d'où je suis et d'où je viens On s'en est sortis, sains de corps et d'esprit À la prison, mais avec sursis Toujours la pluie, jamais de beau temps Délits et faits-divers, j'ai un abonnement Qu'est c'qui s'passe dans les rues? Le Parisien est au courant, il sort son chien Et si c'est chaud, il s'sauve en courant Rien à ger-man, une bouffée d'herbe et autant en emporte le vent On met l'accent sur tous les immigrants Si les Ricains n'étaient pas là, on parlerait tous allemand Y aurait d'la choucroute dans mon cassoulet Appuie, y a pas d'euro qui soit plus franc, incultes Il me demande si j'en ai une grande, on m'insulte Sans me comprendre Problèmes de com' Et culturels Les Droits de l'Homme sont éternels Métis unique à cinquante pourcents Je sais qui je suis Ainsi tu sais d'où je suis et d'où je viens La plus forte des bières J'attends l'été, un maximum de degrés J'suis dopé, capotes usagées, cannettes explosées Le béton fleurit, de seringues il est parsemé J'y laisse tomber mes mots comme des pétales La pâle vérité sur instrumentale Enfant du caniveau, du ruisseau Et les femmes dans tout ça Je n'serai jamais là, je suis ici Je communique autrement, XXX Il y a des mélodies qui restent dans la tête Il y a des mélodies qui restent gravées dans le cur On n'saura jamais là, on n'a rien inventé Si tout est programmé, on sera tous jugés D'après des références, je suis une référence Je sais qui je suis Ainsi tu sais d'où je suis et d'où je viens</t>
         </is>
       </c>
     </row>
@@ -888,7 +888,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>x2 Dans la partie, on fête déjà ton autopsie On a la pêche, y'a des tassepèches Mais ti mal pour toi tout est fini Je suis ton prédateur, le roi des moqueurs Oh star shooter, je vais te marave, t'as de la bave Mais mec je te connais ? T'es Gueule de rat Croque du crack et de la coke. T'es accroc à l'héro Le diable a planté ses crocs Pendant que je tournais sur le dos, t'étais toujours au tableau Tu suçais la prof pour des encouragements Maintenant tu lèches pour des médicaments Désolé mais je n'ai pas mes Aspros mysto, 500 francs, effervescents Mais face aux damnés de la terre, les cames ratailles sont finis Mon autopsie funkadélic kicke te pète le uc Tu marches comme Lucky Luke. Sniffe plus vite que ton ombre Garde bien ton concombre, Jolly Tapeur, je suis le mec au top Si c'est moi Stomy-Bugzy Mais si je te trouve dans le caniveau Moi c'est pas Mysto La Nuit des Héros Oh mosse directe dans la fosse t'attends une heure Mais le dealer n'est pas passé planté, tourmenté Deux heures le dealer n'est pas passé Prêt à sucer pour pouvoir se défoncer Trois heures, le camé est défoncé Loque, ton froc se baisse pond du fric Tes cernes s'enchaînent et du nez tu piques Toi auparavant respecté regardes toi Maintenant t'es la reine des pettes-tas La blanche a fait de toi un mec qui penche, qui flanche Dans cette partie, il n'y a qu'une manche et si tu perds débranches Refrain x2 Dans la partie, on fête déjà ton autopsie On a la pêche, y'a des taspèches Mais ti mal pour toi tout est fini Mon entrée va déchirer, mon style va fusiller Mais ne te fais pas de souci pour le gynéco Bruno s'apprête à faire un salto sur ce tempo Ce n'est pas de ma faute t'en tomberas accroc Odile mon polo a du style, moi qui rêve de deal et de filles faciles Je descends sur le boulevard, observer les clients que j'aurai plus tard J'aperçois une zoulette, une putain de rate Le deuxième mot était bienvenue on dirait qu'elle se gratte, gratte gratounette Cette petite zoulette. Moi qui me voyait déjà lui lécher la... ... Elle me dit que la journée, elle braque les baraques Et que la nuit elle suce et crache dans des flaques pour du crack Et qu'elle craque quand elle aperçoit son joli caillou Si mini si doudou son chouchou Elle craque accompagnée de son mac La fumée lui envahit le corps, encore la voilà bientôt an bord, hors du décor Dans sa tête une douce voix lui dit dors, dors Morte, ivre-morte après un flash, le flash Aveuglée, fons-dée, elle se lait un rail sans paille Demande de l'aide à Gynéco car travail, repos et loisir Un mac aide à vous soutenir Doc Gynéco tu le nais-co, je le nais-co C'est le beau gosse qui lèche Je pose ma voix sur l'album de Kenzych, Passich, Stomych et Ghetch Les cames de mon quartier sont tellement fonsdés Que s'ils boivent de l'eau se mettent à dégueuler Voir un camé crevé ce n'est pas comique Mais c'est tellement commun que ce n'est pas tragique Range ton chronique, sors de ta panique Oublie les ''Baw'', oublie les ''waw'' Doc Gynéco ka mété sa en chou aw A Paris, mes ennemis parient sur ma vie et celle de Stomy Mais pas d'amis, je bouge qu'avec Stomy et les sauces du stermini Refrain x2 Dans la partie, on fête déjà ton autopsie On a la pêche, y'a des taspèches Mais ti mal pour toi tout est fini Les camés sont fons, fons dans la snifette Finance pour se foncdé, nous on fait la fête Fous accrocs d'un putain de monde féerique Ceux qui refourguent se font du fric Mais t'es un leur-di prisonnier de ton produit Eh oui la dernière fois on t'a vendu de la connerie Piégé quand tu t'es dit ''j'ai'' cette fois dans ta G.T T'as commencé par un get sept Et tu t'es jeté un demi jet dans ton nez pour voir si c'était bon marché Résultat t'es un pédé de camé Tant pis sniffe pour ceux qui ne s'arrêtent plus au spliff De plus en plus sème le diable et kiffe Se gratte, se gratte remontant jusqu'au pif, se pique en premier objectif Kiffe, sniffe. Il est cinq heures du mat et t'as des frissons Tri dégueules sur toi en écoutant nos sons Tu revois ta vie à la déroute Tu penses à ton premier shoot. plus personne ne te distingue T'appartiens à ceux qui trinquent Bringuent à la seringue et deviennent dingues Les grammes te charment tel une belle femme Ton âme crame, t'acclame madame came Dans ton game, boy t'es game overdose Mais cela ne nous regarde pas. T'en veux on t'en veux pas Passi te connait pas et dans le pire des cas c'est tant pis pour toi Eh Meca c'est plus que toi prie le Dieu Coca pour qu'il neige de Me-Ca Refrain x2 Dans la partie, on fête déjà ton autopsie On a la pêche, y'a des taspèches Mais ti mal pour toi tout est finiYou might also like</t>
+          <t>x2 Dans la partie, on fête déjà ton autopsie On a la pêche, y'a des tassepèches Mais ti mal pour toi tout est fini Je suis ton prédateur, le roi des moqueurs Oh star shooter, je vais te marave, t'as de la bave Mais mec je te connais ? T'es Gueule de rat Croque du crack et de la coke. T'es accroc à l'héro Le diable a planté ses crocs Pendant que je tournais sur le dos, t'étais toujours au tableau Tu suçais la prof pour des encouragements Maintenant tu lèches pour des médicaments Désolé mais je n'ai pas mes Aspros mysto, 500 francs, effervescents Mais face aux damnés de la terre, les cames ratailles sont finis Mon autopsie funkadélic kicke te pète le uc Tu marches comme Lucky Luke. Sniffe plus vite que ton ombre Garde bien ton concombre, Jolly Tapeur, je suis le mec au top Si c'est moi Stomy-Bugzy Mais si je te trouve dans le caniveau Moi c'est pas Mysto La Nuit des Héros Oh mosse directe dans la fosse t'attends une heure Mais le dealer n'est pas passé planté, tourmenté Deux heures le dealer n'est pas passé Prêt à sucer pour pouvoir se défoncer Trois heures, le camé est défoncé Loque, ton froc se baisse pond du fric Tes cernes s'enchaînent et du nez tu piques Toi auparavant respecté regardes toi Maintenant t'es la reine des pettes-tas La blanche a fait de toi un mec qui penche, qui flanche Dans cette partie, il n'y a qu'une manche et si tu perds débranches Refrain x2 Dans la partie, on fête déjà ton autopsie On a la pêche, y'a des taspèches Mais ti mal pour toi tout est fini Mon entrée va déchirer, mon style va fusiller Mais ne te fais pas de souci pour le gynéco Bruno s'apprête à faire un salto sur ce tempo Ce n'est pas de ma faute t'en tomberas accroc Odile mon polo a du style, moi qui rêve de deal et de filles faciles Je descends sur le boulevard, observer les clients que j'aurai plus tard J'aperçois une zoulette, une putain de rate Le deuxième mot était bienvenue on dirait qu'elle se gratte, gratte gratounette Cette petite zoulette. Moi qui me voyait déjà lui lécher la... ... Elle me dit que la journée, elle braque les baraques Et que la nuit elle suce et crache dans des flaques pour du crack Et qu'elle craque quand elle aperçoit son joli caillou Si mini si doudou son chouchou Elle craque accompagnée de son mac La fumée lui envahit le corps, encore la voilà bientôt an bord, hors du décor Dans sa tête une douce voix lui dit dors, dors Morte, ivre-morte après un flash, le flash Aveuglée, fons-dée, elle se lait un rail sans paille Demande de l'aide à Gynéco car travail, repos et loisir Un mac aide à vous soutenir Doc Gynéco tu le nais-co, je le nais-co C'est le beau gosse qui lèche Je pose ma voix sur l'album de Kenzych, Passich, Stomych et Ghetch Les cames de mon quartier sont tellement fonsdés Que s'ils boivent de l'eau se mettent à dégueuler Voir un camé crevé ce n'est pas comique Mais c'est tellement commun que ce n'est pas tragique Range ton chronique, sors de ta panique Oublie les ''Baw'', oublie les ''waw'' Doc Gynéco ka mété sa en chou aw A Paris, mes ennemis parient sur ma vie et celle de Stomy Mais pas d'amis, je bouge qu'avec Stomy et les sauces du stermini Refrain x2 Dans la partie, on fête déjà ton autopsie On a la pêche, y'a des taspèches Mais ti mal pour toi tout est fini Les camés sont fons, fons dans la snifette Finance pour se foncdé, nous on fait la fête Fous accrocs d'un putain de monde féerique Ceux qui refourguent se font du fric Mais t'es un leur-di prisonnier de ton produit Eh oui la dernière fois on t'a vendu de la connerie Piégé quand tu t'es dit ''j'ai'' cette fois dans ta G.T T'as commencé par un get sept Et tu t'es jeté un demi jet dans ton nez pour voir si c'était bon marché Résultat t'es un pédé de camé Tant pis sniffe pour ceux qui ne s'arrêtent plus au spliff De plus en plus sème le diable et kiffe Se gratte, se gratte remontant jusqu'au pif, se pique en premier objectif Kiffe, sniffe. Il est cinq heures du mat et t'as des frissons Tri dégueules sur toi en écoutant nos sons Tu revois ta vie à la déroute Tu penses à ton premier shoot. plus personne ne te distingue T'appartiens à ceux qui trinquent Bringuent à la seringue et deviennent dingues Les grammes te charment tel une belle femme Ton âme crame, t'acclame madame came Dans ton game, boy t'es game overdose Mais cela ne nous regarde pas. T'en veux on t'en veux pas Passi te connait pas et dans le pire des cas c'est tant pis pour toi Eh Meca c'est plus que toi prie le Dieu Coca pour qu'il neige de Me-Ca Refrain x2 Dans la partie, on fête déjà ton autopsie On a la pêche, y'a des taspèches Mais ti mal pour toi tout est fini</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2014 11 décembre Suicide commercial Lino 24 octobre Wolfgang Lino 27 août VLB Lino feat. T-Killa 9 avril 12ème Lettre Lino 2013 9 juillet C'est là-bas Calbo feat. VR 2011 19 mai Philosophie de Pare-Choc feat. 2Bal 2007 Mille et Une Vies Lino 2005 Où Les Anges Brûlent Lino Paradis Airlines Lino 2002 You might also likeJ't'emmerde Regarde le Monde P.O.I.S.O.N 1998 Affaires de Famille feat. Doc Gynéco Assia Boxe avec les Mots</t>
+          <t>2014 11 décembre Suicide commercial Lino 24 octobre Wolfgang Lino 27 août VLB Lino feat. T-Killa 9 avril 12ème Lettre Lino 2013 9 juillet C'est là-bas Calbo feat. VR 2011 19 mai Philosophie de Pare-Choc feat. 2Bal 2007 Mille et Une Vies Lino 2005 Où Les Anges Brûlent Lino Paradis Airlines Lino 2002 J't'emmerde Regarde le Monde P.O.I.S.O.N 1998 Affaires de Famille feat. Doc Gynéco Assia Boxe avec les Mots</t>
         </is>
       </c>
     </row>
@@ -922,7 +922,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>J'gagne 1 million d'euros tout les 6 mois J'vais tellement en Suisse que j'fais des crises de foie Tu es plus détesté que Mayweather J'ai une Richard Mille mais je suis jamais a l'heure Je plane sans haine, j'suis foncdé comme un avion sans ailes Je bouge mes mains l'argent m'colle aux doigts, écoute ma voix Ma voix J'explose le cristal dans lequel tu bois ça colle aux doigts, ça colle aux doigts, aux doigts, ça colle aux doigts De mon hublot j'ai vu des tours s'effondrer j'suis passé à coté Allume le joint, ouais vas-y fais tourner J'te fais voir mes voitures, mes villas J'suis l'homme qui ne valait pas 10 centimes Reviens pas chez moi quand je n'suis pas la Pas la J'ai un Basquiat dans le coffre de la Maybach Rick Ross non plus, n'a pas son bac Musique d'allemand genre Sébastien Bach C'est pour les affaires que j'te fais pas la guerre Nouvel album nouveau clip j'retourne aux affaires Il multiplie le pain et moi les grains de riz Le business n'étais pas fini J'gagne 1 million d'euros tout les 6 mois J'vais tellement en Suisse que j'fais des crises de foie Tu es plus détesté que Mayweather J'ai une Richard Mille mais je suis jamais a l'heure Je plane sans haine, j'suis foncdé comme un avion sans ailes You might also likeJe bouge mes mains l'argent m'colle aux doigts, écoute ma voix Ma voix J'explose le cristal dans lequel tu bois ça colle aux doigts, ça colle aux doigts, aux doigts, ça colle aux doigts Bien sur c'est pour toute la family On frappe les disques d'or a mon effigie J'continue le business habituel N'ai pas la haine dans le business rien d'personnel Y a des indices dans mes mots, mes voyelles J'gagne 1 million d'euros tout les 6 mois J'vais tellement en Suisse que j'fais des crises de foie Tu es plus détesté que Mayweather J'ai une Richard Mille mais je suis jamais a l'heure Je plane sans haine, j'suis foncdé comme un avion sans ailes Je bouge mes mains l'argent m'colle aux doigts, écoute ma voix Ma voix J'explose le cristal dans lequel tu bois ça colle aux doigts, ça colle aux doigts, aux doigts, ça colle aux doigts 20 générations plus tard, ma ligné continue demandez a Aurel Je vous prend sous mon aile Celui qui possède la terre en aura les fruits Arrête de crier, de faire du bruit J'vais bientôt avoir d'autres enfants J'ai besoin de plus d'argent, salaire inaccessible et PSG Mon style n'est pas, a ta porté, si tu n'fais pas partie de ma porté 0 défaites invaincu le Doc Que des K-O sur le ring au micro de Difool et Marie de Skyrock Frangin c'est ouf, elle a retenue de force mon engin dans sa fouffe Avec, elle s'étouffe, quand je suis sorti j'ai dis ouf Le top album la salive c'est utile, pour rendre l'entrée plus facile Pour toi un malheur n'arrive jamais seul J'ai le record de semaine dans le top single J'gagne 1 million d'euros tout les 6 mois J'vais tellement en Suisse que j'fais des crises de foie Tu es plus détesté que Mayweather J'ai une Richard Mille mais je suis jamais a l'heure Je plane sans haine, j'suis foncdé comme un avion sans ailes Je bouge mes mains l'argent m'colle aux doigts, écoute ma voix Ma voix J'explose le cristal dans lequel tu bois ça colle aux doigts, ça colle aux doigts, aux doigts, ça colle aux doigts</t>
+          <t>J'gagne 1 million d'euros tout les 6 mois J'vais tellement en Suisse que j'fais des crises de foie Tu es plus détesté que Mayweather J'ai une Richard Mille mais je suis jamais a l'heure Je plane sans haine, j'suis foncdé comme un avion sans ailes Je bouge mes mains l'argent m'colle aux doigts, écoute ma voix Ma voix J'explose le cristal dans lequel tu bois ça colle aux doigts, ça colle aux doigts, aux doigts, ça colle aux doigts De mon hublot j'ai vu des tours s'effondrer j'suis passé à coté Allume le joint, ouais vas-y fais tourner J'te fais voir mes voitures, mes villas J'suis l'homme qui ne valait pas 10 centimes Reviens pas chez moi quand je n'suis pas la Pas la J'ai un Basquiat dans le coffre de la Maybach Rick Ross non plus, n'a pas son bac Musique d'allemand genre Sébastien Bach C'est pour les affaires que j'te fais pas la guerre Nouvel album nouveau clip j'retourne aux affaires Il multiplie le pain et moi les grains de riz Le business n'étais pas fini J'gagne 1 million d'euros tout les 6 mois J'vais tellement en Suisse que j'fais des crises de foie Tu es plus détesté que Mayweather J'ai une Richard Mille mais je suis jamais a l'heure Je plane sans haine, j'suis foncdé comme un avion sans ailes Je bouge mes mains l'argent m'colle aux doigts, écoute ma voix Ma voix J'explose le cristal dans lequel tu bois ça colle aux doigts, ça colle aux doigts, aux doigts, ça colle aux doigts Bien sur c'est pour toute la family On frappe les disques d'or a mon effigie J'continue le business habituel N'ai pas la haine dans le business rien d'personnel Y a des indices dans mes mots, mes voyelles J'gagne 1 million d'euros tout les 6 mois J'vais tellement en Suisse que j'fais des crises de foie Tu es plus détesté que Mayweather J'ai une Richard Mille mais je suis jamais a l'heure Je plane sans haine, j'suis foncdé comme un avion sans ailes Je bouge mes mains l'argent m'colle aux doigts, écoute ma voix Ma voix J'explose le cristal dans lequel tu bois ça colle aux doigts, ça colle aux doigts, aux doigts, ça colle aux doigts 20 générations plus tard, ma ligné continue demandez a Aurel Je vous prend sous mon aile Celui qui possède la terre en aura les fruits Arrête de crier, de faire du bruit J'vais bientôt avoir d'autres enfants J'ai besoin de plus d'argent, salaire inaccessible et PSG Mon style n'est pas, a ta porté, si tu n'fais pas partie de ma porté 0 défaites invaincu le Doc Que des K-O sur le ring au micro de Difool et Marie de Skyrock Frangin c'est ouf, elle a retenue de force mon engin dans sa fouffe Avec, elle s'étouffe, quand je suis sorti j'ai dis ouf Le top album la salive c'est utile, pour rendre l'entrée plus facile Pour toi un malheur n'arrive jamais seul J'ai le record de semaine dans le top single J'gagne 1 million d'euros tout les 6 mois J'vais tellement en Suisse que j'fais des crises de foie Tu es plus détesté que Mayweather J'ai une Richard Mille mais je suis jamais a l'heure Je plane sans haine, j'suis foncdé comme un avion sans ailes Je bouge mes mains l'argent m'colle aux doigts, écoute ma voix Ma voix J'explose le cristal dans lequel tu bois ça colle aux doigts, ça colle aux doigts, aux doigts, ça colle aux doigts</t>
         </is>
       </c>
     </row>
@@ -939,7 +939,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Je tiens parole, les idées folles Un joint, une femme facile et de l'alcool Il est facile de quitter Paname Le soleil crame de midi à minuit Salut les mecs, j'm'arrache chez elle MAÏA a la couleur du ciel Tous les regards braqués sur elle 12 heures que j'la cherche, tends moi la perche Fumer l'matin, écrire la nuit Les jours sont longs sur une plage de béton Lunettes noires, bébé lascars Fait des caprices de stars Refrain x2 J'ai attrapé la couleur caramel Passe-moi des feuilles et une camel Pour mélanger, pour faire tourner La planète terre, sous l'soleil vert C'est mon parcours, papa caramel Survivant aux escroqu'ries et aux querelles De maîtresse en maîtresse, esquive les bassesses A la recherche d'une vie meilleure A la conquête du monde de la musique Si la violence reprend ses droits Cherche pas, je serai roi Quand y'a pas d'espoirs, de solutions De beauté dans les bas-fonds La vérité s'appelle ''Première consultation'' Alors réponse, Vanessa existe Et j'l'ai quittée pour la misère Et la bagarre entre faux frères Un pensionnaire dans ce monde de riches Laisse-moi chanter si j'étais riche Quality street et caramel You might also likeRefrain x2 Un Mister Freeze dans la bouche Comme à l'époque des yo-yo Ou un sac de billes et des ballons d'tango T'as quoi comme image dans ton album des cités d'or Une soirée d'un ennui mortel Joue aux rebels rue La Chapelle Quand l'amitié m'appelle, la police m'interpelle Je n'saurais passer à côté de l'essentiel 48 heures de garde à vue Et qui j'retrouve, un alcoolique Une prostituée et une femme flic Et le gendarme de Saint Tropez qui fait du naturisme Ecrit un livre sur le communisme ! Il est bourré de trouvailles visuelles Alors sociale, la capitale Ok cours plus vite que les balles Adieu Marcelle, tu m'as donné Tu m'as donné la couleur caramel Adieu Marcelle, tu m'as donné Tu m'as donné la couleur caramel2</t>
+          <t>Je tiens parole, les idées folles Un joint, une femme facile et de l'alcool Il est facile de quitter Paname Le soleil crame de midi à minuit Salut les mecs, j'm'arrache chez elle MAÏA a la couleur du ciel Tous les regards braqués sur elle 12 heures que j'la cherche, tends moi la perche Fumer l'matin, écrire la nuit Les jours sont longs sur une plage de béton Lunettes noires, bébé lascars Fait des caprices de stars Refrain x2 J'ai attrapé la couleur caramel Passe-moi des feuilles et une camel Pour mélanger, pour faire tourner La planète terre, sous l'soleil vert C'est mon parcours, papa caramel Survivant aux escroqu'ries et aux querelles De maîtresse en maîtresse, esquive les bassesses A la recherche d'une vie meilleure A la conquête du monde de la musique Si la violence reprend ses droits Cherche pas, je serai roi Quand y'a pas d'espoirs, de solutions De beauté dans les bas-fonds La vérité s'appelle ''Première consultation'' Alors réponse, Vanessa existe Et j'l'ai quittée pour la misère Et la bagarre entre faux frères Un pensionnaire dans ce monde de riches Laisse-moi chanter si j'étais riche Quality street et caramel Refrain x2 Un Mister Freeze dans la bouche Comme à l'époque des yo-yo Ou un sac de billes et des ballons d'tango T'as quoi comme image dans ton album des cités d'or Une soirée d'un ennui mortel Joue aux rebels rue La Chapelle Quand l'amitié m'appelle, la police m'interpelle Je n'saurais passer à côté de l'essentiel 48 heures de garde à vue Et qui j'retrouve, un alcoolique Une prostituée et une femme flic Et le gendarme de Saint Tropez qui fait du naturisme Ecrit un livre sur le communisme ! Il est bourré de trouvailles visuelles Alors sociale, la capitale Ok cours plus vite que les balles Adieu Marcelle, tu m'as donné Tu m'as donné la couleur caramel Adieu Marcelle, tu m'as donné Tu m'as donné la couleur caramel2</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Ça va aller Laissez passer Ça va aller Faut juste laisser couler Y a des difficultés Et des crises à traverser Malgré le chaos qui règne On va y arriver Dans ta cellule Dans ta chambre Tu fumes pour oublier Ta go toujours fâchée Et la madre fatiguée La madre fatiguée Ouh là là, Doc ça va pas en ce moment T'inquiète pas avec moi Ça va aller Laissez passer Laissez passer Laissez couler Ça va aller Faut juste laisser couler Laissez passer Laissez couler You might also like Après deux-trois va-et-vient Il ne t'a jamais rappelé T'es restée là avec les gosses Tous les jours poisson pané Dans les transports en commun Toujours les mêmes colis suspects Ton phone qui ne sonne pas Le mois daoût au quartier Y a Maître Gims qui te répète Qu'il va te manquer Q'il va te manquer Mais Doc ça va pas avec mon mec T'inquiète pas avec moi Ça va aller Laissez passer Laissez passer Laissez couler Ça va aller Faut juste laisser couler Laissez passer Laissez couler On t'a prescrit des pilules Des piqûres et des cachets Ça va aller Tu t'étais fait beau On t'a gentiment recalé Ça va aller Le reuf qu'on te propose Il est toujours siliconé Ça va aller Mais faut pas démissionner Non non faut pas démissionner Ça va aller Non, faut pas démissionner Non non faut pas démissionner Ça va aller Laissez passer Ça va aller Faut juste laisser couler Ça va aller Ça va aller Même si tu dors mal la nuit Ça va aller Si parfois t'as de la peine Ça va aller Si parfois tu te sens mal Ça va aller Même si tu dors mal la nuit Ça va aller Laissez passer Laissez couler Ça va aller Laissez passer Laissez couler Ça va aller Laissez passer Laissez couler Ça va aller</t>
+          <t>Ça va aller Laissez passer Ça va aller Faut juste laisser couler Y a des difficultés Et des crises à traverser Malgré le chaos qui règne On va y arriver Dans ta cellule Dans ta chambre Tu fumes pour oublier Ta go toujours fâchée Et la madre fatiguée La madre fatiguée Ouh là là, Doc ça va pas en ce moment T'inquiète pas avec moi Ça va aller Laissez passer Laissez passer Laissez couler Ça va aller Faut juste laisser couler Laissez passer Laissez couler Après deux-trois va-et-vient Il ne t'a jamais rappelé T'es restée là avec les gosses Tous les jours poisson pané Dans les transports en commun Toujours les mêmes colis suspects Ton phone qui ne sonne pas Le mois daoût au quartier Y a Maître Gims qui te répète Qu'il va te manquer Q'il va te manquer Mais Doc ça va pas avec mon mec T'inquiète pas avec moi Ça va aller Laissez passer Laissez passer Laissez couler Ça va aller Faut juste laisser couler Laissez passer Laissez couler On t'a prescrit des pilules Des piqûres et des cachets Ça va aller Tu t'étais fait beau On t'a gentiment recalé Ça va aller Le reuf qu'on te propose Il est toujours siliconé Ça va aller Mais faut pas démissionner Non non faut pas démissionner Ça va aller Non, faut pas démissionner Non non faut pas démissionner Ça va aller Laissez passer Ça va aller Faut juste laisser couler Ça va aller Ça va aller Même si tu dors mal la nuit Ça va aller Si parfois t'as de la peine Ça va aller Si parfois tu te sens mal Ça va aller Même si tu dors mal la nuit Ça va aller Laissez passer Laissez couler Ça va aller Laissez passer Laissez couler Ça va aller Laissez passer Laissez couler Ça va aller</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Moi j'doute, parfois j'ai envie d'pêcher Regarde nous, essaie donc d'écouter Lis seul, avoir du goût dans l'rap en français Ça f'ra kiffer les cains-ri, et ça tu l'sais Ça m'donne le fou-rire, mais y'a pire Etudier pour l'entreprise, qu'elle m'prenne tout ma matière grise Chez Virgin Rue, y'a qu'des innocents J'suis messager, j'aime pas l'argent J'ai l'sens de l'humour ... noir J'fais d'la médecine, et j'suis médecin Un protecteur à l'écriture libre Avec du fric c'est la fin du générique La radio me dit l'heure qu'il est Et ce rappeur me dit le temps qu'il fait Yo, all you analog Manchu Dirty Rotten shits Pointin' Fingers at my high-frequency relationships We Fam son, Wu-Tang International Lacerate the analog, fabricate that Digital Track, mingles with my tiger mental on the beast Slice a physical with the RZA lotus leaf Allah savagely impoint, evaporatin' Shieks My crane slash tarantula, conquerin' the East You must be flippin' To come across the force of the razor whippin's I be swingin' at you chickenheads You're fuckin' with my Cousins, Doc Gyne' We're all Cousins, Doc, Cil and Bob Digi You might also like Révéler une star ou faire du bénef ... Je suis faible, et j'suis à gauche Je suis le chef, le proprio Que vivent les femmes par ma chair et mes os Délit non-intentionnel Quand j'te cause, elles sont pas en cause Tous les pensants seraient choqués Ma bouche ne saurait se taire J'aime trop les femmes en solitaire J'ai une identité nouvelle pour toutes les femelles x2 Yo, one taste of the applehead, shorty wop wants to marry it The weight on my mind, the average woman couldn't carry it Bob Digi-tech in mix-matched shoes and gold specs Gravitation pull to the opposite sex Most dynamic superb universal black woman Ain't nothin' in the universe like a black woman With love and treasure deeper than any gold nugget Drug kid, make you go across a nigga head like Razor Ruddock Attackin' why'all, my pressure be backin' why'all against the wall Have it rainin' Ninja Starz and rubbin' alcohol And razor blades, watch your life fade away You get decay, yo.. BOODOODOODOO One came for the money, one came for the pussy One came to be a star, one came to play hookey One came to catch a vic, one came to stick shit XXXX XXXX XXXX XXXXX You might come for the XXX, you might come for the pussy You might come for the love, you might come for the pussy Some can to be a star, some can to play hockey Some came for the money, some came for the book</t>
+          <t>Moi j'doute, parfois j'ai envie d'pêcher Regarde nous, essaie donc d'écouter Lis seul, avoir du goût dans l'rap en français Ça f'ra kiffer les cains-ri, et ça tu l'sais Ça m'donne le fou-rire, mais y'a pire Etudier pour l'entreprise, qu'elle m'prenne tout ma matière grise Chez Virgin Rue, y'a qu'des innocents J'suis messager, j'aime pas l'argent J'ai l'sens de l'humour ... noir J'fais d'la médecine, et j'suis médecin Un protecteur à l'écriture libre Avec du fric c'est la fin du générique La radio me dit l'heure qu'il est Et ce rappeur me dit le temps qu'il fait Yo, all you analog Manchu Dirty Rotten shits Pointin' Fingers at my high-frequency relationships We Fam son, Wu-Tang International Lacerate the analog, fabricate that Digital Track, mingles with my tiger mental on the beast Slice a physical with the RZA lotus leaf Allah savagely impoint, evaporatin' Shieks My crane slash tarantula, conquerin' the East You must be flippin' To come across the force of the razor whippin's I be swingin' at you chickenheads You're fuckin' with my Cousins, Doc Gyne' We're all Cousins, Doc, Cil and Bob Digi Révéler une star ou faire du bénef ... Je suis faible, et j'suis à gauche Je suis le chef, le proprio Que vivent les femmes par ma chair et mes os Délit non-intentionnel Quand j'te cause, elles sont pas en cause Tous les pensants seraient choqués Ma bouche ne saurait se taire J'aime trop les femmes en solitaire J'ai une identité nouvelle pour toutes les femelles x2 Yo, one taste of the applehead, shorty wop wants to marry it The weight on my mind, the average woman couldn't carry it Bob Digi-tech in mix-matched shoes and gold specs Gravitation pull to the opposite sex Most dynamic superb universal black woman Ain't nothin' in the universe like a black woman With love and treasure deeper than any gold nugget Drug kid, make you go across a nigga head like Razor Ruddock Attackin' why'all, my pressure be backin' why'all against the wall Have it rainin' Ninja Starz and rubbin' alcohol And razor blades, watch your life fade away You get decay, yo.. BOODOODOODOO One came for the money, one came for the pussy One came to be a star, one came to play hookey One came to catch a vic, one came to stick shit XXXX XXXX XXXX XXXXX You might come for the XXX, you might come for the pussy You might come for the love, you might come for the pussy Some can to be a star, some can to play hockey Some came for the money, some came for the book</t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Le pyro para opé est révolté comme Sankara, part à L'assaut des chars avec un phrasé à cent carats Car Arsenik choiera le micro donne pour le frère qui osa Se dresser contre l'autorité comme l'a fait la sur Rosa Causa aucune lueur d'espoir de parcours je le connais par cur Le rap apaise mon cur comme le jazz de feu Charlie Parker Ma rancur est tenace et je largue les amarres Les anciens sont mon inspi comme les ffeu-spli l'étaient pour Bob Marley Parler franc par les temps qui courent est suicidaire A moins d'être aussi populaire que Joséphine Baker Boris a pardonné aux personnes qui l'avaient sali Acceptant les assauts, mais orgueilleux comme Mohammed Ali Paris est plein de pauvres, bourré de cons qui espèrent Je n'ai plus de rêves, ils coutèrent trop chers à Martin Luther King Dont le son donne comme l'homme au toucher d'or T'endort avec des baratins à la Papa Théodore Comme dans un film de Spike, l'histoire est noire et hachée Fâché mais surtout caché comme l'était notre Sydney Poitier ouais! Moi j'nique la vie surtout, quand je ne la sens pas L'athlète qui vit en moi à la puissance d'un athlète bamba En bas devant la fenêtre les jeunes ont le caca jusqu'au cou Mais restent fiers et forts comme le fus jadis Chaka Zulu Liaison dangereuse Dangereuse liaison Si tu t'approches trop du gouffre Tu perdras la raison You might also like La réflexion devient l'hameçon Quand elle arrive dans ton parking Avec un humour sinistre à la Charlie Chaplin Je reste petit face à l'énergie qui s'évince Avec autant de fluidité qu'une chanson de Georges Brassens Métamorphose, comme Dan Millman l'a vécu Vision aiguisée, décalée mais néanmoins pourvue D'une clarté aussi claire que la pensée du linguiste Chomsky Je m'accroche au rap comme Chet Baker évolue sur les mélodies Fils, tu sais je glisse, note mon nom sur ta liste Pour faire partie d'un des rares posse qui agit et résiste Get up ! Stand up ! Le jeune babtou l'a compris Penche toi sur la conscience de Florinda Donner Et tu comprendras que la couleur n'a rien à voir avec le tonnerre Visionnaire, réaliste, comme l'était Socrate L'acrobate autodidacte représente la face cachée de la carte</t>
+          <t>Le pyro para opé est révolté comme Sankara, part à L'assaut des chars avec un phrasé à cent carats Car Arsenik choiera le micro donne pour le frère qui osa Se dresser contre l'autorité comme l'a fait la sur Rosa Causa aucune lueur d'espoir de parcours je le connais par cur Le rap apaise mon cur comme le jazz de feu Charlie Parker Ma rancur est tenace et je largue les amarres Les anciens sont mon inspi comme les ffeu-spli l'étaient pour Bob Marley Parler franc par les temps qui courent est suicidaire A moins d'être aussi populaire que Joséphine Baker Boris a pardonné aux personnes qui l'avaient sali Acceptant les assauts, mais orgueilleux comme Mohammed Ali Paris est plein de pauvres, bourré de cons qui espèrent Je n'ai plus de rêves, ils coutèrent trop chers à Martin Luther King Dont le son donne comme l'homme au toucher d'or T'endort avec des baratins à la Papa Théodore Comme dans un film de Spike, l'histoire est noire et hachée Fâché mais surtout caché comme l'était notre Sydney Poitier ouais! Moi j'nique la vie surtout, quand je ne la sens pas L'athlète qui vit en moi à la puissance d'un athlète bamba En bas devant la fenêtre les jeunes ont le caca jusqu'au cou Mais restent fiers et forts comme le fus jadis Chaka Zulu Liaison dangereuse Dangereuse liaison Si tu t'approches trop du gouffre Tu perdras la raison La réflexion devient l'hameçon Quand elle arrive dans ton parking Avec un humour sinistre à la Charlie Chaplin Je reste petit face à l'énergie qui s'évince Avec autant de fluidité qu'une chanson de Georges Brassens Métamorphose, comme Dan Millman l'a vécu Vision aiguisée, décalée mais néanmoins pourvue D'une clarté aussi claire que la pensée du linguiste Chomsky Je m'accroche au rap comme Chet Baker évolue sur les mélodies Fils, tu sais je glisse, note mon nom sur ta liste Pour faire partie d'un des rares posse qui agit et résiste Get up ! Stand up ! Le jeune babtou l'a compris Penche toi sur la conscience de Florinda Donner Et tu comprendras que la couleur n'a rien à voir avec le tonnerre Visionnaire, réaliste, comme l'était Socrate L'acrobate autodidacte représente la face cachée de la carte</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Midi j'me lève, la réalité vient m'coller des baffes J'ai fait un cauch'mar, j'ai dû rêver qu'j'avais du taf Faut que j'bouge mes seufs J'en ai ma claque d'aller pointer, gober leur bluff Feinter ma reum le soir qund j'tréran fonsdé J'cale mon schlass dans mes fringues, sors les dents acérées Dehors y'a trop d'mains serrées ou trop d'raisons d'se faire serrer Errer dans les blocs pousse les jeunes au scandale, à flairer J'ai plus l'âge pour l'centre aéré, mes potes sont tous vandales, Opérer la nuit, marcher entre les seringues et les flaques d'eau C'est ça la France, évident comme un Black qui bosse au McDo' Dans ma ruche les filles sont sexy comme le péché Elles t'aguichent et chez les schmidts tu t'fais sécher Fait chier, shit, merde, mon bic éclate les bâtiments Que j'sois damné si j'mens, ma rime claque comme le châtiment Le crime paie quand la paix prime J'nique la balance et l'épée d'la rue, j'suis pas une victime Scratchs Dans ma rue... J'ai traversé d'un pas rapide la rue de la jeunesse J'ai coupé par le boul'vard du vice en prenant d'la vitesse Merde, j'ai confondu en voulant prendre un raccourci Rue d'l'insociabilité et rue d'l'hypocrisie Avenue d'l'argent, la circulation ça tue J'opte pour le trafic, passe par la rue de la luxure J'ai raté la rue des r'lations que je croyais en face Je crois qu'je suis dans la rue d'la justice mais j'vois qu'c'n'est qu'une impasse J'ai croisé un type au faubourg de la vanité Il arrivait d'la rue des gens qu'ont des choses à s'prouver J'aurais bien fait un bout d'chemin avec lui mais j'l'ai laissé Pas loin d'sa nouvelle résidence, place de l'homosexualité C'est fou c'qu'il peut y avoir du monde à cette heure-ci Au sens giratoire du carr'four de la conn'rie J'l'évite et rentre dans ma rue, passe par celle d'la truand'rie Sachant pertinemment qu'la rue d'la paix est en sens interdit You might also like Scratchs Dans ma rue... Dans ma rue, ça taille, même en été Braille, défouraille comme si t'y étais Ramène ton 'scope, gobe des images vraies, minot, chope Ecope la sentence top, toi et tous tes refrés, stop Des méfaits, et fais-nous, un bon reportage Dans ma rue faut qu'tu saches, y'a qu'des jeunes qui ont la rage Pas d'pot, rien qu'des clashs, que ça rage et lâches Faux, usage de faux Un compte-rendu, un rapport carré, joue pas les tarés Avec ta vie, garre et fais gaffe, viens pas t'égarer Ma rue est bourrée de vices, enfoiré, ça on l'sait Epargne-moi tes Parle-moi des belles choses. et Cause de vrais trucs plus positifs, kiffe avec nous Du sexe fou dans ma ruche des fois c'est bon Viens faire un tour, garçon, enlève tes pe-poms Viens marcher sur la braise à Villiers-l'Bel, au Sixième Chaudron Scratchs Dans ma rue... Sur les Liaisons Dangereuses Dans ma rue... Sur les Liaisons Dangereuses Dans ma rue... Sur les Liaisons Dangereuses Dans ma rue... Dangereuses... Dans ma rue... Les lascars se serrent la main Ce n'est pas comme dans l'show-biz</t>
+          <t>Midi j'me lève, la réalité vient m'coller des baffes J'ai fait un cauch'mar, j'ai dû rêver qu'j'avais du taf Faut que j'bouge mes seufs J'en ai ma claque d'aller pointer, gober leur bluff Feinter ma reum le soir qund j'tréran fonsdé J'cale mon schlass dans mes fringues, sors les dents acérées Dehors y'a trop d'mains serrées ou trop d'raisons d'se faire serrer Errer dans les blocs pousse les jeunes au scandale, à flairer J'ai plus l'âge pour l'centre aéré, mes potes sont tous vandales, Opérer la nuit, marcher entre les seringues et les flaques d'eau C'est ça la France, évident comme un Black qui bosse au McDo' Dans ma ruche les filles sont sexy comme le péché Elles t'aguichent et chez les schmidts tu t'fais sécher Fait chier, shit, merde, mon bic éclate les bâtiments Que j'sois damné si j'mens, ma rime claque comme le châtiment Le crime paie quand la paix prime J'nique la balance et l'épée d'la rue, j'suis pas une victime Scratchs Dans ma rue... J'ai traversé d'un pas rapide la rue de la jeunesse J'ai coupé par le boul'vard du vice en prenant d'la vitesse Merde, j'ai confondu en voulant prendre un raccourci Rue d'l'insociabilité et rue d'l'hypocrisie Avenue d'l'argent, la circulation ça tue J'opte pour le trafic, passe par la rue de la luxure J'ai raté la rue des r'lations que je croyais en face Je crois qu'je suis dans la rue d'la justice mais j'vois qu'c'n'est qu'une impasse J'ai croisé un type au faubourg de la vanité Il arrivait d'la rue des gens qu'ont des choses à s'prouver J'aurais bien fait un bout d'chemin avec lui mais j'l'ai laissé Pas loin d'sa nouvelle résidence, place de l'homosexualité C'est fou c'qu'il peut y avoir du monde à cette heure-ci Au sens giratoire du carr'four de la conn'rie J'l'évite et rentre dans ma rue, passe par celle d'la truand'rie Sachant pertinemment qu'la rue d'la paix est en sens interdit Scratchs Dans ma rue... Dans ma rue, ça taille, même en été Braille, défouraille comme si t'y étais Ramène ton 'scope, gobe des images vraies, minot, chope Ecope la sentence top, toi et tous tes refrés, stop Des méfaits, et fais-nous, un bon reportage Dans ma rue faut qu'tu saches, y'a qu'des jeunes qui ont la rage Pas d'pot, rien qu'des clashs, que ça rage et lâches Faux, usage de faux Un compte-rendu, un rapport carré, joue pas les tarés Avec ta vie, garre et fais gaffe, viens pas t'égarer Ma rue est bourrée de vices, enfoiré, ça on l'sait Epargne-moi tes Parle-moi des belles choses. et Cause de vrais trucs plus positifs, kiffe avec nous Du sexe fou dans ma ruche des fois c'est bon Viens faire un tour, garçon, enlève tes pe-poms Viens marcher sur la braise à Villiers-l'Bel, au Sixième Chaudron Scratchs Dans ma rue... Sur les Liaisons Dangereuses Dans ma rue... Sur les Liaisons Dangereuses Dans ma rue... Sur les Liaisons Dangereuses Dans ma rue... Dangereuses... Dans ma rue... Les lascars se serrent la main Ce n'est pas comme dans l'show-biz</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Ma rue est bourrée de vice À chacun ses délices, à chacun sa 8.6 Dans ma rue, les lascars se serrent la main Ce n'est pas comme dans le show-biz Où les mecs se font la bise Dans ma rue, les Chinois s'entraident et se tiennent par la main Les Youpins s'éclatent et font des magasins Et tous les lascars fument sur les mêmes joints Dans ma rue, c'est une pub pour Benetton Et tout le monde écoute les mêmes sons à fond Mangeurs de casher ou de saucisson Dans ma rue, je suis posé, je marche tranquille dans la ville J'esquive les civils et reste le patron du style À chacun sa banlieue. La mienne, je l'aime Et elle s'appelle le 18ème Dans ma rue Dans ma rue Dans ma rue, pour communiquer il faut être trilingue Et faire attention quand on marche sur des seringues Se méfier des dingues qui sortent leurs flingues Dans ma rue, les péripatéticiennes craquent pour du Crack Les pompiers les réveillent en leur mettant des claques Personne ne veut tenter le bouche à bouche Les clodos s'échappent pour ne pas prendre de douche Dans ma rue, le vendeur de grec veut nous empoisonner Sa viande est bizarre, son huile est périmée Comme moi l'épicier fait ses courses à Ed Il m'revend les mêmes produits Que j'achète l'aprés-midi 4 ou 5 fois plus cher la nuit Dans ma rue, ça vole, ça viole Mais qu'est-ce que tu veux ? À chacun sa banlieue. La mienne, je l'aime Et elle s'appelle Dans ma rue Dans ma rue Porte de la Chapelle Terminus Tout le monde descend, reste ou prend son bus Bienvenue dans ma rue Où la crasse colle à tes pieds sur le trottoir comme de la glue Bienvenue dans ma rue Où les pigeons meurent dans le caniveau À force de manger du dégueulis de toxico Dans ma rue, autant de flics que de mecs cocus Les coiffeurs racontent des blagues aux dealers Les policiers donnent des planques aux voleurs Le facteur aide le maquereau à relever les compteurs J'ai été élu président de ma rue J'ai placé mes ministres Tout le monde est corrompu... À chacun sa banlieue. La mienne, je l'aime Et elle s'appelle le 18ème Dans ma rue Dans ma rue You might also like Yeah, Big Black M Dans ma rue Dans ma rue Les yeux plus gros que Doc Gynéco Les yeux plus gros que le monde Dans ma rue, yeah Secteur Ä Dans ma rue Yeah Dans ma rue, yeah Dans ma rue Yeah1</t>
+          <t>Ma rue est bourrée de vice À chacun ses délices, à chacun sa 8.6 Dans ma rue, les lascars se serrent la main Ce n'est pas comme dans le show-biz Où les mecs se font la bise Dans ma rue, les Chinois s'entraident et se tiennent par la main Les Youpins s'éclatent et font des magasins Et tous les lascars fument sur les mêmes joints Dans ma rue, c'est une pub pour Benetton Et tout le monde écoute les mêmes sons à fond Mangeurs de casher ou de saucisson Dans ma rue, je suis posé, je marche tranquille dans la ville J'esquive les civils et reste le patron du style À chacun sa banlieue. La mienne, je l'aime Et elle s'appelle le 18ème Dans ma rue Dans ma rue Dans ma rue, pour communiquer il faut être trilingue Et faire attention quand on marche sur des seringues Se méfier des dingues qui sortent leurs flingues Dans ma rue, les péripatéticiennes craquent pour du Crack Les pompiers les réveillent en leur mettant des claques Personne ne veut tenter le bouche à bouche Les clodos s'échappent pour ne pas prendre de douche Dans ma rue, le vendeur de grec veut nous empoisonner Sa viande est bizarre, son huile est périmée Comme moi l'épicier fait ses courses à Ed Il m'revend les mêmes produits Que j'achète l'aprés-midi 4 ou 5 fois plus cher la nuit Dans ma rue, ça vole, ça viole Mais qu'est-ce que tu veux ? À chacun sa banlieue. La mienne, je l'aime Et elle s'appelle Dans ma rue Dans ma rue Porte de la Chapelle Terminus Tout le monde descend, reste ou prend son bus Bienvenue dans ma rue Où la crasse colle à tes pieds sur le trottoir comme de la glue Bienvenue dans ma rue Où les pigeons meurent dans le caniveau À force de manger du dégueulis de toxico Dans ma rue, autant de flics que de mecs cocus Les coiffeurs racontent des blagues aux dealers Les policiers donnent des planques aux voleurs Le facteur aide le maquereau à relever les compteurs J'ai été élu président de ma rue J'ai placé mes ministres Tout le monde est corrompu... À chacun sa banlieue. La mienne, je l'aime Et elle s'appelle le 18ème Dans ma rue Dans ma rue Yeah, Big Black M Dans ma rue Dans ma rue Les yeux plus gros que Doc Gynéco Les yeux plus gros que le monde Dans ma rue, yeah Secteur Ä Dans ma rue Yeah Dans ma rue, yeah Dans ma rue Yeah1</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Ouais, y'a du spy dans l'air, wouh! Y'a du spy dans l'air Si j'assure au pieu et que le lit prend feu Si avec des si j'te fais monter dans les cieux Ce n'est pas entre tes cuisses que naîtra le bonheur Il n'y a qu'après l'amour que j'entends battre mon coeur Simple locataire de ton corps, de ta chair Toi la proprio de toute ma vie sur cette terre Elle m'a trouvé beau, moi le bébé du ghetto Ça groove dans les salles écoute, suis la réal' Box-office mais que fait la police ? Doc Gy' fait swinguer les miss It could be fire, you could be higher, you could be fire It could be fire, you could be higher, you could be fire It could be higher, it could be fire, we're talking higher Comme une fusée dans l'espace, passe Traverse le temps en face et il classe, yes Détruit ses adversaires dans les face-à-face Accomplit sa mission et s'efface tout moss Comme une fusée dans l'espace, passe Traverse le temps en face et il classe, yes Détruit ses adversaires dans les face-à-face Accomplit sa mission et s'efface tout moss You might also like It could be fire, you could be higher, you could be fire It could be fire, you could be higher, you could be fire It could be fire, you could be higher, you could be fire It could be higher, it could be fire, we're talking higher</t>
+          <t>Ouais, y'a du spy dans l'air, wouh! Y'a du spy dans l'air Si j'assure au pieu et que le lit prend feu Si avec des si j'te fais monter dans les cieux Ce n'est pas entre tes cuisses que naîtra le bonheur Il n'y a qu'après l'amour que j'entends battre mon coeur Simple locataire de ton corps, de ta chair Toi la proprio de toute ma vie sur cette terre Elle m'a trouvé beau, moi le bébé du ghetto Ça groove dans les salles écoute, suis la réal' Box-office mais que fait la police ? Doc Gy' fait swinguer les miss It could be fire, you could be higher, you could be fire It could be fire, you could be higher, you could be fire It could be higher, it could be fire, we're talking higher Comme une fusée dans l'espace, passe Traverse le temps en face et il classe, yes Détruit ses adversaires dans les face-à-face Accomplit sa mission et s'efface tout moss Comme une fusée dans l'espace, passe Traverse le temps en face et il classe, yes Détruit ses adversaires dans les face-à-face Accomplit sa mission et s'efface tout moss It could be fire, you could be higher, you could be fire It could be fire, you could be higher, you could be fire It could be fire, you could be higher, you could be fire It could be higher, it could be fire, we're talking higher</t>
         </is>
       </c>
     </row>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Certains font de la musique, de la peinture De la poésie et de la littérature Mon nom a marqué mon époque et la culture J'ai un language pour te parler personnellement Et aujourd'hui c'est l'heure du renouvellement J'te donne une nourriture adaptée au temps Les inondations y'a saturation, bientôt le déluge mais tu n'comprends rien Après toi le déluge non tu n'crois en rien oh, oh, oh, oooh Egoïste, egoïste Aprés toi le déluge Egoïste, egoïste oh, oh, oooh, oh, ooooh Egoïste, egoïste Aprés toi le déluge Egoïste, egoïste oh, oh, oooh, oh, ooooh On veut t'enlever ton originalité Te dire que t'es un produit de la société Que t'es obligé de penser, de t'habiller De manger comme tout le monde, te robotiser Tu t'isoles donc tu deviens folle Tu te crois livrée à toi même t'as oubliée qu'je t'aime T'attends que la vie passe mais tu n'veux plus rien faire Mais toute seule on ne peut rien faire You might also like Les inondations y'a saturation, bientôt le déluge mais tu n'comprends rien Aprés toi le déluge non tu n'crois en rien oh, oh, oh, oooh Egoïste, egoïste Aprés toi le déluge Egoïste, egoïste oh, oh, oooh, oh, ooooh Egoïste, egoïste Aprés toi le déluge Egoïste, egoïste oh, oh, oooh, oh, ooooh On veut t'enlever ton originalité Te dire que t'es un produit de la société Que t'es obligé de penser, de t'habiller De manger comme tout le monde, te robotiser Les inondations y'a saturation, bientôt le déluge mais tu n'comprends rien Aprés toi le déluge non tu n'crois en rien Egoïste, egoïste Aprés toi le déluge Egoïste, egoïste oh, oh, oooh, oh, ooooh Egoïste, egoïste Aprés toi le déluge Egoïste, egoïste oh, oh, oooh, oh, ooooh</t>
+          <t>Certains font de la musique, de la peinture De la poésie et de la littérature Mon nom a marqué mon époque et la culture J'ai un language pour te parler personnellement Et aujourd'hui c'est l'heure du renouvellement J'te donne une nourriture adaptée au temps Les inondations y'a saturation, bientôt le déluge mais tu n'comprends rien Après toi le déluge non tu n'crois en rien oh, oh, oh, oooh Egoïste, egoïste Aprés toi le déluge Egoïste, egoïste oh, oh, oooh, oh, ooooh Egoïste, egoïste Aprés toi le déluge Egoïste, egoïste oh, oh, oooh, oh, ooooh On veut t'enlever ton originalité Te dire que t'es un produit de la société Que t'es obligé de penser, de t'habiller De manger comme tout le monde, te robotiser Tu t'isoles donc tu deviens folle Tu te crois livrée à toi même t'as oubliée qu'je t'aime T'attends que la vie passe mais tu n'veux plus rien faire Mais toute seule on ne peut rien faire Les inondations y'a saturation, bientôt le déluge mais tu n'comprends rien Aprés toi le déluge non tu n'crois en rien oh, oh, oh, oooh Egoïste, egoïste Aprés toi le déluge Egoïste, egoïste oh, oh, oooh, oh, ooooh Egoïste, egoïste Aprés toi le déluge Egoïste, egoïste oh, oh, oooh, oh, ooooh On veut t'enlever ton originalité Te dire que t'es un produit de la société Que t'es obligé de penser, de t'habiller De manger comme tout le monde, te robotiser Les inondations y'a saturation, bientôt le déluge mais tu n'comprends rien Aprés toi le déluge non tu n'crois en rien Egoïste, egoïste Aprés toi le déluge Egoïste, egoïste oh, oh, oooh, oh, ooooh Egoïste, egoïste Aprés toi le déluge Egoïste, egoïste oh, oh, oooh, oh, ooooh</t>
         </is>
       </c>
     </row>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Si j'étais pas connu, j'rentrerai jamais dans les soirées Si j'étais pas connu, j'serai pas VIP hey Sa m'empêcherai pas d'serré hey Si j'étais pas connu est-ce que tu m'aimerai Baby Célébrité, émission-télé, est-ce que tu me soutiendrais Baby Si j'étais plus premier, si un jour je tombais, j'voudrait compter sur toi Baby C'est décidé, je dois t'aimer, Quoi qu'il arrive faut pas lâcher Si j'étais pas connu, pas promu, pas élu, pas nombru, je suis loin du m'a tu vu Trop loin du super flux Ne t'arrête pas...Mais continue... Trop tard, Je suis venu Être aimé, comme tu es, imparfait C'est l'amour plus-que-parfait X2 Si j'étais pas connu, j'serai jamais sorti d'la rue Quelle s'rait ma vie, j'te raconte pas la garde de rue Resté ais dans l'escalier, erré dans le quartier À l'écart d'la société, j'me fais même plus contrôler Big notoriété, artiste bandit, double nationalité J'peut pas oublier que la vie m'a jeté Accablé, blessé, j'suis pas une célébrité Ne t'arrête pas...Mais continue... Trop tard, Je suis venu Être aimé, comme tu es, imparfait C'est l'amour plus-que-parfait X2 J'ai jamais profité d'la célébrité Jamais touché au meufs qui voulaient coucher J'voulais être aimé, pour ce que j'étais, la musique c'est tous ce que j'ai Pour s'en sortir, et j'en voulais, ya pas d'recette pour être une star De toute manière pour moi il est trop tard Ne t'arrête pas...Mais continue... Trop tard, Je suis venu Être aimé, comme tu es, imparfait C'est l'amour plus-que-parfait X4You might also like</t>
+          <t>Si j'étais pas connu, j'rentrerai jamais dans les soirées Si j'étais pas connu, j'serai pas VIP hey Sa m'empêcherai pas d'serré hey Si j'étais pas connu est-ce que tu m'aimerai Baby Célébrité, émission-télé, est-ce que tu me soutiendrais Baby Si j'étais plus premier, si un jour je tombais, j'voudrait compter sur toi Baby C'est décidé, je dois t'aimer, Quoi qu'il arrive faut pas lâcher Si j'étais pas connu, pas promu, pas élu, pas nombru, je suis loin du m'a tu vu Trop loin du super flux Ne t'arrête pas...Mais continue... Trop tard, Je suis venu Être aimé, comme tu es, imparfait C'est l'amour plus-que-parfait X2 Si j'étais pas connu, j'serai jamais sorti d'la rue Quelle s'rait ma vie, j'te raconte pas la garde de rue Resté ais dans l'escalier, erré dans le quartier À l'écart d'la société, j'me fais même plus contrôler Big notoriété, artiste bandit, double nationalité J'peut pas oublier que la vie m'a jeté Accablé, blessé, j'suis pas une célébrité Ne t'arrête pas...Mais continue... Trop tard, Je suis venu Être aimé, comme tu es, imparfait C'est l'amour plus-que-parfait X2 J'ai jamais profité d'la célébrité Jamais touché au meufs qui voulaient coucher J'voulais être aimé, pour ce que j'étais, la musique c'est tous ce que j'ai Pour s'en sortir, et j'en voulais, ya pas d'recette pour être une star De toute manière pour moi il est trop tard Ne t'arrête pas...Mais continue... Trop tard, Je suis venu Être aimé, comme tu es, imparfait C'est l'amour plus-que-parfait X4</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>La vache, j'ai vu un flash, j'suis ou trop drash, lâche J'crache, j'recrache, j'ai vu le flash J'ai vu un flash, j'attache ma ceinture mais j'ai vu le crash J'ai vu des corps, des morts, panique à bord, c'était trop gore J'sors, j'ai vu un flash, j'ai eu un flash En allant chercher mon cash dans l'bureau de la directrice Comme un parfum de vice elle était allongée sur le bureau C'est chaud, posa sa main sur ma braguette Elle me dit venez derrière j'lui dis en levrette ? Elle me dit non par derrière, qu'est-ce que tu es bete J'ai vu un flash, j'ai vu un flash dans la rue j'entends des voix le soir Des drôles de bruits dans le couloir J'ai vu un flash, une émeute dans les cités dortoirs Chômage, prison, et plus d'espoir J'ai vu un flash immonde comme ce monde Des filles de l'Est en esclavage L'histoire pisse le sang page après page PLC plage, nouvel arrivage, tu peux lire la rage sur certains visages J'ai vu un flash, j'ai envie d'dégueuler ma bouffe Famine, Tiers-Monde, j'ai vu un flash de ouf Un monde qui souffre, la terre qu'étouffe Des gens qui font la queue et se jettent dans un gouffre J'ai vu un flash, c'était une balle de fusil à chaque coin de rue Un tabac, une armurerie, le monde est levis stoned et moi j'suis westone Le rebelle on l'bâillonne, on s'en tamponne J'ai vu un flash, le jour ne se levait plus, la lumière des ténèbres Les étoiles avaient disparues, j'ai eu un flash Planète Terre, six milliards de frères On taxe à chaque frontière et sur l'air qu'on respire, pire Y'avait des mecs qui ne savaient pas lire ni écrire J'ai eu un flash, à l'assemblée, ils connaissent pas la réalité La rue, le monde, notre société You might also likeVitres fumées, garde rapprochée, mais pourtant rien à se reprocher L'encre de ma plume c'est du poison Elle fait kiffer comme l'écaille de poisson J'ai eu un flash jeune, j'ai pris mon destin en main Eu mes examens et j'ai fini médecin Trouvé l'bon chemin pour devenir quelqu'un J'ai eu un flash, y'a trop d'mythos autour de moi Tout le monde se mettait à mentir, moi ça m'fait rire Une maladie qui n'atteint pas la vérité J'ai eu un flash, on avait tous des choses à cacher Mais derrière quelles grimaces les dissimuler J'ai eu un flash, j'ai bu un flash, j'ai eu un flash</t>
+          <t>La vache, j'ai vu un flash, j'suis ou trop drash, lâche J'crache, j'recrache, j'ai vu le flash J'ai vu un flash, j'attache ma ceinture mais j'ai vu le crash J'ai vu des corps, des morts, panique à bord, c'était trop gore J'sors, j'ai vu un flash, j'ai eu un flash En allant chercher mon cash dans l'bureau de la directrice Comme un parfum de vice elle était allongée sur le bureau C'est chaud, posa sa main sur ma braguette Elle me dit venez derrière j'lui dis en levrette ? Elle me dit non par derrière, qu'est-ce que tu es bete J'ai vu un flash, j'ai vu un flash dans la rue j'entends des voix le soir Des drôles de bruits dans le couloir J'ai vu un flash, une émeute dans les cités dortoirs Chômage, prison, et plus d'espoir J'ai vu un flash immonde comme ce monde Des filles de l'Est en esclavage L'histoire pisse le sang page après page PLC plage, nouvel arrivage, tu peux lire la rage sur certains visages J'ai vu un flash, j'ai envie d'dégueuler ma bouffe Famine, Tiers-Monde, j'ai vu un flash de ouf Un monde qui souffre, la terre qu'étouffe Des gens qui font la queue et se jettent dans un gouffre J'ai vu un flash, c'était une balle de fusil à chaque coin de rue Un tabac, une armurerie, le monde est levis stoned et moi j'suis westone Le rebelle on l'bâillonne, on s'en tamponne J'ai vu un flash, le jour ne se levait plus, la lumière des ténèbres Les étoiles avaient disparues, j'ai eu un flash Planète Terre, six milliards de frères On taxe à chaque frontière et sur l'air qu'on respire, pire Y'avait des mecs qui ne savaient pas lire ni écrire J'ai eu un flash, à l'assemblée, ils connaissent pas la réalité La rue, le monde, notre société Vitres fumées, garde rapprochée, mais pourtant rien à se reprocher L'encre de ma plume c'est du poison Elle fait kiffer comme l'écaille de poisson J'ai eu un flash jeune, j'ai pris mon destin en main Eu mes examens et j'ai fini médecin Trouvé l'bon chemin pour devenir quelqu'un J'ai eu un flash, y'a trop d'mythos autour de moi Tout le monde se mettait à mentir, moi ça m'fait rire Une maladie qui n'atteint pas la vérité J'ai eu un flash, on avait tous des choses à cacher Mais derrière quelles grimaces les dissimuler J'ai eu un flash, j'ai bu un flash, j'ai eu un flash</t>
         </is>
       </c>
     </row>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>J'inspire les jeunes à oeuvrer à travailler A entreprendre et à s'marier Dans l'but j'marque des buts pour atteindre mon but Toujours au combat à la radio sur les plateaux télé Besoin d'sérénité quand j'rentre à la maison C'est l'repos du guerrier Pas d'automatique ni d'poing américain J'ai l'choix des moyens donne moi des feuilles, un stylo, des musiciens Pourquoi j'investis du temps, tant d'effort et d'argent pour l'honneur Lui r'donner c'qu'elle m'a donné la France Arrête de lui faire des bras d'honneur T'as pas honte de pas pouvoir donner en retour Et montrer ta reconnaissance, deuxième naissance Illimitée dans tous mes sens Tous motivés par l'intérêt Mais l'intérêt n'est pas l'même J'tiens ma parole comme promis pour la France entière et le 18ème Pas d'stock-options j'suis un salarié J'ai des congés payés, j'peux faire la grève et le pont France ! Elle est tout l'temps en vacances ma France Nous on râle tout le temps en France On fait souvent la grève en France T'as vu l'temps qui fait en France Y a toujours une polémique en France Nous on râle tout le temps en France Quand on voit ce qui s'passe ailleurs On fait souvent la grève en France On est quand même bien en France Elle est tout le temps en vacances ma France Nous on râle tout le temps en France On fait souvent la grève en France On est quand même bien en France You might also like On s'contredit on s'explique Chacun selon son angle et sa personnalité Tu aimes la trap et moi j'aime rapper J'ai mon propre style ma musique Tu travailles en banlieue moi en Afrique Tout le monde n'est pas égal Ne fais pas dans l'illégal On est pas appelé à la même destinée J'suis docteur et si t'as la rage j'ai un vaccin comme Pasteur J'te fais peur, la peur te donne une force qui sommeille au fond d'toi France, t'as un sentiment d'vengeance mais laisse passer Convertis ta colère en bonté France ! Elle est tout l'temps en vacances ma France Nous on râle tout le temps en France On fait souvent la grève en France T'as vu l'temps qui fait en France Y a toujours une polémique en France Nous on râle tout le temps en France Quand on voit ce qui s'passe ailleurs On fait souvent la grève en France On est quand même bien en France Elle est tout le temps en vacances ma France Nous on râle tout le temps en France On fait souvent la grève en France On est quand même bien en France Hyper motivé j'ai ma propre communauté Mais j'garde mon individualité Mon bonnet est une parabole Ma rime sent l'alcool Mon Etat attends de moi des résultats Intemporel, j'capte toutes les choses qui se sont passées Qui existe et qui vont s'passer Cabrel t'aime, t'aimais, et t'aimeras Bolloré nous demande de lire dans l'avenir Pour acheter des actions et faire des placements Doc rapportera, j'suis pas un devin ni un cartomancien J'suis un chanteur sain, pour le futur et le passé ne font qu'un France ! Elle est tout l'temps en vacances ma France Nous on râle tout le temps en France On fait souvent la grève en France T'as vu l'temps qui fait en France Y a toujours une polémique en France Nous on râle tout le temps en France Quand on voit ce qui s'passe ailleurs On fait souvent la grève en France On est quand même bien en France Elle est tout le temps en vacances ma France Nous on râle tout le temps en France On fait souvent la grève en France On est quand même bien en France</t>
+          <t>J'inspire les jeunes à oeuvrer à travailler A entreprendre et à s'marier Dans l'but j'marque des buts pour atteindre mon but Toujours au combat à la radio sur les plateaux télé Besoin d'sérénité quand j'rentre à la maison C'est l'repos du guerrier Pas d'automatique ni d'poing américain J'ai l'choix des moyens donne moi des feuilles, un stylo, des musiciens Pourquoi j'investis du temps, tant d'effort et d'argent pour l'honneur Lui r'donner c'qu'elle m'a donné la France Arrête de lui faire des bras d'honneur T'as pas honte de pas pouvoir donner en retour Et montrer ta reconnaissance, deuxième naissance Illimitée dans tous mes sens Tous motivés par l'intérêt Mais l'intérêt n'est pas l'même J'tiens ma parole comme promis pour la France entière et le 18ème Pas d'stock-options j'suis un salarié J'ai des congés payés, j'peux faire la grève et le pont France ! Elle est tout l'temps en vacances ma France Nous on râle tout le temps en France On fait souvent la grève en France T'as vu l'temps qui fait en France Y a toujours une polémique en France Nous on râle tout le temps en France Quand on voit ce qui s'passe ailleurs On fait souvent la grève en France On est quand même bien en France Elle est tout le temps en vacances ma France Nous on râle tout le temps en France On fait souvent la grève en France On est quand même bien en France On s'contredit on s'explique Chacun selon son angle et sa personnalité Tu aimes la trap et moi j'aime rapper J'ai mon propre style ma musique Tu travailles en banlieue moi en Afrique Tout le monde n'est pas égal Ne fais pas dans l'illégal On est pas appelé à la même destinée J'suis docteur et si t'as la rage j'ai un vaccin comme Pasteur J'te fais peur, la peur te donne une force qui sommeille au fond d'toi France, t'as un sentiment d'vengeance mais laisse passer Convertis ta colère en bonté France ! Elle est tout l'temps en vacances ma France Nous on râle tout le temps en France On fait souvent la grève en France T'as vu l'temps qui fait en France Y a toujours une polémique en France Nous on râle tout le temps en France Quand on voit ce qui s'passe ailleurs On fait souvent la grève en France On est quand même bien en France Elle est tout le temps en vacances ma France Nous on râle tout le temps en France On fait souvent la grève en France On est quand même bien en France Hyper motivé j'ai ma propre communauté Mais j'garde mon individualité Mon bonnet est une parabole Ma rime sent l'alcool Mon Etat attends de moi des résultats Intemporel, j'capte toutes les choses qui se sont passées Qui existe et qui vont s'passer Cabrel t'aime, t'aimais, et t'aimeras Bolloré nous demande de lire dans l'avenir Pour acheter des actions et faire des placements Doc rapportera, j'suis pas un devin ni un cartomancien J'suis un chanteur sain, pour le futur et le passé ne font qu'un France ! Elle est tout l'temps en vacances ma France Nous on râle tout le temps en France On fait souvent la grève en France T'as vu l'temps qui fait en France Y a toujours une polémique en France Nous on râle tout le temps en France Quand on voit ce qui s'passe ailleurs On fait souvent la grève en France On est quand même bien en France Elle est tout le temps en vacances ma France Nous on râle tout le temps en France On fait souvent la grève en France On est quand même bien en France</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Ola ou té yé! di mwen sa ki ka passé... Ola ou té yé! bb léssé mwen souflé... Ola ou té yééé? Ou té pou vine chèché mwen mé ou po Jin rivé! Ola ou té yé! Mwen ja paré! Ola ou té yé mwen bisouin zouké! An té bastè évè en jeune ti flè ki di mwen bruno donne Moi du coco! Mé ka ou ka di la? Ayin! En té bastè men té Bisouin prend lè! Oooooh! ou ka plin tete en mwen, mwen Éméw sa sé sètin! Yo bisouin tripé é sé pa fot en Mwen!You might also like</t>
+          <t>Ola ou té yé! di mwen sa ki ka passé... Ola ou té yé! bb léssé mwen souflé... Ola ou té yééé? Ou té pou vine chèché mwen mé ou po Jin rivé! Ola ou té yé! Mwen ja paré! Ola ou té yé mwen bisouin zouké! An té bastè évè en jeune ti flè ki di mwen bruno donne Moi du coco! Mé ka ou ka di la? Ayin! En té bastè men té Bisouin prend lè! Oooooh! ou ka plin tete en mwen, mwen Éméw sa sé sètin! Yo bisouin tripé é sé pa fot en Mwen!</t>
         </is>
       </c>
     </row>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Hé mais t'es qui toi ? T'es qui ?! J'suis le Funk Master Sex des bitches De Paris a Beach Miami encaisse mon style et kiffe ma face lady On a notre propre école de fans, façon barbare J'te montre ma barre, style tarzan, string léopard Elle crie le nom d'ma clique Time Bomb ! Malka Pit Du 19ème au 20ème en passant par ma cave mec ! Les mecs de Time Bomb ne boostent pas d'épaves On n'fait pas de chichis, enlève ton sous-tif et ton caleçon Whisky, Coca, Bacardi, saoule toi chéri Puis on joue à Jaques à dit, des p'tits mouvements saccadés Dans mon sac à dos, pas de pote-ca Si t'es mon pote gars, passe moi une négro pour que j'la vaille-tra Les bitches m'aiment, comme les X-men aiment les femmes Si ton lascar tombe en panne, fait un tour dans ma cabane D'Ali baba, t'inquiètes pas, les quarante voleurs n'y sont pas Mais le trésor y est, c'est parti pour la salsa !You might also like</t>
+          <t>Hé mais t'es qui toi ? T'es qui ?! J'suis le Funk Master Sex des bitches De Paris a Beach Miami encaisse mon style et kiffe ma face lady On a notre propre école de fans, façon barbare J'te montre ma barre, style tarzan, string léopard Elle crie le nom d'ma clique Time Bomb ! Malka Pit Du 19ème au 20ème en passant par ma cave mec ! Les mecs de Time Bomb ne boostent pas d'épaves On n'fait pas de chichis, enlève ton sous-tif et ton caleçon Whisky, Coca, Bacardi, saoule toi chéri Puis on joue à Jaques à dit, des p'tits mouvements saccadés Dans mon sac à dos, pas de pote-ca Si t'es mon pote gars, passe moi une négro pour que j'la vaille-tra Les bitches m'aiment, comme les X-men aiment les femmes Si ton lascar tombe en panne, fait un tour dans ma cabane D'Ali baba, t'inquiètes pas, les quarante voleurs n'y sont pas Mais le trésor y est, c'est parti pour la salsa !</t>
         </is>
       </c>
     </row>
@@ -1160,7 +1160,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Encore des mots qui décapent, et du style dans la sape Des violons qui t'éclatent, une autre idée du rap Des baskets neuves sous les projecteurs Style séducteur, viens voir le docteur Ok c'est l'heure, non n'aie pas peur Chanteur, loveur et sélecteur Acteur, tueur, super tombeur Oublie le taxi, girl, j'ai un chauffeur J'peux recevoir ou me déplacer Au bout du monde aller te chercher Bien ! La jupe fendue et le décolleté touche avec précaution De la soie, du tulle, non, du coton Je parle, je frime, j'embellis la vie de rimes Un smok', une robe, je t'emmène chez Maxim's x2 I've got to know ya I want to know ya You've got to know that I really got to know ya Rap, funk rap, et du son qui tape Eh pote ! Ca t'épate ? Mets les kilowatts Le cash money, c'est du ro qui brille Le cash flow, c'est mes mots qui scintillent Repère ma langue sur ta chair J'me désaltère, tes jambes en équerre Oui laisse-moi faire, adhère Ton bébé du ghetto a du savoir-faire C'est plus romantique que le bord de mer Alors, viens chez moi boire un dernier verre Je parle, je frime, j'embellis la vie de rimes Un smok', une robe, je t'emmène chez Maxim's You might also like x2 I've got to know ya I want to know ya You've got to know that I really got to know ya Pur son, garçon, te pose pas d'questions J'mets la pression sur microsillon J'carbure, plus c'est bon, plus ça dure, ah bon ? Plus ça dure, plus j'assure, et tu cries mon nom Pôle position, jeux polissons, j'entre en action C'est du Doc avec mention, c'est du Doc à réaction Ma plume décolle et y'a pas d'ratures Ma bouche passe à l'action et je pose ma signature Je parle, je frime, j'embellis la vie de rimes Un smok', une robe, et tu saisis mes maximes x2 I've got to know ya I want to know ya You've got to know that I really got to know ya</t>
+          <t>Encore des mots qui décapent, et du style dans la sape Des violons qui t'éclatent, une autre idée du rap Des baskets neuves sous les projecteurs Style séducteur, viens voir le docteur Ok c'est l'heure, non n'aie pas peur Chanteur, loveur et sélecteur Acteur, tueur, super tombeur Oublie le taxi, girl, j'ai un chauffeur J'peux recevoir ou me déplacer Au bout du monde aller te chercher Bien ! La jupe fendue et le décolleté touche avec précaution De la soie, du tulle, non, du coton Je parle, je frime, j'embellis la vie de rimes Un smok', une robe, je t'emmène chez Maxim's x2 I've got to know ya I want to know ya You've got to know that I really got to know ya Rap, funk rap, et du son qui tape Eh pote ! Ca t'épate ? Mets les kilowatts Le cash money, c'est du ro qui brille Le cash flow, c'est mes mots qui scintillent Repère ma langue sur ta chair J'me désaltère, tes jambes en équerre Oui laisse-moi faire, adhère Ton bébé du ghetto a du savoir-faire C'est plus romantique que le bord de mer Alors, viens chez moi boire un dernier verre Je parle, je frime, j'embellis la vie de rimes Un smok', une robe, je t'emmène chez Maxim's x2 I've got to know ya I want to know ya You've got to know that I really got to know ya Pur son, garçon, te pose pas d'questions J'mets la pression sur microsillon J'carbure, plus c'est bon, plus ça dure, ah bon ? Plus ça dure, plus j'assure, et tu cries mon nom Pôle position, jeux polissons, j'entre en action C'est du Doc avec mention, c'est du Doc à réaction Ma plume décolle et y'a pas d'ratures Ma bouche passe à l'action et je pose ma signature Je parle, je frime, j'embellis la vie de rimes Un smok', une robe, et tu saisis mes maximes x2 I've got to know ya I want to know ya You've got to know that I really got to know ya</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>My dick is my gunshot My dick is my gunshot Ça parle de gunshot, flingue, Jack et d'scott De sniper, one shot et de jackpot De meufs qui transpirent sous les spots De mecs qui arrivent avec une flopée d'potes Boom boom sur le dancefloor, soirée hip-hop Ambiance wet wet comme dans un sex-shop Les gyals en mini dansent le hoola-hop Chupa Chups dans la bouche, ouais c'est bon j'te chope T'es venue avec ton mec toi? non allez hop ah ouais chez vous c'est non-stop? Ouais, jamais d'flop On fume des meufs comme on fume des clopes Rocco du ghetto dans tous les blocs blocs blocs My dick is My dick is my gunshot My dick is my gunshot My dick is My dick is my gunshot My dick is my gunshot My dick is my gunshot My dick is You might also like On y va, Doc Gynéco toujours présent pour les tes-po La même ce-sau, j'ai la salsa, un peu d'piment sur le tempo J'en jette, j'te balance Mon numéro Arrête, danse, mets ça à fond sur le ste-po En verlan, j'suis trop lent J'ai tout mon t... temporiser, c'te flow est validé On veut nous diviser Briser nos alliance mais Koss' est mon allié J'suis fou, et je finance le West Indies crew Tchatcheur, vole-moi des lyrics et tu seras à l'heure Bluffe ta meuf pour une partie de seufs Ça t'fout la haine qu'elle m'aime et qu'elle aime bouger ses seufs Trop d'keufs, laisse-la vivre, ivre Vague hip-hop, elle surfe Surfe sur ma planche, fais bouger tes hanches Moi j'suis patron, tu cherches du piston J'te laisserai pas faire le taf, fiston Derrière le bureau j'préfère J'en fais jamais trop, pépère Si tu m'cherches devant l'micro, yes J'te ferai voir Mes cojones My dick is My dick is my gunshot My dick is my gunshot My dick is My dick is my gunshot My dick is my gunshot My dick is my gunshot My dick is Loft 2, J-1, c'est demain l'jour J Et Doc G, mes graines de star, si elles veulent elles peuvent les toucher J'me fais rare et précieux Un vrai bijou d'famille, sérieux Écoute c'que j'crache avec ma bouche et mon stylo Hardcore, fais mieux, chanteur porno c'est mieux C'est moi Bruno et dans la rime j'suis encore plus chaud J'suis allé chercher les plus grands chiens du quartier Laisse la chienne au chenil, on fera pas d'quartier Rimes classées X, moral au beau fixe Dans les bacs on place nos disques et c'est un double impact Double péné, double peine, double assaut Double flow qui glisse dans un double orifice Fissuré, stop, et lacéré J'te pivote, ôte ta culotte si t'es cap' cocotte T'accroche au lit avec des menottes Eh Doc sur sa bouche il reste du Danone La pin-up, elle est plus crade que l'journal du hard Mec t'es ouf ou quoi? j'touche pas ces clochardes J'vais la saper j'vais la laver et sous la boue t'auras une taspé C'est pour les mecs et les demoiselles Ouais ouais, XXL J'aime les filles Ah bon, ah bon Des magazines T'es un mytho, t'es un mytho Eh Doc Gynéco, espèce de salaud va Vas-y, laisse-moi, laisse-moi gros J'aime les filles Attends, attends, j'vais m'occuper d'elle là J'commande, après, tu... on fait comme ça? Moi, j'vais derrière, moi T'as vu, t'as vu? Mais non, mais Koss arrête... mais non... Mais pourquoi elle jouit en anglais, elle est bizarre Attends, attends, attends, j'm'occupe d'elle Ah, Gynéco, ha ha, Gynéco Tu l'as trouvée où celle-là? Bah vas-y embrasse ta copine, touche les fesses à ta copine Dédicace à Vaness', Dolly, Sally, Nathalie, Tiffany Pourquoi t'as pas ramené tes copines? Dolorès, c'est celle-là qu'a un gros XXX Eh ouais, my dick is my Gunshot My dick is my Pistolet My dick is</t>
+          <t>My dick is my gunshot My dick is my gunshot Ça parle de gunshot, flingue, Jack et d'scott De sniper, one shot et de jackpot De meufs qui transpirent sous les spots De mecs qui arrivent avec une flopée d'potes Boom boom sur le dancefloor, soirée hip-hop Ambiance wet wet comme dans un sex-shop Les gyals en mini dansent le hoola-hop Chupa Chups dans la bouche, ouais c'est bon j'te chope T'es venue avec ton mec toi? non allez hop ah ouais chez vous c'est non-stop? Ouais, jamais d'flop On fume des meufs comme on fume des clopes Rocco du ghetto dans tous les blocs blocs blocs My dick is My dick is my gunshot My dick is my gunshot My dick is My dick is my gunshot My dick is my gunshot My dick is my gunshot My dick is On y va, Doc Gynéco toujours présent pour les tes-po La même ce-sau, j'ai la salsa, un peu d'piment sur le tempo J'en jette, j'te balance Mon numéro Arrête, danse, mets ça à fond sur le ste-po En verlan, j'suis trop lent J'ai tout mon t... temporiser, c'te flow est validé On veut nous diviser Briser nos alliance mais Koss' est mon allié J'suis fou, et je finance le West Indies crew Tchatcheur, vole-moi des lyrics et tu seras à l'heure Bluffe ta meuf pour une partie de seufs Ça t'fout la haine qu'elle m'aime et qu'elle aime bouger ses seufs Trop d'keufs, laisse-la vivre, ivre Vague hip-hop, elle surfe Surfe sur ma planche, fais bouger tes hanches Moi j'suis patron, tu cherches du piston J'te laisserai pas faire le taf, fiston Derrière le bureau j'préfère J'en fais jamais trop, pépère Si tu m'cherches devant l'micro, yes J'te ferai voir Mes cojones My dick is My dick is my gunshot My dick is my gunshot My dick is My dick is my gunshot My dick is my gunshot My dick is my gunshot My dick is Loft 2, J-1, c'est demain l'jour J Et Doc G, mes graines de star, si elles veulent elles peuvent les toucher J'me fais rare et précieux Un vrai bijou d'famille, sérieux Écoute c'que j'crache avec ma bouche et mon stylo Hardcore, fais mieux, chanteur porno c'est mieux C'est moi Bruno et dans la rime j'suis encore plus chaud J'suis allé chercher les plus grands chiens du quartier Laisse la chienne au chenil, on fera pas d'quartier Rimes classées X, moral au beau fixe Dans les bacs on place nos disques et c'est un double impact Double péné, double peine, double assaut Double flow qui glisse dans un double orifice Fissuré, stop, et lacéré J'te pivote, ôte ta culotte si t'es cap' cocotte T'accroche au lit avec des menottes Eh Doc sur sa bouche il reste du Danone La pin-up, elle est plus crade que l'journal du hard Mec t'es ouf ou quoi? j'touche pas ces clochardes J'vais la saper j'vais la laver et sous la boue t'auras une taspé C'est pour les mecs et les demoiselles Ouais ouais, XXL J'aime les filles Ah bon, ah bon Des magazines T'es un mytho, t'es un mytho Eh Doc Gynéco, espèce de salaud va Vas-y, laisse-moi, laisse-moi gros J'aime les filles Attends, attends, j'vais m'occuper d'elle là J'commande, après, tu... on fait comme ça? Moi, j'vais derrière, moi T'as vu, t'as vu? Mais non, mais Koss arrête... mais non... Mais pourquoi elle jouit en anglais, elle est bizarre Attends, attends, attends, j'm'occupe d'elle Ah, Gynéco, ha ha, Gynéco Tu l'as trouvée où celle-là? Bah vas-y embrasse ta copine, touche les fesses à ta copine Dédicace à Vaness', Dolly, Sally, Nathalie, Tiffany Pourquoi t'as pas ramené tes copines? Dolorès, c'est celle-là qu'a un gros XXX Eh ouais, my dick is my Gunshot My dick is my Pistolet My dick is</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Je m'en fous de ce qu'ils peuvent penser Au moins moi je sais Que c'est pour eux qu'on ouvre des bordels en Thaïlande Il y en a que pour eux Ils disent que la France est grande Je me demande A quel maquereau je paie des impôts C'est à celui qui me traite de négro Qui me dit que ça pue dans mes escaliers Et que ça gêne qui ? Mon voisin de palier Un mec qui se saoule au Ricard et frappe sa femme Vivre au quartier est tout son drame Qui me voit en BM et dit que je vends de la came ? Qui fait des fausses dépositions ? Qui fout des mecs en prison ? Qui va pleurer au poste ? Et qui porte du Lacoste ? Être né sous le signe de l'Hexagone C'est vraiment pas une sinécure Et le roi des cons sur son trône Il est Français, ça j'en suis sûr Qui prend de l'ampleur et qui fait peur ? Mais dis moi qui contrôle le Secteur ? Je te le demande Qui a fait la meilleure propagande ? Veut propulser et fait parler de son gang ? Qui peut changer une major en label indépendant ? Qui fait des disques de plus en plus bandant ? Quel docteur te propose un diagnostic ? Qui pousse la musique plus haut que le fric ? Mais qui ? Je te le demande pas, je te le dis Qui t'écrase ? Quel est le nom du joueur qui est en première base ? Qui cache sa haine derrière une cravate ? Le même qui te fait ber-tom quand tu le savates You might also like Être né sous le signe de l'Hexagone On ne peut pas dire que ça soit bandant Si le roi des cons perdait son trône Il y aurait un max de prétendants Leur pinard et leur camembert, c'est leur seule gloire à ces tarés La France est un pays de flics A tous les coins de rue, il y en a cent Pour faire régner l'ordre public Ils assassinent impunément Être né sous le signe de l'Hexagone On ne peut pas dire que ça soit bandant Si le roi des cons perdait son trône Il y aurait cinquante millions de prétendants</t>
+          <t>Je m'en fous de ce qu'ils peuvent penser Au moins moi je sais Que c'est pour eux qu'on ouvre des bordels en Thaïlande Il y en a que pour eux Ils disent que la France est grande Je me demande A quel maquereau je paie des impôts C'est à celui qui me traite de négro Qui me dit que ça pue dans mes escaliers Et que ça gêne qui ? Mon voisin de palier Un mec qui se saoule au Ricard et frappe sa femme Vivre au quartier est tout son drame Qui me voit en BM et dit que je vends de la came ? Qui fait des fausses dépositions ? Qui fout des mecs en prison ? Qui va pleurer au poste ? Et qui porte du Lacoste ? Être né sous le signe de l'Hexagone C'est vraiment pas une sinécure Et le roi des cons sur son trône Il est Français, ça j'en suis sûr Qui prend de l'ampleur et qui fait peur ? Mais dis moi qui contrôle le Secteur ? Je te le demande Qui a fait la meilleure propagande ? Veut propulser et fait parler de son gang ? Qui peut changer une major en label indépendant ? Qui fait des disques de plus en plus bandant ? Quel docteur te propose un diagnostic ? Qui pousse la musique plus haut que le fric ? Mais qui ? Je te le demande pas, je te le dis Qui t'écrase ? Quel est le nom du joueur qui est en première base ? Qui cache sa haine derrière une cravate ? Le même qui te fait ber-tom quand tu le savates Être né sous le signe de l'Hexagone On ne peut pas dire que ça soit bandant Si le roi des cons perdait son trône Il y aurait un max de prétendants Leur pinard et leur camembert, c'est leur seule gloire à ces tarés La France est un pays de flics A tous les coins de rue, il y en a cent Pour faire régner l'ordre public Ils assassinent impunément Être né sous le signe de l'Hexagone On ne peut pas dire que ça soit bandant Si le roi des cons perdait son trône Il y aurait cinquante millions de prétendants</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>J'n'ai jamais été le premier de la classe J'ai toujours été perdu dans la masse Des perturbateurs, c'était moi l'agitateur Le mec qui n'était jamais à l'heure Les profs avaient marre des billets de retard Des absences non justifiées, des bulletins jamais signés Alors vite fait on m'a renvoyé Je gardais l'argent de ma carte orange Pour m'acheter des images et les derniers Strange Je rêvais de foot et de force dans mes shoot À quatre heures et demie je rentrais out Devant Récré A2 je mettais le feu Jouer avec le dissolvant Je toujours trouver ça marrant Mes parents m'ont parlé, j'n'ai jamais écouté J'ai toujours suivi mes amis dans tous les délires Et même les pires, j'ai su en rire Et non rien de rien, non je ne regrette rien x4 Non non non non non non, je ne regrette rien J'ai stoppé l'école et commencé l'alcool J'suis pris dans les femmes, dans la flambe et le rap Faut que j'm'échappe ça fait longtemps, ça date Toutes ces soirées ou j'étais bien sapé La tête alcoolisée, j'me mettais à tchatcher Celle qu'en temps normal j'n'aurais pas calculées My-Sto Bruno le duo du quartier, de Porte de la Chapelle je suis passé à Sarcelles Oui j'ai visité la seconde capitale où les baskets sont blanches Et les mecs s'appellent Timal, Stomy, Bouboul, Guetch, Passi ou Kenzy Des mec sans failles qui tirent et tchao bye-bye Ok je stoppe sur les détails car je sais que tu bloque sur la secte Abdoulaye Et si maintenant je rappe et que mon style décape D'acc ou pas d'acc Doc t'a mis une tape Grace à My-Sto j'ai erré dans les studios J'ai posé mes mots et instauré mon flow Mais dis-moi qui suis-je, le doc Gyneco Et non rien de rien je ne regrette rien You might also like x4 Non non non non non non, je ne regrette rien Je n'ai rien à prouver mais beaucoup de personnes à aider Donc, je dois travailler, et je me lance dans ce monde de requins On m'a dit Bruno méfie-toi c'est malsain Plume m'a dit Bruno, viens chez nous, là-bas ça craint Alors je reste polie et dors je dors Adieu la caravelle j'opte pour Delabel Car je plane sur les ailes de mon ami Thierry Philippe, oui oui et monsieur Ascoli Les contrats sont tapés, maitre Schmidt a négocié J'ai vu des blocs de papier et je les ai tous signés Bienvenue dans la maison, bienvenue dans ma clinique Fais ta musique, nous on vend tes disques Le médecin chef monsieur de Buretel Les infirmières de promo sont toutes très belles Une photo Polaroid et suivez le guide J'ai serré des mains et fait des bises Mais qu'on se le dise... Ah non rien de rien je ne regrette rien Non non non non non non, je ne regrette rien Mais non non non non non non, je ne regrette rien Non non non non non non Je ne regrette rien Non non non non non non, je ne regrette rien Non non non non non non, je ne regrette rien Non non non non non non, je ne regrette rien Mais non non non non non non, je ne regrette rien</t>
+          <t>J'n'ai jamais été le premier de la classe J'ai toujours été perdu dans la masse Des perturbateurs, c'était moi l'agitateur Le mec qui n'était jamais à l'heure Les profs avaient marre des billets de retard Des absences non justifiées, des bulletins jamais signés Alors vite fait on m'a renvoyé Je gardais l'argent de ma carte orange Pour m'acheter des images et les derniers Strange Je rêvais de foot et de force dans mes shoot À quatre heures et demie je rentrais out Devant Récré A2 je mettais le feu Jouer avec le dissolvant Je toujours trouver ça marrant Mes parents m'ont parlé, j'n'ai jamais écouté J'ai toujours suivi mes amis dans tous les délires Et même les pires, j'ai su en rire Et non rien de rien, non je ne regrette rien x4 Non non non non non non, je ne regrette rien J'ai stoppé l'école et commencé l'alcool J'suis pris dans les femmes, dans la flambe et le rap Faut que j'm'échappe ça fait longtemps, ça date Toutes ces soirées ou j'étais bien sapé La tête alcoolisée, j'me mettais à tchatcher Celle qu'en temps normal j'n'aurais pas calculées My-Sto Bruno le duo du quartier, de Porte de la Chapelle je suis passé à Sarcelles Oui j'ai visité la seconde capitale où les baskets sont blanches Et les mecs s'appellent Timal, Stomy, Bouboul, Guetch, Passi ou Kenzy Des mec sans failles qui tirent et tchao bye-bye Ok je stoppe sur les détails car je sais que tu bloque sur la secte Abdoulaye Et si maintenant je rappe et que mon style décape D'acc ou pas d'acc Doc t'a mis une tape Grace à My-Sto j'ai erré dans les studios J'ai posé mes mots et instauré mon flow Mais dis-moi qui suis-je, le doc Gyneco Et non rien de rien je ne regrette rien x4 Non non non non non non, je ne regrette rien Je n'ai rien à prouver mais beaucoup de personnes à aider Donc, je dois travailler, et je me lance dans ce monde de requins On m'a dit Bruno méfie-toi c'est malsain Plume m'a dit Bruno, viens chez nous, là-bas ça craint Alors je reste polie et dors je dors Adieu la caravelle j'opte pour Delabel Car je plane sur les ailes de mon ami Thierry Philippe, oui oui et monsieur Ascoli Les contrats sont tapés, maitre Schmidt a négocié J'ai vu des blocs de papier et je les ai tous signés Bienvenue dans la maison, bienvenue dans ma clinique Fais ta musique, nous on vend tes disques Le médecin chef monsieur de Buretel Les infirmières de promo sont toutes très belles Une photo Polaroid et suivez le guide J'ai serré des mains et fait des bises Mais qu'on se le dise... Ah non rien de rien je ne regrette rien Non non non non non non, je ne regrette rien Mais non non non non non non, je ne regrette rien Non non non non non non Je ne regrette rien Non non non non non non, je ne regrette rien Non non non non non non, je ne regrette rien Non non non non non non, je ne regrette rien Mais non non non non non non, je ne regrette rien</t>
         </is>
       </c>
     </row>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Ma rue est bourrée de vice À chacun ses délices, à chacun sa 8.6 Dans ma rue, les lascars se serrent la main Ce n'est pas comme dans le show-biz Où les mecs se font la bise Dans ma rue, les Chinois s'entraident et se tiennent par la main Les Youpins s'éclatent et font des magasins Et tous les lascars fument sur les mêmes joints Dans ma rue, c'est une pub pour Benetton Et tout le monde écoute les mêmes sons à fond Mangeurs de casher ou de saucisson Dans ma rue, je suis posé, je marche tranquille dans la ville J'esquive les civils et reste le patron du style À chacun sa banlieue. La mienne, je l'aime Et elle s'appelle le 18ème I'm high from the chronic and I can't get up x4 Dans ma rue, pour communiquer il faut être trilingue Et faire attention quand on marche sur des seringues Se méfier des dingues qui sortent leurs flingues Dans ma rue, les péripatéticiennes craquent pour du Crack Les pompiers les réveillent en leur mettant des claques Personne ne veut tenter le bouche à bouche Les clodos s'échappent pour ne pas prendre de douche Dans ma rue, le vendeur de grec veut nous empoisonner Sa viande est bizarre, son huile est périmée Comme moi l'épicier fait ses courses à Ed Il m'revend les mêmes produits Que j'achète l'aprés-midi 4 ou 5 fois plus cher la nuit Dans ma rue, ça vole, ça viole Mais qu'est-ce que tu veux ? À chacun sa banlieue. La mienne, je l'aime Et elle s'appelle You might also likeI'm high from the chronic and I can't get up x4 Porte de la Chapelle Terminus Tout le monde descend, reste ou prend son bus Bienvenue dans ma rue Où la crasse colle à tes pieds sur le trottoir comme de la glu Bienvenue dans ma rue Où les pigeons meurent dans le caniveau À force de manger du dégueulis de toxico Dans ma rue, autant de flics que de mecs cocus Les coiffeurs racontent des blagues aux dealers Les policiers donnent des planques aux voleurs Le facteur aide le maquereau à relever les compteurs J'ai été élu président de ma rue J'ai placé mes ministres Tout le monde est corrompu... À chacun sa banlieue. La mienne, je l'aime Et elle s'appelle le 18ème I'm high from the chronic and I can't get up</t>
+          <t>Ma rue est bourrée de vice À chacun ses délices, à chacun sa 8.6 Dans ma rue, les lascars se serrent la main Ce n'est pas comme dans le show-biz Où les mecs se font la bise Dans ma rue, les Chinois s'entraident et se tiennent par la main Les Youpins s'éclatent et font des magasins Et tous les lascars fument sur les mêmes joints Dans ma rue, c'est une pub pour Benetton Et tout le monde écoute les mêmes sons à fond Mangeurs de casher ou de saucisson Dans ma rue, je suis posé, je marche tranquille dans la ville J'esquive les civils et reste le patron du style À chacun sa banlieue. La mienne, je l'aime Et elle s'appelle le 18ème I'm high from the chronic and I can't get up x4 Dans ma rue, pour communiquer il faut être trilingue Et faire attention quand on marche sur des seringues Se méfier des dingues qui sortent leurs flingues Dans ma rue, les péripatéticiennes craquent pour du Crack Les pompiers les réveillent en leur mettant des claques Personne ne veut tenter le bouche à bouche Les clodos s'échappent pour ne pas prendre de douche Dans ma rue, le vendeur de grec veut nous empoisonner Sa viande est bizarre, son huile est périmée Comme moi l'épicier fait ses courses à Ed Il m'revend les mêmes produits Que j'achète l'aprés-midi 4 ou 5 fois plus cher la nuit Dans ma rue, ça vole, ça viole Mais qu'est-ce que tu veux ? À chacun sa banlieue. La mienne, je l'aime Et elle s'appelle I'm high from the chronic and I can't get up x4 Porte de la Chapelle Terminus Tout le monde descend, reste ou prend son bus Bienvenue dans ma rue Où la crasse colle à tes pieds sur le trottoir comme de la glu Bienvenue dans ma rue Où les pigeons meurent dans le caniveau À force de manger du dégueulis de toxico Dans ma rue, autant de flics que de mecs cocus Les coiffeurs racontent des blagues aux dealers Les policiers donnent des planques aux voleurs Le facteur aide le maquereau à relever les compteurs J'ai été élu président de ma rue J'ai placé mes ministres Tout le monde est corrompu... À chacun sa banlieue. La mienne, je l'aime Et elle s'appelle le 18ème I'm high from the chronic and I can't get up</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Dans ma rue, y a mes commerçants, mes amis, mes ennemis, les refourgueurs, la police et dans tout ça, j'ai des amis et des ennemis. On est tous ensemble, on passe l'été là, on est bien J'joue avec les stup' comme on joue avec les putesYou might also like</t>
+          <t>Dans ma rue, y a mes commerçants, mes amis, mes ennemis, les refourgueurs, la police et dans tout ça, j'ai des amis et des ennemis. On est tous ensemble, on passe l'été là, on est bien J'joue avec les stup' comme on joue avec les putes</t>
         </is>
       </c>
     </row>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Dès l'matin, ouais. Donc J'me réveille, j'écoute Sacrifice de poulets et j'enchaîne avec Aznavour, Les 40 chansons d'or. J'adore Aznavour, j'ai toutes ses chansons du début jusqu'à la fin. Celles qu'il a écrit pour les gens, celles qu'il va bientôt écrire pour moi aussi. J'ai envie d'travailler avec lui Je vous parle d'une voiture que les moins de 20 ans rêveraient tours avoir. Intérieur cuir nana... la BMYou might also like</t>
+          <t>Dès l'matin, ouais. Donc J'me réveille, j'écoute Sacrifice de poulets et j'enchaîne avec Aznavour, Les 40 chansons d'or. J'adore Aznavour, j'ai toutes ses chansons du début jusqu'à la fin. Celles qu'il a écrit pour les gens, celles qu'il va bientôt écrire pour moi aussi. J'ai envie d'travailler avec lui Je vous parle d'une voiture que les moins de 20 ans rêveraient tours avoir. Intérieur cuir nana... la BM</t>
         </is>
       </c>
     </row>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>J'blague avec les mots comme j'blague avec la balle. Voilà et j'aime les deux, j'les ai mélangésYou might also like</t>
+          <t>J'blague avec les mots comme j'blague avec la balle. Voilà et j'aime les deux, j'les ai mélangés</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>- Doc Moi, j'parle des filles de maintenant, tu vois. Des filles que moi j'fréquente que j'vois. Ma mère, c'est un autre truc, une autre éducation. J'vois toutes les filles noires qui s'prennent pour Naomi Campbell. J'vois toutes les filles blanches qui s'prennent pour Pamela Anderson. J'vais t'dire les filles que j'aime, moi. J'aime Anne Sinclair parce que elle est lourde, elle est posée. J'la vois en baskets blanches, elle. Ça tu vois, c'est ça, c'est d'la femme, c'est bien, y a d'la matière. J'aime aussi Claire Chazal. C'est qui la fille du Cercle de Minuit ? - Journaliste Laure Adler - Doc Haan, c'est elle la meilleure. Alala ça c'est la best of the best. Ah ouais ,elle voilà, avec elle, j'arrête tout. J'fais une pause, j'fais des enfants et tout si elle veut. J'serai content d'voir ma fiancée à la télé avec plein d'hommes. Elle est technique, elle est physique. Elle est toutYou might also like</t>
+          <t>- Doc Moi, j'parle des filles de maintenant, tu vois. Des filles que moi j'fréquente que j'vois. Ma mère, c'est un autre truc, une autre éducation. J'vois toutes les filles noires qui s'prennent pour Naomi Campbell. J'vois toutes les filles blanches qui s'prennent pour Pamela Anderson. J'vais t'dire les filles que j'aime, moi. J'aime Anne Sinclair parce que elle est lourde, elle est posée. J'la vois en baskets blanches, elle. Ça tu vois, c'est ça, c'est d'la femme, c'est bien, y a d'la matière. J'aime aussi Claire Chazal. C'est qui la fille du Cercle de Minuit ? - Journaliste Laure Adler - Doc Haan, c'est elle la meilleure. Alala ça c'est la best of the best. Ah ouais ,elle voilà, avec elle, j'arrête tout. J'fais une pause, j'fais des enfants et tout si elle veut. J'serai content d'voir ma fiancée à la télé avec plein d'hommes. Elle est technique, elle est physique. Elle est tout</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Bienvenue sur ma ligne personnelle, en direct de Porte de la Chapelle. J'suis sur toutes les radios, j'ai des clips vidéo. On s'échange mes démos et j'ai une putain d'promo C'est dur d'être tendre de nos jours, c'est dur d'le montrer. J'aime les femmesYou might also like</t>
+          <t>Bienvenue sur ma ligne personnelle, en direct de Porte de la Chapelle. J'suis sur toutes les radios, j'ai des clips vidéo. On s'échange mes démos et j'ai une putain d'promo C'est dur d'être tendre de nos jours, c'est dur d'le montrer. J'aime les femmes</t>
         </is>
       </c>
     </row>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Se diminuer c'est le travail des grands Ma qualité, résister à l'élan J'achèterai pas la dernière Lamborghini Un vrai riche vit simplement Ils cherchent à manger, nous à maigrir Et comme un Tuche qui dépense trop On dirait qu't'as gagné au loto J'suis pas dans l'extase, j'suis un mec de la base J'suis pas dans l'extase, un mec de la base J'suis comme un bébé dans les bras de sa Maman J'me prends pas pour quelqu'un de grand J'suis comme un bébé dans les bras de sa Maman J'me prends pas pour quelqu'un de grand Je reste simple, je reste simple Je reste simple, je reste simple Je reste simple, je reste simple Je reste simple, je reste simple J'commence par le commencement Simplifier ma vie avec les gens Simple d'approche, simple dans mon comportement J'regarde d'où je viens, je n'fais pas de festin Chaque jours des larmes et du pain Ça fait 40 ans qu'on est dans l'quartier Mais calmez-vous ! Vous venez d'arriver Island va changer ma vie Mais l'instinct normal de quelqu'un c'est se faire petit Aucun orgueil, j'ai ressenti Quand dans mon bureau j'me suis assis Je reste simple, je reste simple You might also like J'suis comme un bébé dans les bras de sa Maman J'me prends pas pour quelqu'un de grand J'suis comme un bébé dans les bras de sa Maman J'me prends pas pour quelqu'un de grand Je reste simple, je reste simple Je reste simple, je reste simple Je reste simple, je reste simple Je reste simple, je reste simple Tu peux pas t'lancer dans des choses trop élevés Reste à ton niveau, conseil de Bruno Beaucoup travailler pour oublier Que t'existes ça aussi tu l'as oublié Tu vas exploser, t'as trois téléphones Tu vas exploser, t'as trois téléphones Tu vas exploser, t'as trois téléphones Tu vas exploser Je reste simple, je reste simple Je reste simple, je reste simple Je reste simple, je reste simple Je reste simple, je reste simple Je reste simple, je reste simple Je reste simple, je reste simple Je reste simple, je reste simple j'suis comme un bébé dans les bras de sa Maman j'me prends pas pour quelqu'un de grand Je reste simple, je reste simple</t>
+          <t>Se diminuer c'est le travail des grands Ma qualité, résister à l'élan J'achèterai pas la dernière Lamborghini Un vrai riche vit simplement Ils cherchent à manger, nous à maigrir Et comme un Tuche qui dépense trop On dirait qu't'as gagné au loto J'suis pas dans l'extase, j'suis un mec de la base J'suis pas dans l'extase, un mec de la base J'suis comme un bébé dans les bras de sa Maman J'me prends pas pour quelqu'un de grand J'suis comme un bébé dans les bras de sa Maman J'me prends pas pour quelqu'un de grand Je reste simple, je reste simple Je reste simple, je reste simple Je reste simple, je reste simple Je reste simple, je reste simple J'commence par le commencement Simplifier ma vie avec les gens Simple d'approche, simple dans mon comportement J'regarde d'où je viens, je n'fais pas de festin Chaque jours des larmes et du pain Ça fait 40 ans qu'on est dans l'quartier Mais calmez-vous ! Vous venez d'arriver Island va changer ma vie Mais l'instinct normal de quelqu'un c'est se faire petit Aucun orgueil, j'ai ressenti Quand dans mon bureau j'me suis assis Je reste simple, je reste simple J'suis comme un bébé dans les bras de sa Maman J'me prends pas pour quelqu'un de grand J'suis comme un bébé dans les bras de sa Maman J'me prends pas pour quelqu'un de grand Je reste simple, je reste simple Je reste simple, je reste simple Je reste simple, je reste simple Je reste simple, je reste simple Tu peux pas t'lancer dans des choses trop élevés Reste à ton niveau, conseil de Bruno Beaucoup travailler pour oublier Que t'existes ça aussi tu l'as oublié Tu vas exploser, t'as trois téléphones Tu vas exploser, t'as trois téléphones Tu vas exploser, t'as trois téléphones Tu vas exploser Je reste simple, je reste simple Je reste simple, je reste simple Je reste simple, je reste simple Je reste simple, je reste simple Je reste simple, je reste simple Je reste simple, je reste simple Je reste simple, je reste simple j'suis comme un bébé dans les bras de sa Maman j'me prends pas pour quelqu'un de grand Je reste simple, je reste simple</t>
         </is>
       </c>
     </row>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>J'fais d'la chanson vue d'un trottoir Et j'suis taxé à tant par jour Je l'sais chanteur sentimental J'ai quelques fois provoqué l'scandale J'sais pas remplir ma feuille d'impôts Et l'inspecteur est inspectrice J'éteins le jour pour ... Lui parler, parler d'amour Elle a tout lu, sur mes tickets Même à l'époque, c'que j'écrivais C'était d'l'amour, elle s'en doutait En bas d'la tour j'fumais mon hasch, avec le cur J'sais pas remplir ma feuille d'impôts Comme j'aime être franc, c'est c'que j'dirai Y'a pas d'euros qui soient plus vrai J'sais pas ... Sois douce, et tais-toi En silence, fais moi confiance Viens me chercher, me réveiller Reste allongée, ou à 4 pattes Fais comme tu veux, je tires une latte Car j'n'entends plus battre mon cur Le 69 inverse le cur et le bonheur Vice et versa, ça saute aux yeux Faire tomber l'jour, lance moi c'regard Que j'redémarre avec lenteur En précurseur je sème le trouble Pour quelques roubles Je ne veux pas de vos milliards La Terre est rouge sous vos dollars You might also like J'sais pas remplir ma feuille d'impôts Comme j'aime être franc, c'est c'que j'dirai Y'a pas d'euros qui soient plus vrai J'sais pas ... Le time est en chien Sur l'autographe, j'ai signé Bruno Je n'me reconnais plus dans vos journaux Mec solitaire et ordinaire Qui penche à gauche, comme le Kouchner Pour toutes les races, contre ceux qui chassent Même dans la masse, sont à la masse Je fais la pêche à la tasspèche Quand d'autres prêchent, j'envoie d'la fraîche Si les impôts font mon malheur Comment le fric, la thune, feraient mon bonheur ? Y'a trop d'misère dans le 20 heures Le bruit et l'odeur, et ceux qui meurent Si les nuages veulent dire adieu Sous le soleil, sous sa lumière Doc communique, fait ses prières Sûrement qu'le ciel veut se faire voir Et lui aussi, devenir une star Mes petites filles, ma femme en or Mes déductions pour le Trésor et Public Je paye la dîme et reste digne x3 J'sais pas remplir ma feuille d'impôts Comme j'aime être franc, c'est c'que j'dirai Y'a pas d'euros qui soient plus vrai J'sais pas ...1</t>
+          <t>J'fais d'la chanson vue d'un trottoir Et j'suis taxé à tant par jour Je l'sais chanteur sentimental J'ai quelques fois provoqué l'scandale J'sais pas remplir ma feuille d'impôts Et l'inspecteur est inspectrice J'éteins le jour pour ... Lui parler, parler d'amour Elle a tout lu, sur mes tickets Même à l'époque, c'que j'écrivais C'était d'l'amour, elle s'en doutait En bas d'la tour j'fumais mon hasch, avec le cur J'sais pas remplir ma feuille d'impôts Comme j'aime être franc, c'est c'que j'dirai Y'a pas d'euros qui soient plus vrai J'sais pas ... Sois douce, et tais-toi En silence, fais moi confiance Viens me chercher, me réveiller Reste allongée, ou à 4 pattes Fais comme tu veux, je tires une latte Car j'n'entends plus battre mon cur Le 69 inverse le cur et le bonheur Vice et versa, ça saute aux yeux Faire tomber l'jour, lance moi c'regard Que j'redémarre avec lenteur En précurseur je sème le trouble Pour quelques roubles Je ne veux pas de vos milliards La Terre est rouge sous vos dollars J'sais pas remplir ma feuille d'impôts Comme j'aime être franc, c'est c'que j'dirai Y'a pas d'euros qui soient plus vrai J'sais pas ... Le time est en chien Sur l'autographe, j'ai signé Bruno Je n'me reconnais plus dans vos journaux Mec solitaire et ordinaire Qui penche à gauche, comme le Kouchner Pour toutes les races, contre ceux qui chassent Même dans la masse, sont à la masse Je fais la pêche à la tasspèche Quand d'autres prêchent, j'envoie d'la fraîche Si les impôts font mon malheur Comment le fric, la thune, feraient mon bonheur ? Y'a trop d'misère dans le 20 heures Le bruit et l'odeur, et ceux qui meurent Si les nuages veulent dire adieu Sous le soleil, sous sa lumière Doc communique, fait ses prières Sûrement qu'le ciel veut se faire voir Et lui aussi, devenir une star Mes petites filles, ma femme en or Mes déductions pour le Trésor et Public Je paye la dîme et reste digne x3 J'sais pas remplir ma feuille d'impôts Comme j'aime être franc, c'est c'que j'dirai Y'a pas d'euros qui soient plus vrai J'sais pas ...1</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Je vous parle dun temps que les moins de vingt ans ne peuvent pas connaître Montmartre en ce temps-là accrochait ses lilas jusqu'à sous nos fenêtres Et dans lhumble garni, qui nous servait de nid, ne payait pas de mine Cest là quon sest connu, moi qui criait famine et toi qui posais nue x2 La bohème Ça voulait dire on est heureux La bohème Nous ne mangions quun jour sur deux Dans les cafés voisins, nous étions quelques-uns qui attendaient la gloire Et bien que miséreux, avec le ventre creux, nous ne cessions dy croire Et quand quelques bistrots contre un bon repas chaud, nous prenait une toile Nous récitions des vers, groupés autour du poêle, en oubliant lhiver x2 La bohème Ça voulait dire tu es jolie La bohème Et nous avions tous du génie Souvent il marrivait, devant mon chevalet, de passer des nuits blanches Retouchant le dessin, de la ligne dun sein, du galbe dune hanche Et ce nest quau matin quon sasseyait enfin devant un café-crème Épuises mais ravis, fallait-il que l'on saime et quon aime la vie You might also like La bohème Ça voulait dire on a vingt ans La bohème Et nous vivions de lair du temps Quand au hasard des jours, on allait faire un tour à mon ancienne adresse Je ne reconnais plus ni les murs, ni les rues qui ont vu ma jeunesse En haut dun escalier, je cherche latelier dont plus rien ne subsiste Dans son nouveau décor, Montmartre semble triste et ses lilas sont morts x2 La bohème On était jeunes, on était fous La bohème Ça ne veut plus rien dire du tout</t>
+          <t>Je vous parle dun temps que les moins de vingt ans ne peuvent pas connaître Montmartre en ce temps-là accrochait ses lilas jusqu'à sous nos fenêtres Et dans lhumble garni, qui nous servait de nid, ne payait pas de mine Cest là quon sest connu, moi qui criait famine et toi qui posais nue x2 La bohème Ça voulait dire on est heureux La bohème Nous ne mangions quun jour sur deux Dans les cafés voisins, nous étions quelques-uns qui attendaient la gloire Et bien que miséreux, avec le ventre creux, nous ne cessions dy croire Et quand quelques bistrots contre un bon repas chaud, nous prenait une toile Nous récitions des vers, groupés autour du poêle, en oubliant lhiver x2 La bohème Ça voulait dire tu es jolie La bohème Et nous avions tous du génie Souvent il marrivait, devant mon chevalet, de passer des nuits blanches Retouchant le dessin, de la ligne dun sein, du galbe dune hanche Et ce nest quau matin quon sasseyait enfin devant un café-crème Épuises mais ravis, fallait-il que l'on saime et quon aime la vie La bohème Ça voulait dire on a vingt ans La bohème Et nous vivions de lair du temps Quand au hasard des jours, on allait faire un tour à mon ancienne adresse Je ne reconnais plus ni les murs, ni les rues qui ont vu ma jeunesse En haut dun escalier, je cherche latelier dont plus rien ne subsiste Dans son nouveau décor, Montmartre semble triste et ses lilas sont morts x2 La bohème On était jeunes, on était fous La bohème Ça ne veut plus rien dire du tout</t>
         </is>
       </c>
     </row>
@@ -1381,7 +1381,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>J'veux pas partir à la retraite J'ai 50 ans mais j'suis toujours de la fête C'est ce que disent les vieux qui portent des baskets J'ai des places en première dans un jumbo-jet J'veux pas lâcher mon poste Ou ma minette me jette Voyages, taxi, resto notes de frais Comité d'entreprises moi c'est ça mon biz Ouais Y'a plus de respect Tous ces jeunes freluquets Ont trop de toupet 'pet Mais moi jamais je partirai J'suis peut-être vieux Mais c'est moi le meilleur Toujours à l'heure en réunion, à l'extérieur J'veux pas vieillir J'veux pas mentir J'veux pas partir dans un dernier soupir J'veux pas vieillir J'veux pas mentir J'veux pas partir dans un dernier soupir Ouais Quand j'étais jeune J'étais la plus belle Avec ma copine Daphnée On se faisait toujours dragué Qu'ont-elles de plus que moi toutes ces petites meufs Emmanuelle, Pamela, Bardot Bimbo seuf J'ai pris de l'âge De la bouteille Miroir miroir, je deviens vieille Oh, j'vais m'refaire les lèvres le nez les seins Tirer la peau Y'a urgence J'suis tombé dans la fontaine de jouvence J'm'en balance J'dépense Pour mon retour en enfance Docteur, passez moi l'ordonnance Beauté physique Mon diagnostic Faire un petit peu D'aérobic Laisse parler ton cur Qu'indique la beauté intérieur J'ai 40 ans mais je veux en paraître 25 Y'a que le ke-Do Qui t'aime pour tes défauts J'veux pas vieillir J'veux pas mentir J'veux pas partir dans un dernier soupir You might also likeJ'veux pas vieillir J'veux pas mentir J'veux pas partir dans un dernier soupir J'fume comme un pompier J'me laisse aller L'alcool faut que j'arrête Je m'abîme la santé J'suis sorti du trou mais je bois comme un trou J'veux vivre à fond, j'appuie sur le champignon J'vis dans l'excès Toutes les drogues que je mixais Sur les années 70 moi je kiffais J'ai des tatouages sur tout mon corps On ne vit qu'une fois alors j'ai pas de remords Peut-être que j' serais le premier vieillard du rap français Qu'il reste au moins mes disques Dans les bacs de la Fnac OK J'veux pas vieillir J'veux pas mentir J'veux pas partir dans un dernier soupir J'veux pas vieillir J'veux pas mentir J'veux pas partir dans un dernier soupir J'veux pas vieillir J'veux pas mentir</t>
+          <t>J'veux pas partir à la retraite J'ai 50 ans mais j'suis toujours de la fête C'est ce que disent les vieux qui portent des baskets J'ai des places en première dans un jumbo-jet J'veux pas lâcher mon poste Ou ma minette me jette Voyages, taxi, resto notes de frais Comité d'entreprises moi c'est ça mon biz Ouais Y'a plus de respect Tous ces jeunes freluquets Ont trop de toupet 'pet Mais moi jamais je partirai J'suis peut-être vieux Mais c'est moi le meilleur Toujours à l'heure en réunion, à l'extérieur J'veux pas vieillir J'veux pas mentir J'veux pas partir dans un dernier soupir J'veux pas vieillir J'veux pas mentir J'veux pas partir dans un dernier soupir Ouais Quand j'étais jeune J'étais la plus belle Avec ma copine Daphnée On se faisait toujours dragué Qu'ont-elles de plus que moi toutes ces petites meufs Emmanuelle, Pamela, Bardot Bimbo seuf J'ai pris de l'âge De la bouteille Miroir miroir, je deviens vieille Oh, j'vais m'refaire les lèvres le nez les seins Tirer la peau Y'a urgence J'suis tombé dans la fontaine de jouvence J'm'en balance J'dépense Pour mon retour en enfance Docteur, passez moi l'ordonnance Beauté physique Mon diagnostic Faire un petit peu D'aérobic Laisse parler ton cur Qu'indique la beauté intérieur J'ai 40 ans mais je veux en paraître 25 Y'a que le ke-Do Qui t'aime pour tes défauts J'veux pas vieillir J'veux pas mentir J'veux pas partir dans un dernier soupir J'veux pas vieillir J'veux pas mentir J'veux pas partir dans un dernier soupir J'fume comme un pompier J'me laisse aller L'alcool faut que j'arrête Je m'abîme la santé J'suis sorti du trou mais je bois comme un trou J'veux vivre à fond, j'appuie sur le champignon J'vis dans l'excès Toutes les drogues que je mixais Sur les années 70 moi je kiffais J'ai des tatouages sur tout mon corps On ne vit qu'une fois alors j'ai pas de remords Peut-être que j' serais le premier vieillard du rap français Qu'il reste au moins mes disques Dans les bacs de la Fnac OK J'veux pas vieillir J'veux pas mentir J'veux pas partir dans un dernier soupir J'veux pas vieillir J'veux pas mentir J'veux pas partir dans un dernier soupir J'veux pas vieillir J'veux pas mentir</t>
         </is>
       </c>
     </row>
@@ -1398,7 +1398,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>J'ai failli tomber dans la piscine quand je l'ai regardé sourire J'ai failli me noyer dans la piscine quand je l'ai regardé sourire Mon beau, ta peau qui brûle Mon beau, ta peau qui sue Mon beau, ta peau qui crie sous l'effet du bleu fou T'as replongé, mon beau, j'ai succombé trop tôt Mon coeur a coulé sous l'effet du bleu fou Sous l'effet du bleu fou Sous l'effet du bleu fou Sous l'effet du sort Écoute ma complainte, pour celle qui n'ont pas porté plainte Contre la forêt sainte, elle n'est vraiment plus sainte J'ai une carte bleue et sur moi, toujours du plastique La fille veut plus faire des gâteaux Elle veut parler médecine avec Bruno Il fait référence à sa peau Le gynéco guérit tes maux Rocco se dit supérieur Pourtant Clara me dit que je suis meilleur You might also like J'ai failli tomber dans la piscine quand je l'ai regardé sourire Eh Bruno, Eh Bruno J'ai failli me noyer dans la piscine quand je l'ai regardé sourire Eh Bruno, Eh Bruno J'avais pas envie de la regarder Mais j'ai quand même succombé Elle et moi, on avait un amour parfait Tout l'été, tout l'été Et je glisse, glisse, Mi Amor Toute la nuit, nuit, dans ton corps On est deux, deux, à avoir tord On est beau, beau Sur ce J'ai failli tomber dans la piscine quand je l'ai regardé sourire Elle m'a dit Bruno pourquoi tu me fais de la peine ? quand tu chantes avec ton coeur c'est là que je t'aime Rien n'a changé C'est le Doc Bruno, le plus populaire Les mots sont simples et le message est clair C'est le Doc Bruno, le plus populaire Les mots sont simples et le message est clair C'est le Doc Bruno, Bruno... J'ai failli tomber dans la piscine quand je l'ai regardé sourire J'ai failli me noyer dans la piscine quand je l'ai regardé sourire J'ai failli tomber dans la piscine quand je l'ai regardé sourire</t>
+          <t>J'ai failli tomber dans la piscine quand je l'ai regardé sourire J'ai failli me noyer dans la piscine quand je l'ai regardé sourire Mon beau, ta peau qui brûle Mon beau, ta peau qui sue Mon beau, ta peau qui crie sous l'effet du bleu fou T'as replongé, mon beau, j'ai succombé trop tôt Mon coeur a coulé sous l'effet du bleu fou Sous l'effet du bleu fou Sous l'effet du bleu fou Sous l'effet du sort Écoute ma complainte, pour celle qui n'ont pas porté plainte Contre la forêt sainte, elle n'est vraiment plus sainte J'ai une carte bleue et sur moi, toujours du plastique La fille veut plus faire des gâteaux Elle veut parler médecine avec Bruno Il fait référence à sa peau Le gynéco guérit tes maux Rocco se dit supérieur Pourtant Clara me dit que je suis meilleur J'ai failli tomber dans la piscine quand je l'ai regardé sourire Eh Bruno, Eh Bruno J'ai failli me noyer dans la piscine quand je l'ai regardé sourire Eh Bruno, Eh Bruno J'avais pas envie de la regarder Mais j'ai quand même succombé Elle et moi, on avait un amour parfait Tout l'été, tout l'été Et je glisse, glisse, Mi Amor Toute la nuit, nuit, dans ton corps On est deux, deux, à avoir tord On est beau, beau Sur ce J'ai failli tomber dans la piscine quand je l'ai regardé sourire Elle m'a dit Bruno pourquoi tu me fais de la peine ? quand tu chantes avec ton coeur c'est là que je t'aime Rien n'a changé C'est le Doc Bruno, le plus populaire Les mots sont simples et le message est clair C'est le Doc Bruno, le plus populaire Les mots sont simples et le message est clair C'est le Doc Bruno, Bruno... J'ai failli tomber dans la piscine quand je l'ai regardé sourire J'ai failli me noyer dans la piscine quand je l'ai regardé sourire J'ai failli tomber dans la piscine quand je l'ai regardé sourire</t>
         </is>
       </c>
     </row>
@@ -1415,7 +1415,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>La poudre aux yeux, t'as vu le film en noir et blanc Une star de feu à la peau noire Don't worry, be happy et le temps s'écoule Un sombre héros, reprendre à zéro Sur ma feuille blanche, c'est la lumière C'est m'accrocher à la Terre Mère The paradise, sous ma feuille blanche Il y a une femme et je t'écris depuis ses hanches C'est un message à retardement Un texte mouillé, une victoire de plus Oui c'est la femme ma seule valeur Dans la lumière, il faut qu'je pleure x2 Trop d'yeux d'Amérique sont dans la poudre The paradise sur ma feuille blanche Parler des femelles, parler des rebelles Eh oui sans cesse, parler d'elles Et parler fesse, c'est naturel Or, je suis caramel Dans le trou noir, je sens ses dents Dans les profondeurs de l'arrière-pensée Et dans l'fond j'en suis conscient Et ça dépend comment tu l'entends Faire l'amour avec le mythe C'est respecter le rituel Et l'intérieur, vu d'extérieur C'est nécessaire aux yeux des surs Aimé de toutes, my God C'est une femme qui viendra nous sauver Je cherche partout les filles, et les blancs d'yeux qui brillent What she can do ? Lil de la tigresse, une caresse qui ne rabaisse Que les machos que je blesse You might also likex3 Trop d'yeux d'Amérique sont dans la poudre The paradise sur ma feuille blanche Je désire aimer, être aimer Je veux m'extraire de ce monde d'hommes Ce monde étroit comme un rectum Tout le monde est ravi, trop d'avis, d'envie, de jalousie Et on survie, à se retrouver la tête baissée Filmer tes pieds, lécher tes cuisses Je suis le langage rap français Production Virgin, S.A.R.L. au capital universel J'ai les chaussures pour te faire la cour S'il y a un temps pour Je ne suis qu'un enfant, un mulâtre en plein jeu Le hasard m'a fait star, étoile de feu Je pense en français C'est tout c'que je sais, mais ça j'le sais</t>
+          <t>La poudre aux yeux, t'as vu le film en noir et blanc Une star de feu à la peau noire Don't worry, be happy et le temps s'écoule Un sombre héros, reprendre à zéro Sur ma feuille blanche, c'est la lumière C'est m'accrocher à la Terre Mère The paradise, sous ma feuille blanche Il y a une femme et je t'écris depuis ses hanches C'est un message à retardement Un texte mouillé, une victoire de plus Oui c'est la femme ma seule valeur Dans la lumière, il faut qu'je pleure x2 Trop d'yeux d'Amérique sont dans la poudre The paradise sur ma feuille blanche Parler des femelles, parler des rebelles Eh oui sans cesse, parler d'elles Et parler fesse, c'est naturel Or, je suis caramel Dans le trou noir, je sens ses dents Dans les profondeurs de l'arrière-pensée Et dans l'fond j'en suis conscient Et ça dépend comment tu l'entends Faire l'amour avec le mythe C'est respecter le rituel Et l'intérieur, vu d'extérieur C'est nécessaire aux yeux des surs Aimé de toutes, my God C'est une femme qui viendra nous sauver Je cherche partout les filles, et les blancs d'yeux qui brillent What she can do ? Lil de la tigresse, une caresse qui ne rabaisse Que les machos que je blesse x3 Trop d'yeux d'Amérique sont dans la poudre The paradise sur ma feuille blanche Je désire aimer, être aimer Je veux m'extraire de ce monde d'hommes Ce monde étroit comme un rectum Tout le monde est ravi, trop d'avis, d'envie, de jalousie Et on survie, à se retrouver la tête baissée Filmer tes pieds, lécher tes cuisses Je suis le langage rap français Production Virgin, S.A.R.L. au capital universel J'ai les chaussures pour te faire la cour S'il y a un temps pour Je ne suis qu'un enfant, un mulâtre en plein jeu Le hasard m'a fait star, étoile de feu Je pense en français C'est tout c'que je sais, mais ça j'le sais</t>
         </is>
       </c>
     </row>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>A reality, it's a big tune A big Dis l'heure 2 ragga Come on La tête penchée sur le côté, ça fait dix ans qu'j'suis coté J'parle au ralenti et mes cheveux ont beaucoup poussé J'ai un peu grossi parce que j'ai arrêté d'fumer J'ai deux-cent taspettes et cinquante unités Girlie Je t'ai promis que je reviendrai Girlie Je te garantis de l'amour, du vrai Reconnais-tu ma voix et est-ce que ça l'fait? ouais, ouais De la rue, d'mon toupet me vienne mon succès J'ai connu des galères avec des faux gangsters Dans ma carrière je suis le plus impliqué Toutes mes chansons sont radiodiffusées C'est moi qui dors à la télé-réalité C'est ma vérité, rien que ma vérité Je te garantis de l'amour, du vrai C'est pas programmé, c'est la réalité C'est ma vérité, rien que ma vérité Je t'ai promis que je reviendrai C'est pas programmé, c'est la réalité You might also like Je suis celui qui les rend folles Depuis qu'elles m'ont vu dans Nice Popol J'ai une marionnette dans les Guignols Dans les cours de récré on s'échange mon CD Dans les banlieues et les cités créoles Tu peux me voir sur la parabole C'est ma vérité, rien que ma vérité Je te garantis de l'amour, du vrai C'est pas programmé, c'est la réalité C'est ma vérité, rien que ma vérité Je t'ai promis que je reviendrai C'est pas programmé, c'est la réalité Sautez Dimi Donkya Doc Gynéco Sautez bien real man I take it higha Dancehall et ragga, vas-y dis-leur Reggae style Dancehall et ragga, vas-y dis-leur Fiesta, fiesta forever Celui qui s'bat contre le méchant rappeur Avec mon épée je lui transperce le cur Comme le héros à la fin du film J'embrasse la fille à la fin du clip C'est ma vérité, rien que ma vérité C'est pas programmé, c'est la réalité C'est ma vérité, rien que ma vérité Je t'ai promis que je reviendrai C'est pas programmé, c'est la réalité Je te garantis de l'amour, du vrai Sautez Sautez Sautez, sautez, sautez Sautez Dancehall et ragga, vas-y dis-leur Reggae style Dancehall et ragga, vas-y dis-leur Fiesta, fiesta forever Toc toc toc mais tu sais c'est qui là? C'est le Doc Doc Doc, le ragga killa Toc toc toc mais tu sais c'est qui là? C'est le Doc Doc Doc, le ragga killa Dis l'heure 2 ragga Yeah man</t>
+          <t>A reality, it's a big tune A big Dis l'heure 2 ragga Come on La tête penchée sur le côté, ça fait dix ans qu'j'suis coté J'parle au ralenti et mes cheveux ont beaucoup poussé J'ai un peu grossi parce que j'ai arrêté d'fumer J'ai deux-cent taspettes et cinquante unités Girlie Je t'ai promis que je reviendrai Girlie Je te garantis de l'amour, du vrai Reconnais-tu ma voix et est-ce que ça l'fait? ouais, ouais De la rue, d'mon toupet me vienne mon succès J'ai connu des galères avec des faux gangsters Dans ma carrière je suis le plus impliqué Toutes mes chansons sont radiodiffusées C'est moi qui dors à la télé-réalité C'est ma vérité, rien que ma vérité Je te garantis de l'amour, du vrai C'est pas programmé, c'est la réalité C'est ma vérité, rien que ma vérité Je t'ai promis que je reviendrai C'est pas programmé, c'est la réalité Je suis celui qui les rend folles Depuis qu'elles m'ont vu dans Nice Popol J'ai une marionnette dans les Guignols Dans les cours de récré on s'échange mon CD Dans les banlieues et les cités créoles Tu peux me voir sur la parabole C'est ma vérité, rien que ma vérité Je te garantis de l'amour, du vrai C'est pas programmé, c'est la réalité C'est ma vérité, rien que ma vérité Je t'ai promis que je reviendrai C'est pas programmé, c'est la réalité Sautez Dimi Donkya Doc Gynéco Sautez bien real man I take it higha Dancehall et ragga, vas-y dis-leur Reggae style Dancehall et ragga, vas-y dis-leur Fiesta, fiesta forever Celui qui s'bat contre le méchant rappeur Avec mon épée je lui transperce le cur Comme le héros à la fin du film J'embrasse la fille à la fin du clip C'est ma vérité, rien que ma vérité C'est pas programmé, c'est la réalité C'est ma vérité, rien que ma vérité Je t'ai promis que je reviendrai C'est pas programmé, c'est la réalité Je te garantis de l'amour, du vrai Sautez Sautez Sautez, sautez, sautez Sautez Dancehall et ragga, vas-y dis-leur Reggae style Dancehall et ragga, vas-y dis-leur Fiesta, fiesta forever Toc toc toc mais tu sais c'est qui là? C'est le Doc Doc Doc, le ragga killa Toc toc toc mais tu sais c'est qui là? C'est le Doc Doc Doc, le ragga killa Dis l'heure 2 ragga Yeah man</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Un moteur à leau, pas au pétrole Lindustrie veut méliminer ! Ce titre vaut plus cher que de lalcool Il fait chaud, dans le quartier à Gynéco Sur tous les visages les grandes et petites lèvres sont mouillées Les vilains eux ? Sont de plus en plus lèges qui lèchent à toujours la taspèche La marchande de glace, qui passe, avec ses Häagen-Dazs Me propose une boule cassis Mais moi ce que je veux cest de l'anis Cest le parfum que je préfère, quel délice Jadore quand ça glisse, jadore quand cest lisse Mec tas trop de vice Ragnagnas Teuch avec ou sans les règles je ne regarde jamais les dates Et moi je tape ! Tape ! Joue avec ton agate Et moi, je men tape ! Tape ! Ce que jveux, cest que jkiffe Exacte ! Certaines prennent de la drogue Moi je mange mes Kelloggs Jai autant de force dans la langue quun coup droit de Mr Borg Doc gynécologue tu te prends pour Snoop Doggy Dogg You might also like Elle ou jalouse Marie-Claire Jsuis le mec en gue-vo, le mec en vogue Elle ou jalouse Marie-Claire Jsuis le mec en gue-vo, le mec en vogue Vais-je la voler ou vais-je lacheter ? Ragnagnas Je lai pécho, je lai léchée Vous me connaissez je nai pas pu men empêcher Ragnagnas Il la pécho, il la léchée On le connaît il na pas pu sen empêcher Ragnagnas Oui je lai volée ! Oui je lai léchée Malgré quelle ma dit, ma dit cest une glace aux ragnagnas Tant pis Jla lèche, ça me donne la pêche Jla lèche jusquà ce que ma langue sassèche Doc gynécolangue ne lèche plus du tangue Doc gynécologue fait parti du gang bang langue Elle ou jalouse Marie-Claire Jsuis le mec en gue-vo, le mec en vogue Elle ou jalouse Marie-Claire Jsuis le mec en gue-vo, le mec en vogue Si Doc gynécologue vogue sur les femmes Cest parce que des fois il a le vogue à lâme A force de jouer à lhomme plein de charme Elles mont grillé, maintenant elles me crament Ces dames me matent et me mettent en échec Car au lieu du restaurant, je les emmène au grec Frites et mes salades ne passent pas Le Trianon pour moi cest le cinéma Je perd la côte mais reste à la hausse Valeur sure, elles sont sures que jassure Tous risques, elles écoutent mes disques Dautres bisquent ! Bisquent ! Ragent ! Ils ont la rage et me lenvoient sur Alphapage Elles maiment autant que les Pogues Simplement parce que je suis le mec en vogue En vogue, en vogue, en vogue Elle est jalouse, pourtant je suis un mari clair Elle est jalouse, parce que elle a envie de le faire La jalouse Elle est jalouse, pourtant je suis un mari clair Elle est jalouse, parce que elle a envie de le faire La jalouse1</t>
+          <t>Un moteur à leau, pas au pétrole Lindustrie veut méliminer ! Ce titre vaut plus cher que de lalcool Il fait chaud, dans le quartier à Gynéco Sur tous les visages les grandes et petites lèvres sont mouillées Les vilains eux ? Sont de plus en plus lèges qui lèchent à toujours la taspèche La marchande de glace, qui passe, avec ses Häagen-Dazs Me propose une boule cassis Mais moi ce que je veux cest de l'anis Cest le parfum que je préfère, quel délice Jadore quand ça glisse, jadore quand cest lisse Mec tas trop de vice Ragnagnas Teuch avec ou sans les règles je ne regarde jamais les dates Et moi je tape ! Tape ! Joue avec ton agate Et moi, je men tape ! Tape ! Ce que jveux, cest que jkiffe Exacte ! Certaines prennent de la drogue Moi je mange mes Kelloggs Jai autant de force dans la langue quun coup droit de Mr Borg Doc gynécologue tu te prends pour Snoop Doggy Dogg Elle ou jalouse Marie-Claire Jsuis le mec en gue-vo, le mec en vogue Elle ou jalouse Marie-Claire Jsuis le mec en gue-vo, le mec en vogue Vais-je la voler ou vais-je lacheter ? Ragnagnas Je lai pécho, je lai léchée Vous me connaissez je nai pas pu men empêcher Ragnagnas Il la pécho, il la léchée On le connaît il na pas pu sen empêcher Ragnagnas Oui je lai volée ! Oui je lai léchée Malgré quelle ma dit, ma dit cest une glace aux ragnagnas Tant pis Jla lèche, ça me donne la pêche Jla lèche jusquà ce que ma langue sassèche Doc gynécolangue ne lèche plus du tangue Doc gynécologue fait parti du gang bang langue Elle ou jalouse Marie-Claire Jsuis le mec en gue-vo, le mec en vogue Elle ou jalouse Marie-Claire Jsuis le mec en gue-vo, le mec en vogue Si Doc gynécologue vogue sur les femmes Cest parce que des fois il a le vogue à lâme A force de jouer à lhomme plein de charme Elles mont grillé, maintenant elles me crament Ces dames me matent et me mettent en échec Car au lieu du restaurant, je les emmène au grec Frites et mes salades ne passent pas Le Trianon pour moi cest le cinéma Je perd la côte mais reste à la hausse Valeur sure, elles sont sures que jassure Tous risques, elles écoutent mes disques Dautres bisquent ! Bisquent ! Ragent ! Ils ont la rage et me lenvoient sur Alphapage Elles maiment autant que les Pogues Simplement parce que je suis le mec en vogue En vogue, en vogue, en vogue Elle est jalouse, pourtant je suis un mari clair Elle est jalouse, parce que elle a envie de le faire La jalouse Elle est jalouse, pourtant je suis un mari clair Elle est jalouse, parce que elle a envie de le faire La jalouse1</t>
         </is>
       </c>
     </row>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Les variétés ne sont pas variées À la télé toujours le même ciné Mon dessiné animé comme point de repère Entrecoupé par les messages publicitaires Café Grand-Mère et soins dentaires Il faut bien vivre, a dit l'animateur Faut suivre les infos à treize heures et vingt heures Tous les journaux ont la même première page Les Échos disent que la guerre des chaînes fait rage C'est pas varié, j'ai beau zapper Le même programme sur toutes les chaînes est programmé Messieurs les censeurs, bonsoir Faut pas m'en vouloir, je fais mon devoir Je vais m'asseoir et lire un livre ce soir J'aimerais savoir lire Dans tes pensées Entre tes lignes Ça fait rêver Supermarché, les rayons c'est pas varié Toujours les mêmes produits, j'ai déjà tout goûté Y a qu'l'emballage qui change et la couleur, j'ai d'jà donné D'la quantité sans qualité Vache folle et produits avariés Faut regarder la date avant d'acheter La direction veut bien encaisser Mais si tu tombes malade, elle niera toute responsabilité Des millions d'Français devant leur assiette Quelques millions d'Français devant ce casse-tête Malbouffe, OGM, je deviens ouf You might also like Messieurs les censeurs, bonsoir Faut pas m'en vouloir, je fais mon devoir Je vais cuisiner et manger bio ce soir J'aimerais savoir lire Dans tes pensées Entre tes lignes Ça fait rêver Rien n'a changé, y a plus de consommateurs Cinquante millions d'auditeurs, de téléspectateurs Monsieur l'censeur, mets mon CD dans ton lecteur Bruno alias Doc Gynéco J'parle au public sur un son typique Salsa des Îles Vierges et poétique Viens, viens, viens chez moi Il y a des noix d'coco Et du rhum à gogo Messieurs les censeurs, bonsoir Faut pas m'en vouloir, je fais mon devoir Je fais mon devoir J'aimerais savoir lire Dans tes pensées Entre tes lignes Ça fait rêver</t>
+          <t>Les variétés ne sont pas variées À la télé toujours le même ciné Mon dessiné animé comme point de repère Entrecoupé par les messages publicitaires Café Grand-Mère et soins dentaires Il faut bien vivre, a dit l'animateur Faut suivre les infos à treize heures et vingt heures Tous les journaux ont la même première page Les Échos disent que la guerre des chaînes fait rage C'est pas varié, j'ai beau zapper Le même programme sur toutes les chaînes est programmé Messieurs les censeurs, bonsoir Faut pas m'en vouloir, je fais mon devoir Je vais m'asseoir et lire un livre ce soir J'aimerais savoir lire Dans tes pensées Entre tes lignes Ça fait rêver Supermarché, les rayons c'est pas varié Toujours les mêmes produits, j'ai déjà tout goûté Y a qu'l'emballage qui change et la couleur, j'ai d'jà donné D'la quantité sans qualité Vache folle et produits avariés Faut regarder la date avant d'acheter La direction veut bien encaisser Mais si tu tombes malade, elle niera toute responsabilité Des millions d'Français devant leur assiette Quelques millions d'Français devant ce casse-tête Malbouffe, OGM, je deviens ouf Messieurs les censeurs, bonsoir Faut pas m'en vouloir, je fais mon devoir Je vais cuisiner et manger bio ce soir J'aimerais savoir lire Dans tes pensées Entre tes lignes Ça fait rêver Rien n'a changé, y a plus de consommateurs Cinquante millions d'auditeurs, de téléspectateurs Monsieur l'censeur, mets mon CD dans ton lecteur Bruno alias Doc Gynéco J'parle au public sur un son typique Salsa des Îles Vierges et poétique Viens, viens, viens chez moi Il y a des noix d'coco Et du rhum à gogo Messieurs les censeurs, bonsoir Faut pas m'en vouloir, je fais mon devoir Je fais mon devoir J'aimerais savoir lire Dans tes pensées Entre tes lignes Ça fait rêver</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Ärsenik, Doc Gynéco, MC Janik Tch tch Combien d'temps On va nous bluffer J'préfère faire ma loi pour avoir le droit Le droit d'casser des gueules dans l'allée du roi Ouvrir des portes aux potes, faire péter des parois Jésus sauveur descend d'sa croix, vient bénir ma rée-soi Lord have mercy Police, sexe tass', 8-6 roule haya La misère est mon vice miss, je suis faya Mon son c'est d'l'immigration L'insécurité sur les ondes de la nation Passe-moi le mic, fuck et suck my dick Choisis ton camp, viens danser typique Vex', complexe, infériorité Sexe, confort, sécurité Rhum Kenneth et des bombes pètent Marianne paye ses dettes façon Luc Reinette J'vois qu'on a tous un truc à faire Le fouet, le fer j'ai su m'y faire Combien d'temps ils vont tester ma résistance MC Janik Me dire de rester gentil, de garder patience Ärsenik Longtemps que notre musique chante ça Doc Gynéco Pour tout l'monde les mêmes droits les mêmes droits Combien d'temps ils vont tester ma résistance et tu l'sais Me dire de rester gentil, de garder patience Longtemps que notre musique chante ça écoute ça Pour tout l'monde les mêmes droits You might also like J'ai plus l'droit d'rien faire, même pas l'droit à m'taire J'erre dans ma tess, perds mon temps et j'pé-ra assis dans mon XXX Ça l'fait pas putain, je perds patience quand j'flaire un bon coup d'bière Dans les mêmes galères, de-mer tout-par Au quart de tour l'coup part De n'importe où, tous partent Couche-tard, ils errent dans les couloirs Combien d'temps ils vont nous tester Combien vont nous rester Empester les ondes, tous nous molester Ärsenik sur les Liaisons contre les gros bonnets vient se dresser Y a trop longtemps que notre musique té-chan ça Y a trop d'enfants victimes des pulsions d'un vieux dique-sa Dis ça à tous tes soss' préparez la rébellion Nique ça avec force laisse-les, c'est ces millions Le texte de loi XXX pays du droit Parigot dangerous tu peux te mettre un doigt Tes blablas, chez moi personne n'y croit Combien d'temps ils vont tester ma résistance Me dire de rester gentil, de garder patience MC Janik Longtemps que notre musique chante ça écoute ça Pour tout l'monde les mêmes droits les mêmes droits Combien d'temps ils vont tester ma résistance et tu l'sais Me dire de rester gentil, de garder patience C.A.L.B.O Longtemps que notre musique chante ça Doc Gynéco Pour tout l'monde les mêmes droits tch tch Combien d'temps ils vont tester ma résistance Me dire de rester gentil, de garder patience Que si je suis sage, un jour j'aurai la chance D'entrer dans la danse Mais maintenant J'ai les yeux ouverts et j'ai conscience Que plus le temps passe, plus il faut que j'avance Pas rester à espérer qu'ils me laissent une chance Pour progresser dans l'existence Longtemps... que notre musique chante ça Pour tout l'monde les mêmes droits Et jusqu'à quand ils vont nous dire de rester gentils Pour avoir demain c'qu'on n'a pas aujourd'hui À ceux qui étaient avant nous, ils avaient dit La même chose, aujourd'hui ils ont des ennuis, seulement MC Janik, C.A.L.B.O, les mêmes droits Combien d'temps ils vont tester ma résistance Me dire de rester gentil, de garder patience Longtemps que notre musique chante ça Pour tout l'monde les mêmes droits les mêmes droits Combien d'temps ils vont tester ma résistance Me dire de rester gentil, de garder patience Longtemps que notre musique chante ça trop longtemps Pour tout l'monde les mêmes droits les mêmes droits Combien d'temps ils vont tester ma résistance et tu l'sais Me dire de rester gentil, de garder patience écoute ça Longtemps que notre musique chante ça Ärsenik Pour tout l'monde les mêmes droits Combien d'temps ils vont tester ma résistance Me dire de rester gentil, de garder patience Longtemps que notre musique chante ça Pour tout l'monde les mêmes droits</t>
+          <t>Ärsenik, Doc Gynéco, MC Janik Tch tch Combien d'temps On va nous bluffer J'préfère faire ma loi pour avoir le droit Le droit d'casser des gueules dans l'allée du roi Ouvrir des portes aux potes, faire péter des parois Jésus sauveur descend d'sa croix, vient bénir ma rée-soi Lord have mercy Police, sexe tass', 8-6 roule haya La misère est mon vice miss, je suis faya Mon son c'est d'l'immigration L'insécurité sur les ondes de la nation Passe-moi le mic, fuck et suck my dick Choisis ton camp, viens danser typique Vex', complexe, infériorité Sexe, confort, sécurité Rhum Kenneth et des bombes pètent Marianne paye ses dettes façon Luc Reinette J'vois qu'on a tous un truc à faire Le fouet, le fer j'ai su m'y faire Combien d'temps ils vont tester ma résistance MC Janik Me dire de rester gentil, de garder patience Ärsenik Longtemps que notre musique chante ça Doc Gynéco Pour tout l'monde les mêmes droits les mêmes droits Combien d'temps ils vont tester ma résistance et tu l'sais Me dire de rester gentil, de garder patience Longtemps que notre musique chante ça écoute ça Pour tout l'monde les mêmes droits J'ai plus l'droit d'rien faire, même pas l'droit à m'taire J'erre dans ma tess, perds mon temps et j'pé-ra assis dans mon XXX Ça l'fait pas putain, je perds patience quand j'flaire un bon coup d'bière Dans les mêmes galères, de-mer tout-par Au quart de tour l'coup part De n'importe où, tous partent Couche-tard, ils errent dans les couloirs Combien d'temps ils vont nous tester Combien vont nous rester Empester les ondes, tous nous molester Ärsenik sur les Liaisons contre les gros bonnets vient se dresser Y a trop longtemps que notre musique té-chan ça Y a trop d'enfants victimes des pulsions d'un vieux dique-sa Dis ça à tous tes soss' préparez la rébellion Nique ça avec force laisse-les, c'est ces millions Le texte de loi XXX pays du droit Parigot dangerous tu peux te mettre un doigt Tes blablas, chez moi personne n'y croit Combien d'temps ils vont tester ma résistance Me dire de rester gentil, de garder patience MC Janik Longtemps que notre musique chante ça écoute ça Pour tout l'monde les mêmes droits les mêmes droits Combien d'temps ils vont tester ma résistance et tu l'sais Me dire de rester gentil, de garder patience C.A.L.B.O Longtemps que notre musique chante ça Doc Gynéco Pour tout l'monde les mêmes droits tch tch Combien d'temps ils vont tester ma résistance Me dire de rester gentil, de garder patience Que si je suis sage, un jour j'aurai la chance D'entrer dans la danse Mais maintenant J'ai les yeux ouverts et j'ai conscience Que plus le temps passe, plus il faut que j'avance Pas rester à espérer qu'ils me laissent une chance Pour progresser dans l'existence Longtemps... que notre musique chante ça Pour tout l'monde les mêmes droits Et jusqu'à quand ils vont nous dire de rester gentils Pour avoir demain c'qu'on n'a pas aujourd'hui À ceux qui étaient avant nous, ils avaient dit La même chose, aujourd'hui ils ont des ennuis, seulement MC Janik, C.A.L.B.O, les mêmes droits Combien d'temps ils vont tester ma résistance Me dire de rester gentil, de garder patience Longtemps que notre musique chante ça Pour tout l'monde les mêmes droits les mêmes droits Combien d'temps ils vont tester ma résistance Me dire de rester gentil, de garder patience Longtemps que notre musique chante ça trop longtemps Pour tout l'monde les mêmes droits les mêmes droits Combien d'temps ils vont tester ma résistance et tu l'sais Me dire de rester gentil, de garder patience écoute ça Longtemps que notre musique chante ça Ärsenik Pour tout l'monde les mêmes droits Combien d'temps ils vont tester ma résistance Me dire de rester gentil, de garder patience Longtemps que notre musique chante ça Pour tout l'monde les mêmes droits</t>
         </is>
       </c>
     </row>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Mes baskets blanches, mes locks l'encre a coulé comme les 3 Rivières Au fond des blocs, enfants des îles fils d'une classe ouvrière L'idole des jeunes, Doc restera le même De Porte de la Chapelle, aux ondes hertziennes A l'heure où le monde se bouscule Je repasse ma vie à l'envers J'en ai fait des rêves, des calculs J'ai jamais voulu vraiment me laisser faire Refrain Jamais, jamais... jamais, jamais Et le temps passe, non je ne regrette rien Non rien de rien, je ne regrette rien Rien ne s'efface, mon destin me ressemble bien Nos rêves, nos poings ont guidé nos refrains Et le temps passe, pourtant, je ne regrette rien Non rien de rien, je ne regrette rien La moindre trace, je l'ai bâtie de mes mains Mes rêves, nos poings, ont guidé nos destins Mes baskets blanche, mon RER l'encre a coulé dans ma carrière À temps plein, viser le haut contemple mon temple est légendaire Mon air AMER, mon teint mes rêves sont restés les mêmes J'ai tant porté le flambeau représenté l'honneur des miens You might also like Mes baskets blanches ma grande gueule de l'encre sur les mains Mon stylo était meurtri coupable ennemi numéro 1 Entre merde et pertes blanches j'ai le goût pour la revanche Boxeur, breakeur, rappeur, acteur attitude franche J'ai chanté les Hommes, leurs désirs Les destins fragiles et l'amour Je suis né dans la rue On a voulu que j' tombe sur place Moi, j'ai souvent fait face Et je combats toujours Le combat continue Jamais, jamais... jamais, jamais Et le temps passe, non je ne regrette rien Non rien de rien, je ne regrette rien Rien ne s'efface, mon destin me ressemble bien Nos rêves, nos poings ont guidé nos refrains Et le temps passe, pourtant, je ne regrette rien Non rien de rien, je ne regrette rien La moindre trace, je l'ai bâtie de mes mains Mes rêves, nos poings, ont guidé nos destins Dis l'heure de Hip Hop Rock des burnes dans le froc Fusion guitares et pe-ra pour civils et colboques Ministère, Johnny aussi burnés qu'un keuf sous Sarkozy Liberté dans ma musique et l'savoir comme Uzi Baskets blanches et blousons noirs génération, manque d'espoir Exempté de conneries que ce gardien me foute la paix Lascars abandonnés j'ai le rêve des cités dortoirs Mon rap tout-terrain mon R.T.T, c'est ça qui est la vérité L'être humain porte en lui le meilleur Ouais Je sens encore le poids de mes erreurs De mes erreurs Ouais Le pire a si souvent été là La peine guidait mes pas Mais je la garde au fond de moi Jusqu'au dernier souffle Jamais, jamais... jamais, jamais Et le temps passe, non je ne regrette rien Non rien de rien, je ne regrette rien Rien ne s'efface, mon destin me ressemble bien Nos rêves, nos poings ont guidé nos refrains Et le temps passe, pourtant, je ne regrette rien Non rien de rien, je ne regrette rien La moindre trace, je l'ai bâtie de mes mains Mes rêves, nos poings, ont guidé nos destins Ministère A.M.E.R Johnny Hallyday et ouais, ça le fait Dis l'heure 2 Hip Hop Rock Mon rock est sombre, mon rap est profond Sex comme une langue sur un téton Dur comme les blocs de béton Yeah, dis l'heure 2 Hip Hop Dis l'heure 2 Hip Hop Rock</t>
+          <t>Mes baskets blanches, mes locks l'encre a coulé comme les 3 Rivières Au fond des blocs, enfants des îles fils d'une classe ouvrière L'idole des jeunes, Doc restera le même De Porte de la Chapelle, aux ondes hertziennes A l'heure où le monde se bouscule Je repasse ma vie à l'envers J'en ai fait des rêves, des calculs J'ai jamais voulu vraiment me laisser faire Refrain Jamais, jamais... jamais, jamais Et le temps passe, non je ne regrette rien Non rien de rien, je ne regrette rien Rien ne s'efface, mon destin me ressemble bien Nos rêves, nos poings ont guidé nos refrains Et le temps passe, pourtant, je ne regrette rien Non rien de rien, je ne regrette rien La moindre trace, je l'ai bâtie de mes mains Mes rêves, nos poings, ont guidé nos destins Mes baskets blanche, mon RER l'encre a coulé dans ma carrière À temps plein, viser le haut contemple mon temple est légendaire Mon air AMER, mon teint mes rêves sont restés les mêmes J'ai tant porté le flambeau représenté l'honneur des miens Mes baskets blanches ma grande gueule de l'encre sur les mains Mon stylo était meurtri coupable ennemi numéro 1 Entre merde et pertes blanches j'ai le goût pour la revanche Boxeur, breakeur, rappeur, acteur attitude franche J'ai chanté les Hommes, leurs désirs Les destins fragiles et l'amour Je suis né dans la rue On a voulu que j' tombe sur place Moi, j'ai souvent fait face Et je combats toujours Le combat continue Jamais, jamais... jamais, jamais Et le temps passe, non je ne regrette rien Non rien de rien, je ne regrette rien Rien ne s'efface, mon destin me ressemble bien Nos rêves, nos poings ont guidé nos refrains Et le temps passe, pourtant, je ne regrette rien Non rien de rien, je ne regrette rien La moindre trace, je l'ai bâtie de mes mains Mes rêves, nos poings, ont guidé nos destins Dis l'heure de Hip Hop Rock des burnes dans le froc Fusion guitares et pe-ra pour civils et colboques Ministère, Johnny aussi burnés qu'un keuf sous Sarkozy Liberté dans ma musique et l'savoir comme Uzi Baskets blanches et blousons noirs génération, manque d'espoir Exempté de conneries que ce gardien me foute la paix Lascars abandonnés j'ai le rêve des cités dortoirs Mon rap tout-terrain mon R.T.T, c'est ça qui est la vérité L'être humain porte en lui le meilleur Ouais Je sens encore le poids de mes erreurs De mes erreurs Ouais Le pire a si souvent été là La peine guidait mes pas Mais je la garde au fond de moi Jusqu'au dernier souffle Jamais, jamais... jamais, jamais Et le temps passe, non je ne regrette rien Non rien de rien, je ne regrette rien Rien ne s'efface, mon destin me ressemble bien Nos rêves, nos poings ont guidé nos refrains Et le temps passe, pourtant, je ne regrette rien Non rien de rien, je ne regrette rien La moindre trace, je l'ai bâtie de mes mains Mes rêves, nos poings, ont guidé nos destins Ministère A.M.E.R Johnny Hallyday et ouais, ça le fait Dis l'heure 2 Hip Hop Rock Mon rock est sombre, mon rap est profond Sex comme une langue sur un téton Dur comme les blocs de béton Yeah, dis l'heure 2 Hip Hop Dis l'heure 2 Hip Hop Rock</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Liaisons dangerous Doc Gyneco Si tu savais ce qu'ils pensent des gens de couleur, ma sur ! Y'a pas de fleurs dans mon malheur Pour t'en offrir, je me fais rappeur Pourquoi subir tel un cireur de chaussures ? Pour m'en sortir, je suis conteur de mésaventures Un mec à la recherche d'une femme pure Qui se la raconte pas et qui a de l'allure, c'est sûr Et si toutes les meufs étaient carrées comme Mariah Je fumerais moins, je boirais moins de Bavaria Je combattrais la peste, la malaria J'aurais la Foi comme Mère Teresa Toutes ces promesses gravées sur le cercueil de Lady Di Comme à Dallas pour Kennedy Vous m'aurez pas, j'ai un holster sous mon Teddy Le Pape endort la masse avec des promesses à la messe Laisse, j'encaisse... Vamos todos juntos ! Que la guerra va a empezar La guerra empezará Como Zapata lo diría Hacer la revolución La victoria reinará Reinará Et si, pour percer, bercer les gens de bonne musique Faut signer sur des labels qui ne pensent qu'au fric Je le fais, et si je pouvais je ferais les pubs Qui vont avec les tubes et tu comprendrais comment on t'entube Demande à Virgin si j'ai des copines dans la machine Elle, elle a changé le cours de ma vie C'est des sadiques Je veux le contrôle de mes clips, de ma musique Fonce-dé mais pas te-bê Je suis pas la poule aux disques d'or ni le presse-billet Un coup de rhum vieux et je m'arrache si Dieu le veut J'en ai 23 et Il a des projets pour moi J'ai pas raison de vouloir faire les Liaisons ? Ou t'as peur qu'enfin arrive notre saison ? T'es qu'une balance, un mec comme toi peut suffire A faire sauter tout ce qu'on veut créer, notre empire Vamos todos juntos ! Que la guerra va a empezar La guerra empezará Como Zapata lo diría Hacer la revolución La victoria reinará Reinará Sortir de la musique comme j'y suis entré, libre Reprendre les livraisons lorsque mon bippeur vibre On déclare ce jeune branleur ivre révolutionnaire Avec le recul, la vérité a dû leur plaire Ils parlent de moi en exemplaire Ils disent que je suis fou Que dans la vie, j'ai fait mon trou Pas besoin de grimper dans leur estime Moi je suis l'homme qui ne valait pas dix centimes Y'a que les morts qui parlent pas Un dernier skeud avant qu'on me fasse sauter le pas Quoi qu'il arrive sur la planète Terre Dans le monde des affaires, le rap, les ministères C'est toujours un gangster qui contrôle l'affaire x2 Vamos todos juntos ! Que la guerra va a empezar La guerra empezará Como Zapata lo diría Hacer la revolución La victoria reinará ReinaráYou might also like</t>
+          <t>Liaisons dangerous Doc Gyneco Si tu savais ce qu'ils pensent des gens de couleur, ma sur ! Y'a pas de fleurs dans mon malheur Pour t'en offrir, je me fais rappeur Pourquoi subir tel un cireur de chaussures ? Pour m'en sortir, je suis conteur de mésaventures Un mec à la recherche d'une femme pure Qui se la raconte pas et qui a de l'allure, c'est sûr Et si toutes les meufs étaient carrées comme Mariah Je fumerais moins, je boirais moins de Bavaria Je combattrais la peste, la malaria J'aurais la Foi comme Mère Teresa Toutes ces promesses gravées sur le cercueil de Lady Di Comme à Dallas pour Kennedy Vous m'aurez pas, j'ai un holster sous mon Teddy Le Pape endort la masse avec des promesses à la messe Laisse, j'encaisse... Vamos todos juntos ! Que la guerra va a empezar La guerra empezará Como Zapata lo diría Hacer la revolución La victoria reinará Reinará Et si, pour percer, bercer les gens de bonne musique Faut signer sur des labels qui ne pensent qu'au fric Je le fais, et si je pouvais je ferais les pubs Qui vont avec les tubes et tu comprendrais comment on t'entube Demande à Virgin si j'ai des copines dans la machine Elle, elle a changé le cours de ma vie C'est des sadiques Je veux le contrôle de mes clips, de ma musique Fonce-dé mais pas te-bê Je suis pas la poule aux disques d'or ni le presse-billet Un coup de rhum vieux et je m'arrache si Dieu le veut J'en ai 23 et Il a des projets pour moi J'ai pas raison de vouloir faire les Liaisons ? Ou t'as peur qu'enfin arrive notre saison ? T'es qu'une balance, un mec comme toi peut suffire A faire sauter tout ce qu'on veut créer, notre empire Vamos todos juntos ! Que la guerra va a empezar La guerra empezará Como Zapata lo diría Hacer la revolución La victoria reinará Reinará Sortir de la musique comme j'y suis entré, libre Reprendre les livraisons lorsque mon bippeur vibre On déclare ce jeune branleur ivre révolutionnaire Avec le recul, la vérité a dû leur plaire Ils parlent de moi en exemplaire Ils disent que je suis fou Que dans la vie, j'ai fait mon trou Pas besoin de grimper dans leur estime Moi je suis l'homme qui ne valait pas dix centimes Y'a que les morts qui parlent pas Un dernier skeud avant qu'on me fasse sauter le pas Quoi qu'il arrive sur la planète Terre Dans le monde des affaires, le rap, les ministères C'est toujours un gangster qui contrôle l'affaire x2 Vamos todos juntos ! Que la guerra va a empezar La guerra empezará Como Zapata lo diría Hacer la revolución La victoria reinará Reinará</t>
         </is>
       </c>
     </row>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Ma bourgeoise elle est pas comme les autres On dirait qu'elle fait partie des nôtres Elle pense pas qu'au fric Elle aime l'Afrique Elle y va..apporte du secours aux gens Avec ma bourgeoise on fait l'amour en cachette chez ses parents Elle m'dit t'es une belle personne, t'as une belle âme Moi j'pense qu'elle est bonne, qu'elle devrait être ma femme Ma bourgeoise me conseille des bouquins Elle ne lit pas d'Arlequin Et si tu la cherches elle crache son venin La goulue fait l'trottoir Ma bourgeoise respire l'air du soir Son père vend du pétrole Mais ma bourgeoise m'aime comme une folle Juste moi et ma bourgeoise ensemble, face au monde Juste moi et ma bourgeoise assis, sur le toit, de leur monde Elle m'dit comment peut-on manger un sandwich grec ? J'lui dis qu'il suffit d'être à sec J'fais du son pour ceux qui trouvent ça bon Ceux qui dorment sur un carton Elle comprend qu'on aie mal Qu'on s'conduise mal Dans la visite elle fut blessée J'lui dis parfois qu'il y a des morts, c'est hardcore J'me demande si j'ai eu raison de lui montrer Mais j'essaie d'la sauver Quand son père nous a découvert Elle est venue vivre chez ma mère Ma bourgeoise fait partie d'ma famille, elle m'donne envie de l'épouser Elle a des projets, une vie simple, ma bourgeoise veut juste changer de trajet You might also like Juste moi et ma bourgeoise, ensemble, face au monde Juste moi et ma bourgeoise, assis, sur le toit, de leur monde Elle danse du zouk et mange du colombo Elle est enrôlée j'la chambre mais elle s'en fout Elle aime vivre avec nous J'aime quand elle pleure, quand sa peau est couverte de ma sueur, ma soeur Ma bourgeoise elle est pas comme les autres, on dirait qu'elle fait partie des nôtres La femme d'en haut et l'homme d'en bas Pour elle l'amour c'est comme ça J'voudrais lui offrir des millions mais elle en a déjà Alors j'compense avec ma bonne humeur et un bouquet de rimes En ésperant qu'un jour, Bruno Beausire devienne son patronyme Juste moi et ma bourgeoise ensemble, face au monde Juste moi et ma bourgeoise assis, sur le toit, de leur monde2</t>
+          <t>Ma bourgeoise elle est pas comme les autres On dirait qu'elle fait partie des nôtres Elle pense pas qu'au fric Elle aime l'Afrique Elle y va..apporte du secours aux gens Avec ma bourgeoise on fait l'amour en cachette chez ses parents Elle m'dit t'es une belle personne, t'as une belle âme Moi j'pense qu'elle est bonne, qu'elle devrait être ma femme Ma bourgeoise me conseille des bouquins Elle ne lit pas d'Arlequin Et si tu la cherches elle crache son venin La goulue fait l'trottoir Ma bourgeoise respire l'air du soir Son père vend du pétrole Mais ma bourgeoise m'aime comme une folle Juste moi et ma bourgeoise ensemble, face au monde Juste moi et ma bourgeoise assis, sur le toit, de leur monde Elle m'dit comment peut-on manger un sandwich grec ? J'lui dis qu'il suffit d'être à sec J'fais du son pour ceux qui trouvent ça bon Ceux qui dorment sur un carton Elle comprend qu'on aie mal Qu'on s'conduise mal Dans la visite elle fut blessée J'lui dis parfois qu'il y a des morts, c'est hardcore J'me demande si j'ai eu raison de lui montrer Mais j'essaie d'la sauver Quand son père nous a découvert Elle est venue vivre chez ma mère Ma bourgeoise fait partie d'ma famille, elle m'donne envie de l'épouser Elle a des projets, une vie simple, ma bourgeoise veut juste changer de trajet Juste moi et ma bourgeoise, ensemble, face au monde Juste moi et ma bourgeoise, assis, sur le toit, de leur monde Elle danse du zouk et mange du colombo Elle est enrôlée j'la chambre mais elle s'en fout Elle aime vivre avec nous J'aime quand elle pleure, quand sa peau est couverte de ma sueur, ma soeur Ma bourgeoise elle est pas comme les autres, on dirait qu'elle fait partie des nôtres La femme d'en haut et l'homme d'en bas Pour elle l'amour c'est comme ça J'voudrais lui offrir des millions mais elle en a déjà Alors j'compense avec ma bonne humeur et un bouquet de rimes En ésperant qu'un jour, Bruno Beausire devienne son patronyme Juste moi et ma bourgeoise ensemble, face au monde Juste moi et ma bourgeoise assis, sur le toit, de leur monde2</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Janvier - 0201 Klem - Mort vivant - 0201 LIM - Gamberge - 0301 Afro S - Mode demo - 0301 Hipo - Comeback - 0301 Jwles - Trop gentil - 0301 Klem - PAS DU MEME MONDE - 0401 Gambino la MG - Freestyle No Hook - 0401 Kenyon - Shatta - 0401 SAM - Dans le noir - 0501 Cinco - Entier - 0501 Fadah - Bocal - 0501 Gen - Solaris - 0501 Henri Bleu - Dragon sans ailes - 0501 Klem - L'HIVER - 0501 Le Juiice - ICONIQUE - 0501 Mouk - Tartin 1 - 0501 Oumar - Trauma Drill 1 Parabellum - 0601 6rano - DrillB - 0601 Jazzy Bazz - Panorama ft. Alpha Wann - 0601 Le 3ème il - Renaissance - 0601 Maka - Joujoux - 0601 Riski - Free Zelda - 0601 Simony - A13 - 0701 BEENDO Z - . INSPIRÉ DE FAITS RÉELS 4 - 0701 Bené - RS ft. Capo Plaza - 0701 Benjamin Epps - BMW BOYZ - 0701 Djeiz - Vilain ft. Bolémvn - 0701 Elias B4C - Bat4Clan - 0701 Faelix - Maintenant - 0701 JSX - Anarchie - 0701 Kaaris Kalash Criminel - Tu dois des sous - 0701 Laeti - La route est longue - 0701 La Honda - Réel 5 - 0701 La Peee - Phénomène 4 - 0701 Lucio Bukowski x Oster Lapwass - Ls dieux ne jouent plus au billard élctrique. - 0701 Moha K - Regarde-moi - 0701 Negrito - Kel bail - 0701 Nouwane - Martini - 0701 Rémy - 97 mesures - 0701 SONBEST - strAnge - 0701 Vald - Anunnaki - 0801 Klem - PAS COMME LES AUTRES HUMAINS - 0801 Timal - Freestyle Tarmac - 0901 JuL - À la russe - 0901 JuL - La recette - 0901 Klem - LE DERNIER - 0901 La Honda 19 - Docteur Lamaze 1 - 0901 LIM - Combattant - 0901 LP2.0 - Eric Zemmour - 1001 So La Lune - Tsukinatra ft. Dawg Sinatra - 1101 DIL - Cramé - 1101 Dmh - Quartiers Nord 11 La semi - 1101 Slkrack - Opensea - 1201 A2H - Solo - 1201 Cheu-B - Extendo - 1201 Julio Goba - Freestyle ploutocratie, Pt. 6 - 1201 Kai du M - GTA 23 - 1201 Kemmler - Dimitri Payet - 1201 Les Grands Enfants - Melancholy Hill - 1201 Luni - Tout pour moi ft. Mister V - 1201 Medja - Lil Devil King Harv - Calogero ft. Purp 1201 OMR - 75-91 ft. Chicaille Argenté - 1201 Smahlo - Horizon - 1201 Sto - STARDUST REMIX - 1201 Tommy Isaac - Big Fish ft. DYPE - 1301 Benjamin Epps - CE QUE LE PIPS DEMANDE - 1301 BRK - Shooter 3 ft. L2B Gang - 1301 Doria - Triste époque - 1301 Jey Brownie - Trop de love ft. Roissy - 1301 La Smala - Dans les mémoires ft. Scred Connexion - 1301 Les Frères Bizzy - 34 ft. Junior Bvndo - 1301 Nahir - Adriano - 1301 Nessbeal - La Dem ft. ZKR - 1301 Norsacce - Aller-retour Part.1 - 1301 P-dro - Journal intime, pt. 3 - 1301 Riski - OK PETASSE ft. Yuri J - 1401 Alkpote - Éteins la lumière ft. Francky Vincent - 1401 Atro Boi - Maux d'amour ft. Tallisker - 1401 Blaiz - Môme - 1401 Brvmsoo - Best Friend - 1401 Chanje - Canette - 1401 Cinco - Level - 1401 Elaka - Jurassic Park - 1401 Frenetik - RDP - 1401 Gotti Maras - En Brr - 1401 i300 - No Hook - 1401 Jonny Vegas - Noir - 1401 Josas - Khamsa - 1401 Kaeles - Questions - 1401 Kery James - LE POETE NOIR - 1401 Leonis - Bloqué en bas - Sherhood 5 - 1401 Lyms - Menottés ft. Negrito - 1401 Mini - Goddamn ft. Zaky 8ruki 1401 Monkey D - Bonne voix ft. Georgio - 1401 NTH - Low ft. Jaekers - 1401 Omar Syco - Négocie pas - 1401 Ramses - Quelle vie - 1401 Realo - 2 SEC 1401 Sizlac - Calibre - 1401 Solray - 1899 - 1401 Vves - Neymar Mbappé ft. ALP - 1401 Yanslo - Aicha - 1401 yung g - adversaires - 1501 Cheval Blanc - Sitcom - 1601 JOHEM - MAUVAISE DRILL 1 Je les aimes pas - 1701 Bob Marlich - Lundi - 1701 Jazzy Bazz - 1989 Freestyle - 1701 Luv Resval - S2 - 5 Shadow - 1801 Rocca - Mash Up ft. Souffrance - 1801 Squall p - Amsterdame - 1801 yswanj - Come Over On Top Björk Cambiar - 1901 8Ruki - Interlude 1901 Black D - Pefra - 1901 DOR - Authentique - 1901 Gemen - WHO ASKED? - 1901 Heskis - Temps mort - 1901 Jwles - Hors-jeu 1901 Rémy - Le moteur - 1901 ouley - Cry me a river - 1901 Venom - 998 - 2001 Allebou - Quidam - 2001 Chad de la Cour - EMO - 2001 Dmh - Quartiers Nord 12 Traficanté - 2001 Fresh - Freestyle Le cachot - 2001 Green Montana - WALDORF ASTORIA - 2001 J9ueve - Melody - 2001 Jazzy Bazz - Élément 115 ft. Nekfeu - 2001 Lamatrix - Maestro - 2001 LIM - Tourne en rond - 2001 Matheos - Le dernier des fainéants - 2001 Moha MMZ - CAUCHEMAR - 2001 Nero Dee - Cur noir - 2101 Booba - Pablo - 2101 Genezio - Elle m'appelle - 2101 Jayel - Perle rare - 2101 Kamas Skuh - Bienvenue à Ris 5 - 2101 Kaza - Sincère - 2101 MadeInParis - Baby ft. Squidji - 2101 Malty 2BZ - Gangsta ft. Tiitof - 2101 Niaks - Ninetta - 2101 OldPee - Dur - 2101 Popey - White Mauvais choix ft. DA Uzi - 2101 Rethno - Popelson - 2101 roseboy666 - Paradis ft. AnNie .Adaa - 2101 Triple Z - Passe à lépice 8 Capri-Sun - 2101 Voquab - Tourne pas rond Marchandage - 2101 YL - Prières ft. ISK - 2301 Baby Neelou - 20Janvier - 2301 Dmh - Quartiers Nord 13 Sans budget - 2301 Jolagreen23 - 3945 - 2301 Mac Seamus - Reset - 2301 Ozkar - Cinderella - 2301 Yanso - BX Capitale 5 ft. ZVdu17, Le M, Sky, Elengi Ya Trafic Jones Cruipy - 2401 Gouap - Switch 4 - 2401 La Smala - Hors du temps - 2601 Dany Dan - Pop Style libre - 2601 Jason Voriz - Jean Lou ft. Reta - 2601 Kaneki - Maison ft. DA Uzi - 2601 Kodes - Trop mabé 4 - 2601 Maka - Minimum - 2601 Théodore - Loco - 2601 Zamdane - Le monde par ma fenêtre 2601 Zidi - XY Part. 3 Ciel - 2701 Babysolo33 - LnlyBby - 2701 Chanceko - Y E S M A N !!! - 2701 Cinco - Booska Sacrifices - 2701 DerK16 - Alim6 - Signature - 2701 Freeze Corleone Ashe 22 - SCELLÉ PART. 4 - 2701 Gius - NO BLEM! - 2701 Juice - La lumière des spots - 2701 Oklmava - À quel prix ? - 2701 Skia - Verre d'eau - 2701 Slkrack - Hazi Life 5 Fuego - 2701 Tsew The Kid - Polaroïd 1 Blessé - 2801 4.4.2 - R8 ft. Hamza Alonzo - 2801 99 Wolfkid - Lean On ft. Chanceko EDGE - 2801 Aketo - Frais comme un daron - 2801 Biffty - Le temps passe - 2801 Billy la Ure - Délit ft. Key Largo - 2801 Celestino - Poisse - 2801 FrenchCali - Ciel - 2801 Fresh - La Douille 6 - 2801 GLK - Bizarre ft. Nahir Waïv - 2801 HV Manyy - Bloqué ft. Sasso - 2801 Jackmaboy - Le man il est gang - warra bang 1 - 2801 Kanoé - Hiver - 2801 La F - Appel manqué 10 - 2801 Larry - EN PÉPÉ 1 2801 Lemon Haze - Chronos - 2801 Nans - Serein - 2801 Rea - Amoroso - 2801 Rim'K - Iceberg - 2801 Rimkus - MAYDAY ft. Doria - 2801 Sicario - Bipolaire - 2801 Sinik - Balles perdues - 2801 Susanoô - Silence - 2801 Tyranik - Notifs - 2801 Uzi - Rotterdam ft. OBOY - 3001 JMK - BOSSY - 3001 LIM - Putain - 3001 Rim'4 - Repeat - 3001 Stony Stone - Step 2 - Angèle - 3101 F430 - Effet papillon 2 - 3101 Kenyon - Détails - 3101 Moji x Sboy - ELLE PLEURE EN HIVER 3101 Pirate - RS DRILL 4 You might also likeFévrier - 0202 Araujo - SAC CHANEL - 0202 Beendo Z - GTA 24 - 0202 Bné - Ça recommence - 0202 Djalito - Oublie - 0202 Gotti Maras - Bx Drill 6 ft. Fresh la Douille - 0202 Henri Bleu - Wonderland - 0202 Les Grands Enfants - ride or die - 0202 Lotus - Lts 03 - Nike - 0202 Medja - Lil Devil King Harv - Shooter Clan ft. Purp 0202 Moubarak - L'espoir - 0202 Vilk - Phoque - 0302 313 - Oublier - 0302 Draviss - Tout donner - 0302 Ekloz - WAVES - 0302 Kpri - Volant - 0302 Simony - RSA Gris Nardo - 0302 thaHomey - SKIP TO MY LOU - 0302 TIF - Emoji DZ - 0302 Veerus - Wu-Tang ft. Limsa d'Aulnay - 0302 winnterzuko Skuna - PGM 0402 Bigor - Triple S - 0402 Bolémvn - Cho Na Cho ft. Alonzo - 0402 Cappuccino - La location - 0402 Coyote Jo Bastard - Booska CNLPG - 0402 Croma619 - Malin comme un singe - 0402 Dixon - D'autres filles - 0402 Gambino La MG - À tout moment - 0402 Gueule d'Ange - Mi Amor - 0402 i300 - Tookah 4 - 0402 JEUNESAINT - Babymama - 0402 Keeqaid - Freestyle x1 - 0402 Keeqaid - Freestyle x2 - 0402 Landy - R.A.S ft. SDM - 0402 La Rumeur - Saturé - 0402 SOPA - Mort - 0402 Vves - Trou noir - 0402 Yaro - Ma nana - 0402 yung g - Amulette - 0502 Osirus Jack - Ron Van Clief - 0602 6rano - Tupac Shakur 2 - 0602 Alkpote - Après minuit ft. Ouss Wayne - 0602 DIL - Représailles - 0602 Implaccable - Chap Chap Chap - 0602 Mapess - DEMI TOUR - 0602 Soumeya - Tout ce temps - 0702 Richi - DÉSERT - 0802 Kerchak - NH 2 - 0802 YUNG POOR ALO - Freestyle Psychoklaw - 0902 Dala - Serum - 0902 Dmh - Quartiers Nord 14 Héritage - 0902 Don Max FullBaz - WAVY - 0902 Josas - UEFA 0902 Le Croc - BAW 6 - 1002 Dabs - Billie Jean - 1002 leith - différent - 1002 Makala - Boss - 1002 Zamdane - Incomplet comme février - 1002 Yuzmv - Avenue de l'impasse - 1102 Bebew - Laisse nous faire ft. Elams - 1102 Bludelta - Maladie - 1102 Bolémvn - Boosk'atterrissage - 1102 Chanje - Miracle ft. EDGE - 1102 C.Sen Le Chimiste - Humain - 1102 Elflaco - Elle dit - 1102 Emraz - SOUS LA PLUIE - 1102 Freeze Corleone Ashe 22 - DÉGRADÉ - 1102 Frenetik - Déjà vu - 1102 La Miellerie - Écailles ft. Tawsen JeanJass - 1102 Lefa - Mise à jour - 1102 Leonis - Allô - 1102 Lorage - Mirage - 1102 Lujipeka - Pas à ma place ft. Lil Tooom - 1102 Naza - Vie de rêve ft. Imen Es - 1102 Omar Syco - Mina - 1102 Realo - PARTY ft. Zaky - 1102 Romy Rose - Joli Chéri ft. Negrito - 1102 Timal - Filtré ft. Gazo - 1102 YL - Tata Fatima - 1102 Yuzmv - Docteur - 1202 34murphy - 95 - 1302 BabySolo33, Bricksy 3G - Love Story ft. Azur - 1302 Mocaris - Fleur du ghetto - 1402 Aketo - Pas volé - 1402 Bné - Control - 1402 Jok'Air - Sorry not sorry ft. Tayc - 1402 Kima - Fake Love - 1402 Le7ept - Muse - 1402 Lyre - Ivresse - 1402 Sneazzy - Dernière fois - 1402 Max D. Carter - Finesse - 1602 A2H - Walou ft. Bakari - 1602 Bob Marlich - L'Haÿssien - 1602 GLK - Sadness, Pt. 1 Santé - 1602 Implaccable - 2.6M - 1602 Leto - Mozart Capitaine Jackson Episode 2 - 1602 Neskoo - Révolution - 1702 Amine Farsi - Suzuki ft. Le Risque - 1702 AnNie . Adaa - UN JOUR - 1702 Eline - Chute - 1702 Juice - CALLS Missed - 1702 Nahir - Boosk'Araï 2 - 1702 Tovaritch - Atmosphère - 1802 Coyote Jo Bastard Bhavi - Tchagala - 1802 Damys - TRAPU - 1802 DA Uzi - Hmmm Laisse tomber - 1802 Elh Kmer - K2 - 1802 Elvieto - Chronique ardente 3 - 1802 ISHA - La réincarnation de Biggie - 1802 Kai du M - Ça débite ft. SDM - 1802 Kanoé - Hiver 2 ft. La F - 1802 Kodes - Trop mabé 5 - 1802 K.S.A - Grand Prix - 1802 Mehdi YZ - Quiller - 1802 Naps - Le p'tit Marseillais - 1802 Saamou Skuu - Drill Of France 3 - 1802 Salek - ADRENALINE - 1802 Sam - Black - 1802 Stony Stone - Step 3 - NXM - 1802 Sysa - Tripoli - 1802 Voquab - Sang dencre Acceptation - 1802 YNG Trvpboy - Quattro - 2002 Mougli - Freestyle Hors-Série 2 - 2002 Slim C - PLF - 2102 Dwen - Milano - 2102 Tisco - Dans la sauce 3 ft. Ruby Nikara Yoro - 2102 Uzi - Arc-en-ciel - 2102 ZKR - Les gentils bandits - 2202 13Mini - Petit con - 2202 Djalito - Idées noires ft. So La Lune - 2202 Faelix - Détailler - 2202 thaHomey - 10BRICKS - 2202 RCKNSQT - Pixel - 2202 YL - Booska Piccolo - 2202 Zoxea - 24H ft. Busta Flex Lord Kossity 2302 Dika - DLB - 2302 Hyacinthe - Perdu la tête - 2302 Jwles - Argentine - 2302 Kepler - Dans ses bras ft. Gambino La MG - 2302 Kerchak - Sabor 2302 Oumar - Trauma Drill 2 La tess ne meurt jamais - 2302 Ron Brice - Addition ft. Ali - 2302 Routs Wayne - Middle - 2302 S-Tee - FILS DE DIEU FREESTYLE - 2302 Theodore - Okito - 2302 Zamdane - Flouka 2402 Absolem - Dégâts - 2402 BEN plg - Quand les lumières s'éteignent - 2402 Bolémvn - Bobby Shmurda ft. KeBlack - 2402 Bushi - Link Up - 2402 Davinhor - Floko ft. Le Juiice - 2402 eden dillinger - Penser mes plaies - 2402 FAYV - C'est FAYV - 2402 Gambino - TR - 2402 Golgoth - PÈLERINAGE ft. Sheldon - 2402 La Honda 19 - Train de vie - 2402 Liim's - 2 bigo - 2402 Lujipeka - Épilogue ft. Luv Resval - 2402 Sally - PARTOUT OÙ JE VAIS - 2402 Tsew The Kid - Polaroïd 2 Sourire - 2402 Veerus - 5 - 2502 100 Blaze - Leonidas - 2502 1D1R - Beldia - 2502 47MEOW - VIE 2 FOU - 2502 ALP - Débordé - 2502 Barack - 4 anneaux ft. Yaro - 2502 Biffty - Sauce Moula - 2502 Bosh - Téléphone - 2502 Celestino - Pull sept-cinq ft. Waltmann - 2502 DawaMafia - Roi - 2502 DOC OVG - XV BB EKIP ft. Pipsa - 2502 Elias B4C - Mauvaises Herbes - 2502 Empty7 - 2ON - 2502 Fababy - Affranchi - 2502 Frenetik - Shakespeare - 2502 Hornet la Frappe - Pulkra - 2502 Jey Brownie - Melodyne - 2502 Jones Cruipy - BMF - 2502 joysad - Anti stress - 2502 KD - Lyon c'est bandit ft. ZeGuerre - 2502 Kims la Rafale - AU CROMI 1 - 2502 La F - Dead - 2502 Lamatrix - Rookie - 2502 La Peee - Cocaïna ft. Mayo Kima - 2502 Larry - EN PÉPÉ 2 2502 Lrk - Dofé - 2502 Luther - Câlins - 2502 Maska - Démoli - 2502 Nanek - Absent 5 - Célestine - 2502 Norsacce - Phoenix ft. Alpha Wann - 2502 PCL Bachiflow - OK ft. DawaMafia - 2502 Popey - Eve - 2502 Rocca - Depuis le début - 2502 Saf - APDM - 2502 Sale Epoque - FERMETURE ft. DA Uzi OldPee - 2502 SAM - Faux voyous - 2502 Sinik - Cicatrices - 2502 Syen - Moonrock - 2502 T Garcia DJ Assad - Rockstar - 2502 Vegedream - On a lhabitude Ok Many ft. Naps - 2602 Riski - Mésaventures ordinaires - 2702 LIM - Tout va très vite - 2702 LP2.0 - Mentale 2 Batard 1 - 2702 nelick - J'avais juste envie de rapper ft. kofi bæ - 2702 Still Fresh - CONFIANCE - 2702 Youri - Malabar - 2802 Dmh - Quartiers Nord 15 Sentiments - 2802 Gambino La MG - Booska Uuhuh - 2802 OG L'Enf - Requin - 2802 Youri - D3 Mars - 0103 Balafré - Or Argent - 0103 Brulux - Koudjack - 0103 Youri - Voisins - 0203 AMK - Benef - 0203 Lesram - Wesh Enfoiré - 0203 Luv Resval - S2 - 6 ZLM - 0203 Moubarak - KODO Principes - 0203 Sultan - Kikazaru - 0203 Youri - Plaisir - 0203 Youssef Swatt's - Quelques notes suffisent - 0303 Alonzo - TRAFICANTE 0303 AP du 113 - Mirador ft. Denzo - 0303 Beendo Z - C'est comme le soleil - 0303 Henri Bleu - Paradis00 OsloHotel - 0303 Maydo - Comptes - 0303 Nahir - Glock ft. Lacrim - 0303 Nixy Rose - EX 0303 Stos - La tour ft. La Peee - 0303 Youri - Folle - 0403 Achile - Hector - 0403 Chad de la Cour - ENCORE UNE NUIT - 0403 Chad de la Cour - MYSELF - 0403 D. Ace - Lélection des méchants - 0403 Ekoms - Couleur saphir - 0403 Gambino La MG - Reste là ft. Tiakola - 0403 HIM - Le chemin - 0403 Jackmaboy - La rue m'attire 0403 KR Malsain - VARADERO - 0403 La Famax - J'suis en love - 0403 L'As - I.MINOGUE - 0403 Lefa - Terrain miné - 0403 Nakry - Le son du ghetto - 0403 Novy - EAPN - Real Shit - 0403 Sasso L'Allemand - Elle m'a dit je t'aime - 0403 Sicario - Yamanaka ft. Booba - 0403 Squadra - Tout donner ft. SAF - 0403 Youri - NRJ - 0503 Youri - D32 - 0603 Dmh - Quartiers Nord 16 BX - GTA - 0603 LIM - C'est fini - 0603 So La Zone - Ma vie - 0703 Nessbeal - Zone Euro - 0803 Rimkus - Booska Boîte Noire - 0903 A2H - Avec une rose - 0903 A2H - Masterclass - 0903 Allebou - J'essaie - 0903 Araujo - EN BAS - 0903 baby hayabusa - YURI - 0903 Dryssco - Parler - 0903 JNR - 243 ft. Kalash Criminel - 0903 JOHEM - GTO ft. LEXZE - 0903 Kasper 939 - 1st Class - 0903 K.S.A - Mannequin ft. Alpha Wann - 0903 Lacraps - Loi d'la calle - 0903 Noma - Static Shock 0903 Nyda - Charbon - 0903 Rapi Sati - My Men ft. Gazo - 0903 Skia - Lumière Freestyle - 0903 YNG Trvpboy - Je voulais - 0903 Zeu - OPP BLOCK - 1003 AM La Scampia - Jolie poupée ft. Timal - 1003 Brvmsoo - Game Over - 1003 GLK - Sadness, Pt. 2 Voleur - 1003 Le 3ème il - Adieu la Galère ft. Alonzo - 1003 RK - Sachet - 1003 Rsko - 100 mi-temps ft. Gazo - 1003 Upsilon - L - 1103 100 Blaze - D.S.C.P - 1103 8Ruki - Zookies - 1103 Antes Madzes - Bête et méchant - 1103 Benash - Ma Débora - 1103 Coyote Jo Bastard - FAFA ft. DrefGold - 1103 Dala - LVCVV - 1103 Elh Kmer - La douleur - 1103 Falcko - Dernière lettre - 1103 Frenetik - Houston - 1103 Gros Mo - La cité ft. Ratu - 1103 ISK - Snowfall - 1103 James Digger - Top Ten ft. Souffrance Cenza - 1103 KESPAR - Flex - 1103 Laeti - Je ne t'aime plus - 1103 L'Algerino - Sensación - 1103 L'As - II.PMV - 1103 Lonepsi - c'est tous les soirs la même chose - 1103 Mougli - Jungle 3 - 1103 Ritchy Boy - Les 4 fantastiques - 1103 Routs Wayne - Immature - 1103 Serane - 448 ft. Mike Shabb - 1103 Seven Binks - 7 Uzi - 1103 Stony Stone - Step 4 - BABY - 1103 Sysa - Cinco - 1103 White N - NOIR BLANC - 1103 Yaro - Booska Tout Droit - 1103 Younès - VLÀ LES PROBLÈMES ft. Médine - 1303 Cappuccino - La location Remix ft. Kaaris - 1303 Gapman - Wait - 1303 LIM - Ça rend fou ft. Les Microbes - 1303 Saisai - GTA 25 - 1303 Zokush - Rocco Morabito - 1503 313 - Rouge - 1503 Zokush - Maman - 1603 B.B. Jacques - Souvenir d'hiver 1603 BRK - Shooter 4 ft. Negrito - 1603 Josman - Fiesta Interlude - 1603 Josman - Mort ce soir - 1603 Le Croc - SHAWTY - 1603 Nero Dee - Mauvaises idées - 1603 sean - Vide - 1603 Soso Maness - Piranha - 1703 Almas - AKHA AKHA ft. Simba La Rue - 1703 Bekar - Avalanche - 1703 Black Jack - TTC - 1703 Disiz - RENCONTRE ft. Damso - 1703 Green Montana - PARFUM - 1703 HK La Paille - Intro - 1703 Lestin - Précis - 1703 Loud White-B - Rien de moins - 1703 luXe Timeless - FACTS - 1803 Aketo - Dalle de coyote - 1803 Akkai - ValeursPrincipes ft. Klemee MLKWAV - 1803 Captaine Roshi - Régiment - 1803 C.Sen Le Chimiste - Ciel Bleu - 1803 DA Uzi - On se reverra plus ft. Gazo - 1803 F430 - Effet papillon 3 - 1803 Gambino - Marseille à Paname - 1803 Hatik - Salam - 1803 Heezy Lee - Ex Aequo - 1803 Him - Audemars - 1803 Hornet La Frappe - Kawasaki ft. Landy - 1803 ISHA - On sourit pas sur les photos - 1803 Kai du M - Sauvage - 1803 Kanoé - Hiver 3 ft. Fresh LaDouille - 1803 Kerchak - Tantor - 1803 La Kadrilla - Mission 1803 Lemon Haze - Caillera - 1803 Leo SVR - Qu'un temps ft. Croma619 - 1803 L'As - III.APES - 1803 Madrane - Plata - 1803 MIG - 18 mars - 1803 Naps - Sun Valley - 1803 Nyluu - XO - 1803 RD - Villeurbanne - 1803 Saamou Skuu - French Drill 6 ft. La F - 1803 Sadandsolo - Pull up ft. thaHomey - 1803 SAF - BREAK ft. JuL - 1803 Susanoô Allebou - FORCE - 1803 TK - Quitter la terre - 1903 Good Bana - Dose - 1903 Zbig - Buscetta 2003 Bramo - Secteur miné ft. Diddi Trix 2003 CG6 - Tête de casseur 2003 Dawg Sinatra - Salem - 2003 Lyre - Last - 2003 Mécra - Cramé - 2103 Bosh - Himalaya ft. Soolking - 2103 Kronomuzik, Pandrezz Ronare - NOUS Y SOMMES 2103 OMR - 2Z22 ft. Sam's - 2103 rad cartier - Shoot le coeur ft. Joanna - 2103 Tejdeen - JE L'ADMETS JAMAIS - 2203 Gianni - Regarde - 2203 JOHEM - demons partis dans la pénombre. - 2203 Lesram - Booska Pré - 2203 Seyté - Le retour du printemps 2303 Biffty - Majestik - 2303 DrillDiscovery - TOC TOC ft. i300 - 2303 eden dillinger - Ulcère 2303 Emkal - Business - 2303 Heskis - Progrès - 2303 Kepler - Makelélé - 2303 Kima la Rafale - AU CROMI 2 - 2303 Kodes - Avoir être - 2303 Médine - Médine France - 2303 SKIA - LE GOÛT DES SHOOTERS Freestyle - 2303 TIF - .38 - 2303 Uzi - T'abuses ft. Timal ISK - 2403 313 - Soyouz - 2403 Brvmsoo - Shooter ft. Bné 2403 FAYV - Bisou - 2403 FXLL - Job - 2403 HIM - Baby ft. EDGE YZLA - 2403 KR Malsain - Double Dose ft. Alpha Wann - 2403 MLKWAV - YORUBAS - 2403 Oklmava - Cest la cité qui lé-par 1 - 2403 Vin's - Quelque part - 2403 Youssoupha - AMAPIANO - 2503 100 Blaze - Phénoménal ft. Lacrim - 2503 Ajar - Quand tu souffriras - 2503 Alrima - C'est Gâté - 2503 Cikey - Elle - 2503 Dabs - Harmonica - 2503 Deadi - Encore - 2503 Dina - Océan - 2503 Fababy - John Snow - 2503 Frenetik - Thanos Mouvement historique 4 - 2503 GLK - Sadness, Pt. 3 Dalida - 2503 Guy2Bezbar - Beretta - 2503 Jayel - La roue tourne - 2503 KESPAR - Subaru - 2503 Kobo - FUCKED.UP - 2503 Kodes - Nuit - 2503 La F - Dead Remix ft. Slkrack, Zeu, Saamou Skuu, Malty 2BZ, Hayce Lemsi Kanoé - 2503 Larry - EN PÉPÉ 3 - 2503 L'As - IV.TOTAL - 2503 Lous and The Yakuza - Kisé 2503 Lrk - Galactics ft. Bravbus, Olazermi Dinero 2503 Megaski - Full Gucci ft. Popey - 2503 NKP - Rosé - 2503 Norsacce - Heron Preston - 2503 Nouwane - Automatique ft. Fresh LaDouille - 2503 Novy - EAPN 2 - Drill NC 2503 Olazermi - Tiki-Taka 2503 Regasito - Bats toi petit ft. Memsti, Willy Klz, Maxi Jay Coyote Jo Bastard - 2503 Rsko - Problème - 2503 Sasso L'Allemand - J'ai pas le temps 2503 Skaodi - Y'a longtemps ft. Bolémvn - 2503 Thabiti - La Zendaya - 2503 Waltmann - Pusher IV - 2503 Winnterzuko - Heart - 2503 Zbig - DLG 13 - 2503 Zed - Mauvais 2703 Tisco - Paire de TN 2.0 - 2803 Bavaz - Épées Liquides - 2803 Henri Bleu - Pleur - 2803 Le Sid - FAIS ATTENTION !! - 2903 Anas - GTI - 2903 TLZ Clan - Tempête - 3003 Bigor - Mikel Arteta ft. Benab - 3003 D. Ace - Shonen vs Shonen ft. Zoro lFrérot, Volts Face, Ol Kainry, Negrito Senpai Cookiesan - 3003 Lim - Par où commencer - 3003 Niaks - Comparution immédiate - 3003 Prince Waly - Walygator - 3003 Rounhaa - MUSIC SOUNDS BETTER WITH YOU - 3003 Squadra - Baby ft. Leto - 3003 T2R - Marie - 3003 YellowStraps - MERCI ft. Roméo Elvis Swing - 3003 Youka - Je suis dans ça ft. Lybro, SenSey Dieson Samba - 3103 AM La Scampia - Basta - 3103 baby hayabusa - GUALA - 3103 BabySolo33 - LilWitch - 3103 Djado Mado - Sous la pluie - 3103 Kery James - Marianne - 3103 Keroué - KER - 3103 Lesram - Rotation ft. Alpha Wann - 3103 Carbonne - 0 questions - 3103 James Loup - Rien ne va plus 3103 Rousman - Histoire de terrain - 3103 Rsko - Loyal Avril - 0104 4.4.2 - Va bene ft. JuL, Naza, Soolking Tayc - 0104 Black Jack - Mulah ft. Doc OVG - 0104 Celestino - Bobos - 0104 Dadju - Picsou ft. Gazo - 0104 Dau - NO MERCY - 0104 Driver - Buju Banton ft. LMK - 0104 Genezio - Patate - 0104 Hidan - Oni - 0104 ISK - Vérité 5 - 0104 Kalash - Tombolo - 0104 Kemmler - Tout quitter - 0104 L'As - Paradoxe ft. Zamdane - 0104 Laws Babyface - Sexe Monnaie Drogue - 0104 Luni Sacks - R9 ft. Majdon Co - 0104 Mac Seamus - Héritage 0104 Marou Chenko - Mi amor 0104 Tissmey - Grinder - 0104 Walid - 96 - 0204 Houdi - Calmé - 0204 Slim C - Mauvais Move 0304 Salakid - On fait avec - 0404 Amad - Ciudad - 0504 54 - la mer - 0504 Bigflo Oli - Sacré bordel - 0504 Chiloo - Bah ouais - 0504 Moji x Sboy - VAMPIRE - 0504 Slkrack - L'Anneau - 0504 Sto - Jersey Drill 1 - 0604 Bekar - DEHØRS - 0604 Biffty - Histoire - 0604 Gius - INTERLUDE 12 - 0604 HDX - Pompei - 0604 Primero - Trac 0604 N'Seven7 - Drillstyle 01 Bibi Tout - 0604 Vegedream - Intro Lancelot du lac - 0604 Yuri J - Têtes brûlées ft. Okis - 0604 Zacky Le 6 - Lewis Hamilton - 0704 Gazy MP - Freestyle Diez - 0704 Luni - Rouler - 0704 Sirap - Douleur - 0704 Squeezie - Adieu les filles - 0704 sean - Piano Black - 0804 100 Blaze - Coco - 0804 Antes Madzes - Dans ma tête - 0804 Black M - C'est du Foot 2 rue - 0804 Farès - Ruelles - 0804 Favé - Mercedes - 0804 Frenetik - Elikya - 0804 Jok'Air - Big Drip ft. Aron LineMa - 0804 Loveni - Pillz ft. Kunta Aminello - 0804 OldPee - Moneytime ft. Green Montana 0804 Roro La Meute - On vient d'en bas - 0804 Sako - HXGN ft. Brav - 0804 Serane - Cut - 0804 Sheng - Stupéfaite 0804 Vves - VV - 0904 34murphy - sora - 1104 ISHA - Booska Labrador Bleu - 1104 RCKNQST - Nouvelle dose - 1204 FullBaz - CHEATCODES 1204 JNR Slice - Euros North Slice Freestyle 6 - 1204 Lucio Bukowski x Lionel Soulchildren - DESTINS OSSEUX - 1204 luXe Timeless - Glacé - 1304 8ruki - BMF - 1304 Boyya - Maudit - 1304 Houdi - Cauchemar 3 1304 Lyms - Générosité - 1304 Selug - Dernière fois - 1304 Ucyll - Eau salée - 1304 Urde - Petits morceaux - 1404 Bekar - Double Freestyle Mirasierra - 1404 Green Montana - NEYMAR JR ft. SDM - 1404 Junior Bvndo - 6975 ft. ZeGuerre - 1404 KESPAR - Atterris - 1404 San-Nom - Hamingja - 1404 Seth Gueko - Mara Salva ft. GRIBS - 1404 Vin's - Outrage I - 1404 Yome - Hors série 1 - Changer - 1504 Allebou - PINPONGYAANG ft. Susanoô - 1504 Aloïse Sauvage - Focus - 1504 Barack Adama - Grand cru - 1504 Cercle Fermé - Escucha ft. ALP Sofiane - 1504 Dadju - Toko Toko ft. Ronisia - 1504 Demi Portion - Petit prince - 1504 Farlot - Augmentation - 1504 Gambino - Normal - 1504 Glauque - Plan large - 1504 Kany - Chance - 1504 Kerchak - Jane - 1504 KT Gorique - BON MOOD ft. Lil Black - 1504 Kyo Itachi - JJ ft. JeanJass - 1504 LauCarré - En résumé - 1504 Lazzio - EVDCM - 1504 Lorenzo - Catastrophe - 1504 MadeInParis - Sex Remix ft. Eddin - 1504 Nakry - Y'a plus one - 1504 Waltmann - Long Bacon - 1504 Youri - Absences 1704 Di-Meh - Mawashi-geri 1704 Di-Meh - Remontodo - 1804 Heythem - Message - 1904 Dor - Séville Freestyle - 2004 Amad - Dans la zone ft. Steiner Inc - 2004 Dmh - Quartiers Nord 17 Signature - 2004 Gambi - ZAZA - 2004 Lacraps - C'est comme ça - 2004 Moyà - Station - 2104 Davodka - Requiem for a Drill - 2104 Hatik - Finir un texte - 2104 Lonepsi - mon désert - 2104 Loto - Digits - 2104 Max - Antarctique - 2104 Tiakola - M3lo - 2104 Zikxo - Booska'Intemporel - 2204 Achim - Matin midi soir - 2204 Asinine - On voit que moi dans la city - 2204 Axelence - Les mots - 2204 BFG - Shoot ft. Malty 2BZ - 2204 Bilton - ADN - 2204 Bolémvn - Wari - 2204 DIL - Alizé ft. BenZ - 2204 La Cour - DEMON - 2204 Loud - Uber Eats Freestyle 2204 N'seven7 - Drillstyle 02 La popo - 2204 Ritchy Boy - Palababe - 2204 Sokuu - Reste avec moi - 2204 Vegedream - Une équipe - 2204 Vova - Vaisseau - 2304 baby hayabusa - BOZOFLOW - 2304 Jolagreen23 - 23ZERO - 2604 Digistarsamo - Deadpool ft. Retro X - 2604 Lucio Bukowski Nestor Kéa - Matériel Boréal 2604 Lyms - Brisé 2604 Lyms - Loyauté - 2604 Ozkar - Doré - 2704 313 - Ailleurs - 2704 Furlax - RODEO GROOVE ft. Beeby - 2704 Gemen - SATAN 2 - 2704 Houdi - Enchanté - 2704 Keroué - Vésuve - 2704 Primero - Deux deux ft. Roméo Elvis - 2704 Rozzy - Jacquemüs - 2704 Stony Stone - Step 5 - Étoiles - 2804 Zaky - Amène - 2904 Black M - Outfit ft. Dr Bériz 2904 Elams - Monica ft. Flashko - 2904 Emkal - J'la connais, Pt. 1 - 2904 Hunter - Un homme - 2904 Lemon Haze - 9m2 - 2904 Leo - All Day All Night - 2904 MadeInParis - Sex Remix ft. Muni Long - 2904 Magnim - Du Firmament - 2904 Roméo Elvis - QUAND JE MARCHE COMME BEN MAZUÉ - 2904 Shay - DA - 2904 Soprano - Superman n'existe pas ft. Zamdane - 2904 Soso Maness - Crépuscule - 2904 Waïv - Trop méchant - 2904 Youssef Swatt's - Le rap est mort Mai - 0105 Chris 2 Coeur - Focus - 0205 Fiji God - Ultra Focus - 0305 Furax Barbarossa - 26 degrés 5 - 0305 Sysa - SYSA - 0405 Alonzo - PLAQUÉ 13 - 0405 Beendo Z - EDL75 - 0405 Ben.C - BACKWOODS ft. Gouap - 0405 HIBA - Cinq bouteilles 0405 LaFel109 - PAS HARAG 4 - 0405 Lestin - Précis Acoustique 0405 N'Seven7 - Drillstyle 03 Hes dead - 0405 Saamou Skuu - Anodin - 0405 La F - O.J - 0405 Leonis - Toute la night - 0405 mademoiselle lou - Solo 0405 Zidi - Comme d'habitude - 0505 Demi Portion - Légendaire 0505 Dika - Ingérables - 0505 Grems - Futura - 0505 Hyacinthe - Fureur de vivre - 0505 Irko - Carbon - 0505 JOHEM - Ville de bâtard - 0505 Lamatrix - Bad Kongo - 0505 LP2.0 - GTA 26 - 0505 Médine - Saint Modeste - 0505 Realo - Ibiza - 0505 Seth Gueko - Mange tes morts - 0505 Tizzy Miller - Nulle part - 0505 Vin's - Outrage II - 0505 Walk in Paris - Sacrifices ft. Chilla Nemir - 0605 1D1R - Tard la night - 0605 Bakari - SoloBinks 4 Le pacte - 0605 Chily - Bébé Na Bébé ft. Leto - 0605 C.Sen Le Chimiste - La vitre - 0605 Dajak - SABLIER - 0605 DA Uzi - Booska Braves 0605 Friz - O clair 2 la lune - 0605 Furlax - Sensation - 0605 i300 - Tookah 5 - 0605 ISK - El Golaa - 0605 JuL - Ça tourne dans ma tête - 0605 La Cour - EFFP - 0605 Larry - Rose - 0605 Lpee - Michael J. Fox - 0605 Mous-K - Petit frère - 0605 Niaks - La chienneté - 0605 Ouss Riane - Vision 4K ft. Nahir - 0605 Oklmava - C'est la cité qui lé-par 2 - 0605 Sasso L'Allemand - Curs abîmés - 0605 Seven Binks - Fumigèneft. ElGrandeToto - 0605 Sokra - Lozano - 0605 Tiakola - Si j'savais - 0605 TripleGo - Ice - 0605 Waltmann - Comme d'hab ft. Keroué - 0605 yung g - offre ton coeur ! - 0605 Zeu - ZIDANE ft. Venom - 0705 Salem - ... - 0805 baby hayabusa - BOZOFLOW2 - 0805 Douma - Baby Baby ft. Kalash Criminel 0805 SelaS - Courage 0905 AM La Scampia - Booska Fête Triste - 1005 Di-Meh - Promethazine 1005 Djeiz - Butin - 1005 Gianni - Tout en noir - 1005 Luther - LESSGUI - 1005 Timéa - JE TE CHERCHE - 1005 V2 ALMZ - FREESTYLE KSPER 1 - 1105 Amine Farsi - FRAUDE ft. Freeze Corleone - 1105 B.B. Jacques - Odyssée 1105 Calbo - J'écris - 1105 Gazo - CÉLINE 3X - 1105 Hatik - Star du rap - 1105 KT Gorique - HCV hold up ft. Mr Key - 1105 Theodora - Daddy Chocolat - 1105 Werenoi - Balmain - 1105 Yannou JR - Top Boy - 1105 Yanns - Soleil et nanas - 1105 Yanso - Hola Ouais ft. ElGrandeToto - 1105 YG Pablo - Incolore - 1105 Younès - ENTRE NOUS - 1205 Bramsito - God Bless U - 1205 DOR - Ouh Ouh - 1205 Soso Maness - À l'aube ft. Dinos - 1205 Tsew The Kid - Polaroïd 3 - Grosse tête - 1305 AMK - Toutatis ft. Slkrack - 1305 Chiloo - Je ne dors pas - 1305 Dala - FIN ft. Booba 1305 Dehmo - REPEAT - 1305 DJ Hamida - Ma bébé Mi amor ft. SAF - 1305 Doria - On prend tout - 1305 Farès - 0001 - 1305 Gotti Maras - Bumpy - 1305 Graya - La Castellane 5 - 1305 Hunter - Untitled1 - 1305 Jonny Vegas - En vie - 1305 Kemmler - Le Temps ft. Léa Castel - 1305 Kerchak - Tarzan - 1305 Kodes - Jack - 1305 Krilino - Poto Rico 1305 La Peee - 0.4 ft. KaNoé - 1305 L'As - LAMBO ft. DrillDiscovery - 1305 Livaï - THALES ft. Chanje - 1305 menace Santana - Vendredi13mai2022 - 1305 MIG - Vrai Savage - 1305 Omar Syco - Pas changé 1305 OMR - Mouv ft. ZeGuerre - 1305 Relo - PRP Plume Reconnait Plume ft. Sinik, R.E.D.K., Jacky Seth Gueko - 1305 Soolking - Askim ft. Reynmen - 1305 Stupeflip - Dans ton baladeur DTB - 1305 TK - Bisou Omri ft. Zaho Aymane Serhani - 1305 TripleGo - All Night - 1305 Veust - Première classe ft. Alpha Wann - 1305 Walk in Paris - Si tu veux ft. Sopico - 1505 3ARBI - Paname 1505 B-NØM - COCO AÇAÏ - 1505 FrenchCali - Sugar Ray leonard - 1505 Houdi - FPH 0 - 1505 Zeu - JJJJJ - 1605 Udeyfa - Choc générationnel - 1605 ZKR - Booska'méléon - 1705 Bob Marlich - Kyubi - 1705 eden dillinger - 40 mètres ft. Wallace Cleaver - 1705 Naps - La Maxance - 1705 Slkrack - Appel en absence ft. EDGE - 1805 Hakai - GRENADE - 1805 Henri Bleu - Palais de glace 1805 Ivory - Faux frères ft. YL 1805 Junior Bvndo - RDLB - 1805 Kai du M - Batman - 1805 Lamatrix - Malhonnête - 1805 La Rvfleuze - Serrure 1 - 1805 Lybro - Saiyan 2 - 1805 Seth Gueko - Last album - 1805 Smahlo - Trahison ft. Gotti Maras - 1805 Urde - Van der Sar - 1805 Good Bana - Les Humains - 1905 DosPunto - Je meurs avec - 1905 JSX - Shogun - 1905 JuL - Superstar - 1905 Kepler - Rondo Numba Nine ft. Larry - 1905 Keroué - Felice ft. Caballero - 1905 luXe Timeless - Tactiques Block - 1905 Sirap - Seul - 1905 Stavo - Haut risque - 1905 Tiakola - Coucher de soleil - 1905 Yome - Hors série 2 - Pourquoi - 2005 Allebou - Personne - 2005 Amné - Niya - 2005 baby hayabusa - BOZOFLOW3 - 2005 Boub'z - OMAX - 2005 Bigflo Oli - J'étais pas là - 2005 Black Mamba 28 - Cette Shit - 2005 Carbonne - MTP - 2005 Chester - Barré - 2005 Denzo - La rue en V.O 2005 Dinero - Dans ça - 2005 DOC OVG - 1000 ft. Freeze Corleone - 2005 Frenetik - HB Freestyle Season 4 ft. Hardest Bars - 2005 Harley - Sten ft. Genezio Jew Brownie 2005 Koffi Lossa - Streetbi ft. Yaya Krisso - 2005 La F - Vise et tire - 2005 La Honda 19 - Juste en crime - 2005 Malty 2BZ - Wow 2005 N'Seven7 - Gwara 2005 Nubi - S.A.L.E - 2005 REA - Nana - 2005 Réejo - Movie, Yeah Yeah - 2005 Roméo Elvis - MAQUETTE - 2005 SAF - MWAZABOUDJ - 2005 Shtar Academy - Oh la la la ft. Sofiane, Ryan, Perkiz, Nonô Blur - 2005 SLK - OUH OUH OUH ft. Liim's - 2005 Sokuu - Yoshi - 2005 So La Lune - Fin heureuse - 2005 Timal - La 15 GSXR - 2005 TripleGo - Mes pensées - 2005 Youri - Doggy Bag 2005 Youssef Swatt's - Solo - 2005 Zikxo - Déjà mort - 2205 Houdi - FPH 1 - 2205 Zeu - Von Durk ft. Goose28th - 2305 ISK - Booska Racines ft. Nahir, DA Uzi Niaks - 2305 Seka - Pharrell ft. 63OG - 2505 Barack Adama - Baggy ft. Lefa - 2505 Beendo Z - Booska Z - 2505 Di-Meh - Veuve Clicquot ft. Caballero 2505 Don Milli - Millimètre 1 - 2505 Emkal - Jla connais, Pt. 1 Remix ft. Lynda - 2505 Gambi - Paqueta - 2505 Kerchak - Obsessed With Me - 2505 Menavor - Cascade - 2505 N'Seven7 - Paris est magique - 2505 Prince Waly - Avertisseurs Part. II - 2505 Urde - Trempé - 2505 Wallace Cleaver - Armata - 2605 Dracks - Solo 2605 Fello - Tout l'été ft. Dinero - 2605 Novy - EAPN 3 - Johnny Dang - 2605 Pollux - LE MAL EST FAIT - 2605 Soso Maness - Peine de mort - 2605 TripleGo - Summer - 2705 Ateyaba - Finesse - 2705 Béles - EVERYDAY - 2705 Big Ben - C'est mon histoire 1 - 2705 Black Jack OBS - T.M ft. Goulag 2705 BLK 140 - Poppy - 2705 Chilla - Cauchemars - 2705 Dmh - Coeur - 2705 Furax Barbarossa - Brise de mer 2705 Gambino - Plata - 2705 HD La Relève - Mobulu 1 - Milli Milli - 2705 Huntrill - amiri. - 2705 Jeune Lion - AC MILAN - 2705 KronoMuzik, Pandrezz Ronare - Violette Citronelle ft. Alkpote - 2705 Lorage - Oxygène 2705 Michel - Da da da - 2705 Nans - Cagoulés - 2705 Naza - Bibi ft. Negrito - 2705 Nixy Rose - WAKA FLOCKA ft. Sossa Kah - 2705 RCKNSQT - Error 520 - 2705 Rizla - Fanées - 2705 Salimo - Wooh - 2705 SanaNael - Mr Mme ft. Elams - 2705 Seven Binks - Bleu ft. Bolémvn Sasso - 2705 So La Zone - Dans la ville - 2705 SOPA - Fou d'elle 2 - 2705 TK - La tartine - 2705 Uzibinski - Parabellum 2705 Vves - Benzo - 2705 Zalmad - Elle m'prend pour un loss - 2905 3ARBI - Bruce Wayne 2905 Azuul Smith - Mentale - 2905 Elso - Dope 2905 Fababy - C'est toi que j'aime - 2905 Houdi - FPH 2 - 3</t>
+          <t xml:space="preserve">Janvier - 0201 Klem - Mort vivant - 0201 LIM - Gamberge - 0301 Afro S - Mode demo - 0301 Hipo - Comeback - 0301 Jwles - Trop gentil - 0301 Klem - PAS DU MEME MONDE - 0401 Gambino la MG - Freestyle No Hook - 0401 Kenyon - Shatta - 0401 SAM - Dans le noir - 0501 Cinco - Entier - 0501 Fadah - Bocal - 0501 Gen - Solaris - 0501 Henri Bleu - Dragon sans ailes - 0501 Klem - L'HIVER - 0501 Le Juiice - ICONIQUE - 0501 Mouk - Tartin 1 - 0501 Oumar - Trauma Drill 1 Parabellum - 0601 6rano - DrillB - 0601 Jazzy Bazz - Panorama ft. Alpha Wann - 0601 Le 3ème il - Renaissance - 0601 Maka - Joujoux - 0601 Riski - Free Zelda - 0601 Simony - A13 - 0701 BEENDO Z - . INSPIRÉ DE FAITS RÉELS 4 - 0701 Bené - RS ft. Capo Plaza - 0701 Benjamin Epps - BMW BOYZ - 0701 Djeiz - Vilain ft. Bolémvn - 0701 Elias B4C - Bat4Clan - 0701 Faelix - Maintenant - 0701 JSX - Anarchie - 0701 Kaaris Kalash Criminel - Tu dois des sous - 0701 Laeti - La route est longue - 0701 La Honda - Réel 5 - 0701 La Peee - Phénomène 4 - 0701 Lucio Bukowski x Oster Lapwass - Ls dieux ne jouent plus au billard élctrique. - 0701 Moha K - Regarde-moi - 0701 Negrito - Kel bail - 0701 Nouwane - Martini - 0701 Rémy - 97 mesures - 0701 SONBEST - strAnge - 0701 Vald - Anunnaki - 0801 Klem - PAS COMME LES AUTRES HUMAINS - 0801 Timal - Freestyle Tarmac - 0901 JuL - À la russe - 0901 JuL - La recette - 0901 Klem - LE DERNIER - 0901 La Honda 19 - Docteur Lamaze 1 - 0901 LIM - Combattant - 0901 LP2.0 - Eric Zemmour - 1001 So La Lune - Tsukinatra ft. Dawg Sinatra - 1101 DIL - Cramé - 1101 Dmh - Quartiers Nord 11 La semi - 1101 Slkrack - Opensea - 1201 A2H - Solo - 1201 Cheu-B - Extendo - 1201 Julio Goba - Freestyle ploutocratie, Pt. 6 - 1201 Kai du M - GTA 23 - 1201 Kemmler - Dimitri Payet - 1201 Les Grands Enfants - Melancholy Hill - 1201 Luni - Tout pour moi ft. Mister V - 1201 Medja - Lil Devil King Harv - Calogero ft. Purp 1201 OMR - 75-91 ft. Chicaille Argenté - 1201 Smahlo - Horizon - 1201 Sto - STARDUST REMIX - 1201 Tommy Isaac - Big Fish ft. DYPE - 1301 Benjamin Epps - CE QUE LE PIPS DEMANDE - 1301 BRK - Shooter 3 ft. L2B Gang - 1301 Doria - Triste époque - 1301 Jey Brownie - Trop de love ft. Roissy - 1301 La Smala - Dans les mémoires ft. Scred Connexion - 1301 Les Frères Bizzy - 34 ft. Junior Bvndo - 1301 Nahir - Adriano - 1301 Nessbeal - La Dem ft. ZKR - 1301 Norsacce - Aller-retour Part.1 - 1301 P-dro - Journal intime, pt. 3 - 1301 Riski - OK PETASSE ft. Yuri J - 1401 Alkpote - Éteins la lumière ft. Francky Vincent - 1401 Atro Boi - Maux d'amour ft. Tallisker - 1401 Blaiz - Môme - 1401 Brvmsoo - Best Friend - 1401 Chanje - Canette - 1401 Cinco - Level - 1401 Elaka - Jurassic Park - 1401 Frenetik - RDP - 1401 Gotti Maras - En Brr - 1401 i300 - No Hook - 1401 Jonny Vegas - Noir - 1401 Josas - Khamsa - 1401 Kaeles - Questions - 1401 Kery James - LE POETE NOIR - 1401 Leonis - Bloqué en bas - Sherhood 5 - 1401 Lyms - Menottés ft. Negrito - 1401 Mini - Goddamn ft. Zaky 8ruki 1401 Monkey D - Bonne voix ft. Georgio - 1401 NTH - Low ft. Jaekers - 1401 Omar Syco - Négocie pas - 1401 Ramses - Quelle vie - 1401 Realo - 2 SEC 1401 Sizlac - Calibre - 1401 Solray - 1899 - 1401 Vves - Neymar Mbappé ft. ALP - 1401 Yanslo - Aicha - 1401 yung g - adversaires - 1501 Cheval Blanc - Sitcom - 1601 JOHEM - MAUVAISE DRILL 1 Je les aimes pas - 1701 Bob Marlich - Lundi - 1701 Jazzy Bazz - 1989 Freestyle - 1701 Luv Resval - S2 - 5 Shadow - 1801 Rocca - Mash Up ft. Souffrance - 1801 Squall p - Amsterdame - 1801 yswanj - Come Over On Top Björk Cambiar - 1901 8Ruki - Interlude 1901 Black D - Pefra - 1901 DOR - Authentique - 1901 Gemen - WHO ASKED? - 1901 Heskis - Temps mort - 1901 Jwles - Hors-jeu 1901 Rémy - Le moteur - 1901 ouley - Cry me a river - 1901 Venom - 998 - 2001 Allebou - Quidam - 2001 Chad de la Cour - EMO - 2001 Dmh - Quartiers Nord 12 Traficanté - 2001 Fresh - Freestyle Le cachot - 2001 Green Montana - WALDORF ASTORIA - 2001 J9ueve - Melody - 2001 Jazzy Bazz - Élément 115 ft. Nekfeu - 2001 Lamatrix - Maestro - 2001 LIM - Tourne en rond - 2001 Matheos - Le dernier des fainéants - 2001 Moha MMZ - CAUCHEMAR - 2001 Nero Dee - Cur noir - 2101 Booba - Pablo - 2101 Genezio - Elle m'appelle - 2101 Jayel - Perle rare - 2101 Kamas Skuh - Bienvenue à Ris 5 - 2101 Kaza - Sincère - 2101 MadeInParis - Baby ft. Squidji - 2101 Malty 2BZ - Gangsta ft. Tiitof - 2101 Niaks - Ninetta - 2101 OldPee - Dur - 2101 Popey - White Mauvais choix ft. DA Uzi - 2101 Rethno - Popelson - 2101 roseboy666 - Paradis ft. AnNie .Adaa - 2101 Triple Z - Passe à lépice 8 Capri-Sun - 2101 Voquab - Tourne pas rond Marchandage - 2101 YL - Prières ft. ISK - 2301 Baby Neelou - 20Janvier - 2301 Dmh - Quartiers Nord 13 Sans budget - 2301 Jolagreen23 - 3945 - 2301 Mac Seamus - Reset - 2301 Ozkar - Cinderella - 2301 Yanso - BX Capitale 5 ft. ZVdu17, Le M, Sky, Elengi Ya Trafic Jones Cruipy - 2401 Gouap - Switch 4 - 2401 La Smala - Hors du temps - 2601 Dany Dan - Pop Style libre - 2601 Jason Voriz - Jean Lou ft. Reta - 2601 Kaneki - Maison ft. DA Uzi - 2601 Kodes - Trop mabé 4 - 2601 Maka - Minimum - 2601 Théodore - Loco - 2601 Zamdane - Le monde par ma fenêtre 2601 Zidi - XY Part. 3 Ciel - 2701 Babysolo33 - LnlyBby - 2701 Chanceko - Y E S M A N !!! - 2701 Cinco - Booska Sacrifices - 2701 DerK16 - Alim6 - Signature - 2701 Freeze Corleone Ashe 22 - SCELLÉ PART. 4 - 2701 Gius - NO BLEM! - 2701 Juice - La lumière des spots - 2701 Oklmava - À quel prix ? - 2701 Skia - Verre d'eau - 2701 Slkrack - Hazi Life 5 Fuego - 2701 Tsew The Kid - Polaroïd 1 Blessé - 2801 4.4.2 - R8 ft. Hamza Alonzo - 2801 99 Wolfkid - Lean On ft. Chanceko EDGE - 2801 Aketo - Frais comme un daron - 2801 Biffty - Le temps passe - 2801 Billy la Ure - Délit ft. Key Largo - 2801 Celestino - Poisse - 2801 FrenchCali - Ciel - 2801 Fresh - La Douille 6 - 2801 GLK - Bizarre ft. Nahir Waïv - 2801 HV Manyy - Bloqué ft. Sasso - 2801 Jackmaboy - Le man il est gang - warra bang 1 - 2801 Kanoé - Hiver - 2801 La F - Appel manqué 10 - 2801 Larry - EN PÉPÉ 1 2801 Lemon Haze - Chronos - 2801 Nans - Serein - 2801 Rea - Amoroso - 2801 Rim'K - Iceberg - 2801 Rimkus - MAYDAY ft. Doria - 2801 Sicario - Bipolaire - 2801 Sinik - Balles perdues - 2801 Susanoô - Silence - 2801 Tyranik - Notifs - 2801 Uzi - Rotterdam ft. OBOY - 3001 JMK - BOSSY - 3001 LIM - Putain - 3001 Rim'4 - Repeat - 3001 Stony Stone - Step 2 - Angèle - 3101 F430 - Effet papillon 2 - 3101 Kenyon - Détails - 3101 Moji x Sboy - ELLE PLEURE EN HIVER 3101 Pirate - RS DRILL 4 Février - 0202 Araujo - SAC CHANEL - 0202 Beendo Z - GTA 24 - 0202 Bné - Ça recommence - 0202 Djalito - Oublie - 0202 Gotti Maras - Bx Drill 6 ft. Fresh la Douille - 0202 Henri Bleu - Wonderland - 0202 Les Grands Enfants - ride or die - 0202 Lotus - Lts 03 - Nike - 0202 Medja - Lil Devil King Harv - Shooter Clan ft. Purp 0202 Moubarak - L'espoir - 0202 Vilk - Phoque - 0302 313 - Oublier - 0302 Draviss - Tout donner - 0302 Ekloz - WAVES - 0302 Kpri - Volant - 0302 Simony - RSA Gris Nardo - 0302 thaHomey - SKIP TO MY LOU - 0302 TIF - Emoji DZ - 0302 Veerus - Wu-Tang ft. Limsa d'Aulnay - 0302 winnterzuko Skuna - PGM 0402 Bigor - Triple S - 0402 Bolémvn - Cho Na Cho ft. Alonzo - 0402 Cappuccino - La location - 0402 Coyote Jo Bastard - Booska CNLPG - 0402 Croma619 - Malin comme un singe - 0402 Dixon - D'autres filles - 0402 Gambino La MG - À tout moment - 0402 Gueule d'Ange - Mi Amor - 0402 i300 - Tookah 4 - 0402 JEUNESAINT - Babymama - 0402 Keeqaid - Freestyle x1 - 0402 Keeqaid - Freestyle x2 - 0402 Landy - R.A.S ft. SDM - 0402 La Rumeur - Saturé - 0402 SOPA - Mort - 0402 Vves - Trou noir - 0402 Yaro - Ma nana - 0402 yung g - Amulette - 0502 Osirus Jack - Ron Van Clief - 0602 6rano - Tupac Shakur 2 - 0602 Alkpote - Après minuit ft. Ouss Wayne - 0602 DIL - Représailles - 0602 Implaccable - Chap Chap Chap - 0602 Mapess - DEMI TOUR - 0602 Soumeya - Tout ce temps - 0702 Richi - DÉSERT - 0802 Kerchak - NH 2 - 0802 YUNG POOR ALO - Freestyle Psychoklaw - 0902 Dala - Serum - 0902 Dmh - Quartiers Nord 14 Héritage - 0902 Don Max FullBaz - WAVY - 0902 Josas - UEFA 0902 Le Croc - BAW 6 - 1002 Dabs - Billie Jean - 1002 leith - différent - 1002 Makala - Boss - 1002 Zamdane - Incomplet comme février - 1002 Yuzmv - Avenue de l'impasse - 1102 Bebew - Laisse nous faire ft. Elams - 1102 Bludelta - Maladie - 1102 Bolémvn - Boosk'atterrissage - 1102 Chanje - Miracle ft. EDGE - 1102 C.Sen Le Chimiste - Humain - 1102 Elflaco - Elle dit - 1102 Emraz - SOUS LA PLUIE - 1102 Freeze Corleone Ashe 22 - DÉGRADÉ - 1102 Frenetik - Déjà vu - 1102 La Miellerie - Écailles ft. Tawsen JeanJass - 1102 Lefa - Mise à jour - 1102 Leonis - Allô - 1102 Lorage - Mirage - 1102 Lujipeka - Pas à ma place ft. Lil Tooom - 1102 Naza - Vie de rêve ft. Imen Es - 1102 Omar Syco - Mina - 1102 Realo - PARTY ft. Zaky - 1102 Romy Rose - Joli Chéri ft. Negrito - 1102 Timal - Filtré ft. Gazo - 1102 YL - Tata Fatima - 1102 Yuzmv - Docteur - 1202 34murphy - 95 - 1302 BabySolo33, Bricksy 3G - Love Story ft. Azur - 1302 Mocaris - Fleur du ghetto - 1402 Aketo - Pas volé - 1402 Bné - Control - 1402 Jok'Air - Sorry not sorry ft. Tayc - 1402 Kima - Fake Love - 1402 Le7ept - Muse - 1402 Lyre - Ivresse - 1402 Sneazzy - Dernière fois - 1402 Max D. Carter - Finesse - 1602 A2H - Walou ft. Bakari - 1602 Bob Marlich - L'Haÿssien - 1602 GLK - Sadness, Pt. 1 Santé - 1602 Implaccable - 2.6M - 1602 Leto - Mozart Capitaine Jackson Episode 2 - 1602 Neskoo - Révolution - 1702 Amine Farsi - Suzuki ft. Le Risque - 1702 AnNie . Adaa - UN JOUR - 1702 Eline - Chute - 1702 Juice - CALLS Missed - 1702 Nahir - Boosk'Araï 2 - 1702 Tovaritch - Atmosphère - 1802 Coyote Jo Bastard Bhavi - Tchagala - 1802 Damys - TRAPU - 1802 DA Uzi - Hmmm Laisse tomber - 1802 Elh Kmer - K2 - 1802 Elvieto - Chronique ardente 3 - 1802 ISHA - La réincarnation de Biggie - 1802 Kai du M - Ça débite ft. SDM - 1802 Kanoé - Hiver 2 ft. La F - 1802 Kodes - Trop mabé 5 - 1802 K.S.A - Grand Prix - 1802 Mehdi YZ - Quiller - 1802 Naps - Le p'tit Marseillais - 1802 Saamou Skuu - Drill Of France 3 - 1802 Salek - ADRENALINE - 1802 Sam - Black - 1802 Stony Stone - Step 3 - NXM - 1802 Sysa - Tripoli - 1802 Voquab - Sang dencre Acceptation - 1802 YNG Trvpboy - Quattro - 2002 Mougli - Freestyle Hors-Série 2 - 2002 Slim C - PLF - 2102 Dwen - Milano - 2102 Tisco - Dans la sauce 3 ft. Ruby Nikara Yoro - 2102 Uzi - Arc-en-ciel - 2102 ZKR - Les gentils bandits - 2202 13Mini - Petit con - 2202 Djalito - Idées noires ft. So La Lune - 2202 Faelix - Détailler - 2202 thaHomey - 10BRICKS - 2202 RCKNSQT - Pixel - 2202 YL - Booska Piccolo - 2202 Zoxea - 24H ft. Busta Flex Lord Kossity 2302 Dika - DLB - 2302 Hyacinthe - Perdu la tête - 2302 Jwles - Argentine - 2302 Kepler - Dans ses bras ft. Gambino La MG - 2302 Kerchak - Sabor 2302 Oumar - Trauma Drill 2 La tess ne meurt jamais - 2302 Ron Brice - Addition ft. Ali - 2302 Routs Wayne - Middle - 2302 S-Tee - FILS DE DIEU FREESTYLE - 2302 Theodore - Okito - 2302 Zamdane - Flouka 2402 Absolem - Dégâts - 2402 BEN plg - Quand les lumières s'éteignent - 2402 Bolémvn - Bobby Shmurda ft. KeBlack - 2402 Bushi - Link Up - 2402 Davinhor - Floko ft. Le Juiice - 2402 eden dillinger - Penser mes plaies - 2402 FAYV - C'est FAYV - 2402 Gambino - TR - 2402 Golgoth - PÈLERINAGE ft. Sheldon - 2402 La Honda 19 - Train de vie - 2402 Liim's - 2 bigo - 2402 Lujipeka - Épilogue ft. Luv Resval - 2402 Sally - PARTOUT OÙ JE VAIS - 2402 Tsew The Kid - Polaroïd 2 Sourire - 2402 Veerus - 5 - 2502 100 Blaze - Leonidas - 2502 1D1R - Beldia - 2502 47MEOW - VIE 2 FOU - 2502 ALP - Débordé - 2502 Barack - 4 anneaux ft. Yaro - 2502 Biffty - Sauce Moula - 2502 Bosh - Téléphone - 2502 Celestino - Pull sept-cinq ft. Waltmann - 2502 DawaMafia - Roi - 2502 DOC OVG - XV BB EKIP ft. Pipsa - 2502 Elias B4C - Mauvaises Herbes - 2502 Empty7 - 2ON - 2502 Fababy - Affranchi - 2502 Frenetik - Shakespeare - 2502 Hornet la Frappe - Pulkra - 2502 Jey Brownie - Melodyne - 2502 Jones Cruipy - BMF - 2502 joysad - Anti stress - 2502 KD - Lyon c'est bandit ft. ZeGuerre - 2502 Kims la Rafale - AU CROMI 1 - 2502 La F - Dead - 2502 Lamatrix - Rookie - 2502 La Peee - Cocaïna ft. Mayo Kima - 2502 Larry - EN PÉPÉ 2 2502 Lrk - Dofé - 2502 Luther - Câlins - 2502 Maska - Démoli - 2502 Nanek - Absent 5 - Célestine - 2502 Norsacce - Phoenix ft. Alpha Wann - 2502 PCL Bachiflow - OK ft. DawaMafia - 2502 Popey - Eve - 2502 Rocca - Depuis le début - 2502 Saf - APDM - 2502 Sale Epoque - FERMETURE ft. DA Uzi OldPee - 2502 SAM - Faux voyous - 2502 Sinik - Cicatrices - 2502 Syen - Moonrock - 2502 T Garcia DJ Assad - Rockstar - 2502 Vegedream - On a lhabitude Ok Many ft. Naps - 2602 Riski - Mésaventures ordinaires - 2702 LIM - Tout va très vite - 2702 LP2.0 - Mentale 2 Batard 1 - 2702 nelick - J'avais juste envie de rapper ft. kofi bæ - 2702 Still Fresh - CONFIANCE - 2702 Youri - Malabar - 2802 Dmh - Quartiers Nord 15 Sentiments - 2802 Gambino La MG - Booska Uuhuh - 2802 OG L'Enf - Requin - 2802 Youri - D3 Mars - 0103 Balafré - Or Argent - 0103 Brulux - Koudjack - 0103 Youri - Voisins - 0203 AMK - Benef - 0203 Lesram - Wesh Enfoiré - 0203 Luv Resval - S2 - 6 ZLM - 0203 Moubarak - KODO Principes - 0203 Sultan - Kikazaru - 0203 Youri - Plaisir - 0203 Youssef Swatt's - Quelques notes suffisent - 0303 Alonzo - TRAFICANTE 0303 AP du 113 - Mirador ft. Denzo - 0303 Beendo Z - C'est comme le soleil - 0303 Henri Bleu - Paradis00 OsloHotel - 0303 Maydo - Comptes - 0303 Nahir - Glock ft. Lacrim - 0303 Nixy Rose - EX 0303 Stos - La tour ft. La Peee - 0303 Youri - Folle - 0403 Achile - Hector - 0403 Chad de la Cour - ENCORE UNE NUIT - 0403 Chad de la Cour - MYSELF - 0403 D. Ace - Lélection des méchants - 0403 Ekoms - Couleur saphir - 0403 Gambino La MG - Reste là ft. Tiakola - 0403 HIM - Le chemin - 0403 Jackmaboy - La rue m'attire 0403 KR Malsain - VARADERO - 0403 La Famax - J'suis en love - 0403 L'As - I.MINOGUE - 0403 Lefa - Terrain miné - 0403 Nakry - Le son du ghetto - 0403 Novy - EAPN - Real Shit - 0403 Sasso L'Allemand - Elle m'a dit je t'aime - 0403 Sicario - Yamanaka ft. Booba - 0403 Squadra - Tout donner ft. SAF - 0403 Youri - NRJ - 0503 Youri - D32 - 0603 Dmh - Quartiers Nord 16 BX - GTA - 0603 LIM - C'est fini - 0603 So La Zone - Ma vie - 0703 Nessbeal - Zone Euro - 0803 Rimkus - Booska Boîte Noire - 0903 A2H - Avec une rose - 0903 A2H - Masterclass - 0903 Allebou - J'essaie - 0903 Araujo - EN BAS - 0903 baby hayabusa - YURI - 0903 Dryssco - Parler - 0903 JNR - 243 ft. Kalash Criminel - 0903 JOHEM - GTO ft. LEXZE - 0903 Kasper 939 - 1st Class - 0903 K.S.A - Mannequin ft. Alpha Wann - 0903 Lacraps - Loi d'la calle - 0903 Noma - Static Shock 0903 Nyda - Charbon - 0903 Rapi Sati - My Men ft. Gazo - 0903 Skia - Lumière Freestyle - 0903 YNG Trvpboy - Je voulais - 0903 Zeu - OPP BLOCK - 1003 AM La Scampia - Jolie poupée ft. Timal - 1003 Brvmsoo - Game Over - 1003 GLK - Sadness, Pt. 2 Voleur - 1003 Le 3ème il - Adieu la Galère ft. Alonzo - 1003 RK - Sachet - 1003 Rsko - 100 mi-temps ft. Gazo - 1003 Upsilon - L - 1103 100 Blaze - D.S.C.P - 1103 8Ruki - Zookies - 1103 Antes Madzes - Bête et méchant - 1103 Benash - Ma Débora - 1103 Coyote Jo Bastard - FAFA ft. DrefGold - 1103 Dala - LVCVV - 1103 Elh Kmer - La douleur - 1103 Falcko - Dernière lettre - 1103 Frenetik - Houston - 1103 Gros Mo - La cité ft. Ratu - 1103 ISK - Snowfall - 1103 James Digger - Top Ten ft. Souffrance Cenza - 1103 KESPAR - Flex - 1103 Laeti - Je ne t'aime plus - 1103 L'Algerino - Sensación - 1103 L'As - II.PMV - 1103 Lonepsi - c'est tous les soirs la même chose - 1103 Mougli - Jungle 3 - 1103 Ritchy Boy - Les 4 fantastiques - 1103 Routs Wayne - Immature - 1103 Serane - 448 ft. Mike Shabb - 1103 Seven Binks - 7 Uzi - 1103 Stony Stone - Step 4 - BABY - 1103 Sysa - Cinco - 1103 White N - NOIR BLANC - 1103 Yaro - Booska Tout Droit - 1103 Younès - VLÀ LES PROBLÈMES ft. Médine - 1303 Cappuccino - La location Remix ft. Kaaris - 1303 Gapman - Wait - 1303 LIM - Ça rend fou ft. Les Microbes - 1303 Saisai - GTA 25 - 1303 Zokush - Rocco Morabito - 1503 313 - Rouge - 1503 Zokush - Maman - 1603 B.B. Jacques - Souvenir d'hiver 1603 BRK - Shooter 4 ft. Negrito - 1603 Josman - Fiesta Interlude - 1603 Josman - Mort ce soir - 1603 Le Croc - SHAWTY - 1603 Nero Dee - Mauvaises idées - 1603 sean - Vide - 1603 Soso Maness - Piranha - 1703 Almas - AKHA AKHA ft. Simba La Rue - 1703 Bekar - Avalanche - 1703 Black Jack - TTC - 1703 Disiz - RENCONTRE ft. Damso - 1703 Green Montana - PARFUM - 1703 HK La Paille - Intro - 1703 Lestin - Précis - 1703 Loud White-B - Rien de moins - 1703 luXe Timeless - FACTS - 1803 Aketo - Dalle de coyote - 1803 Akkai - ValeursPrincipes ft. Klemee MLKWAV - 1803 Captaine Roshi - Régiment - 1803 C.Sen Le Chimiste - Ciel Bleu - 1803 DA Uzi - On se reverra plus ft. Gazo - 1803 F430 - Effet papillon 3 - 1803 Gambino - Marseille à Paname - 1803 Hatik - Salam - 1803 Heezy Lee - Ex Aequo - 1803 Him - Audemars - 1803 Hornet La Frappe - Kawasaki ft. Landy - 1803 ISHA - On sourit pas sur les photos - 1803 Kai du M - Sauvage - 1803 Kanoé - Hiver 3 ft. Fresh LaDouille - 1803 Kerchak - Tantor - 1803 La Kadrilla - Mission 1803 Lemon Haze - Caillera - 1803 Leo SVR - Qu'un temps ft. Croma619 - 1803 L'As - III.APES - 1803 Madrane - Plata - 1803 MIG - 18 mars - 1803 Naps - Sun Valley - 1803 Nyluu - XO - 1803 RD - Villeurbanne - 1803 Saamou Skuu - French Drill 6 ft. La F - 1803 Sadandsolo - Pull up ft. thaHomey - 1803 SAF - BREAK ft. JuL - 1803 Susanoô Allebou - FORCE - 1803 TK - Quitter la terre - 1903 Good Bana - Dose - 1903 Zbig - Buscetta 2003 Bramo - Secteur miné ft. Diddi Trix 2003 CG6 - Tête de casseur 2003 Dawg Sinatra - Salem - 2003 Lyre - Last - 2003 Mécra - Cramé - 2103 Bosh - Himalaya ft. Soolking - 2103 Kronomuzik, Pandrezz Ronare - NOUS Y SOMMES 2103 OMR - 2Z22 ft. Sam's - 2103 rad cartier - Shoot le coeur ft. Joanna - 2103 Tejdeen - JE L'ADMETS JAMAIS - 2203 Gianni - Regarde - 2203 JOHEM - demons partis dans la pénombre. - 2203 Lesram - Booska Pré - 2203 Seyté - Le retour du printemps 2303 Biffty - Majestik - 2303 DrillDiscovery - TOC TOC ft. i300 - 2303 eden dillinger - Ulcère 2303 Emkal - Business - 2303 Heskis - Progrès - 2303 Kepler - Makelélé - 2303 Kima la Rafale - AU CROMI 2 - 2303 Kodes - Avoir être - 2303 Médine - Médine France - 2303 SKIA - LE GOÛT DES SHOOTERS Freestyle - 2303 TIF - .38 - 2303 Uzi - T'abuses ft. Timal ISK - 2403 313 - Soyouz - 2403 Brvmsoo - Shooter ft. Bné 2403 FAYV - Bisou - 2403 FXLL - Job - 2403 HIM - Baby ft. EDGE YZLA - 2403 KR Malsain - Double Dose ft. Alpha Wann - 2403 MLKWAV - YORUBAS - 2403 Oklmava - Cest la cité qui lé-par 1 - 2403 Vin's - Quelque part - 2403 Youssoupha - AMAPIANO - 2503 100 Blaze - Phénoménal ft. Lacrim - 2503 Ajar - Quand tu souffriras - 2503 Alrima - C'est Gâté - 2503 Cikey - Elle - 2503 Dabs - Harmonica - 2503 Deadi - Encore - 2503 Dina - Océan - 2503 Fababy - John Snow - 2503 Frenetik - Thanos Mouvement historique 4 - 2503 GLK - Sadness, Pt. 3 Dalida - 2503 Guy2Bezbar - Beretta - 2503 Jayel - La roue tourne - 2503 KESPAR - Subaru - 2503 Kobo - FUCKED.UP - 2503 Kodes - Nuit - 2503 La F - Dead Remix ft. Slkrack, Zeu, Saamou Skuu, Malty 2BZ, Hayce Lemsi Kanoé - 2503 Larry - EN PÉPÉ 3 - 2503 L'As - IV.TOTAL - 2503 Lous and The Yakuza - Kisé 2503 Lrk - Galactics ft. Bravbus, Olazermi Dinero 2503 Megaski - Full Gucci ft. Popey - 2503 NKP - Rosé - 2503 Norsacce - Heron Preston - 2503 Nouwane - Automatique ft. Fresh LaDouille - 2503 Novy - EAPN 2 - Drill NC 2503 Olazermi - Tiki-Taka 2503 Regasito - Bats toi petit ft. Memsti, Willy Klz, Maxi Jay Coyote Jo Bastard - 2503 Rsko - Problème - 2503 Sasso L'Allemand - J'ai pas le temps 2503 Skaodi - Y'a longtemps ft. Bolémvn - 2503 Thabiti - La Zendaya - 2503 Waltmann - Pusher IV - 2503 Winnterzuko - Heart - 2503 Zbig - DLG 13 - 2503 Zed - Mauvais 2703 Tisco - Paire de TN 2.0 - 2803 Bavaz - Épées Liquides - 2803 Henri Bleu - Pleur - 2803 Le Sid - FAIS ATTENTION !! - 2903 Anas - GTI - 2903 TLZ Clan - Tempête - 3003 Bigor - Mikel Arteta ft. Benab - 3003 D. Ace - Shonen vs Shonen ft. Zoro lFrérot, Volts Face, Ol Kainry, Negrito Senpai Cookiesan - 3003 Lim - Par où commencer - 3003 Niaks - Comparution immédiate - 3003 Prince Waly - Walygator - 3003 Rounhaa - MUSIC SOUNDS BETTER WITH YOU - 3003 Squadra - Baby ft. Leto - 3003 T2R - Marie - 3003 YellowStraps - MERCI ft. Roméo Elvis Swing - 3003 Youka - Je suis dans ça ft. Lybro, SenSey Dieson Samba - 3103 AM La Scampia - Basta - 3103 baby hayabusa - GUALA - 3103 BabySolo33 - LilWitch - 3103 Djado Mado - Sous la pluie - 3103 Kery James - Marianne - 3103 Keroué - KER - 3103 Lesram - Rotation ft. Alpha Wann - 3103 Carbonne - 0 questions - 3103 James Loup - Rien ne va plus 3103 Rousman - Histoire de terrain - 3103 Rsko - Loyal Avril - 0104 4.4.2 - Va bene ft. JuL, Naza, Soolking Tayc - 0104 Black Jack - Mulah ft. Doc OVG - 0104 Celestino - Bobos - 0104 Dadju - Picsou ft. Gazo - 0104 Dau - NO MERCY - 0104 Driver - Buju Banton ft. LMK - 0104 Genezio - Patate - 0104 Hidan - Oni - 0104 ISK - Vérité 5 - 0104 Kalash - Tombolo - 0104 Kemmler - Tout quitter - 0104 L'As - Paradoxe ft. Zamdane - 0104 Laws Babyface - Sexe Monnaie Drogue - 0104 Luni Sacks - R9 ft. Majdon Co - 0104 Mac Seamus - Héritage 0104 Marou Chenko - Mi amor 0104 Tissmey - Grinder - 0104 Walid - 96 - 0204 Houdi - Calmé - 0204 Slim C - Mauvais Move 0304 Salakid - On fait avec - 0404 Amad - Ciudad - 0504 54 - la mer - 0504 Bigflo Oli - Sacré bordel - 0504 Chiloo - Bah ouais - 0504 Moji x Sboy - VAMPIRE - 0504 Slkrack - L'Anneau - 0504 Sto - Jersey Drill 1 - 0604 Bekar - DEHØRS - 0604 Biffty - Histoire - 0604 Gius - INTERLUDE 12 - 0604 HDX - Pompei - 0604 Primero - Trac 0604 N'Seven7 - Drillstyle 01 Bibi Tout - 0604 Vegedream - Intro Lancelot du lac - 0604 Yuri J - Têtes brûlées ft. Okis - 0604 Zacky Le 6 - Lewis Hamilton - 0704 Gazy MP - Freestyle Diez - 0704 Luni - Rouler - 0704 Sirap - Douleur - 0704 Squeezie - Adieu les filles - 0704 sean - Piano Black - 0804 100 Blaze - Coco - 0804 Antes Madzes - Dans ma tête - 0804 Black M - C'est du Foot 2 rue - 0804 Farès - Ruelles - 0804 Favé - Mercedes - 0804 Frenetik - Elikya - 0804 Jok'Air - Big Drip ft. Aron LineMa - 0804 Loveni - Pillz ft. Kunta Aminello - 0804 OldPee - Moneytime ft. Green Montana 0804 Roro La Meute - On vient d'en bas - 0804 Sako - HXGN ft. Brav - 0804 Serane - Cut - 0804 Sheng - Stupéfaite 0804 Vves - VV - 0904 34murphy - sora - 1104 ISHA - Booska Labrador Bleu - 1104 RCKNQST - Nouvelle dose - 1204 FullBaz - CHEATCODES 1204 JNR Slice - Euros North Slice Freestyle 6 - 1204 Lucio Bukowski x Lionel Soulchildren - DESTINS OSSEUX - 1204 luXe Timeless - Glacé - 1304 8ruki - BMF - 1304 Boyya - Maudit - 1304 Houdi - Cauchemar 3 1304 Lyms - Générosité - 1304 Selug - Dernière fois - 1304 Ucyll - Eau salée - 1304 Urde - Petits morceaux - 1404 Bekar - Double Freestyle Mirasierra - 1404 Green Montana - NEYMAR JR ft. SDM - 1404 Junior Bvndo - 6975 ft. ZeGuerre - 1404 KESPAR - Atterris - 1404 San-Nom - Hamingja - 1404 Seth Gueko - Mara Salva ft. GRIBS - 1404 Vin's - Outrage I - 1404 Yome - Hors série 1 - Changer - 1504 Allebou - PINPONGYAANG ft. Susanoô - 1504 Aloïse Sauvage - Focus - 1504 Barack Adama - Grand cru - 1504 Cercle Fermé - Escucha ft. ALP Sofiane - 1504 Dadju - Toko Toko ft. Ronisia - 1504 Demi Portion - Petit prince - 1504 Farlot - Augmentation - 1504 Gambino - Normal - 1504 Glauque - Plan large - 1504 Kany - Chance - 1504 Kerchak - Jane - 1504 KT Gorique - BON MOOD ft. Lil Black - 1504 Kyo Itachi - JJ ft. JeanJass - 1504 LauCarré - En résumé - 1504 Lazzio - EVDCM - 1504 Lorenzo - Catastrophe - 1504 MadeInParis - Sex Remix ft. Eddin - 1504 Nakry - Y'a plus one - 1504 Waltmann - Long Bacon - 1504 Youri - Absences 1704 Di-Meh - Mawashi-geri 1704 Di-Meh - Remontodo - 1804 Heythem - Message - 1904 Dor - Séville Freestyle - 2004 Amad - Dans la zone ft. Steiner Inc - 2004 Dmh - Quartiers Nord 17 Signature - 2004 Gambi - ZAZA - 2004 Lacraps - C'est comme ça - 2004 Moyà - Station - 2104 Davodka - Requiem for a Drill - 2104 Hatik - Finir un texte - 2104 Lonepsi - mon désert - 2104 Loto - Digits - 2104 Max - Antarctique - 2104 Tiakola - M3lo - 2104 Zikxo - Booska'Intemporel - 2204 Achim - Matin midi soir - 2204 Asinine - On voit que moi dans la city - 2204 Axelence - Les mots - 2204 BFG - Shoot ft. Malty 2BZ - 2204 Bilton - ADN - 2204 Bolémvn - Wari - 2204 DIL - Alizé ft. BenZ - 2204 La Cour - DEMON - 2204 Loud - Uber Eats Freestyle 2204 N'seven7 - Drillstyle 02 La popo - 2204 Ritchy Boy - Palababe - 2204 Sokuu - Reste avec moi - 2204 Vegedream - Une équipe - 2204 Vova - Vaisseau - 2304 baby hayabusa - BOZOFLOW - 2304 Jolagreen23 - 23ZERO - 2604 Digistarsamo - Deadpool ft. Retro X - 2604 Lucio Bukowski Nestor Kéa - Matériel Boréal 2604 Lyms - Brisé 2604 Lyms - Loyauté - 2604 Ozkar - Doré - 2704 313 - Ailleurs - 2704 Furlax - RODEO GROOVE ft. Beeby - 2704 Gemen - SATAN 2 - 2704 Houdi - Enchanté - 2704 Keroué - Vésuve - 2704 Primero - Deux deux ft. Roméo Elvis - 2704 Rozzy - Jacquemüs - 2704 Stony Stone - Step 5 - Étoiles - 2804 Zaky - Amène - 2904 Black M - Outfit ft. Dr Bériz 2904 Elams - Monica ft. Flashko - 2904 Emkal - J'la connais, Pt. 1 - 2904 Hunter - Un homme - 2904 Lemon Haze - 9m2 - 2904 Leo - All Day All Night - 2904 MadeInParis - Sex Remix ft. Muni Long - 2904 Magnim - Du Firmament - 2904 Roméo Elvis - QUAND JE MARCHE COMME BEN MAZUÉ - 2904 Shay - DA - 2904 Soprano - Superman n'existe pas ft. Zamdane - 2904 Soso Maness - Crépuscule - 2904 Waïv - Trop méchant - 2904 Youssef Swatt's - Le rap est mort Mai - 0105 Chris 2 Coeur - Focus - 0205 Fiji God - Ultra Focus - 0305 Furax Barbarossa - 26 degrés 5 - 0305 Sysa - SYSA - 0405 Alonzo - PLAQUÉ 13 - 0405 Beendo Z - EDL75 - 0405 Ben.C - BACKWOODS ft. Gouap - 0405 HIBA - Cinq bouteilles 0405 LaFel109 - PAS HARAG 4 - 0405 Lestin - Précis Acoustique 0405 N'Seven7 - Drillstyle 03 Hes dead - 0405 Saamou Skuu - Anodin - 0405 La F - O.J - 0405 Leonis - Toute la night - 0405 mademoiselle lou - Solo 0405 Zidi - Comme d'habitude - 0505 Demi Portion - Légendaire 0505 Dika - Ingérables - 0505 Grems - Futura - 0505 Hyacinthe - Fureur de vivre - 0505 Irko - Carbon - 0505 JOHEM - Ville de bâtard - 0505 Lamatrix - Bad Kongo - 0505 LP2.0 - GTA 26 - 0505 Médine - Saint Modeste - 0505 Realo - Ibiza - 0505 Seth Gueko - Mange tes morts - 0505 Tizzy Miller - Nulle part - 0505 Vin's - Outrage II - 0505 Walk in Paris - Sacrifices ft. Chilla Nemir - 0605 1D1R - Tard la night - 0605 Bakari - SoloBinks 4 Le pacte - 0605 Chily - Bébé Na Bébé ft. Leto - 0605 C.Sen Le Chimiste - La vitre - 0605 Dajak - SABLIER - 0605 DA Uzi - Booska Braves 0605 Friz - O clair 2 la lune - 0605 Furlax - Sensation - 0605 i300 - Tookah 5 - 0605 ISK - El Golaa - 0605 JuL - Ça tourne dans ma tête - 0605 La Cour - EFFP - 0605 Larry - Rose - 0605 Lpee - Michael J. Fox - 0605 Mous-K - Petit frère - 0605 Niaks - La chienneté - 0605 Ouss Riane - Vision 4K ft. Nahir - 0605 Oklmava - C'est la cité qui lé-par 2 - 0605 Sasso L'Allemand - Curs abîmés - 0605 Seven Binks - Fumigèneft. ElGrandeToto - 0605 Sokra - Lozano - 0605 Tiakola - Si j'savais - 0605 TripleGo - Ice - 0605 Waltmann - Comme d'hab ft. Keroué - 0605 yung g - offre ton coeur ! - 0605 Zeu - ZIDANE ft. Venom - 0705 Salem - ... - 0805 baby hayabusa - BOZOFLOW2 - 0805 Douma - Baby Baby ft. Kalash Criminel 0805 SelaS - Courage 0905 AM La Scampia - Booska Fête Triste - 1005 Di-Meh - Promethazine 1005 Djeiz - Butin - 1005 Gianni - Tout en noir - 1005 Luther - LESSGUI - 1005 Timéa - JE TE CHERCHE - 1005 V2 ALMZ - FREESTYLE KSPER 1 - 1105 Amine Farsi - FRAUDE ft. Freeze Corleone - 1105 B.B. Jacques - Odyssée 1105 Calbo - J'écris - 1105 Gazo - CÉLINE 3X - 1105 Hatik - Star du rap - 1105 KT Gorique - HCV hold up ft. Mr Key - 1105 Theodora - Daddy Chocolat - 1105 Werenoi - Balmain - 1105 Yannou JR - Top Boy - 1105 Yanns - Soleil et nanas - 1105 Yanso - Hola Ouais ft. ElGrandeToto - 1105 YG Pablo - Incolore - 1105 Younès - ENTRE NOUS - 1205 Bramsito - God Bless U - 1205 DOR - Ouh Ouh - 1205 Soso Maness - À l'aube ft. Dinos - 1205 Tsew The Kid - Polaroïd 3 - Grosse tête - 1305 AMK - Toutatis ft. Slkrack - 1305 Chiloo - Je ne dors pas - 1305 Dala - FIN ft. Booba 1305 Dehmo - REPEAT - 1305 DJ Hamida - Ma bébé Mi amor ft. SAF - 1305 Doria - On prend tout - 1305 Farès - 0001 - 1305 Gotti Maras - Bumpy - 1305 Graya - La Castellane 5 - 1305 Hunter - Untitled1 - 1305 Jonny Vegas - En vie - 1305 Kemmler - Le Temps ft. Léa Castel - 1305 Kerchak - Tarzan - 1305 Kodes - Jack - 1305 Krilino - Poto Rico 1305 La Peee - 0.4 ft. KaNoé - 1305 L'As - LAMBO ft. DrillDiscovery - 1305 Livaï - THALES ft. Chanje - 1305 menace Santana - Vendredi13mai2022 - 1305 MIG - Vrai Savage - 1305 Omar Syco - Pas changé 1305 OMR - Mouv ft. ZeGuerre - 1305 Relo - PRP Plume Reconnait Plume ft. Sinik, R.E.D.K., Jacky Seth Gueko - 1305 Soolking - Askim ft. Reynmen - 1305 Stupeflip - Dans ton baladeur DTB - 1305 TK - Bisou Omri ft. Zaho Aymane Serhani - 1305 TripleGo - All Night - 1305 Veust - Première classe ft. Alpha Wann - 1305 Walk in Paris - Si tu veux ft. Sopico - 1505 3ARBI - Paname 1505 B-NØM - COCO AÇAÏ - 1505 FrenchCali - Sugar Ray leonard - 1505 Houdi - FPH 0 - 1505 Zeu - JJJJJ - 1605 Udeyfa - Choc générationnel - 1605 ZKR - Booska'méléon - 1705 Bob Marlich - Kyubi - 1705 eden dillinger - 40 mètres ft. Wallace Cleaver - 1705 Naps - La Maxance - 1705 Slkrack - Appel en absence ft. EDGE - 1805 Hakai - GRENADE - 1805 Henri Bleu - Palais de glace 1805 Ivory - Faux frères ft. YL 1805 Junior Bvndo - RDLB - 1805 Kai du M - Batman - 1805 Lamatrix - Malhonnête - 1805 La Rvfleuze - Serrure 1 - 1805 Lybro - Saiyan 2 - 1805 Seth Gueko - Last album - 1805 Smahlo - Trahison ft. Gotti Maras - 1805 Urde - Van der Sar - 1805 Good Bana - Les Humains - 1905 DosPunto - Je meurs avec - 1905 JSX - Shogun - 1905 JuL - Superstar - 1905 Kepler - Rondo Numba Nine ft. Larry - 1905 Keroué - Felice ft. Caballero - 1905 luXe Timeless - Tactiques Block - 1905 Sirap - Seul - 1905 Stavo - Haut risque - 1905 Tiakola - Coucher de soleil - 1905 Yome - Hors série 2 - Pourquoi - 2005 Allebou - Personne - 2005 Amné - Niya - 2005 baby hayabusa - BOZOFLOW3 - 2005 Boub'z - OMAX - 2005 Bigflo Oli - J'étais pas là - 2005 Black Mamba 28 - Cette Shit - 2005 Carbonne - MTP - 2005 Chester - Barré - 2005 Denzo - La rue en V.O 2005 Dinero - Dans ça - 2005 DOC OVG - 1000 ft. Freeze Corleone - 2005 Frenetik - HB Freestyle Season 4 ft. Hardest Bars - 2005 Harley - Sten ft. Genezio Jew Brownie 2005 Koffi Lossa - Streetbi ft. Yaya Krisso - 2005 La F - Vise et tire - 2005 La Honda 19 - Juste en crime - 2005 Malty 2BZ - Wow 2005 N'Seven7 - Gwara 2005 Nubi - S.A.L.E - 2005 REA - Nana - 2005 Réejo - Movie, Yeah Yeah - 2005 Roméo Elvis - MAQUETTE - 2005 SAF - MWAZABOUDJ - 2005 Shtar Academy - Oh la la la ft. Sofiane, Ryan, Perkiz, Nonô Blur - 2005 SLK - OUH OUH OUH ft. Liim's - 2005 Sokuu - Yoshi - 2005 So La Lune - Fin heureuse - 2005 Timal - La 15 GSXR - 2005 TripleGo - Mes pensées - 2005 Youri - Doggy Bag 2005 Youssef Swatt's - Solo - 2005 Zikxo - Déjà mort - 2205 Houdi - FPH 1 - 2205 Zeu - Von Durk ft. Goose28th - 2305 ISK - Booska Racines ft. Nahir, DA Uzi Niaks - 2305 Seka - Pharrell ft. 63OG - 2505 Barack Adama - Baggy ft. Lefa - 2505 Beendo Z - Booska Z - 2505 Di-Meh - Veuve Clicquot ft. Caballero 2505 Don Milli - Millimètre 1 - 2505 Emkal - Jla connais, Pt. 1 Remix ft. Lynda - 2505 Gambi - Paqueta - 2505 Kerchak - Obsessed With Me - 2505 Menavor - Cascade - 2505 N'Seven7 - Paris est magique - 2505 Prince Waly - Avertisseurs Part. II - 2505 Urde - Trempé - 2505 Wallace Cleaver - Armata - 2605 Dracks - Solo 2605 Fello - Tout l'été ft. Dinero - 2605 Novy - EAPN 3 - Johnny Dang - 2605 Pollux - LE MAL EST FAIT - 2605 Soso Maness - Peine de mort - 2605 TripleGo - Summer - 2705 Ateyaba - Finesse - 2705 Béles - EVERYDAY - 2705 Big Ben - C'est mon histoire 1 - 2705 Black Jack OBS - T.M ft. Goulag 2705 BLK 140 - Poppy - 2705 Chilla - Cauchemars - 2705 Dmh - Coeur - 2705 Furax Barbarossa - Brise de mer 2705 Gambino - Plata - 2705 HD La Relève - Mobulu 1 - Milli Milli - 2705 Huntrill - amiri. - 2705 Jeune Lion - AC MILAN - 2705 KronoMuzik, Pandrezz Ronare - Violette Citronelle ft. Alkpote - 2705 Lorage - Oxygène 2705 Michel - Da da da - 2705 Nans - Cagoulés - 2705 Naza - Bibi ft. Negrito - 2705 Nixy Rose - WAKA FLOCKA ft. Sossa Kah - 2705 RCKNSQT - Error 520 - 2705 Rizla - Fanées - 2705 Salimo - Wooh - 2705 SanaNael - Mr Mme ft. Elams - 2705 Seven Binks - Bleu ft. Bolémvn Sasso - 2705 So La Zone - Dans la ville - 2705 SOPA - Fou d'elle 2 - 2705 TK - La tartine - 2705 Uzibinski - Parabellum 2705 Vves - Benzo - 2705 Zalmad - Elle m'prend pour un loss - 2905 3ARBI - Bruce Wayne 2905 Azuul Smith - Mentale - 2905 Elso - Dope 2905 Fababy - C'est toi que j'aime - 2905 Houdi - FPH 2 - 3005 Gazo - MOLLY - </t>
         </is>
       </c>
     </row>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Là-bas il fait chaud on boit l'eau du coco Sous les cocotiers les filles sont bronzées Les maillots mouillés et les bondes à bomber Ça sent le colombo les plats épicés Y a du zouk à fond des fruits de la passion Franky Vincent est le saint patron On coupe la canne pour en prendre le sucre Mélanger citron vert et rhum Trois-Rivières Boulogne ou La Mauny et oui c'est clair Clair comme l'eau comme l'eau de la mer J'y vais quand c'est gratuit, congés bonifiés Dis moi timal, est-ce que tu connais ? Suis moi dans les hauteurs de la Soufrière Je suis le guide touristique qui t'emmène en Basse Terre On tape une pointe pour aller à la pointe C'est du frotter-frotter et les gens qui s'éreintent Ma mère est née là bas Mon père est né là bas Toi tu es né ici Dans la misère et les cris Ma mère est née là bas Mon père est né là bas Toi tu es né ici Dans la misère et les cris You might also like 22 Mai Abolition de l'esclavage Ce jour là moi-même même si j'étais dans les nuages Accroché à un fauteuil de la sueur sur le visage Mon attitude faisait flipper tous les membres de l'équipage Destination Paris city Pourquoi pas, on est pas limité dans la vie Maintenant mon thermomètre fait dans le négatif Je ne sais pas pourquoi mais ça me rend inactif C'est plus cool de rester au chaud, des clopes, un bon spliff De là, face ou à la tête je me vois mal dans une manif Assis au coin du radiateur Avec la musique j'essaie de prendre de la hauteur C'est une simple question de tentation Que j'aborde maintenant avec précaution Là comme on vie on est, on a fait la démonstration Notre origine est tropicale, pour nous pas de congélation Ma mère est née là bas Mon père est né là bas Toi tu es né ici Dans la misère et les cris Ma mère est née là bas Mon père est né là bas Toi tu es né ici Dans la misère et les cris J'veux porter des shorts toute ma vie Avec mon escorte quitter Paris Manger du poisson grillé sur la plage du Gosier Et prendre des bains de mer avec le ministère Mais je me suis noyé je ne sais pas nager Les rues sont profondes et mènent toutes au boulevard Ney Comment s'en sortir pour la fille du quartier Elle croit que pour percer il faut se faire trouer Certains jouent au foot et veulent devenir pros D'autres dealent et rêvent de kilos Les seringues mortes se ramassent à la pelle Sur les trottoirs de la rue La Chapelle On protège nos fils de tout ce vice Dans les cours d'école on ne sniffe plus de colle Drogue et alcool ont pris le monopole Ma vie n'est pas simple elle n'est pas funky Moi je suis né ici et mon enfant aussi Ma mère est née là bas Mon père est né là bas Toi tu es né ici Dans la misère et les cris Ma mère est née là bas Mon père est né là bas Toi tu es né ici Dans la misère et les cris</t>
+          <t>Là-bas il fait chaud on boit l'eau du coco Sous les cocotiers les filles sont bronzées Les maillots mouillés et les bondes à bomber Ça sent le colombo les plats épicés Y a du zouk à fond des fruits de la passion Franky Vincent est le saint patron On coupe la canne pour en prendre le sucre Mélanger citron vert et rhum Trois-Rivières Boulogne ou La Mauny et oui c'est clair Clair comme l'eau comme l'eau de la mer J'y vais quand c'est gratuit, congés bonifiés Dis moi timal, est-ce que tu connais ? Suis moi dans les hauteurs de la Soufrière Je suis le guide touristique qui t'emmène en Basse Terre On tape une pointe pour aller à la pointe C'est du frotter-frotter et les gens qui s'éreintent Ma mère est née là bas Mon père est né là bas Toi tu es né ici Dans la misère et les cris Ma mère est née là bas Mon père est né là bas Toi tu es né ici Dans la misère et les cris 22 Mai Abolition de l'esclavage Ce jour là moi-même même si j'étais dans les nuages Accroché à un fauteuil de la sueur sur le visage Mon attitude faisait flipper tous les membres de l'équipage Destination Paris city Pourquoi pas, on est pas limité dans la vie Maintenant mon thermomètre fait dans le négatif Je ne sais pas pourquoi mais ça me rend inactif C'est plus cool de rester au chaud, des clopes, un bon spliff De là, face ou à la tête je me vois mal dans une manif Assis au coin du radiateur Avec la musique j'essaie de prendre de la hauteur C'est une simple question de tentation Que j'aborde maintenant avec précaution Là comme on vie on est, on a fait la démonstration Notre origine est tropicale, pour nous pas de congélation Ma mère est née là bas Mon père est né là bas Toi tu es né ici Dans la misère et les cris Ma mère est née là bas Mon père est né là bas Toi tu es né ici Dans la misère et les cris J'veux porter des shorts toute ma vie Avec mon escorte quitter Paris Manger du poisson grillé sur la plage du Gosier Et prendre des bains de mer avec le ministère Mais je me suis noyé je ne sais pas nager Les rues sont profondes et mènent toutes au boulevard Ney Comment s'en sortir pour la fille du quartier Elle croit que pour percer il faut se faire trouer Certains jouent au foot et veulent devenir pros D'autres dealent et rêvent de kilos Les seringues mortes se ramassent à la pelle Sur les trottoirs de la rue La Chapelle On protège nos fils de tout ce vice Dans les cours d'école on ne sniffe plus de colle Drogue et alcool ont pris le monopole Ma vie n'est pas simple elle n'est pas funky Moi je suis né ici et mon enfant aussi Ma mère est née là bas Mon père est né là bas Toi tu es né ici Dans la misère et les cris Ma mère est née là bas Mon père est né là bas Toi tu es né ici Dans la misère et les cris</t>
         </is>
       </c>
     </row>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Y'avait des mots pour le Secteur Des mots violents, presque en verlan Des mots qui meurent et font couler le sang Ces mots sont morts et, dorénavant Faut voir Maman, écoute Papa J'n'ai qu'les beaux mots pour parler à mes filles Oreilles sensibles, yeux plus sensibles Moi je leur cède tout c'que j'écris Et j'n'ai jamais voulu faire l'homme Plus que des textes, relis mes psaumes Laissez les noirs, laissez les blancs Mais qu'ils divorcent, fassent des enfants Qu'ils tendent leurs bras, des innocents Il n'y a pas de problèmes aux gens d'couleur Que n'a crée 100 ans de malheur Et moi je danse pour toute résistance J'veux pas partir comme un martyr J'irai mourir en révolutionnaire Un subterfuge, héhé, dans la lumière Laissez les noirs, laissez les blancs Mais qu'ils divorcent, fassent des enfants Qu'ils tendent leurs bras, des innocents You might also like J'f'rai pas rimer, nan, les femmes et leur cuisine Y'a trop d'ustensiles dans leur usine Des brunes comme Marylin, Karukera ou Joséphine J'serai toujours là pour elles, elles elles pluriel Laissez les noirs, laissez les blancs Mais qu'ils divorcent, fassent des enfants Qu'ils tendent leurs bras, des innocents Laissez les noirs, laissez les blancs Qu'ils se rencontrent comme des enfants Et tendent leurs bras, des innocents</t>
+          <t>Y'avait des mots pour le Secteur Des mots violents, presque en verlan Des mots qui meurent et font couler le sang Ces mots sont morts et, dorénavant Faut voir Maman, écoute Papa J'n'ai qu'les beaux mots pour parler à mes filles Oreilles sensibles, yeux plus sensibles Moi je leur cède tout c'que j'écris Et j'n'ai jamais voulu faire l'homme Plus que des textes, relis mes psaumes Laissez les noirs, laissez les blancs Mais qu'ils divorcent, fassent des enfants Qu'ils tendent leurs bras, des innocents Il n'y a pas de problèmes aux gens d'couleur Que n'a crée 100 ans de malheur Et moi je danse pour toute résistance J'veux pas partir comme un martyr J'irai mourir en révolutionnaire Un subterfuge, héhé, dans la lumière Laissez les noirs, laissez les blancs Mais qu'ils divorcent, fassent des enfants Qu'ils tendent leurs bras, des innocents J'f'rai pas rimer, nan, les femmes et leur cuisine Y'a trop d'ustensiles dans leur usine Des brunes comme Marylin, Karukera ou Joséphine J'serai toujours là pour elles, elles elles pluriel Laissez les noirs, laissez les blancs Mais qu'ils divorcent, fassent des enfants Qu'ils tendent leurs bras, des innocents Laissez les noirs, laissez les blancs Qu'ils se rencontrent comme des enfants Et tendent leurs bras, des innocents</t>
         </is>
       </c>
     </row>
@@ -1602,7 +1602,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Un pays nouveau, une nouvelle langue, une nouvelle façon de s'habiller Une différente mentalité, y'a d'autres façons de penser Un jus de coco, , sans fourchette j'déguste un poisson grillé Y'a pas EDF mais j'suis mauvaise langue, le soleil ne s'arrête pas de briller Tu n'es pas le centre du monde Y'a aussi d'autres gens dans ce monde Y'a pas qu'nous, le monde ne dépend pas que de nous Le monde ne dépend pas que de nous Il faut accepter la différence, tout vient pas de mon village de France J'entends des gens crier Le centre commercial est devenu un marché La vie a pris le dessus sur vos philosophies Y'a différentes mentalités, y'a d'autres façons de penser Tu n'es pas le centre du monde Y'a aussi d'autres gens dans ce monde Y'a pas qu'nous, le monde ne dépend pas que de nous Le monde ne dépend pas que de nous Vous avez la connaissance Aujourd'hui le bled avance Vous avez le savoir faire Mais l'Afrique d'aujourd'hui n'est pas celle d'hier Mais l'Afrique d'aujourd'hui n'est pas celle d'hier Mais l'Afrique d'aujourd'hui n'est pas celle d'hier You might also like Tu n'es pas le centre du monde Y'a aussi d'autres gens dans ce monde Y'a pas qu'nous, le monde ne dépend pas que de nous Le monde ne dépend pas Tu n'es pas le centre du monde Y'a aussi d'autres gens dans ce monde Y'a pas qu'nous, le monde ne dépend pas que de nous Le monde ne dépend pas que de nous Un pays nouveau, une nouvelle langue, une autre façon de penser</t>
+          <t>Un pays nouveau, une nouvelle langue, une nouvelle façon de s'habiller Une différente mentalité, y'a d'autres façons de penser Un jus de coco, , sans fourchette j'déguste un poisson grillé Y'a pas EDF mais j'suis mauvaise langue, le soleil ne s'arrête pas de briller Tu n'es pas le centre du monde Y'a aussi d'autres gens dans ce monde Y'a pas qu'nous, le monde ne dépend pas que de nous Le monde ne dépend pas que de nous Il faut accepter la différence, tout vient pas de mon village de France J'entends des gens crier Le centre commercial est devenu un marché La vie a pris le dessus sur vos philosophies Y'a différentes mentalités, y'a d'autres façons de penser Tu n'es pas le centre du monde Y'a aussi d'autres gens dans ce monde Y'a pas qu'nous, le monde ne dépend pas que de nous Le monde ne dépend pas que de nous Vous avez la connaissance Aujourd'hui le bled avance Vous avez le savoir faire Mais l'Afrique d'aujourd'hui n'est pas celle d'hier Mais l'Afrique d'aujourd'hui n'est pas celle d'hier Mais l'Afrique d'aujourd'hui n'est pas celle d'hier Tu n'es pas le centre du monde Y'a aussi d'autres gens dans ce monde Y'a pas qu'nous, le monde ne dépend pas que de nous Le monde ne dépend pas Tu n'es pas le centre du monde Y'a aussi d'autres gens dans ce monde Y'a pas qu'nous, le monde ne dépend pas que de nous Le monde ne dépend pas que de nous Un pays nouveau, une nouvelle langue, une autre façon de penser</t>
         </is>
       </c>
     </row>
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Originaire de la terre mère Où les marmots dansent dans des marres d'eau Faut dire tous ces colons y'en a marre d'eux Regarde nos femmes et notre faune, j'en suis fan J'ai le feu au cur je te jure Notre historique n'est fait que de coups de fouets Kunta a fui, après avoir brisé les chaînes Il était noir, faut que ce soit significatif Pour nous les jeunes Afrique, Antilles, il n'y a pas de différences Si ce n'est qu'il y a une minorité Cupide qui y croit encore dur comme fouets Le silence tue le poète de Karukera à Yaoundé Je vous convie à un apéritif de cannes à sucre et vin de palme Si t'es blanc d'être noir nous on est fiers noirs d'être Une fleur qui perd ses pétales C'est un problème de racines peut-être Destination différente via les mêmes bateaux Des bordures de Kribi jusqu'à l'île aux belles eaux Doc qui sait si nos aïeux ont siroté ensemble Tous dans le même nid puis séparés tel un envol d'oiseau On se laissera pas faire, on lâchera pas l'affaire On n'a pas le même destin mais nos galères sont les mêmes On se laissera pas faire, on lâchera pas l'affaire Première Classe Doc Communication font la paire You might also like Il n'y a pas de meufs à poil dans mon salon Pas de pétasse que j'connais pas qui bronze sur ma terasse J'vais produire Cosette et la Schtroumphette On fera gagner leur disque à la Skyroulette Citer des noms et de toute manière Qu'est-ce que je risque ? Des maisons de disques, de lÉtat ou du fisc Tous on veut qué-ma la musique le cinéma J'ai trop mis de coups pour sortir de ce putain de coma Trop mis de coups, aux politiques et aux zoulous Ma pause préférée prendre la fille à quatre pattes Qu'après l'amour, elle me fasse chauffer des pâtes Comme tu le sais je suis 100 mulâtre On lâchera pas l'affaire et on continue à se battre Nous ne sommes pas les mêmes noirs Mais je le suis quand même On se laissera pas faire, on lâchera pas l'affaire Tout le monde attend l'album du Ministère A.M.E.R Un étranger avec ou sans papiers J'ai le sang trop chaud trop dur à tempérer Pas que des racistes en France Même le climat me fait chier Cette différence n'a pas lieu aux yeux des lle-fi Que les hommes changent du Kosovo jusqu'en Serbie... On se laissera pas faire, on lâchera pas l'affaire On n'a pas le même destin mais nos galères sont les mêmes On se laissera pas faire, on lâchera pas l'affaire Première Classe Doc Communication font la paire Tous dans le même bateau, le 22 mai à l'Olympia Noirs, Blancs, Jaunes On fumait le même haïa Et dans ce même bateau se cachait Abdoulaï Un clandé tout comme moi et les fayas On est dans le même bateau Dans le même bateau, je te jure En ce qui concerne la musique et le fric et le fric Prends tes 10 et laisse-toi faire Allez viens, on continue nos affaires On est dans le même bateau de Place des fêtes à la Chapelle Bougnoules ou goujats en nous interpellant, ils nous appellent Avec Pit, j'complote et préviens mes potes Vas-y kiffe, sirote et mets des capotes Avant-gardiste face aux maisons de disques On craint ce qu'on ignore mais crois-tu j'ignore Que le secteur est craint? Vu qu'ils ignorent pas qu'on gère notre biz chez eux ça craint L'humanité groupe de voyageurs sur le bateau terre On se laissera pas faire, on lâchera pas l'affaire On n'a pas le même destin mais nos galères sont les mêmes On se laissera pas faire, on lâchera pas l'affaire Première Classe Doc Communication font la paireParoles rédigées et annotées par la communauté française de Rap Genius</t>
+          <t>Originaire de la terre mère Où les marmots dansent dans des marres d'eau Faut dire tous ces colons y'en a marre d'eux Regarde nos femmes et notre faune, j'en suis fan J'ai le feu au cur je te jure Notre historique n'est fait que de coups de fouets Kunta a fui, après avoir brisé les chaînes Il était noir, faut que ce soit significatif Pour nous les jeunes Afrique, Antilles, il n'y a pas de différences Si ce n'est qu'il y a une minorité Cupide qui y croit encore dur comme fouets Le silence tue le poète de Karukera à Yaoundé Je vous convie à un apéritif de cannes à sucre et vin de palme Si t'es blanc d'être noir nous on est fiers noirs d'être Une fleur qui perd ses pétales C'est un problème de racines peut-être Destination différente via les mêmes bateaux Des bordures de Kribi jusqu'à l'île aux belles eaux Doc qui sait si nos aïeux ont siroté ensemble Tous dans le même nid puis séparés tel un envol d'oiseau On se laissera pas faire, on lâchera pas l'affaire On n'a pas le même destin mais nos galères sont les mêmes On se laissera pas faire, on lâchera pas l'affaire Première Classe Doc Communication font la paire Il n'y a pas de meufs à poil dans mon salon Pas de pétasse que j'connais pas qui bronze sur ma terasse J'vais produire Cosette et la Schtroumphette On fera gagner leur disque à la Skyroulette Citer des noms et de toute manière Qu'est-ce que je risque ? Des maisons de disques, de lÉtat ou du fisc Tous on veut qué-ma la musique le cinéma J'ai trop mis de coups pour sortir de ce putain de coma Trop mis de coups, aux politiques et aux zoulous Ma pause préférée prendre la fille à quatre pattes Qu'après l'amour, elle me fasse chauffer des pâtes Comme tu le sais je suis 100 mulâtre On lâchera pas l'affaire et on continue à se battre Nous ne sommes pas les mêmes noirs Mais je le suis quand même On se laissera pas faire, on lâchera pas l'affaire Tout le monde attend l'album du Ministère A.M.E.R Un étranger avec ou sans papiers J'ai le sang trop chaud trop dur à tempérer Pas que des racistes en France Même le climat me fait chier Cette différence n'a pas lieu aux yeux des lle-fi Que les hommes changent du Kosovo jusqu'en Serbie... On se laissera pas faire, on lâchera pas l'affaire On n'a pas le même destin mais nos galères sont les mêmes On se laissera pas faire, on lâchera pas l'affaire Première Classe Doc Communication font la paire Tous dans le même bateau, le 22 mai à l'Olympia Noirs, Blancs, Jaunes On fumait le même haïa Et dans ce même bateau se cachait Abdoulaï Un clandé tout comme moi et les fayas On est dans le même bateau Dans le même bateau, je te jure En ce qui concerne la musique et le fric et le fric Prends tes 10 et laisse-toi faire Allez viens, on continue nos affaires On est dans le même bateau de Place des fêtes à la Chapelle Bougnoules ou goujats en nous interpellant, ils nous appellent Avec Pit, j'complote et préviens mes potes Vas-y kiffe, sirote et mets des capotes Avant-gardiste face aux maisons de disques On craint ce qu'on ignore mais crois-tu j'ignore Que le secteur est craint? Vu qu'ils ignorent pas qu'on gère notre biz chez eux ça craint L'humanité groupe de voyageurs sur le bateau terre On se laissera pas faire, on lâchera pas l'affaire On n'a pas le même destin mais nos galères sont les mêmes On se laissera pas faire, on lâchera pas l'affaire Première Classe Doc Communication font la paireParoles rédigées et annotées par la communauté française de Rap Genius</t>
         </is>
       </c>
     </row>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Originaire de la terre mère Où les marmots dansent dans des marres d'eau Faut dire tous ces colons y'en a marre d'eux Regarde nos femmes et notre faune, j'en suis fan J'ai le feu au cur je te jure Notre historique n'est fait que de coups de fouets Kunta a fui, après avoir brisé les chaînes Il était noir, faut que ce soit significatif Pour nous les jeunes Afrique, Antilles, il n'y a pas de différences Si ce n'est qu'il y a une minorité Cupide qui y croit encore dur comme fouets Le silence tue le poète de Karukera à Yaoundé Je vous convie à un apéritif de cannes à sucre et vin de palme Si t'es blanc d'être noir nous on est fiers noirs d'être Une fleur qui perd ses pétales C'est un problème de racines peut-être Destination différente via les mêmes bateaux Des bordures de Kribi jusqu'à l'île aux belles eaux Doc qui sait si nos aïeux ont siroté ensemble Tous dans le même nid puis séparés tel un envol d'oiseau On se laissera pas faire, on lâchera pas l'affaire On n'a pas le même destin mais nos galères sont les mêmes On se laissera pas faire, on lâchera pas l'affaire Première Classe Doc Communication font la paire You might also like Il n'y a pas de meufs à poil dans mon salon Pas de pétasse que j'connais pas qui bronze sur ma terasse J'vais produire Cosette et la Schtroumphette On fera gagner leur disque à la Skyroulette Citer des noms et de toute manière Qu'est-ce que je risque ? Des maisons de disques, de lÉtat ou du fisc Tous on veut qué-ma la musique le cinéma J'ai trop mis de coups pour sortir de ce putain de coma Trop mis de coups, aux politiques et aux zoulous Ma pause préférée prendre la fille à quatre pattes Qu'après l'amour, elle me fasse chauffer des pâtes Comme tu le sais je suis 100 mulâtre On lâchera pas l'affaire et on continue à se battre Nous ne sommes pas les mêmes noirs Mais je le suis quand même On se laissera pas faire, on lâchera pas l'affaire Tout le monde attend l'album du Ministère A.M.E.R Un étranger avec ou sans papiers J'ai le sang trop chaud trop dur à tempérer Pas que des racistes en France Même le climat me fait chier Cette différence n'a pas lieu aux yeux des lle-fi Que les hommes changent du Kosovo jusqu'en Serbie... On se laissera pas faire, on lâchera pas l'affaire On n'a pas le même destin mais nos galères sont les mêmes On se laissera pas faire, on lâchera pas l'affaire Première Classe Doc Communication font la paire Tous dans le même bateau, le 22 mai à l'Olympia Noirs, Blancs, Jaunes On fumait le même haïa Et dans ce même bateau se cachait Abdoulaï Un clandé tout comme moi et les fayas On est dans le même bateau Dans le même bateau, je te jure En ce qui concerne la musique et le fric et le fric Prends tes 10 et laisse-toi faire Allez viens, on continue nos affaires On est dans le même bateau de Place des fêtes à la Chapelle Bougnoules ou goujats en nous interpellant, ils nous appellent Avec Pit, j'complote et préviens mes potes Vas-y kiffe, sirote et mets des capotes Avant-gardiste face aux maisons de disques On craint ce qu'on ignore mais crois-tu j'ignore Que le secteur est craint? Vu qu'ils ignorent pas qu'on gère notre biz chez eux ça craint L'humanité groupe de voyageurs sur le bateau terre On se laissera pas faire, on lâchera pas l'affaire On n'a pas le même destin mais nos galères sont les mêmes On se laissera pas faire, on lâchera pas l'affaire Première Classe Doc Communication font la paireParoles rédigées et annotées par la communauté française de Rap Genius</t>
+          <t>Originaire de la terre mère Où les marmots dansent dans des marres d'eau Faut dire tous ces colons y'en a marre d'eux Regarde nos femmes et notre faune, j'en suis fan J'ai le feu au cur je te jure Notre historique n'est fait que de coups de fouets Kunta a fui, après avoir brisé les chaînes Il était noir, faut que ce soit significatif Pour nous les jeunes Afrique, Antilles, il n'y a pas de différences Si ce n'est qu'il y a une minorité Cupide qui y croit encore dur comme fouets Le silence tue le poète de Karukera à Yaoundé Je vous convie à un apéritif de cannes à sucre et vin de palme Si t'es blanc d'être noir nous on est fiers noirs d'être Une fleur qui perd ses pétales C'est un problème de racines peut-être Destination différente via les mêmes bateaux Des bordures de Kribi jusqu'à l'île aux belles eaux Doc qui sait si nos aïeux ont siroté ensemble Tous dans le même nid puis séparés tel un envol d'oiseau On se laissera pas faire, on lâchera pas l'affaire On n'a pas le même destin mais nos galères sont les mêmes On se laissera pas faire, on lâchera pas l'affaire Première Classe Doc Communication font la paire Il n'y a pas de meufs à poil dans mon salon Pas de pétasse que j'connais pas qui bronze sur ma terasse J'vais produire Cosette et la Schtroumphette On fera gagner leur disque à la Skyroulette Citer des noms et de toute manière Qu'est-ce que je risque ? Des maisons de disques, de lÉtat ou du fisc Tous on veut qué-ma la musique le cinéma J'ai trop mis de coups pour sortir de ce putain de coma Trop mis de coups, aux politiques et aux zoulous Ma pause préférée prendre la fille à quatre pattes Qu'après l'amour, elle me fasse chauffer des pâtes Comme tu le sais je suis 100 mulâtre On lâchera pas l'affaire et on continue à se battre Nous ne sommes pas les mêmes noirs Mais je le suis quand même On se laissera pas faire, on lâchera pas l'affaire Tout le monde attend l'album du Ministère A.M.E.R Un étranger avec ou sans papiers J'ai le sang trop chaud trop dur à tempérer Pas que des racistes en France Même le climat me fait chier Cette différence n'a pas lieu aux yeux des lle-fi Que les hommes changent du Kosovo jusqu'en Serbie... On se laissera pas faire, on lâchera pas l'affaire On n'a pas le même destin mais nos galères sont les mêmes On se laissera pas faire, on lâchera pas l'affaire Première Classe Doc Communication font la paire Tous dans le même bateau, le 22 mai à l'Olympia Noirs, Blancs, Jaunes On fumait le même haïa Et dans ce même bateau se cachait Abdoulaï Un clandé tout comme moi et les fayas On est dans le même bateau Dans le même bateau, je te jure En ce qui concerne la musique et le fric et le fric Prends tes 10 et laisse-toi faire Allez viens, on continue nos affaires On est dans le même bateau de Place des fêtes à la Chapelle Bougnoules ou goujats en nous interpellant, ils nous appellent Avec Pit, j'complote et préviens mes potes Vas-y kiffe, sirote et mets des capotes Avant-gardiste face aux maisons de disques On craint ce qu'on ignore mais crois-tu j'ignore Que le secteur est craint? Vu qu'ils ignorent pas qu'on gère notre biz chez eux ça craint L'humanité groupe de voyageurs sur le bateau terre On se laissera pas faire, on lâchera pas l'affaire On n'a pas le même destin mais nos galères sont les mêmes On se laissera pas faire, on lâchera pas l'affaire Première Classe Doc Communication font la paireParoles rédigées et annotées par la communauté française de Rap Genius</t>
         </is>
       </c>
     </row>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Le premier single de Doc Gynéco viens voir, viens voir le docteur, non n'aie pas peur Viens voir, viens voir Gynéco, non n'aie pas peurYou might also like</t>
+          <t>Le premier single de Doc Gynéco viens voir, viens voir le docteur, non n'aie pas peur Viens voir, viens voir Gynéco, non n'aie pas peur</t>
         </is>
       </c>
     </row>
@@ -1670,7 +1670,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Hey Hey ! Mira Mira Mira ! Tu passe à côté de quelque chose Non c'est de ce côté qu'il faut regarder Oyé Sapapaya ! ça vous dirait un ice cream avec mon ami et moi Ouaich, ouaich, même après minuit c'est gratuit pour les filles, ouais digi Doc Gynéco bubuBugy, Stomy Buggy Des guns des keufs des histoires de caille-ra Mais comment veux-tu faire kif-fer les te-ras Mauvais si Dia-na réapparaissait Ces machos directs la recrucifieraient Elle et moi nous sommes mariés Je suis le pit sur lequel il faut parier Mon calibre, du gros gibier Pour m'avoir, faut des balles pour sangliers Boum, boum Ici, y'a pas d'yo Juste des rates gonflées comme yoyo Qui bougent leur big bonda précieux comme un panda Les mecs s'mettent à bander Tout comme moi Bugsy Quereauma du cromi, Gynéco et Stomy You might also like A l'heure où mon secteur, Ä, la chapelle Devient plus célèbre que Virgin, Sony et Delabel J'ai de la bonne maquette pour de Burtel Un pepom, des balles à aillettes pour zulettes x2 O-yé Sa-pa-pa-ya ça vous dirait un ice cream a-vec mon a-mi et moi Pour les big bon-das et les p'tits tar-ma ah ah ah ah ah La bugs and doc mob alibi Implacable, la flicaille kop Toujours du beau boulot Pour les boîtes, les radios, les salauds En dalos, le pouvoir au peuple Nos paroles font reup Mais qua on qu'a dit là c'est du Doc Gynéco Qu'a on qu'a dit là c'est toujours au niveau Stomy à mes côtés depuis le début Un nouveau son qu'Abdoulaye passe en exclu C'est pour les mecs en chiens, les exclus Je suis le kung fu fighting J'ai la fureur de vivre, même ivre Ils peuvent pas me sacquer, toqués au saké Mes katas quéatta Pas besoin d'compter combien de danm j'ai Mais combien de dents j'te fais cracher Finies les conneries sur ta meuf je rebondis x2 O-yé Sa-pa-pa-ya ça vous dirait un ice cream a-vec mon a-mi et moi Pour les big bon-das et les p'tits tar-ma ah ah ah ah ah Dans ma rue j'ai 100 sur mon trottoir Madame Maigret, t'as 15 d'y croire, taspèch Un peu de sâleté, de crasse et une 16 Voilà comment jouir de l'hospitalité française Je suis nègre, juif et communiste Allez leur dire aux lepénistes Les maquereaux remaquent le coin Pas de mic mac N'écoute pas les pingouins qui te diront des bla bla bla Le nez plein de rablablabla Pimpon la bande à Papon Péfli sur mon nouveau couplet de Boyplay Oui ça me plaît, de Brigitte Femme de flic à histoire de seufs Un uniforme, une teub, d'la beu, des ieufs Et j'fais tourner à mes reufs x6 O-yé Sa-pa-pa-ya ça vous dirait un ice cream a-vec mon a-mi et moi Pour les big bon-das et les p'tits tar-ma ah ah ah ah ah</t>
+          <t>Hey Hey ! Mira Mira Mira ! Tu passe à côté de quelque chose Non c'est de ce côté qu'il faut regarder Oyé Sapapaya ! ça vous dirait un ice cream avec mon ami et moi Ouaich, ouaich, même après minuit c'est gratuit pour les filles, ouais digi Doc Gynéco bubuBugy, Stomy Buggy Des guns des keufs des histoires de caille-ra Mais comment veux-tu faire kif-fer les te-ras Mauvais si Dia-na réapparaissait Ces machos directs la recrucifieraient Elle et moi nous sommes mariés Je suis le pit sur lequel il faut parier Mon calibre, du gros gibier Pour m'avoir, faut des balles pour sangliers Boum, boum Ici, y'a pas d'yo Juste des rates gonflées comme yoyo Qui bougent leur big bonda précieux comme un panda Les mecs s'mettent à bander Tout comme moi Bugsy Quereauma du cromi, Gynéco et Stomy A l'heure où mon secteur, Ä, la chapelle Devient plus célèbre que Virgin, Sony et Delabel J'ai de la bonne maquette pour de Burtel Un pepom, des balles à aillettes pour zulettes x2 O-yé Sa-pa-pa-ya ça vous dirait un ice cream a-vec mon a-mi et moi Pour les big bon-das et les p'tits tar-ma ah ah ah ah ah La bugs and doc mob alibi Implacable, la flicaille kop Toujours du beau boulot Pour les boîtes, les radios, les salauds En dalos, le pouvoir au peuple Nos paroles font reup Mais qua on qu'a dit là c'est du Doc Gynéco Qu'a on qu'a dit là c'est toujours au niveau Stomy à mes côtés depuis le début Un nouveau son qu'Abdoulaye passe en exclu C'est pour les mecs en chiens, les exclus Je suis le kung fu fighting J'ai la fureur de vivre, même ivre Ils peuvent pas me sacquer, toqués au saké Mes katas quéatta Pas besoin d'compter combien de danm j'ai Mais combien de dents j'te fais cracher Finies les conneries sur ta meuf je rebondis x2 O-yé Sa-pa-pa-ya ça vous dirait un ice cream a-vec mon a-mi et moi Pour les big bon-das et les p'tits tar-ma ah ah ah ah ah Dans ma rue j'ai 100 sur mon trottoir Madame Maigret, t'as 15 d'y croire, taspèch Un peu de sâleté, de crasse et une 16 Voilà comment jouir de l'hospitalité française Je suis nègre, juif et communiste Allez leur dire aux lepénistes Les maquereaux remaquent le coin Pas de mic mac N'écoute pas les pingouins qui te diront des bla bla bla Le nez plein de rablablabla Pimpon la bande à Papon Péfli sur mon nouveau couplet de Boyplay Oui ça me plaît, de Brigitte Femme de flic à histoire de seufs Un uniforme, une teub, d'la beu, des ieufs Et j'fais tourner à mes reufs x6 O-yé Sa-pa-pa-ya ça vous dirait un ice cream a-vec mon a-mi et moi Pour les big bon-das et les p'tits tar-ma ah ah ah ah ah</t>
         </is>
       </c>
     </row>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Dans Paris, c'est dans cette ville que je vis Je vis comme ça, sans faire trop de bruits J'ai une chambre de bonne, un canapé qui fait lit Sur le mur, j'ai accroché une photo de Bob Marley Comme ça, quand j'me réveille, j'me sens plus gai J'me prive, j'repense à l'époque où j'avais pas de quoi vivre J'économise, j'vais au cinéma, j'achète un livre J'vis dans une pièce, yes, moi ça m'suffit J'donne toujours une p'tite pièce aux gens qui mendient Qu'est-ce que t'en dis ? J'ai acheté des pâtes J't'invite à manger, c'est comme ça qu'je vis, moi ça m'fait kiffer Je vis comme ça, d'amour et d'humour Paris est redevenue Paris, c'est la rentrée, rien n'a changé Ici tout est gris, mais c'est la vie, les mêmes bouchons, les mêmes meufs, les mêmes soirées Et moi, toujours le même je suis resté Heureux avec rien dans la poche Tranquille, comme quand j'étais mioche Pourquoi maintenant j'aurais besoin d'tout ça ? Les Ferrari, les gros bateaux, etc ? Moi ma maman ne m'a pas élevé comme ça Vous vous moquez, vous dites qu'ma vie elle fait pitié Vous, les méchants qui vous croyez tout puissants Ma belle, de jour, je vis comme ça, d'humour et d'amour Un jour comme les autres jours, je poursuis mon parcours You might also like Quand les derniers seront les premiers Quand la prière sera exaucée Les dictateurs feront la queue à l'ANPE J'partage pour qu'tout l'monde en fasse autant J'm'engage pour la bonne cause de temps en temps A l'aise, de quoi manger et payer mon loyer J'me suis privé pour faire kiffer ceux que j'aime Du 18ème, de la Bohème What's my motherfuckin name ? Gynéco ! C'est un jour comme les autres jours, des enfants jouent dans la cour Un jour comme les autres jours, je poursuis mon parcours Je vis comme ça, d'amour et d'humour, je vis comme ça, ma belle, de jour</t>
+          <t>Dans Paris, c'est dans cette ville que je vis Je vis comme ça, sans faire trop de bruits J'ai une chambre de bonne, un canapé qui fait lit Sur le mur, j'ai accroché une photo de Bob Marley Comme ça, quand j'me réveille, j'me sens plus gai J'me prive, j'repense à l'époque où j'avais pas de quoi vivre J'économise, j'vais au cinéma, j'achète un livre J'vis dans une pièce, yes, moi ça m'suffit J'donne toujours une p'tite pièce aux gens qui mendient Qu'est-ce que t'en dis ? J'ai acheté des pâtes J't'invite à manger, c'est comme ça qu'je vis, moi ça m'fait kiffer Je vis comme ça, d'amour et d'humour Paris est redevenue Paris, c'est la rentrée, rien n'a changé Ici tout est gris, mais c'est la vie, les mêmes bouchons, les mêmes meufs, les mêmes soirées Et moi, toujours le même je suis resté Heureux avec rien dans la poche Tranquille, comme quand j'étais mioche Pourquoi maintenant j'aurais besoin d'tout ça ? Les Ferrari, les gros bateaux, etc ? Moi ma maman ne m'a pas élevé comme ça Vous vous moquez, vous dites qu'ma vie elle fait pitié Vous, les méchants qui vous croyez tout puissants Ma belle, de jour, je vis comme ça, d'humour et d'amour Un jour comme les autres jours, je poursuis mon parcours Quand les derniers seront les premiers Quand la prière sera exaucée Les dictateurs feront la queue à l'ANPE J'partage pour qu'tout l'monde en fasse autant J'm'engage pour la bonne cause de temps en temps A l'aise, de quoi manger et payer mon loyer J'me suis privé pour faire kiffer ceux que j'aime Du 18ème, de la Bohème What's my motherfuckin name ? Gynéco ! C'est un jour comme les autres jours, des enfants jouent dans la cour Un jour comme les autres jours, je poursuis mon parcours Je vis comme ça, d'amour et d'humour, je vis comme ça, ma belle, de jour</t>
         </is>
       </c>
     </row>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>T'as une féfé mais dessence t'es en manque Tu veux quitter la France mais ta peur qu'elle te manque Tu veux un yacht une villa faut que tu braques une banque Tu voles mais c'est pas de ta faute t'es un camé en manque Un costume derrière son bureau C'est moins flagrant un délit en col blanc Moins choquant Arrête de jouer à l'éthiopien Ici on meurt d'O.D jamais de faim J'crois que tu t'es fait serrer pour rien Le procureur a dit qu'il était mort pour rien Le dernier phone t'en avait pas besoin On a tous peur de manquer Accumuler au maximum pour se sécuriser On a tous peur de manquer Accumuler au maximum pour se sécuriser Hold up 9 chances sur 10 de se faire attraper Il a prit 20 ans mais il veut rester Il ne veut plus retourner dans la société Il n'arrive même plus à gouter la liberté Ça coûte cher mais comment je vais payer ? Il vaut 1000 et je gagne 2000 je le paye en 6 fois Mais y'a déjà 20 choses que j'achète en 10 fois Il y a des voleurs qui ne tuent pas Ils n'ont pas la main armée c'est du vol raffiné Gagner de façon démesurée eux aussi ils ont peur de manquer You might also like On a tous peur de manquer Accumuler au maximum pour se sécuriser On a tous peur de manquer Accumuler au maximum pour se sécuriser Vivre libre j'peux pas avoir de pression Kiffe chacune des mes chansons J'ai un forfait famille pour toute la maison Comment s'habiller comment manger La police fait sa ronde T'as peur de la vie dans ce monde Si on est 6 milliards une appli gratuite qui vaut 19 milliards Sache que rien n'est gratuit Le système est partout Pourquoi tu t'enfuis ? Une possibilité de sortir du temps Des moments à moi avec ma S à moi Du 20 ans d'âge comme R.E.M Je quitte lembouteillage On a tous peur de manquer Accumuler au maximum pour se sécuriser On a tous peur de manquer Accumuler au maximum pour se sécuriser On a tous peur de manquer Accumuler au maximum pour se sécuriser On a tous peur de manquer Accumuler au maximum pour se sécuriser On a tous peur de manquer On a tous peur de manquer On a tous peur de manquer</t>
+          <t>T'as une féfé mais dessence t'es en manque Tu veux quitter la France mais ta peur qu'elle te manque Tu veux un yacht une villa faut que tu braques une banque Tu voles mais c'est pas de ta faute t'es un camé en manque Un costume derrière son bureau C'est moins flagrant un délit en col blanc Moins choquant Arrête de jouer à l'éthiopien Ici on meurt d'O.D jamais de faim J'crois que tu t'es fait serrer pour rien Le procureur a dit qu'il était mort pour rien Le dernier phone t'en avait pas besoin On a tous peur de manquer Accumuler au maximum pour se sécuriser On a tous peur de manquer Accumuler au maximum pour se sécuriser Hold up 9 chances sur 10 de se faire attraper Il a prit 20 ans mais il veut rester Il ne veut plus retourner dans la société Il n'arrive même plus à gouter la liberté Ça coûte cher mais comment je vais payer ? Il vaut 1000 et je gagne 2000 je le paye en 6 fois Mais y'a déjà 20 choses que j'achète en 10 fois Il y a des voleurs qui ne tuent pas Ils n'ont pas la main armée c'est du vol raffiné Gagner de façon démesurée eux aussi ils ont peur de manquer On a tous peur de manquer Accumuler au maximum pour se sécuriser On a tous peur de manquer Accumuler au maximum pour se sécuriser Vivre libre j'peux pas avoir de pression Kiffe chacune des mes chansons J'ai un forfait famille pour toute la maison Comment s'habiller comment manger La police fait sa ronde T'as peur de la vie dans ce monde Si on est 6 milliards une appli gratuite qui vaut 19 milliards Sache que rien n'est gratuit Le système est partout Pourquoi tu t'enfuis ? Une possibilité de sortir du temps Des moments à moi avec ma S à moi Du 20 ans d'âge comme R.E.M Je quitte lembouteillage On a tous peur de manquer Accumuler au maximum pour se sécuriser On a tous peur de manquer Accumuler au maximum pour se sécuriser On a tous peur de manquer Accumuler au maximum pour se sécuriser On a tous peur de manquer Accumuler au maximum pour se sécuriser On a tous peur de manquer On a tous peur de manquer On a tous peur de manquer</t>
         </is>
       </c>
     </row>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Han han, Doc Gynécologue se lève Mes clientes en sont déjà au rouge à lèvres Mais pas de mouron, à l'ouverture je serais prêt, lavé Sonnez puis entrez s'il-vous-plaît, patientez J'enfile mes gants tachetés et ma blouse craquée Ma secrétaire flaire Le carnet d'rendez-vous m'a rendu fou Trop d'patientes, trop de paires de fesses Ça me hante, trop d'herpès Dis-moi, dis-moi, son infection sera-t-elle belle, belle, belle ? Le Docteur a peur, c'est con, mais bon, vais-je assurer ? Comment va se passer la Première, la Première, la Première Consultation ? La Première, la Première, la Première, la Première, la Première, la Première Consultation La Première, la Première, la Première, la Première Consultation De peur de s'faire fouetter puis, au bled, réexpédiées Certaines veulent me forcer à falsifier mes certificats de virginité Elles savent que tout peut s'négocier Des malades imaginaires de 70 ans me font perdre mon temps Des fois, j'me crois dans la brousse au Viêt Nam Alors comme les cainris, j'opère au napalm sur ces dames Glisse ma langue et ma lame Des maris jaloux accompagnent leurs femmes J'suis donc obligé de travailler avec doigté et subtilité mais... Comme les sadiques, j'adore être regardé, ouais Je travaille où d'autres s'amusent You might also like La Première, la Première, la Première, la Première, la Première, la Première Consultation La Première, la Première, la Première, la Première Consultation Je prescris du mycoloque et des Duphastons Une patiente me fait remarquer que mon spéculum est rouillé Frotti Frotta j'ai fini le taff Des patientes que j'ai loupées, j'me méfie, je fais gaffe Je rentre chez moi, ma femme m'a fait des moules-frites Pourquoi, comme lui a dit monsieur Mari, elle a mis des habits sexy ? Le devoir conjugal, ça suffit J'ai fini de travailler et doit recommencer Je travaille où d'autres s'amusent Peut-être que j'abuse en tout cas j'accuse Toutes celles qui dans mon cabinet s'amusent C'était la Première, la Première, la Première Consultation La Première, la Première, la Première, la Première, la Première, la Première Consultation La Première, la Première, la Première, la Première Consultation Attention, attention, ne confondons pas. Est-ce que ça vous chatouille ou est-ce que ça vous gratouille ?</t>
+          <t>Han han, Doc Gynécologue se lève Mes clientes en sont déjà au rouge à lèvres Mais pas de mouron, à l'ouverture je serais prêt, lavé Sonnez puis entrez s'il-vous-plaît, patientez J'enfile mes gants tachetés et ma blouse craquée Ma secrétaire flaire Le carnet d'rendez-vous m'a rendu fou Trop d'patientes, trop de paires de fesses Ça me hante, trop d'herpès Dis-moi, dis-moi, son infection sera-t-elle belle, belle, belle ? Le Docteur a peur, c'est con, mais bon, vais-je assurer ? Comment va se passer la Première, la Première, la Première Consultation ? La Première, la Première, la Première, la Première, la Première, la Première Consultation La Première, la Première, la Première, la Première Consultation De peur de s'faire fouetter puis, au bled, réexpédiées Certaines veulent me forcer à falsifier mes certificats de virginité Elles savent que tout peut s'négocier Des malades imaginaires de 70 ans me font perdre mon temps Des fois, j'me crois dans la brousse au Viêt Nam Alors comme les cainris, j'opère au napalm sur ces dames Glisse ma langue et ma lame Des maris jaloux accompagnent leurs femmes J'suis donc obligé de travailler avec doigté et subtilité mais... Comme les sadiques, j'adore être regardé, ouais Je travaille où d'autres s'amusent La Première, la Première, la Première, la Première, la Première, la Première Consultation La Première, la Première, la Première, la Première Consultation Je prescris du mycoloque et des Duphastons Une patiente me fait remarquer que mon spéculum est rouillé Frotti Frotta j'ai fini le taff Des patientes que j'ai loupées, j'me méfie, je fais gaffe Je rentre chez moi, ma femme m'a fait des moules-frites Pourquoi, comme lui a dit monsieur Mari, elle a mis des habits sexy ? Le devoir conjugal, ça suffit J'ai fini de travailler et doit recommencer Je travaille où d'autres s'amusent Peut-être que j'abuse en tout cas j'accuse Toutes celles qui dans mon cabinet s'amusent C'était la Première, la Première, la Première Consultation La Première, la Première, la Première, la Première, la Première, la Première Consultation La Première, la Première, la Première, la Première Consultation Attention, attention, ne confondons pas. Est-ce que ça vous chatouille ou est-ce que ça vous gratouille ?</t>
         </is>
       </c>
     </row>
@@ -1738,7 +1738,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Je t'attends, ouais je t'attends, je t'attends Je t'attends, ouais je t'attends, je t'attends J'embrasse une grenouille et elle devient princesse Elle vérifie si je regarde YouPorn, des histoires de fesses ça pue Critique ce que j'mange sans cesse Décide d toutes les destinations d toute les vacances De mes fréquentations, veux entendre c'que je pense Elle n'est pas enceinte, elle écoute sans enceinte J'suis le prince charmant c'est qui ce mec J'suis le prince charmant, auquel tu n'crois plus J'suis le prince charmant c'est qui ce mec Moderne avec des histoires de What you talk about ça pue What you talk about J'suis le prince charmant What you talk about auquel tu n'crois plus What you talk about Je t'attends, ouais je t'attends, je t'attends J'aimerais trouver quelqu'un avec tout partager Je t'attends, ouais je t'attends, je t'attends J'aimerais trouver quelqu'un avec tout partager Oui tout l'temps, Oui tout l'temps Je t'attends, j'aimerais trouver quelqu'un avec tout partager Tu couches avec lui mais c'est mon nom qu'tu cries, oui tout l'temps Elle veut du soleil, conduire mon auto J'ai une maison avec squat au bord de l'eau Partir même sans valise en vacances Quand j'y pense, quitter la France Ma marque sur la ficelle vue imprenable, sur le point prenable Ça fait des étincelles, la sucette n'a plus un gout d'anis Parce qu'avec moi c'est après quand elle a finit You might also likeJe t'attends, ouais je t'attends, je t'attends J'aimerais trouver quelqu'un avec tout partager Je t'attends, ouais je t'attends, je t'attends J'aimerais trouver quelqu'un avec tout partager Oui tout l'temps, Oui tout l'temps Je t'attends, j'aimerais trouver quelqu'un avec tout partager Je t'attends, ouais je t'attends Tu couche avec lui mais c'est mon nom qu'tu cries Oui tout l'temps, je t'attends, je t'attends, je t'attends Ouais je t'attends, oui tout l'temps je t'attends ça pue J'suis le prince charmant Ouais je t'attends, j'suis le prince charmant, j'suis le prince charmant</t>
+          <t>Je t'attends, ouais je t'attends, je t'attends Je t'attends, ouais je t'attends, je t'attends J'embrasse une grenouille et elle devient princesse Elle vérifie si je regarde YouPorn, des histoires de fesses ça pue Critique ce que j'mange sans cesse Décide d toutes les destinations d toute les vacances De mes fréquentations, veux entendre c'que je pense Elle n'est pas enceinte, elle écoute sans enceinte J'suis le prince charmant c'est qui ce mec J'suis le prince charmant, auquel tu n'crois plus J'suis le prince charmant c'est qui ce mec Moderne avec des histoires de What you talk about ça pue What you talk about J'suis le prince charmant What you talk about auquel tu n'crois plus What you talk about Je t'attends, ouais je t'attends, je t'attends J'aimerais trouver quelqu'un avec tout partager Je t'attends, ouais je t'attends, je t'attends J'aimerais trouver quelqu'un avec tout partager Oui tout l'temps, Oui tout l'temps Je t'attends, j'aimerais trouver quelqu'un avec tout partager Tu couches avec lui mais c'est mon nom qu'tu cries, oui tout l'temps Elle veut du soleil, conduire mon auto J'ai une maison avec squat au bord de l'eau Partir même sans valise en vacances Quand j'y pense, quitter la France Ma marque sur la ficelle vue imprenable, sur le point prenable Ça fait des étincelles, la sucette n'a plus un gout d'anis Parce qu'avec moi c'est après quand elle a finit Je t'attends, ouais je t'attends, je t'attends J'aimerais trouver quelqu'un avec tout partager Je t'attends, ouais je t'attends, je t'attends J'aimerais trouver quelqu'un avec tout partager Oui tout l'temps, Oui tout l'temps Je t'attends, j'aimerais trouver quelqu'un avec tout partager Je t'attends, ouais je t'attends Tu couche avec lui mais c'est mon nom qu'tu cries Oui tout l'temps, je t'attends, je t'attends, je t'attends Ouais je t'attends, oui tout l'temps je t'attends ça pue J'suis le prince charmant Ouais je t'attends, j'suis le prince charmant, j'suis le prince charmant</t>
         </is>
       </c>
     </row>
@@ -1755,7 +1755,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Respect à tous, sauf aux te-trai Respect à tous ceux qui ont grandit dans l'18 Et fait l'école rue Charles Hermite Respect aux p'tits, respect aux grands Respect aux jeunes, respect aux vieux Et à tout ceux qui sont pas tombés d'dans Respect aux parents, aux sportifs, aux étudiants Respect aussi à ceux qui envoient des mandats Ceux qui m'ont soutenus quand j'avais que dalle Là, ma rue était sale et j'crevais la dalle Des heures entières dans l'escalier Golri, fumer, manger c'qu'on a taper Et rappuyer sur la minuterie Faut que j'm'arrache avant qu'ma mère arrive Jouer aux rebelles rue La Chapelle ... Mais obligé d'faire la vaisselle Et pour mettre un terme ... Respect à tous ceux qui la ferment Ni vu ni connu, rien vu rien entendu Tranquille, pépère, j'fais mes affaires J'me ferai pas lire dans les faits divers Overdose de sales histoires Lui aussi c'est un gentil, j'peux pas te croire Quand j'jouais au foot au Boulevard Ney Et puis en club à Championnet J'fumerai jamais, c'est c'que j'disais Première division dans le district Fallait être physique Car dans ma rue c'était strict Dans l'18ème, à Porte de La Chapelle J'vais m'endormir devant Histoires Naturelles You might also like A tous, à ceux qui ont fait un stage au 23ème étage Et avec moi, siroté du 12 ans d'âge Tous les voisins avaient la rage Y'avait des lions en cage A trop fumer, ça sentait l'shit sur le palier Même trop d'balances, même trop d'jaloux Causent des problèmes mais même si Même si j'suis fou, moi je viens d'où ? De Paris 18ème D'un quartier éternel nommé Porte de La Chapelle D'un quartier éternel nommé Porte de La Chapelle</t>
+          <t>Respect à tous, sauf aux te-trai Respect à tous ceux qui ont grandit dans l'18 Et fait l'école rue Charles Hermite Respect aux p'tits, respect aux grands Respect aux jeunes, respect aux vieux Et à tout ceux qui sont pas tombés d'dans Respect aux parents, aux sportifs, aux étudiants Respect aussi à ceux qui envoient des mandats Ceux qui m'ont soutenus quand j'avais que dalle Là, ma rue était sale et j'crevais la dalle Des heures entières dans l'escalier Golri, fumer, manger c'qu'on a taper Et rappuyer sur la minuterie Faut que j'm'arrache avant qu'ma mère arrive Jouer aux rebelles rue La Chapelle ... Mais obligé d'faire la vaisselle Et pour mettre un terme ... Respect à tous ceux qui la ferment Ni vu ni connu, rien vu rien entendu Tranquille, pépère, j'fais mes affaires J'me ferai pas lire dans les faits divers Overdose de sales histoires Lui aussi c'est un gentil, j'peux pas te croire Quand j'jouais au foot au Boulevard Ney Et puis en club à Championnet J'fumerai jamais, c'est c'que j'disais Première division dans le district Fallait être physique Car dans ma rue c'était strict Dans l'18ème, à Porte de La Chapelle J'vais m'endormir devant Histoires Naturelles A tous, à ceux qui ont fait un stage au 23ème étage Et avec moi, siroté du 12 ans d'âge Tous les voisins avaient la rage Y'avait des lions en cage A trop fumer, ça sentait l'shit sur le palier Même trop d'balances, même trop d'jaloux Causent des problèmes mais même si Même si j'suis fou, moi je viens d'où ? De Paris 18ème D'un quartier éternel nommé Porte de La Chapelle D'un quartier éternel nommé Porte de La Chapelle</t>
         </is>
       </c>
     </row>
@@ -1772,7 +1772,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Quoi qu'ils pensent ou disent Ne les écoute pas Quoi qu'ils pensent ou disent Il n'y a que toi pour moi Ils veulent te voir tomber Qu'entre nous ce soit terminé Ils veulent te voir pleurer Mais notre amour est sacré Ils disent que t'as changé Qu'à trop m'aimer ça va t'tuer Ils disent qu'ils sont tes amis Que ton p'tit cur, je l'ai tout pris Quoi qu'ils pensent ou disent Ne les écoute pas Quoi qu'ils pensent ou disent Il n'y a qu toi pour moi Ils savent te faire doutr Fais-moi confiance, fidélité Ils savent des choses sur ton passé Moi j'ai juste envie de t'aimer Ils doivent être dégoûtés On va tenir de longues années Ils n'ont rien compris Ils renforcent notre amour You might also like Quoi qu'ils pensent ou disent Ne les écoute pas Quoi qu'ils pensent ou disent Il n'y a que toi pour moi</t>
+          <t>Quoi qu'ils pensent ou disent Ne les écoute pas Quoi qu'ils pensent ou disent Il n'y a que toi pour moi Ils veulent te voir tomber Qu'entre nous ce soit terminé Ils veulent te voir pleurer Mais notre amour est sacré Ils disent que t'as changé Qu'à trop m'aimer ça va t'tuer Ils disent qu'ils sont tes amis Que ton p'tit cur, je l'ai tout pris Quoi qu'ils pensent ou disent Ne les écoute pas Quoi qu'ils pensent ou disent Il n'y a qu toi pour moi Ils savent te faire doutr Fais-moi confiance, fidélité Ils savent des choses sur ton passé Moi j'ai juste envie de t'aimer Ils doivent être dégoûtés On va tenir de longues années Ils n'ont rien compris Ils renforcent notre amour Quoi qu'ils pensent ou disent Ne les écoute pas Quoi qu'ils pensent ou disent Il n'y a que toi pour moi</t>
         </is>
       </c>
     </row>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Impression.. Impressionnisme.. Prends ton pinceau et crée la beauté comme Monnet Affine ton trait, même si ça n'peut rien t'apporter Observe la nature, tout est déjà là De l'égoïsme de papa à la survie de mama Tu n'te trompes pas quand tu dis l'enfer c'est les autres Mais tu es aussi l'autre pour un autre Donc apprends à marcher doucement sur la terre Sous chacun d'tes pas y'a plus de vie qu'dans tes artères Ils veulent tous leur nom en haut de l'affiche Elles veulent toutes leur sac Dior quand elles s'affichent Elle s'en fiche que sa copine divorce avec deux enfants en bas âge Tant qu'elle garde la maison et le compte blindé quand elle voyage De toute façon les nounous s'occuperont du reste Pendant qu'elle ira tapiner à Budapest La voûte céleste n'est là que pour ceux qui lèvent la tête On n'touche pas les étoiles avec la semelle de ses baskets Les gros culs twerkent sur Instagram, le clocher brûle de Notre-Dame Le Quartier Rouge dAmsterdam sert toujours des Croques-madame Les hommes sont contents même si ils sont perdus Ils noient leur solitude dans l'alcool et les histoires de cul Auguste Rodin a sculpté la beauté, certains Parisiens ont su garder leur sensualité L'uvre d'une vie beaucoup l'envie mais n'ont pas envie des à-côtés qui envahissent la vie C'est normal, on ne cherche que le plaisir dans ces villes de grande solitude remplies de certitudes et de similitudes Je vous laisse la renommée.. je ne garde que l'expérience You might also like Écoute, observe.. parle-moi.. Écoute, observe.. parle mieux Ils ont contracté la jalousie à la naissance Elle ne supporte plus les plus belles qu'elle depuis l'adolescence Ne connait de la France que l'Amérique pas la Renaissance En colonie d'vacances on ne lui a pas dit qu'elle venait d'une colonie de France La, Si, La, Sol, la pièce rapportée devenue folle Elle est du village mais elle veut une villa N6 Chanel N5, je n'suis pas du village Tous rêvent d'être dans la villa, grossière et vulgaire pour son âge Il était une fois, combien il y a, comme Viard Jalouse J'ai amené Charlotte à la maison du caviar Pourtant célibataire, il n'y a plus qu'moi qui est l'esprit d'famille C'est toi qui fait partie de notre famille J'aime les mondains, le bureau, le terrain Elle me demande pourquoi ne n'dis jamais du mal des autres Je n'y avait pas pensé, ce n'est pas ma culture, l'enfer c'est vous autres Elle aime voir les gens souffrirent, pour elle ça veut dire qu'elle va s'en sortir C'est comme s'il était de l'OM et il voudrait que Marseille perde Ils parient pour Paris, ils parient contre eux-mêmes les rageurs Squat à monté un festival pour aider le Brésil des favels C'est pas vrai dit le jaloux, il fait ça pour les sous, en plus ils sont gays avec Doc, wallah c'est vrai Elle pense que l'mal rapporte plus que l'bien Et c'est avec sa jalousie qu'elle veut sauver les siens ? Elle déteste qu'on n'la calcule pas.. Écoute, observe.. parle-moi.. Écoute, observe.. parle mieux X2 Elle déteste qu'on n'la calcule pas Mais pourquoi tu n'la regardes pas ?</t>
+          <t>Impression.. Impressionnisme.. Prends ton pinceau et crée la beauté comme Monnet Affine ton trait, même si ça n'peut rien t'apporter Observe la nature, tout est déjà là De l'égoïsme de papa à la survie de mama Tu n'te trompes pas quand tu dis l'enfer c'est les autres Mais tu es aussi l'autre pour un autre Donc apprends à marcher doucement sur la terre Sous chacun d'tes pas y'a plus de vie qu'dans tes artères Ils veulent tous leur nom en haut de l'affiche Elles veulent toutes leur sac Dior quand elles s'affichent Elle s'en fiche que sa copine divorce avec deux enfants en bas âge Tant qu'elle garde la maison et le compte blindé quand elle voyage De toute façon les nounous s'occuperont du reste Pendant qu'elle ira tapiner à Budapest La voûte céleste n'est là que pour ceux qui lèvent la tête On n'touche pas les étoiles avec la semelle de ses baskets Les gros culs twerkent sur Instagram, le clocher brûle de Notre-Dame Le Quartier Rouge dAmsterdam sert toujours des Croques-madame Les hommes sont contents même si ils sont perdus Ils noient leur solitude dans l'alcool et les histoires de cul Auguste Rodin a sculpté la beauté, certains Parisiens ont su garder leur sensualité L'uvre d'une vie beaucoup l'envie mais n'ont pas envie des à-côtés qui envahissent la vie C'est normal, on ne cherche que le plaisir dans ces villes de grande solitude remplies de certitudes et de similitudes Je vous laisse la renommée.. je ne garde que l'expérience Écoute, observe.. parle-moi.. Écoute, observe.. parle mieux Ils ont contracté la jalousie à la naissance Elle ne supporte plus les plus belles qu'elle depuis l'adolescence Ne connait de la France que l'Amérique pas la Renaissance En colonie d'vacances on ne lui a pas dit qu'elle venait d'une colonie de France La, Si, La, Sol, la pièce rapportée devenue folle Elle est du village mais elle veut une villa N6 Chanel N5, je n'suis pas du village Tous rêvent d'être dans la villa, grossière et vulgaire pour son âge Il était une fois, combien il y a, comme Viard Jalouse J'ai amené Charlotte à la maison du caviar Pourtant célibataire, il n'y a plus qu'moi qui est l'esprit d'famille C'est toi qui fait partie de notre famille J'aime les mondains, le bureau, le terrain Elle me demande pourquoi ne n'dis jamais du mal des autres Je n'y avait pas pensé, ce n'est pas ma culture, l'enfer c'est vous autres Elle aime voir les gens souffrirent, pour elle ça veut dire qu'elle va s'en sortir C'est comme s'il était de l'OM et il voudrait que Marseille perde Ils parient pour Paris, ils parient contre eux-mêmes les rageurs Squat à monté un festival pour aider le Brésil des favels C'est pas vrai dit le jaloux, il fait ça pour les sous, en plus ils sont gays avec Doc, wallah c'est vrai Elle pense que l'mal rapporte plus que l'bien Et c'est avec sa jalousie qu'elle veut sauver les siens ? Elle déteste qu'on n'la calcule pas.. Écoute, observe.. parle-moi.. Écoute, observe.. parle mieux X2 Elle déteste qu'on n'la calcule pas Mais pourquoi tu n'la regardes pas ?</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Heureusement qu'c'est Gynéco qui garde un il sur vous Pour la famille, il est au garde-à-vous Mais Bruno, devant la femme, est à genoux Moitié-homme, moitié-enfant Je vous appellerai toutes Maman ! ... Je vous appellerai toutes Maman ! Oui, star, car rien à vendre, son entourage c'est sa famille Et t'as pas l'âge pour l'comprendre Moi j'avance seul ou bien accompagné J'te mets sur or... bite, ma couille Relation textuelle Sur la rive gauche du côté de chez elle Coopération si précise Mademoiselle, c'est une belle prise Une pensée à ceux qui n'reviendront pas Ça, c'est ma lettre à la fille de Saint-Germain Y'a trop d'histoires inventées à son sujet Rue Mazarine, je n't'abandonnerai jamais Moi j'étais prêt, malgré la jeunesse Puis j'ai mûri, été lu dans la presse Et quand on aime, on n'compte pas Et pour elle, je fais le premier pas Même qu'offrir des choses aux femmes c'est leur dire Je t'aime Les femmes aiment des choses, les choses de l'amour Les femmes aiment les choses et que j'leur fasse la cour A détraquer le système optique On va finir par l'faire remarquer Je suis une star, même avec un stick Enfin la guerre, finie la paix Grâce aux télés, aux magazines J'ai plein de copains, oui, mais ... Ma vraie copine, c'est Mazarine You might also like Heureusement qu'c'est Gynéco qui garde un il sur vous Pour la famille, il est au garde-à-vous Mais Bruno, devant la femme, est à genoux Moitié-homme, moitié-enfant Je vous appellerai toutes Maman ! ... Je vous appellerai toutes Maman ! Femmes des années 80 ou femmes des années 2000 Avec ta perception, tu mettras toujours dans l'mil J'ai une identité nouvelle pour les femelles Au dessus des yeux, un peu d'rimmel Que les hommes soient seuls ou en commun Moi je préfère la vie au féminin Alors à tous ces mecs, tous ces débiles Qui pensent qu'une femme de dos, c'est son profil Tout c'que j'dis, c'est confidentiel Alors mesdames, secret professionnel L'illusion des unes fait la couleur des autres Réinventer l'temps, dans la lumière et ses mouvements J'ai lil face au passé Et des choses, il s'en est passé Mesdemoiselles, rendez-moi mon innocence On n'm'a plus vu depuis l'Empire des Sens J'en ai marre de traîner pour faire le mal Lady, quand reviendras-tu ? Dis bébé, au moins le sais-tu ? Heureusement qu'c'est Gynéco qui garde un il sur vous Pour la famille, il est au garde-à-vous Mais Bruno, devant la femme, est à genoux Moitié-homme, moitié-enfant Je vous appellerai toutes Maman ! ... Je vous appellerai toutes Maman !1</t>
+          <t>Heureusement qu'c'est Gynéco qui garde un il sur vous Pour la famille, il est au garde-à-vous Mais Bruno, devant la femme, est à genoux Moitié-homme, moitié-enfant Je vous appellerai toutes Maman ! ... Je vous appellerai toutes Maman ! Oui, star, car rien à vendre, son entourage c'est sa famille Et t'as pas l'âge pour l'comprendre Moi j'avance seul ou bien accompagné J'te mets sur or... bite, ma couille Relation textuelle Sur la rive gauche du côté de chez elle Coopération si précise Mademoiselle, c'est une belle prise Une pensée à ceux qui n'reviendront pas Ça, c'est ma lettre à la fille de Saint-Germain Y'a trop d'histoires inventées à son sujet Rue Mazarine, je n't'abandonnerai jamais Moi j'étais prêt, malgré la jeunesse Puis j'ai mûri, été lu dans la presse Et quand on aime, on n'compte pas Et pour elle, je fais le premier pas Même qu'offrir des choses aux femmes c'est leur dire Je t'aime Les femmes aiment des choses, les choses de l'amour Les femmes aiment les choses et que j'leur fasse la cour A détraquer le système optique On va finir par l'faire remarquer Je suis une star, même avec un stick Enfin la guerre, finie la paix Grâce aux télés, aux magazines J'ai plein de copains, oui, mais ... Ma vraie copine, c'est Mazarine Heureusement qu'c'est Gynéco qui garde un il sur vous Pour la famille, il est au garde-à-vous Mais Bruno, devant la femme, est à genoux Moitié-homme, moitié-enfant Je vous appellerai toutes Maman ! ... Je vous appellerai toutes Maman ! Femmes des années 80 ou femmes des années 2000 Avec ta perception, tu mettras toujours dans l'mil J'ai une identité nouvelle pour les femelles Au dessus des yeux, un peu d'rimmel Que les hommes soient seuls ou en commun Moi je préfère la vie au féminin Alors à tous ces mecs, tous ces débiles Qui pensent qu'une femme de dos, c'est son profil Tout c'que j'dis, c'est confidentiel Alors mesdames, secret professionnel L'illusion des unes fait la couleur des autres Réinventer l'temps, dans la lumière et ses mouvements J'ai lil face au passé Et des choses, il s'en est passé Mesdemoiselles, rendez-moi mon innocence On n'm'a plus vu depuis l'Empire des Sens J'en ai marre de traîner pour faire le mal Lady, quand reviendras-tu ? Dis bébé, au moins le sais-tu ? Heureusement qu'c'est Gynéco qui garde un il sur vous Pour la famille, il est au garde-à-vous Mais Bruno, devant la femme, est à genoux Moitié-homme, moitié-enfant Je vous appellerai toutes Maman ! ... Je vous appellerai toutes Maman !1</t>
         </is>
       </c>
     </row>
@@ -1823,7 +1823,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Depuis qu'j'ai signé, je n'peux plus respirer On m'prend pour Crésus, on croit que j'suis blindé Oui j'fais d'la musique, ça rime avec fric, mais il y a un hic euuuh... Plus on m'donne des avances et plus j'les dépense Chèque déposé, aussitôt retiré Avec mon banquier, c'est la guerre J'suis à découvert depuis des millénaires Interdit d'chéquier, je n'ai plus d'carte bancaire Soit j'fais du rap ou je dérape Et j'vends l'réverbère dans la rue sous l'lampadaire Quand j'ouvre mon frigidaire, ça fait des courants d'air Les portes claquent, et mon ventre n'est pas dac' Plus rien à manger depuis le mois de juillet J'ai connu la faim et le froid en été Eddie Barclay ne m'a pas invité dans sa super soirée sur la côte cette été Je suis resté à la cité Si tu crois qu'je pèze, que j'habite dans l'16 Que je n'mange plus d'guez et que j'suis à l'aise Tu crois qu'je pèze, que j'habite dans l'16 Que je n'mange plus d'guez et que j'suis à l'aise You might also like Pour la femme d'affaires, je suis une bonne affaire Elle veut se marier, qu'on fasse des bébés Me manager et tout contrôler Elle me parle de points, de c'que j'vais gagner J'laisse tomber, la fille branchée me fait triper Elle s'habille chez XULY.Bët et fume des gros pét' Elle me parle de Dollita et boit d'la Corona Elle écoute mes morceaux et les trouve excellents Elle dit que ça l'fait, mais où est l'argent ? À la fille du quartier, de me maltraiter J'veux qu'tu m'achètes de l'or, j'veux rouler dehors J'en ai marre des transports, fini les corps-à-corps Où sont tes disques d'or ? Bruno, quitte le nord Aïe, aïe, aïe, aïe, aïe... Si tu crois qu'je pèze, que j'habite dans l'16 Que je n'mange plus d'guez et que j'suis à l'aise Tu crois qu'je pèze, que j'habite dans l'16 Que je n'mange plus d'guez et que j'suis à l'aise Album bouclé, promo lancée Que va-t-il se passer ? Est-ce que ça va marcher ? Je suis assis sur un siège éjectable Tout ça devient très inconfortable Où sont mes vrais ennemis ? Qui sont mes faux amis ? Dans ce drôle de biz, où les mecs se font la bise Dans ce drôle de showbiz qui n'subit jamais la crise On reprend mon contrat à coup d'avocat C'est Doc Junior contre Big Major J'ai tout perdu mais il me reste la rue Elle ne peut me trahir car je sais m'en servir Fini les studios, adieu les photos Plus personne aime le Doc Gyneco Retour dans l'ghetto, dans l'quartier le plus chaud ! Si tu crois qu'je pèze, que j'habite dans l'16 Que je n'mange plus d'guez et que j'suis à l'aise Tu crois qu'je pèze, que j'habite dans l'16 Que je n'mange plus d'guez et que j'suis à l'aise</t>
+          <t>Depuis qu'j'ai signé, je n'peux plus respirer On m'prend pour Crésus, on croit que j'suis blindé Oui j'fais d'la musique, ça rime avec fric, mais il y a un hic euuuh... Plus on m'donne des avances et plus j'les dépense Chèque déposé, aussitôt retiré Avec mon banquier, c'est la guerre J'suis à découvert depuis des millénaires Interdit d'chéquier, je n'ai plus d'carte bancaire Soit j'fais du rap ou je dérape Et j'vends l'réverbère dans la rue sous l'lampadaire Quand j'ouvre mon frigidaire, ça fait des courants d'air Les portes claquent, et mon ventre n'est pas dac' Plus rien à manger depuis le mois de juillet J'ai connu la faim et le froid en été Eddie Barclay ne m'a pas invité dans sa super soirée sur la côte cette été Je suis resté à la cité Si tu crois qu'je pèze, que j'habite dans l'16 Que je n'mange plus d'guez et que j'suis à l'aise Tu crois qu'je pèze, que j'habite dans l'16 Que je n'mange plus d'guez et que j'suis à l'aise Pour la femme d'affaires, je suis une bonne affaire Elle veut se marier, qu'on fasse des bébés Me manager et tout contrôler Elle me parle de points, de c'que j'vais gagner J'laisse tomber, la fille branchée me fait triper Elle s'habille chez XULY.Bët et fume des gros pét' Elle me parle de Dollita et boit d'la Corona Elle écoute mes morceaux et les trouve excellents Elle dit que ça l'fait, mais où est l'argent ? À la fille du quartier, de me maltraiter J'veux qu'tu m'achètes de l'or, j'veux rouler dehors J'en ai marre des transports, fini les corps-à-corps Où sont tes disques d'or ? Bruno, quitte le nord Aïe, aïe, aïe, aïe, aïe... Si tu crois qu'je pèze, que j'habite dans l'16 Que je n'mange plus d'guez et que j'suis à l'aise Tu crois qu'je pèze, que j'habite dans l'16 Que je n'mange plus d'guez et que j'suis à l'aise Album bouclé, promo lancée Que va-t-il se passer ? Est-ce que ça va marcher ? Je suis assis sur un siège éjectable Tout ça devient très inconfortable Où sont mes vrais ennemis ? Qui sont mes faux amis ? Dans ce drôle de biz, où les mecs se font la bise Dans ce drôle de showbiz qui n'subit jamais la crise On reprend mon contrat à coup d'avocat C'est Doc Junior contre Big Major J'ai tout perdu mais il me reste la rue Elle ne peut me trahir car je sais m'en servir Fini les studios, adieu les photos Plus personne aime le Doc Gyneco Retour dans l'ghetto, dans l'quartier le plus chaud ! Si tu crois qu'je pèze, que j'habite dans l'16 Que je n'mange plus d'guez et que j'suis à l'aise Tu crois qu'je pèze, que j'habite dans l'16 Que je n'mange plus d'guez et que j'suis à l'aise</t>
         </is>
       </c>
     </row>
@@ -1840,7 +1840,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Yeah, Whats up ? Its Daz Dillinger from the D.P.G., Dogg Pound in the house, we chilling with Doc Be brother soul with the french, you know what I mean ? We go kicking and chilling and have a real good time... Je vais foutre que dalle si je reste seul La ville s'emballe mais je reste seul Faut suivre la mode les boites, les files de bagnoles De plus en plus seul devant mon verre d'alcool... Je dois faire semblant dêtre heureux et faire des textes joyeux Faire kiffer les gens de 7 à 77 ans Moi dans la vie je reste seul, indépendant... Tes qu'obligé d'écouter les couplets Si tes pressé jvais tfaire ton refrain préféré Je métais marié avec le public Je voulais chanter des problèmes politiques Aider la vie avec ma musique Cque tu attends, cque tu ressens Cest cque je milite x2 Hey boy, t'es tellement seul ce soir Hey boy, tu peux compter sur moi what's up, yo? Hey boy, t'es tellement seul ce soir Je me sens seul Personne à aimer ni à appeler Tu peux compter sur moi You might also like I took fighters friends to makeem jump up To makeem, were gonna dance, man Who wanna come in ? To promise, to promise, to promise that Im coming back A free world where the soul about peace who got my back Wave your hands today, Write, Black, Green whatever that you do Sing a rap with that Its Dogg Pound, D.P.G., D.A.Z., just call me Dillinger Glad that you made it, the whole, where I was expecting clap your hands, and stamp your feet, and get ill with it The way that we party, you know we stay real with it My man Doc's, got me up and put me on a block Stop, , party dont stop ! x2 Hey boy, t'es tellement seul ce soir Hey boy, tu peux compter sur moi Hey boy, t'es tellement seul ce soir Je me sens seul Personne à aimer, ni à appeler Tu peux compter sur moi J'ai commencé par écrire et jai chanté Jamais, jamais, jaurais cru rapporter du blé Je me suis fait arnaquer mais vous savez Que le plus important cest que le message est passé Première Consultation , Liaisons , Quality Street De l'amour à donner, du papier à brûler Chacun son truc, je connais mon rayon Jai juste besoin dune feuille et dun crayon Ce qu'il y a de plus dur à faire mener une vie honnête Etre un rebelle mais toujours droit dans sa tête La rap hardcore ça mimpressionne pas Je kiffe sur le travailleur qui élève sa mi-fa Sur le scar-la quachète une maison à sa mama Tu sais ce que jattend Tu sais ce que jressens J'me sens seul, tellement seul... Personne à rappeler Je suis seul, solitaire, j'pourrais pleurer Dogg Pound in the house, we chilling with Doc Be brother soul with the french, you know what I mean ? x2 Hey boy, t'es tellement seul ce soir Hey boy, tu peux compter sur moi Hey boy, t'es tellement seul ce soir Je me sens seul Personne à aimer ni à appeler Tu peux compter sur moi Aidez moi Aidez moi Aidez moi La musique ne ment pas Aidez moi Si je tombe je peux compter sur toi Aidez moi Aidez moi...1</t>
+          <t>Yeah, Whats up ? Its Daz Dillinger from the D.P.G., Dogg Pound in the house, we chilling with Doc Be brother soul with the french, you know what I mean ? We go kicking and chilling and have a real good time... Je vais foutre que dalle si je reste seul La ville s'emballe mais je reste seul Faut suivre la mode les boites, les files de bagnoles De plus en plus seul devant mon verre d'alcool... Je dois faire semblant dêtre heureux et faire des textes joyeux Faire kiffer les gens de 7 à 77 ans Moi dans la vie je reste seul, indépendant... Tes qu'obligé d'écouter les couplets Si tes pressé jvais tfaire ton refrain préféré Je métais marié avec le public Je voulais chanter des problèmes politiques Aider la vie avec ma musique Cque tu attends, cque tu ressens Cest cque je milite x2 Hey boy, t'es tellement seul ce soir Hey boy, tu peux compter sur moi what's up, yo? Hey boy, t'es tellement seul ce soir Je me sens seul Personne à aimer ni à appeler Tu peux compter sur moi I took fighters friends to makeem jump up To makeem, were gonna dance, man Who wanna come in ? To promise, to promise, to promise that Im coming back A free world where the soul about peace who got my back Wave your hands today, Write, Black, Green whatever that you do Sing a rap with that Its Dogg Pound, D.P.G., D.A.Z., just call me Dillinger Glad that you made it, the whole, where I was expecting clap your hands, and stamp your feet, and get ill with it The way that we party, you know we stay real with it My man Doc's, got me up and put me on a block Stop, , party dont stop ! x2 Hey boy, t'es tellement seul ce soir Hey boy, tu peux compter sur moi Hey boy, t'es tellement seul ce soir Je me sens seul Personne à aimer, ni à appeler Tu peux compter sur moi J'ai commencé par écrire et jai chanté Jamais, jamais, jaurais cru rapporter du blé Je me suis fait arnaquer mais vous savez Que le plus important cest que le message est passé Première Consultation , Liaisons , Quality Street De l'amour à donner, du papier à brûler Chacun son truc, je connais mon rayon Jai juste besoin dune feuille et dun crayon Ce qu'il y a de plus dur à faire mener une vie honnête Etre un rebelle mais toujours droit dans sa tête La rap hardcore ça mimpressionne pas Je kiffe sur le travailleur qui élève sa mi-fa Sur le scar-la quachète une maison à sa mama Tu sais ce que jattend Tu sais ce que jressens J'me sens seul, tellement seul... Personne à rappeler Je suis seul, solitaire, j'pourrais pleurer Dogg Pound in the house, we chilling with Doc Be brother soul with the french, you know what I mean ? x2 Hey boy, t'es tellement seul ce soir Hey boy, tu peux compter sur moi Hey boy, t'es tellement seul ce soir Je me sens seul Personne à aimer ni à appeler Tu peux compter sur moi Aidez moi Aidez moi Aidez moi La musique ne ment pas Aidez moi Si je tombe je peux compter sur toi Aidez moi Aidez moi...1</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Couplet n1 Même si ça fait chier certains cest comme ça La vie est un combat alors je reste en bas Je suis resté comme je suis, tu peux tester Pas de magouilles, pas de combines, mec, jsuis pas corrompu Tous ces ragots qui passent sur moi à la télé Femmes, femmes écoutez cest pour me déstabiliser Ne sois pas étonné Ils vont mattaquer, me condamner ou me juger Ils ne maiment pas Mais ma musique leur dira la vérité Refrain n1 Cest le Doc Bruno le plus populaire Le plus aimé, le plus populaire Les mots sont simples et le message est clair clair Je nai besoin de personne La souveraine est gardienne de ton île Je taime, moi non plus, joli garçon des îles Je nai besoin de graisser la patte à personne La souveraine est gardienne de ton île Je taime, moi non plus, joli garçon des îles Couplet n2 Eh, tous ces jeunes qui foutent le feu Très rares sont ceux qui croient en eux Trop rares sont ceux qui croient en Dieu Viens, viens avec moi jouer le beau jeu Si jai un don, ouais, dans lfoot, dans lson Ma situation fait des envieux Ya trop de te-traits, ya trop de re-frè En vrai qui taiment par interêt Comptez plus sur lDoc pour vous faire des meufs Bruno marque déposée sur toutes les seufs Et les filles aiment que je vive dangereusement Risquer ma vie dans des buissons ardents Jai les mains propres et cest comme ça Même si ça fait chier certains cest comme ça You might also like Refrain n2 Cest le Doc Bruno le plus populaire Le plus aimé, le plus populaire Je nai besoin de personne La souveraine est gardienne de ton île Je taime, moi non plus, joli garçon des îles Je nai besoin de graisser la patte à personne La souveraine est gardienne de ton île Je taime, moi non plus, joli garçon des îles Couplet n3 Le peuple a envie découter la suite Le peuple se laisse manipuler par le vice, se rend complice de linjustice Le peuple a faim, il veut du pain Le peuple se plaint, le monde enquête Le peuple veut annuler la dette du Tiers-Monde Le peuple veut aussi regagner la coupe du monde Que demande le peuple ? Ma queue se le demande Vivre de baise et vivre à laise Loin des tempêtes, des naufrages et dlErika Loin des impôts et de la listeria Refrain n3 Cest le Doc Bruno le plus populaire Le plus aimé, le plus populaire Les mots sont simples et le message est clair Je veux un mec, un amant et un ex Je veux du sexe et sans complexe, latex Je nai besoin de personne La souveraine est gardienne de ton île Je taime, moi non plus, joli garçon des îles Je nai besoin de graisser la patte à personne La souveraine est gardienne de ton île Je taime, moi non plus, joli garçon des îles A Gwada là Mais qui vit là A Gwada là Je t'aime, moi non plus C'est moi</t>
+          <t>Couplet n1 Même si ça fait chier certains cest comme ça La vie est un combat alors je reste en bas Je suis resté comme je suis, tu peux tester Pas de magouilles, pas de combines, mec, jsuis pas corrompu Tous ces ragots qui passent sur moi à la télé Femmes, femmes écoutez cest pour me déstabiliser Ne sois pas étonné Ils vont mattaquer, me condamner ou me juger Ils ne maiment pas Mais ma musique leur dira la vérité Refrain n1 Cest le Doc Bruno le plus populaire Le plus aimé, le plus populaire Les mots sont simples et le message est clair clair Je nai besoin de personne La souveraine est gardienne de ton île Je taime, moi non plus, joli garçon des îles Je nai besoin de graisser la patte à personne La souveraine est gardienne de ton île Je taime, moi non plus, joli garçon des îles Couplet n2 Eh, tous ces jeunes qui foutent le feu Très rares sont ceux qui croient en eux Trop rares sont ceux qui croient en Dieu Viens, viens avec moi jouer le beau jeu Si jai un don, ouais, dans lfoot, dans lson Ma situation fait des envieux Ya trop de te-traits, ya trop de re-frè En vrai qui taiment par interêt Comptez plus sur lDoc pour vous faire des meufs Bruno marque déposée sur toutes les seufs Et les filles aiment que je vive dangereusement Risquer ma vie dans des buissons ardents Jai les mains propres et cest comme ça Même si ça fait chier certains cest comme ça Refrain n2 Cest le Doc Bruno le plus populaire Le plus aimé, le plus populaire Je nai besoin de personne La souveraine est gardienne de ton île Je taime, moi non plus, joli garçon des îles Je nai besoin de graisser la patte à personne La souveraine est gardienne de ton île Je taime, moi non plus, joli garçon des îles Couplet n3 Le peuple a envie découter la suite Le peuple se laisse manipuler par le vice, se rend complice de linjustice Le peuple a faim, il veut du pain Le peuple se plaint, le monde enquête Le peuple veut annuler la dette du Tiers-Monde Le peuple veut aussi regagner la coupe du monde Que demande le peuple ? Ma queue se le demande Vivre de baise et vivre à laise Loin des tempêtes, des naufrages et dlErika Loin des impôts et de la listeria Refrain n3 Cest le Doc Bruno le plus populaire Le plus aimé, le plus populaire Les mots sont simples et le message est clair Je veux un mec, un amant et un ex Je veux du sexe et sans complexe, latex Je nai besoin de personne La souveraine est gardienne de ton île Je taime, moi non plus, joli garçon des îles Je nai besoin de graisser la patte à personne La souveraine est gardienne de ton île Je taime, moi non plus, joli garçon des îles A Gwada là Mais qui vit là A Gwada là Je t'aime, moi non plus C'est moi</t>
         </is>
       </c>
     </row>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Yeah taxi Refrain Viens dans mon taxi S'aimer tout la nuit Tourner dans paris Ma baby sexy Couplet 1 Hey taxi, fais monter ma girly sexy Comme Joe le taxi moi je vis la nuit Laisse tourner le compteur, ça va durer des heures et des heures Comme quand je fais l'amour, ça dure des nuits et des jours C'est ça ma vie toujours assis avec une meuf a larrière de ton taco Et on s'effrime un max' sur la B.O Faut pas baisser, monte le son sur l'autoradio Mon kif kicker des beats avec mon bic, notes ton adresse, ton numéro, n'oublie pas le de-co, j'arrive illico ou que-do Du rap pro pour les accros J'ai du flow, je veux ser-po ça pour les rattes qui veulent quer-cro J'suis un mec réglo, un mac do Fais moi kiffer toute la nuit viens dans mon taxi Refrain Viens dans mon taxi S'aimer tout la nuit Tourner dans paris Ma baby sexy Viens dans mon taxi De midi à minuit Tourner dans paris Ma sexy baby You might also likeCouplet 2 La misère du monde est bien plus dure que celle de té-ci Laisse monter ma femme dans ton taxi De Paris à New York on entend les même cris Yep taxi ! Yep taxi ! Sur les grands axes suis relax dans mon tax', je caresse tes cuisses Sentir le cuir sur ta peau Que le chauffeur jette un coup d'oeil dans le rétro Ma langue sur ta chair a l'arrière c'est chaud Fais moi kiffer toute la nuit viens dans le taco Refrain Pont Palapapa ..... Couplet 3 Cut ! Doc Gy, fais de jolies mélodies Embellie la soirée, allez sors du lit ma jolie Comme mes locks emmêlés sur ma te-tê Rejoins-nous, ce soir c'est la te-fê !</t>
+          <t>Yeah taxi Refrain Viens dans mon taxi S'aimer tout la nuit Tourner dans paris Ma baby sexy Couplet 1 Hey taxi, fais monter ma girly sexy Comme Joe le taxi moi je vis la nuit Laisse tourner le compteur, ça va durer des heures et des heures Comme quand je fais l'amour, ça dure des nuits et des jours C'est ça ma vie toujours assis avec une meuf a larrière de ton taco Et on s'effrime un max' sur la B.O Faut pas baisser, monte le son sur l'autoradio Mon kif kicker des beats avec mon bic, notes ton adresse, ton numéro, n'oublie pas le de-co, j'arrive illico ou que-do Du rap pro pour les accros J'ai du flow, je veux ser-po ça pour les rattes qui veulent quer-cro J'suis un mec réglo, un mac do Fais moi kiffer toute la nuit viens dans mon taxi Refrain Viens dans mon taxi S'aimer tout la nuit Tourner dans paris Ma baby sexy Viens dans mon taxi De midi à minuit Tourner dans paris Ma sexy baby Couplet 2 La misère du monde est bien plus dure que celle de té-ci Laisse monter ma femme dans ton taxi De Paris à New York on entend les même cris Yep taxi ! Yep taxi ! Sur les grands axes suis relax dans mon tax', je caresse tes cuisses Sentir le cuir sur ta peau Que le chauffeur jette un coup d'oeil dans le rétro Ma langue sur ta chair a l'arrière c'est chaud Fais moi kiffer toute la nuit viens dans le taco Refrain Pont Palapapa ..... Couplet 3 Cut ! Doc Gy, fais de jolies mélodies Embellie la soirée, allez sors du lit ma jolie Comme mes locks emmêlés sur ma te-tê Rejoins-nous, ce soir c'est la te-fê !</t>
         </is>
       </c>
     </row>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Mon père m'a dit Bruno, va te faire couper les cheveux J'lui ai dit Ah non monsieur, j'irai si je le veux Ce n'est pas du Elsa Mais Papa t'en va pas Faut que j'te parle de chez toi Des dettes et des PV De tout ce que tu m'as laissé Des demi-frères et surs De mon carnet de notes, fané comme une fleur Du 23ème étage t'es arrivé au rez-de-chaussée Sans te retourner Laissant au gardien ta clé Ça fait Papa was a rollin' stone Wherever he laid his hat was his home And when he died, all he left was alone Je suis livré à moi-même sur mon boulevard 2 francs dans la poche multiplié par mes lascars Et si Marie-Jeanne est toute proche de la flamme C'est pour enfouir ton absence au fin fond de mon âme Oublier que t'es parti Oublier ton visage Tes humeurs lunatiques Tourner la page J'ai pris de l'âge, je ne veux pas me retrouver à la maison d'arrêt Papa, je t'en supplie au poste, viens me chercher You might also like Papa was a rollin' stone Wherever he laid his hat was his home And when he died, all he left was alone C'était héréditaire, j'ai des reins d'acier Je te tiens par la taille et tu ne peux plus bouger Mords-toi les lèvres pour ne gémir Je sens la fin venir Laisse-moi partir Aucune fille sur la Terre ne pourra me retenir Je suis comme dit ma mère Le sosie de mon père Un mec qui galère Qui fout sa vie en l'air Papa tu m'a mis sur la Terre Dans la rue c'est la guerre Papa was a rollin' stone Wherever he laid his hat was his home And when he died, all he left was alone</t>
+          <t>Mon père m'a dit Bruno, va te faire couper les cheveux J'lui ai dit Ah non monsieur, j'irai si je le veux Ce n'est pas du Elsa Mais Papa t'en va pas Faut que j'te parle de chez toi Des dettes et des PV De tout ce que tu m'as laissé Des demi-frères et surs De mon carnet de notes, fané comme une fleur Du 23ème étage t'es arrivé au rez-de-chaussée Sans te retourner Laissant au gardien ta clé Ça fait Papa was a rollin' stone Wherever he laid his hat was his home And when he died, all he left was alone Je suis livré à moi-même sur mon boulevard 2 francs dans la poche multiplié par mes lascars Et si Marie-Jeanne est toute proche de la flamme C'est pour enfouir ton absence au fin fond de mon âme Oublier que t'es parti Oublier ton visage Tes humeurs lunatiques Tourner la page J'ai pris de l'âge, je ne veux pas me retrouver à la maison d'arrêt Papa, je t'en supplie au poste, viens me chercher Papa was a rollin' stone Wherever he laid his hat was his home And when he died, all he left was alone C'était héréditaire, j'ai des reins d'acier Je te tiens par la taille et tu ne peux plus bouger Mords-toi les lèvres pour ne gémir Je sens la fin venir Laisse-moi partir Aucune fille sur la Terre ne pourra me retenir Je suis comme dit ma mère Le sosie de mon père Un mec qui galère Qui fout sa vie en l'air Papa tu m'a mis sur la Terre Dans la rue c'est la guerre Papa was a rollin' stone Wherever he laid his hat was his home And when he died, all he left was alone</t>
         </is>
       </c>
     </row>
@@ -1908,7 +1908,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Un deux, un, devinez qui revient Je pèse et je baise En levrette, en brochettes, pickpocket, pichenette J'impose ma notoriété comme Vito Corleone Me regarde pas d'travers, enculé d'ta mère J'viens flamber sur l'album des Neg' Marrons Et tu m'connais Si t'es pas content, va t'faire mettre jusqu'aux trous d'nez J'te piétine à coups d'talon façon Joe Pesci L'affranchi, pas d'chichis, mon Secteur Ä te chie Devant lui tu fléchis Même si tu cries, on augmente la mélodie d'la tuerie Fait passer l'homicide pour un putain d'hara-kiri Les flics sucent leurs indics, personne sait c'est iq Va t'faire enculer J'veux c'qui m'revient, ne plus voir les richesses non étalées Stomy Bugsy, c'est comme ça qu'on m'appelle Tu sais, le beau gosse avec le costard, la coupe de champagne et le cigare Et les rattes de des rêves, j'en ai à la pelle J'ai tout connu, laisse-moi sortir du cul Les murs de chez moi sont tellement fins Que quand mon voisin chie, j'peux savoir si c'est des pâtes ou du riz Quand les fils de salopes prétendent faire du vrai hip-hop L'important c'est la maille, le flooze, la pêche, la classe quoi Appelle-moi Stomy Bugsy Montana Le calibre qu'il te faut en attendant le prochain album du M.Ä You might also like Mon premier est une taspé qui kiffe Gynéco Mon second un MC qui fait du rap à l'eau Le tout est une su que je baise sans poa Je touche ma SACEM et j'investis dans un BM Je pèse, je baise, toutes les filles m'aiment L'homme qui met son doigt dans ton intimité A prostitué ton rap sur le boulevard Ney Si tu veux pécho viens voir Gynéco Jamais de pénurie au PLC non non non J'investis en gros dans les rues du quartier J'suis sur toutes les radios, j'ai des clips vidéos On s'échange mes démos, j'ai une putain d'promo Un riche en sursis toi-même tu sais que Secteur Ä m'appuie Mais oui mais oui tel une bombe J'arrive et puis j'explose en fraction d'seconde Ferme ta gueule, creuse ta tombe, v'là Secteur Ä c'est l'hécatombe Je gronde comme le tonnerre et j'suis vénère comme King-Kong Est-ce que t'as bien saisi? C'est encore nous Les trois scars-la voyous Ben-J Jacky Djamatik Daddy viennent tchatcher pour vous 1-9-9-chut, l'année où tu rêves de pèze Lève-toi, bats-toi si tu n'veux pas être de la baise Maille, maille, maille, ma-ma-ma-maille Mais oui il n'y a que la maille qui m'aille Djamatik le dancehall a fait découper ça XXX Chaud, écoute ça Marre de vivre comme une victime de XXX 1-9-9-7 l'argent entre dans ma vie J'en ai marre de rêver, faut qu'j'assouvisse mes envies C'que j'ai pas eu hier, faut qu'j'l'obtienne aujourd'hui Tu veux d'la maille, des tunes, du fric, non non non non non il ne faut pas qu'tu flaires La monnaie dirige le monde, je l'ai déjà dit l'année dernière Comme nous t'aimes be-flam Et dans tous les mouvements Avoir des taspés tout l'temps Avoir les poches pleines d'argent Qu'on dise que t'es important Peser à cent pour cent Comme le temps c'est d'l'argent il faut qu't'agisses dès maintenant Mais oui mais oui tel une bombe J'arrive et puis j'explose en fraction d'seconde Ferme ta gueule, creuse ta tombe, v'là Secteur Ä c'est l'hécatombe Je gronde comme le tonnerre et j'suis vénère comme King-Kong Est-ce que t'as bien saisi? 1996, soit tu pèses, soit t'es d'la baise Le tirailleur revient donc bouge ton cul d'ma chaise Je fesse, blesse, laisse les MC flip-flap à leur place Quand l'Cain-cain pèse, les Caucasiens font la grimace, ouais Rien à foutre de l'état d'ton XXX je fourre tout dans ma BNP Le siège social reste j'crois qu'mon oreiller Mais cette fois François, ne paye pas en francs CFA J'veux qu'tu m'payes en francs lourds hé hé, la caisse est par là J'suis l'mec qui va t'faire perdre toute ta paye T'es encore d'la baise, un conseil, paye Hamed Däye Faut du wari-wari, plus de wari-wari Pour qu'j'puisse me retirer en retraite au pays Hamed Däye, Neg' Marrons, mem bagay, envoie le pognon Telle une bombe J'arrive et puis j'explose en fraction d'seconde Ferme ta gueule, creuse ta tombe, v'là Secteur Ä c'est l'hécatombe Je gronde comme le tonnerre et j'suis vénère comme King-Kong Est-ce que t'as bien saisi? Sorti du sixième chaudron Ärsenik le poison est dans ta maison Les douilles éclatent et l'hémoglobine souille mon sol écarlate Écarte les âmes sensibles quand les XXX Mais MC XXX trop bavards, de France ou de Navarre Je suis connu comme le flingueur le moins avare Avare en bastos, mon esprit part en testos XXX qui nous XXX et les microbes comme Domestos Si le rap était un système solaire, je serais son éclipse Despee dans l'il du cyclone, symptôme de l'Apocalypse L'ogre nègre ennemi d'la concurrence humide Qui ne comprend pas ne comprendra jamais le rugissement du tigre XXX 80 Ärsenik le ceau-mor Je prends le microphone et l'pays brûle comme Sodome et Gomorrhe Dans mon Secteur, je suis vecteur Cannibale sectaire, plus bas qu'terre XXX manière qu'Hannibal Lecter L'exterminateur expert tenace comme une gangrène Je suis la menace des cités où pousse la mauvaise graine Le french schizo à la rime exquise au micro XXX Despee, costaud mais allergique à la kryptonite verte Alerte, danger danger Rangez vos miches, je viens manger, changer XXX au purgatoire, un étranger Dans mon crâne et du métal dans ma poche XXX Ärsenik comme la mort te fauche Sur une mélodie sinistre, un concerto macabre affûté comme un sabre Tchoum tchoum, et on danse la biguine L'emprise de la XXX sauve-toi XXX Mon alcôve est un satané XXX l'antichambre de l'enfer Combat l'ambiance crépusculaire, mon groupuscule erre dans la brume Je danse avec le diable au clair de Lune Telle une bombe J'arrive et puis j'explose en fraction d'seconde Ferme ta gueule, creuse ta tombe, v'là Secteur Ä c'est l'hécatombe Je gronde comme le tonnerre et j'suis vénère comme King-Kong Est-ce que t'as bien saisi? Comme un guerrier Viêt-Cong, surgissant du Mékong Passi sonne le gong, tu m'connais à la longue Issap! Big, pas de tminik, je renique sur le ring Le numéro six, année un double-neuf sept Se la pète et glisse un feu d'artifice Quand mon Secteur Ä je hisse dans l'orifice du rap en France Je fous ça sans vice Et ce n'est plus gratis quand sur les pingres hostiles je pisse Les miens je rejoins Dans la bringue et je tringle Avec mes dingues dont les mots sur le cerveau sont des tringles Ma requête n'est pas des moindres, monnaie monnaie quitte à enfreindre Cette année damnée, donner l'plaisir, l'atteindre et XXX Laissez-nous rejoindre toutes celles qu'on entend se plaindre Telle une bombe J'arrive et puis j'explose en fraction d'seconde Ferme ta gueule, creuse ta tombe, v'là Secteur Ä c'est l'hécatombe Je gronde comme le tonnerre et j'suis vénère comme King-Kong Est-ce que t'as bien saisi? Pour le Secteur Ä, Ärsenik P.A.Double S.I Stomy Bugsy, Doc Gynéco Hamed Däye, Neg' Marrons Aaah! Comme King-Kong Est-ce que t'as bien saisi?</t>
+          <t>Un deux, un, devinez qui revient Je pèse et je baise En levrette, en brochettes, pickpocket, pichenette J'impose ma notoriété comme Vito Corleone Me regarde pas d'travers, enculé d'ta mère J'viens flamber sur l'album des Neg' Marrons Et tu m'connais Si t'es pas content, va t'faire mettre jusqu'aux trous d'nez J'te piétine à coups d'talon façon Joe Pesci L'affranchi, pas d'chichis, mon Secteur Ä te chie Devant lui tu fléchis Même si tu cries, on augmente la mélodie d'la tuerie Fait passer l'homicide pour un putain d'hara-kiri Les flics sucent leurs indics, personne sait c'est iq Va t'faire enculer J'veux c'qui m'revient, ne plus voir les richesses non étalées Stomy Bugsy, c'est comme ça qu'on m'appelle Tu sais, le beau gosse avec le costard, la coupe de champagne et le cigare Et les rattes de des rêves, j'en ai à la pelle J'ai tout connu, laisse-moi sortir du cul Les murs de chez moi sont tellement fins Que quand mon voisin chie, j'peux savoir si c'est des pâtes ou du riz Quand les fils de salopes prétendent faire du vrai hip-hop L'important c'est la maille, le flooze, la pêche, la classe quoi Appelle-moi Stomy Bugsy Montana Le calibre qu'il te faut en attendant le prochain album du M.Ä Mon premier est une taspé qui kiffe Gynéco Mon second un MC qui fait du rap à l'eau Le tout est une su que je baise sans poa Je touche ma SACEM et j'investis dans un BM Je pèse, je baise, toutes les filles m'aiment L'homme qui met son doigt dans ton intimité A prostitué ton rap sur le boulevard Ney Si tu veux pécho viens voir Gynéco Jamais de pénurie au PLC non non non J'investis en gros dans les rues du quartier J'suis sur toutes les radios, j'ai des clips vidéos On s'échange mes démos, j'ai une putain d'promo Un riche en sursis toi-même tu sais que Secteur Ä m'appuie Mais oui mais oui tel une bombe J'arrive et puis j'explose en fraction d'seconde Ferme ta gueule, creuse ta tombe, v'là Secteur Ä c'est l'hécatombe Je gronde comme le tonnerre et j'suis vénère comme King-Kong Est-ce que t'as bien saisi? C'est encore nous Les trois scars-la voyous Ben-J Jacky Djamatik Daddy viennent tchatcher pour vous 1-9-9-chut, l'année où tu rêves de pèze Lève-toi, bats-toi si tu n'veux pas être de la baise Maille, maille, maille, ma-ma-ma-maille Mais oui il n'y a que la maille qui m'aille Djamatik le dancehall a fait découper ça XXX Chaud, écoute ça Marre de vivre comme une victime de XXX 1-9-9-7 l'argent entre dans ma vie J'en ai marre de rêver, faut qu'j'assouvisse mes envies C'que j'ai pas eu hier, faut qu'j'l'obtienne aujourd'hui Tu veux d'la maille, des tunes, du fric, non non non non non il ne faut pas qu'tu flaires La monnaie dirige le monde, je l'ai déjà dit l'année dernière Comme nous t'aimes be-flam Et dans tous les mouvements Avoir des taspés tout l'temps Avoir les poches pleines d'argent Qu'on dise que t'es important Peser à cent pour cent Comme le temps c'est d'l'argent il faut qu't'agisses dès maintenant Mais oui mais oui tel une bombe J'arrive et puis j'explose en fraction d'seconde Ferme ta gueule, creuse ta tombe, v'là Secteur Ä c'est l'hécatombe Je gronde comme le tonnerre et j'suis vénère comme King-Kong Est-ce que t'as bien saisi? 1996, soit tu pèses, soit t'es d'la baise Le tirailleur revient donc bouge ton cul d'ma chaise Je fesse, blesse, laisse les MC flip-flap à leur place Quand l'Cain-cain pèse, les Caucasiens font la grimace, ouais Rien à foutre de l'état d'ton XXX je fourre tout dans ma BNP Le siège social reste j'crois qu'mon oreiller Mais cette fois François, ne paye pas en francs CFA J'veux qu'tu m'payes en francs lourds hé hé, la caisse est par là J'suis l'mec qui va t'faire perdre toute ta paye T'es encore d'la baise, un conseil, paye Hamed Däye Faut du wari-wari, plus de wari-wari Pour qu'j'puisse me retirer en retraite au pays Hamed Däye, Neg' Marrons, mem bagay, envoie le pognon Telle une bombe J'arrive et puis j'explose en fraction d'seconde Ferme ta gueule, creuse ta tombe, v'là Secteur Ä c'est l'hécatombe Je gronde comme le tonnerre et j'suis vénère comme King-Kong Est-ce que t'as bien saisi? Sorti du sixième chaudron Ärsenik le poison est dans ta maison Les douilles éclatent et l'hémoglobine souille mon sol écarlate Écarte les âmes sensibles quand les XXX Mais MC XXX trop bavards, de France ou de Navarre Je suis connu comme le flingueur le moins avare Avare en bastos, mon esprit part en testos XXX qui nous XXX et les microbes comme Domestos Si le rap était un système solaire, je serais son éclipse Despee dans l'il du cyclone, symptôme de l'Apocalypse L'ogre nègre ennemi d'la concurrence humide Qui ne comprend pas ne comprendra jamais le rugissement du tigre XXX 80 Ärsenik le ceau-mor Je prends le microphone et l'pays brûle comme Sodome et Gomorrhe Dans mon Secteur, je suis vecteur Cannibale sectaire, plus bas qu'terre XXX manière qu'Hannibal Lecter L'exterminateur expert tenace comme une gangrène Je suis la menace des cités où pousse la mauvaise graine Le french schizo à la rime exquise au micro XXX Despee, costaud mais allergique à la kryptonite verte Alerte, danger danger Rangez vos miches, je viens manger, changer XXX au purgatoire, un étranger Dans mon crâne et du métal dans ma poche XXX Ärsenik comme la mort te fauche Sur une mélodie sinistre, un concerto macabre affûté comme un sabre Tchoum tchoum, et on danse la biguine L'emprise de la XXX sauve-toi XXX Mon alcôve est un satané XXX l'antichambre de l'enfer Combat l'ambiance crépusculaire, mon groupuscule erre dans la brume Je danse avec le diable au clair de Lune Telle une bombe J'arrive et puis j'explose en fraction d'seconde Ferme ta gueule, creuse ta tombe, v'là Secteur Ä c'est l'hécatombe Je gronde comme le tonnerre et j'suis vénère comme King-Kong Est-ce que t'as bien saisi? Comme un guerrier Viêt-Cong, surgissant du Mékong Passi sonne le gong, tu m'connais à la longue Issap! Big, pas de tminik, je renique sur le ring Le numéro six, année un double-neuf sept Se la pète et glisse un feu d'artifice Quand mon Secteur Ä je hisse dans l'orifice du rap en France Je fous ça sans vice Et ce n'est plus gratis quand sur les pingres hostiles je pisse Les miens je rejoins Dans la bringue et je tringle Avec mes dingues dont les mots sur le cerveau sont des tringles Ma requête n'est pas des moindres, monnaie monnaie quitte à enfreindre Cette année damnée, donner l'plaisir, l'atteindre et XXX Laissez-nous rejoindre toutes celles qu'on entend se plaindre Telle une bombe J'arrive et puis j'explose en fraction d'seconde Ferme ta gueule, creuse ta tombe, v'là Secteur Ä c'est l'hécatombe Je gronde comme le tonnerre et j'suis vénère comme King-Kong Est-ce que t'as bien saisi? Pour le Secteur Ä, Ärsenik P.A.Double S.I Stomy Bugsy, Doc Gynéco Hamed Däye, Neg' Marrons Aaah! Comme King-Kong Est-ce que t'as bien saisi?</t>
         </is>
       </c>
     </row>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Wake up! Couplet 1 J'ai besoin d'amour pour avoir sommeil Besoin d'amour dès que j'te réveille Entre nous il n'y aura que toi et moi Tu n'seras jamais un top model Ni une actrice de charme Tu es bien trop belle N'écoute plus ce que les gens disent Les échos les plus doux resteront mes bises S'il y a trop d'bruit nous ferons nos valises Tu n'seras jamais un top model Ni une actrice de charme, tu es bien trop belle Refrain Trop belle au naturel, trop belle ! Trop belle au naturel, trop belle ! Trop belle au naturel, trop belle ! Trop belle au naturel, t'es trop belle ! Couplet 2 Il n'y a plus de barrières sociales Il n'y a plus ni le bien ni le mal Je te cherche et je te trouve plus là Tu me cherches mais tu n'me trouves pas Tu m'écoutes mais tu n'm'entends pas J'ai besoin d'la nuit pour avoir sommeil Besoin du jour dès que j'me réveille J'aimerai réfléchir, retrouver tes sourires Etre sage, accepter les chantages Car pour elle j'irai aux frontières du réveil aux frontières du réveil Oui, pour elle, aux frontières du réveil You might also likeRefrain Couplet 3pont T'es trop douce au gout de miel Trop belle, déploie tes ailes Trop fière quand tu t'rebelles Trop femme ... C'que j'aime en elle, TOUT T'es trop belle sans ton rimmel Tu n'feras jamais un top model Ni une actrice de charme t'es bien trop belle Trop belle, trop belle, beaucoup trop belle Trop belle, trop belle, beaucoup trop belle Refrain T'es trop douce au gout de miel Trop belle, déploie tes ailes Trop fière quand tu te rebelles Trop femme ... Elle ...</t>
+          <t>Wake up! Couplet 1 J'ai besoin d'amour pour avoir sommeil Besoin d'amour dès que j'te réveille Entre nous il n'y aura que toi et moi Tu n'seras jamais un top model Ni une actrice de charme Tu es bien trop belle N'écoute plus ce que les gens disent Les échos les plus doux resteront mes bises S'il y a trop d'bruit nous ferons nos valises Tu n'seras jamais un top model Ni une actrice de charme, tu es bien trop belle Refrain Trop belle au naturel, trop belle ! Trop belle au naturel, trop belle ! Trop belle au naturel, trop belle ! Trop belle au naturel, t'es trop belle ! Couplet 2 Il n'y a plus de barrières sociales Il n'y a plus ni le bien ni le mal Je te cherche et je te trouve plus là Tu me cherches mais tu n'me trouves pas Tu m'écoutes mais tu n'm'entends pas J'ai besoin d'la nuit pour avoir sommeil Besoin du jour dès que j'me réveille J'aimerai réfléchir, retrouver tes sourires Etre sage, accepter les chantages Car pour elle j'irai aux frontières du réveil aux frontières du réveil Oui, pour elle, aux frontières du réveil Refrain Couplet 3pont T'es trop douce au gout de miel Trop belle, déploie tes ailes Trop fière quand tu t'rebelles Trop femme ... C'que j'aime en elle, TOUT T'es trop belle sans ton rimmel Tu n'feras jamais un top model Ni une actrice de charme t'es bien trop belle Trop belle, trop belle, beaucoup trop belle Trop belle, trop belle, beaucoup trop belle Refrain T'es trop douce au gout de miel Trop belle, déploie tes ailes Trop fière quand tu te rebelles Trop femme ... Elle ...</t>
         </is>
       </c>
     </row>
@@ -1942,7 +1942,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>J'étais trop fort et ils m'ont pas compris Suivez l'cercueil de lincompris Ma vie fût longue et douloureuse Je n'suis qu'une érection qui les rendaient heureuses Leurs distractions dans ce cortège Je souhaite qu'il y ait tous les élèves de ma promotion Du septième art, de la profession Membres du show-biz, de l'art pour la nation Un retraité d'l'éducation ruelle J'ai un doctorat délivré à Porte de la chapelle Ma vie s'abrège, mon silence vous protège L'argot vie, mes mots vous protègent Je joue mon rôle et je survie, Doc gît au milieu des sans abris Dans l'noir, j'ai vu l'espoir, les hommes puissants de ce monde d'argent Qui se disputent une mélodie Le dernier chanteur venu d'un trottoir Trop jeune pour parler d'la mort, trop jeune pour l'aimer Non je ne suis pas trop jeune, non je ne suis pas trop jeune pour rêver Personne n'a jamais vraiment su qui j'étais, ni quel était mon secret Le principal c'est que le message passait La voix du cur et le message de paix Même si les gens disent nous n'y arriverons jamais Mes opinions sur le sujet Coûtent beaucoup moins cher que celles de Strauss-Khan C'est beau la vie, Ebola vie Que fait Police du monde et Kofi Annan Famine, Misère à l'unisson, on voit mourir des nourrissons J'dégueule ma thèse sur du papier, exploitation et exclusion Les dirigeants, vous m'avez tué, message passé et moi j'y vais Grâce à Dieu, je m'en vais You might also like Trop jeune pour parler d'la mort, trop jeune pour l'aimer Non je ne suis pas trop jeune, non je ne suis pas trop jeune pour rêver Je le savais et j'ai laissé faire, mal au cur quand arrive l'hiver La drogue, la mort, les armes et la guerre Je le savais et j' ai dû me taire</t>
+          <t>J'étais trop fort et ils m'ont pas compris Suivez l'cercueil de lincompris Ma vie fût longue et douloureuse Je n'suis qu'une érection qui les rendaient heureuses Leurs distractions dans ce cortège Je souhaite qu'il y ait tous les élèves de ma promotion Du septième art, de la profession Membres du show-biz, de l'art pour la nation Un retraité d'l'éducation ruelle J'ai un doctorat délivré à Porte de la chapelle Ma vie s'abrège, mon silence vous protège L'argot vie, mes mots vous protègent Je joue mon rôle et je survie, Doc gît au milieu des sans abris Dans l'noir, j'ai vu l'espoir, les hommes puissants de ce monde d'argent Qui se disputent une mélodie Le dernier chanteur venu d'un trottoir Trop jeune pour parler d'la mort, trop jeune pour l'aimer Non je ne suis pas trop jeune, non je ne suis pas trop jeune pour rêver Personne n'a jamais vraiment su qui j'étais, ni quel était mon secret Le principal c'est que le message passait La voix du cur et le message de paix Même si les gens disent nous n'y arriverons jamais Mes opinions sur le sujet Coûtent beaucoup moins cher que celles de Strauss-Khan C'est beau la vie, Ebola vie Que fait Police du monde et Kofi Annan Famine, Misère à l'unisson, on voit mourir des nourrissons J'dégueule ma thèse sur du papier, exploitation et exclusion Les dirigeants, vous m'avez tué, message passé et moi j'y vais Grâce à Dieu, je m'en vais Trop jeune pour parler d'la mort, trop jeune pour l'aimer Non je ne suis pas trop jeune, non je ne suis pas trop jeune pour rêver Je le savais et j'ai laissé faire, mal au cur quand arrive l'hiver La drogue, la mort, les armes et la guerre Je le savais et j' ai dû me taire</t>
         </is>
       </c>
     </row>
@@ -1959,7 +1959,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>On n'sait plus où on va, où se situe l'combat Y a trop d'mystères, faut s'taire, y a trop d'guerres ici-bas En zone de combat, dans mon lit j'me débats Ça s'bat, à la télé encore un débat Trop d'dégâts, de fumée devant les caméras On n'sait plus où on va, où est située la ligne de front Prendre position, qui peut répondre à nos questions Où va la nation, qui va trouver la solution Armageddon, révolution, on n'sait plus où l'on va Les mains sont sales et coule le sang L'argent blanchi dans toutes les ques-ban Où se situe l'combat pour les petites gens Dans l'urne, faut votr blanc En attendant un vrai enfant de la patri Et contre lui, de la tyrannie Y a trop d'élus du peuple qui ne viennent pas du peuple On n'sait plus où l'on va, moi je sais où je vais Dis-moi, vaya con dios, je sais où je vais Vaya con dios, je suis le nerf de la guerre Vaya con dios, je suis d'la branche populaire Vaya con dios, nous hériterons de la Terre Vaya con dios You might also like Lève ta main si tu aimes ce son Lève ta main si tu aimes ce son Lève ta main, oui prends position Lève ta main si tu aimes ça On n'sait plus où on va, choisir le bon chemin Faire du chemin et le faire vite et bien Politicien en jean et baskets J'aimerais porter toutes les casquettes J'veux prendre XXX annuler la dette Je dis les choses comme elles sont et tu t'demandes si Je vais marcher sur tes plates-bandes J'suis ambitieux, ils m'montrent du doigt, tous ces véreux Pour eux c'est fâcheux, mais moi j'en veux D'où je viens, où se situe l'combat Qui je suis, pas qu'un rappeur, j'remets les pendules à l'heure Appelle-moi Bruno Beausir, jeune ou vieux faut réagir Faut se souvenir, face à l'avenir Prendre position, contrôler la situation On n'sait plus où on va, je reste en vue des élections J'me présenterais si tu l'voulais Vaya con dios, je sais où je vais Lève ta main si tu aimes ce son Lève ta main si tu aimes ce son Lève ta main, oui prends position Lève ta main si tu aimes ça Et la voix du peuple était étouffée Lorsque le rap s'était égaré Qui a fait l'album, qui a fait passer le message J'te l'demande, j'te l'dis qui, Doc Gy' Du rap XXX pour les zoulettes, j'suis anti-stars Tu m'invites pas dans ta fête, quand j'arrive, j'branche ma guitare J'fous la pagaille, y a que des hommes de paille Facile à acheter, aïe, ils aiment trop la maille C'est ça leur bataille, le rap contre la variété On n'sait plus où on va, où se situe l'combat Mais décidé, je dois les découper Tu connais pas Brassens, tu t'es fait carotter Que mes ennemis restent des ennemis Que mes amis restent mes amis Toujours placé au premier rang Qui m'aime me suive, un pas en avant Nouvelle équipe, nouveau plan Dans toute la Ce-Fran, pour tous les gens Vaya con dios, je suis le nerf de la guerre Vaya con dios, je suis d'la branche populaire Vaya con dios, nous hériterons de la Terre Vaya con dios Lève ta main si tu aimes ce son Lève ta main si tu aimes ce son Lève ta main, oui prends position Lève ta main si tu aimes ça</t>
+          <t>On n'sait plus où on va, où se situe l'combat Y a trop d'mystères, faut s'taire, y a trop d'guerres ici-bas En zone de combat, dans mon lit j'me débats Ça s'bat, à la télé encore un débat Trop d'dégâts, de fumée devant les caméras On n'sait plus où on va, où est située la ligne de front Prendre position, qui peut répondre à nos questions Où va la nation, qui va trouver la solution Armageddon, révolution, on n'sait plus où l'on va Les mains sont sales et coule le sang L'argent blanchi dans toutes les ques-ban Où se situe l'combat pour les petites gens Dans l'urne, faut votr blanc En attendant un vrai enfant de la patri Et contre lui, de la tyrannie Y a trop d'élus du peuple qui ne viennent pas du peuple On n'sait plus où l'on va, moi je sais où je vais Dis-moi, vaya con dios, je sais où je vais Vaya con dios, je suis le nerf de la guerre Vaya con dios, je suis d'la branche populaire Vaya con dios, nous hériterons de la Terre Vaya con dios Lève ta main si tu aimes ce son Lève ta main si tu aimes ce son Lève ta main, oui prends position Lève ta main si tu aimes ça On n'sait plus où on va, choisir le bon chemin Faire du chemin et le faire vite et bien Politicien en jean et baskets J'aimerais porter toutes les casquettes J'veux prendre XXX annuler la dette Je dis les choses comme elles sont et tu t'demandes si Je vais marcher sur tes plates-bandes J'suis ambitieux, ils m'montrent du doigt, tous ces véreux Pour eux c'est fâcheux, mais moi j'en veux D'où je viens, où se situe l'combat Qui je suis, pas qu'un rappeur, j'remets les pendules à l'heure Appelle-moi Bruno Beausir, jeune ou vieux faut réagir Faut se souvenir, face à l'avenir Prendre position, contrôler la situation On n'sait plus où on va, je reste en vue des élections J'me présenterais si tu l'voulais Vaya con dios, je sais où je vais Lève ta main si tu aimes ce son Lève ta main si tu aimes ce son Lève ta main, oui prends position Lève ta main si tu aimes ça Et la voix du peuple était étouffée Lorsque le rap s'était égaré Qui a fait l'album, qui a fait passer le message J'te l'demande, j'te l'dis qui, Doc Gy' Du rap XXX pour les zoulettes, j'suis anti-stars Tu m'invites pas dans ta fête, quand j'arrive, j'branche ma guitare J'fous la pagaille, y a que des hommes de paille Facile à acheter, aïe, ils aiment trop la maille C'est ça leur bataille, le rap contre la variété On n'sait plus où on va, où se situe l'combat Mais décidé, je dois les découper Tu connais pas Brassens, tu t'es fait carotter Que mes ennemis restent des ennemis Que mes amis restent mes amis Toujours placé au premier rang Qui m'aime me suive, un pas en avant Nouvelle équipe, nouveau plan Dans toute la Ce-Fran, pour tous les gens Vaya con dios, je suis le nerf de la guerre Vaya con dios, je suis d'la branche populaire Vaya con dios, nous hériterons de la Terre Vaya con dios Lève ta main si tu aimes ce son Lève ta main si tu aimes ce son Lève ta main, oui prends position Lève ta main si tu aimes ça</t>
         </is>
       </c>
     </row>
@@ -1976,7 +1976,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>J'suis avec le frelot Doc Gyneco, miss viens danser la salsa Je roule un blunt et j'ai d'la salade pour mes rasta Première consultation nous a fait faire le tour du monde J'en ai connu des rousses, des brunes, des blondes Aujourd'hui Bakhaw invite le Doc sur son album J'ai connu la drogue, la prison, mais je dis stop Le 18ème, 93, c'est pas des lol, feche sua boca, mes titspe te cambriolent Grandit à Crack-land Porte de la Chapelle Entre les clandés, les prostituées, les seringues Truc de fou, truc de fou, truc de dingue Grandis à Crack-land Porte de la Chapelle Refrain Viva, viva la vie da loca, viva, viva X3 Qué pasa? sexy señorita, alors viva viva, la vida loca On a locomotive comme la feuille de coca J'suis de l'époque de la rabla, on parle Pikti même arabe là Un artisan, y en a pas beaucoup des comme ça C'est pas du rap industriel, c'est made in Stalingrad Porte de la Chapelle Chez nous pas de cabot fidèle, je fais de l'artistique qui fait que des couplets unique, de pesetas Donne-moi des tass et des kahbas, j'aime rassembler le peuple comme a Dibba Ils ont un plan pour le monde machiavélique, psychologique Ils préfèrent leurs chiens aux êtres humains Laisse-moi dans ma soirée bunga bunga avec du hip-hop et du ragga J'parle à mes kaïras sur un instru salsa You might also likeRefrain Viva, viva la vie da loca, viva, viva X3</t>
+          <t>J'suis avec le frelot Doc Gyneco, miss viens danser la salsa Je roule un blunt et j'ai d'la salade pour mes rasta Première consultation nous a fait faire le tour du monde J'en ai connu des rousses, des brunes, des blondes Aujourd'hui Bakhaw invite le Doc sur son album J'ai connu la drogue, la prison, mais je dis stop Le 18ème, 93, c'est pas des lol, feche sua boca, mes titspe te cambriolent Grandit à Crack-land Porte de la Chapelle Entre les clandés, les prostituées, les seringues Truc de fou, truc de fou, truc de dingue Grandis à Crack-land Porte de la Chapelle Refrain Viva, viva la vie da loca, viva, viva X3 Qué pasa? sexy señorita, alors viva viva, la vida loca On a locomotive comme la feuille de coca J'suis de l'époque de la rabla, on parle Pikti même arabe là Un artisan, y en a pas beaucoup des comme ça C'est pas du rap industriel, c'est made in Stalingrad Porte de la Chapelle Chez nous pas de cabot fidèle, je fais de l'artistique qui fait que des couplets unique, de pesetas Donne-moi des tass et des kahbas, j'aime rassembler le peuple comme a Dibba Ils ont un plan pour le monde machiavélique, psychologique Ils préfèrent leurs chiens aux êtres humains Laisse-moi dans ma soirée bunga bunga avec du hip-hop et du ragga J'parle à mes kaïras sur un instru salsa Refrain Viva, viva la vie da loca, viva, viva X3</t>
         </is>
       </c>
     </row>
@@ -1993,7 +1993,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>J'ai vu des mères ne pouvant plus s'occuper de leurs gosses Des hommes qui boxent leurs mômes avec ge-ra c'est atroce J'ai vu des gamines devenir mère, des mères devenir père Des fusils toujours chargés exploser chez un grand-père J'ai vu des concierges dique-sa faire des avances à des femmes au foyer Entendu des sons che-lou à minuit dans les cages d'escalier J'ai vu des parents fous qui n'avaient plus d'autorité Dans leurs propres maisons, se faire commander par un mouflet Les , les PJ, les huissiers Dans les escaliers, les ascenseurs sont toujours bloqués Des loquets sur toutes les portes un appart' habité par une morte Mais où peut-on vivre de la sorte ? Fort heureusement ici, il n'y a pas trop d'homicides Mais on assiste à des suicides de personnes dites lucides Contre mon gré, je suis obligé de té-ma toutes ces conneries Ne me dis surtout pas que c'est la vie Tu veux voir plus d'une famille vivre dans une seule ce-piè Viens faire un tour dans les cités T'as besoin de faire un reportage sur les squatteurs d'escalier Viens faire un tour dans les cités Tu cherches un endroit chaud et mouvementé pour aller bronzer Viens faire un tour dans les cités Arrête de te faire des mythos, tu veux connaître la vérité Viens faire un tour dans les cités You might also like Viens faire un tour dans les cités Mais si t'es pas du quartier, il ne faut surtout pas t'exciter Les gens s'y croient invincibles et sont vraiment susceptibles J'ai vu des gamins tenter des coups presque impossibles Vis ta vie ou bienvenue dans le cercle infernal Où les gestes insensés sont devenus mouvement banal Normal, quand tant de religions se retrouvent mélangées J'ai vu une église, une synagogue, non loin d'une mosquée J'ai tendu l'oreille, entendu des ragots, des fachos et des commères Déjà rencontré des menteurs jurer sur la tête de leurs mères Vé-nères contre le régisseur qui rotte-ca les illettrés J'ai vu les trésors des dealers sur les boîtes à ttres-le Les caves sont plus accessibles, les villes devenues té-ci Malgré cela, on y trouve garer quelques voitures J'ai vu des poursuites, les fuites ont très vite cessé C'est difficile ici, les bandits sont très durs à débusquer Tu veux voir plus d'une famille vivre dans une seule ce-piè Viens faire un tour dans les cités T'as besoin de faire un reportage sur les squatteurs d'escalier Viens faire un tour dans les cités Tu cherches un endroit chaud et mouvementé pour aller bronzer Viens faire un tour dans les cités Arrête de te faire des mythos, tu veux connaître la vérité Viens faire un tour dans les cités Il n'y a pas que des mauvais côtés dans la vie des cités Nous ne vivons pas dans un monde parfait Mais on peut trouver des gens qui savent donner Sans essayer de se vanter par pure gentillesse, juste pour la solidarité Sans attendre un retour, c'est la vie dans les tours Les mairies ne captent pas toujours les appels au secours Parcours les allées sombres et vois les regards mesquins Et là, tu comprendras pourquoi si t'as pas de caillasse tu es en chien J'ai vu des familles se nourrir de châtaignes en automne J'ai déjà vu, entendu, un estomac qui résonne Aperçu les kisdés forcer la te-por du voisin Un facteur ouvrir le courrier, la concierge faire la catin J'ai vu des toxicos faire un appart' en plein jour Dans un coin, une voiture gé-bou comme si on y faisait l'amour Tu me crois ou tu me crois pas, mon gars Mais sache que des comme ça, pour toi j'en ai encore des tas Si tu penses qu'on peut vivre dans une seule ce-piè Ta meuf est sortie danser, mais elle n'est toujours pas rentrée Te procurer du rêve, mais tu ne sais où en trouver ? Tu cherches un endroit chaud et mouvementé pour aller bronzer Viens faire un tour dans les cités J'ai des copains chômeurs si tu veux les embaucher Viens faire un tour dans les cités Où sont passés ta sse-cai, tes papiers ? Viens faire un tour dans les cités Porter plainte mais où sont les kisdés Arrête de te faire des mythos, arrête de te faire des mythos</t>
+          <t>J'ai vu des mères ne pouvant plus s'occuper de leurs gosses Des hommes qui boxent leurs mômes avec ge-ra c'est atroce J'ai vu des gamines devenir mère, des mères devenir père Des fusils toujours chargés exploser chez un grand-père J'ai vu des concierges dique-sa faire des avances à des femmes au foyer Entendu des sons che-lou à minuit dans les cages d'escalier J'ai vu des parents fous qui n'avaient plus d'autorité Dans leurs propres maisons, se faire commander par un mouflet Les , les PJ, les huissiers Dans les escaliers, les ascenseurs sont toujours bloqués Des loquets sur toutes les portes un appart' habité par une morte Mais où peut-on vivre de la sorte ? Fort heureusement ici, il n'y a pas trop d'homicides Mais on assiste à des suicides de personnes dites lucides Contre mon gré, je suis obligé de té-ma toutes ces conneries Ne me dis surtout pas que c'est la vie Tu veux voir plus d'une famille vivre dans une seule ce-piè Viens faire un tour dans les cités T'as besoin de faire un reportage sur les squatteurs d'escalier Viens faire un tour dans les cités Tu cherches un endroit chaud et mouvementé pour aller bronzer Viens faire un tour dans les cités Arrête de te faire des mythos, tu veux connaître la vérité Viens faire un tour dans les cités Viens faire un tour dans les cités Mais si t'es pas du quartier, il ne faut surtout pas t'exciter Les gens s'y croient invincibles et sont vraiment susceptibles J'ai vu des gamins tenter des coups presque impossibles Vis ta vie ou bienvenue dans le cercle infernal Où les gestes insensés sont devenus mouvement banal Normal, quand tant de religions se retrouvent mélangées J'ai vu une église, une synagogue, non loin d'une mosquée J'ai tendu l'oreille, entendu des ragots, des fachos et des commères Déjà rencontré des menteurs jurer sur la tête de leurs mères Vé-nères contre le régisseur qui rotte-ca les illettrés J'ai vu les trésors des dealers sur les boîtes à ttres-le Les caves sont plus accessibles, les villes devenues té-ci Malgré cela, on y trouve garer quelques voitures J'ai vu des poursuites, les fuites ont très vite cessé C'est difficile ici, les bandits sont très durs à débusquer Tu veux voir plus d'une famille vivre dans une seule ce-piè Viens faire un tour dans les cités T'as besoin de faire un reportage sur les squatteurs d'escalier Viens faire un tour dans les cités Tu cherches un endroit chaud et mouvementé pour aller bronzer Viens faire un tour dans les cités Arrête de te faire des mythos, tu veux connaître la vérité Viens faire un tour dans les cités Il n'y a pas que des mauvais côtés dans la vie des cités Nous ne vivons pas dans un monde parfait Mais on peut trouver des gens qui savent donner Sans essayer de se vanter par pure gentillesse, juste pour la solidarité Sans attendre un retour, c'est la vie dans les tours Les mairies ne captent pas toujours les appels au secours Parcours les allées sombres et vois les regards mesquins Et là, tu comprendras pourquoi si t'as pas de caillasse tu es en chien J'ai vu des familles se nourrir de châtaignes en automne J'ai déjà vu, entendu, un estomac qui résonne Aperçu les kisdés forcer la te-por du voisin Un facteur ouvrir le courrier, la concierge faire la catin J'ai vu des toxicos faire un appart' en plein jour Dans un coin, une voiture gé-bou comme si on y faisait l'amour Tu me crois ou tu me crois pas, mon gars Mais sache que des comme ça, pour toi j'en ai encore des tas Si tu penses qu'on peut vivre dans une seule ce-piè Ta meuf est sortie danser, mais elle n'est toujours pas rentrée Te procurer du rêve, mais tu ne sais où en trouver ? Tu cherches un endroit chaud et mouvementé pour aller bronzer Viens faire un tour dans les cités J'ai des copains chômeurs si tu veux les embaucher Viens faire un tour dans les cités Où sont passés ta sse-cai, tes papiers ? Viens faire un tour dans les cités Porter plainte mais où sont les kisdés Arrête de te faire des mythos, arrête de te faire des mythos</t>
         </is>
       </c>
     </row>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>West Indies Crew, ouahou x4 Faut s'battre dans la vie Faut prendre des coups et puis tant pis Depuis qu'on est petit on s'laisse pas faire et c'est ainsi Qu'on s'bat dans la vie Depuis des décennies Qu'on travaille à Paris Les Antilles ont tout compris Un qui s'en est sorti C'est toutes les îles qu'on réussies Quand tu passes à la télé Bruno faut pas faire malpoli Dis bonjour à ta famille, à la Guadeloupe, à ta mamie On a déjà du mal et c'est comme ça timal Inutile de nous faire du mal Administration et hôpital On va travailler même si on gagne que dalle On apporte du soleil dans la capitale Qui cotise pour les retraites Éponge les dettes, fait la recette En fait Qui travaille mais fait la fête West Indies Crew, ouahou x4 Dans ma BM Le son tipique que j'aime J'te dépose à la plage Pani problème Quitte le système Viens si tu aimes La canne à sucre traditionnelle Contrôle le monde industriel Le punch à la citronnelle Fait tourner la tête aux demoiselles Le zouk et le soleil Ça change de la grisaille de Porte de La Chapelle Allée des sages, tous les plus beaux paysages On s'rejoint à la nage Viens faire un stage Y'a pas de missiles Dans les grandes villes Y'a trop d'flics T'es pas tranquille Change de domiciles Viens sur nos îles You might also likeWest Indies Crew, ouahou x4 Peut-être qu'un jour ils seront décorés Il a eut trop froid, il a préféré rentrer Mais le combat, je vais continuer Tous les jours que Dieu fait mec, je vais lutter Le message, je vais faire passer En attendant fais moi chauffer mon poulet boucané Sers moi un punch Que je reprenne du punch Force et courage Dans tous les sondages Dans tout le monde, chez les gens de tout âge La question est Hé, tu fais quoi cet été ? West Indies Crew, ouahou x3 Pourquoi pas vous ? West Indies Crew, ouahou x12</t>
+          <t>West Indies Crew, ouahou x4 Faut s'battre dans la vie Faut prendre des coups et puis tant pis Depuis qu'on est petit on s'laisse pas faire et c'est ainsi Qu'on s'bat dans la vie Depuis des décennies Qu'on travaille à Paris Les Antilles ont tout compris Un qui s'en est sorti C'est toutes les îles qu'on réussies Quand tu passes à la télé Bruno faut pas faire malpoli Dis bonjour à ta famille, à la Guadeloupe, à ta mamie On a déjà du mal et c'est comme ça timal Inutile de nous faire du mal Administration et hôpital On va travailler même si on gagne que dalle On apporte du soleil dans la capitale Qui cotise pour les retraites Éponge les dettes, fait la recette En fait Qui travaille mais fait la fête West Indies Crew, ouahou x4 Dans ma BM Le son tipique que j'aime J'te dépose à la plage Pani problème Quitte le système Viens si tu aimes La canne à sucre traditionnelle Contrôle le monde industriel Le punch à la citronnelle Fait tourner la tête aux demoiselles Le zouk et le soleil Ça change de la grisaille de Porte de La Chapelle Allée des sages, tous les plus beaux paysages On s'rejoint à la nage Viens faire un stage Y'a pas de missiles Dans les grandes villes Y'a trop d'flics T'es pas tranquille Change de domiciles Viens sur nos îles West Indies Crew, ouahou x4 Peut-être qu'un jour ils seront décorés Il a eut trop froid, il a préféré rentrer Mais le combat, je vais continuer Tous les jours que Dieu fait mec, je vais lutter Le message, je vais faire passer En attendant fais moi chauffer mon poulet boucané Sers moi un punch Que je reprenne du punch Force et courage Dans tous les sondages Dans tout le monde, chez les gens de tout âge La question est Hé, tu fais quoi cet été ? West Indies Crew, ouahou x3 Pourquoi pas vous ? West Indies Crew, ouahou x12</t>
         </is>
       </c>
     </row>

--- a/data/02_intermediate/cleaned_Doc_Gynéco_songs.xlsx
+++ b/data/02_intermediate/cleaned_Doc_Gynéco_songs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C93"/>
+  <dimension ref="A1:C90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -577,12 +577,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Sacrifice de poulets</t>
+          <t>Né ici</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>001. Rocé - On s'habitue 002. Scred Connexion - Scred Connexion Un nouveau nom dans ta collection 003. Oxmo Puccino - L'Amour est mort 004. OFX - Je n'ose y croire 005. Ideal J - Le Combat Continue 2 006. Beat de Boul - Dans la Sono 007. Suprême NTM - On est encore là 008. East - Straight From The Underground 009. MC Solaar - Samedi Soir Sur un Banc 010. IAM - Un bon son brut pour les truands 011. Zoxea - Rap, musique que j'aime 012. Sheryo - Ghetto-Trip 013. Triptik - Panam' 014. Vicelow feat. Akhenaton, Sako Rachel Claudio - Nouvel Automne remix 015. Hocus Pocus - Une Zone de Tensions 016. Doc Gyneco - L'Homme qui ne valait pas dix centimes 017. Fabe - Comme un Rat dans l'Coin 018. X-Men - Retour aux Pyramides 019. Kohndo - Un Idéal 020. Explicit Samouraï - X. Plicit Sentence 021. Akhenaton - Entrer dans la Légende 022. N.A.P. - Le Ghetto Pleure 023. Diam's - Premier Mandat 024. Passi feat. Akhenaton - Le Monde est à Moi 025. Mo'vez Lang feat. Zoxea - On vient de loin 026. Chiens de Paille - Comme un Aimant 027. Nakk feat. Les 10', Wallen - On se reverra là-haut 028. Lunatic - Introduction 029. Hocus Pocus - Seconde Formule 030. Koma - Et si chacun 031. Bambi Cruz - Ouvre les yeux 032. Haroun - La Routine 033. Mokless - Ca tourne pas rond 034. Morad - Un Point c'est Tout 035. Koma - Loin des Rêves 036. Fabe - Classique 037. Passi feat. Les Choeurs de l'Armée Rouge - Emeutes 038. Saïan Supa Crew - La Preuve par 3 039. MC Solaar - La Belle et le Bad Boy 040. La Cliqua - Tué dans la Rue 041. Ärsenik - L'Enfer remonte à la surface 042. Les Sages Poètes de la Rue - Bons Baisers du Poste 043. Lunatic - Le Crime Paie 044. IAM - Demain, c'est loin 045. Suprême NTM - Laisse pas traîner ton fils 046. X-Men - Pendez-les ! Bandez-les ! Descendez-les ! 047. Sir Doum's - Je lutte en rimant 048. Scred Connexion - Partis de Rien 049. Ideal J - Hardcore 050. Oxmo Puccino - L'Enfant Seul 051. Doc Gyneco - Dans ma Rue 052. Assassin - La Formule Secrète 053. Busta Flex - J'fais mon job à plein temps 054. Rocé - Plus d'Feeling 055. Too Leust - Le Roseau 056. Explicit Samouraï - Le Roseau 057. MC Solaar - Nouveau Western 058. Fabe - Excusez-nous 059. Fabe - Des Durs, des Boss des Dombis ! 060. Fabe - L'Impertinent 061. Fabe - Le Rap et Moi 062. Fabe - L'Emmerdeur Public n1 063. Rohff - Génération Sacrifiée 064. La Rumeur - L'oiseau fait sa cage 065. Ministère A.M.E.R - Sacrifice de Poulets 066. Ideal J - Si je rappe ici 067. Hocus Pocus - 7.fa.7 068. Saïan Supa Crew - KLR 069. Oxmo Puccino - LAmour est mort 070. Suprême NTM - Outro 071. Dicidens feat. Lunatic - De Larmes et de Sang 072. MC Solaar - Solaar Pleure II 073. OFX - France 074. Time Bomb - Explose 075. Time Bomb - Les Bidons veulent le Guidon 076. IAM - Petit Frère 077. Fonky Family - Art de Rue 078. Lunatic - Le Son qui met la Pression 079. Disiz la Peste - Jpète les plombs 080. ShurikN - Samourai 081. MC Solaar - Obsolète 082. Saïan Supa Crew - 14.02.2002 083. Les Sages Poètes de la Rue - Quest-ce qui fait marcher les Sages ? 084. MC Jean Gab1 - Jtemmerde 085. Mafia K1 Fry - Pour Ceux 086. Akhenaton - Jai pas de face 087. Oxmo Puccino - Mama Lova 088. Booba feat. Nessbeal - Sans Ratures 089. MC Solaar - Arkansas 090. Hocus Pocus - Panique au Saloon 091. Fabe - Aujourd'hui 092. Saïan Supa Crew - J'adore ça 093. Suprême NTM - Seine-Saint-Denis Style 094. Rohff - 94 095. Shurik'N feat. Akhenaton - Manifeste 096. Mo'vez Lang feat. Mala - C'est ça gars 097. Ministère A.M.E.R. - Plus vite que les balles 098. Ideal J feat. Demon One Rohff - L'Amour 099. La Clinique - On avance 100. Rocé - Pour l'Horizon 101. 11'30 contre les Lois Racistes 102. Booba - Repose en Paix 103. Oxmo Puccino - L'Amour est mort, mets... 104. KDD - Qui tu es ? 105. X-Men - J'attaque du Mike 106. IAM - Pharaon Reviens 107. Ärsenik - Boxe avec les mots 108. Expression Direkt - Dealer Pour Survivre 109. Passi - Les Flammes du Mal 110. Chiens de Paille - Maudits soient les yeux fermés 111. Suprême NTM - Le Monde de Demain 112. Oxmo Puccino feat. Booba - Pucc' Fiction 113. 113 - Les Princes de la Ville 114. Doc Gyneco - Nirvana 115. Akhenaton - Mon Texte, le Savon 116. Fabe - La Tête Haute Tenue 117. Saïan Supa Crew - G-Padpo 118. MC Solaar - Caroline 119. Casey - Dans nos Histoires 120. Keny Arkana - Victoria16</t>
+          <t>Là-bas, il fait chaud, on boit l'eau du coco Sous les cocotiers, les filles sont dorées Les maillots mouillés et les bondas bombés Ça sent le Colombo, les plats épicés Y a du zouk à fond, des fruits de la passion Francky Vincent est le saint patron On coupe la canne pour en prendre le sucre Mélanger citron vert et rhum Trois Rivières Bologne ou La Mauny et oui c'est clair Clair comme l'eau comme l'eau de la mer J'y vais quand c'est gratuit, congés bonifiés Dis-moi Timal, est-ce que tu connais ? Suis-moi dans les hauteurs de la Soufrière Je suis le guide touristique qui temmène en Basse-Terre On tape une pointe pour aller à la pointe C'est du frotter-frotter et des gens qui s'éreintent Ma mère est née là-bas Mon père est né là-bas Moi, je suis né ici Dans la misère et les cris bis C'est le deuxième couplet, j'espère qu'on va clipper Tu pourras voir la tristesse de mon quartier Ici tout est gris, ça s'appelle Paris Les rues sont mortes, les filles décolorées Pour rester bronzées, elles brûlent sous UV Toujours fâchée, la fille de la ville Est agressive comme un flic en civil Il y a comme une odeur de gaz sur les Champs-Élysées Et des bombes pètent dans le RER D Ma mère est fatiguée, je la laisse respirer Je vis de mon côté et tente de subsister Arrête de rapper me crie-t-elle toute la journée Ce n'est pas sérieux, trouve un métier Fumer ça donne faim, je suis Arsène Lupin Je tape à E.D même sans les mains Sur mon canapé, on est moins serrés C'est sûr certains se sont fait soulever Je pense aux novices et n'oublie pas mes complices Ma mère est née là-bas Mon père est né là-bas Moi, je suis né ici Dans la misère et les cris J'veux porter des shorts de toute ma vie Avec mon escorte, quitter Paris Manger du poisson grillé sur la plage du Gosier Prendre des bains de mer avec le ministère Mais je me suis noyé, je ne sais pas nager Les rues sont profondes et mènent toutes au boulevard Ney Comment s'en sortir pour la fille du quartier Elle croit que pour percer, il faut se faire trouer Certains jouent au foot et veulent devenir pros D'autres dealent et rêvent de kilos Les seringues mortes se ramassent à la pelle Sur les trottoirs de la rue La Chapelle On protège nos fils de tout ce vice Dans les cours d'école on ne sniffe plus de colle Drogue et alcool ont pris le monopole Ma vie n'est pas simple, elle n'est pas funky Moi, je suis né ici et mon enfant aussi Ma mère est née là-bas Mon père est né là-bas Moi, je suis né ici Dans la misère et les cris</t>
         </is>
       </c>
     </row>
@@ -594,12 +594,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Né ici</t>
+          <t>Les filles du moove</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Là-bas, il fait chaud, on boit l'eau du coco Sous les cocotiers, les filles sont dorées Les maillots mouillés et les bondas bombés Ça sent le Colombo, les plats épicés Y a du zouk à fond, des fruits de la passion Francky Vincent est le saint patron On coupe la canne pour en prendre le sucre Mélanger citron vert et rhum Trois Rivières Bologne ou La Mauny et oui c'est clair Clair comme l'eau comme l'eau de la mer J'y vais quand c'est gratuit, congés bonifiés Dis-moi Timal, est-ce que tu connais ? Suis-moi dans les hauteurs de la Soufrière Je suis le guide touristique qui temmène en Basse-Terre On tape une pointe pour aller à la pointe C'est du frotter-frotter et des gens qui s'éreintent Ma mère est née là-bas Mon père est né là-bas Moi, je suis né ici Dans la misère et les cris bis C'est le deuxième couplet, j'espère qu'on va clipper Tu pourras voir la tristesse de mon quartier Ici tout est gris, ça s'appelle Paris Les rues sont mortes, les filles décolorées Pour rester bronzées, elles brûlent sous UV Toujours fâchée, la fille de la ville Est agressive comme un flic en civil Il y a comme une odeur de gaz sur les Champs-Élysées Et des bombes pètent dans le RER D Ma mère est fatiguée, je la laisse respirer Je vis de mon côté et tente de subsister Arrête de rapper me crie-t-elle toute la journée Ce n'est pas sérieux, trouve un métier Fumer ça donne faim, je suis Arsène Lupin Je tape à E.D même sans les mains Sur mon canapé, on est moins serrés C'est sûr certains se sont fait soulever Je pense aux novices et n'oublie pas mes complices Ma mère est née là-bas Mon père est né là-bas Moi, je suis né ici Dans la misère et les cris J'veux porter des shorts de toute ma vie Avec mon escorte, quitter Paris Manger du poisson grillé sur la plage du Gosier Prendre des bains de mer avec le ministère Mais je me suis noyé, je ne sais pas nager Les rues sont profondes et mènent toutes au boulevard Ney Comment s'en sortir pour la fille du quartier Elle croit que pour percer, il faut se faire trouer Certains jouent au foot et veulent devenir pros D'autres dealent et rêvent de kilos Les seringues mortes se ramassent à la pelle Sur les trottoirs de la rue La Chapelle On protège nos fils de tout ce vice Dans les cours d'école on ne sniffe plus de colle Drogue et alcool ont pris le monopole Ma vie n'est pas simple, elle n'est pas funky Moi, je suis né ici et mon enfant aussi Ma mère est née là-bas Mon père est né là-bas Moi, je suis né ici Dans la misère et les cris</t>
+          <t>Mandarina double M, etc Les sacs remplis de tracts de soirées La chaussure, y'a pour les talons carrés Morgan ou Kookaï pour les sapes serrées Le tout parfumé au Trésor, leur parfum sacré La plupart en BEP, les meilleures passent un bac G Elles rêvent de cinéma et de rôles à la Madonna De chanter comme Vanessa, et de mecs comme Apache Elles veulent des flashs de photo, défiler sur du yoyo Toutes ces femelles envoutées par Chanel, Paco Ne se soignent plus chez Gynéco Leur livre de chevet s'appelle Photo, Mode ou Casting Elles prennent des cours et courent de casting en casting Je suis une fille du moove, tu mens Je suis une fille du moove, tu mens Je suis une fille du moove, tu mens Je suis une fille du moove, tu mens Toc, toc, toc, quoi de neuf Doc ? Toc, toc, toc, suis-je en cloque ? Enfin tu vas toucher des allocs Avec l'argent de ton enfant Tu iras en soirées rap, jazz, rock Pas de Pampers, mais du Poppers Au lieu de lui acheter des couches Tu essaieras de rentrer au Bains-douches Tu l'appelleras Malcom, Jordan ou Dylan Oh nan il ment À trois mois tu l'emmèneras à Châtelet-les-Halles À six mois tu lui présenteras son nouveau Papa Squale À neuf mois il mangera au KFC Et à un an, il ira tout seul en soirée Les filles du mouvement rêvent d'enfants assortis À leur sac, à leurs sapes, je suis pas d'ac, mais je m'en tape Depuis que Nike a sorti des Jordan pour tout petits pieds Les filles de soirées veulent de tout petits bébés Je suis une fille du moove, tu mens Je suis une fille du moove, tu mens Je suis une fille du moove, tu mens Je suis une fille du moove, tu mens C'est Barbie Zoulette qui va dans toutes les fêtes Elle joue la starlette et moi ça me prend la tête Elle sort avec Ken même sans plastique Rappelle-toi de l'époque ou tu sautais à l'élastique Ton sac de bonbons devenu carnet de téléphone Fini dêtre mignonne, tu préfères être bonne Respecte-toi, je ne le ferai pas pour toi Une fille du mouvement, ça tourne avec le vent Je suis une fille du moove, tu mens Je suis une fille du moove, tu mens Je suis une fille du moove, tu mens Je suis une fille du moove, tu mens J'aime la rouler, la feuille à rouler J'aime la fumer, la p'tite fille bien roulée J'aime la rouler, la feuille à rouler J'aime la fumer, la p'tite fille bien roulée J'aime la rouler, la feuille à rouler J'aime la fumer, la p'tite fille bien roulée</t>
         </is>
       </c>
     </row>
@@ -611,12 +611,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Les filles du moove</t>
+          <t>L’homme qui ne valait pas dix centimes</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Mandarina double M, etc Les sacs remplis de tracts de soirées La chaussure, y'a pour les talons carrés Morgan ou Kookaï pour les sapes serrées Le tout parfumé au Trésor, leur parfum sacré La plupart en BEP, les meilleures passent un bac G Elles rêvent de cinéma et de rôles à la Madonna De chanter comme Vanessa, et de mecs comme Apache Elles veulent des flashs de photo, défiler sur du yoyo Toutes ces femelles envoutées par Chanel, Paco Ne se soignent plus chez Gynéco Leur livre de chevet s'appelle Photo, Mode ou Casting Elles prennent des cours et courent de casting en casting Je suis une fille du moove, tu mens Je suis une fille du moove, tu mens Je suis une fille du moove, tu mens Je suis une fille du moove, tu mens Toc, toc, toc, quoi de neuf Doc ? Toc, toc, toc, suis-je en cloque ? Enfin tu vas toucher des allocs Avec l'argent de ton enfant Tu iras en soirées rap, jazz, rock Pas de Pampers, mais du Poppers Au lieu de lui acheter des couches Tu essaieras de rentrer au Bains-douches Tu l'appelleras Malcom, Jordan ou Dylan Oh nan il ment À trois mois tu l'emmèneras à Châtelet-les-Halles À six mois tu lui présenteras son nouveau Papa Squale À neuf mois il mangera au KFC Et à un an, il ira tout seul en soirée Les filles du mouvement rêvent d'enfants assortis À leur sac, à leurs sapes, je suis pas d'ac, mais je m'en tape Depuis que Nike a sorti des Jordan pour tout petits pieds Les filles de soirées veulent de tout petits bébés Je suis une fille du moove, tu mens Je suis une fille du moove, tu mens Je suis une fille du moove, tu mens Je suis une fille du moove, tu mens C'est Barbie Zoulette qui va dans toutes les fêtes Elle joue la starlette et moi ça me prend la tête Elle sort avec Ken même sans plastique Rappelle-toi de l'époque ou tu sautais à l'élastique Ton sac de bonbons devenu carnet de téléphone Fini dêtre mignonne, tu préfères être bonne Respecte-toi, je ne le ferai pas pour toi Une fille du mouvement, ça tourne avec le vent Je suis une fille du moove, tu mens Je suis une fille du moove, tu mens Je suis une fille du moove, tu mens Je suis une fille du moove, tu mens J'aime la rouler, la feuille à rouler J'aime la fumer, la p'tite fille bien roulée J'aime la rouler, la feuille à rouler J'aime la fumer, la p'tite fille bien roulée J'aime la rouler, la feuille à rouler J'aime la fumer, la p'tite fille bien roulée</t>
+          <t>Liaisons dangerous Doc Gyneco Si tu savais ce qu'ils pensent des gens de couleur, ma sur ! Y'a pas de fleurs dans mon malheur Pour t'en offrir, je me fais rappeur Pourquoi subir tel un cireur de chaussures ? Pour m'en sortir, je suis conteur de mésaventures Un mec à la recherche d'une femme pure Qui se la raconte pas et qui a de l'allure, c'est sûr Et si toutes les meufs étaient carrées comme Mariah Je fumerais moins, je boirais moins de Bavaria Je combattrais la peste, la malaria J'aurais la Foi comme Mère Teresa Toutes ces promesses gravées sur le cercueil de Lady Di Comme à Dallas pour Kennedy Vous m'aurez pas, j'ai un holster sous mon Teddy Le Pape endort la masse avec des promesses à la messe Laisse, j'encaisse... Vamos todos juntos ! Que la guerra va a empezar La guerra empezará Como Zapata lo diría Hacer la revolución La victoria reinará Reinará Et si, pour percer, bercer les gens de bonne musique Faut signer sur des labels qui ne pensent qu'au fric Je le fais, et si je pouvais je ferais les pubs Qui vont avec les tubes et tu comprendrais comment on t'entube Demande à Virgin si j'ai des copines dans la machine Elle, elle a changé le cours de ma vie C'est des sadiques Je veux le contrôle de mes clips, de ma musique Fonce-dé mais pas te-bê Je suis pas la poule aux disques d'or ni le presse-billet Un coup de rhum vieux et je m'arrache si Dieu le veut J'en ai 23 et Il a des projets pour moi J'ai pas raison de vouloir faire les Liaisons ? Ou t'as peur qu'enfin arrive notre saison ? T'es qu'une balance, un mec comme toi peut suffire A faire sauter tout ce qu'on veut créer, notre empire Vamos todos juntos ! Que la guerra va a empezar La guerra empezará Como Zapata lo diría Hacer la revolución La victoria reinará Reinará Sortir de la musique comme j'y suis entré, libre Reprendre les livraisons lorsque mon bippeur vibre On déclare ce jeune branleur ivre révolutionnaire Avec le recul, la vérité a dû leur plaire Ils parlent de moi en exemplaire Ils disent que je suis fou Que dans la vie, j'ai fait mon trou Pas besoin de grimper dans leur estime Moi je suis l'homme qui ne valait pas dix centimes Y'a que les morts qui parlent pas Un dernier skeud avant qu'on me fasse sauter le pas Quoi qu'il arrive sur la planète Terre Dans le monde des affaires, le rap, les ministères C'est toujours un gangster qui contrôle l'affaire x2 Vamos todos juntos ! Que la guerra va a empezar La guerra empezará Como Zapata lo diría Hacer la revolución La victoria reinará Reinará</t>
         </is>
       </c>
     </row>
@@ -628,12 +628,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>L’homme qui ne valait pas dix centimes</t>
+          <t>Affaires de famille</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Liaisons dangerous Doc Gyneco Si tu savais ce qu'ils pensent des gens de couleur, ma sur ! Y'a pas de fleurs dans mon malheur Pour t'en offrir, je me fais rappeur Pourquoi subir tel un cireur de chaussures ? Pour m'en sortir, je suis conteur de mésaventures Un mec à la recherche d'une femme pure Qui se la raconte pas et qui a de l'allure, c'est sûr Et si toutes les meufs étaient carrées comme Mariah Je fumerais moins, je boirais moins de Bavaria Je combattrais la peste, la malaria J'aurais la Foi comme Mère Teresa Toutes ces promesses gravées sur le cercueil de Lady Di Comme à Dallas pour Kennedy Vous m'aurez pas, j'ai un holster sous mon Teddy Le Pape endort la masse avec des promesses à la messe Laisse, j'encaisse... Vamos todos juntos ! Que la guerra va a empezar La guerra empezará Como Zapata lo diría Hacer la revolución La victoria reinará Reinará Et si, pour percer, bercer les gens de bonne musique Faut signer sur des labels qui ne pensent qu'au fric Je le fais, et si je pouvais je ferais les pubs Qui vont avec les tubes et tu comprendrais comment on t'entube Demande à Virgin si j'ai des copines dans la machine Elle, elle a changé le cours de ma vie C'est des sadiques Je veux le contrôle de mes clips, de ma musique Fonce-dé mais pas te-bê Je suis pas la poule aux disques d'or ni le presse-billet Un coup de rhum vieux et je m'arrache si Dieu le veut J'en ai 23 et Il a des projets pour moi J'ai pas raison de vouloir faire les Liaisons ? Ou t'as peur qu'enfin arrive notre saison ? T'es qu'une balance, un mec comme toi peut suffire A faire sauter tout ce qu'on veut créer, notre empire Vamos todos juntos ! Que la guerra va a empezar La guerra empezará Como Zapata lo diría Hacer la revolución La victoria reinará Reinará Sortir de la musique comme j'y suis entré, libre Reprendre les livraisons lorsque mon bippeur vibre On déclare ce jeune branleur ivre révolutionnaire Avec le recul, la vérité a dû leur plaire Ils parlent de moi en exemplaire Ils disent que je suis fou Que dans la vie, j'ai fait mon trou Pas besoin de grimper dans leur estime Moi je suis l'homme qui ne valait pas dix centimes Y'a que les morts qui parlent pas Un dernier skeud avant qu'on me fasse sauter le pas Quoi qu'il arrive sur la planète Terre Dans le monde des affaires, le rap, les ministères C'est toujours un gangster qui contrôle l'affaire x2 Vamos todos juntos ! Que la guerra va a empezar La guerra empezará Como Zapata lo diría Hacer la revolución La victoria reinará Reinará</t>
+          <t>On prend des risques sur disque, au micro On pose notre discours sur beat disco, miss pointe chez ton disquaire Puisqu'au fond, on veut tous percer l'plafond J'fous d'la forme dans mon fond, mate c'que mes scarlas font Et si ça te parle à fond fous ta radio Et dis aux gosses fous qu'il faut foncer pour ses idéaux Époque silicone, j'sais plus à quel saint m'vouer Sur qui compter quand j'coule ma clique, ma seule bouée Ma famille c'est mes soss', en assoc' pour tout dégommer Gommer, grosse arnaque, gosse paumée, venu pour trôner Le biz du siècle, le casse de la décennie L'occase saisie, l'affaire qui roule pour l'état leucémie La roue a tourné, c'est ma tournée, né-tour avec nous Cours avec ton verre, trinquer, visnétour la journée La nuit on fff, on crrr, des cranes, tchtchi des veaucers Des boulots, déboulons sur Paname, déroulons tout ce que nous voulons Rimes dégueulasses, des histoires de slash sous flash Je t'en donne pendant deux heures gratuites au bash Tu donnes des styles pour poser sur ma compile Tu joues l'hostile, mais y a pas d'zoulettes viriles Rendons le verbe à ceux qui cognent Dur, au-delà des mots, on fera toute la sale besogne J'peux pas mentir aux jeunes, leur dire que j'ai des guns J'veux pas non-plus qu'ils pensent qu'on peut s'en sortir seul Calmes, posés, les miens en veulent Violent dans tes raps, écarte-toi idiot, et ferme ta gueule Y'a pas d'gangsters dans les studios, y a que des grandes gueules ! Il me manque une phase en eule eule eule C'est une affaire, une affaire de famille Fonder une famille car c'est tout ce qu'on a Viens dans ma famille et tu ne te feras plus jamais karna Tous on veut quéma la musique, le cinéma Tous on a trimé pour sortir de ce putain de coma Ta fête pue la défaite, c'est la victoire d'avance Mais au final à trois on pète ton équipe de France Un coffee shop, une casse, pour mon cop, madame Je cotise pour ma retraite à Amsterdam On monte tellement haut qu'on pourra plus redescendre On monte, on monte, et t'essayes de nous descendre Je sais qui sont les traîtres, on sait qui nous respecte Je sais c'que me réserve l'avenir, les armes sont prêtes C'est une affaire à faire en louzdé, lourdé Les louzes défoncés, rien que du lourd des vrais loups Derrière une louve prête à tout nettoyer jusqu'au bout Il faut que ça brille chez nous, on ché-la rien On préfère laver notre linge en famille C'est une affaire, une affaire de famille Nettoyer l'secteur, je crache ma vision vue d'l'intérieur J'pose une bombe, une spéciale pour ton postérieur Ma tronche en poster, style austère, et personne bronche On explose ta soirée, mes soces, moi et mon verre de punch. Et si on mise c'est pour rectifier les erreurs commises Mon rap guide les lascars comme Moïse sur la terre promise La mouise, ça renforce les liens, et quand la musique sonne Partout les groupies font péter le standard sur nos Ericsson Du succès, on a les clés, mon clan maque les réseaux sur beat musclé vif, à la Cassius Clay, à vif kiffe mon riff pète jusqu'en Haute-Volta Pose ton colt, bouge ton cul, et swingue comme Travolta. J'en place une pour les miens, car la famille y'a que ca qui compte J'en fais mon affaire, et à la surface ma clique remonte Que tous les lascars se bougent, que toutes les meufs remuent leurs fesses Que Dieu bénisse le mic quand Arsenik est dans la pièce Encaisse et danse, laisse tes rrr roule avec mon secteur Allume tes feux, craque l'allumette, fais feu sur le pera Affaire de mifa, te mouilles pas là-dedans, évite ca brille Pas la peine de te faire remarquer, gicle de là, mec te grille pas Te mêle pas de ca, laisse nous foutre le souk On va changer le pera, le disco, même en foutre au souk Arsenik, Doc Gynéco, ca part en vrilles, brillent Les quilles tombent, on s'en bat, c'est une affaire de famille C'est une affaire, une affaire de famille C'est une affaire, une affaire de famille</t>
         </is>
       </c>
     </row>
@@ -645,12 +645,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Affaires de famille</t>
+          <t>Tout saigne</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>On prend des risques sur disque, au micro On pose notre discours sur beat disco, miss pointe chez ton disquaire Puisqu'au fond, on veut tous percer l'plafond J'fous d'la forme dans mon fond, mate c'que mes scarlas font Et si ça te parle à fond fous ta radio Et dis aux gosses fous qu'il faut foncer pour ses idéaux Époque silicone, j'sais plus à quel saint m'vouer Sur qui compter quand j'coule ma clique, ma seule bouée Ma famille c'est mes soss', en assoc' pour tout dégommer Gommer, grosse arnaque, gosse paumée, venu pour trôner Le biz du siècle, le casse de la décennie L'occase saisie, l'affaire qui roule pour l'état leucémie La roue a tourné, c'est ma tournée, né-tour avec nous Cours avec ton verre, trinquer, visnétour la journée La nuit on fff, on crrr, des cranes, tchtchi des veaucers Des boulots, déboulons sur Paname, déroulons tout ce que nous voulons Rimes dégueulasses, des histoires de slash sous flash Je t'en donne pendant deux heures gratuites au bash Tu donnes des styles pour poser sur ma compile Tu joues l'hostile, mais y a pas d'zoulettes viriles Rendons le verbe à ceux qui cognent Dur, au-delà des mots, on fera toute la sale besogne J'peux pas mentir aux jeunes, leur dire que j'ai des guns J'veux pas non-plus qu'ils pensent qu'on peut s'en sortir seul Calmes, posés, les miens en veulent Violent dans tes raps, écarte-toi idiot, et ferme ta gueule Y'a pas d'gangsters dans les studios, y a que des grandes gueules ! Il me manque une phase en eule eule eule C'est une affaire, une affaire de famille Fonder une famille car c'est tout ce qu'on a Viens dans ma famille et tu ne te feras plus jamais karna Tous on veut quéma la musique, le cinéma Tous on a trimé pour sortir de ce putain de coma Ta fête pue la défaite, c'est la victoire d'avance Mais au final à trois on pète ton équipe de France Un coffee shop, une casse, pour mon cop, madame Je cotise pour ma retraite à Amsterdam On monte tellement haut qu'on pourra plus redescendre On monte, on monte, et t'essayes de nous descendre Je sais qui sont les traîtres, on sait qui nous respecte Je sais c'que me réserve l'avenir, les armes sont prêtes C'est une affaire à faire en louzdé, lourdé Les louzes défoncés, rien que du lourd des vrais loups Derrière une louve prête à tout nettoyer jusqu'au bout Il faut que ça brille chez nous, on ché-la rien On préfère laver notre linge en famille C'est une affaire, une affaire de famille Nettoyer l'secteur, je crache ma vision vue d'l'intérieur J'pose une bombe, une spéciale pour ton postérieur Ma tronche en poster, style austère, et personne bronche On explose ta soirée, mes soces, moi et mon verre de punch. Et si on mise c'est pour rectifier les erreurs commises Mon rap guide les lascars comme Moïse sur la terre promise La mouise, ça renforce les liens, et quand la musique sonne Partout les groupies font péter le standard sur nos Ericsson Du succès, on a les clés, mon clan maque les réseaux sur beat musclé vif, à la Cassius Clay, à vif kiffe mon riff pète jusqu'en Haute-Volta Pose ton colt, bouge ton cul, et swingue comme Travolta. J'en place une pour les miens, car la famille y'a que ca qui compte J'en fais mon affaire, et à la surface ma clique remonte Que tous les lascars se bougent, que toutes les meufs remuent leurs fesses Que Dieu bénisse le mic quand Arsenik est dans la pièce Encaisse et danse, laisse tes rrr roule avec mon secteur Allume tes feux, craque l'allumette, fais feu sur le pera Affaire de mifa, te mouilles pas là-dedans, évite ca brille Pas la peine de te faire remarquer, gicle de là, mec te grille pas Te mêle pas de ca, laisse nous foutre le souk On va changer le pera, le disco, même en foutre au souk Arsenik, Doc Gynéco, ca part en vrilles, brillent Les quilles tombent, on s'en bat, c'est une affaire de famille C'est une affaire, une affaire de famille C'est une affaire, une affaire de famille</t>
+          <t>Et voilà le retour du plus fonce-dé de la Clinique Moi Space l'Anesthésiste de la tour de contrôle Avec le Doom Décadent, Doc Gynéco hééééééééé Les sales gosses font leur entrée sur le boulevard Tant attendus par les rates et lascars du tier-quar On pète le champagne, on nique les bénéfices Les 2 schizos ont abandonné la 10 Sur le morceau, les gamins de la cité se baladent Plus fous que jamais, les colt et uzi dans le cab Comme le dit Bruno, y'a que du rap à l'eau Sur toutes les radios, heureusement v'la les sses-go La Clinique, la Clinique cercle vicieux Tu veux mettre une blouse, cela fait partie du jeu Tout n'est pas si facile, tout ne tient qu'à mon style Regarde moi ai-je l'air d'une zoulette qui part en vrille Je suis fou c'est certain, Paris nous appartient Tu peux te garder le soi-disant hip hop Parisien Je prends du gent-ar, j'ai mis ta rate sur le trottoir On ne peut te la rendre, elle nous rapporte des milliards Ne me considère pas comme le pantin du rap actuel Je n'ai pas toujours la virgule au dessus de mes semelles Moi je suis aussi libre que l'air Aussi bien réglé qu'une bombe dans un R.E.R Si t'as pris le train en marche, on te ramène au point de départ La paire de schizos vous coupe le tête en plein sur le boulevard - Les sales gosses sont dans la place - Tout saigne - Y'a du groove dans la basse - Ça paye - La Clinique est dans la place - Tout saigne - Y'a du groove dans la basse - Ça paie - Les sales gosses sont dans la place - Tout saigne - Y'a du groove dans la basse - Ça paye - La Clinique est dans la place - Tout saigne - Y'a du groove dans la basse Toujours 'chiré, chaque minute défoncé N'invite pas la Clinique à ta putain de soirée Mais quoi qu'il en soit je préfère rester chez moi Le défilé hip hop caille-ra ne m'intéresse pas J'ai la flemmardise de bouger dans les bêtises La capitale est une surface où chaque fois je m'enlise J'aime donner des rendez-vous aux zippos du QG Fumer, fumer, les cônes, les cônes et les rates les lécher Sûrement qu'un de ces jours, on verra ma tête en première page Piégé par les paparazzi en train d'ouvrir une cage D'où sortiront mes lascars par centaines par milliers Une caverne où résident les bandits du quartier La tête dans les vapes, les poings sur la table Les scalpels sont dans les poches, sommes-nous des gens aimables ? Non ! Car je ne veux pas dealer avec le mouvement Comprends que les enfants de la Clinique veulent vivre longtemps Ma vie je la conçois avec des femmes et du fric Ainsi s'achève mon couplet digne d'un môme hystérique - Les sales gosses sont dans la place - Tout saigne - Y'a du groove dans la basse - Ça paye - La Clinique est dans la place - Tout saigne - Y'a du groove dans la basse - Ça paie - Les sales gosses sont dans la place - Tout saigne - Y'a du groove dans la basse - Ça paye - La Clinique est dans la place - Tout saigne - Y'a du groove dans la basse Je ne suis pas là pour appuyer, pour faire exister Tous les mecs du quartier qui s'la racontent rappeurs Ma destinée à moi c'est Ministère A.M.E.R Alors kiffe mon solo et ferme ta gueule négro Je suis aigri comme le pit à Chico J'ai 200 tasspés et 50 unités Je n'fais que serrer et m'la raconter J'ai bluffé des nonnes en pleines prières Moi j'insulte mon père et j'invoque Lucifer J'ai fourré mon doigt dans ton intimité Écarte les cuisses si tu veux apprécier Ne viens pas chercher le plus grand chien du quartier J'ai déjà piqué toutes les chiennes enragées Remonte ton froc quand tu sors du studio Pantin pour promo, MC rap à l'eau Laisse-moi passer, je suis chiré, je suis foncedé Le rap part en couilles et je lui prête mes boules Moi j'ai le manche et c'est ma femme qui roule Même à l'envers si tu n'sais pas l'faire Mon enfant va naître et le Doc en est fier Si tu veux pécho, viens voir Gynéco Mon grossiste est Virgin achète en kilos - Les sales gosses sont dans la place - Tout saigne - Y'a du groove dans la basse - Ça paye - La Clinique est dans la place - Tout saigne - Y'a du groove dans la basse - Ça paie - Les sales gosses sont dans la place - Tout saigne - Y'a du groove dans la basse - Ça paye - La Clinique est dans la place - Tout saigne - Y'a du groove dans la basse3</t>
         </is>
       </c>
     </row>
@@ -662,12 +662,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Tout saigne</t>
+          <t>Est-ce que ça le fait ?</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Et voilà le retour du plus fonce-dé de la Clinique Moi Space l'Anesthésiste de la tour de contrôle Avec le Doom Décadent, Doc Gynéco hééééééééé Les sales gosses font leur entrée sur le boulevard Tant attendus par les rates et lascars du tier-quar On pète le champagne, on nique les bénéfices Les 2 schizos ont abandonné la 10 Sur le morceau, les gamins de la cité se baladent Plus fous que jamais, les colt et uzi dans le cab Comme le dit Bruno, y'a que du rap à l'eau Sur toutes les radios, heureusement v'la les sses-go La Clinique, la Clinique cercle vicieux Tu veux mettre une blouse, cela fait partie du jeu Tout n'est pas si facile, tout ne tient qu'à mon style Regarde moi ai-je l'air d'une zoulette qui part en vrille Je suis fou c'est certain, Paris nous appartient Tu peux te garder le soi-disant hip hop Parisien Je prends du gent-ar, j'ai mis ta rate sur le trottoir On ne peut te la rendre, elle nous rapporte des milliards Ne me considère pas comme le pantin du rap actuel Je n'ai pas toujours la virgule au dessus de mes semelles Moi je suis aussi libre que l'air Aussi bien réglé qu'une bombe dans un R.E.R Si t'as pris le train en marche, on te ramène au point de départ La paire de schizos vous coupe le tête en plein sur le boulevard - Les sales gosses sont dans la place - Tout saigne - Y'a du groove dans la basse - Ça paye - La Clinique est dans la place - Tout saigne - Y'a du groove dans la basse - Ça paie - Les sales gosses sont dans la place - Tout saigne - Y'a du groove dans la basse - Ça paye - La Clinique est dans la place - Tout saigne - Y'a du groove dans la basse Toujours 'chiré, chaque minute défoncé N'invite pas la Clinique à ta putain de soirée Mais quoi qu'il en soit je préfère rester chez moi Le défilé hip hop caille-ra ne m'intéresse pas J'ai la flemmardise de bouger dans les bêtises La capitale est une surface où chaque fois je m'enlise J'aime donner des rendez-vous aux zippos du QG Fumer, fumer, les cônes, les cônes et les rates les lécher Sûrement qu'un de ces jours, on verra ma tête en première page Piégé par les paparazzi en train d'ouvrir une cage D'où sortiront mes lascars par centaines par milliers Une caverne où résident les bandits du quartier La tête dans les vapes, les poings sur la table Les scalpels sont dans les poches, sommes-nous des gens aimables ? Non ! Car je ne veux pas dealer avec le mouvement Comprends que les enfants de la Clinique veulent vivre longtemps Ma vie je la conçois avec des femmes et du fric Ainsi s'achève mon couplet digne d'un môme hystérique - Les sales gosses sont dans la place - Tout saigne - Y'a du groove dans la basse - Ça paye - La Clinique est dans la place - Tout saigne - Y'a du groove dans la basse - Ça paie - Les sales gosses sont dans la place - Tout saigne - Y'a du groove dans la basse - Ça paye - La Clinique est dans la place - Tout saigne - Y'a du groove dans la basse Je ne suis pas là pour appuyer, pour faire exister Tous les mecs du quartier qui s'la racontent rappeurs Ma destinée à moi c'est Ministère A.M.E.R Alors kiffe mon solo et ferme ta gueule négro Je suis aigri comme le pit à Chico J'ai 200 tasspés et 50 unités Je n'fais que serrer et m'la raconter J'ai bluffé des nonnes en pleines prières Moi j'insulte mon père et j'invoque Lucifer J'ai fourré mon doigt dans ton intimité Écarte les cuisses si tu veux apprécier Ne viens pas chercher le plus grand chien du quartier J'ai déjà piqué toutes les chiennes enragées Remonte ton froc quand tu sors du studio Pantin pour promo, MC rap à l'eau Laisse-moi passer, je suis chiré, je suis foncedé Le rap part en couilles et je lui prête mes boules Moi j'ai le manche et c'est ma femme qui roule Même à l'envers si tu n'sais pas l'faire Mon enfant va naître et le Doc en est fier Si tu veux pécho, viens voir Gynéco Mon grossiste est Virgin achète en kilos - Les sales gosses sont dans la place - Tout saigne - Y'a du groove dans la basse - Ça paye - La Clinique est dans la place - Tout saigne - Y'a du groove dans la basse - Ça paie - Les sales gosses sont dans la place - Tout saigne - Y'a du groove dans la basse - Ça paye - La Clinique est dans la place - Tout saigne - Y'a du groove dans la basse3</t>
+          <t>Passi au micro et mes mots sont flow Le son au niveau, mon rap est réglo Ma voix est lourde, mon style est pro Je suis le Double S, le numero uno dans le Calcio Promo, télé, radio terreau Peu importe, je reviens et m'exporte J'force tes portes, c'est la fête, l'ambiance est forte Ils fixent, je mixe sans oublier mes risques Pour ce monceau de risque, comme du Vicks 91, premier disque, première part dans les bacs Je deale l'artistique, tu craques sur ma musique Tac Après l'diagnostic et beaucoup d'critiques Tac Les journalistes tiquent et les syndicats Tac Tic tac tic tac, ma tactique c'est l'attaque Tac Ouais ouais, j'ai pour habitude d'être posé Comme Tyson, je suis du circuit des jeux, des jambes et des mots amers J'en ai des tonnes dans mon vestiaire J'éduque de toutes façons le rap et la boxe c'est comme du uc' Toujours direct droite, démarré pour déchirer Ok c'est bon, éclate-toi sur mon son Quoi qu'on dise, quoi qu'on fasse Laisse-les parler, j'suis toujours en place Est-ce que ça l'fait ? Ouais, ouais Faut qu'ça l'fasse, j'suis en place Laisse-moi passer, j'suis chiré, j'suis foncedé Laisse-moi passer, c'est à moi de donner J'suis le Doc Gyneco, j'suis le mec en gue-vo Le mec à la de-mo dont elles sont toutes accrocs Pas que des mots, elles kiffent mes jeux d'mots Et mon numéro, je le donne à toutes dans... Viens voir... Oh tu connais la suite, nan ? N'aie pas peur en créole Mwen ka baw ca kon ca pa ni pon bawawaw ! Doc Gyneco, kame te ça en shoua waw ! Doc Gyneco, oui je l'nais-co Oui tu l'nais-co, c'est l'gosse-bo qui lè-lè-lè-lè-lèche la feuille à rouler J'la lè-lè-lè-lèche car j'aime la fumer Tu sais qui a tué ouais, tu sais qu'j'ai flambé ouais Que j'ai donné des tonnes de styles ouuuuais Est-ce que ça l'fait ? Ouais, ouais Faut qu'ça l'fasse, j'suis en place En place, toujours en place Les patrons du rap montent en première classe À l'aise sur nos chaises, oui on pèèèèèze Et sur ce son, on te baaaaaise En place, comme Vegeta le Super Guerrier de l'Espace J'ai mauvaise réputation et un cur de glace Écoute ces feelings, prends tous ces ding-ding Ça te rend dingue-dingue mais ne sors pas ton flingue Pom Pom ! Double S pour Gyneco sur son premier album Pour toutes les métropoles-poles et pour les DOM-TOM ISSAP Kaméhamé-Ok comme Sangoku sur Sega, faya ! Dans le rap, augmente mon aura Là j'décolle, ton esprit j'cambriole T'en perds la boussole comme dans une chirée d'alcool Bourré M.A. Sol, tu connais mon symbole Est-ce que ça l'fait ? Ouais, ouais Faut qu'ça l'fasse, j'suis en place En place, quoi qu'il se passe Nous sommes toujours en place En place, quoi qu'il se passe Nous sommes toujours en place Passi, Gyneco, toujours en place Toujours en place Quoi qu'il se passe Nous sommes toujours en place</t>
         </is>
       </c>
     </row>
@@ -679,12 +679,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Est-ce que ça le fait ?</t>
+          <t>Classez moi dans la variet’</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Passi au micro et mes mots sont flow Le son au niveau, mon rap est réglo Ma voix est lourde, mon style est pro Je suis le Double S, le numero uno dans le Calcio Promo, télé, radio terreau Peu importe, je reviens et m'exporte J'force tes portes, c'est la fête, l'ambiance est forte Ils fixent, je mixe sans oublier mes risques Pour ce monceau de risque, comme du Vicks 91, premier disque, première part dans les bacs Je deale l'artistique, tu craques sur ma musique Tac Après l'diagnostic et beaucoup d'critiques Tac Les journalistes tiquent et les syndicats Tac Tic tac tic tac, ma tactique c'est l'attaque Tac Ouais ouais, j'ai pour habitude d'être posé Comme Tyson, je suis du circuit des jeux, des jambes et des mots amers J'en ai des tonnes dans mon vestiaire J'éduque de toutes façons le rap et la boxe c'est comme du uc' Toujours direct droite, démarré pour déchirer Ok c'est bon, éclate-toi sur mon son Quoi qu'on dise, quoi qu'on fasse Laisse-les parler, j'suis toujours en place Est-ce que ça l'fait ? Ouais, ouais Faut qu'ça l'fasse, j'suis en place Laisse-moi passer, j'suis chiré, j'suis foncedé Laisse-moi passer, c'est à moi de donner J'suis le Doc Gyneco, j'suis le mec en gue-vo Le mec à la de-mo dont elles sont toutes accrocs Pas que des mots, elles kiffent mes jeux d'mots Et mon numéro, je le donne à toutes dans... Viens voir... Oh tu connais la suite, nan ? N'aie pas peur en créole Mwen ka baw ca kon ca pa ni pon bawawaw ! Doc Gyneco, kame te ça en shoua waw ! Doc Gyneco, oui je l'nais-co Oui tu l'nais-co, c'est l'gosse-bo qui lè-lè-lè-lè-lèche la feuille à rouler J'la lè-lè-lè-lèche car j'aime la fumer Tu sais qui a tué ouais, tu sais qu'j'ai flambé ouais Que j'ai donné des tonnes de styles ouuuuais Est-ce que ça l'fait ? Ouais, ouais Faut qu'ça l'fasse, j'suis en place En place, toujours en place Les patrons du rap montent en première classe À l'aise sur nos chaises, oui on pèèèèèze Et sur ce son, on te baaaaaise En place, comme Vegeta le Super Guerrier de l'Espace J'ai mauvaise réputation et un cur de glace Écoute ces feelings, prends tous ces ding-ding Ça te rend dingue-dingue mais ne sors pas ton flingue Pom Pom ! Double S pour Gyneco sur son premier album Pour toutes les métropoles-poles et pour les DOM-TOM ISSAP Kaméhamé-Ok comme Sangoku sur Sega, faya ! Dans le rap, augmente mon aura Là j'décolle, ton esprit j'cambriole T'en perds la boussole comme dans une chirée d'alcool Bourré M.A. Sol, tu connais mon symbole Est-ce que ça l'fait ? Ouais, ouais Faut qu'ça l'fasse, j'suis en place En place, quoi qu'il se passe Nous sommes toujours en place En place, quoi qu'il se passe Nous sommes toujours en place Passi, Gyneco, toujours en place Toujours en place Quoi qu'il se passe Nous sommes toujours en place</t>
+          <t>Adidas, gants blancs, ho oui t'étais classe Le roi du smurf, c'était toi l'as des as Pour vingt francs l'entrée, la vie était belle Tous tes dimanches après-midi c'était La grange aux belles Au temps du Globo, tu tournais sur le dos Et moi Bruno, je me prenais pour Zico Tu dépouillais des doudounes et des casquettes Moi j'évitais les tacles et marquais d'une pichenette Pendant que tu salissais les murs à coups de graffitis Moi je tentais le coup franc magique de Michel Platini La carte d'Afrique autour du cou A fait de toi un vrai zoulou Si Afrika Bambataa te l'a mis dans le baba Moi j'ai encore la foi en Diego Maradona T'as rangé ton marqueur et tes bombes de peinture Car le phénomène de mode est passé à tout allure Je ne suis pas un charlatan de l'ancienne école Encore moins un zoulou de la nouvelle ras le bol Arrêtez de lui prendre la tête Arrêtez de jouer vos zoulettes Y'a que du rap à l'eau sur toutes les radios Classez-le dans la variet' Je me moque du hip-hop, ce n'est pas ma dope Je suis le type au top qui te critique non-stop Je me fous de la nation Zoulou Je ne sais pas danser ta hype, ni ta gogo La seule danse que je connais, c'est la danse des canards Qui en sortant de la mare, se secouent le bas des reins En faisant coin coin. T'aimes les Américains Tu copies leur attitude et leurs manières rudes, mec T'es abruti par MTV, Nike, Cross Colours et Karl Kani Si la variet' te prend la tête, moi dessus je fais la fête Et je pense que tes conquêtes s'éclatent sur mes chansonnettes Et dans les bacs de la Fnac Aux cotés des productions AB tu pourras me trouver Car je préfère être classé dans la variet' Arrêtez de lui prendre la tête Arrêtez de jouer vos zoulettes Y'a que du rap à l'eau sur toutes les radios Classez-le dans la variet' Classez classez classez classez-moi dans la variet' Classez classez classez classez-moi dans la variet' Oui je sais je me répète mais classez-moi dans la variet' Jette un il sur les States, c'est d'être hardcore la meilleure variet' Plus tu dis de fuck et de bitch dans tes textes Plus tu vends de disques et deviens une vedette Le rappeur gangsta tue devant les caméras Et regagne sa villa en Porsche Carrera Tes états d'âmes sont pour moi, comme les États d'Amérique Copieur... Arrêtez de lui prendre la tête Arrêtez de jouer vos zoulettes Y'a que du rap à l'eau sur toutes les radios Classez-le dans la variet'</t>
         </is>
       </c>
     </row>
@@ -696,12 +696,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Classez moi dans la variet’</t>
+          <t>30 minutes de Freestyle dans le Planète Rap de Nekfeu</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Adidas, gants blancs, ho oui t'étais classe Le roi du smurf, c'était toi l'as des as Pour vingt francs l'entrée, la vie était belle Tous tes dimanches après-midi c'était La grange aux belles Au temps du Globo, tu tournais sur le dos Et moi Bruno, je me prenais pour Zico Tu dépouillais des doudounes et des casquettes Moi j'évitais les tacles et marquais d'une pichenette Pendant que tu salissais les murs à coups de graffitis Moi je tentais le coup franc magique de Michel Platini La carte d'Afrique autour du cou A fait de toi un vrai zoulou Si Afrika Bambataa te l'a mis dans le baba Moi j'ai encore la foi en Diego Maradona T'as rangé ton marqueur et tes bombes de peinture Car le phénomène de mode est passé à tout allure Je ne suis pas un charlatan de l'ancienne école Encore moins un zoulou de la nouvelle ras le bol Arrêtez de lui prendre la tête Arrêtez de jouer vos zoulettes Y'a que du rap à l'eau sur toutes les radios Classez-le dans la variet' Je me moque du hip-hop, ce n'est pas ma dope Je suis le type au top qui te critique non-stop Je me fous de la nation Zoulou Je ne sais pas danser ta hype, ni ta gogo La seule danse que je connais, c'est la danse des canards Qui en sortant de la mare, se secouent le bas des reins En faisant coin coin. T'aimes les Américains Tu copies leur attitude et leurs manières rudes, mec T'es abruti par MTV, Nike, Cross Colours et Karl Kani Si la variet' te prend la tête, moi dessus je fais la fête Et je pense que tes conquêtes s'éclatent sur mes chansonnettes Et dans les bacs de la Fnac Aux cotés des productions AB tu pourras me trouver Car je préfère être classé dans la variet' Arrêtez de lui prendre la tête Arrêtez de jouer vos zoulettes Y'a que du rap à l'eau sur toutes les radios Classez-le dans la variet' Classez classez classez classez-moi dans la variet' Classez classez classez classez-moi dans la variet' Oui je sais je me répète mais classez-moi dans la variet' Jette un il sur les States, c'est d'être hardcore la meilleure variet' Plus tu dis de fuck et de bitch dans tes textes Plus tu vends de disques et deviens une vedette Le rappeur gangsta tue devant les caméras Et regagne sa villa en Porsche Carrera Tes états d'âmes sont pour moi, comme les États d'Amérique Copieur... Arrêtez de lui prendre la tête Arrêtez de jouer vos zoulettes Y'a que du rap à l'eau sur toutes les radios Classez-le dans la variet'</t>
+          <t>Fais-moi voir ton côté intelectuel J'veux pas voir ton cul mais ton QI Pourquoi tu mets des bas résilles sur ton cerveau ? J'fais du gyneco, pas d'la philo T'es l'gars devant la porte qu'essaie de rentrer Tu connais même pas leurs codes Même si t'as l'dress-code, ils vont te bloquer Ta date de naissance, le nom d'ta belle-mêre Essaie tous les chiffres que tu connais Mais sache que la porte ne s'ouvrira jamais Et si tu t'demandes comment j'suis rentré J'ai juste poussé la porte, t'as oublié d'essayé J'ai pas d'problèmes avec Gavalda Mais j'mets pas d'science dans mon peu-Ra J'fais partie des gens simples et j'réfléchis pas Fais un voyage d'étude à BLC, dans la zone 4, aux Michelettes De la droiture avant l'cash, quand la vie t'rend muet Mon nom sur une vitre embuée avant l'crash de la voiture C'est comme ça qu'j'vois le Rap une écriture insignifiante Avant qu'on parte, le dernier cri d'une jeunesse édifiante Personne t'explique la vie, c'est un chemin introspectif L'unique défi, schéma atroce Une ligne de fuite pour perspective d'avenir Nos vies sont crades donc on défonce notre crâne Et plus j'connais la musique, plus j'aime les fausses notes Ce soir, ça part en impro, parait qu'ça kicke pas mal Comme Doc Gyneco, j'veux atteindre le nirvana Ouais, mon gars, tu sais bien, c'est pour les tiques-fana Mais surtout pour les frères qui sont là depuis l'début, là-bas Ceux qui écoutent depuis Paname, qui mettent pas de soupape C'est l'tou-bab toujours coupable, tu vois bien qu'tout part Tout l'monde parle de ça, tout l'monde parle de nous C'est comme ça qu'ça s'passe, j'arrive à pas de loup Afflelou comme Alph Lau', c'est comme ça qu'ça s'passe On a l'flow, on a le Ralph Lau', vas-y, Doums, balance le flow OK, on balance ça avec le popo Rien à foutre de tous ces pédés, nique la po-po -lice, j'arrive avec mes gars, on est posés àl Pour l'album de Nekfeu, on crache weed et flammes Que aç avec mes gars laxistes Pourquoi tu veux nous tester, négro, là ? Oui, j'insiste Pour te dire que c'est le fire, putain, oui, c'est trop dar On est des mecs de Paname, t'inquiète qu'on a la flamme Olympique, on baise ces pitres, rien à foutre de ces bitchs J'arrive avec mes gars et j'te rackette depuis les Pitch's Fucked up, j'en place pour mes gavas du 9 Qui va kicker ça ? Vas-y, balance ça, mon reuf J'ai le flow embrumé, en plus, j'suis enrhumé On vient pas pour t'entuber, le studio est enfumé Car y'a Doums et y'a Doc Gyneco, c'est bon ça C'est pour tous les mecs qui nnait-co, c'est comme ça C'est comme ça qu'on l'fait, on a les codes, fuck l'école Fuck les cops quand ils sont pas sympas C'est comme ça qu'ça s'passe sur l'instru Framal, j'sens qu't'es prêt à partir, c'est l'départ Fais ça vite comme un guépard, yeah Hé, putain, j'suis chire-dé, j'suis fonce-dé Qu'est-ce qu'tu demandes de faire ? A cette heure-ci, putain, j'sais pas quoi faire On m'appelle Doc alors j'vais t'mettre à l'heure Mais t'es mon petit frère alors je t'aime et j'te parle avec le cur Putain, les phrases elles sont longues J'arrive à débiter mais j'sais pas quoi t'dire J'ai pas assez d'feuilles longues et j'peux pas fumer Merde, putain, vous êtes sûrs que j'peux pas donner ? Oh, et puis j'donne à l'ancienne, on dirait Lionel D Fuck ton crew, sale pédale, ça bouge ap T'es tout naze, écoute, ça fait breh ! Rien qu'on fait des classiques, S-Crew, le nom d'mon gang Y'a que dans l'ombre qu'on tranche pour pas finir aux assises Souvent dans un camouflage vert kaki L'ambiance est pourave, y'a des toux grasses ça vi-ser d'la weed Ici, tu perds ta vie, on t'nique ta mère à 6 Une bonne paire de Nike Air dans la tête, c'est facile Le leust est entouré donc on fait ça à notre manière Bientôt le L est en tournée donc prenez garde à vos arrières Bitch ! Et toi, dis moi pourquoi tu causes On est au festival de Cannes, toi, tu traînes à la Foire du Trône Comme l'Homme de l'Est, j'attends l'apocalypse Je profite avant qu'on m'refroidisse, avant qu'ma peau palisse Dans mon ciboulot, j'suis mitigé, oui, si j'ai un petit boulot Un salaire, j'irais prendre l'air même si j'vivais ma vie sous l'eau Le Rap me dégoûte comme les pires aspects des filles gâtées J'vais vite gratter malgré que j'dérive, là, mais j'déprime jamais Les vices cachés des miss fâchées, ça entraine des vies gâchées Dédicacer des petites tasses-pé ? Autant caner déshydraté Ma vie d'avant, merde ! J'peux pas la quitter Zer-2 va rappliquer, faire de l'art appliqué J'vais devoir jouer les crevards, plus qu'deux lattes à tirer Tous maladifs, touche pas la mif' ou j'vais te ratatiner Faut que j'devienne légendaire, que j'éclaire les lanternes mais Ici, c'est l'enfer depuis qu'j'vois mes frères s'faire enfermer Nique le système carcéral, j'ai pris flemme de passer àl Je préféré les décibels et puis les péritels des caméras Ne m'colle pas d'étiquette, j'bicrave des citernes de came hélas J'baise les fliquettes, éviscère des criquets de chaque tié-quar Nous allons nous équiper comme les p'tits mecs des favelas Le ballon, j'l'ai esquivé, j'ai fait vibrer des tas d'pétasses Wesh kafass ? Moi, j'froisse des spliffs La poisse m'esquive, j'suis la poussière dans l'mauvais il Tous les yeux m'guettent, à croire que j'm'exhibe Bandes de sales vermines, que pourrez-vous faire quand j'aurai l'seum ? Nada, ça va trouer des schnecks Et puis clouer des becs, t'es dégouté, t'es dèf Venez gouter mes textes, allez, courez les mecs Ca va couper des têtes, tout est prétexte à jouer les chefs Ouais, masquez vos pulsions, j'viens pas rouler des pelles Dans l'trou de tes fesses j'fait ma révolution Je suis ce shaolin intégrant le Rap aux arts martiaux Quand t'es déjà au lit, transformant le cro-mi en arme d'acier Que celui qui parle de la vie des autres regarde la sienne Trop d'astreintes, on passe plus de temps A s'plaindre qu'à remercier, que Dieu m'pardonne Dans la vie aucun format simple, mes reufs à l'instinct carnassier Vendent plus de drogue qu'un pharmacien J'ai qu'l'envie d'karna ces mêmes clones Coulée dhémoglobine, le mic' s'tache Un texte de Mac de mon clan clean Pendant qu'les mecs s'touchent Ça peut ler-par mon premier flow s'appelait placentas Je sors du sas et rentre dans l'south quand mon soss' place un tag Teubé sors ton nez d'la poudre J'suis un peu désordonné mais rien à tref' des ordres donnés J'entends que des remarques, personne le fait mieux, à part ça On m'appelle Dead Man, A.K.A le vieux bâtard sale On a pas d'manager et l'équipe fait sa com', ça-comme On a pas d'mal à gérer, c'est toujours 5050, ça cogne, ça cogne C'est comme quand les keufs courent te rattraper Le juge goûtera la joie quand, toi, tu goûteras ta peine Quelques gouttes de Rap, à peine Sauf que maintenant, c'est plus des essais On peut conclure en ce sens qu'la concurrence pue des aisselles Que faire de plus, gars ? À part les effacer Yo, sucez moi bien jusqu'à, la paralysie faciale ×2 T'es le boss de qui ? T'es le boss de quoi ? Tu te prends pour qui ? Tu te prends pour quoi ? Pourquoi tu tires ? Ici, ça tire Alors rentre chez 'oit c'est l'son du ghetto Et si tu connais pas mon blaze, c'est B.2O.Z.2O Si y'a d'la monnaie j'suis chaud, y'aura pas besoin d'me ffer-chau J'aime pas les fachos, veulent voir les blacks au cachot , c'est trop chaud mais, moi, j'suis dans l'pochon Je te ferai pas l'amour, bitch, t'as les pieds de cochon Le jour où je vais prendre du gallon Mes deux bras seront trop longs, frelon, j'vais ramener des ballons C'est pour mes gars sûrs et certains Bakary 93.150, on a des couilles en béton , j'lui montre ma tête de python Des billets violets dans un putain d'sac Louis Vuitton Rien à foutre même si ils ont débranché la table Faut pas déranger madame, faut pas mélanger la came C'est comme ça qu'ça s'passe, j'ai un truc macabre J'dis n'importe quoi pour gagner du temps car y'a blanco C'est comme ça qu'ça s'passe, c'est pour les gars de Blankok Tu vas bouncer jusqu'à Bangkok, t'sais, quand mon gang cogne C'est comme un gomme-cogne comme à Boston Retour des shinobis mais crois pas que c'est l'fric notre pilier J'compte plus les rivaux pliés encore immobiles On a acquis notre biz comme Nino B., Jack City Faut qu'on s'lance dans l'immobilier, faut qu'on multiplie nos billes Crois qu'les paillettes et les strass' vont aliéner mes srhabs Ils trouvent mes alliés détestables Ils s'disent Ça y est, c'est des stars On passe à base de tasses calientes, slash, variétés d'sapes On confond plus les Cayenne et les Smart Très vite, les bitchs voient que j'évite les filles d'joie J'effrite et puis j'bois, si l'ennemi s'précise Très vite l'équipe s'équipe, méfie-toi On fait l'beurre, on intercepte le cash, ton espèce De garce veut réchauffer mon cur et mon zgeg de glace On laissera les archives, ouais, Phaal gifle J'envoie les dragées, j'les laisse à l'état léthargique Trop d'écart j'les calcine, les garces s'écartent vite On est classes, on te-cla les gares-ci J'appelle ta pétasse Bécassine Oublie la paix, kho, on monte de 0 à 100 Verse pour les frérots absents pendant l'apéro J'ai la conscience qui part en couille, tu vas galérer pour m'cerner Regarde le diable partir en douce avant qu'tu t'enfonces dans le gouffre J'te regarde, t'as vraiment pas de fouf et j'me sens pas concerné J'ai vu des guesh en pleine se-cri, c'est par le nez qu'ils gerbaient Petit message pour toi raciste avec ta face d'alien Tu veux nous briser, maitriser, enculé d'ta race aryenne Regarde-moi Marianne, putain, non, je n'vais pas chipoter Ton pays m'rend toxico, t'es bien la pire des home sweet home La vie n'est pas un roman, tout s'accumule comme des briques donc tu laisses place à l'arrogance Le soir tu veilles, tu parles à ta 'teille, tu dragues dans ta tête T'espères la fortune de Karl Lagarfeld, c'est le carnage infernal Bien évidemment, cela va faire mal, j'en perds ma rancur comme le but de mon exercice On n'fait qu'm'exorciser pour qu'je m'éclaircisse Tu veux tester mes salauds, ça fait bang, genre saloon Frère, si je t'allume c'est que j'suis prêt pour l'salut T'es pas d'la mif, parle-moi biff ou parle-moi d'profit Dix kilos d'weed, un kilo d'shit, le tout sera blanchi On fume le matos, mes vatos vont tuer ces rappeurs Ça sera du gâteau comme rotte-ca le XXX de l'éducateur A bord d'une Merco Benz, vitres teintées, grosse boisson C'est la moisson, les mousseux sont d'sortie, ouais Rentre dans le VIP si tu veux changer de vie Si tu rentres dans le lit, sache qu'on rentre dans le mille J'suis un hot nigga Mes gavas derrière oim ne craignent que God, nigga Mon équipe pète les scores pendant qu'tu t'fichas, kho Rebeu, renois, babtous, chicanos Tes négros softs ont des chichas roses Suffit pas d'pomper tous les rappeurs de Chicago Bien souvent, c'est pour une poule que démarre un combat d'coq A Paname, ça s'embrouille autour d'une boite duf Si t'as l'moral dans l'zen, sache que je l'ai dans la poche mon boule, j'me confesse sur la prod Man, c'est D6 le barge Toujours posé fonce-dé dans ton canap' quand la pénombre se cache Un moment d'colère face à c'monde de lâche On dit qu'le vent l'emporte mais je ne suis qu'un rocher Resté accroché à un moule façonné par lÉlysée Pour eux, nous sommes des poules prêtes à s'faire plumer J'survis devant 2012, j'vis l'enfer C'est sur la Seine que les premières lueurs du matin déteignent L'humanité meurt depuis qu'on a quitté l'Jardin d'Éden On a le rêve dans le cur, le cauchemar dans les veines Mais plus je monte et plus j'm'identifie à Martin Eden Moi, j'suis un babtou à part j'vois plein de babtous pompeux Mais sache que les babtous comme moi N'aiment pas les babtous comme eux Surtout quand les babtous ont peur Tout l'monde m'invite dans les plans Fils de pute, bien sûr qu'c'est plus facile pour toi quand t'es blanc Les riches font partie des plus radins dans cet empire de piranhas Parfois, j'reconnais même plus ma patrie comme mon pote Iranien T'oublies tout tellement tu rappes, hein, obligé d'se mentir un peu Du genre si jamais j'mets c'panier du premier coup, tout ira bien J'ai jamais tté-gra, t'as rien quand tu taffes peu Il m'faut un casque intégral J'vais braquer l'industrie comme les Daft Punk J'ai la rage d'un animal, cannibale, poto, j'manie l'mic Mais j'suis resté sur l'carreau Comme une chemise de Charles Ingalls J'garde la foi comme Abidal, hélas, le cash est capital Rebeu, la carte bleu c'est la seule carte qui soit vitale Bah ouais, j'ai eu des bonnes notes sans ter-chan Trempé dans de sales affaires, j'ai eu mon bac en séchant J'péra c'est embêtant, j'aime pas danser j'suis lancé dans La vie, tout l'monde peut s'en sortir, j'veux juste lui rentrer dedans Car j'ai grandi à Aulnay-Sous, Emmaüs la favelas On nique les chevaliers, qu'ils soient d'la rue ou d'Athéna Compte pas sur nous pour parler quand les schtars débarquent Pas d'messes basses, les keufs tournent, silence des cathédrales J'ai compris qu'les faux potes et l'honneur font bande à part Quand la haine, l'amour et la jalousie font des plans à trois J'donne plus d'amour à la rue, elle m'le rendra pas Comment faire partie des meubles Sans finir dans un grand placard ? Dans l'peu-Ra, trop d'suceurs qui m'foutent le seum Fermez vos gueules, si on est cheum, vous êtes tous plus cheum J'suis ce jeune parisien, américain dans l'état d'esprit Prends rendez-vous avec ton médecin légiste Ici, en plus des gouttes de pluie, souvent les coups pleuvent Mon crew est fait de vrais amis, à ton avis Pourquoi les putes se retrouvent toutes seules ? J'écris des rimes, j'envoie des torgnoles de malade Et pourtant, j'ai pas lu d'livre depuis TomTom Nana J'sors du Mordor de Paname, viens la bonne drogue est par là Une grosse pensée à nos proches pour qui l'horloge s'emballa Moi, j'suis debout, au-dessus d'moi, je vois voler les corbeaux J'ai besoin de joindre les deux bouts avant d'recoller les morceaux Tu mets des coups d'épée dans l'eau, l'affreux, on s'propage Prépare tes adieux, on fout le feu comme des Ghostriders Il faut que toutes les mains se lèvent haut Rimes façon West Coast, Gangsta à la Death Row On fuck les ennemis, miskine, ils se croient peut-être drôles Ça cartonne comme au rallye, on cartonne même sans khaliss Mes alliés se rallient, mental de patron On ne dit pas pardon, y'a que comme ça que tu seras libre Si j'tombe à Fleury, c'est qu'y a un beau million à prendre Ou qu'y a une tombe à fleurir, les tes-trai vont prendre des pralines J'ai pas vu d'boulot tendre Faut prendre pas l'9ar9ob face à la drogue Ils ont la boule au ventre, on a des abdos Les traitres sont de vraies balances Wesh, mais tétais dla bande, ouais, ouais, ouais... Faut quon tsaigne avant qutu mènes la danse Lami est éphémère, yen a qui parlent derrière ton dos Yen a même qui tbaisent et prennent ton cash, bellek, mon soss Putain de merde ! Cest quoi ce délire de faire Le soss et voler dans les mêmes dièses, oser se dire deux frères ? Tous hypocrites, les gens thypnotisent Leurs masques cachent leurs émotions et se disent trop vif Yen a qui servent du charme et te font croire à des rêves dars Et yen a qui tcachent des choses, et ouais, pour pas te faire mal Trop dacteurs, de squatteurs, de bâtards, de gratteurs de biff Faut des valeurs, le malheur tarrache la peur de vivre</t>
         </is>
       </c>
     </row>
@@ -713,12 +713,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>La playa</t>
+          <t>C’est beau la vie</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Janvier - 0101 Columbine - Clubbing for Columbine - 0301 Sam's - Sunday Soundcloud Première saison 0401 Artiste multiples Babali Show rap is not a game vol. 2 - 0501 La Race Canine - Héroïne - 0601 Sanka - Black shaolin - 0801 Black Kent - Morceaux d'un homme - 0801 Freeze Corleone - Vieilles merdes vol. II - 1101 75ème Session - Enter the dojo vol. 2 Diabi - 1501 Alpha Wann - Alph Lauren 2 - 1501 Rim'k - Monster tape 1801 Ninho - I.S.P.A.C 2 - 1801 Scars Volodia - Vitamine R - 2001 Alkpote Butter Bullets - Ténébreuse musique 2101 Lacraps Mani Deïz - 42 grammes - 2201 H Magnum - Gotham city 2301 Godié Swinx - N22 - 2401 Hash24 Sopico - 2075 2501 Artistes multiples - Sismogram - 2501 Euphonik - Inconnu mais reconnu 2501 Taf - Tohu bohu - 2901 Lefa - Monsieur Fall 2901 Bolo Bicrave ou rapper Février 0202 H-Tône - Fistaille made in Toylettes Vol. 1 - 0502 Fixpen Sill - Edelweiss - 0502 Kohndo - Intra-muros - 0502 KSA - VIII 0502 Manny À lhorizon 0502 Oner O 0502 Tarek FastLife Emirates money - 0502 Tortoz - Dans le carré 0702 SLONE - At the boom jazz cafe 0802 Eddy Woogy - Tout Eddy - 0802 Kekra - Free base 2 - 1002 Sango - Flowrilege 1202 Diomay Tchiki O - 1202 Perso - Gratte ciel 1202 Pink Flamingo - Escape - 1702 Peet - PEATE 1902 Bip's - Nocturne pré-régicide 1902 Cadavreski - Sensible 1902 Clem Beatz - Trouble in paradise 1902 Fadah KLM - Le billet de 5 - 1902 Kore - Pattaya Bande Originale 1902 Krom Au Mic Zone franche - 1902 Leeroy - Noir fluo - 1902 Sadek - Roulette Russe - 2102 Inspire - Millenaire II 2502 Timuxx - Super hero 2602 Bazoo - B-Tape - 2602 Brav - Error 404 2602 Dirty Zoo - La Dernière Tribu 2602 Droogz Brigade - Projet Ludovico - 2602 Jazzy Bazz - P-Town 2602 Kamnouze OSNS - 2602 Kool Shen - Sur le fil du rasoir - 2602 Nakk Mendosa - Darksun 2 2602 Numbers - Numbers - 2802 O'boy - OlySide - 2802 Romeo Elvis Le Motel - Morale 2902 Charly Kid Patee Gee - Yacht Club 2902 Vaati - Adventures Mars - 0203 Grems - Green Pisse - 0203 Grems - Freen Pisse - 0303 Biffty - Du sale et du gras Bootleg - 0403 13 Block Violence urbaine émeute 0403 Aris-K Noob saibot - 0403 Jul - My World Réédition - 0403 Lartiste - Maestro - 0403 La Fouine - Nouveau Monde - 0403 Moïse The Dude - Dudelife 0703 Cheeko Blanka - Sont Trop Cools 0803 Skreally Boy - SuperStona1 - 1103 Fababy - Ange Démon 1303 Les 13 Salopards - Own The Spot 1403 Triplego - Eau Max 1503 KSA DJ Weedim - Clochard de luxe - 1703 KT Gorique - Tentative de survie - 1803 DTF - La hass avant le bonheur - 2103 Pesoa - Supra - 2503 Falcko Conte de tess IV 2503 Hugo Délire Kyo Itachi - Grand Delirium - 2503 The Shin Sekaï - Indéfini - 2503 MOH - L'art des Mots 2703 Seven Eli Prod - Double Infini - 3103 Lorenzo - Empereur du sale 3103 Beny, Yacine 1.5, Majdon Co Yazid Z - Reality Show Avril - 0104 Jul - Album Gratuit 2016 - 0104 Ol'Kainry - Superman Noir - 0104 TLF - No Limit - 0404 Juxebox - Naga 0604 Coolax - Black Mathusalem - 0804 Bhati - Abimé 0804 Green Money CDC V 0804 Iris - Magnitude 10 Maxi - 0804 Jehkyl - CVPP Couilles Vides Poches Pleines - 0804 Jorrdee DJ Weedim - Je sais plus - 0804 Les Frères Lumières - À des années lumières - 0804 Lil Taï Z - Lil Taï Z - 0804 Neg' Marrons - Valeur Sûre - 0804 Sultan - Condamné À Régner 1004 Krisy - Parmi vous - 1504 A2H - Libre 1504 Arm TEPR - Psaumes - 1504 Doc Gynéco - Première consultation Edition 20ème Anniversaire - 1504 MHD - MHD - 1504 Artistes multiples - Booska Peufra - Vol. 2 1804 Jiddy - CKDO 2004 Fhat.R Melan - Bornes To Loose - 2204 Big Budha Cheez - L'heure des loups - 2204 Caballero JeanJass - Double Hélice - 2204 MZ - La Dictature 2404 Beeby - Le aigneur Réédition - 2704 Eech - Rosendaal Talk 2904 Artiste multiples - Néochrome présente Microbes saison 1 - 2904 Dr Bériz - 1974 - 2904 Hooss - French Riviera Vol. 2 2904 Loud Lary Ajust - Ondulé - 2904 Tiers Monde - No Future 3004 2spee Gonzales - Ah Souhait Vol. 1 Mai 0205 Brownie Dubz Gang - LE KLVN 0205 I.N.C.H. - Nappage Nocturne - 0305 3010 - Monstre - 0605 Djadja Dinaz - On s'promet - 0605 Jarod - Caméléon - 0605 Kalash Kaos 0605 Paco - Baraka Feat 0605 Rezinsky - Les Hérétiques, Tomes I II - 0605 Mani Deïz, Senamo Seyté - Trois fois rien 1005 Artistes multiples - EOW EP - 1005 Di-Meh - Shine 1205 Jones Cruipy - Rêve européen 1305 Artistes multiples - AMG Hip Hop Présente La France Sous Pression 1305 Coco Tkt Human ex thug 1305 Rochdi - L'Exorciste Cénobite 1305 Specta - Metempsycose - 2005 Alonzo - Avenue de Saint-Antoine - 2005 Dooz Kawa - Bohemian Rap Story - 2005 Ghetto Fabulous Gang - 93 La cité des parias 2005 Houssaw - Play 2005 LK de l'Hotel Moscou - Orient Heights Springbreak 2 - 2005 PSO Thug - Demoniak 2005 Ywill La Jonction - Livre d'or 2005 GLK - Murder 2305 Mani Deïz - Comme les autres - 2505 Ichon - FDP - 2605 Niro - Or Game - 2705 Aero Wonderful - Atmosphère Vol. 2 - 2705 Kekra - Vréel - 2705 Keny Arkana - État d'Urgence 2705 Artistes multiples - Néochrome - Tirs Groupés volume 2 2705 Res Turner - Ouvrez les cages - 2705 Lomepal Stwo - ODSL - 2705 SCH - Anarchie 3105 Hits Alive - Triple 6 Vol. 3 Les Enfants du Diable Juin 0306 Fadah, Kdor Metronom Les sens des maux 0306 Faf Larage Sébastien Damiani - Larage Damiani Extended Play Vol. 2 - 0306 Guizmo - GPG - 0306 Jr O Crom Doomams - Vendetta - 0306 K-LY - Samo - 0306 Lucio Bukowski Oster Lapwass - Oderunt Poetas - 0306 Niska Zifukoro - 0306 Numbers - 77 0306 Rekta - Marche ou Crève 0506 Ockney Chileas Alter ego 2 - 0606 A2H - Studio Files 2015-2016 0606 Funky Armenico Subotaï - Normalus 0606 Ockney Chilea's - Alter Ego 2 1006 Arom - Damien VS Van Helsing - 1206 Salfrom Goune, Stick Bazoo - Godphaseurs - 1306 Josman - Matrix - 1306 Grems The Imposture - P.R.A.F 1506 Jiddy - Training Tape 2 1706 Mac Kregor - Cogito Ergo Sum 1706 Myth Syzer Ikaz Boi - Cerebral EP - 1706 -Crew - Destins Liés - 1906 Panama Bende - Bende Mafia - 2206 Les Tontons Flingueurs - Le démon à 9 queues II 2206 Youno Les Chimistes - Méthylamine - 2406 Alkpote DJ Weedim - Sadisme et perversion - 2406 Bigflo Oli - La cour des grands Réédition 2406 Fizzi Pizzi - C1C2T - 2406 Hamza - Zombie Life - 2406 Jul - Émotions 2406 Zekwé Ramos - FrappMusiq 2606 SOV - Sovaire Ep - 2706 Sopico - MOJO Juillet 0107 Aladoum - Géant Noir - 0107 Les Alchimistes - Cannibales - 0107 Biffty DJ Weedim - Mega Souye Tape 0107 Kahifa - Nueva Luz - 0407 Népal - 444 Nuits - 0807 Damso - Batterie Faible - 0807 Sadek - Nique le casino 1107 Hologram Lo' - Jeep EP 1307 Fencizzle Gsnype - Kramwa'ill - 1807 Lapso Laps - Packman 2107 Les Genero - Parcours du combattant 2707 Nusky - On vit avec - 3107 Despo Rutti - Majster - 3107 Krisy - Menthe à l'eau Août - 0508 O'Trak - Gomorrap - 2608 Maître Gims - À contrecur M.C.A.R. Réédition Septembre - 0209 A2H - Summer Stories Kushtape Volume 2 - 0509 LuXe - LuXemixtape - 0909 13 Block - Ultrap - 0909 Rockin' Squat - Grand Cru Classé 2004-2016 1209 Beeby - 5 Etoiles 1209 K-LY - K-LY Co - 1509 Jul - Album gratuit 2016 Vol. 2 - 1609 PNL - Dans la légende - 1609 Wati B - La Pièce BO du film 1709 A Point Z Matière grise - 2309 Jorrdee - BJOVR IOP! - 2309 Lefa - TMCP - 2309 Volodia - Un Pied sur Terre - 2309 Jayel - Tout Est Dit - 2509 Dinos - Toujours pas Imany mais presque - 2609 Espiiem - Départ 2609 La Connaixion Jeunesse Eternelle - 2609 Tengo John - Près Qu'elle - 3009 Kery James - Mouhammad Alix 3009 LIM - Pirates - 3009 Taïro - Reggae Français Octobre 0710 Elams - Je Suis Elams - 0710 MRC - MRC - 0910 Hakim Sensei - Goldfish 1010 Gys - Vale Tudo 1010 LTA - Echographie 1310 La Prune - La Prune - 1410 Convok - Un jour plus vieux - 1410 Despo Rutti Le Front Kick De Cantona - 1410 Gros Mo - Les de Gros Mo 1410 Lefty All Hayz On Me 1410 JP Manova - 19h07 Réédition - 1410 Soprano - L'Everest 1810 Issaba - À la recherche du temps perdu 2110 Hotel Moscou - L'Opium du Peuple - 2110 Lil Taï Z - Trop Jeune - 2110 Ninho M.I.L.S Maintenant Ils Le Savent - 2110 Naza - Tout pour la street 2110 Skreally Boy - 0352 - 2110 Sneazzy - Dieu bénisse Supersound 2110 Mani Deïz, Nefaste, Ol Zico Pejmaxx Martyrs Modernes 2310 Le 77 - C'est le 77 - 2410 Hamza - New Casanova 2510 2spee Gonzales - Ah Souhait Vol. 2 - 2810 Black M - Eternel Insatisfait - 2810 Casseurs Flowters - Live Tour 2016 2810 Gérard Baste - Le Prince de la Vigne 2810 Jeff Le Nerf Red Album - 2810 Kalash Criminel - R.A.S 2810 Kdor Sales Gosses Incurable 2810 La Méthode - Adrénaline - 2810 L'Algérino - Banderas 2810 Lario Nowhere A Mi-Chemin 2810 Medouze Changer La Donne 2810 Taïpan - P.A.N - 2810 Tortoz - FullG - 3110 T.I.S - L'homme contre le monstre Novembre 0111 Karna - Inconnu mais style reconnu - 0211 Prince Waly Myth Syzer - Junior - 0411 Dosseh - Yuri - 0411 Georgio - Héra - 0411 MMZ - Tout Pour Le Gang 0611 Artistes multiples - Misère Records présente le rap indé ouvre sa gueule - 0611 Lu'cid - Ex-Nihilo 0611 PALA - Acid Rose Garden 0711 Le Bon Son Du Bon Son 3 1111 Artistes multiples - Diamantaire Jee Van Cleef présente Jukebox Vol. 1 1111 Das Raizer - Nathuram Godse - 1111 Kaaris - Okou Gnakouri 1111 Krimo Vis Ta Vie 1511 Mr Kayz - 11 de légende 1611 HIGHMAN - H.I.G.H 1811 Artistes multiples All Stars Industrie - 1811 Mister You - Le Grand Méchant You 1811 Pumpkin Vin'S da Cuero - Chimiq - 1811 Seth Gueko - Barlou 2011 Tengo John - Tortue de Jade 2111 Jorrdee - Wavers 2111 Tonino Entre Temps John-Z Zed Beatz 2111 Dorian - Horizons 2511 Anton Serra Eddy Martin - Les 400 coups - 2511 Gradur - Where is l'album de Gradur 2511 Lacraps - Les Preuves Du Temps - 2511 Lucio Bukowski Milka - Hourvari - 2511 Swift Guad Mani Deiz - Masterpiece - 2711 PLK - Dedans - 2811 Haristone - Bates Motel - 2811 High Five Crew - Silicon Valley 3011 Artistes multiples - Le Gang Des Antillais Bande Originale Du Film De Jean-Claude Barny - 3011 Kekra - FreeBase 3 3011 Sëar-lui-même - À L'arrache, Épisode II Histoires Sans Fin XX11 Néochrome - Générations 88.2 Décembre - 0212 Billy Joe - La petite maison de la tuerie 0212 Chabodo - C'est Le Cha - 0212 Jul - L'ovni - 0212 Nekfeu - Cyborg 0212 Tarek FastLife À Bon Entendeur - 0212 Shay - Jolie Garce - 0212 Shurik'N - Adamant-ium - 0412 So'Clock Negann - Fréquences 0912 Artiste multiples - Booska Pefra Vol. 3 0912 Benito Chacon Chef De Meute 0912 GrandeVille - GrandeVille Records Vol. 1 0912 Lartiste - Clandestino - 0912 Laylow - Mercy 0912 Niro - Les Autres avec Or Game en version physique 0912 Prince Fellaga - Arabesque 0912 Tekilla Le Retour du sombre héros - 0912 Tito Prince - Toti Nation II 1112 Da Nill PubArt - 1112 Luni Sacks - Souterrain Son Vol. 1 - 1212 B-Biface - Fini de pleurer 1212 Hematome Pêle-Mêle 1212 Sauveur Eloheem - Aube 1412 Toy El Mago, Swif Nebaza Rus-Vi Made In 1Dependanz 1612 Artiste multiples - Sauvages, vol. 2 1612 Fayçal - Bords perdus EP 1612 K-Rhyme Le Roi Adrénaline 1612 Melan - Vagabond De La Rime, Vol. 3 - 1812 Rowjay - Carnaval de Finesse 1912 Stick - TricératoX Vol. 2 - 2012 Beny - Pepito deviendra grand 2112 West - Overdose 2212 Seven - 2032 - 2312 Nekfeu - Black Album - 2412 Hamza - Santa Sauce 2512 Grande Instance - 12 ans d'âge 2512 Miklo - Carnal Vol. 1 2512 Sauveur Eloheem - Le Panthéon des Pensées Sombres 2912 GRTZKY - Apex 2912 Sixo Master Flow - JMNDC 3112 G Lamaonthebeat - Dans le noir EP 3112 Jason Voriz - Trap Manstrr Autres - Du 1104 au 1111 Sofiane - Jesuispasséchezso Du 1706 au XXXX Alkpote - Les Marches de l'Empereur, Saison 2 - Du 2307 au 1408 Eskro - Néant 94 Date à confirmer XXXX Treza Ulysse XXXX Minch Né Sous X16</t>
+          <t>Hey fonblard, j'ai rancard avec Nanard Appelle les chtards v'la Bruno Escobar Touché mais pas coulé, merci d'l'invitation Sur ce, on est en sursis, noublies jamais doù tu viens La rue, cest mon terrain chacun sa part dans la bagarre Tu les as vus les ptits taulards, tu les a croisés au parloir Jai vu ce quest qule désespoir faites le canard Garder lespoir faut quon se lève pour croire à leur mhyto Adhère à notre parti, mec, cest pas trop tôt Arrête de compter en barrettes, on te manipule la tête Faut que tu votes mon pote Et quoi quil arrive sur la planète Terre Dans le foot, les affaires, le rap, les ministères, cest toujours Le gangster Qui contrôle laffaire Cest beau, cest beau la vie Cest beau, cest beau la vie Cest beau, cest beau la vie Cest beau, cest beau Dis Bruno, à ton avis, quest-ce quon vient foutre ici? Engraisser des banquiers qui sur nos vies font des crédits Dis Bruno quest-ce quon peut foutre ici? Balancer la vérité risquer nos vies à la télé Alors putain dis-moi ce match on tla vendu? Mais tu rigole jles aimes à Valenciennes A lancienne! Jai rangé mon jeux de frappes et ma pince-monseigneur Acceptez cette prière! Elle vient du cur Et quoi quil arrive sur la planète Terre Dans le foot, les affaires, le rap, les ministères, cest toujours Le gangster Qui contrôle laffaire, qui contrôle laffaire au Refrain Levez la gauche et dites je l'jure! Tu croyais quoi? Quyavait les bons, quyavait les blancs Quyavait les noirs et les méchants Quyavait dehors et puis dedans Ah, tout n'est pas si facile Tout ne tient qu'à notre style On absorbe la lumière, on ne la rendra pas, jamais Dans les ténèbres on a fais nos premiers pas Ya qules morts qui ne parlent pas Avant quon mfasse sauter lpas Dans une Merco 600 Dans une histoire de point ou de pour cent Deux pour cent, deux pour cent Ouais et quoi quil arrive sur la planète Terre Dans le foot, les affaires, le rap, les ministères, cest toujours Le gangster Qui contrôle laffaire, qui contrôle laffaire Qui contrôle laffaire, qui contrôle laffaire au Refrain1</t>
         </is>
       </c>
     </row>
@@ -730,12 +730,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>30 minutes de Freestyle dans le Planète Rap de Nekfeu</t>
+          <t>No se vende la calle (L.A. Razza Mix)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Fais-moi voir ton côté intelectuel J'veux pas voir ton cul mais ton QI Pourquoi tu mets des bas résilles sur ton cerveau ? J'fais du gyneco, pas d'la philo T'es l'gars devant la porte qu'essaie de rentrer Tu connais même pas leurs codes Même si t'as l'dress-code, ils vont te bloquer Ta date de naissance, le nom d'ta belle-mêre Essaie tous les chiffres que tu connais Mais sache que la porte ne s'ouvrira jamais Et si tu t'demandes comment j'suis rentré J'ai juste poussé la porte, t'as oublié d'essayé J'ai pas d'problèmes avec Gavalda Mais j'mets pas d'science dans mon peu-Ra J'fais partie des gens simples et j'réfléchis pas Fais un voyage d'étude à BLC, dans la zone 4, aux Michelettes De la droiture avant l'cash, quand la vie t'rend muet Mon nom sur une vitre embuée avant l'crash de la voiture C'est comme ça qu'j'vois le Rap une écriture insignifiante Avant qu'on parte, le dernier cri d'une jeunesse édifiante Personne t'explique la vie, c'est un chemin introspectif L'unique défi, schéma atroce Une ligne de fuite pour perspective d'avenir Nos vies sont crades donc on défonce notre crâne Et plus j'connais la musique, plus j'aime les fausses notes Ce soir, ça part en impro, parait qu'ça kicke pas mal Comme Doc Gyneco, j'veux atteindre le nirvana Ouais, mon gars, tu sais bien, c'est pour les tiques-fana Mais surtout pour les frères qui sont là depuis l'début, là-bas Ceux qui écoutent depuis Paname, qui mettent pas de soupape C'est l'tou-bab toujours coupable, tu vois bien qu'tout part Tout l'monde parle de ça, tout l'monde parle de nous C'est comme ça qu'ça s'passe, j'arrive à pas de loup Afflelou comme Alph Lau', c'est comme ça qu'ça s'passe On a l'flow, on a le Ralph Lau', vas-y, Doums, balance le flow OK, on balance ça avec le popo Rien à foutre de tous ces pédés, nique la po-po -lice, j'arrive avec mes gars, on est posés àl Pour l'album de Nekfeu, on crache weed et flammes Que aç avec mes gars laxistes Pourquoi tu veux nous tester, négro, là ? Oui, j'insiste Pour te dire que c'est le fire, putain, oui, c'est trop dar On est des mecs de Paname, t'inquiète qu'on a la flamme Olympique, on baise ces pitres, rien à foutre de ces bitchs J'arrive avec mes gars et j'te rackette depuis les Pitch's Fucked up, j'en place pour mes gavas du 9 Qui va kicker ça ? Vas-y, balance ça, mon reuf J'ai le flow embrumé, en plus, j'suis enrhumé On vient pas pour t'entuber, le studio est enfumé Car y'a Doums et y'a Doc Gyneco, c'est bon ça C'est pour tous les mecs qui nnait-co, c'est comme ça C'est comme ça qu'on l'fait, on a les codes, fuck l'école Fuck les cops quand ils sont pas sympas C'est comme ça qu'ça s'passe sur l'instru Framal, j'sens qu't'es prêt à partir, c'est l'départ Fais ça vite comme un guépard, yeah Hé, putain, j'suis chire-dé, j'suis fonce-dé Qu'est-ce qu'tu demandes de faire ? A cette heure-ci, putain, j'sais pas quoi faire On m'appelle Doc alors j'vais t'mettre à l'heure Mais t'es mon petit frère alors je t'aime et j'te parle avec le cur Putain, les phrases elles sont longues J'arrive à débiter mais j'sais pas quoi t'dire J'ai pas assez d'feuilles longues et j'peux pas fumer Merde, putain, vous êtes sûrs que j'peux pas donner ? Oh, et puis j'donne à l'ancienne, on dirait Lionel D Fuck ton crew, sale pédale, ça bouge ap T'es tout naze, écoute, ça fait breh ! Rien qu'on fait des classiques, S-Crew, le nom d'mon gang Y'a que dans l'ombre qu'on tranche pour pas finir aux assises Souvent dans un camouflage vert kaki L'ambiance est pourave, y'a des toux grasses ça vi-ser d'la weed Ici, tu perds ta vie, on t'nique ta mère à 6 Une bonne paire de Nike Air dans la tête, c'est facile Le leust est entouré donc on fait ça à notre manière Bientôt le L est en tournée donc prenez garde à vos arrières Bitch ! Et toi, dis moi pourquoi tu causes On est au festival de Cannes, toi, tu traînes à la Foire du Trône Comme l'Homme de l'Est, j'attends l'apocalypse Je profite avant qu'on m'refroidisse, avant qu'ma peau palisse Dans mon ciboulot, j'suis mitigé, oui, si j'ai un petit boulot Un salaire, j'irais prendre l'air même si j'vivais ma vie sous l'eau Le Rap me dégoûte comme les pires aspects des filles gâtées J'vais vite gratter malgré que j'dérive, là, mais j'déprime jamais Les vices cachés des miss fâchées, ça entraine des vies gâchées Dédicacer des petites tasses-pé ? Autant caner déshydraté Ma vie d'avant, merde ! J'peux pas la quitter Zer-2 va rappliquer, faire de l'art appliqué J'vais devoir jouer les crevards, plus qu'deux lattes à tirer Tous maladifs, touche pas la mif' ou j'vais te ratatiner Faut que j'devienne légendaire, que j'éclaire les lanternes mais Ici, c'est l'enfer depuis qu'j'vois mes frères s'faire enfermer Nique le système carcéral, j'ai pris flemme de passer àl Je préféré les décibels et puis les péritels des caméras Ne m'colle pas d'étiquette, j'bicrave des citernes de came hélas J'baise les fliquettes, éviscère des criquets de chaque tié-quar Nous allons nous équiper comme les p'tits mecs des favelas Le ballon, j'l'ai esquivé, j'ai fait vibrer des tas d'pétasses Wesh kafass ? Moi, j'froisse des spliffs La poisse m'esquive, j'suis la poussière dans l'mauvais il Tous les yeux m'guettent, à croire que j'm'exhibe Bandes de sales vermines, que pourrez-vous faire quand j'aurai l'seum ? Nada, ça va trouer des schnecks Et puis clouer des becs, t'es dégouté, t'es dèf Venez gouter mes textes, allez, courez les mecs Ca va couper des têtes, tout est prétexte à jouer les chefs Ouais, masquez vos pulsions, j'viens pas rouler des pelles Dans l'trou de tes fesses j'fait ma révolution Je suis ce shaolin intégrant le Rap aux arts martiaux Quand t'es déjà au lit, transformant le cro-mi en arme d'acier Que celui qui parle de la vie des autres regarde la sienne Trop d'astreintes, on passe plus de temps A s'plaindre qu'à remercier, que Dieu m'pardonne Dans la vie aucun format simple, mes reufs à l'instinct carnassier Vendent plus de drogue qu'un pharmacien J'ai qu'l'envie d'karna ces mêmes clones Coulée dhémoglobine, le mic' s'tache Un texte de Mac de mon clan clean Pendant qu'les mecs s'touchent Ça peut ler-par mon premier flow s'appelait placentas Je sors du sas et rentre dans l'south quand mon soss' place un tag Teubé sors ton nez d'la poudre J'suis un peu désordonné mais rien à tref' des ordres donnés J'entends que des remarques, personne le fait mieux, à part ça On m'appelle Dead Man, A.K.A le vieux bâtard sale On a pas d'manager et l'équipe fait sa com', ça-comme On a pas d'mal à gérer, c'est toujours 5050, ça cogne, ça cogne C'est comme quand les keufs courent te rattraper Le juge goûtera la joie quand, toi, tu goûteras ta peine Quelques gouttes de Rap, à peine Sauf que maintenant, c'est plus des essais On peut conclure en ce sens qu'la concurrence pue des aisselles Que faire de plus, gars ? À part les effacer Yo, sucez moi bien jusqu'à, la paralysie faciale ×2 T'es le boss de qui ? T'es le boss de quoi ? Tu te prends pour qui ? Tu te prends pour quoi ? Pourquoi tu tires ? Ici, ça tire Alors rentre chez 'oit c'est l'son du ghetto Et si tu connais pas mon blaze, c'est B.2O.Z.2O Si y'a d'la monnaie j'suis chaud, y'aura pas besoin d'me ffer-chau J'aime pas les fachos, veulent voir les blacks au cachot , c'est trop chaud mais, moi, j'suis dans l'pochon Je te ferai pas l'amour, bitch, t'as les pieds de cochon Le jour où je vais prendre du gallon Mes deux bras seront trop longs, frelon, j'vais ramener des ballons C'est pour mes gars sûrs et certains Bakary 93.150, on a des couilles en béton , j'lui montre ma tête de python Des billets violets dans un putain d'sac Louis Vuitton Rien à foutre même si ils ont débranché la table Faut pas déranger madame, faut pas mélanger la came C'est comme ça qu'ça s'passe, j'ai un truc macabre J'dis n'importe quoi pour gagner du temps car y'a blanco C'est comme ça qu'ça s'passe, c'est pour les gars de Blankok Tu vas bouncer jusqu'à Bangkok, t'sais, quand mon gang cogne C'est comme un gomme-cogne comme à Boston Retour des shinobis mais crois pas que c'est l'fric notre pilier J'compte plus les rivaux pliés encore immobiles On a acquis notre biz comme Nino B., Jack City Faut qu'on s'lance dans l'immobilier, faut qu'on multiplie nos billes Crois qu'les paillettes et les strass' vont aliéner mes srhabs Ils trouvent mes alliés détestables Ils s'disent Ça y est, c'est des stars On passe à base de tasses calientes, slash, variétés d'sapes On confond plus les Cayenne et les Smart Très vite, les bitchs voient que j'évite les filles d'joie J'effrite et puis j'bois, si l'ennemi s'précise Très vite l'équipe s'équipe, méfie-toi On fait l'beurre, on intercepte le cash, ton espèce De garce veut réchauffer mon cur et mon zgeg de glace On laissera les archives, ouais, Phaal gifle J'envoie les dragées, j'les laisse à l'état léthargique Trop d'écart j'les calcine, les garces s'écartent vite On est classes, on te-cla les gares-ci J'appelle ta pétasse Bécassine Oublie la paix, kho, on monte de 0 à 100 Verse pour les frérots absents pendant l'apéro J'ai la conscience qui part en couille, tu vas galérer pour m'cerner Regarde le diable partir en douce avant qu'tu t'enfonces dans le gouffre J'te regarde, t'as vraiment pas de fouf et j'me sens pas concerné J'ai vu des guesh en pleine se-cri, c'est par le nez qu'ils gerbaient Petit message pour toi raciste avec ta face d'alien Tu veux nous briser, maitriser, enculé d'ta race aryenne Regarde-moi Marianne, putain, non, je n'vais pas chipoter Ton pays m'rend toxico, t'es bien la pire des home sweet home La vie n'est pas un roman, tout s'accumule comme des briques donc tu laisses place à l'arrogance Le soir tu veilles, tu parles à ta 'teille, tu dragues dans ta tête T'espères la fortune de Karl Lagarfeld, c'est le carnage infernal Bien évidemment, cela va faire mal, j'en perds ma rancur comme le but de mon exercice On n'fait qu'm'exorciser pour qu'je m'éclaircisse Tu veux tester mes salauds, ça fait bang, genre saloon Frère, si je t'allume c'est que j'suis prêt pour l'salut T'es pas d'la mif, parle-moi biff ou parle-moi d'profit Dix kilos d'weed, un kilo d'shit, le tout sera blanchi On fume le matos, mes vatos vont tuer ces rappeurs Ça sera du gâteau comme rotte-ca le XXX de l'éducateur A bord d'une Merco Benz, vitres teintées, grosse boisson C'est la moisson, les mousseux sont d'sortie, ouais Rentre dans le VIP si tu veux changer de vie Si tu rentres dans le lit, sache qu'on rentre dans le mille J'suis un hot nigga Mes gavas derrière oim ne craignent que God, nigga Mon équipe pète les scores pendant qu'tu t'fichas, kho Rebeu, renois, babtous, chicanos Tes négros softs ont des chichas roses Suffit pas d'pomper tous les rappeurs de Chicago Bien souvent, c'est pour une poule que démarre un combat d'coq A Paname, ça s'embrouille autour d'une boite duf Si t'as l'moral dans l'zen, sache que je l'ai dans la poche mon boule, j'me confesse sur la prod Man, c'est D6 le barge Toujours posé fonce-dé dans ton canap' quand la pénombre se cache Un moment d'colère face à c'monde de lâche On dit qu'le vent l'emporte mais je ne suis qu'un rocher Resté accroché à un moule façonné par lÉlysée Pour eux, nous sommes des poules prêtes à s'faire plumer J'survis devant 2012, j'vis l'enfer C'est sur la Seine que les premières lueurs du matin déteignent L'humanité meurt depuis qu'on a quitté l'Jardin d'Éden On a le rêve dans le cur, le cauchemar dans les veines Mais plus je monte et plus j'm'identifie à Martin Eden Moi, j'suis un babtou à part j'vois plein de babtous pompeux Mais sache que les babtous comme moi N'aiment pas les babtous comme eux Surtout quand les babtous ont peur Tout l'monde m'invite dans les plans Fils de pute, bien sûr qu'c'est plus facile pour toi quand t'es blanc Les riches font partie des plus radins dans cet empire de piranhas Parfois, j'reconnais même plus ma patrie comme mon pote Iranien T'oublies tout tellement tu rappes, hein, obligé d'se mentir un peu Du genre si jamais j'mets c'panier du premier coup, tout ira bien J'ai jamais tté-gra, t'as rien quand tu taffes peu Il m'faut un casque intégral J'vais braquer l'industrie comme les Daft Punk J'ai la rage d'un animal, cannibale, poto, j'manie l'mic Mais j'suis resté sur l'carreau Comme une chemise de Charles Ingalls J'garde la foi comme Abidal, hélas, le cash est capital Rebeu, la carte bleu c'est la seule carte qui soit vitale Bah ouais, j'ai eu des bonnes notes sans ter-chan Trempé dans de sales affaires, j'ai eu mon bac en séchant J'péra c'est embêtant, j'aime pas danser j'suis lancé dans La vie, tout l'monde peut s'en sortir, j'veux juste lui rentrer dedans Car j'ai grandi à Aulnay-Sous, Emmaüs la favelas On nique les chevaliers, qu'ils soient d'la rue ou d'Athéna Compte pas sur nous pour parler quand les schtars débarquent Pas d'messes basses, les keufs tournent, silence des cathédrales J'ai compris qu'les faux potes et l'honneur font bande à part Quand la haine, l'amour et la jalousie font des plans à trois J'donne plus d'amour à la rue, elle m'le rendra pas Comment faire partie des meubles Sans finir dans un grand placard ? Dans l'peu-Ra, trop d'suceurs qui m'foutent le seum Fermez vos gueules, si on est cheum, vous êtes tous plus cheum J'suis ce jeune parisien, américain dans l'état d'esprit Prends rendez-vous avec ton médecin légiste Ici, en plus des gouttes de pluie, souvent les coups pleuvent Mon crew est fait de vrais amis, à ton avis Pourquoi les putes se retrouvent toutes seules ? J'écris des rimes, j'envoie des torgnoles de malade Et pourtant, j'ai pas lu d'livre depuis TomTom Nana J'sors du Mordor de Paname, viens la bonne drogue est par là Une grosse pensée à nos proches pour qui l'horloge s'emballa Moi, j'suis debout, au-dessus d'moi, je vois voler les corbeaux J'ai besoin de joindre les deux bouts avant d'recoller les morceaux Tu mets des coups d'épée dans l'eau, l'affreux, on s'propage Prépare tes adieux, on fout le feu comme des Ghostriders Il faut que toutes les mains se lèvent haut Rimes façon West Coast, Gangsta à la Death Row On fuck les ennemis, miskine, ils se croient peut-être drôles Ça cartonne comme au rallye, on cartonne même sans khaliss Mes alliés se rallient, mental de patron On ne dit pas pardon, y'a que comme ça que tu seras libre Si j'tombe à Fleury, c'est qu'y a un beau million à prendre Ou qu'y a une tombe à fleurir, les tes-trai vont prendre des pralines J'ai pas vu d'boulot tendre Faut prendre pas l'9ar9ob face à la drogue Ils ont la boule au ventre, on a des abdos Les traitres sont de vraies balances Wesh, mais tétais dla bande, ouais, ouais, ouais... Faut quon tsaigne avant qutu mènes la danse Lami est éphémère, yen a qui parlent derrière ton dos Yen a même qui tbaisent et prennent ton cash, bellek, mon soss Putain de merde ! Cest quoi ce délire de faire Le soss et voler dans les mêmes dièses, oser se dire deux frères ? Tous hypocrites, les gens thypnotisent Leurs masques cachent leurs émotions et se disent trop vif Yen a qui servent du charme et te font croire à des rêves dars Et yen a qui tcachent des choses, et ouais, pour pas te faire mal Trop dacteurs, de squatteurs, de bâtards, de gratteurs de biff Faut des valeurs, le malheur tarrache la peur de vivre</t>
+          <t>Hahahahahaha ! Hiiii ! Yeah, han han, huh Tres lenguajes got mise, three languages Doc Gyneco, welcome to Los Angeles Here we gotta pretty girls, aqui tenemos la nena bella Send the ugly ones, aquí tenemos la nena bella I hear you got it goin on kickin' much science Fast like a cheetah, strong like a lion XXXXXXXXX but the streets still scandalous Doc Gyneco, welcome to Los Angeles J'aaaaaaaaaai stoppé l'école et commencé l'alcool J'suis pris dans les femmes, dans la flambe et le rap Faut qu'j'm'échappe, ça fait longtemps, ça date Toutes ces soirées où j'étais bien sapé La tête alcoolisée, j'me mettais à tchatcher Celles qu'en temps normal j'n'aurais pas calculées Mysto-Bruno le duo du quartier De Porte de la Chapelle, je suis passé à Sarcelles Où j'ai visité la seconde capitale Où les baskets sont blanches et les mecs s'appellent Timal Stomy, Bouboule, Guetch, Passi et Kenzy Des mecs sans faille qui tirent et ciao, bye bye Ok je stoppe sur les détails Car je sais que tu bloques sur la Secte Äbdoulaï Et si maintenant je rappe et que mon style décape Dac' ou pas dac', Doc t'a mis une tape Grâce à Mysto, j'ai erré dans les studios J'ai posé mes mots et instauré mon flow Dis-moi, qui suis-je ? Le Doc Gyneco A donde quieras vas, las calles son igual Ningún océano puede separar De Francia La rue n'est pas à vendre De Francia La rue n'est pas à vendre A donde quieras vas, las calles son igual Ningún océano puede separar De España La rue n'est pas à vendre De Francia Ça fait vingt ans que j'la loue Era una noche oscura cuando esto ocurio Estaba caminando y una nena me llamo No lo pense dos veces caminé donde ella Le pasa algo a mi carro, De verdad, niña bella ? A lo puedes arreglar ?, Chica, claro que si Tengo que usar el telefono, me esperas aquí ? Checkee el motor y parecia mentira Estaba el dispositivo destapao de la batería Será una trampa ? Una trampa, era Donde, donde pero donde está esta nena ? En el bolsillo de frente escondí mi cartera Debajo la camisa, encondí mi cadena Mire hacia el cielo y la luna estaba llena Tres otros pasos, por detras, en la acera No mire a nadie, será mi imaginación En la calle no confío y lo escribo en la cancíon Observe dos hombres cruzando la calle De esta noche terrible yo me recuerdo en detalle Si te sacan un revolver, dime que tu vas a hacer ? Hice lo que pude, empece a correr Oí un balazo y despues lo sentí Con mi espalda llena sangre, tropeze y caí Me quitaron la cadena, la cartera y los zapatos Uno me dijo Si te mueves, te mato A donde quieras vas, las calles son igual Ningún océano puede separar De Francia La rue n'est pas à vendre De Francia La rue n'est pas à vendre A donde quieras vas, las calles son igual Ningún océano puede separar De España La rue n'est pas à vendre De Francia Ça fait vingt ans que j'la loue Welcome to Los Angeles Welcome to Los Angeles Aah, Doc Gyneco et El Maestro C'est les mêmes ghettos, c'est les mêmes negros On boit la même bière, on fait les mêmes prières Ouais ! PLC</t>
         </is>
       </c>
     </row>
@@ -747,12 +747,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>C’est beau la vie</t>
+          <t>Celui qui vient chez toi (quand tu n’es pas là)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Hey fonblard, j'ai rancard avec Nanard Appelle les chtards v'la Bruno Escobar Touché mais pas coulé, merci d'l'invitation Sur ce, on est en sursis, noublies jamais doù tu viens La rue, cest mon terrain chacun sa part dans la bagarre Tu les as vus les ptits taulards, tu les a croisés au parloir Jai vu ce quest qule désespoir faites le canard Garder lespoir faut quon se lève pour croire à leur mhyto Adhère à notre parti, mec, cest pas trop tôt Arrête de compter en barrettes, on te manipule la tête Faut que tu votes mon pote Et quoi quil arrive sur la planète Terre Dans le foot, les affaires, le rap, les ministères, cest toujours Le gangster Qui contrôle laffaire Cest beau, cest beau la vie Cest beau, cest beau la vie Cest beau, cest beau la vie Cest beau, cest beau Dis Bruno, à ton avis, quest-ce quon vient foutre ici? Engraisser des banquiers qui sur nos vies font des crédits Dis Bruno quest-ce quon peut foutre ici? Balancer la vérité risquer nos vies à la télé Alors putain dis-moi ce match on tla vendu? Mais tu rigole jles aimes à Valenciennes A lancienne! Jai rangé mon jeux de frappes et ma pince-monseigneur Acceptez cette prière! Elle vient du cur Et quoi quil arrive sur la planète Terre Dans le foot, les affaires, le rap, les ministères, cest toujours Le gangster Qui contrôle laffaire, qui contrôle laffaire au Refrain Levez la gauche et dites je l'jure! Tu croyais quoi? Quyavait les bons, quyavait les blancs Quyavait les noirs et les méchants Quyavait dehors et puis dedans Ah, tout n'est pas si facile Tout ne tient qu'à notre style On absorbe la lumière, on ne la rendra pas, jamais Dans les ténèbres on a fais nos premiers pas Ya qules morts qui ne parlent pas Avant quon mfasse sauter lpas Dans une Merco 600 Dans une histoire de point ou de pour cent Deux pour cent, deux pour cent Ouais et quoi quil arrive sur la planète Terre Dans le foot, les affaires, le rap, les ministères, cest toujours Le gangster Qui contrôle laffaire, qui contrôle laffaire Qui contrôle laffaire, qui contrôle laffaire au Refrain1</t>
+          <t>J'aimerais tant te rencontrer, pouvoir te parler Être en face de toi mais ta femme ne veut pas C'est louche, on se croise sans jamais se coincer Quand tu prends l'ascenseur, je prends l'escalier Dès que tu téléphones, je décroche à côté Ta voix de dictateur la fait toujours flipper, mais Chez toi c'est la bonne humeur, tout est OK Je laisse des indices mais tu ne les trouve pas Je dévalise ta cuisine et je fume dans tes draps S'il n'y a plus de tequila, c'n'est pas toi mais moi qui la bois Chez toi c'est l'Italie, y a toujours des spaghetti Les pieds sur ton bureau, je mate l'album photo Jolies noces, huh, j'étais bogosse Je regarde tes vidéos et j'écoute ta sono Elle me masse le dos et je branche la radio Haa, il n'y a que chez toi que je trouve du repos Ne viens pas chez moi quand je n'suis pas là Ne viens pas chez moi, Doc Gyneco Ne viens pas chez moi quand je n'suis pas là Ne viens pas chez moi Je te vois facilement en militaire de carrière Ou, en business affaires Vas-y pars à l'étranger comme ça j'pourrais m'installer Jamais je n'm'en lasse, toutes tes poches y passent Malgré son aide, je ne trouve pas tes liasses On fait les courses avec ta carte bleue J'en profite, je prends tout c'que je peux Tu es notre seul sujet de conversation Et ta voiture, mon seul moyen de locomotion Je n'mange pas chez moi, exprès pour manger chez toi Entre nos demeures, il y a une grande différence T'as un plus grand canapé, une télé coins carrés Sur laquelle je zappe les chaînes câblées Mais quand j'y pense, t'as vraiment d'la chance Que je sois, celui qui vient chez toi quand tu n'es pas là Ne viens pas chez moi quand je n'suis pas là Ne viens pas chez moi, Doc Gyneco Ne viens pas chez moi quand je n'suis pas là Ne viens pas chez moi Tu ne m'connais pas, ta femme me connaît Je suis ton meilleur ami, ton cousin, ton reufré Son nouveau délire, le mec qui l'inspire Le démon qui l'attire dans d'infinis plaisirs Tu perds la cadence, manque de puissance C'est à moi qu'elle pense quand tu l'offenses À mes reins en acier, vitesse TGV Je vais dans les coins où tu n'as jamais été Adultère féroce avec un sale gosse Ne viens pas chez moi quand je n'suis pas là Ne viens pas chez moi, Doc Gyneco Ne viens pas chez moi quand je n'suis pas là Ne viens pas chez moi1</t>
         </is>
       </c>
     </row>
@@ -764,12 +764,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>No se vende la calle (L.A. Razza Mix)</t>
+          <t>Arrête de mentir</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Hahahahahaha ! Hiiii ! Yeah, han han, huh Tres lenguajes got mise, three languages Doc Gyneco, welcome to Los Angeles Here we gotta pretty girls, aqui tenemos la nena bella Send the ugly ones, aquí tenemos la nena bella I hear you got it goin on kickin' much science Fast like a cheetah, strong like a lion XXXXXXXXX but the streets still scandalous Doc Gyneco, welcome to Los Angeles J'aaaaaaaaaai stoppé l'école et commencé l'alcool J'suis pris dans les femmes, dans la flambe et le rap Faut qu'j'm'échappe, ça fait longtemps, ça date Toutes ces soirées où j'étais bien sapé La tête alcoolisée, j'me mettais à tchatcher Celles qu'en temps normal j'n'aurais pas calculées Mysto-Bruno le duo du quartier De Porte de la Chapelle, je suis passé à Sarcelles Où j'ai visité la seconde capitale Où les baskets sont blanches et les mecs s'appellent Timal Stomy, Bouboule, Guetch, Passi et Kenzy Des mecs sans faille qui tirent et ciao, bye bye Ok je stoppe sur les détails Car je sais que tu bloques sur la Secte Äbdoulaï Et si maintenant je rappe et que mon style décape Dac' ou pas dac', Doc t'a mis une tape Grâce à Mysto, j'ai erré dans les studios J'ai posé mes mots et instauré mon flow Dis-moi, qui suis-je ? Le Doc Gyneco A donde quieras vas, las calles son igual Ningún océano puede separar De Francia La rue n'est pas à vendre De Francia La rue n'est pas à vendre A donde quieras vas, las calles son igual Ningún océano puede separar De España La rue n'est pas à vendre De Francia Ça fait vingt ans que j'la loue Era una noche oscura cuando esto ocurio Estaba caminando y una nena me llamo No lo pense dos veces caminé donde ella Le pasa algo a mi carro, De verdad, niña bella ? A lo puedes arreglar ?, Chica, claro que si Tengo que usar el telefono, me esperas aquí ? Checkee el motor y parecia mentira Estaba el dispositivo destapao de la batería Será una trampa ? Una trampa, era Donde, donde pero donde está esta nena ? En el bolsillo de frente escondí mi cartera Debajo la camisa, encondí mi cadena Mire hacia el cielo y la luna estaba llena Tres otros pasos, por detras, en la acera No mire a nadie, será mi imaginación En la calle no confío y lo escribo en la cancíon Observe dos hombres cruzando la calle De esta noche terrible yo me recuerdo en detalle Si te sacan un revolver, dime que tu vas a hacer ? Hice lo que pude, empece a correr Oí un balazo y despues lo sentí Con mi espalda llena sangre, tropeze y caí Me quitaron la cadena, la cartera y los zapatos Uno me dijo Si te mueves, te mato A donde quieras vas, las calles son igual Ningún océano puede separar De Francia La rue n'est pas à vendre De Francia La rue n'est pas à vendre A donde quieras vas, las calles son igual Ningún océano puede separar De España La rue n'est pas à vendre De Francia Ça fait vingt ans que j'la loue Welcome to Los Angeles Welcome to Los Angeles Aah, Doc Gyneco et El Maestro C'est les mêmes ghettos, c'est les mêmes negros On boit la même bière, on fait les mêmes prières Ouais ! PLC</t>
+          <t>Non pas de l'underground, du noyau dur Sache que mon français restera toujours pur et dur De Porte de la Chapelle, oui j'assure Plus longtemps qu'une Duracell, mademoiselle je dure Épurer tous nos pêchés, même M. le curé veut se marier Laisse-moi donc prier mais à qui m'adresser ? J'ai trop agressé et contre le zoulou Maintenant Gynéco vient se dresser Tu verras quand les miens passeront à la télé On verra quand les miens seront radio-fusés Enfin la vérité grâce au Secteur promotionné Écoute cette assoc de malfaiteurs Y a tous mes soss, ils mettent du cur Sale zoulette, range ta panoplie, ta casquette Va écrire tes textes à la bibliothèque Racaille Canada Dry, Bye, bye,bye... Ne raconte pas ce qui se passe dans nos cages d'escaliers Tu sais, non tu ne sais pas, je sais que tu nous bluffes sur ton papier Les pieds en avant tu peux finir si de ma vie tu t'inspires Raconte que ce que tu vis avant que le bitume t'aspire Rien à foutre des mecs qui me disent que pour un rappeur j'ai un look clean J'ai grandi dans une cité en France et pas au Queens, à Brooklyn Rien à foutre des clowns, des clônes, des franco Wu Tang Clan Moi je vi-sère mes ien-clarts et fais swinguer les skwalls au Bataclan Ouais, des rimes chocs, des mots en bloc J'en ai en stock, Gloc-Lyrical Lino Ärsenik épaule le Doc Ne raconte pas ce qui se passe dans nos blocs mec Ruffneck en toc mec, gaze tu perds ton froc sec Nazes, sont tes phrases quand tu me parles de rue Je te laisse l'underground et pour lui l'instru, un round Sur mon ring et tu subis des sévices, une lame dans mon Levi's Le renard perd ses poils mais pas le vice Glisse, sur le ons, mon rap se deale comme un bon style Enfonce-toi ça dans l'crâne et fronce pas les sourcils Je sais que tu sais que je sais qui tu es Essaie pas de bluffer MC, j'ai tué Je deviens ton Senseï La merde, mais demain ça ira Deux fois plus en testos, putain les Zoulous veulent devenir des kaïras Ton H.I.P. Français a chopé ce foutu virus aux States Les baltringues ont pris la grosse tête Ne raconte pas ce qui se passe dans nos cages d'escaliers Tu sais, non tu ne sais pas, je sais que tu nous bluffes sur ton papier Les pieds en avant tu peux finir si de ma vie tu t'inspires Raconte que ce que tu vis avant que le bitume t'aspire Ne raconte pas ce qui se passe en bas ou sur mon palier Ne remue pas la de-mer chez moi où les fous sont à lier Allez petit salaud lâche ce bedo Je sais que tu veux pas ré-ti, tu veux tellement en être Maintenant t'es accroc à la se-ti, 1.6.6.4.8.6 Tu me saoules, tu causes de moules De rouler des oinj's, de casses en cagoules Foule mon turf et je te coupe les... non Et je te coupe les... arrêtes Et je te coupe les... Tchi tchi tchi, yeah!!! Je te raterai pas, tu joues la 'caille, on va racailler Tel ce morceau taillé spécialement pour t'encanailler Guette le tour de vice, l'école du tournevis S'entre-pète à plus de 10, ça se passe devant la police Reprends tes clics et tes clacs et redescends dans le réel Ma réalité à moi c'est un gros chaudron à Villiers-le-Bel T'aimerais vivre à ma place menteur tu t'serais douté Parqué dans un bloc de béton, à l'affût de la moindre pouille-dé Sois pas vex' si je pète ton concept, tu veux vivre dans ma jungle Alors mon style gars tu l'acceptes Ne me raconte pas tes conneries, arrête de nous faire gole-ri Cesse un peu de t'inspirer de ma vie Aspiré par le bitume, attiré dans la spirale, chiré Des thunes j'en veux, t'en as et tu ne cesses de m'admirer Laisse faire les experts, les putains de paroliers Ne raconte pas ce qui se passe dans nos cages d'escalier Ne raconte pas ce qui se passe dans nos cages d'escaliers Tu sais, non tu ne sais pas, je sais que tu nous bluffes sur ton papier Les pieds en avant tu peux finir si de ma vie tu t'inspires Raconte que ce que tu vis avant que le bitume t'aspire</t>
         </is>
       </c>
     </row>
@@ -781,12 +781,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Celui qui vient chez toi (quand tu n’es pas là)</t>
+          <t>Affaire de famille</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>J'aimerais tant te rencontrer, pouvoir te parler Être en face de toi mais ta femme ne veut pas C'est louche, on se croise sans jamais se coincer Quand tu prends l'ascenseur, je prends l'escalier Dès que tu téléphones, je décroche à côté Ta voix de dictateur la fait toujours flipper, mais Chez toi c'est la bonne humeur, tout est OK Je laisse des indices mais tu ne les trouve pas Je dévalise ta cuisine et je fume dans tes draps S'il n'y a plus de tequila, c'n'est pas toi mais moi qui la bois Chez toi c'est l'Italie, y a toujours des spaghetti Les pieds sur ton bureau, je mate l'album photo Jolies noces, huh, j'étais bogosse Je regarde tes vidéos et j'écoute ta sono Elle me masse le dos et je branche la radio Haa, il n'y a que chez toi que je trouve du repos Ne viens pas chez moi quand je n'suis pas là Ne viens pas chez moi, Doc Gyneco Ne viens pas chez moi quand je n'suis pas là Ne viens pas chez moi Je te vois facilement en militaire de carrière Ou, en business affaires Vas-y pars à l'étranger comme ça j'pourrais m'installer Jamais je n'm'en lasse, toutes tes poches y passent Malgré son aide, je ne trouve pas tes liasses On fait les courses avec ta carte bleue J'en profite, je prends tout c'que je peux Tu es notre seul sujet de conversation Et ta voiture, mon seul moyen de locomotion Je n'mange pas chez moi, exprès pour manger chez toi Entre nos demeures, il y a une grande différence T'as un plus grand canapé, une télé coins carrés Sur laquelle je zappe les chaînes câblées Mais quand j'y pense, t'as vraiment d'la chance Que je sois, celui qui vient chez toi quand tu n'es pas là Ne viens pas chez moi quand je n'suis pas là Ne viens pas chez moi, Doc Gyneco Ne viens pas chez moi quand je n'suis pas là Ne viens pas chez moi Tu ne m'connais pas, ta femme me connaît Je suis ton meilleur ami, ton cousin, ton reufré Son nouveau délire, le mec qui l'inspire Le démon qui l'attire dans d'infinis plaisirs Tu perds la cadence, manque de puissance C'est à moi qu'elle pense quand tu l'offenses À mes reins en acier, vitesse TGV Je vais dans les coins où tu n'as jamais été Adultère féroce avec un sale gosse Ne viens pas chez moi quand je n'suis pas là Ne viens pas chez moi, Doc Gyneco Ne viens pas chez moi quand je n'suis pas là Ne viens pas chez moi1</t>
+          <t>On prend des risques sur disque, au micro On pose notre discours sur beat disco, miss pointe chez ton disquaire Puisqu'au fond, on veut tous percer l'plafond J'fous d'la forme dans mon fond, mate c'que mes scarlas font Et si ça te parle à fond fous ta radio Et dis aux gosses fous qu'il faut foncer pour ses idéaux Époque silicone, j'sais plus à quel saint m'vouer Sur qui compter quand j'coule ma clique, ma seule bouée Ma famille c'est mes soss', en assoc' pour tout dégommer Gommer, grosse arnaque, gosse paumée, venu pour trôner Le biz du siècle, le casse de la décennie L'occase saisie, l'affaire qui roule pour l'état leucémie La roue a tourné, c'est ma tournée, né-tour avec nous Cours avec ton verre, trinquer, visnétour la journée La nuit on fff, on crrr, des cranes, tchtchi des veaucers Des boulots, déboulons sur Paname, déroulons tout ce que nous voulons Rimes dégueulasses, des histoires de slash sous flash Je t'en donne pendant deux heures gratuites au bash Tu donnes des styles pour poser sur ma compile Tu joues l'hostile, mais y a pas d'zoulettes viriles Rendons le verbe à ceux qui cognent Dur, au-delà des mots, on fera toute la sale besogne J'peux pas mentir aux jeunes, leur dire que j'ai des guns J'veux pas non-plus qu'ils pensent qu'on peut s'en sortir seul Calmes, posés, les miens en veulent Violent dans tes raps, écarte-toi idiot, et ferme ta gueule Y'a pas d'gangsters dans les studios, y a que des grandes gueules ! Il me manque une phase en eule eule eule C'est une affaire, une affaire de famille Fonder une famille car c'est tout ce qu'on a Viens dans ma famille et tu ne te feras plus jamais karna Tous on veut quéma la musique, le cinéma Tous on a trimé pour sortir de ce putain de coma Ta fête pue la défaite, c'est la victoire d'avance Mais au final à trois on pète ton équipe de France Un coffee shop, une casse, pour mon cop, madame Je cotise pour ma retraite à Amsterdam On monte tellement haut qu'on pourra plus redescendre On monte, on monte, et t'essayes de nous descendre Je sais qui sont les traîtres, on sait qui nous respecte Je sais c'que me réserve l'avenir, les armes sont prêtes C'est une affaire à faire en louzdé, lourdé Les louzes défoncés, rien que du lourd des vrais loups Derrière une louve prête à tout nettoyer jusqu'au bout Il faut que ça brille chez nous, on ché-la rien On préfère laver notre linge en famille C'est une affaire, une affaire de famille Nettoyer l'secteur, je crache ma vision vue d'l'intérieur J'pose une bombe, une spéciale pour ton postérieur Ma tronche en poster, style austère, et personne bronche On explose ta soirée, mes soces, moi et mon verre de punch. Et si on mise c'est pour rectifier les erreurs commises Mon rap guide les lascars comme Moïse sur la terre promise La mouise, ça renforce les liens, et quand la musique sonne Partout les groupies font péter le standard sur nos Ericsson Du succès, on a les clés, mon clan maque les réseaux sur beat musclé vif, à la Cassius Clay, à vif kiffe mon riff pète jusqu'en Haute-Volta Pose ton colt, bouge ton cul, et swingue comme Travolta. J'en place une pour les miens, car la famille y'a que ca qui compte J'en fais mon affaire, et à la surface ma clique remonte Que tous les lascars se bougent, que toutes les meufs remuent leurs fesses Que Dieu bénisse le mic quand Arsenik est dans la pièce Encaisse et danse, laisse tes rrr roule avec mon secteur Allume tes feux, craque l'allumette, fais feu sur le pera Affaire de mifa, te mouilles pas là-dedans, évite ca brille Pas la peine de te faire remarquer, gicle de là, mec te grille pas Te mêle pas de ca, laisse nous foutre le souk On va changer le pera, le disco, même en foutre au souk Arsenik, Doc Gynéco, ca part en vrilles, brillent Les quilles tombent, on s'en bat, c'est une affaire de famille C'est une affaire, une affaire de famille C'est une affaire, une affaire de famille</t>
         </is>
       </c>
     </row>
@@ -798,12 +798,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Arrête de mentir</t>
+          <t>à mes côtés</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Non pas de l'underground, du noyau dur Sache que mon français restera toujours pur et dur De Porte de la Chapelle, oui j'assure Plus longtemps qu'une Duracell, mademoiselle je dure Épurer tous nos pêchés, même M. le curé veut se marier Laisse-moi donc prier mais à qui m'adresser ? J'ai trop agressé et contre le zoulou Maintenant Gynéco vient se dresser Tu verras quand les miens passeront à la télé On verra quand les miens seront radio-fusés Enfin la vérité grâce au Secteur promotionné Écoute cette assoc de malfaiteurs Y a tous mes soss, ils mettent du cur Sale zoulette, range ta panoplie, ta casquette Va écrire tes textes à la bibliothèque Racaille Canada Dry, Bye, bye,bye... Ne raconte pas ce qui se passe dans nos cages d'escaliers Tu sais, non tu ne sais pas, je sais que tu nous bluffes sur ton papier Les pieds en avant tu peux finir si de ma vie tu t'inspires Raconte que ce que tu vis avant que le bitume t'aspire Rien à foutre des mecs qui me disent que pour un rappeur j'ai un look clean J'ai grandi dans une cité en France et pas au Queens, à Brooklyn Rien à foutre des clowns, des clônes, des franco Wu Tang Clan Moi je vi-sère mes ien-clarts et fais swinguer les skwalls au Bataclan Ouais, des rimes chocs, des mots en bloc J'en ai en stock, Gloc-Lyrical Lino Ärsenik épaule le Doc Ne raconte pas ce qui se passe dans nos blocs mec Ruffneck en toc mec, gaze tu perds ton froc sec Nazes, sont tes phrases quand tu me parles de rue Je te laisse l'underground et pour lui l'instru, un round Sur mon ring et tu subis des sévices, une lame dans mon Levi's Le renard perd ses poils mais pas le vice Glisse, sur le ons, mon rap se deale comme un bon style Enfonce-toi ça dans l'crâne et fronce pas les sourcils Je sais que tu sais que je sais qui tu es Essaie pas de bluffer MC, j'ai tué Je deviens ton Senseï La merde, mais demain ça ira Deux fois plus en testos, putain les Zoulous veulent devenir des kaïras Ton H.I.P. Français a chopé ce foutu virus aux States Les baltringues ont pris la grosse tête Ne raconte pas ce qui se passe dans nos cages d'escaliers Tu sais, non tu ne sais pas, je sais que tu nous bluffes sur ton papier Les pieds en avant tu peux finir si de ma vie tu t'inspires Raconte que ce que tu vis avant que le bitume t'aspire Ne raconte pas ce qui se passe en bas ou sur mon palier Ne remue pas la de-mer chez moi où les fous sont à lier Allez petit salaud lâche ce bedo Je sais que tu veux pas ré-ti, tu veux tellement en être Maintenant t'es accroc à la se-ti, 1.6.6.4.8.6 Tu me saoules, tu causes de moules De rouler des oinj's, de casses en cagoules Foule mon turf et je te coupe les... non Et je te coupe les... arrêtes Et je te coupe les... Tchi tchi tchi, yeah!!! Je te raterai pas, tu joues la 'caille, on va racailler Tel ce morceau taillé spécialement pour t'encanailler Guette le tour de vice, l'école du tournevis S'entre-pète à plus de 10, ça se passe devant la police Reprends tes clics et tes clacs et redescends dans le réel Ma réalité à moi c'est un gros chaudron à Villiers-le-Bel T'aimerais vivre à ma place menteur tu t'serais douté Parqué dans un bloc de béton, à l'affût de la moindre pouille-dé Sois pas vex' si je pète ton concept, tu veux vivre dans ma jungle Alors mon style gars tu l'acceptes Ne me raconte pas tes conneries, arrête de nous faire gole-ri Cesse un peu de t'inspirer de ma vie Aspiré par le bitume, attiré dans la spirale, chiré Des thunes j'en veux, t'en as et tu ne cesses de m'admirer Laisse faire les experts, les putains de paroliers Ne raconte pas ce qui se passe dans nos cages d'escalier Ne raconte pas ce qui se passe dans nos cages d'escaliers Tu sais, non tu ne sais pas, je sais que tu nous bluffes sur ton papier Les pieds en avant tu peux finir si de ma vie tu t'inspires Raconte que ce que tu vis avant que le bitume t'aspire</t>
+          <t>Tu t'poses des questions mais pourquoi Tu t'demande quel sens a la vie T'as une maison solaire, une voiture électrique, une meuf Sexy Ne t'envoie pas en l'air dans d'autres galaxies Garde les pieds sur terre pense à ta famille Tu deviens natural mystique Mais les enfants aussi c'est magique Tu veux t'barrer à la montagne Faire pousser d'l'herbe dans la campagne Changer ta religion Tu t'poses trop de questions T'hésites entre Jah, Bouddha ou le Dalai Lama Tu n'sais plus qui est le papa Tu veux détruire le système Mais comme dans matrix, c'est grâce à toi qu'la société L'aime Tu voudrais qu'on légalise le cannabis Tu lances des pavés sur la police Mais quand on sait fumer le message c'est love and peace J'ai besoin de toi à mes cotés Forts et fiers comme quand on était maudit Mais que vas tu chercher si loin Tu cours, tu cours mais après quoi ? Tu n'as qu'un choix à faire écoute ton cur mon frère Tu dis la prochaine guerre sera la dernière Elle sera nucléaire, qu'on est tous frère Qu'il faut protéger la terre mère Mais tu poses des bombes pour que dieux entende tes prières Tu penses que les médias contrôlent Alors je joue mon meilleurs rôle Je ne sais pas si j'pourrais sauver l'univers Mais j'peux t'aider à y voir plus clair Nourris ton âme de mes mots Si tu n'veux plus manger d'animaux Plus de guerre, plus de révolver Tu veux fumer des pétards Comme un soixante huitard Tu m'parles de Shiva, des Sadhou Tu deviens fou Tu t'poses trop de questions Des questions à propos d'tout Arrête ta déprime Penses à ceux qui t'estiment Lâches ton pseudonyme sur Meetic T'as quarante ans mais tu t'comportes Comme un gosse de seize piges Pourquoi recherche tu le vertige, la voltige Refrain T'es pas né à la bonne époque Techno pokéro Anti héros J'ai le bon karma J'cultive mon dharma Ma larme les désarme On fait les choses en équipe, en synergie Sur les ondes, y'a plus qu'des bonnes énergies Il faut que tu bosses, que tu sortes du cosmos Viens on va s'faire une toile C'est la guerre des étoiles Le cuisinier se suicide si il lui manque une étoile Les visages se dévoilent Tu dois souffrir J'te connais tu t'forces à sourire Viens du bon coté d'la force Tu vas t'en sortir Ton fils et ta femme t'attendent les bras grands ouverts Cesse cette vie de chat de gouttière T'as l'âme au creux de l'estomac Et je sais quelle peut remonter à la surface Alors cours et dépêches toi ya Car le temps passe ya Sans laisser de trace ya</t>
         </is>
       </c>
     </row>
@@ -815,12 +815,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Affaire de famille</t>
+          <t>Armagedon</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>On prend des risques sur disque, au micro On pose notre discours sur beat disco, miss pointe chez ton disquaire Puisqu'au fond, on veut tous percer l'plafond J'fous d'la forme dans mon fond, mate c'que mes scarlas font Et si ça te parle à fond fous ta radio Et dis aux gosses fous qu'il faut foncer pour ses idéaux Époque silicone, j'sais plus à quel saint m'vouer Sur qui compter quand j'coule ma clique, ma seule bouée Ma famille c'est mes soss', en assoc' pour tout dégommer Gommer, grosse arnaque, gosse paumée, venu pour trôner Le biz du siècle, le casse de la décennie L'occase saisie, l'affaire qui roule pour l'état leucémie La roue a tourné, c'est ma tournée, né-tour avec nous Cours avec ton verre, trinquer, visnétour la journée La nuit on fff, on crrr, des cranes, tchtchi des veaucers Des boulots, déboulons sur Paname, déroulons tout ce que nous voulons Rimes dégueulasses, des histoires de slash sous flash Je t'en donne pendant deux heures gratuites au bash Tu donnes des styles pour poser sur ma compile Tu joues l'hostile, mais y a pas d'zoulettes viriles Rendons le verbe à ceux qui cognent Dur, au-delà des mots, on fera toute la sale besogne J'peux pas mentir aux jeunes, leur dire que j'ai des guns J'veux pas non-plus qu'ils pensent qu'on peut s'en sortir seul Calmes, posés, les miens en veulent Violent dans tes raps, écarte-toi idiot, et ferme ta gueule Y'a pas d'gangsters dans les studios, y a que des grandes gueules ! Il me manque une phase en eule eule eule C'est une affaire, une affaire de famille Fonder une famille car c'est tout ce qu'on a Viens dans ma famille et tu ne te feras plus jamais karna Tous on veut quéma la musique, le cinéma Tous on a trimé pour sortir de ce putain de coma Ta fête pue la défaite, c'est la victoire d'avance Mais au final à trois on pète ton équipe de France Un coffee shop, une casse, pour mon cop, madame Je cotise pour ma retraite à Amsterdam On monte tellement haut qu'on pourra plus redescendre On monte, on monte, et t'essayes de nous descendre Je sais qui sont les traîtres, on sait qui nous respecte Je sais c'que me réserve l'avenir, les armes sont prêtes C'est une affaire à faire en louzdé, lourdé Les louzes défoncés, rien que du lourd des vrais loups Derrière une louve prête à tout nettoyer jusqu'au bout Il faut que ça brille chez nous, on ché-la rien On préfère laver notre linge en famille C'est une affaire, une affaire de famille Nettoyer l'secteur, je crache ma vision vue d'l'intérieur J'pose une bombe, une spéciale pour ton postérieur Ma tronche en poster, style austère, et personne bronche On explose ta soirée, mes soces, moi et mon verre de punch. Et si on mise c'est pour rectifier les erreurs commises Mon rap guide les lascars comme Moïse sur la terre promise La mouise, ça renforce les liens, et quand la musique sonne Partout les groupies font péter le standard sur nos Ericsson Du succès, on a les clés, mon clan maque les réseaux sur beat musclé vif, à la Cassius Clay, à vif kiffe mon riff pète jusqu'en Haute-Volta Pose ton colt, bouge ton cul, et swingue comme Travolta. J'en place une pour les miens, car la famille y'a que ca qui compte J'en fais mon affaire, et à la surface ma clique remonte Que tous les lascars se bougent, que toutes les meufs remuent leurs fesses Que Dieu bénisse le mic quand Arsenik est dans la pièce Encaisse et danse, laisse tes rrr roule avec mon secteur Allume tes feux, craque l'allumette, fais feu sur le pera Affaire de mifa, te mouilles pas là-dedans, évite ca brille Pas la peine de te faire remarquer, gicle de là, mec te grille pas Te mêle pas de ca, laisse nous foutre le souk On va changer le pera, le disco, même en foutre au souk Arsenik, Doc Gynéco, ca part en vrilles, brillent Les quilles tombent, on s'en bat, c'est une affaire de famille C'est une affaire, une affaire de famille C'est une affaire, une affaire de famille</t>
+          <t>C'est d'l'intox Non, j'viens d'un quartier à tox' J'coupe mes locks et c'est filmé par la Fox Un mec du PLC, scolarisé au boulevard Ney Dans ma rue, du crack, la BAC, les mecs qu'ont eu leur bac Des macs, sous l'vent l'odeur du chichon, le bruit des coups d'klaxon C'est pas d'la fiction, c'est mieux qu'un film d'action Dans mon quartier, très peu finiront curés Y a qu'des cheminots, des ouvriers Je voulais voyager, j'allais pas plus loin qu'les Champs Élysées Y a pas plus dur que c'qu'y a dans mon caleçon Graver mon nom sur les murs à la be-bom Y a pas d'lettrage quand tu graves Armageddon Ls rues sont vides et j'ingurgit mon liquide Échange tes biftons contre ma weed Je sais qui je suis Ainsi tu sais d'où je suis et d'où je viens On s'en est sortis, sains de corps et d'esprit À la prison, mais avec sursis Toujours la pluie, jamais de beau temps Délits et faits-divers, j'ai un abonnement Qu'est c'qui s'passe dans les rues? Le Parisien est au courant, il sort son chien Et si c'est chaud, il s'sauve en courant Rien à ger-man, une bouffée d'herbe et autant en emporte le vent On met l'accent sur tous les immigrants Si les Ricains n'étaient pas là, on parlerait tous allemand Y aurait d'la choucroute dans mon cassoulet Appuie, y a pas d'euro qui soit plus franc, incultes Il me demande si j'en ai une grande, on m'insulte Sans me comprendre Problèmes de com' Et culturels Les Droits de l'Homme sont éternels Métis unique à cinquante pourcents Je sais qui je suis Ainsi tu sais d'où je suis et d'où je viens La plus forte des bières J'attends l'été, un maximum de degrés J'suis dopé, capotes usagées, cannettes explosées Le béton fleurit, de seringues il est parsemé J'y laisse tomber mes mots comme des pétales La pâle vérité sur instrumentale Enfant du caniveau, du ruisseau Et les femmes dans tout ça Je n'serai jamais là, je suis ici Je communique autrement, XXX Il y a des mélodies qui restent dans la tête Il y a des mélodies qui restent gravées dans le cur On n'saura jamais là, on n'a rien inventé Si tout est programmé, on sera tous jugés D'après des références, je suis une référence Je sais qui je suis Ainsi tu sais d'où je suis et d'où je viens</t>
         </is>
       </c>
     </row>
@@ -832,12 +832,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>à mes côtés</t>
+          <t>Arrête 2 mentir</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Tu t'poses des questions mais pourquoi Tu t'demande quel sens a la vie T'as une maison solaire, une voiture électrique, une meuf Sexy Ne t'envoie pas en l'air dans d'autres galaxies Garde les pieds sur terre pense à ta famille Tu deviens natural mystique Mais les enfants aussi c'est magique Tu veux t'barrer à la montagne Faire pousser d'l'herbe dans la campagne Changer ta religion Tu t'poses trop de questions T'hésites entre Jah, Bouddha ou le Dalai Lama Tu n'sais plus qui est le papa Tu veux détruire le système Mais comme dans matrix, c'est grâce à toi qu'la société L'aime Tu voudrais qu'on légalise le cannabis Tu lances des pavés sur la police Mais quand on sait fumer le message c'est love and peace J'ai besoin de toi à mes cotés Forts et fiers comme quand on était maudit Mais que vas tu chercher si loin Tu cours, tu cours mais après quoi ? Tu n'as qu'un choix à faire écoute ton cur mon frère Tu dis la prochaine guerre sera la dernière Elle sera nucléaire, qu'on est tous frère Qu'il faut protéger la terre mère Mais tu poses des bombes pour que dieux entende tes prières Tu penses que les médias contrôlent Alors je joue mon meilleurs rôle Je ne sais pas si j'pourrais sauver l'univers Mais j'peux t'aider à y voir plus clair Nourris ton âme de mes mots Si tu n'veux plus manger d'animaux Plus de guerre, plus de révolver Tu veux fumer des pétards Comme un soixante huitard Tu m'parles de Shiva, des Sadhou Tu deviens fou Tu t'poses trop de questions Des questions à propos d'tout Arrête ta déprime Penses à ceux qui t'estiment Lâches ton pseudonyme sur Meetic T'as quarante ans mais tu t'comportes Comme un gosse de seize piges Pourquoi recherche tu le vertige, la voltige Refrain T'es pas né à la bonne époque Techno pokéro Anti héros J'ai le bon karma J'cultive mon dharma Ma larme les désarme On fait les choses en équipe, en synergie Sur les ondes, y'a plus qu'des bonnes énergies Il faut que tu bosses, que tu sortes du cosmos Viens on va s'faire une toile C'est la guerre des étoiles Le cuisinier se suicide si il lui manque une étoile Les visages se dévoilent Tu dois souffrir J'te connais tu t'forces à sourire Viens du bon coté d'la force Tu vas t'en sortir Ton fils et ta femme t'attendent les bras grands ouverts Cesse cette vie de chat de gouttière T'as l'âme au creux de l'estomac Et je sais quelle peut remonter à la surface Alors cours et dépêches toi ya Car le temps passe ya Sans laisser de trace ya</t>
+          <t>1 Agora tu, Calíope, me ensina O que contou ao Rei o ilustre Gama Inspira imortal canto e voz divina Neste peito mortal, que tanto te ama. Assim o claro inventor da Medicina, De quem Orfeu pariste, ó linda Dama, Nunca por Dafne, Clície ou Leucotoe, Te negue o amor devido, como soe. 2 Põe tu, Ninfa, em efeito meu desejo, Como merece a gente Lusitana Que veja e saiba o mundo que do Tejo O licor de Aganipe corre e mana. Deixa as flores de Pindo, que já vejo Banhar-me Apolo na água soberana Senão direi que tens algum receio, Que se escureça o teu querido Orfeio. 3 Prontos estavam todos escutando O que o sublime Gama contaria, Quando, depois de um pouco estar cuidando, Alevantando o rosto, assim dizia Mandas-me, ó Rei, que conte declarando De minha gente a grão genealogia Não me mandas contar estranha história, Mas mandas-me louvar dos meus a glória. 4 Que outrem possa louvar esforço alheio, Cousa é que se costuma e se deseja Mas louvar os meus próprios, arreceio Que louvor tão suspeito mal me esteja E para dizer tudo, temo e creio, Que qualquer longo tempo curto seja Mas, pois o mandas, tudo se te deve, Irei contra o que devo, e serei breve. 5 Além disso, o que a tudo enfim me obriga, É não poder mentir no que disser, Porque de feitos tais, por mais que diga, Mais me há-de ficar inda por dizer. Mas, porque nisto a ordens leve e siga, Segundo o que desejas de saber, Primeiro tratarei da larga terra, Depois direi da sanguinosa guerra. 6 Entre a Zona que o Cancro senhoreia, Meta setentrional do Sol luzente, E aquela que por f ria se arreceia Tanto, como a do meio por ardente, Jaz a soberba Europa, a quem rodeia, Pela parte do Areturo, e do Ocidente, Com suas salsas ondas o Oceano, E pela Austral o mar Mediterrano. 7 Da parte donde o dia vem nascendo, Com Ásia se avizinha mas o rio Que dos montes Rifeios vai correndo, Na alagoa Meotis, curvo o frio, As divide e o mar que, fero e horrendo, Viu dos Gregos o irado senhorio, Onde agora de Tróia triunfante Não vê mais que a memória o navegante. 8 Lá onde mais debaixo está do Pólo, Os montes Hiperbóreos aparecem, E aqueles onde sempre sopra Eolo, E co'o nome, dos sopros se enobrecem. Aqui tão pouca força tem de Apolo Os raios que no mundo resplandecem, Que a neve está contido pelos montes, Gelado o mar, geladas sempre as fontes. 9 Aqui dos Citas grande quantidade Vivem, que antigamente grande guerra Tiveram, sobre a humana antiguidade, Co'os que tinham então a Egípcia terra Mas quem tão fora estava da verdade, Já que o juízo humano tanto erra Para que do mais certo se informara, Ao campo Damasceno o perguntara. 10 Agora nestas partes se nomeia A Lápia fria, a inculta Noruega, Escandinávia Ilha, que se arreia Das vitórias que Itália não lhe nega. Aqui, enquanto as águas não refreia O congelado inverno, se navega Um braço do Sarmático Oceano Pelo Brúsio, Suécio e frio Dano. 11 Entre este mar e o Tánais vive estranha Gente Rutenos, Moseos e Livónios, Sármatas outro tempo e na montanha Hircínia os Marcomanos são Polónios. Sujeitos ao Império de Alemanha São Saxones, Boêmios e Panónios, E outras várias nações, que o Reno frio Lava, e o Danúbio, Amasis e Albis rio. 12 Entre o remoto Istro e o claro Estreito, Aonde Hele deixou co'o nome a vida, Estão os Traces de robusto peito, Do fero Marte pátria tão querida, Onde, colo Hemo, o Ródope sujeito Ao Otomano está, que submetida Bizâncio tem a seu serviço indino Boa injúria do grande Constantino! 13 Logo de Macedónia estão as gentes, A quem lava do Axio a água fria E vós também, ó terras excelentes Nos costumes, engenhos e ousadia, Que criastes os peitos eloquentes E os juízos de alta fantasia, Com quem tu, clara Grécia, o Céu penetras, E não menos por armas, que por letras. 14 Logo os Dálmatas vivem e no seio, Onde Antenor já muros levantou, A soberba Veneza está no meio Das águas, que tão baixa começou. Da terra um braço vem ao mar, que cheio De esforço, nações várias sujeitou, Braço forte, de gente sublimada, Não menos nos engenhos, que na espada. 15 Em torno o cerca o Reino Neptunino, Co'os muros naturais por outra parte Pelo meio o divide o Apenino, Que tão ilustre fez o pátrio Marte Mas depois que o Porteiro tem divino, Perdendo o esforço veio, e bélica arte Pobre está já de antiga potestade Tanto Deus se contenta de humildade! 16 Gália ali se verá que nomeada Co'os Cesáreos triunfos foi no mundo, Que do Séquana e Ródano é regada, E do Giruna frio e Reno fundo. Logo os montes da Ninfa sepultada Pirene se alevantam, que segundo Antiguidades contam, quando arderam, Rios de ouro e de prata então correram. 17 Eis aqui se descobre a nobre Espanha, Como cabeça ali de Europa toda, Em cujo senhorio o glória estranha Muitas voltas tem dado a fatal roda Mas nunca poderá, com força ou manha, A fortuna inquieta pôr-lhe noda, Que lhe não tire o esforço e ousadia Dos belicosos peitos que em si cria. 18 Com Tingitânia entesta, e ali parece Que quer fechar o mar Mediterrano, Onde o sabido Estreito se enobrece Co'o extremo trabalhado Tebano. Com nações diferentes se engrandece, Cercadas com as ondas do Oceano Todas de tal nobreza e tal valor, Que qualquer delas cuida que é melhor. 19 Tem o Tarragonês, que se fez claro Sujeitando Parténope inquieta O Navarro, as Astúrias, que reparo Já foram contra a gente Mahometa Tem o Galego cauto, e o grande e raro Castelhano, a quem fez o seu Planeta Restituidor de Espanha e senhor dela, Bétis, Lião, Granada, com Castela. 20 Eis aqui, quase cume da cabeça De Europa toda, o Reino Lusitano, Onde a terra se acaba e o mar começa, E onde Febo repousa no Oceano. Este quis o Céu justo que floresça Nas armas contra o torpe Mauritano, Deitando-o de si fora, e lá na ardente África estar quieto o não consente. 22 Esta é a ditosa pátria minha amada, A qual se o Céu me dá que eu sem perigo Torne, com esta empresa já acabada, Acabe-se esta luz ali comigo. Esta foi Lusitânia, derivada De Luso, ou Lisa, que de Baco antigo Filhos foram, parece, ou companheiros, E nela então os Íncolas primeiros. 22 Desta o pastor nasceu, que no seu nome Se vê que de homem forte os feitos teve Cuja fama ninguém virá que dome, Pois a grande de Roma não se atreve. Esta, o velho que os filhos próprios come Por decreto do Céu, ligeiro e leve, Veio a fazer no mundo tanta parte, Criando-a Reino ilustre e foi desta arte 23 Um Rei, por nome Afonso, foi na Espanha, Que fez aos Sarracenos tanta guerra, Que por armas sanguinas, força e manha, A muitos fez perder a vida o a terra Voando deste Rei a fama estranha Do Herculano Calpe à Cáspia serra, Muitos, para na guerra esclarecer-se, Vinham a ele e à morte oferecer-se. 24 E com um amor intrínseco acendidos Da Fé, mais que das honras populares, Eram de várias terras conduzidos, Deixando a pátria amada e próprios lares. Depois que em feitos altos e subidos Se mostraram nas armas singulares, Quis o famoso Afonso que obras tais Levassem prémio digno e dons iguais. 25 Destes Anrique, dizem que segundo Filho de um Rei de Ungria exprimentado, Portugal houve em sorte, que no mundo Então não era ilustre nem prezado E, para mais sinal d'amor profundo, Quis o Rei Castelhano, que casado Com Teresa, sua filha, o Conde fosse E com ela das terras tornou posse. 26 Este, depois que contra os descendentes Da escrava Agar vitórias grandes teve, Ganhando muitas terras adjacentes, Fazendo o que a seu forte peito deve, Em prémio destes feitos excelentes, Deu-lhe o supremo Deus, em tempo breve, Um filho, que ilustrasse o nome ufano Do belicoso Reino Lusitano. 27 Já tinha vindo Anrique da conquista Da cidade Hierosólima sagrada, E do Jordão a areia tinha vista, Que viu de Deus a carne em si lavada Que não tendo Gotfredo a quem resista, Depois de ter Judeia sojugada, Muitos, que nestas guerras o ajudaram, Para seus senhorios se tornaram 28 Quando chegado ao fim de sua idade, O forte e famoso Úngaro estremado, Forçado da fatal necessidade, O espírito deu a quem lhe tinha dado, Ficava o filho em tenra mocidade, Em quem o pai deixava seu traslado, Que do mundo os mais fortes igualava Que de tal pai tal filho se esperava. 29 Mas o velho rumor, não sei se errado, Que em tanta antiguidade não há certeza, Conta que a mãe, tomando todo o estado, Do segundo himeneu não se despreza. O filho órfão deixava deserdado, Dizendo que nas terras a grandeza Do senhorio todo só sua era, Porque, para casar, seu pai lhes dera. 30 Mas o Príncipe Afonso, que desta arte Se chamava, do avô tomando o nome, Vendo-se em suas terras não ter parte, Que a mãe, com seu marido, as manda e come, Fervendo-lhe no peito o duro Marte, Imagina consigo como as tome. Revolvidas as causas no conceito, Ao propósito firme segue o efeito. 31 De Guimarães o campo se tingia Co'o sangue próprio da intestina guerra, Onde a mãe, que tão pouco o parecia, A seu filho negava o amor e a terra. Com ele posta em campo já se via E não vê a soberba o muito que erra Contra Deus, contra o maternal amor Mas nela o sensual era maior. 32 Ó Progne crua! ó mágica Medeia! Se em vossos próprios filhos vos vingais Da maldade dos pais, da culpa alheia, Olhai que inda Teresa peca mais Incontinência má, cobiça feia, São as causas deste erro principais Cila, por uma, mata o velho pai, Esta, por ambas, contra o filho vai. 33 Mas já o Príncipe claro o vencimento Do padrasto e da iníqua mãe levava Já lhe obedece a terra num momento, Que primeiro contra ele pelejava. Porém, vencido de ira o entendimento, A mãe em ferros ásperos atava Mas de Deus foi vingada em tempo breve Tanta veneração aos pais se deve! 34 Eis se ajunta o soberbo Castelhano, Para vingar a injúria de Teresa, Contra o tão raro em gente Lusitano, A quem nenhum trabalho agrava ou pesa. Em batalha cruel o peito humano, Ajudado da angélica defesa, Não só contra tal fúria se sustenta, Mas o inimigo aspérrimo afugenta. 35 Não passa muito tempo, quando o forte Príncipe em Guimarães está cercado De infinito poder que desta sorte Foi refazer-se o inimigo magoado Mas, com se oferecer à dura morte O fiel Egas amo, foi livrado Que de outra arte pudera ser perdido, Segundo estava mal apercebido. 36 lulas o leal vassalo, conhecendo Que seu senhor não tinha resistência, Se vai ao Castelhano, prometendo Que ele faria dar-lhe obediência. Levanta o inimigo o cerco horrendo, Fiado na promessa e consciência De Egas Moniz mas não consente o peito Do moço ilustre a outrem ser sujeito. 37 Chegado tinha o prazo prometido, Em que o Rei Castelhano já aguardava Que o Príncipe, a seu mando sometido, Lhe desse a obediência que esperava. Vendo Egas que ficava fementido, O que dele Castela não cuidava, Determina de dar a doce vida A troco da palavra mal cumprida. 38 E com seus filhos e mulher se parte A alevantar com eles a fiança, Descalços e despidos, de tal arte, Que mais move a piedade que a vingança. Se pretendes, Rei alto, de vingar-te De minha temerária confiança, Dizia, eis aqui venho oferecido A te pagar, coa vida, o prometido. 39 Vês aqui trago as vidas inocentes Dos filhos sem pecado e da consorte Se a peitos generosos e excelentes, Dos fracos satisfaz a fera morte. Vês aqui as mãos e a língua delinquentes Nelas sós exprimenta toda a sorte De tormentos, de mortes, pelo estilo De Cínis e do touro de Perilo! 40 Qual diante do algoz o condenado, Que já na vida a morte tem bebido, Põe no cepo a garganta, e já entregado Espera pelo golpe tão temido Tal diante do Príncipe indinado, Egas estava a tudo oferecido. Mas o Rei, vendo a estranha lealdade, Mais pôde, enfim, que a ira a piedade. 41 Ó grão fidelidade Portuguesa, De vassalo, que a tanto se obrigava! Que mais o Persa fez naquela empresa, Onde rosto e narizes se cortava? Do que ao grande Dario tanto pesa, Que mil vezes dizendo suspirava, Que mais o seu Zopiro são prezara, Que vinte Babilónias que tomara. 42 Mas já o Príncipe Afonso aparelhava O Lusitano exército ditoso, Contra o Mouro que as terras habitava D'além do claro Tejo deleitoso Já no campo de Ourique se assentava O arraial soberbo e belicoso, Defronte do inimigo Sarraceno, Posto que em força e gente tão pequeno. 43 Em nenhuma outra cousa confiado, Senão no sumo Deus, que o Céu regia, Que tão pouco era o povo batizado, Que para um só cem Mouros haveria. Julga qualquer juízo sossegado Por mais temeridade que ousadia, Cometer um tamanho ajuntamento, Que para um cavaleiro houvesse cento. 44 Cinco Reis Mouros são os inimigos, Dos quais o principal Ismar se chama Todos exprimentados nos perigos Da guerra, onde se alcança a ilustre fama. Seguem guerreiras damas seus amigos, Imitando a formosa e forte Dama, De quem tanto os Troianos se ajudaram, E as que o Termodonte já gostaram. 45 A matutina luz serena e fria, As estrelas do Pólo já apartava, Quando na Cruz o Filho de Maria, Amostrando-se a Afonso, o animava. Ele, adorando quem lhe aparecia, Na Fé todo inflamado assim gritava Aos infiéis, Senhor, aos infiéis, E não a mim, que creio o que podeis! 46 Com tal milagre os ânimos da gente Portuguesa inflamados, levantavam Por seu Rei natural este excelente Príncipe, que do peito tanto amavam E diante do exército potente Dos imigos, gritando o céu tocavam, Dizendo em alta vozReal, real, Por Afonso alto Rei de Portugal. 47 Qual co'os gritos e vozes incitado, Pela montanha o rábido Moloso, Contra o touro remete, que fiado Na força está do corno temeroso Ora pega na orelha, ora no lado, Latindo mais ligeiro que forçoso, Até que enfim, rompendo-lhe a garganta, Do bravo a força horrenda se quebranta 48 Tal do Rei novo o estâmago acendido Por Deus e pelo povo juntamente, O Bárbaro comete apercebido, Co'o animoso exército rompente. Levantam nisto os perros o alarido Dos gritos, tocam a arma, ferve a gente, As lanças e arcos tomam, tubas soam, Instrumentos de guerra tudo atroam. 49 Bem como quando a flama, que ateada Foi nos áridos campos assoprando O sibilante Bóreas animada Co'o vento, o seco mato vai queimando A pastoral companha, que deitada Co'o doce sono estava, despertando Ao estridor do fogo que se ateia, Recolhe o fato, e foge para a aldeia 50 Desta arte o Mouro atónito e torvado, Toma sem tento as armas mui depressa Não foge mas espera confiado, E o ginete belígero arremessa. O Português o encontra denodado, Pelos peitos as lanças lhe atravessa Uns caem meios mortos, e outros vão A ajuda convocando do Alcorão. 51 Ali se vêem encontros temerosos, Para se desfazer uma alta serra, E os animais correndo furiosos Que Neptuno amostrou ferindo a terra. Golpes se dão medonhos e forçosos Por toda a parte andava acesa a guerra Mas o de Luso arnês, couraça e malha Rompe, corta, desfaz, abola e talha. 52 Cabeças pelo campo vão saltando Braços, pernas, sem dono e sem sentido E doutros as entranhas palpitando, Pálida a cor, o gesto amortecido. Já perde o campo o exército nefando Correm rios de sangue desparzido, Com que também do campo a cor se perde, Tornado carmesi de branco e verde. 53 Já fica vencedor o Lusitano, Recolhendo os troféus e presa rica Desbaratado e roto o Mauro Hispano, Três dias o grão Rei no campo fiei. Aqui pinta no branco escudo ufano, Que agora esta vitória certifica, Cinco escudos azuis esclarecidos, Em sinal destes cinco Reis vencidos, 54 E nestes cinco escudos pinta os trinta Dinheiros por que Deus fora vendido, Escrevendo a memória em vária tinta, Daquele de quem foi favorecido. Em cada uni dos cinco, cinco pinta, Porque assim fica o número cumprido, Contando duas vezes o do meio, Dos cinco azuis, que em cruz pintando veio. 55 Passado já algum tempo que passada Era esta grão vitória, o Rei subido A tomar vai Leiria, que tomada Fora, mui pouco havia, do vencido. Com esta a forte Arronches sojugada Foi juntamente, e o sempre enobrecido Scalabicastro, cujo campo ameno, Tu, claro Tejo, regas tão sereno. 56 A estas nobres vilas sometidas, Ajunta também Mafra, em pouco espaço, E nas serras da Lua conhecidas, Sojuga a fria Sintra o duro braço Sintra, onde as Naiades, escondidas Nas fontes, vão fugindo ao doce laço, Onde Amor as enreda brandamente, Nas águas acendendo fogo ardente. 57 E tu, nobre Lisboa, que no Mundo Facilmente das outras és princesa, Que edificada foste do facundo, Por cujo engano foi Dardânia acesa Tu, a quem obedece o mar profundo, Obedeceste à força Portuguesa, Ajudada também da forte armada, Que das Boreais partes foi mandada. 58 Lá do Germânico Albis, e do Rene, E da fria Bretanha conduzidos, A destruir o povo Sarraceno, Muitos com tensão santa eram partidos. Entrando a boca já do Tejo ameno, Co'o arraial do grande Afonso unidos, Cuja alta fama então subia aos Céus, Foi posto cerco tos muros Ulisseus. 59 Cinco vezes a Lua se escondera, E outras tantas mostrara cheio o rosto, Quando a cidade entrada se rendera Ao duro cerco, que lhe estava posto. Foi a batalha tão sanguina e fera, Quanto obrigava o firme pressuposto De vencedores ásperos e ousados, E de vencidos já desesperados. 60 Desta arte enfim tomada se rendeu Aquela que, nos tempos já passados, A grande força nunca obedeceu Dos frios povos Cíticos ousados, Cujo poder a tanto se estendeu Que o Ibero o viu e o Tejo amedrontados E enfim co'o Bétis tanto alguns puderam Que à terra de Vandália nome deram. 61 Que cidade tão forte por ventura Haverá que resista, se Lisboa Não pôde resistir à força dura Da gente, cuja fama tanto voa? Já lhe obedece toda a Estremadura, Óbidos, Alenquer, por onde soa O tom das frescas águas, entre as pedras, Que murmurando lava, e Torres Vedras. 62 E vós também, ó terras Transtaganas, Afamadas co'o dom da flava Ceres, Obedeceis às forças mais que humanas, Entregando-lhe os muros e os poderes. E tu, lavrador Mouro, que te enganas, Se sustentar a fértil terra queres Que Elvas, e Moura, e Serpa conhecidas, E Alcácere-do-Sal estão rendidas. 63 Eis a nobre Cidade, certo assento Do rebelde Sertório antigamente, Onde ora as águas nítidas de argento Vem sustentar de longo a terra e a gente, Pelos arcos reais, que cento e cento Nos ares se alevantam nobremente, Obedeceu por meio e ousadia De Giraldo, que medos não temia. 64 Já na cidade Beja vai tomar Vingança de Trancoso destruída Afonso, que não sabe sossegar, Por estender coa fama a curta vida. Não se lhe pode muito sustentar A cidade mas sendo já rendida, Em toda a cousa viva a gente irada Provando os fios vai da dura espada. 65 Com estas sojugada foi Palmela, E a piscosa Cezimbra, e juntamente, Sendo ajudado mais de sua estrela, Desbarata um exército potente Sentiu-o a vila, e viu-o a serra dela, Que a socorrê-la vinha diligente Pela fralda da serra, descuidado Do temeroso encontro inopinado. 66 O Rei de Badajoz era alto Mouro, Com quatro mil cavalos furiosos, Inúmeros peões, d'armas e de ouro Guarnecidos, guerreiros e lustrosos. Mas, qual no mês de Maio o bravo touro, Co'os ciúmes da vaca, arreceosos, Sentindo gente o bruto e cego amante Salteia o descuidado caminhante 67 Desta arte Afonso súbito mostrado Na gente dá, que passa bem segura, Fere, mata, derriba denodado Foge o Rei Mouro, e só da vida cura. Dum pânico terror todo assombrado, Só de segui-lo o exército procura Sendo estes que fizeram tanto abalo Não mais que só sessenta de cavalo. 68 Logo segue a vitória sem tardança O grão Rei incansábil, ajuntando Gentes de todo o Reino, cuja usança Era andar sempre terras conquistando. Cercar vai Badajoz, e logo alcança O fim de seu desejo, pelejando Com tanto esforço, e arte, e valentia, Que a fez fazer às outras companhia. 69 Mas o alto Deus, que para longe guarda O castigo daquele que o merece, Ou, para que se emende, às vezes tarda, Ou por segredos que homem não conhece, Se até que sempre o forte Rei resguarda Dos perigos a que ele se oferece Agora lhe não deixa ter defesa Da maldição da mãe que estava presa. 70 Que estando na cidade, que cercara, Cercado nela foi dos Lioneses, Porque a conquista dela lhe tomara, De Lião sendo, e não dos Portugueses. A pertinácia aqui lhe custa cara, Assim como acontece muitas vezes, Que em ferros quebra as pernas, indo aceso A batalha, onde foi vencido e preso. 71 Ó famoso Pompeio, não te pene De teus feitos ilustres a ruína, Nem ver que a justa Némesis ordene Ter teu sogro de ti vitória dina, Posto que o frio Fásis, ou Siene, Que para nenhum cabo a sombra inclina, O Bootes gelado e a linha ardente, Temessem o teu nome geralmente. 72 Posto que a rica Arábia e que os ferozes Eníocos e Colcos, cuja fama O Véu dourado estende, e os Capadoces, E Judeia, que um Deus adora e ama, E que os moles Sofenos, e os atroces Cilícios, com a Arménia, que derrama As águas dos dous rios, cuja fonte Está noutro mais alto e santo monte 73 E posto enfim que desde o mar de Atlante Até o Cítico Tauro monte erguido, Já vencedor te vissem, não te espanto Se o campo Emátio só te viu vencido, Porque Afonso verás, soberbo e ovante, Tudo render-se ser depois rendido. Assim o quis o conselho alto e celeste, Que vença o sogro a ti, e o genro a este. 74 Tornado o Rei sublime finalmente, Do divino Juízo castigado, Depois que em Santarém soberbamente Em vão dos Sarracenos foi cercado, E depois que do mártire Vicente O santíssimo corpo venerado Do Sacro Promontório conhecido A cidade Ulisseia foi trazido 75 Porque levasse avante seu desejo, Ao forte filho manda o lasso velho Que às terras se passasse d'Alentejo, Com gente e co'o belígero aparelho. Sancho, d'esforço o d'ânimo sobejo, Avante passa, e faz correr vermelho O rio que Sevilha vai regando, Co'o sangue Mauro, bárbaro e nefando. 76 E com esta vitória cobiçoso, Já não descansa o moço até que veja Outro estrago como este, temeroso, No Bárbaro que tem cercado Beja. Não tarda muito o Príncipe ditoso Sem ver o fim daquilo que deseja. Assim estragado o Mouro, na vingança De tantas perdas põe sua esperança. 77 Já se ajuntam do monte a quem Medusa O corpo fez perder, que teve o Céu Já vem do promontório de Ampelusa E do Tinge, que assento foi de Anteu. O morador de Abila não se escusa, Que também com suas armas se moveu, Ao som da Mauritana e ronca tuba, Todo o Reino que foi do nobre Juba. 78 Entrava com toda esta companhia O Miralmomini em Portugal Treze Reis mouros leva de valia, Entre os quais tem o ceptro imperial E assim fazendo quanto mal podia, O que em partes podia fazer mal, Dom Sancho vai cercar em Santarém Porém não lhe sucede muito bem. 79 Dá-lhe combates ásperos, fazendo Ardis de guerra mil o Mouro iroso Não lhe aproveita já trabuco horrendo, Mina secreta, aríete forçoso Porque o filho de Afonso não perdendo Nada do esforço e acordo generoso, Tudo provê com ânimo e prudência Que em toda a parte há esforço e resistência. 80 Mas o velho, a quem tinham já obrigado Os trabalhosos anos ao sossego, Estando na cidade, cujo prado Enverdecem as águas do Mondego, Sabendo como o filho está cercado Em Santarém do Mauro povo cego, Se parte diligente da cidade Que não perde a presteza coa idade. 81 E coa famosa gente à guerra usada Vai socorrer o filho e assim ajuntados, A Portuguesa fúria costumada Em breve os Mouros tem desbaratados. A campina, que toda está coalhada De marlotas, capuzes variados, De cavalos, jaezes, presa rica, De seus senhores mortos cheia fica. 82 Logo todo o restante se partiu De Lusitânia, postos em fugida O Miralmomini só não fugiu, Porque, antes de fugir, lhe foge a vida. A quem lhe esta vitória permitiu Dão louvores e graças sem medida Que em casos tão estranhos claramente Mais peleja o favor de Deus que a gente. 83 De tamanhas vitórias triunfava O velho Afonso, Príncipe subido, Quando, quem tudo enfim vencendo andava, Da larga e muita idade foi vencido. A pálida doença lhe tocava Com fria mão o corpo enfraquecido E pagaram seus anos deste jeito A triste Libitina seu direito. 84 Os altos promontórios o choraram, E dos rios as águas saudosas Os semeados campos alagaram Com lágrimas correndo piedosas. Mas tanto pelo mundo se alargaram Com faina suas obras valerosas, Que sempre no seu Reino chamarão Afonso, Afonso os ecos, mas em vão. 85 Sancho, forte mancebo, que ficara Imitando seu pai na valentia, E que em sua vida já se exprimentara, Quando o Bétis de sangue se tingia, E o bárbaro poder desbaratara Do Ismaelita Rei de Andaluzia E mais quando os que Beja em vão cercaram, Os golpes de seu braço em si provaram 86 Depois que foi por Rei alevantado, Havendo poucos anos que reinava, A cidade de Silves tem cercado, Cujos campos o bárbaro lavrava. Foi das valentes gentes ajudado Da Germânica armada que passava, De armas fortes e gente apercebida, A recobrar Judeia já perdida. 87 Passavam a ajudar na santa empresa O roxo Federico, que moveu O poderoso exército em defesa Da cidade onde Cristo padeceu, Quando Guido, coa gente em sede acesa, Ao grande Saladino se rendeu, No lugar onde aos Mouros sobejavam As águas que os de Guido desejavam. 88 Mas a formosa armada, que viera Por contraste de vento àquela parte, Sancho quis ajudar na guerra fera, Já que em serviço vai do santo Marte. Assim como a seu pai acontecera Quando tomou Lisboa, da mesma arte Do Germano ajudado Silves toma, E o bravo morador destrue e doma. 89 E se tantos troféus do Mahometa Alevantando vai, também do forte Lionês não consente estar quieta A terra, usada aos casos de Mavorte, Até que na cerviz seu jugo meta Da soberba Tui, que a mesma sorte Viu ter a muitas vilas suas vizinhas, Que, por armas, tu, Sancho, humildes tinhas. 90 Mas entre tantas palmas salteado Da temerosa morte, fica herdeiro Um filho seu, de todos estimado, Que foi segundo Afonso, e Rei terceiro. No tempo deste, aos Mouros foi tomado Alcácere-do-Sal por derradeiro Porque dantes os Mouros o tomaram, Mas agora estruídos o pagaram. 91 Morto depois Afonso, lhe sucede Sancho segundo, manso e descuidado, Que tanto em seus descuidos se desmede, Que de outrem, quem mandava, era mandado. De governar o Reino, que outro pede, Por causa dos privados foi privado, Porque, como por eles se regia, Em todos os seus vícios consentia. 92 Não era Sancho, não, tão desonesto Como Nero, que um moço recebia Por mulher, e depois horrendo incesto Com a mãe Agripina cometia Nem tão cruel às gentes e molesto, Que a cidade queimasse onde vivia, Nem tão mau como foi Heliogabalo, Nem como o mole Rei Sardanapalo. 93 Nem era o povo seu tiranizado, Como Sicília foi de seus tiranos Nem tinha como Fálaris achado Gênero de tormentos inumanos Mas o Reino, de altivo e costumado A senhores em tudo soberanos, A Rei não obedece, nem consente, Que não for mais que todos excelente. 94 Por esta causa o Reino governou O Conde Bolonhês, depois alçado Por Rei, quando da vida se apartou Seu irmão Sancho, sempre ao ócio dado. Este, que Afonso o bravo, se chamou, Depois de ter o Reino segurado, Em dilatá-lo cuida, que em terreno Não cabe o altivo peito, tão pequeno. 95 Da terra dos Algarves, que lhe fora Em casamento dada, grande parte Recupera co'o braço, e deita fora O Mouro, mal querido já de Marte. Este de todo fez livre e senhora Lusitânia, com força e bélica arte E acabou de oprimir a nação forte, Na terra que aos de Luso coube em sorte. 96 Eis depois vem Dinis, que bem parece Do bravo Afonso estirpe nobre e dina, Com quem a fama grande se escurece Da liberalidade Alexandrina. Com este o Reino próspero florece Alcançada já a paz áurea divina Em constituições, leis e costumes, Na terra já tranquila claros lumes. 97 Fez primeiro em Coimbra exercitar-se O valeroso ofício de Minerva E de Helicona as Musas fez passar-se A pisar do Monde-o a fértil erva. Quanto pode de Atenas desejar-se, Tudo o soberbo Apolo aqui reserva. Aqui as capelas dá tecidas de ouro, Do bácaro e do sempre verde louro. 98 Nobres vilas de novo edificou Fortalezas, castelos mui seguros, E quase o Reino todo reformou Com edifícios grandes, e altos muros. Mas depois que a dura Átropos cortou O fio de seus dias já maduros, Ficou-lhe o filho pouco obediente, Quarto Afonso, mas forte e excelente. 99 Este sempre as soberbas Castelhanas Co'o peito desprezou firme e sereno, Porque não é das forças Lusitanas, Temer poder maior, por mais pequeno. Mas porém, quando as gentes Mauritanas, A possuir o Hespérico terreno Entraram pelas terras de Castela, Foi o soberbo Afonso a socorrê-la. 100 Nunca com Semirâmis gente tanta Veio os campos idáspicos enchendo, Nem Atila, que Itália toda espanta, Chamando-se de Deus açoute horrendo, Gótica gente trouxe tanta, quanta Do Sarraceno bárbaro estupendo, Co'o poder excessivo de Granada, Foi nos campos Tartésios ajuntada. 101 E vendo o Rei sublime Castelhano A força inexpugnábil, grande e forte, Temendo mais o fim do povo hispano, Já perdido uma vez, que a própria morte, Pedindo ajuda ao forte Lusitano, Lhe mandava a caríssima consorte, Mulher de quem a manda, e filha amada Daquele a cujo Reino foi mandada. 102 Entrava a formosíssima Maria Pelos paternais paços sublimados, Lindo o gesto, mas fora de alegria, E seus olhos em lágrimas banhados Os cabelos angélicos trazia Pelos ebúrneos ombros espalhados Diante do pai ledo, que a agasalha, Estas palavras tais, chorando, espalha 103 Quantos povos a terra produziu De África toda, gente fera e estranha, O grão Rei de Marrocos conduziu Para vir possuir a nobre Espanha Poder tamanho junto não se viu, Depois que o salso mar a terra banha. Trazem ferocidade, e furor tanto, Que a vivos medo, e a mortos faz espanto. 104 Aquele que me deste por marido, Por defender sua terra amedrontada, Co'o pequeno poder, oferecido Ao duro golpe está da Maura espada E se não for contigo socorrido, Ver-me-ás dele e do Reino ser privada, Viúva e triste, e posta em vida escura, Sem marido, sem Reino, e sem ventura. 105 Portanto, ó Rei, de quem com puro medo O corrente Muluca se congela, Rompe toda a tardança, acude cedo A miseranda gente de Castela. Se esse gesto, que mostras claro e ledo, De pai o verdadeiro amor assela, Acude e corre, pai, que se não corres, Pode ser que não aches quem socorres. 106 Não de outra sorte a tímida Maria Falando está, que a triste Vénus, quando A Júpiter, seu pai, favor pedia Para Eneias, seu filho, navegando Que a tanta piedade o comovia Que, caído das mãos o raio infando, Tudo o clemente Padre lhe concede, Pesando-lhe do pouco que lhe pede. 107 Mas já co'os esquadrões da gente armada Os Eborenses campos vão coalhados Lustra co'o Sol o arnês, a lança, a espada Vão rinchando os cavalos jaezados. A canora trombeta embandeirada, Os corações à paz acostumados Vai às fulgentes armas incitando, Pelas concavidades retumbando. 108 Entre todos no meio se sublima, Das insígnias Reais acompanhado, O valeroso Afonso, que por cima De todos leva o colo alevantado E somente co'o gesto esforça e anima A qualquer coração amedrontado. Assim entra nas terras de Castela Com a filha gentil, Rainha dela. 109 Juntos os dous Afonsos finalmente Nos campos de Tarifa estão defronte Da grande multidão da cega gente, Para quem são pequenos campo e monte. Não há peito tão alto e tão potente, Que de desconfiança não se afronte, Enquanto não conheça e claro veja Que co'o braço dos seus Cristo peleja. 110 Estão de Agar os netos quase rindo Do poder dos Cristãos fraco e pequeno, As terras como suas repartindo Antemão, entre o exército Agareno, Que com título falso possuindo Está o famoso nome Sarraceno. Assim também com falsa conta e nua, À nobre terra alheia chamam sua. 111 Qual o membrudo e bárbaro Gigante, Do rei Saul, com causa, tão temido, Vendo o pastor inerme estar diante, Só de pedras e esforço apercebido, Com palavras soberbas o arrogante Despreza o fraco moço mal vestido, Que, rodeando a funda, o desengana Quanto mais pode a Fé que a força humana 112 Desta arte o Mouro pérfido despreza O poder dos Cristãos, e não entende Que está ajudado da Alta Fortaleza, A quem o inferno horrífico se rende. Co ela o Castelhano, e com destreza De Marrocos o Rei comete e ofende. O Português, que tudo estima em nada, Se faz temer ao Reino de Granada. 113 Eis as lanças e espadas retiniam Por cima dos arneses bravo estrago! Chamam segundo as leis que ali seguiam Uns Mafamede, e os outros Santiago. Os feridos com grita o Céu feriam, Fazendo de seu sangue bruto lago, Onde outros meios mortos se afogavam, Quando do ferro as vidas escapavam. 114 Com esforço tamanho estrui e mata O Luso ao Granadil, que, em pouco espaço, Totalmente o poder lhe desbarata, Sem lhe valer defesa ou peito de aço. De alcançar tal vitória tão barata Inda não bem contente o forte braço, Vai ajudar ao bravo Castelhano, Que pelejando está co'o Mauritano. 115 Já se ia o Sol ardente recolhendo Para a casa de Tethys, e inclinado Para o Ponente, o Véspero trazendo, Estava o claro dia memorado, Quando o poder do Mauro grande e horrendo Foi pelos fortes Reis desbaratado, Com tanta mortandade, que a memória Nunca no mundo viu tão grã vitória. 116 Não matou a quarta parte o forte Mário Dos que morreram neste vencimento, Quando as águas co'o sangue do adversário Fez beber ao exército sedento Nem o Peno asperíssimo contrário Do Romano poder, de nascimento, Quando tantos matou da ilustro Roma, Que alqueires três de</t>
         </is>
       </c>
     </row>
@@ -849,12 +849,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Armagedon</t>
+          <t>Autopsie</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>C'est d'l'intox Non, j'viens d'un quartier à tox' J'coupe mes locks et c'est filmé par la Fox Un mec du PLC, scolarisé au boulevard Ney Dans ma rue, du crack, la BAC, les mecs qu'ont eu leur bac Des macs, sous l'vent l'odeur du chichon, le bruit des coups d'klaxon C'est pas d'la fiction, c'est mieux qu'un film d'action Dans mon quartier, très peu finiront curés Y a qu'des cheminots, des ouvriers Je voulais voyager, j'allais pas plus loin qu'les Champs Élysées Y a pas plus dur que c'qu'y a dans mon caleçon Graver mon nom sur les murs à la be-bom Y a pas d'lettrage quand tu graves Armageddon Ls rues sont vides et j'ingurgit mon liquide Échange tes biftons contre ma weed Je sais qui je suis Ainsi tu sais d'où je suis et d'où je viens On s'en est sortis, sains de corps et d'esprit À la prison, mais avec sursis Toujours la pluie, jamais de beau temps Délits et faits-divers, j'ai un abonnement Qu'est c'qui s'passe dans les rues? Le Parisien est au courant, il sort son chien Et si c'est chaud, il s'sauve en courant Rien à ger-man, une bouffée d'herbe et autant en emporte le vent On met l'accent sur tous les immigrants Si les Ricains n'étaient pas là, on parlerait tous allemand Y aurait d'la choucroute dans mon cassoulet Appuie, y a pas d'euro qui soit plus franc, incultes Il me demande si j'en ai une grande, on m'insulte Sans me comprendre Problèmes de com' Et culturels Les Droits de l'Homme sont éternels Métis unique à cinquante pourcents Je sais qui je suis Ainsi tu sais d'où je suis et d'où je viens La plus forte des bières J'attends l'été, un maximum de degrés J'suis dopé, capotes usagées, cannettes explosées Le béton fleurit, de seringues il est parsemé J'y laisse tomber mes mots comme des pétales La pâle vérité sur instrumentale Enfant du caniveau, du ruisseau Et les femmes dans tout ça Je n'serai jamais là, je suis ici Je communique autrement, XXX Il y a des mélodies qui restent dans la tête Il y a des mélodies qui restent gravées dans le cur On n'saura jamais là, on n'a rien inventé Si tout est programmé, on sera tous jugés D'après des références, je suis une référence Je sais qui je suis Ainsi tu sais d'où je suis et d'où je viens</t>
+          <t>x2 Dans la partie, on fête déjà ton autopsie On a la pêche, y'a des tassepèches Mais ti mal pour toi tout est fini Je suis ton prédateur, le roi des moqueurs Oh star shooter, je vais te marave, t'as de la bave Mais mec je te connais ? T'es Gueule de rat Croque du crack et de la coke. T'es accroc à l'héro Le diable a planté ses crocs Pendant que je tournais sur le dos, t'étais toujours au tableau Tu suçais la prof pour des encouragements Maintenant tu lèches pour des médicaments Désolé mais je n'ai pas mes Aspros mysto, 500 francs, effervescents Mais face aux damnés de la terre, les cames ratailles sont finis Mon autopsie funkadélic kicke te pète le uc Tu marches comme Lucky Luke. Sniffe plus vite que ton ombre Garde bien ton concombre, Jolly Tapeur, je suis le mec au top Si c'est moi Stomy-Bugzy Mais si je te trouve dans le caniveau Moi c'est pas Mysto La Nuit des Héros Oh mosse directe dans la fosse t'attends une heure Mais le dealer n'est pas passé planté, tourmenté Deux heures le dealer n'est pas passé Prêt à sucer pour pouvoir se défoncer Trois heures, le camé est défoncé Loque, ton froc se baisse pond du fric Tes cernes s'enchaînent et du nez tu piques Toi auparavant respecté regardes toi Maintenant t'es la reine des pettes-tas La blanche a fait de toi un mec qui penche, qui flanche Dans cette partie, il n'y a qu'une manche et si tu perds débranches Refrain x2 Dans la partie, on fête déjà ton autopsie On a la pêche, y'a des taspèches Mais ti mal pour toi tout est fini Mon entrée va déchirer, mon style va fusiller Mais ne te fais pas de souci pour le gynéco Bruno s'apprête à faire un salto sur ce tempo Ce n'est pas de ma faute t'en tomberas accroc Odile mon polo a du style, moi qui rêve de deal et de filles faciles Je descends sur le boulevard, observer les clients que j'aurai plus tard J'aperçois une zoulette, une putain de rate Le deuxième mot était bienvenue on dirait qu'elle se gratte, gratte gratounette Cette petite zoulette. Moi qui me voyait déjà lui lécher la... ... Elle me dit que la journée, elle braque les baraques Et que la nuit elle suce et crache dans des flaques pour du crack Et qu'elle craque quand elle aperçoit son joli caillou Si mini si doudou son chouchou Elle craque accompagnée de son mac La fumée lui envahit le corps, encore la voilà bientôt an bord, hors du décor Dans sa tête une douce voix lui dit dors, dors Morte, ivre-morte après un flash, le flash Aveuglée, fons-dée, elle se lait un rail sans paille Demande de l'aide à Gynéco car travail, repos et loisir Un mac aide à vous soutenir Doc Gynéco tu le nais-co, je le nais-co C'est le beau gosse qui lèche Je pose ma voix sur l'album de Kenzych, Passich, Stomych et Ghetch Les cames de mon quartier sont tellement fonsdés Que s'ils boivent de l'eau se mettent à dégueuler Voir un camé crevé ce n'est pas comique Mais c'est tellement commun que ce n'est pas tragique Range ton chronique, sors de ta panique Oublie les ''Baw'', oublie les ''waw'' Doc Gynéco ka mété sa en chou aw A Paris, mes ennemis parient sur ma vie et celle de Stomy Mais pas d'amis, je bouge qu'avec Stomy et les sauces du stermini Refrain x2 Dans la partie, on fête déjà ton autopsie On a la pêche, y'a des taspèches Mais ti mal pour toi tout est fini Les camés sont fons, fons dans la snifette Finance pour se foncdé, nous on fait la fête Fous accrocs d'un putain de monde féerique Ceux qui refourguent se font du fric Mais t'es un leur-di prisonnier de ton produit Eh oui la dernière fois on t'a vendu de la connerie Piégé quand tu t'es dit ''j'ai'' cette fois dans ta G.T T'as commencé par un get sept Et tu t'es jeté un demi jet dans ton nez pour voir si c'était bon marché Résultat t'es un pédé de camé Tant pis sniffe pour ceux qui ne s'arrêtent plus au spliff De plus en plus sème le diable et kiffe Se gratte, se gratte remontant jusqu'au pif, se pique en premier objectif Kiffe, sniffe. Il est cinq heures du mat et t'as des frissons Tri dégueules sur toi en écoutant nos sons Tu revois ta vie à la déroute Tu penses à ton premier shoot. plus personne ne te distingue T'appartiens à ceux qui trinquent Bringuent à la seringue et deviennent dingues Les grammes te charment tel une belle femme Ton âme crame, t'acclame madame came Dans ton game, boy t'es game overdose Mais cela ne nous regarde pas. T'en veux on t'en veux pas Passi te connait pas et dans le pire des cas c'est tant pis pour toi Eh Meca c'est plus que toi prie le Dieu Coca pour qu'il neige de Me-Ca Refrain x2 Dans la partie, on fête déjà ton autopsie On a la pêche, y'a des taspèches Mais ti mal pour toi tout est fini</t>
         </is>
       </c>
     </row>
@@ -866,12 +866,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Arrête 2 mentir</t>
+          <t>Boxe avec les mots</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1 Agora tu, Calíope, me ensina O que contou ao Rei o ilustre Gama Inspira imortal canto e voz divina Neste peito mortal, que tanto te ama. Assim o claro inventor da Medicina, De quem Orfeu pariste, ó linda Dama, Nunca por Dafne, Clície ou Leucotoe, Te negue o amor devido, como soe. 2 Põe tu, Ninfa, em efeito meu desejo, Como merece a gente Lusitana Que veja e saiba o mundo que do Tejo O licor de Aganipe corre e mana. Deixa as flores de Pindo, que já vejo Banhar-me Apolo na água soberana Senão direi que tens algum receio, Que se escureça o teu querido Orfeio. 3 Prontos estavam todos escutando O que o sublime Gama contaria, Quando, depois de um pouco estar cuidando, Alevantando o rosto, assim dizia Mandas-me, ó Rei, que conte declarando De minha gente a grão genealogia Não me mandas contar estranha história, Mas mandas-me louvar dos meus a glória. 4 Que outrem possa louvar esforço alheio, Cousa é que se costuma e se deseja Mas louvar os meus próprios, arreceio Que louvor tão suspeito mal me esteja E para dizer tudo, temo e creio, Que qualquer longo tempo curto seja Mas, pois o mandas, tudo se te deve, Irei contra o que devo, e serei breve. 5 Além disso, o que a tudo enfim me obriga, É não poder mentir no que disser, Porque de feitos tais, por mais que diga, Mais me há-de ficar inda por dizer. Mas, porque nisto a ordens leve e siga, Segundo o que desejas de saber, Primeiro tratarei da larga terra, Depois direi da sanguinosa guerra. 6 Entre a Zona que o Cancro senhoreia, Meta setentrional do Sol luzente, E aquela que por f ria se arreceia Tanto, como a do meio por ardente, Jaz a soberba Europa, a quem rodeia, Pela parte do Areturo, e do Ocidente, Com suas salsas ondas o Oceano, E pela Austral o mar Mediterrano. 7 Da parte donde o dia vem nascendo, Com Ásia se avizinha mas o rio Que dos montes Rifeios vai correndo, Na alagoa Meotis, curvo o frio, As divide e o mar que, fero e horrendo, Viu dos Gregos o irado senhorio, Onde agora de Tróia triunfante Não vê mais que a memória o navegante. 8 Lá onde mais debaixo está do Pólo, Os montes Hiperbóreos aparecem, E aqueles onde sempre sopra Eolo, E co'o nome, dos sopros se enobrecem. Aqui tão pouca força tem de Apolo Os raios que no mundo resplandecem, Que a neve está contido pelos montes, Gelado o mar, geladas sempre as fontes. 9 Aqui dos Citas grande quantidade Vivem, que antigamente grande guerra Tiveram, sobre a humana antiguidade, Co'os que tinham então a Egípcia terra Mas quem tão fora estava da verdade, Já que o juízo humano tanto erra Para que do mais certo se informara, Ao campo Damasceno o perguntara. 10 Agora nestas partes se nomeia A Lápia fria, a inculta Noruega, Escandinávia Ilha, que se arreia Das vitórias que Itália não lhe nega. Aqui, enquanto as águas não refreia O congelado inverno, se navega Um braço do Sarmático Oceano Pelo Brúsio, Suécio e frio Dano. 11 Entre este mar e o Tánais vive estranha Gente Rutenos, Moseos e Livónios, Sármatas outro tempo e na montanha Hircínia os Marcomanos são Polónios. Sujeitos ao Império de Alemanha São Saxones, Boêmios e Panónios, E outras várias nações, que o Reno frio Lava, e o Danúbio, Amasis e Albis rio. 12 Entre o remoto Istro e o claro Estreito, Aonde Hele deixou co'o nome a vida, Estão os Traces de robusto peito, Do fero Marte pátria tão querida, Onde, colo Hemo, o Ródope sujeito Ao Otomano está, que submetida Bizâncio tem a seu serviço indino Boa injúria do grande Constantino! 13 Logo de Macedónia estão as gentes, A quem lava do Axio a água fria E vós também, ó terras excelentes Nos costumes, engenhos e ousadia, Que criastes os peitos eloquentes E os juízos de alta fantasia, Com quem tu, clara Grécia, o Céu penetras, E não menos por armas, que por letras. 14 Logo os Dálmatas vivem e no seio, Onde Antenor já muros levantou, A soberba Veneza está no meio Das águas, que tão baixa começou. Da terra um braço vem ao mar, que cheio De esforço, nações várias sujeitou, Braço forte, de gente sublimada, Não menos nos engenhos, que na espada. 15 Em torno o cerca o Reino Neptunino, Co'os muros naturais por outra parte Pelo meio o divide o Apenino, Que tão ilustre fez o pátrio Marte Mas depois que o Porteiro tem divino, Perdendo o esforço veio, e bélica arte Pobre está já de antiga potestade Tanto Deus se contenta de humildade! 16 Gália ali se verá que nomeada Co'os Cesáreos triunfos foi no mundo, Que do Séquana e Ródano é regada, E do Giruna frio e Reno fundo. Logo os montes da Ninfa sepultada Pirene se alevantam, que segundo Antiguidades contam, quando arderam, Rios de ouro e de prata então correram. 17 Eis aqui se descobre a nobre Espanha, Como cabeça ali de Europa toda, Em cujo senhorio o glória estranha Muitas voltas tem dado a fatal roda Mas nunca poderá, com força ou manha, A fortuna inquieta pôr-lhe noda, Que lhe não tire o esforço e ousadia Dos belicosos peitos que em si cria. 18 Com Tingitânia entesta, e ali parece Que quer fechar o mar Mediterrano, Onde o sabido Estreito se enobrece Co'o extremo trabalhado Tebano. Com nações diferentes se engrandece, Cercadas com as ondas do Oceano Todas de tal nobreza e tal valor, Que qualquer delas cuida que é melhor. 19 Tem o Tarragonês, que se fez claro Sujeitando Parténope inquieta O Navarro, as Astúrias, que reparo Já foram contra a gente Mahometa Tem o Galego cauto, e o grande e raro Castelhano, a quem fez o seu Planeta Restituidor de Espanha e senhor dela, Bétis, Lião, Granada, com Castela. 20 Eis aqui, quase cume da cabeça De Europa toda, o Reino Lusitano, Onde a terra se acaba e o mar começa, E onde Febo repousa no Oceano. Este quis o Céu justo que floresça Nas armas contra o torpe Mauritano, Deitando-o de si fora, e lá na ardente África estar quieto o não consente. 22 Esta é a ditosa pátria minha amada, A qual se o Céu me dá que eu sem perigo Torne, com esta empresa já acabada, Acabe-se esta luz ali comigo. Esta foi Lusitânia, derivada De Luso, ou Lisa, que de Baco antigo Filhos foram, parece, ou companheiros, E nela então os Íncolas primeiros. 22 Desta o pastor nasceu, que no seu nome Se vê que de homem forte os feitos teve Cuja fama ninguém virá que dome, Pois a grande de Roma não se atreve. Esta, o velho que os filhos próprios come Por decreto do Céu, ligeiro e leve, Veio a fazer no mundo tanta parte, Criando-a Reino ilustre e foi desta arte 23 Um Rei, por nome Afonso, foi na Espanha, Que fez aos Sarracenos tanta guerra, Que por armas sanguinas, força e manha, A muitos fez perder a vida o a terra Voando deste Rei a fama estranha Do Herculano Calpe à Cáspia serra, Muitos, para na guerra esclarecer-se, Vinham a ele e à morte oferecer-se. 24 E com um amor intrínseco acendidos Da Fé, mais que das honras populares, Eram de várias terras conduzidos, Deixando a pátria amada e próprios lares. Depois que em feitos altos e subidos Se mostraram nas armas singulares, Quis o famoso Afonso que obras tais Levassem prémio digno e dons iguais. 25 Destes Anrique, dizem que segundo Filho de um Rei de Ungria exprimentado, Portugal houve em sorte, que no mundo Então não era ilustre nem prezado E, para mais sinal d'amor profundo, Quis o Rei Castelhano, que casado Com Teresa, sua filha, o Conde fosse E com ela das terras tornou posse. 26 Este, depois que contra os descendentes Da escrava Agar vitórias grandes teve, Ganhando muitas terras adjacentes, Fazendo o que a seu forte peito deve, Em prémio destes feitos excelentes, Deu-lhe o supremo Deus, em tempo breve, Um filho, que ilustrasse o nome ufano Do belicoso Reino Lusitano. 27 Já tinha vindo Anrique da conquista Da cidade Hierosólima sagrada, E do Jordão a areia tinha vista, Que viu de Deus a carne em si lavada Que não tendo Gotfredo a quem resista, Depois de ter Judeia sojugada, Muitos, que nestas guerras o ajudaram, Para seus senhorios se tornaram 28 Quando chegado ao fim de sua idade, O forte e famoso Úngaro estremado, Forçado da fatal necessidade, O espírito deu a quem lhe tinha dado, Ficava o filho em tenra mocidade, Em quem o pai deixava seu traslado, Que do mundo os mais fortes igualava Que de tal pai tal filho se esperava. 29 Mas o velho rumor, não sei se errado, Que em tanta antiguidade não há certeza, Conta que a mãe, tomando todo o estado, Do segundo himeneu não se despreza. O filho órfão deixava deserdado, Dizendo que nas terras a grandeza Do senhorio todo só sua era, Porque, para casar, seu pai lhes dera. 30 Mas o Príncipe Afonso, que desta arte Se chamava, do avô tomando o nome, Vendo-se em suas terras não ter parte, Que a mãe, com seu marido, as manda e come, Fervendo-lhe no peito o duro Marte, Imagina consigo como as tome. Revolvidas as causas no conceito, Ao propósito firme segue o efeito. 31 De Guimarães o campo se tingia Co'o sangue próprio da intestina guerra, Onde a mãe, que tão pouco o parecia, A seu filho negava o amor e a terra. Com ele posta em campo já se via E não vê a soberba o muito que erra Contra Deus, contra o maternal amor Mas nela o sensual era maior. 32 Ó Progne crua! ó mágica Medeia! Se em vossos próprios filhos vos vingais Da maldade dos pais, da culpa alheia, Olhai que inda Teresa peca mais Incontinência má, cobiça feia, São as causas deste erro principais Cila, por uma, mata o velho pai, Esta, por ambas, contra o filho vai. 33 Mas já o Príncipe claro o vencimento Do padrasto e da iníqua mãe levava Já lhe obedece a terra num momento, Que primeiro contra ele pelejava. Porém, vencido de ira o entendimento, A mãe em ferros ásperos atava Mas de Deus foi vingada em tempo breve Tanta veneração aos pais se deve! 34 Eis se ajunta o soberbo Castelhano, Para vingar a injúria de Teresa, Contra o tão raro em gente Lusitano, A quem nenhum trabalho agrava ou pesa. Em batalha cruel o peito humano, Ajudado da angélica defesa, Não só contra tal fúria se sustenta, Mas o inimigo aspérrimo afugenta. 35 Não passa muito tempo, quando o forte Príncipe em Guimarães está cercado De infinito poder que desta sorte Foi refazer-se o inimigo magoado Mas, com se oferecer à dura morte O fiel Egas amo, foi livrado Que de outra arte pudera ser perdido, Segundo estava mal apercebido. 36 lulas o leal vassalo, conhecendo Que seu senhor não tinha resistência, Se vai ao Castelhano, prometendo Que ele faria dar-lhe obediência. Levanta o inimigo o cerco horrendo, Fiado na promessa e consciência De Egas Moniz mas não consente o peito Do moço ilustre a outrem ser sujeito. 37 Chegado tinha o prazo prometido, Em que o Rei Castelhano já aguardava Que o Príncipe, a seu mando sometido, Lhe desse a obediência que esperava. Vendo Egas que ficava fementido, O que dele Castela não cuidava, Determina de dar a doce vida A troco da palavra mal cumprida. 38 E com seus filhos e mulher se parte A alevantar com eles a fiança, Descalços e despidos, de tal arte, Que mais move a piedade que a vingança. Se pretendes, Rei alto, de vingar-te De minha temerária confiança, Dizia, eis aqui venho oferecido A te pagar, coa vida, o prometido. 39 Vês aqui trago as vidas inocentes Dos filhos sem pecado e da consorte Se a peitos generosos e excelentes, Dos fracos satisfaz a fera morte. Vês aqui as mãos e a língua delinquentes Nelas sós exprimenta toda a sorte De tormentos, de mortes, pelo estilo De Cínis e do touro de Perilo! 40 Qual diante do algoz o condenado, Que já na vida a morte tem bebido, Põe no cepo a garganta, e já entregado Espera pelo golpe tão temido Tal diante do Príncipe indinado, Egas estava a tudo oferecido. Mas o Rei, vendo a estranha lealdade, Mais pôde, enfim, que a ira a piedade. 41 Ó grão fidelidade Portuguesa, De vassalo, que a tanto se obrigava! Que mais o Persa fez naquela empresa, Onde rosto e narizes se cortava? Do que ao grande Dario tanto pesa, Que mil vezes dizendo suspirava, Que mais o seu Zopiro são prezara, Que vinte Babilónias que tomara. 42 Mas já o Príncipe Afonso aparelhava O Lusitano exército ditoso, Contra o Mouro que as terras habitava D'além do claro Tejo deleitoso Já no campo de Ourique se assentava O arraial soberbo e belicoso, Defronte do inimigo Sarraceno, Posto que em força e gente tão pequeno. 43 Em nenhuma outra cousa confiado, Senão no sumo Deus, que o Céu regia, Que tão pouco era o povo batizado, Que para um só cem Mouros haveria. Julga qualquer juízo sossegado Por mais temeridade que ousadia, Cometer um tamanho ajuntamento, Que para um cavaleiro houvesse cento. 44 Cinco Reis Mouros são os inimigos, Dos quais o principal Ismar se chama Todos exprimentados nos perigos Da guerra, onde se alcança a ilustre fama. Seguem guerreiras damas seus amigos, Imitando a formosa e forte Dama, De quem tanto os Troianos se ajudaram, E as que o Termodonte já gostaram. 45 A matutina luz serena e fria, As estrelas do Pólo já apartava, Quando na Cruz o Filho de Maria, Amostrando-se a Afonso, o animava. Ele, adorando quem lhe aparecia, Na Fé todo inflamado assim gritava Aos infiéis, Senhor, aos infiéis, E não a mim, que creio o que podeis! 46 Com tal milagre os ânimos da gente Portuguesa inflamados, levantavam Por seu Rei natural este excelente Príncipe, que do peito tanto amavam E diante do exército potente Dos imigos, gritando o céu tocavam, Dizendo em alta vozReal, real, Por Afonso alto Rei de Portugal. 47 Qual co'os gritos e vozes incitado, Pela montanha o rábido Moloso, Contra o touro remete, que fiado Na força está do corno temeroso Ora pega na orelha, ora no lado, Latindo mais ligeiro que forçoso, Até que enfim, rompendo-lhe a garganta, Do bravo a força horrenda se quebranta 48 Tal do Rei novo o estâmago acendido Por Deus e pelo povo juntamente, O Bárbaro comete apercebido, Co'o animoso exército rompente. Levantam nisto os perros o alarido Dos gritos, tocam a arma, ferve a gente, As lanças e arcos tomam, tubas soam, Instrumentos de guerra tudo atroam. 49 Bem como quando a flama, que ateada Foi nos áridos campos assoprando O sibilante Bóreas animada Co'o vento, o seco mato vai queimando A pastoral companha, que deitada Co'o doce sono estava, despertando Ao estridor do fogo que se ateia, Recolhe o fato, e foge para a aldeia 50 Desta arte o Mouro atónito e torvado, Toma sem tento as armas mui depressa Não foge mas espera confiado, E o ginete belígero arremessa. O Português o encontra denodado, Pelos peitos as lanças lhe atravessa Uns caem meios mortos, e outros vão A ajuda convocando do Alcorão. 51 Ali se vêem encontros temerosos, Para se desfazer uma alta serra, E os animais correndo furiosos Que Neptuno amostrou ferindo a terra. Golpes se dão medonhos e forçosos Por toda a parte andava acesa a guerra Mas o de Luso arnês, couraça e malha Rompe, corta, desfaz, abola e talha. 52 Cabeças pelo campo vão saltando Braços, pernas, sem dono e sem sentido E doutros as entranhas palpitando, Pálida a cor, o gesto amortecido. Já perde o campo o exército nefando Correm rios de sangue desparzido, Com que também do campo a cor se perde, Tornado carmesi de branco e verde. 53 Já fica vencedor o Lusitano, Recolhendo os troféus e presa rica Desbaratado e roto o Mauro Hispano, Três dias o grão Rei no campo fiei. Aqui pinta no branco escudo ufano, Que agora esta vitória certifica, Cinco escudos azuis esclarecidos, Em sinal destes cinco Reis vencidos, 54 E nestes cinco escudos pinta os trinta Dinheiros por que Deus fora vendido, Escrevendo a memória em vária tinta, Daquele de quem foi favorecido. Em cada uni dos cinco, cinco pinta, Porque assim fica o número cumprido, Contando duas vezes o do meio, Dos cinco azuis, que em cruz pintando veio. 55 Passado já algum tempo que passada Era esta grão vitória, o Rei subido A tomar vai Leiria, que tomada Fora, mui pouco havia, do vencido. Com esta a forte Arronches sojugada Foi juntamente, e o sempre enobrecido Scalabicastro, cujo campo ameno, Tu, claro Tejo, regas tão sereno. 56 A estas nobres vilas sometidas, Ajunta também Mafra, em pouco espaço, E nas serras da Lua conhecidas, Sojuga a fria Sintra o duro braço Sintra, onde as Naiades, escondidas Nas fontes, vão fugindo ao doce laço, Onde Amor as enreda brandamente, Nas águas acendendo fogo ardente. 57 E tu, nobre Lisboa, que no Mundo Facilmente das outras és princesa, Que edificada foste do facundo, Por cujo engano foi Dardânia acesa Tu, a quem obedece o mar profundo, Obedeceste à força Portuguesa, Ajudada também da forte armada, Que das Boreais partes foi mandada. 58 Lá do Germânico Albis, e do Rene, E da fria Bretanha conduzidos, A destruir o povo Sarraceno, Muitos com tensão santa eram partidos. Entrando a boca já do Tejo ameno, Co'o arraial do grande Afonso unidos, Cuja alta fama então subia aos Céus, Foi posto cerco tos muros Ulisseus. 59 Cinco vezes a Lua se escondera, E outras tantas mostrara cheio o rosto, Quando a cidade entrada se rendera Ao duro cerco, que lhe estava posto. Foi a batalha tão sanguina e fera, Quanto obrigava o firme pressuposto De vencedores ásperos e ousados, E de vencidos já desesperados. 60 Desta arte enfim tomada se rendeu Aquela que, nos tempos já passados, A grande força nunca obedeceu Dos frios povos Cíticos ousados, Cujo poder a tanto se estendeu Que o Ibero o viu e o Tejo amedrontados E enfim co'o Bétis tanto alguns puderam Que à terra de Vandália nome deram. 61 Que cidade tão forte por ventura Haverá que resista, se Lisboa Não pôde resistir à força dura Da gente, cuja fama tanto voa? Já lhe obedece toda a Estremadura, Óbidos, Alenquer, por onde soa O tom das frescas águas, entre as pedras, Que murmurando lava, e Torres Vedras. 62 E vós também, ó terras Transtaganas, Afamadas co'o dom da flava Ceres, Obedeceis às forças mais que humanas, Entregando-lhe os muros e os poderes. E tu, lavrador Mouro, que te enganas, Se sustentar a fértil terra queres Que Elvas, e Moura, e Serpa conhecidas, E Alcácere-do-Sal estão rendidas. 63 Eis a nobre Cidade, certo assento Do rebelde Sertório antigamente, Onde ora as águas nítidas de argento Vem sustentar de longo a terra e a gente, Pelos arcos reais, que cento e cento Nos ares se alevantam nobremente, Obedeceu por meio e ousadia De Giraldo, que medos não temia. 64 Já na cidade Beja vai tomar Vingança de Trancoso destruída Afonso, que não sabe sossegar, Por estender coa fama a curta vida. Não se lhe pode muito sustentar A cidade mas sendo já rendida, Em toda a cousa viva a gente irada Provando os fios vai da dura espada. 65 Com estas sojugada foi Palmela, E a piscosa Cezimbra, e juntamente, Sendo ajudado mais de sua estrela, Desbarata um exército potente Sentiu-o a vila, e viu-o a serra dela, Que a socorrê-la vinha diligente Pela fralda da serra, descuidado Do temeroso encontro inopinado. 66 O Rei de Badajoz era alto Mouro, Com quatro mil cavalos furiosos, Inúmeros peões, d'armas e de ouro Guarnecidos, guerreiros e lustrosos. Mas, qual no mês de Maio o bravo touro, Co'os ciúmes da vaca, arreceosos, Sentindo gente o bruto e cego amante Salteia o descuidado caminhante 67 Desta arte Afonso súbito mostrado Na gente dá, que passa bem segura, Fere, mata, derriba denodado Foge o Rei Mouro, e só da vida cura. Dum pânico terror todo assombrado, Só de segui-lo o exército procura Sendo estes que fizeram tanto abalo Não mais que só sessenta de cavalo. 68 Logo segue a vitória sem tardança O grão Rei incansábil, ajuntando Gentes de todo o Reino, cuja usança Era andar sempre terras conquistando. Cercar vai Badajoz, e logo alcança O fim de seu desejo, pelejando Com tanto esforço, e arte, e valentia, Que a fez fazer às outras companhia. 69 Mas o alto Deus, que para longe guarda O castigo daquele que o merece, Ou, para que se emende, às vezes tarda, Ou por segredos que homem não conhece, Se até que sempre o forte Rei resguarda Dos perigos a que ele se oferece Agora lhe não deixa ter defesa Da maldição da mãe que estava presa. 70 Que estando na cidade, que cercara, Cercado nela foi dos Lioneses, Porque a conquista dela lhe tomara, De Lião sendo, e não dos Portugueses. A pertinácia aqui lhe custa cara, Assim como acontece muitas vezes, Que em ferros quebra as pernas, indo aceso A batalha, onde foi vencido e preso. 71 Ó famoso Pompeio, não te pene De teus feitos ilustres a ruína, Nem ver que a justa Némesis ordene Ter teu sogro de ti vitória dina, Posto que o frio Fásis, ou Siene, Que para nenhum cabo a sombra inclina, O Bootes gelado e a linha ardente, Temessem o teu nome geralmente. 72 Posto que a rica Arábia e que os ferozes Eníocos e Colcos, cuja fama O Véu dourado estende, e os Capadoces, E Judeia, que um Deus adora e ama, E que os moles Sofenos, e os atroces Cilícios, com a Arménia, que derrama As águas dos dous rios, cuja fonte Está noutro mais alto e santo monte 73 E posto enfim que desde o mar de Atlante Até o Cítico Tauro monte erguido, Já vencedor te vissem, não te espanto Se o campo Emátio só te viu vencido, Porque Afonso verás, soberbo e ovante, Tudo render-se ser depois rendido. Assim o quis o conselho alto e celeste, Que vença o sogro a ti, e o genro a este. 74 Tornado o Rei sublime finalmente, Do divino Juízo castigado, Depois que em Santarém soberbamente Em vão dos Sarracenos foi cercado, E depois que do mártire Vicente O santíssimo corpo venerado Do Sacro Promontório conhecido A cidade Ulisseia foi trazido 75 Porque levasse avante seu desejo, Ao forte filho manda o lasso velho Que às terras se passasse d'Alentejo, Com gente e co'o belígero aparelho. Sancho, d'esforço o d'ânimo sobejo, Avante passa, e faz correr vermelho O rio que Sevilha vai regando, Co'o sangue Mauro, bárbaro e nefando. 76 E com esta vitória cobiçoso, Já não descansa o moço até que veja Outro estrago como este, temeroso, No Bárbaro que tem cercado Beja. Não tarda muito o Príncipe ditoso Sem ver o fim daquilo que deseja. Assim estragado o Mouro, na vingança De tantas perdas põe sua esperança. 77 Já se ajuntam do monte a quem Medusa O corpo fez perder, que teve o Céu Já vem do promontório de Ampelusa E do Tinge, que assento foi de Anteu. O morador de Abila não se escusa, Que também com suas armas se moveu, Ao som da Mauritana e ronca tuba, Todo o Reino que foi do nobre Juba. 78 Entrava com toda esta companhia O Miralmomini em Portugal Treze Reis mouros leva de valia, Entre os quais tem o ceptro imperial E assim fazendo quanto mal podia, O que em partes podia fazer mal, Dom Sancho vai cercar em Santarém Porém não lhe sucede muito bem. 79 Dá-lhe combates ásperos, fazendo Ardis de guerra mil o Mouro iroso Não lhe aproveita já trabuco horrendo, Mina secreta, aríete forçoso Porque o filho de Afonso não perdendo Nada do esforço e acordo generoso, Tudo provê com ânimo e prudência Que em toda a parte há esforço e resistência. 80 Mas o velho, a quem tinham já obrigado Os trabalhosos anos ao sossego, Estando na cidade, cujo prado Enverdecem as águas do Mondego, Sabendo como o filho está cercado Em Santarém do Mauro povo cego, Se parte diligente da cidade Que não perde a presteza coa idade. 81 E coa famosa gente à guerra usada Vai socorrer o filho e assim ajuntados, A Portuguesa fúria costumada Em breve os Mouros tem desbaratados. A campina, que toda está coalhada De marlotas, capuzes variados, De cavalos, jaezes, presa rica, De seus senhores mortos cheia fica. 82 Logo todo o restante se partiu De Lusitânia, postos em fugida O Miralmomini só não fugiu, Porque, antes de fugir, lhe foge a vida. A quem lhe esta vitória permitiu Dão louvores e graças sem medida Que em casos tão estranhos claramente Mais peleja o favor de Deus que a gente. 83 De tamanhas vitórias triunfava O velho Afonso, Príncipe subido, Quando, quem tudo enfim vencendo andava, Da larga e muita idade foi vencido. A pálida doença lhe tocava Com fria mão o corpo enfraquecido E pagaram seus anos deste jeito A triste Libitina seu direito. 84 Os altos promontórios o choraram, E dos rios as águas saudosas Os semeados campos alagaram Com lágrimas correndo piedosas. Mas tanto pelo mundo se alargaram Com faina suas obras valerosas, Que sempre no seu Reino chamarão Afonso, Afonso os ecos, mas em vão. 85 Sancho, forte mancebo, que ficara Imitando seu pai na valentia, E que em sua vida já se exprimentara, Quando o Bétis de sangue se tingia, E o bárbaro poder desbaratara Do Ismaelita Rei de Andaluzia E mais quando os que Beja em vão cercaram, Os golpes de seu braço em si provaram 86 Depois que foi por Rei alevantado, Havendo poucos anos que reinava, A cidade de Silves tem cercado, Cujos campos o bárbaro lavrava. Foi das valentes gentes ajudado Da Germânica armada que passava, De armas fortes e gente apercebida, A recobrar Judeia já perdida. 87 Passavam a ajudar na santa empresa O roxo Federico, que moveu O poderoso exército em defesa Da cidade onde Cristo padeceu, Quando Guido, coa gente em sede acesa, Ao grande Saladino se rendeu, No lugar onde aos Mouros sobejavam As águas que os de Guido desejavam. 88 Mas a formosa armada, que viera Por contraste de vento àquela parte, Sancho quis ajudar na guerra fera, Já que em serviço vai do santo Marte. Assim como a seu pai acontecera Quando tomou Lisboa, da mesma arte Do Germano ajudado Silves toma, E o bravo morador destrue e doma. 89 E se tantos troféus do Mahometa Alevantando vai, também do forte Lionês não consente estar quieta A terra, usada aos casos de Mavorte, Até que na cerviz seu jugo meta Da soberba Tui, que a mesma sorte Viu ter a muitas vilas suas vizinhas, Que, por armas, tu, Sancho, humildes tinhas. 90 Mas entre tantas palmas salteado Da temerosa morte, fica herdeiro Um filho seu, de todos estimado, Que foi segundo Afonso, e Rei terceiro. No tempo deste, aos Mouros foi tomado Alcácere-do-Sal por derradeiro Porque dantes os Mouros o tomaram, Mas agora estruídos o pagaram. 91 Morto depois Afonso, lhe sucede Sancho segundo, manso e descuidado, Que tanto em seus descuidos se desmede, Que de outrem, quem mandava, era mandado. De governar o Reino, que outro pede, Por causa dos privados foi privado, Porque, como por eles se regia, Em todos os seus vícios consentia. 92 Não era Sancho, não, tão desonesto Como Nero, que um moço recebia Por mulher, e depois horrendo incesto Com a mãe Agripina cometia Nem tão cruel às gentes e molesto, Que a cidade queimasse onde vivia, Nem tão mau como foi Heliogabalo, Nem como o mole Rei Sardanapalo. 93 Nem era o povo seu tiranizado, Como Sicília foi de seus tiranos Nem tinha como Fálaris achado Gênero de tormentos inumanos Mas o Reino, de altivo e costumado A senhores em tudo soberanos, A Rei não obedece, nem consente, Que não for mais que todos excelente. 94 Por esta causa o Reino governou O Conde Bolonhês, depois alçado Por Rei, quando da vida se apartou Seu irmão Sancho, sempre ao ócio dado. Este, que Afonso o bravo, se chamou, Depois de ter o Reino segurado, Em dilatá-lo cuida, que em terreno Não cabe o altivo peito, tão pequeno. 95 Da terra dos Algarves, que lhe fora Em casamento dada, grande parte Recupera co'o braço, e deita fora O Mouro, mal querido já de Marte. Este de todo fez livre e senhora Lusitânia, com força e bélica arte E acabou de oprimir a nação forte, Na terra que aos de Luso coube em sorte. 96 Eis depois vem Dinis, que bem parece Do bravo Afonso estirpe nobre e dina, Com quem a fama grande se escurece Da liberalidade Alexandrina. Com este o Reino próspero florece Alcançada já a paz áurea divina Em constituições, leis e costumes, Na terra já tranquila claros lumes. 97 Fez primeiro em Coimbra exercitar-se O valeroso ofício de Minerva E de Helicona as Musas fez passar-se A pisar do Monde-o a fértil erva. Quanto pode de Atenas desejar-se, Tudo o soberbo Apolo aqui reserva. Aqui as capelas dá tecidas de ouro, Do bácaro e do sempre verde louro. 98 Nobres vilas de novo edificou Fortalezas, castelos mui seguros, E quase o Reino todo reformou Com edifícios grandes, e altos muros. Mas depois que a dura Átropos cortou O fio de seus dias já maduros, Ficou-lhe o filho pouco obediente, Quarto Afonso, mas forte e excelente. 99 Este sempre as soberbas Castelhanas Co'o peito desprezou firme e sereno, Porque não é das forças Lusitanas, Temer poder maior, por mais pequeno. Mas porém, quando as gentes Mauritanas, A possuir o Hespérico terreno Entraram pelas terras de Castela, Foi o soberbo Afonso a socorrê-la. 100 Nunca com Semirâmis gente tanta Veio os campos idáspicos enchendo, Nem Atila, que Itália toda espanta, Chamando-se de Deus açoute horrendo, Gótica gente trouxe tanta, quanta Do Sarraceno bárbaro estupendo, Co'o poder excessivo de Granada, Foi nos campos Tartésios ajuntada. 101 E vendo o Rei sublime Castelhano A força inexpugnábil, grande e forte, Temendo mais o fim do povo hispano, Já perdido uma vez, que a própria morte, Pedindo ajuda ao forte Lusitano, Lhe mandava a caríssima consorte, Mulher de quem a manda, e filha amada Daquele a cujo Reino foi mandada. 102 Entrava a formosíssima Maria Pelos paternais paços sublimados, Lindo o gesto, mas fora de alegria, E seus olhos em lágrimas banhados Os cabelos angélicos trazia Pelos ebúrneos ombros espalhados Diante do pai ledo, que a agasalha, Estas palavras tais, chorando, espalha 103 Quantos povos a terra produziu De África toda, gente fera e estranha, O grão Rei de Marrocos conduziu Para vir possuir a nobre Espanha Poder tamanho junto não se viu, Depois que o salso mar a terra banha. Trazem ferocidade, e furor tanto, Que a vivos medo, e a mortos faz espanto. 104 Aquele que me deste por marido, Por defender sua terra amedrontada, Co'o pequeno poder, oferecido Ao duro golpe está da Maura espada E se não for contigo socorrido, Ver-me-ás dele e do Reino ser privada, Viúva e triste, e posta em vida escura, Sem marido, sem Reino, e sem ventura. 105 Portanto, ó Rei, de quem com puro medo O corrente Muluca se congela, Rompe toda a tardança, acude cedo A miseranda gente de Castela. Se esse gesto, que mostras claro e ledo, De pai o verdadeiro amor assela, Acude e corre, pai, que se não corres, Pode ser que não aches quem socorres. 106 Não de outra sorte a tímida Maria Falando está, que a triste Vénus, quando A Júpiter, seu pai, favor pedia Para Eneias, seu filho, navegando Que a tanta piedade o comovia Que, caído das mãos o raio infando, Tudo o clemente Padre lhe concede, Pesando-lhe do pouco que lhe pede. 107 Mas já co'os esquadrões da gente armada Os Eborenses campos vão coalhados Lustra co'o Sol o arnês, a lança, a espada Vão rinchando os cavalos jaezados. A canora trombeta embandeirada, Os corações à paz acostumados Vai às fulgentes armas incitando, Pelas concavidades retumbando. 108 Entre todos no meio se sublima, Das insígnias Reais acompanhado, O valeroso Afonso, que por cima De todos leva o colo alevantado E somente co'o gesto esforça e anima A qualquer coração amedrontado. Assim entra nas terras de Castela Com a filha gentil, Rainha dela. 109 Juntos os dous Afonsos finalmente Nos campos de Tarifa estão defronte Da grande multidão da cega gente, Para quem são pequenos campo e monte. Não há peito tão alto e tão potente, Que de desconfiança não se afronte, Enquanto não conheça e claro veja Que co'o braço dos seus Cristo peleja. 110 Estão de Agar os netos quase rindo Do poder dos Cristãos fraco e pequeno, As terras como suas repartindo Antemão, entre o exército Agareno, Que com título falso possuindo Está o famoso nome Sarraceno. Assim também com falsa conta e nua, À nobre terra alheia chamam sua. 111 Qual o membrudo e bárbaro Gigante, Do rei Saul, com causa, tão temido, Vendo o pastor inerme estar diante, Só de pedras e esforço apercebido, Com palavras soberbas o arrogante Despreza o fraco moço mal vestido, Que, rodeando a funda, o desengana Quanto mais pode a Fé que a força humana 112 Desta arte o Mouro pérfido despreza O poder dos Cristãos, e não entende Que está ajudado da Alta Fortaleza, A quem o inferno horrífico se rende. Co ela o Castelhano, e com destreza De Marrocos o Rei comete e ofende. O Português, que tudo estima em nada, Se faz temer ao Reino de Granada. 113 Eis as lanças e espadas retiniam Por cima dos arneses bravo estrago! Chamam segundo as leis que ali seguiam Uns Mafamede, e os outros Santiago. Os feridos com grita o Céu feriam, Fazendo de seu sangue bruto lago, Onde outros meios mortos se afogavam, Quando do ferro as vidas escapavam. 114 Com esforço tamanho estrui e mata O Luso ao Granadil, que, em pouco espaço, Totalmente o poder lhe desbarata, Sem lhe valer defesa ou peito de aço. De alcançar tal vitória tão barata Inda não bem contente o forte braço, Vai ajudar ao bravo Castelhano, Que pelejando está co'o Mauritano. 115 Já se ia o Sol ardente recolhendo Para a casa de Tethys, e inclinado Para o Ponente, o Véspero trazendo, Estava o claro dia memorado, Quando o poder do Mauro grande e horrendo Foi pelos fortes Reis desbaratado, Com tanta mortandade, que a memória Nunca no mundo viu tão grã vitória. 116 Não matou a quarta parte o forte Mário Dos que morreram neste vencimento, Quando as águas co'o sangue do adversário Fez beber ao exército sedento Nem o Peno asperíssimo contrário Do Romano poder, de nascimento, Quando tantos matou da ilustro Roma, Que alqueires três de</t>
+          <t>2014 11 décembre Suicide commercial Lino 24 octobre Wolfgang Lino 27 août VLB Lino feat. T-Killa 9 avril 12ème Lettre Lino 2013 9 juillet C'est là-bas Calbo feat. VR 2011 19 mai Philosophie de Pare-Choc feat. 2Bal 2007 Mille et Une Vies Lino 2005 Où Les Anges Brûlent Lino Paradis Airlines Lino 2002 J't'emmerde Regarde le Monde P.O.I.S.O.N 1998 Affaires de Famille feat. Doc Gynéco Assia Boxe avec les Mots</t>
         </is>
       </c>
     </row>
@@ -883,12 +883,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Autopsie</t>
+          <t>Ça colle aux doigts</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>x2 Dans la partie, on fête déjà ton autopsie On a la pêche, y'a des tassepèches Mais ti mal pour toi tout est fini Je suis ton prédateur, le roi des moqueurs Oh star shooter, je vais te marave, t'as de la bave Mais mec je te connais ? T'es Gueule de rat Croque du crack et de la coke. T'es accroc à l'héro Le diable a planté ses crocs Pendant que je tournais sur le dos, t'étais toujours au tableau Tu suçais la prof pour des encouragements Maintenant tu lèches pour des médicaments Désolé mais je n'ai pas mes Aspros mysto, 500 francs, effervescents Mais face aux damnés de la terre, les cames ratailles sont finis Mon autopsie funkadélic kicke te pète le uc Tu marches comme Lucky Luke. Sniffe plus vite que ton ombre Garde bien ton concombre, Jolly Tapeur, je suis le mec au top Si c'est moi Stomy-Bugzy Mais si je te trouve dans le caniveau Moi c'est pas Mysto La Nuit des Héros Oh mosse directe dans la fosse t'attends une heure Mais le dealer n'est pas passé planté, tourmenté Deux heures le dealer n'est pas passé Prêt à sucer pour pouvoir se défoncer Trois heures, le camé est défoncé Loque, ton froc se baisse pond du fric Tes cernes s'enchaînent et du nez tu piques Toi auparavant respecté regardes toi Maintenant t'es la reine des pettes-tas La blanche a fait de toi un mec qui penche, qui flanche Dans cette partie, il n'y a qu'une manche et si tu perds débranches Refrain x2 Dans la partie, on fête déjà ton autopsie On a la pêche, y'a des taspèches Mais ti mal pour toi tout est fini Mon entrée va déchirer, mon style va fusiller Mais ne te fais pas de souci pour le gynéco Bruno s'apprête à faire un salto sur ce tempo Ce n'est pas de ma faute t'en tomberas accroc Odile mon polo a du style, moi qui rêve de deal et de filles faciles Je descends sur le boulevard, observer les clients que j'aurai plus tard J'aperçois une zoulette, une putain de rate Le deuxième mot était bienvenue on dirait qu'elle se gratte, gratte gratounette Cette petite zoulette. Moi qui me voyait déjà lui lécher la... ... Elle me dit que la journée, elle braque les baraques Et que la nuit elle suce et crache dans des flaques pour du crack Et qu'elle craque quand elle aperçoit son joli caillou Si mini si doudou son chouchou Elle craque accompagnée de son mac La fumée lui envahit le corps, encore la voilà bientôt an bord, hors du décor Dans sa tête une douce voix lui dit dors, dors Morte, ivre-morte après un flash, le flash Aveuglée, fons-dée, elle se lait un rail sans paille Demande de l'aide à Gynéco car travail, repos et loisir Un mac aide à vous soutenir Doc Gynéco tu le nais-co, je le nais-co C'est le beau gosse qui lèche Je pose ma voix sur l'album de Kenzych, Passich, Stomych et Ghetch Les cames de mon quartier sont tellement fonsdés Que s'ils boivent de l'eau se mettent à dégueuler Voir un camé crevé ce n'est pas comique Mais c'est tellement commun que ce n'est pas tragique Range ton chronique, sors de ta panique Oublie les ''Baw'', oublie les ''waw'' Doc Gynéco ka mété sa en chou aw A Paris, mes ennemis parient sur ma vie et celle de Stomy Mais pas d'amis, je bouge qu'avec Stomy et les sauces du stermini Refrain x2 Dans la partie, on fête déjà ton autopsie On a la pêche, y'a des taspèches Mais ti mal pour toi tout est fini Les camés sont fons, fons dans la snifette Finance pour se foncdé, nous on fait la fête Fous accrocs d'un putain de monde féerique Ceux qui refourguent se font du fric Mais t'es un leur-di prisonnier de ton produit Eh oui la dernière fois on t'a vendu de la connerie Piégé quand tu t'es dit ''j'ai'' cette fois dans ta G.T T'as commencé par un get sept Et tu t'es jeté un demi jet dans ton nez pour voir si c'était bon marché Résultat t'es un pédé de camé Tant pis sniffe pour ceux qui ne s'arrêtent plus au spliff De plus en plus sème le diable et kiffe Se gratte, se gratte remontant jusqu'au pif, se pique en premier objectif Kiffe, sniffe. Il est cinq heures du mat et t'as des frissons Tri dégueules sur toi en écoutant nos sons Tu revois ta vie à la déroute Tu penses à ton premier shoot. plus personne ne te distingue T'appartiens à ceux qui trinquent Bringuent à la seringue et deviennent dingues Les grammes te charment tel une belle femme Ton âme crame, t'acclame madame came Dans ton game, boy t'es game overdose Mais cela ne nous regarde pas. T'en veux on t'en veux pas Passi te connait pas et dans le pire des cas c'est tant pis pour toi Eh Meca c'est plus que toi prie le Dieu Coca pour qu'il neige de Me-Ca Refrain x2 Dans la partie, on fête déjà ton autopsie On a la pêche, y'a des taspèches Mais ti mal pour toi tout est fini</t>
+          <t>J'gagne 1 million d'euros tout les 6 mois J'vais tellement en Suisse que j'fais des crises de foie Tu es plus détesté que Mayweather J'ai une Richard Mille mais je suis jamais a l'heure Je plane sans haine, j'suis foncdé comme un avion sans ailes Je bouge mes mains l'argent m'colle aux doigts, écoute ma voix Ma voix J'explose le cristal dans lequel tu bois ça colle aux doigts, ça colle aux doigts, aux doigts, ça colle aux doigts De mon hublot j'ai vu des tours s'effondrer j'suis passé à coté Allume le joint, ouais vas-y fais tourner J'te fais voir mes voitures, mes villas J'suis l'homme qui ne valait pas 10 centimes Reviens pas chez moi quand je n'suis pas la Pas la J'ai un Basquiat dans le coffre de la Maybach Rick Ross non plus, n'a pas son bac Musique d'allemand genre Sébastien Bach C'est pour les affaires que j'te fais pas la guerre Nouvel album nouveau clip j'retourne aux affaires Il multiplie le pain et moi les grains de riz Le business n'étais pas fini J'gagne 1 million d'euros tout les 6 mois J'vais tellement en Suisse que j'fais des crises de foie Tu es plus détesté que Mayweather J'ai une Richard Mille mais je suis jamais a l'heure Je plane sans haine, j'suis foncdé comme un avion sans ailes Je bouge mes mains l'argent m'colle aux doigts, écoute ma voix Ma voix J'explose le cristal dans lequel tu bois ça colle aux doigts, ça colle aux doigts, aux doigts, ça colle aux doigts Bien sur c'est pour toute la family On frappe les disques d'or a mon effigie J'continue le business habituel N'ai pas la haine dans le business rien d'personnel Y a des indices dans mes mots, mes voyelles J'gagne 1 million d'euros tout les 6 mois J'vais tellement en Suisse que j'fais des crises de foie Tu es plus détesté que Mayweather J'ai une Richard Mille mais je suis jamais a l'heure Je plane sans haine, j'suis foncdé comme un avion sans ailes Je bouge mes mains l'argent m'colle aux doigts, écoute ma voix Ma voix J'explose le cristal dans lequel tu bois ça colle aux doigts, ça colle aux doigts, aux doigts, ça colle aux doigts 20 générations plus tard, ma ligné continue demandez a Aurel Je vous prend sous mon aile Celui qui possède la terre en aura les fruits Arrête de crier, de faire du bruit J'vais bientôt avoir d'autres enfants J'ai besoin de plus d'argent, salaire inaccessible et PSG Mon style n'est pas, a ta porté, si tu n'fais pas partie de ma porté 0 défaites invaincu le Doc Que des K-O sur le ring au micro de Difool et Marie de Skyrock Frangin c'est ouf, elle a retenue de force mon engin dans sa fouffe Avec, elle s'étouffe, quand je suis sorti j'ai dis ouf Le top album la salive c'est utile, pour rendre l'entrée plus facile Pour toi un malheur n'arrive jamais seul J'ai le record de semaine dans le top single J'gagne 1 million d'euros tout les 6 mois J'vais tellement en Suisse que j'fais des crises de foie Tu es plus détesté que Mayweather J'ai une Richard Mille mais je suis jamais a l'heure Je plane sans haine, j'suis foncdé comme un avion sans ailes Je bouge mes mains l'argent m'colle aux doigts, écoute ma voix Ma voix J'explose le cristal dans lequel tu bois ça colle aux doigts, ça colle aux doigts, aux doigts, ça colle aux doigts</t>
         </is>
       </c>
     </row>
@@ -900,12 +900,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Boxe avec les mots</t>
+          <t>Caramel</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2014 11 décembre Suicide commercial Lino 24 octobre Wolfgang Lino 27 août VLB Lino feat. T-Killa 9 avril 12ème Lettre Lino 2013 9 juillet C'est là-bas Calbo feat. VR 2011 19 mai Philosophie de Pare-Choc feat. 2Bal 2007 Mille et Une Vies Lino 2005 Où Les Anges Brûlent Lino Paradis Airlines Lino 2002 J't'emmerde Regarde le Monde P.O.I.S.O.N 1998 Affaires de Famille feat. Doc Gynéco Assia Boxe avec les Mots</t>
+          <t>Je tiens parole, les idées folles Un joint, une femme facile et de l'alcool Il est facile de quitter Paname Le soleil crame de midi à minuit Salut les mecs, j'm'arrache chez elle MAÏA a la couleur du ciel Tous les regards braqués sur elle 12 heures que j'la cherche, tends moi la perche Fumer l'matin, écrire la nuit Les jours sont longs sur une plage de béton Lunettes noires, bébé lascars Fait des caprices de stars Refrain x2 J'ai attrapé la couleur caramel Passe-moi des feuilles et une camel Pour mélanger, pour faire tourner La planète terre, sous l'soleil vert C'est mon parcours, papa caramel Survivant aux escroqu'ries et aux querelles De maîtresse en maîtresse, esquive les bassesses A la recherche d'une vie meilleure A la conquête du monde de la musique Si la violence reprend ses droits Cherche pas, je serai roi Quand y'a pas d'espoirs, de solutions De beauté dans les bas-fonds La vérité s'appelle ''Première consultation'' Alors réponse, Vanessa existe Et j'l'ai quittée pour la misère Et la bagarre entre faux frères Un pensionnaire dans ce monde de riches Laisse-moi chanter si j'étais riche Quality street et caramel Refrain x2 Un Mister Freeze dans la bouche Comme à l'époque des yo-yo Ou un sac de billes et des ballons d'tango T'as quoi comme image dans ton album des cités d'or Une soirée d'un ennui mortel Joue aux rebels rue La Chapelle Quand l'amitié m'appelle, la police m'interpelle Je n'saurais passer à côté de l'essentiel 48 heures de garde à vue Et qui j'retrouve, un alcoolique Une prostituée et une femme flic Et le gendarme de Saint Tropez qui fait du naturisme Ecrit un livre sur le communisme ! Il est bourré de trouvailles visuelles Alors sociale, la capitale Ok cours plus vite que les balles Adieu Marcelle, tu m'as donné Tu m'as donné la couleur caramel Adieu Marcelle, tu m'as donné Tu m'as donné la couleur caramel2</t>
         </is>
       </c>
     </row>
@@ -917,12 +917,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Ça colle aux doigts</t>
+          <t>Ça va aller</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>J'gagne 1 million d'euros tout les 6 mois J'vais tellement en Suisse que j'fais des crises de foie Tu es plus détesté que Mayweather J'ai une Richard Mille mais je suis jamais a l'heure Je plane sans haine, j'suis foncdé comme un avion sans ailes Je bouge mes mains l'argent m'colle aux doigts, écoute ma voix Ma voix J'explose le cristal dans lequel tu bois ça colle aux doigts, ça colle aux doigts, aux doigts, ça colle aux doigts De mon hublot j'ai vu des tours s'effondrer j'suis passé à coté Allume le joint, ouais vas-y fais tourner J'te fais voir mes voitures, mes villas J'suis l'homme qui ne valait pas 10 centimes Reviens pas chez moi quand je n'suis pas la Pas la J'ai un Basquiat dans le coffre de la Maybach Rick Ross non plus, n'a pas son bac Musique d'allemand genre Sébastien Bach C'est pour les affaires que j'te fais pas la guerre Nouvel album nouveau clip j'retourne aux affaires Il multiplie le pain et moi les grains de riz Le business n'étais pas fini J'gagne 1 million d'euros tout les 6 mois J'vais tellement en Suisse que j'fais des crises de foie Tu es plus détesté que Mayweather J'ai une Richard Mille mais je suis jamais a l'heure Je plane sans haine, j'suis foncdé comme un avion sans ailes Je bouge mes mains l'argent m'colle aux doigts, écoute ma voix Ma voix J'explose le cristal dans lequel tu bois ça colle aux doigts, ça colle aux doigts, aux doigts, ça colle aux doigts Bien sur c'est pour toute la family On frappe les disques d'or a mon effigie J'continue le business habituel N'ai pas la haine dans le business rien d'personnel Y a des indices dans mes mots, mes voyelles J'gagne 1 million d'euros tout les 6 mois J'vais tellement en Suisse que j'fais des crises de foie Tu es plus détesté que Mayweather J'ai une Richard Mille mais je suis jamais a l'heure Je plane sans haine, j'suis foncdé comme un avion sans ailes Je bouge mes mains l'argent m'colle aux doigts, écoute ma voix Ma voix J'explose le cristal dans lequel tu bois ça colle aux doigts, ça colle aux doigts, aux doigts, ça colle aux doigts 20 générations plus tard, ma ligné continue demandez a Aurel Je vous prend sous mon aile Celui qui possède la terre en aura les fruits Arrête de crier, de faire du bruit J'vais bientôt avoir d'autres enfants J'ai besoin de plus d'argent, salaire inaccessible et PSG Mon style n'est pas, a ta porté, si tu n'fais pas partie de ma porté 0 défaites invaincu le Doc Que des K-O sur le ring au micro de Difool et Marie de Skyrock Frangin c'est ouf, elle a retenue de force mon engin dans sa fouffe Avec, elle s'étouffe, quand je suis sorti j'ai dis ouf Le top album la salive c'est utile, pour rendre l'entrée plus facile Pour toi un malheur n'arrive jamais seul J'ai le record de semaine dans le top single J'gagne 1 million d'euros tout les 6 mois J'vais tellement en Suisse que j'fais des crises de foie Tu es plus détesté que Mayweather J'ai une Richard Mille mais je suis jamais a l'heure Je plane sans haine, j'suis foncdé comme un avion sans ailes Je bouge mes mains l'argent m'colle aux doigts, écoute ma voix Ma voix J'explose le cristal dans lequel tu bois ça colle aux doigts, ça colle aux doigts, aux doigts, ça colle aux doigts</t>
+          <t>Ça va aller Laissez passer Ça va aller Faut juste laisser couler Y a des difficultés Et des crises à traverser Malgré le chaos qui règne On va y arriver Dans ta cellule Dans ta chambre Tu fumes pour oublier Ta go toujours fâchée Et la madre fatiguée La madre fatiguée Ouh là là, Doc ça va pas en ce moment T'inquiète pas avec moi Ça va aller Laissez passer Laissez passer Laissez couler Ça va aller Faut juste laisser couler Laissez passer Laissez couler Après deux-trois va-et-vient Il ne t'a jamais rappelé T'es restée là avec les gosses Tous les jours poisson pané Dans les transports en commun Toujours les mêmes colis suspects Ton phone qui ne sonne pas Le mois daoût au quartier Y a Maître Gims qui te répète Qu'il va te manquer Q'il va te manquer Mais Doc ça va pas avec mon mec T'inquiète pas avec moi Ça va aller Laissez passer Laissez passer Laissez couler Ça va aller Faut juste laisser couler Laissez passer Laissez couler On t'a prescrit des pilules Des piqûres et des cachets Ça va aller Tu t'étais fait beau On t'a gentiment recalé Ça va aller Le reuf qu'on te propose Il est toujours siliconé Ça va aller Mais faut pas démissionner Non non faut pas démissionner Ça va aller Non, faut pas démissionner Non non faut pas démissionner Ça va aller Laissez passer Ça va aller Faut juste laisser couler Ça va aller Ça va aller Même si tu dors mal la nuit Ça va aller Si parfois t'as de la peine Ça va aller Si parfois tu te sens mal Ça va aller Même si tu dors mal la nuit Ça va aller Laissez passer Laissez couler Ça va aller Laissez passer Laissez couler Ça va aller Laissez passer Laissez couler Ça va aller</t>
         </is>
       </c>
     </row>
@@ -934,12 +934,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Caramel</t>
+          <t>Cousins</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Je tiens parole, les idées folles Un joint, une femme facile et de l'alcool Il est facile de quitter Paname Le soleil crame de midi à minuit Salut les mecs, j'm'arrache chez elle MAÏA a la couleur du ciel Tous les regards braqués sur elle 12 heures que j'la cherche, tends moi la perche Fumer l'matin, écrire la nuit Les jours sont longs sur une plage de béton Lunettes noires, bébé lascars Fait des caprices de stars Refrain x2 J'ai attrapé la couleur caramel Passe-moi des feuilles et une camel Pour mélanger, pour faire tourner La planète terre, sous l'soleil vert C'est mon parcours, papa caramel Survivant aux escroqu'ries et aux querelles De maîtresse en maîtresse, esquive les bassesses A la recherche d'une vie meilleure A la conquête du monde de la musique Si la violence reprend ses droits Cherche pas, je serai roi Quand y'a pas d'espoirs, de solutions De beauté dans les bas-fonds La vérité s'appelle ''Première consultation'' Alors réponse, Vanessa existe Et j'l'ai quittée pour la misère Et la bagarre entre faux frères Un pensionnaire dans ce monde de riches Laisse-moi chanter si j'étais riche Quality street et caramel Refrain x2 Un Mister Freeze dans la bouche Comme à l'époque des yo-yo Ou un sac de billes et des ballons d'tango T'as quoi comme image dans ton album des cités d'or Une soirée d'un ennui mortel Joue aux rebels rue La Chapelle Quand l'amitié m'appelle, la police m'interpelle Je n'saurais passer à côté de l'essentiel 48 heures de garde à vue Et qui j'retrouve, un alcoolique Une prostituée et une femme flic Et le gendarme de Saint Tropez qui fait du naturisme Ecrit un livre sur le communisme ! Il est bourré de trouvailles visuelles Alors sociale, la capitale Ok cours plus vite que les balles Adieu Marcelle, tu m'as donné Tu m'as donné la couleur caramel Adieu Marcelle, tu m'as donné Tu m'as donné la couleur caramel2</t>
+          <t>Moi j'doute, parfois j'ai envie d'pêcher Regarde nous, essaie donc d'écouter Lis seul, avoir du goût dans l'rap en français Ça f'ra kiffer les cains-ri, et ça tu l'sais Ça m'donne le fou-rire, mais y'a pire Etudier pour l'entreprise, qu'elle m'prenne tout ma matière grise Chez Virgin Rue, y'a qu'des innocents J'suis messager, j'aime pas l'argent J'ai l'sens de l'humour ... noir J'fais d'la médecine, et j'suis médecin Un protecteur à l'écriture libre Avec du fric c'est la fin du générique La radio me dit l'heure qu'il est Et ce rappeur me dit le temps qu'il fait Yo, all you analog Manchu Dirty Rotten shits Pointin' Fingers at my high-frequency relationships We Fam son, Wu-Tang International Lacerate the analog, fabricate that Digital Track, mingles with my tiger mental on the beast Slice a physical with the RZA lotus leaf Allah savagely impoint, evaporatin' Shieks My crane slash tarantula, conquerin' the East You must be flippin' To come across the force of the razor whippin's I be swingin' at you chickenheads You're fuckin' with my Cousins, Doc Gyne' We're all Cousins, Doc, Cil and Bob Digi Révéler une star ou faire du bénef ... Je suis faible, et j'suis à gauche Je suis le chef, le proprio Que vivent les femmes par ma chair et mes os Délit non-intentionnel Quand j'te cause, elles sont pas en cause Tous les pensants seraient choqués Ma bouche ne saurait se taire J'aime trop les femmes en solitaire J'ai une identité nouvelle pour toutes les femelles x2 Yo, one taste of the applehead, shorty wop wants to marry it The weight on my mind, the average woman couldn't carry it Bob Digi-tech in mix-matched shoes and gold specs Gravitation pull to the opposite sex Most dynamic superb universal black woman Ain't nothin' in the universe like a black woman With love and treasure deeper than any gold nugget Drug kid, make you go across a nigga head like Razor Ruddock Attackin' why'all, my pressure be backin' why'all against the wall Have it rainin' Ninja Starz and rubbin' alcohol And razor blades, watch your life fade away You get decay, yo.. BOODOODOODOO One came for the money, one came for the pussy One came to be a star, one came to play hookey One came to catch a vic, one came to stick shit XXXX XXXX XXXX XXXXX You might come for the XXX, you might come for the pussy You might come for the love, you might come for the pussy Some can to be a star, some can to play hockey Some came for the money, some came for the book</t>
         </is>
       </c>
     </row>
@@ -951,12 +951,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Ça va aller</t>
+          <t>Dangereuse liaison</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Ça va aller Laissez passer Ça va aller Faut juste laisser couler Y a des difficultés Et des crises à traverser Malgré le chaos qui règne On va y arriver Dans ta cellule Dans ta chambre Tu fumes pour oublier Ta go toujours fâchée Et la madre fatiguée La madre fatiguée Ouh là là, Doc ça va pas en ce moment T'inquiète pas avec moi Ça va aller Laissez passer Laissez passer Laissez couler Ça va aller Faut juste laisser couler Laissez passer Laissez couler Après deux-trois va-et-vient Il ne t'a jamais rappelé T'es restée là avec les gosses Tous les jours poisson pané Dans les transports en commun Toujours les mêmes colis suspects Ton phone qui ne sonne pas Le mois daoût au quartier Y a Maître Gims qui te répète Qu'il va te manquer Q'il va te manquer Mais Doc ça va pas avec mon mec T'inquiète pas avec moi Ça va aller Laissez passer Laissez passer Laissez couler Ça va aller Faut juste laisser couler Laissez passer Laissez couler On t'a prescrit des pilules Des piqûres et des cachets Ça va aller Tu t'étais fait beau On t'a gentiment recalé Ça va aller Le reuf qu'on te propose Il est toujours siliconé Ça va aller Mais faut pas démissionner Non non faut pas démissionner Ça va aller Non, faut pas démissionner Non non faut pas démissionner Ça va aller Laissez passer Ça va aller Faut juste laisser couler Ça va aller Ça va aller Même si tu dors mal la nuit Ça va aller Si parfois t'as de la peine Ça va aller Si parfois tu te sens mal Ça va aller Même si tu dors mal la nuit Ça va aller Laissez passer Laissez couler Ça va aller Laissez passer Laissez couler Ça va aller Laissez passer Laissez couler Ça va aller</t>
+          <t>Le pyro para opé est révolté comme Sankara, part à L'assaut des chars avec un phrasé à cent carats Car Arsenik choiera le micro donne pour le frère qui osa Se dresser contre l'autorité comme l'a fait la sur Rosa Causa aucune lueur d'espoir de parcours je le connais par cur Le rap apaise mon cur comme le jazz de feu Charlie Parker Ma rancur est tenace et je largue les amarres Les anciens sont mon inspi comme les ffeu-spli l'étaient pour Bob Marley Parler franc par les temps qui courent est suicidaire A moins d'être aussi populaire que Joséphine Baker Boris a pardonné aux personnes qui l'avaient sali Acceptant les assauts, mais orgueilleux comme Mohammed Ali Paris est plein de pauvres, bourré de cons qui espèrent Je n'ai plus de rêves, ils coutèrent trop chers à Martin Luther King Dont le son donne comme l'homme au toucher d'or T'endort avec des baratins à la Papa Théodore Comme dans un film de Spike, l'histoire est noire et hachée Fâché mais surtout caché comme l'était notre Sydney Poitier ouais! Moi j'nique la vie surtout, quand je ne la sens pas L'athlète qui vit en moi à la puissance d'un athlète bamba En bas devant la fenêtre les jeunes ont le caca jusqu'au cou Mais restent fiers et forts comme le fus jadis Chaka Zulu Liaison dangereuse Dangereuse liaison Si tu t'approches trop du gouffre Tu perdras la raison La réflexion devient l'hameçon Quand elle arrive dans ton parking Avec un humour sinistre à la Charlie Chaplin Je reste petit face à l'énergie qui s'évince Avec autant de fluidité qu'une chanson de Georges Brassens Métamorphose, comme Dan Millman l'a vécu Vision aiguisée, décalée mais néanmoins pourvue D'une clarté aussi claire que la pensée du linguiste Chomsky Je m'accroche au rap comme Chet Baker évolue sur les mélodies Fils, tu sais je glisse, note mon nom sur ta liste Pour faire partie d'un des rares posse qui agit et résiste Get up ! Stand up ! Le jeune babtou l'a compris Penche toi sur la conscience de Florinda Donner Et tu comprendras que la couleur n'a rien à voir avec le tonnerre Visionnaire, réaliste, comme l'était Socrate L'acrobate autodidacte représente la face cachée de la carte</t>
         </is>
       </c>
     </row>
@@ -968,12 +968,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Cousins</t>
+          <t>Dans ma ruche</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Moi j'doute, parfois j'ai envie d'pêcher Regarde nous, essaie donc d'écouter Lis seul, avoir du goût dans l'rap en français Ça f'ra kiffer les cains-ri, et ça tu l'sais Ça m'donne le fou-rire, mais y'a pire Etudier pour l'entreprise, qu'elle m'prenne tout ma matière grise Chez Virgin Rue, y'a qu'des innocents J'suis messager, j'aime pas l'argent J'ai l'sens de l'humour ... noir J'fais d'la médecine, et j'suis médecin Un protecteur à l'écriture libre Avec du fric c'est la fin du générique La radio me dit l'heure qu'il est Et ce rappeur me dit le temps qu'il fait Yo, all you analog Manchu Dirty Rotten shits Pointin' Fingers at my high-frequency relationships We Fam son, Wu-Tang International Lacerate the analog, fabricate that Digital Track, mingles with my tiger mental on the beast Slice a physical with the RZA lotus leaf Allah savagely impoint, evaporatin' Shieks My crane slash tarantula, conquerin' the East You must be flippin' To come across the force of the razor whippin's I be swingin' at you chickenheads You're fuckin' with my Cousins, Doc Gyne' We're all Cousins, Doc, Cil and Bob Digi Révéler une star ou faire du bénef ... Je suis faible, et j'suis à gauche Je suis le chef, le proprio Que vivent les femmes par ma chair et mes os Délit non-intentionnel Quand j'te cause, elles sont pas en cause Tous les pensants seraient choqués Ma bouche ne saurait se taire J'aime trop les femmes en solitaire J'ai une identité nouvelle pour toutes les femelles x2 Yo, one taste of the applehead, shorty wop wants to marry it The weight on my mind, the average woman couldn't carry it Bob Digi-tech in mix-matched shoes and gold specs Gravitation pull to the opposite sex Most dynamic superb universal black woman Ain't nothin' in the universe like a black woman With love and treasure deeper than any gold nugget Drug kid, make you go across a nigga head like Razor Ruddock Attackin' why'all, my pressure be backin' why'all against the wall Have it rainin' Ninja Starz and rubbin' alcohol And razor blades, watch your life fade away You get decay, yo.. BOODOODOODOO One came for the money, one came for the pussy One came to be a star, one came to play hookey One came to catch a vic, one came to stick shit XXXX XXXX XXXX XXXXX You might come for the XXX, you might come for the pussy You might come for the love, you might come for the pussy Some can to be a star, some can to play hockey Some came for the money, some came for the book</t>
+          <t>Midi j'me lève, la réalité vient m'coller des baffes J'ai fait un cauch'mar, j'ai dû rêver qu'j'avais du taf Faut que j'bouge mes seufs J'en ai ma claque d'aller pointer, gober leur bluff Feinter ma reum le soir qund j'tréran fonsdé J'cale mon schlass dans mes fringues, sors les dents acérées Dehors y'a trop d'mains serrées ou trop d'raisons d'se faire serrer Errer dans les blocs pousse les jeunes au scandale, à flairer J'ai plus l'âge pour l'centre aéré, mes potes sont tous vandales, Opérer la nuit, marcher entre les seringues et les flaques d'eau C'est ça la France, évident comme un Black qui bosse au McDo' Dans ma ruche les filles sont sexy comme le péché Elles t'aguichent et chez les schmidts tu t'fais sécher Fait chier, shit, merde, mon bic éclate les bâtiments Que j'sois damné si j'mens, ma rime claque comme le châtiment Le crime paie quand la paix prime J'nique la balance et l'épée d'la rue, j'suis pas une victime Scratchs Dans ma rue... J'ai traversé d'un pas rapide la rue de la jeunesse J'ai coupé par le boul'vard du vice en prenant d'la vitesse Merde, j'ai confondu en voulant prendre un raccourci Rue d'l'insociabilité et rue d'l'hypocrisie Avenue d'l'argent, la circulation ça tue J'opte pour le trafic, passe par la rue de la luxure J'ai raté la rue des r'lations que je croyais en face Je crois qu'je suis dans la rue d'la justice mais j'vois qu'c'n'est qu'une impasse J'ai croisé un type au faubourg de la vanité Il arrivait d'la rue des gens qu'ont des choses à s'prouver J'aurais bien fait un bout d'chemin avec lui mais j'l'ai laissé Pas loin d'sa nouvelle résidence, place de l'homosexualité C'est fou c'qu'il peut y avoir du monde à cette heure-ci Au sens giratoire du carr'four de la conn'rie J'l'évite et rentre dans ma rue, passe par celle d'la truand'rie Sachant pertinemment qu'la rue d'la paix est en sens interdit Scratchs Dans ma rue... Dans ma rue, ça taille, même en été Braille, défouraille comme si t'y étais Ramène ton 'scope, gobe des images vraies, minot, chope Ecope la sentence top, toi et tous tes refrés, stop Des méfaits, et fais-nous, un bon reportage Dans ma rue faut qu'tu saches, y'a qu'des jeunes qui ont la rage Pas d'pot, rien qu'des clashs, que ça rage et lâches Faux, usage de faux Un compte-rendu, un rapport carré, joue pas les tarés Avec ta vie, garre et fais gaffe, viens pas t'égarer Ma rue est bourrée de vices, enfoiré, ça on l'sait Epargne-moi tes Parle-moi des belles choses. et Cause de vrais trucs plus positifs, kiffe avec nous Du sexe fou dans ma ruche des fois c'est bon Viens faire un tour, garçon, enlève tes pe-poms Viens marcher sur la braise à Villiers-l'Bel, au Sixième Chaudron Scratchs Dans ma rue... Sur les Liaisons Dangereuses Dans ma rue... Sur les Liaisons Dangereuses Dans ma rue... Sur les Liaisons Dangereuses Dans ma rue... Dangereuses... Dans ma rue... Les lascars se serrent la main Ce n'est pas comme dans l'show-biz</t>
         </is>
       </c>
     </row>
@@ -985,12 +985,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Dangereuse liaison</t>
+          <t>Dans ma rue</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Le pyro para opé est révolté comme Sankara, part à L'assaut des chars avec un phrasé à cent carats Car Arsenik choiera le micro donne pour le frère qui osa Se dresser contre l'autorité comme l'a fait la sur Rosa Causa aucune lueur d'espoir de parcours je le connais par cur Le rap apaise mon cur comme le jazz de feu Charlie Parker Ma rancur est tenace et je largue les amarres Les anciens sont mon inspi comme les ffeu-spli l'étaient pour Bob Marley Parler franc par les temps qui courent est suicidaire A moins d'être aussi populaire que Joséphine Baker Boris a pardonné aux personnes qui l'avaient sali Acceptant les assauts, mais orgueilleux comme Mohammed Ali Paris est plein de pauvres, bourré de cons qui espèrent Je n'ai plus de rêves, ils coutèrent trop chers à Martin Luther King Dont le son donne comme l'homme au toucher d'or T'endort avec des baratins à la Papa Théodore Comme dans un film de Spike, l'histoire est noire et hachée Fâché mais surtout caché comme l'était notre Sydney Poitier ouais! Moi j'nique la vie surtout, quand je ne la sens pas L'athlète qui vit en moi à la puissance d'un athlète bamba En bas devant la fenêtre les jeunes ont le caca jusqu'au cou Mais restent fiers et forts comme le fus jadis Chaka Zulu Liaison dangereuse Dangereuse liaison Si tu t'approches trop du gouffre Tu perdras la raison La réflexion devient l'hameçon Quand elle arrive dans ton parking Avec un humour sinistre à la Charlie Chaplin Je reste petit face à l'énergie qui s'évince Avec autant de fluidité qu'une chanson de Georges Brassens Métamorphose, comme Dan Millman l'a vécu Vision aiguisée, décalée mais néanmoins pourvue D'une clarté aussi claire que la pensée du linguiste Chomsky Je m'accroche au rap comme Chet Baker évolue sur les mélodies Fils, tu sais je glisse, note mon nom sur ta liste Pour faire partie d'un des rares posse qui agit et résiste Get up ! Stand up ! Le jeune babtou l'a compris Penche toi sur la conscience de Florinda Donner Et tu comprendras que la couleur n'a rien à voir avec le tonnerre Visionnaire, réaliste, comme l'était Socrate L'acrobate autodidacte représente la face cachée de la carte</t>
+          <t>Ma rue est bourrée de vice À chacun ses délices, à chacun sa 8.6 Dans ma rue, les lascars se serrent la main Ce n'est pas comme dans le show-biz Où les mecs se font la bise Dans ma rue, les Chinois s'entraident et se tiennent par la main Les Youpins s'éclatent et font des magasins Et tous les lascars fument sur les mêmes joints Dans ma rue, c'est une pub pour Benetton Et tout le monde écoute les mêmes sons à fond Mangeurs de casher ou de saucisson Dans ma rue, je suis posé, je marche tranquille dans la ville J'esquive les civils et reste le patron du style À chacun sa banlieue. La mienne, je l'aime Et elle s'appelle le 18ème Dans ma rue Dans ma rue Dans ma rue, pour communiquer il faut être trilingue Et faire attention quand on marche sur des seringues Se méfier des dingues qui sortent leurs flingues Dans ma rue, les péripatéticiennes craquent pour du Crack Les pompiers les réveillent en leur mettant des claques Personne ne veut tenter le bouche à bouche Les clodos s'échappent pour ne pas prendre de douche Dans ma rue, le vendeur de grec veut nous empoisonner Sa viande est bizarre, son huile est périmée Comme moi l'épicier fait ses courses à Ed Il m'revend les mêmes produits Que j'achète l'aprés-midi 4 ou 5 fois plus cher la nuit Dans ma rue, ça vole, ça viole Mais qu'est-ce que tu veux ? À chacun sa banlieue. La mienne, je l'aime Et elle s'appelle Dans ma rue Dans ma rue Porte de la Chapelle Terminus Tout le monde descend, reste ou prend son bus Bienvenue dans ma rue Où la crasse colle à tes pieds sur le trottoir comme de la glue Bienvenue dans ma rue Où les pigeons meurent dans le caniveau À force de manger du dégueulis de toxico Dans ma rue, autant de flics que de mecs cocus Les coiffeurs racontent des blagues aux dealers Les policiers donnent des planques aux voleurs Le facteur aide le maquereau à relever les compteurs J'ai été élu président de ma rue J'ai placé mes ministres Tout le monde est corrompu... À chacun sa banlieue. La mienne, je l'aime Et elle s'appelle le 18ème Dans ma rue Dans ma rue Yeah, Big Black M Dans ma rue Dans ma rue Les yeux plus gros que Doc Gynéco Les yeux plus gros que le monde Dans ma rue, yeah Secteur Ä Dans ma rue Yeah Dans ma rue, yeah Dans ma rue Yeah1</t>
         </is>
       </c>
     </row>
@@ -1002,12 +1002,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Dans ma ruche</t>
+          <t>Du spy dans l’air</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Midi j'me lève, la réalité vient m'coller des baffes J'ai fait un cauch'mar, j'ai dû rêver qu'j'avais du taf Faut que j'bouge mes seufs J'en ai ma claque d'aller pointer, gober leur bluff Feinter ma reum le soir qund j'tréran fonsdé J'cale mon schlass dans mes fringues, sors les dents acérées Dehors y'a trop d'mains serrées ou trop d'raisons d'se faire serrer Errer dans les blocs pousse les jeunes au scandale, à flairer J'ai plus l'âge pour l'centre aéré, mes potes sont tous vandales, Opérer la nuit, marcher entre les seringues et les flaques d'eau C'est ça la France, évident comme un Black qui bosse au McDo' Dans ma ruche les filles sont sexy comme le péché Elles t'aguichent et chez les schmidts tu t'fais sécher Fait chier, shit, merde, mon bic éclate les bâtiments Que j'sois damné si j'mens, ma rime claque comme le châtiment Le crime paie quand la paix prime J'nique la balance et l'épée d'la rue, j'suis pas une victime Scratchs Dans ma rue... J'ai traversé d'un pas rapide la rue de la jeunesse J'ai coupé par le boul'vard du vice en prenant d'la vitesse Merde, j'ai confondu en voulant prendre un raccourci Rue d'l'insociabilité et rue d'l'hypocrisie Avenue d'l'argent, la circulation ça tue J'opte pour le trafic, passe par la rue de la luxure J'ai raté la rue des r'lations que je croyais en face Je crois qu'je suis dans la rue d'la justice mais j'vois qu'c'n'est qu'une impasse J'ai croisé un type au faubourg de la vanité Il arrivait d'la rue des gens qu'ont des choses à s'prouver J'aurais bien fait un bout d'chemin avec lui mais j'l'ai laissé Pas loin d'sa nouvelle résidence, place de l'homosexualité C'est fou c'qu'il peut y avoir du monde à cette heure-ci Au sens giratoire du carr'four de la conn'rie J'l'évite et rentre dans ma rue, passe par celle d'la truand'rie Sachant pertinemment qu'la rue d'la paix est en sens interdit Scratchs Dans ma rue... Dans ma rue, ça taille, même en été Braille, défouraille comme si t'y étais Ramène ton 'scope, gobe des images vraies, minot, chope Ecope la sentence top, toi et tous tes refrés, stop Des méfaits, et fais-nous, un bon reportage Dans ma rue faut qu'tu saches, y'a qu'des jeunes qui ont la rage Pas d'pot, rien qu'des clashs, que ça rage et lâches Faux, usage de faux Un compte-rendu, un rapport carré, joue pas les tarés Avec ta vie, garre et fais gaffe, viens pas t'égarer Ma rue est bourrée de vices, enfoiré, ça on l'sait Epargne-moi tes Parle-moi des belles choses. et Cause de vrais trucs plus positifs, kiffe avec nous Du sexe fou dans ma ruche des fois c'est bon Viens faire un tour, garçon, enlève tes pe-poms Viens marcher sur la braise à Villiers-l'Bel, au Sixième Chaudron Scratchs Dans ma rue... Sur les Liaisons Dangereuses Dans ma rue... Sur les Liaisons Dangereuses Dans ma rue... Sur les Liaisons Dangereuses Dans ma rue... Dangereuses... Dans ma rue... Les lascars se serrent la main Ce n'est pas comme dans l'show-biz</t>
+          <t>Ouais, y'a du spy dans l'air, wouh! Y'a du spy dans l'air Si j'assure au pieu et que le lit prend feu Si avec des si j'te fais monter dans les cieux Ce n'est pas entre tes cuisses que naîtra le bonheur Il n'y a qu'après l'amour que j'entends battre mon coeur Simple locataire de ton corps, de ta chair Toi la proprio de toute ma vie sur cette terre Elle m'a trouvé beau, moi le bébé du ghetto Ça groove dans les salles écoute, suis la réal' Box-office mais que fait la police ? Doc Gy' fait swinguer les miss It could be fire, you could be higher, you could be fire It could be fire, you could be higher, you could be fire It could be higher, it could be fire, we're talking higher Comme une fusée dans l'espace, passe Traverse le temps en face et il classe, yes Détruit ses adversaires dans les face-à-face Accomplit sa mission et s'efface tout moss Comme une fusée dans l'espace, passe Traverse le temps en face et il classe, yes Détruit ses adversaires dans les face-à-face Accomplit sa mission et s'efface tout moss It could be fire, you could be higher, you could be fire It could be fire, you could be higher, you could be fire It could be fire, you could be higher, you could be fire It could be higher, it could be fire, we're talking higher</t>
         </is>
       </c>
     </row>
@@ -1019,12 +1019,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Dans ma rue</t>
+          <t>Égoïste</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Ma rue est bourrée de vice À chacun ses délices, à chacun sa 8.6 Dans ma rue, les lascars se serrent la main Ce n'est pas comme dans le show-biz Où les mecs se font la bise Dans ma rue, les Chinois s'entraident et se tiennent par la main Les Youpins s'éclatent et font des magasins Et tous les lascars fument sur les mêmes joints Dans ma rue, c'est une pub pour Benetton Et tout le monde écoute les mêmes sons à fond Mangeurs de casher ou de saucisson Dans ma rue, je suis posé, je marche tranquille dans la ville J'esquive les civils et reste le patron du style À chacun sa banlieue. La mienne, je l'aime Et elle s'appelle le 18ème Dans ma rue Dans ma rue Dans ma rue, pour communiquer il faut être trilingue Et faire attention quand on marche sur des seringues Se méfier des dingues qui sortent leurs flingues Dans ma rue, les péripatéticiennes craquent pour du Crack Les pompiers les réveillent en leur mettant des claques Personne ne veut tenter le bouche à bouche Les clodos s'échappent pour ne pas prendre de douche Dans ma rue, le vendeur de grec veut nous empoisonner Sa viande est bizarre, son huile est périmée Comme moi l'épicier fait ses courses à Ed Il m'revend les mêmes produits Que j'achète l'aprés-midi 4 ou 5 fois plus cher la nuit Dans ma rue, ça vole, ça viole Mais qu'est-ce que tu veux ? À chacun sa banlieue. La mienne, je l'aime Et elle s'appelle Dans ma rue Dans ma rue Porte de la Chapelle Terminus Tout le monde descend, reste ou prend son bus Bienvenue dans ma rue Où la crasse colle à tes pieds sur le trottoir comme de la glue Bienvenue dans ma rue Où les pigeons meurent dans le caniveau À force de manger du dégueulis de toxico Dans ma rue, autant de flics que de mecs cocus Les coiffeurs racontent des blagues aux dealers Les policiers donnent des planques aux voleurs Le facteur aide le maquereau à relever les compteurs J'ai été élu président de ma rue J'ai placé mes ministres Tout le monde est corrompu... À chacun sa banlieue. La mienne, je l'aime Et elle s'appelle le 18ème Dans ma rue Dans ma rue Yeah, Big Black M Dans ma rue Dans ma rue Les yeux plus gros que Doc Gynéco Les yeux plus gros que le monde Dans ma rue, yeah Secteur Ä Dans ma rue Yeah Dans ma rue, yeah Dans ma rue Yeah1</t>
+          <t>Certains font de la musique, de la peinture De la poésie et de la littérature Mon nom a marqué mon époque et la culture J'ai un language pour te parler personnellement Et aujourd'hui c'est l'heure du renouvellement J'te donne une nourriture adaptée au temps Les inondations y'a saturation, bientôt le déluge mais tu n'comprends rien Après toi le déluge non tu n'crois en rien oh, oh, oh, oooh Egoïste, egoïste Aprés toi le déluge Egoïste, egoïste oh, oh, oooh, oh, ooooh Egoïste, egoïste Aprés toi le déluge Egoïste, egoïste oh, oh, oooh, oh, ooooh On veut t'enlever ton originalité Te dire que t'es un produit de la société Que t'es obligé de penser, de t'habiller De manger comme tout le monde, te robotiser Tu t'isoles donc tu deviens folle Tu te crois livrée à toi même t'as oubliée qu'je t'aime T'attends que la vie passe mais tu n'veux plus rien faire Mais toute seule on ne peut rien faire Les inondations y'a saturation, bientôt le déluge mais tu n'comprends rien Aprés toi le déluge non tu n'crois en rien oh, oh, oh, oooh Egoïste, egoïste Aprés toi le déluge Egoïste, egoïste oh, oh, oooh, oh, ooooh Egoïste, egoïste Aprés toi le déluge Egoïste, egoïste oh, oh, oooh, oh, ooooh On veut t'enlever ton originalité Te dire que t'es un produit de la société Que t'es obligé de penser, de t'habiller De manger comme tout le monde, te robotiser Les inondations y'a saturation, bientôt le déluge mais tu n'comprends rien Aprés toi le déluge non tu n'crois en rien Egoïste, egoïste Aprés toi le déluge Egoïste, egoïste oh, oh, oooh, oh, ooooh Egoïste, egoïste Aprés toi le déluge Egoïste, egoïste oh, oh, oooh, oh, ooooh</t>
         </is>
       </c>
     </row>
@@ -1036,12 +1036,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Du spy dans l’air</t>
+          <t>Être aimé</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Ouais, y'a du spy dans l'air, wouh! Y'a du spy dans l'air Si j'assure au pieu et que le lit prend feu Si avec des si j'te fais monter dans les cieux Ce n'est pas entre tes cuisses que naîtra le bonheur Il n'y a qu'après l'amour que j'entends battre mon coeur Simple locataire de ton corps, de ta chair Toi la proprio de toute ma vie sur cette terre Elle m'a trouvé beau, moi le bébé du ghetto Ça groove dans les salles écoute, suis la réal' Box-office mais que fait la police ? Doc Gy' fait swinguer les miss It could be fire, you could be higher, you could be fire It could be fire, you could be higher, you could be fire It could be higher, it could be fire, we're talking higher Comme une fusée dans l'espace, passe Traverse le temps en face et il classe, yes Détruit ses adversaires dans les face-à-face Accomplit sa mission et s'efface tout moss Comme une fusée dans l'espace, passe Traverse le temps en face et il classe, yes Détruit ses adversaires dans les face-à-face Accomplit sa mission et s'efface tout moss It could be fire, you could be higher, you could be fire It could be fire, you could be higher, you could be fire It could be fire, you could be higher, you could be fire It could be higher, it could be fire, we're talking higher</t>
+          <t>Si j'étais pas connu, j'rentrerai jamais dans les soirées Si j'étais pas connu, j'serai pas VIP hey Sa m'empêcherai pas d'serré hey Si j'étais pas connu est-ce que tu m'aimerai Baby Célébrité, émission-télé, est-ce que tu me soutiendrais Baby Si j'étais plus premier, si un jour je tombais, j'voudrait compter sur toi Baby C'est décidé, je dois t'aimer, Quoi qu'il arrive faut pas lâcher Si j'étais pas connu, pas promu, pas élu, pas nombru, je suis loin du m'a tu vu Trop loin du super flux Ne t'arrête pas...Mais continue... Trop tard, Je suis venu Être aimé, comme tu es, imparfait C'est l'amour plus-que-parfait X2 Si j'étais pas connu, j'serai jamais sorti d'la rue Quelle s'rait ma vie, j'te raconte pas la garde de rue Resté ais dans l'escalier, erré dans le quartier À l'écart d'la société, j'me fais même plus contrôler Big notoriété, artiste bandit, double nationalité J'peut pas oublier que la vie m'a jeté Accablé, blessé, j'suis pas une célébrité Ne t'arrête pas...Mais continue... Trop tard, Je suis venu Être aimé, comme tu es, imparfait C'est l'amour plus-que-parfait X2 J'ai jamais profité d'la célébrité Jamais touché au meufs qui voulaient coucher J'voulais être aimé, pour ce que j'étais, la musique c'est tous ce que j'ai Pour s'en sortir, et j'en voulais, ya pas d'recette pour être une star De toute manière pour moi il est trop tard Ne t'arrête pas...Mais continue... Trop tard, Je suis venu Être aimé, comme tu es, imparfait C'est l'amour plus-que-parfait X4</t>
         </is>
       </c>
     </row>
@@ -1053,12 +1053,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Égoïste</t>
+          <t>Flash</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Certains font de la musique, de la peinture De la poésie et de la littérature Mon nom a marqué mon époque et la culture J'ai un language pour te parler personnellement Et aujourd'hui c'est l'heure du renouvellement J'te donne une nourriture adaptée au temps Les inondations y'a saturation, bientôt le déluge mais tu n'comprends rien Après toi le déluge non tu n'crois en rien oh, oh, oh, oooh Egoïste, egoïste Aprés toi le déluge Egoïste, egoïste oh, oh, oooh, oh, ooooh Egoïste, egoïste Aprés toi le déluge Egoïste, egoïste oh, oh, oooh, oh, ooooh On veut t'enlever ton originalité Te dire que t'es un produit de la société Que t'es obligé de penser, de t'habiller De manger comme tout le monde, te robotiser Tu t'isoles donc tu deviens folle Tu te crois livrée à toi même t'as oubliée qu'je t'aime T'attends que la vie passe mais tu n'veux plus rien faire Mais toute seule on ne peut rien faire Les inondations y'a saturation, bientôt le déluge mais tu n'comprends rien Aprés toi le déluge non tu n'crois en rien oh, oh, oh, oooh Egoïste, egoïste Aprés toi le déluge Egoïste, egoïste oh, oh, oooh, oh, ooooh Egoïste, egoïste Aprés toi le déluge Egoïste, egoïste oh, oh, oooh, oh, ooooh On veut t'enlever ton originalité Te dire que t'es un produit de la société Que t'es obligé de penser, de t'habiller De manger comme tout le monde, te robotiser Les inondations y'a saturation, bientôt le déluge mais tu n'comprends rien Aprés toi le déluge non tu n'crois en rien Egoïste, egoïste Aprés toi le déluge Egoïste, egoïste oh, oh, oooh, oh, ooooh Egoïste, egoïste Aprés toi le déluge Egoïste, egoïste oh, oh, oooh, oh, ooooh</t>
+          <t>La vache, j'ai vu un flash, j'suis ou trop drash, lâche J'crache, j'recrache, j'ai vu le flash J'ai vu un flash, j'attache ma ceinture mais j'ai vu le crash J'ai vu des corps, des morts, panique à bord, c'était trop gore J'sors, j'ai vu un flash, j'ai eu un flash En allant chercher mon cash dans l'bureau de la directrice Comme un parfum de vice elle était allongée sur le bureau C'est chaud, posa sa main sur ma braguette Elle me dit venez derrière j'lui dis en levrette ? Elle me dit non par derrière, qu'est-ce que tu es bete J'ai vu un flash, j'ai vu un flash dans la rue j'entends des voix le soir Des drôles de bruits dans le couloir J'ai vu un flash, une émeute dans les cités dortoirs Chômage, prison, et plus d'espoir J'ai vu un flash immonde comme ce monde Des filles de l'Est en esclavage L'histoire pisse le sang page après page PLC plage, nouvel arrivage, tu peux lire la rage sur certains visages J'ai vu un flash, j'ai envie d'dégueuler ma bouffe Famine, Tiers-Monde, j'ai vu un flash de ouf Un monde qui souffre, la terre qu'étouffe Des gens qui font la queue et se jettent dans un gouffre J'ai vu un flash, c'était une balle de fusil à chaque coin de rue Un tabac, une armurerie, le monde est levis stoned et moi j'suis westone Le rebelle on l'bâillonne, on s'en tamponne J'ai vu un flash, le jour ne se levait plus, la lumière des ténèbres Les étoiles avaient disparues, j'ai eu un flash Planète Terre, six milliards de frères On taxe à chaque frontière et sur l'air qu'on respire, pire Y'avait des mecs qui ne savaient pas lire ni écrire J'ai eu un flash, à l'assemblée, ils connaissent pas la réalité La rue, le monde, notre société Vitres fumées, garde rapprochée, mais pourtant rien à se reprocher L'encre de ma plume c'est du poison Elle fait kiffer comme l'écaille de poisson J'ai eu un flash jeune, j'ai pris mon destin en main Eu mes examens et j'ai fini médecin Trouvé l'bon chemin pour devenir quelqu'un J'ai eu un flash, y'a trop d'mythos autour de moi Tout le monde se mettait à mentir, moi ça m'fait rire Une maladie qui n'atteint pas la vérité J'ai eu un flash, on avait tous des choses à cacher Mais derrière quelles grimaces les dissimuler J'ai eu un flash, j'ai bu un flash, j'ai eu un flash</t>
         </is>
       </c>
     </row>
@@ -1070,12 +1070,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Être aimé</t>
+          <t>France</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Si j'étais pas connu, j'rentrerai jamais dans les soirées Si j'étais pas connu, j'serai pas VIP hey Sa m'empêcherai pas d'serré hey Si j'étais pas connu est-ce que tu m'aimerai Baby Célébrité, émission-télé, est-ce que tu me soutiendrais Baby Si j'étais plus premier, si un jour je tombais, j'voudrait compter sur toi Baby C'est décidé, je dois t'aimer, Quoi qu'il arrive faut pas lâcher Si j'étais pas connu, pas promu, pas élu, pas nombru, je suis loin du m'a tu vu Trop loin du super flux Ne t'arrête pas...Mais continue... Trop tard, Je suis venu Être aimé, comme tu es, imparfait C'est l'amour plus-que-parfait X2 Si j'étais pas connu, j'serai jamais sorti d'la rue Quelle s'rait ma vie, j'te raconte pas la garde de rue Resté ais dans l'escalier, erré dans le quartier À l'écart d'la société, j'me fais même plus contrôler Big notoriété, artiste bandit, double nationalité J'peut pas oublier que la vie m'a jeté Accablé, blessé, j'suis pas une célébrité Ne t'arrête pas...Mais continue... Trop tard, Je suis venu Être aimé, comme tu es, imparfait C'est l'amour plus-que-parfait X2 J'ai jamais profité d'la célébrité Jamais touché au meufs qui voulaient coucher J'voulais être aimé, pour ce que j'étais, la musique c'est tous ce que j'ai Pour s'en sortir, et j'en voulais, ya pas d'recette pour être une star De toute manière pour moi il est trop tard Ne t'arrête pas...Mais continue... Trop tard, Je suis venu Être aimé, comme tu es, imparfait C'est l'amour plus-que-parfait X4</t>
+          <t>J'inspire les jeunes à oeuvrer à travailler A entreprendre et à s'marier Dans l'but j'marque des buts pour atteindre mon but Toujours au combat à la radio sur les plateaux télé Besoin d'sérénité quand j'rentre à la maison C'est l'repos du guerrier Pas d'automatique ni d'poing américain J'ai l'choix des moyens donne moi des feuilles, un stylo, des musiciens Pourquoi j'investis du temps, tant d'effort et d'argent pour l'honneur Lui r'donner c'qu'elle m'a donné la France Arrête de lui faire des bras d'honneur T'as pas honte de pas pouvoir donner en retour Et montrer ta reconnaissance, deuxième naissance Illimitée dans tous mes sens Tous motivés par l'intérêt Mais l'intérêt n'est pas l'même J'tiens ma parole comme promis pour la France entière et le 18ème Pas d'stock-options j'suis un salarié J'ai des congés payés, j'peux faire la grève et le pont France ! Elle est tout l'temps en vacances ma France Nous on râle tout le temps en France On fait souvent la grève en France T'as vu l'temps qui fait en France Y a toujours une polémique en France Nous on râle tout le temps en France Quand on voit ce qui s'passe ailleurs On fait souvent la grève en France On est quand même bien en France Elle est tout le temps en vacances ma France Nous on râle tout le temps en France On fait souvent la grève en France On est quand même bien en France On s'contredit on s'explique Chacun selon son angle et sa personnalité Tu aimes la trap et moi j'aime rapper J'ai mon propre style ma musique Tu travailles en banlieue moi en Afrique Tout le monde n'est pas égal Ne fais pas dans l'illégal On est pas appelé à la même destinée J'suis docteur et si t'as la rage j'ai un vaccin comme Pasteur J'te fais peur, la peur te donne une force qui sommeille au fond d'toi France, t'as un sentiment d'vengeance mais laisse passer Convertis ta colère en bonté France ! Elle est tout l'temps en vacances ma France Nous on râle tout le temps en France On fait souvent la grève en France T'as vu l'temps qui fait en France Y a toujours une polémique en France Nous on râle tout le temps en France Quand on voit ce qui s'passe ailleurs On fait souvent la grève en France On est quand même bien en France Elle est tout le temps en vacances ma France Nous on râle tout le temps en France On fait souvent la grève en France On est quand même bien en France Hyper motivé j'ai ma propre communauté Mais j'garde mon individualité Mon bonnet est une parabole Ma rime sent l'alcool Mon Etat attends de moi des résultats Intemporel, j'capte toutes les choses qui se sont passées Qui existe et qui vont s'passer Cabrel t'aime, t'aimais, et t'aimeras Bolloré nous demande de lire dans l'avenir Pour acheter des actions et faire des placements Doc rapportera, j'suis pas un devin ni un cartomancien J'suis un chanteur sain, pour le futur et le passé ne font qu'un France ! Elle est tout l'temps en vacances ma France Nous on râle tout le temps en France On fait souvent la grève en France T'as vu l'temps qui fait en France Y a toujours une polémique en France Nous on râle tout le temps en France Quand on voit ce qui s'passe ailleurs On fait souvent la grève en France On est quand même bien en France Elle est tout le temps en vacances ma France Nous on râle tout le temps en France On fait souvent la grève en France On est quand même bien en France</t>
         </is>
       </c>
     </row>
@@ -1087,12 +1087,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Flash</t>
+          <t>Frotti-Frotta (C’Est L’Amour Qui Contrôle)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>La vache, j'ai vu un flash, j'suis ou trop drash, lâche J'crache, j'recrache, j'ai vu le flash J'ai vu un flash, j'attache ma ceinture mais j'ai vu le crash J'ai vu des corps, des morts, panique à bord, c'était trop gore J'sors, j'ai vu un flash, j'ai eu un flash En allant chercher mon cash dans l'bureau de la directrice Comme un parfum de vice elle était allongée sur le bureau C'est chaud, posa sa main sur ma braguette Elle me dit venez derrière j'lui dis en levrette ? Elle me dit non par derrière, qu'est-ce que tu es bete J'ai vu un flash, j'ai vu un flash dans la rue j'entends des voix le soir Des drôles de bruits dans le couloir J'ai vu un flash, une émeute dans les cités dortoirs Chômage, prison, et plus d'espoir J'ai vu un flash immonde comme ce monde Des filles de l'Est en esclavage L'histoire pisse le sang page après page PLC plage, nouvel arrivage, tu peux lire la rage sur certains visages J'ai vu un flash, j'ai envie d'dégueuler ma bouffe Famine, Tiers-Monde, j'ai vu un flash de ouf Un monde qui souffre, la terre qu'étouffe Des gens qui font la queue et se jettent dans un gouffre J'ai vu un flash, c'était une balle de fusil à chaque coin de rue Un tabac, une armurerie, le monde est levis stoned et moi j'suis westone Le rebelle on l'bâillonne, on s'en tamponne J'ai vu un flash, le jour ne se levait plus, la lumière des ténèbres Les étoiles avaient disparues, j'ai eu un flash Planète Terre, six milliards de frères On taxe à chaque frontière et sur l'air qu'on respire, pire Y'avait des mecs qui ne savaient pas lire ni écrire J'ai eu un flash, à l'assemblée, ils connaissent pas la réalité La rue, le monde, notre société Vitres fumées, garde rapprochée, mais pourtant rien à se reprocher L'encre de ma plume c'est du poison Elle fait kiffer comme l'écaille de poisson J'ai eu un flash jeune, j'ai pris mon destin en main Eu mes examens et j'ai fini médecin Trouvé l'bon chemin pour devenir quelqu'un J'ai eu un flash, y'a trop d'mythos autour de moi Tout le monde se mettait à mentir, moi ça m'fait rire Une maladie qui n'atteint pas la vérité J'ai eu un flash, on avait tous des choses à cacher Mais derrière quelles grimaces les dissimuler J'ai eu un flash, j'ai bu un flash, j'ai eu un flash</t>
+          <t>Ola ou té yé! di mwen sa ki ka passé... Ola ou té yé! bb léssé mwen souflé... Ola ou té yééé? Ou té pou vine chèché mwen mé ou po Jin rivé! Ola ou té yé! Mwen ja paré! Ola ou té yé mwen bisouin zouké! An té bastè évè en jeune ti flè ki di mwen bruno donne Moi du coco! Mé ka ou ka di la? Ayin! En té bastè men té Bisouin prend lè! Oooooh! ou ka plin tete en mwen, mwen Éméw sa sé sètin! Yo bisouin tripé é sé pa fot en Mwen!</t>
         </is>
       </c>
     </row>
@@ -1104,12 +1104,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Funk Master Sex des bitches (Interlude)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>J'inspire les jeunes à oeuvrer à travailler A entreprendre et à s'marier Dans l'but j'marque des buts pour atteindre mon but Toujours au combat à la radio sur les plateaux télé Besoin d'sérénité quand j'rentre à la maison C'est l'repos du guerrier Pas d'automatique ni d'poing américain J'ai l'choix des moyens donne moi des feuilles, un stylo, des musiciens Pourquoi j'investis du temps, tant d'effort et d'argent pour l'honneur Lui r'donner c'qu'elle m'a donné la France Arrête de lui faire des bras d'honneur T'as pas honte de pas pouvoir donner en retour Et montrer ta reconnaissance, deuxième naissance Illimitée dans tous mes sens Tous motivés par l'intérêt Mais l'intérêt n'est pas l'même J'tiens ma parole comme promis pour la France entière et le 18ème Pas d'stock-options j'suis un salarié J'ai des congés payés, j'peux faire la grève et le pont France ! Elle est tout l'temps en vacances ma France Nous on râle tout le temps en France On fait souvent la grève en France T'as vu l'temps qui fait en France Y a toujours une polémique en France Nous on râle tout le temps en France Quand on voit ce qui s'passe ailleurs On fait souvent la grève en France On est quand même bien en France Elle est tout le temps en vacances ma France Nous on râle tout le temps en France On fait souvent la grève en France On est quand même bien en France On s'contredit on s'explique Chacun selon son angle et sa personnalité Tu aimes la trap et moi j'aime rapper J'ai mon propre style ma musique Tu travailles en banlieue moi en Afrique Tout le monde n'est pas égal Ne fais pas dans l'illégal On est pas appelé à la même destinée J'suis docteur et si t'as la rage j'ai un vaccin comme Pasteur J'te fais peur, la peur te donne une force qui sommeille au fond d'toi France, t'as un sentiment d'vengeance mais laisse passer Convertis ta colère en bonté France ! Elle est tout l'temps en vacances ma France Nous on râle tout le temps en France On fait souvent la grève en France T'as vu l'temps qui fait en France Y a toujours une polémique en France Nous on râle tout le temps en France Quand on voit ce qui s'passe ailleurs On fait souvent la grève en France On est quand même bien en France Elle est tout le temps en vacances ma France Nous on râle tout le temps en France On fait souvent la grève en France On est quand même bien en France Hyper motivé j'ai ma propre communauté Mais j'garde mon individualité Mon bonnet est une parabole Ma rime sent l'alcool Mon Etat attends de moi des résultats Intemporel, j'capte toutes les choses qui se sont passées Qui existe et qui vont s'passer Cabrel t'aime, t'aimais, et t'aimeras Bolloré nous demande de lire dans l'avenir Pour acheter des actions et faire des placements Doc rapportera, j'suis pas un devin ni un cartomancien J'suis un chanteur sain, pour le futur et le passé ne font qu'un France ! Elle est tout l'temps en vacances ma France Nous on râle tout le temps en France On fait souvent la grève en France T'as vu l'temps qui fait en France Y a toujours une polémique en France Nous on râle tout le temps en France Quand on voit ce qui s'passe ailleurs On fait souvent la grève en France On est quand même bien en France Elle est tout le temps en vacances ma France Nous on râle tout le temps en France On fait souvent la grève en France On est quand même bien en France</t>
+          <t>Hé mais t'es qui toi ? T'es qui ?! J'suis le Funk Master Sex des bitches De Paris a Beach Miami encaisse mon style et kiffe ma face lady On a notre propre école de fans, façon barbare J'te montre ma barre, style tarzan, string léopard Elle crie le nom d'ma clique Time Bomb ! Malka Pit Du 19ème au 20ème en passant par ma cave mec ! Les mecs de Time Bomb ne boostent pas d'épaves On n'fait pas de chichis, enlève ton sous-tif et ton caleçon Whisky, Coca, Bacardi, saoule toi chéri Puis on joue à Jaques à dit, des p'tits mouvements saccadés Dans mon sac à dos, pas de pote-ca Si t'es mon pote gars, passe moi une négro pour que j'la vaille-tra Les bitches m'aiment, comme les X-men aiment les femmes Si ton lascar tombe en panne, fait un tour dans ma cabane D'Ali baba, t'inquiètes pas, les quarante voleurs n'y sont pas Mais le trésor y est, c'est parti pour la salsa !</t>
         </is>
       </c>
     </row>
@@ -1121,12 +1121,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Frotti-Frotta (C’Est L’Amour Qui Contrôle)</t>
+          <t>Funky Maxime</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Ola ou té yé! di mwen sa ki ka passé... Ola ou té yé! bb léssé mwen souflé... Ola ou té yééé? Ou té pou vine chèché mwen mé ou po Jin rivé! Ola ou té yé! Mwen ja paré! Ola ou té yé mwen bisouin zouké! An té bastè évè en jeune ti flè ki di mwen bruno donne Moi du coco! Mé ka ou ka di la? Ayin! En té bastè men té Bisouin prend lè! Oooooh! ou ka plin tete en mwen, mwen Éméw sa sé sètin! Yo bisouin tripé é sé pa fot en Mwen!</t>
+          <t>Encore des mots qui décapent, et du style dans la sape Des violons qui t'éclatent, une autre idée du rap Des baskets neuves sous les projecteurs Style séducteur, viens voir le docteur Ok c'est l'heure, non n'aie pas peur Chanteur, loveur et sélecteur Acteur, tueur, super tombeur Oublie le taxi, girl, j'ai un chauffeur J'peux recevoir ou me déplacer Au bout du monde aller te chercher Bien ! La jupe fendue et le décolleté touche avec précaution De la soie, du tulle, non, du coton Je parle, je frime, j'embellis la vie de rimes Un smok', une robe, je t'emmène chez Maxim's x2 I've got to know ya I want to know ya You've got to know that I really got to know ya Rap, funk rap, et du son qui tape Eh pote ! Ca t'épate ? Mets les kilowatts Le cash money, c'est du ro qui brille Le cash flow, c'est mes mots qui scintillent Repère ma langue sur ta chair J'me désaltère, tes jambes en équerre Oui laisse-moi faire, adhère Ton bébé du ghetto a du savoir-faire C'est plus romantique que le bord de mer Alors, viens chez moi boire un dernier verre Je parle, je frime, j'embellis la vie de rimes Un smok', une robe, je t'emmène chez Maxim's x2 I've got to know ya I want to know ya You've got to know that I really got to know ya Pur son, garçon, te pose pas d'questions J'mets la pression sur microsillon J'carbure, plus c'est bon, plus ça dure, ah bon ? Plus ça dure, plus j'assure, et tu cries mon nom Pôle position, jeux polissons, j'entre en action C'est du Doc avec mention, c'est du Doc à réaction Ma plume décolle et y'a pas d'ratures Ma bouche passe à l'action et je pose ma signature Je parle, je frime, j'embellis la vie de rimes Un smok', une robe, et tu saisis mes maximes x2 I've got to know ya I want to know ya You've got to know that I really got to know ya</t>
         </is>
       </c>
     </row>
@@ -1138,12 +1138,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Funk Master Sex des bitches (Interlude)</t>
+          <t>Gunshot</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Hé mais t'es qui toi ? T'es qui ?! J'suis le Funk Master Sex des bitches De Paris a Beach Miami encaisse mon style et kiffe ma face lady On a notre propre école de fans, façon barbare J'te montre ma barre, style tarzan, string léopard Elle crie le nom d'ma clique Time Bomb ! Malka Pit Du 19ème au 20ème en passant par ma cave mec ! Les mecs de Time Bomb ne boostent pas d'épaves On n'fait pas de chichis, enlève ton sous-tif et ton caleçon Whisky, Coca, Bacardi, saoule toi chéri Puis on joue à Jaques à dit, des p'tits mouvements saccadés Dans mon sac à dos, pas de pote-ca Si t'es mon pote gars, passe moi une négro pour que j'la vaille-tra Les bitches m'aiment, comme les X-men aiment les femmes Si ton lascar tombe en panne, fait un tour dans ma cabane D'Ali baba, t'inquiètes pas, les quarante voleurs n'y sont pas Mais le trésor y est, c'est parti pour la salsa !</t>
+          <t>My dick is my gunshot My dick is my gunshot Ça parle de gunshot, flingue, Jack et d'scott De sniper, one shot et de jackpot De meufs qui transpirent sous les spots De mecs qui arrivent avec une flopée d'potes Boom boom sur le dancefloor, soirée hip-hop Ambiance wet wet comme dans un sex-shop Les gyals en mini dansent le hoola-hop Chupa Chups dans la bouche, ouais c'est bon j'te chope T'es venue avec ton mec toi? non allez hop ah ouais chez vous c'est non-stop? Ouais, jamais d'flop On fume des meufs comme on fume des clopes Rocco du ghetto dans tous les blocs blocs blocs My dick is My dick is my gunshot My dick is my gunshot My dick is My dick is my gunshot My dick is my gunshot My dick is my gunshot My dick is On y va, Doc Gynéco toujours présent pour les tes-po La même ce-sau, j'ai la salsa, un peu d'piment sur le tempo J'en jette, j'te balance Mon numéro Arrête, danse, mets ça à fond sur le ste-po En verlan, j'suis trop lent J'ai tout mon t... temporiser, c'te flow est validé On veut nous diviser Briser nos alliance mais Koss' est mon allié J'suis fou, et je finance le West Indies crew Tchatcheur, vole-moi des lyrics et tu seras à l'heure Bluffe ta meuf pour une partie de seufs Ça t'fout la haine qu'elle m'aime et qu'elle aime bouger ses seufs Trop d'keufs, laisse-la vivre, ivre Vague hip-hop, elle surfe Surfe sur ma planche, fais bouger tes hanches Moi j'suis patron, tu cherches du piston J'te laisserai pas faire le taf, fiston Derrière le bureau j'préfère J'en fais jamais trop, pépère Si tu m'cherches devant l'micro, yes J'te ferai voir Mes cojones My dick is My dick is my gunshot My dick is my gunshot My dick is My dick is my gunshot My dick is my gunshot My dick is my gunshot My dick is Loft 2, J-1, c'est demain l'jour J Et Doc G, mes graines de star, si elles veulent elles peuvent les toucher J'me fais rare et précieux Un vrai bijou d'famille, sérieux Écoute c'que j'crache avec ma bouche et mon stylo Hardcore, fais mieux, chanteur porno c'est mieux C'est moi Bruno et dans la rime j'suis encore plus chaud J'suis allé chercher les plus grands chiens du quartier Laisse la chienne au chenil, on fera pas d'quartier Rimes classées X, moral au beau fixe Dans les bacs on place nos disques et c'est un double impact Double péné, double peine, double assaut Double flow qui glisse dans un double orifice Fissuré, stop, et lacéré J'te pivote, ôte ta culotte si t'es cap' cocotte T'accroche au lit avec des menottes Eh Doc sur sa bouche il reste du Danone La pin-up, elle est plus crade que l'journal du hard Mec t'es ouf ou quoi? j'touche pas ces clochardes J'vais la saper j'vais la laver et sous la boue t'auras une taspé C'est pour les mecs et les demoiselles Ouais ouais, XXL J'aime les filles Ah bon, ah bon Des magazines T'es un mytho, t'es un mytho Eh Doc Gynéco, espèce de salaud va Vas-y, laisse-moi, laisse-moi gros J'aime les filles Attends, attends, j'vais m'occuper d'elle là J'commande, après, tu... on fait comme ça? Moi, j'vais derrière, moi T'as vu, t'as vu? Mais non, mais Koss arrête... mais non... Mais pourquoi elle jouit en anglais, elle est bizarre Attends, attends, attends, j'm'occupe d'elle Ah, Gynéco, ha ha, Gynéco Tu l'as trouvée où celle-là? Bah vas-y embrasse ta copine, touche les fesses à ta copine Dédicace à Vaness', Dolly, Sally, Nathalie, Tiffany Pourquoi t'as pas ramené tes copines? Dolorès, c'est celle-là qu'a un gros XXX Eh ouais, my dick is my Gunshot My dick is my Pistolet My dick is</t>
         </is>
       </c>
     </row>
@@ -1155,12 +1155,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Funky Maxime</t>
+          <t>Hexagonal</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Encore des mots qui décapent, et du style dans la sape Des violons qui t'éclatent, une autre idée du rap Des baskets neuves sous les projecteurs Style séducteur, viens voir le docteur Ok c'est l'heure, non n'aie pas peur Chanteur, loveur et sélecteur Acteur, tueur, super tombeur Oublie le taxi, girl, j'ai un chauffeur J'peux recevoir ou me déplacer Au bout du monde aller te chercher Bien ! La jupe fendue et le décolleté touche avec précaution De la soie, du tulle, non, du coton Je parle, je frime, j'embellis la vie de rimes Un smok', une robe, je t'emmène chez Maxim's x2 I've got to know ya I want to know ya You've got to know that I really got to know ya Rap, funk rap, et du son qui tape Eh pote ! Ca t'épate ? Mets les kilowatts Le cash money, c'est du ro qui brille Le cash flow, c'est mes mots qui scintillent Repère ma langue sur ta chair J'me désaltère, tes jambes en équerre Oui laisse-moi faire, adhère Ton bébé du ghetto a du savoir-faire C'est plus romantique que le bord de mer Alors, viens chez moi boire un dernier verre Je parle, je frime, j'embellis la vie de rimes Un smok', une robe, je t'emmène chez Maxim's x2 I've got to know ya I want to know ya You've got to know that I really got to know ya Pur son, garçon, te pose pas d'questions J'mets la pression sur microsillon J'carbure, plus c'est bon, plus ça dure, ah bon ? Plus ça dure, plus j'assure, et tu cries mon nom Pôle position, jeux polissons, j'entre en action C'est du Doc avec mention, c'est du Doc à réaction Ma plume décolle et y'a pas d'ratures Ma bouche passe à l'action et je pose ma signature Je parle, je frime, j'embellis la vie de rimes Un smok', une robe, et tu saisis mes maximes x2 I've got to know ya I want to know ya You've got to know that I really got to know ya</t>
+          <t>Je m'en fous de ce qu'ils peuvent penser Au moins moi je sais Que c'est pour eux qu'on ouvre des bordels en Thaïlande Il y en a que pour eux Ils disent que la France est grande Je me demande A quel maquereau je paie des impôts C'est à celui qui me traite de négro Qui me dit que ça pue dans mes escaliers Et que ça gêne qui ? Mon voisin de palier Un mec qui se saoule au Ricard et frappe sa femme Vivre au quartier est tout son drame Qui me voit en BM et dit que je vends de la came ? Qui fait des fausses dépositions ? Qui fout des mecs en prison ? Qui va pleurer au poste ? Et qui porte du Lacoste ? Être né sous le signe de l'Hexagone C'est vraiment pas une sinécure Et le roi des cons sur son trône Il est Français, ça j'en suis sûr Qui prend de l'ampleur et qui fait peur ? Mais dis moi qui contrôle le Secteur ? Je te le demande Qui a fait la meilleure propagande ? Veut propulser et fait parler de son gang ? Qui peut changer une major en label indépendant ? Qui fait des disques de plus en plus bandant ? Quel docteur te propose un diagnostic ? Qui pousse la musique plus haut que le fric ? Mais qui ? Je te le demande pas, je te le dis Qui t'écrase ? Quel est le nom du joueur qui est en première base ? Qui cache sa haine derrière une cravate ? Le même qui te fait ber-tom quand tu le savates Être né sous le signe de l'Hexagone On ne peut pas dire que ça soit bandant Si le roi des cons perdait son trône Il y aurait un max de prétendants Leur pinard et leur camembert, c'est leur seule gloire à ces tarés La France est un pays de flics A tous les coins de rue, il y en a cent Pour faire régner l'ordre public Ils assassinent impunément Être né sous le signe de l'Hexagone On ne peut pas dire que ça soit bandant Si le roi des cons perdait son trône Il y aurait cinquante millions de prétendants</t>
         </is>
       </c>
     </row>
@@ -1172,12 +1172,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Gunshot</t>
+          <t>Histoire d’un mec</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>My dick is my gunshot My dick is my gunshot Ça parle de gunshot, flingue, Jack et d'scott De sniper, one shot et de jackpot De meufs qui transpirent sous les spots De mecs qui arrivent avec une flopée d'potes Boom boom sur le dancefloor, soirée hip-hop Ambiance wet wet comme dans un sex-shop Les gyals en mini dansent le hoola-hop Chupa Chups dans la bouche, ouais c'est bon j'te chope T'es venue avec ton mec toi? non allez hop ah ouais chez vous c'est non-stop? Ouais, jamais d'flop On fume des meufs comme on fume des clopes Rocco du ghetto dans tous les blocs blocs blocs My dick is My dick is my gunshot My dick is my gunshot My dick is My dick is my gunshot My dick is my gunshot My dick is my gunshot My dick is On y va, Doc Gynéco toujours présent pour les tes-po La même ce-sau, j'ai la salsa, un peu d'piment sur le tempo J'en jette, j'te balance Mon numéro Arrête, danse, mets ça à fond sur le ste-po En verlan, j'suis trop lent J'ai tout mon t... temporiser, c'te flow est validé On veut nous diviser Briser nos alliance mais Koss' est mon allié J'suis fou, et je finance le West Indies crew Tchatcheur, vole-moi des lyrics et tu seras à l'heure Bluffe ta meuf pour une partie de seufs Ça t'fout la haine qu'elle m'aime et qu'elle aime bouger ses seufs Trop d'keufs, laisse-la vivre, ivre Vague hip-hop, elle surfe Surfe sur ma planche, fais bouger tes hanches Moi j'suis patron, tu cherches du piston J'te laisserai pas faire le taf, fiston Derrière le bureau j'préfère J'en fais jamais trop, pépère Si tu m'cherches devant l'micro, yes J'te ferai voir Mes cojones My dick is My dick is my gunshot My dick is my gunshot My dick is My dick is my gunshot My dick is my gunshot My dick is my gunshot My dick is Loft 2, J-1, c'est demain l'jour J Et Doc G, mes graines de star, si elles veulent elles peuvent les toucher J'me fais rare et précieux Un vrai bijou d'famille, sérieux Écoute c'que j'crache avec ma bouche et mon stylo Hardcore, fais mieux, chanteur porno c'est mieux C'est moi Bruno et dans la rime j'suis encore plus chaud J'suis allé chercher les plus grands chiens du quartier Laisse la chienne au chenil, on fera pas d'quartier Rimes classées X, moral au beau fixe Dans les bacs on place nos disques et c'est un double impact Double péné, double peine, double assaut Double flow qui glisse dans un double orifice Fissuré, stop, et lacéré J'te pivote, ôte ta culotte si t'es cap' cocotte T'accroche au lit avec des menottes Eh Doc sur sa bouche il reste du Danone La pin-up, elle est plus crade que l'journal du hard Mec t'es ouf ou quoi? j'touche pas ces clochardes J'vais la saper j'vais la laver et sous la boue t'auras une taspé C'est pour les mecs et les demoiselles Ouais ouais, XXL J'aime les filles Ah bon, ah bon Des magazines T'es un mytho, t'es un mytho Eh Doc Gynéco, espèce de salaud va Vas-y, laisse-moi, laisse-moi gros J'aime les filles Attends, attends, j'vais m'occuper d'elle là J'commande, après, tu... on fait comme ça? Moi, j'vais derrière, moi T'as vu, t'as vu? Mais non, mais Koss arrête... mais non... Mais pourquoi elle jouit en anglais, elle est bizarre Attends, attends, attends, j'm'occupe d'elle Ah, Gynéco, ha ha, Gynéco Tu l'as trouvée où celle-là? Bah vas-y embrasse ta copine, touche les fesses à ta copine Dédicace à Vaness', Dolly, Sally, Nathalie, Tiffany Pourquoi t'as pas ramené tes copines? Dolorès, c'est celle-là qu'a un gros XXX Eh ouais, my dick is my Gunshot My dick is my Pistolet My dick is</t>
+          <t>J'n'ai jamais été le premier de la classe J'ai toujours été perdu dans la masse Des perturbateurs, c'était moi l'agitateur Le mec qui n'était jamais à l'heure Les profs avaient marre des billets de retard Des absences non justifiées, des bulletins jamais signés Alors vite fait on m'a renvoyé Je gardais l'argent de ma carte orange Pour m'acheter des images et les derniers Strange Je rêvais de foot et de force dans mes shoot À quatre heures et demie je rentrais out Devant Récré A2 je mettais le feu Jouer avec le dissolvant Je toujours trouver ça marrant Mes parents m'ont parlé, j'n'ai jamais écouté J'ai toujours suivi mes amis dans tous les délires Et même les pires, j'ai su en rire Et non rien de rien, non je ne regrette rien x4 Non non non non non non, je ne regrette rien J'ai stoppé l'école et commencé l'alcool J'suis pris dans les femmes, dans la flambe et le rap Faut que j'm'échappe ça fait longtemps, ça date Toutes ces soirées ou j'étais bien sapé La tête alcoolisée, j'me mettais à tchatcher Celle qu'en temps normal j'n'aurais pas calculées My-Sto Bruno le duo du quartier, de Porte de la Chapelle je suis passé à Sarcelles Oui j'ai visité la seconde capitale où les baskets sont blanches Et les mecs s'appellent Timal, Stomy, Bouboul, Guetch, Passi ou Kenzy Des mec sans failles qui tirent et tchao bye-bye Ok je stoppe sur les détails car je sais que tu bloque sur la secte Abdoulaye Et si maintenant je rappe et que mon style décape D'acc ou pas d'acc Doc t'a mis une tape Grace à My-Sto j'ai erré dans les studios J'ai posé mes mots et instauré mon flow Mais dis-moi qui suis-je, le doc Gyneco Et non rien de rien je ne regrette rien x4 Non non non non non non, je ne regrette rien Je n'ai rien à prouver mais beaucoup de personnes à aider Donc, je dois travailler, et je me lance dans ce monde de requins On m'a dit Bruno méfie-toi c'est malsain Plume m'a dit Bruno, viens chez nous, là-bas ça craint Alors je reste polie et dors je dors Adieu la caravelle j'opte pour Delabel Car je plane sur les ailes de mon ami Thierry Philippe, oui oui et monsieur Ascoli Les contrats sont tapés, maitre Schmidt a négocié J'ai vu des blocs de papier et je les ai tous signés Bienvenue dans la maison, bienvenue dans ma clinique Fais ta musique, nous on vend tes disques Le médecin chef monsieur de Buretel Les infirmières de promo sont toutes très belles Une photo Polaroid et suivez le guide J'ai serré des mains et fait des bises Mais qu'on se le dise... Ah non rien de rien je ne regrette rien Non non non non non non, je ne regrette rien Mais non non non non non non, je ne regrette rien Non non non non non non Je ne regrette rien Non non non non non non, je ne regrette rien Non non non non non non, je ne regrette rien Non non non non non non, je ne regrette rien Mais non non non non non non, je ne regrette rien</t>
         </is>
       </c>
     </row>
@@ -1189,12 +1189,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Hexagonal</t>
+          <t>In my street (White N Mix)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Je m'en fous de ce qu'ils peuvent penser Au moins moi je sais Que c'est pour eux qu'on ouvre des bordels en Thaïlande Il y en a que pour eux Ils disent que la France est grande Je me demande A quel maquereau je paie des impôts C'est à celui qui me traite de négro Qui me dit que ça pue dans mes escaliers Et que ça gêne qui ? Mon voisin de palier Un mec qui se saoule au Ricard et frappe sa femme Vivre au quartier est tout son drame Qui me voit en BM et dit que je vends de la came ? Qui fait des fausses dépositions ? Qui fout des mecs en prison ? Qui va pleurer au poste ? Et qui porte du Lacoste ? Être né sous le signe de l'Hexagone C'est vraiment pas une sinécure Et le roi des cons sur son trône Il est Français, ça j'en suis sûr Qui prend de l'ampleur et qui fait peur ? Mais dis moi qui contrôle le Secteur ? Je te le demande Qui a fait la meilleure propagande ? Veut propulser et fait parler de son gang ? Qui peut changer une major en label indépendant ? Qui fait des disques de plus en plus bandant ? Quel docteur te propose un diagnostic ? Qui pousse la musique plus haut que le fric ? Mais qui ? Je te le demande pas, je te le dis Qui t'écrase ? Quel est le nom du joueur qui est en première base ? Qui cache sa haine derrière une cravate ? Le même qui te fait ber-tom quand tu le savates Être né sous le signe de l'Hexagone On ne peut pas dire que ça soit bandant Si le roi des cons perdait son trône Il y aurait un max de prétendants Leur pinard et leur camembert, c'est leur seule gloire à ces tarés La France est un pays de flics A tous les coins de rue, il y en a cent Pour faire régner l'ordre public Ils assassinent impunément Être né sous le signe de l'Hexagone On ne peut pas dire que ça soit bandant Si le roi des cons perdait son trône Il y aurait cinquante millions de prétendants</t>
+          <t>Ma rue est bourrée de vice À chacun ses délices, à chacun sa 8.6 Dans ma rue, les lascars se serrent la main Ce n'est pas comme dans le show-biz Où les mecs se font la bise Dans ma rue, les Chinois s'entraident et se tiennent par la main Les Youpins s'éclatent et font des magasins Et tous les lascars fument sur les mêmes joints Dans ma rue, c'est une pub pour Benetton Et tout le monde écoute les mêmes sons à fond Mangeurs de casher ou de saucisson Dans ma rue, je suis posé, je marche tranquille dans la ville J'esquive les civils et reste le patron du style À chacun sa banlieue. La mienne, je l'aime Et elle s'appelle le 18ème I'm high from the chronic and I can't get up x4 Dans ma rue, pour communiquer il faut être trilingue Et faire attention quand on marche sur des seringues Se méfier des dingues qui sortent leurs flingues Dans ma rue, les péripatéticiennes craquent pour du Crack Les pompiers les réveillent en leur mettant des claques Personne ne veut tenter le bouche à bouche Les clodos s'échappent pour ne pas prendre de douche Dans ma rue, le vendeur de grec veut nous empoisonner Sa viande est bizarre, son huile est périmée Comme moi l'épicier fait ses courses à Ed Il m'revend les mêmes produits Que j'achète l'aprés-midi 4 ou 5 fois plus cher la nuit Dans ma rue, ça vole, ça viole Mais qu'est-ce que tu veux ? À chacun sa banlieue. La mienne, je l'aime Et elle s'appelle I'm high from the chronic and I can't get up x4 Porte de la Chapelle Terminus Tout le monde descend, reste ou prend son bus Bienvenue dans ma rue Où la crasse colle à tes pieds sur le trottoir comme de la glu Bienvenue dans ma rue Où les pigeons meurent dans le caniveau À force de manger du dégueulis de toxico Dans ma rue, autant de flics que de mecs cocus Les coiffeurs racontent des blagues aux dealers Les policiers donnent des planques aux voleurs Le facteur aide le maquereau à relever les compteurs J'ai été élu président de ma rue J'ai placé mes ministres Tout le monde est corrompu... À chacun sa banlieue. La mienne, je l'aime Et elle s'appelle le 18ème I'm high from the chronic and I can't get up</t>
         </is>
       </c>
     </row>
@@ -1206,12 +1206,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Histoire d’un mec</t>
+          <t>Interlude ami ou ennemi</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>J'n'ai jamais été le premier de la classe J'ai toujours été perdu dans la masse Des perturbateurs, c'était moi l'agitateur Le mec qui n'était jamais à l'heure Les profs avaient marre des billets de retard Des absences non justifiées, des bulletins jamais signés Alors vite fait on m'a renvoyé Je gardais l'argent de ma carte orange Pour m'acheter des images et les derniers Strange Je rêvais de foot et de force dans mes shoot À quatre heures et demie je rentrais out Devant Récré A2 je mettais le feu Jouer avec le dissolvant Je toujours trouver ça marrant Mes parents m'ont parlé, j'n'ai jamais écouté J'ai toujours suivi mes amis dans tous les délires Et même les pires, j'ai su en rire Et non rien de rien, non je ne regrette rien x4 Non non non non non non, je ne regrette rien J'ai stoppé l'école et commencé l'alcool J'suis pris dans les femmes, dans la flambe et le rap Faut que j'm'échappe ça fait longtemps, ça date Toutes ces soirées ou j'étais bien sapé La tête alcoolisée, j'me mettais à tchatcher Celle qu'en temps normal j'n'aurais pas calculées My-Sto Bruno le duo du quartier, de Porte de la Chapelle je suis passé à Sarcelles Oui j'ai visité la seconde capitale où les baskets sont blanches Et les mecs s'appellent Timal, Stomy, Bouboul, Guetch, Passi ou Kenzy Des mec sans failles qui tirent et tchao bye-bye Ok je stoppe sur les détails car je sais que tu bloque sur la secte Abdoulaye Et si maintenant je rappe et que mon style décape D'acc ou pas d'acc Doc t'a mis une tape Grace à My-Sto j'ai erré dans les studios J'ai posé mes mots et instauré mon flow Mais dis-moi qui suis-je, le doc Gyneco Et non rien de rien je ne regrette rien x4 Non non non non non non, je ne regrette rien Je n'ai rien à prouver mais beaucoup de personnes à aider Donc, je dois travailler, et je me lance dans ce monde de requins On m'a dit Bruno méfie-toi c'est malsain Plume m'a dit Bruno, viens chez nous, là-bas ça craint Alors je reste polie et dors je dors Adieu la caravelle j'opte pour Delabel Car je plane sur les ailes de mon ami Thierry Philippe, oui oui et monsieur Ascoli Les contrats sont tapés, maitre Schmidt a négocié J'ai vu des blocs de papier et je les ai tous signés Bienvenue dans la maison, bienvenue dans ma clinique Fais ta musique, nous on vend tes disques Le médecin chef monsieur de Buretel Les infirmières de promo sont toutes très belles Une photo Polaroid et suivez le guide J'ai serré des mains et fait des bises Mais qu'on se le dise... Ah non rien de rien je ne regrette rien Non non non non non non, je ne regrette rien Mais non non non non non non, je ne regrette rien Non non non non non non Je ne regrette rien Non non non non non non, je ne regrette rien Non non non non non non, je ne regrette rien Non non non non non non, je ne regrette rien Mais non non non non non non, je ne regrette rien</t>
+          <t>Dans ma rue, y a mes commerçants, mes amis, mes ennemis, les refourgueurs, la police et dans tout ça, j'ai des amis et des ennemis. On est tous ensemble, on passe l'été là, on est bien J'joue avec les stup' comme on joue avec les putes</t>
         </is>
       </c>
     </row>
@@ -1223,12 +1223,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>In my street (White N Mix)</t>
+          <t>Interlude Charles Aznavour tous les matins</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Ma rue est bourrée de vice À chacun ses délices, à chacun sa 8.6 Dans ma rue, les lascars se serrent la main Ce n'est pas comme dans le show-biz Où les mecs se font la bise Dans ma rue, les Chinois s'entraident et se tiennent par la main Les Youpins s'éclatent et font des magasins Et tous les lascars fument sur les mêmes joints Dans ma rue, c'est une pub pour Benetton Et tout le monde écoute les mêmes sons à fond Mangeurs de casher ou de saucisson Dans ma rue, je suis posé, je marche tranquille dans la ville J'esquive les civils et reste le patron du style À chacun sa banlieue. La mienne, je l'aime Et elle s'appelle le 18ème I'm high from the chronic and I can't get up x4 Dans ma rue, pour communiquer il faut être trilingue Et faire attention quand on marche sur des seringues Se méfier des dingues qui sortent leurs flingues Dans ma rue, les péripatéticiennes craquent pour du Crack Les pompiers les réveillent en leur mettant des claques Personne ne veut tenter le bouche à bouche Les clodos s'échappent pour ne pas prendre de douche Dans ma rue, le vendeur de grec veut nous empoisonner Sa viande est bizarre, son huile est périmée Comme moi l'épicier fait ses courses à Ed Il m'revend les mêmes produits Que j'achète l'aprés-midi 4 ou 5 fois plus cher la nuit Dans ma rue, ça vole, ça viole Mais qu'est-ce que tu veux ? À chacun sa banlieue. La mienne, je l'aime Et elle s'appelle I'm high from the chronic and I can't get up x4 Porte de la Chapelle Terminus Tout le monde descend, reste ou prend son bus Bienvenue dans ma rue Où la crasse colle à tes pieds sur le trottoir comme de la glu Bienvenue dans ma rue Où les pigeons meurent dans le caniveau À force de manger du dégueulis de toxico Dans ma rue, autant de flics que de mecs cocus Les coiffeurs racontent des blagues aux dealers Les policiers donnent des planques aux voleurs Le facteur aide le maquereau à relever les compteurs J'ai été élu président de ma rue J'ai placé mes ministres Tout le monde est corrompu... À chacun sa banlieue. La mienne, je l'aime Et elle s'appelle le 18ème I'm high from the chronic and I can't get up</t>
+          <t>Dès l'matin, ouais. Donc J'me réveille, j'écoute Sacrifice de poulets et j'enchaîne avec Aznavour, Les 40 chansons d'or. J'adore Aznavour, j'ai toutes ses chansons du début jusqu'à la fin. Celles qu'il a écrit pour les gens, celles qu'il va bientôt écrire pour moi aussi. J'ai envie d'travailler avec lui Je vous parle d'une voiture que les moins de 20 ans rêveraient tours avoir. Intérieur cuir nana... la BM</t>
         </is>
       </c>
     </row>
@@ -1240,12 +1240,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Interlude ami ou ennemi</t>
+          <t>Interlude j’blague avec la balle</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Dans ma rue, y a mes commerçants, mes amis, mes ennemis, les refourgueurs, la police et dans tout ça, j'ai des amis et des ennemis. On est tous ensemble, on passe l'été là, on est bien J'joue avec les stup' comme on joue avec les putes</t>
+          <t>J'blague avec les mots comme j'blague avec la balle. Voilà et j'aime les deux, j'les ai mélangés</t>
         </is>
       </c>
     </row>
@@ -1257,12 +1257,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Interlude Charles Aznavour tous les matins</t>
+          <t>Interlude les filles que j’aime</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Dès l'matin, ouais. Donc J'me réveille, j'écoute Sacrifice de poulets et j'enchaîne avec Aznavour, Les 40 chansons d'or. J'adore Aznavour, j'ai toutes ses chansons du début jusqu'à la fin. Celles qu'il a écrit pour les gens, celles qu'il va bientôt écrire pour moi aussi. J'ai envie d'travailler avec lui Je vous parle d'une voiture que les moins de 20 ans rêveraient tours avoir. Intérieur cuir nana... la BM</t>
+          <t>- Doc Moi, j'parle des filles de maintenant, tu vois. Des filles que moi j'fréquente que j'vois. Ma mère, c'est un autre truc, une autre éducation. J'vois toutes les filles noires qui s'prennent pour Naomi Campbell. J'vois toutes les filles blanches qui s'prennent pour Pamela Anderson. J'vais t'dire les filles que j'aime, moi. J'aime Anne Sinclair parce que elle est lourde, elle est posée. J'la vois en baskets blanches, elle. Ça tu vois, c'est ça, c'est d'la femme, c'est bien, y a d'la matière. J'aime aussi Claire Chazal. C'est qui la fille du Cercle de Minuit ? - Journaliste Laure Adler - Doc Haan, c'est elle la meilleure. Alala ça c'est la best of the best. Ah ouais ,elle voilà, avec elle, j'arrête tout. J'fais une pause, j'fais des enfants et tout si elle veut. J'serai content d'voir ma fiancée à la télé avec plein d'hommes. Elle est technique, elle est physique. Elle est tout</t>
         </is>
       </c>
     </row>
@@ -1274,12 +1274,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Interlude j’blague avec la balle</t>
+          <t>Interlude promo 1996</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>J'blague avec les mots comme j'blague avec la balle. Voilà et j'aime les deux, j'les ai mélangés</t>
+          <t>Bienvenue sur ma ligne personnelle, en direct de Porte de la Chapelle. J'suis sur toutes les radios, j'ai des clips vidéo. On s'échange mes démos et j'ai une putain d'promo C'est dur d'être tendre de nos jours, c'est dur d'le montrer. J'aime les femmes</t>
         </is>
       </c>
     </row>
@@ -1291,12 +1291,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Interlude les filles que j’aime</t>
+          <t>Je reste simple</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>- Doc Moi, j'parle des filles de maintenant, tu vois. Des filles que moi j'fréquente que j'vois. Ma mère, c'est un autre truc, une autre éducation. J'vois toutes les filles noires qui s'prennent pour Naomi Campbell. J'vois toutes les filles blanches qui s'prennent pour Pamela Anderson. J'vais t'dire les filles que j'aime, moi. J'aime Anne Sinclair parce que elle est lourde, elle est posée. J'la vois en baskets blanches, elle. Ça tu vois, c'est ça, c'est d'la femme, c'est bien, y a d'la matière. J'aime aussi Claire Chazal. C'est qui la fille du Cercle de Minuit ? - Journaliste Laure Adler - Doc Haan, c'est elle la meilleure. Alala ça c'est la best of the best. Ah ouais ,elle voilà, avec elle, j'arrête tout. J'fais une pause, j'fais des enfants et tout si elle veut. J'serai content d'voir ma fiancée à la télé avec plein d'hommes. Elle est technique, elle est physique. Elle est tout</t>
+          <t>Se diminuer c'est le travail des grands Ma qualité, résister à l'élan J'achèterai pas la dernière Lamborghini Un vrai riche vit simplement Ils cherchent à manger, nous à maigrir Et comme un Tuche qui dépense trop On dirait qu't'as gagné au loto J'suis pas dans l'extase, j'suis un mec de la base J'suis pas dans l'extase, un mec de la base J'suis comme un bébé dans les bras de sa Maman J'me prends pas pour quelqu'un de grand J'suis comme un bébé dans les bras de sa Maman J'me prends pas pour quelqu'un de grand Je reste simple, je reste simple Je reste simple, je reste simple Je reste simple, je reste simple Je reste simple, je reste simple J'commence par le commencement Simplifier ma vie avec les gens Simple d'approche, simple dans mon comportement J'regarde d'où je viens, je n'fais pas de festin Chaque jours des larmes et du pain Ça fait 40 ans qu'on est dans l'quartier Mais calmez-vous ! Vous venez d'arriver Island va changer ma vie Mais l'instinct normal de quelqu'un c'est se faire petit Aucun orgueil, j'ai ressenti Quand dans mon bureau j'me suis assis Je reste simple, je reste simple J'suis comme un bébé dans les bras de sa Maman J'me prends pas pour quelqu'un de grand J'suis comme un bébé dans les bras de sa Maman J'me prends pas pour quelqu'un de grand Je reste simple, je reste simple Je reste simple, je reste simple Je reste simple, je reste simple Je reste simple, je reste simple Tu peux pas t'lancer dans des choses trop élevés Reste à ton niveau, conseil de Bruno Beaucoup travailler pour oublier Que t'existes ça aussi tu l'as oublié Tu vas exploser, t'as trois téléphones Tu vas exploser, t'as trois téléphones Tu vas exploser, t'as trois téléphones Tu vas exploser Je reste simple, je reste simple Je reste simple, je reste simple Je reste simple, je reste simple Je reste simple, je reste simple Je reste simple, je reste simple Je reste simple, je reste simple Je reste simple, je reste simple j'suis comme un bébé dans les bras de sa Maman j'me prends pas pour quelqu'un de grand Je reste simple, je reste simple</t>
         </is>
       </c>
     </row>
@@ -1308,12 +1308,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Interlude promo 1996</t>
+          <t>J’sais pas remplir ma feuille d’impôts</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Bienvenue sur ma ligne personnelle, en direct de Porte de la Chapelle. J'suis sur toutes les radios, j'ai des clips vidéo. On s'échange mes démos et j'ai une putain d'promo C'est dur d'être tendre de nos jours, c'est dur d'le montrer. J'aime les femmes</t>
+          <t>J'fais d'la chanson vue d'un trottoir Et j'suis taxé à tant par jour Je l'sais chanteur sentimental J'ai quelques fois provoqué l'scandale J'sais pas remplir ma feuille d'impôts Et l'inspecteur est inspectrice J'éteins le jour pour ... Lui parler, parler d'amour Elle a tout lu, sur mes tickets Même à l'époque, c'que j'écrivais C'était d'l'amour, elle s'en doutait En bas d'la tour j'fumais mon hasch, avec le cur J'sais pas remplir ma feuille d'impôts Comme j'aime être franc, c'est c'que j'dirai Y'a pas d'euros qui soient plus vrai J'sais pas ... Sois douce, et tais-toi En silence, fais moi confiance Viens me chercher, me réveiller Reste allongée, ou à 4 pattes Fais comme tu veux, je tires une latte Car j'n'entends plus battre mon cur Le 69 inverse le cur et le bonheur Vice et versa, ça saute aux yeux Faire tomber l'jour, lance moi c'regard Que j'redémarre avec lenteur En précurseur je sème le trouble Pour quelques roubles Je ne veux pas de vos milliards La Terre est rouge sous vos dollars J'sais pas remplir ma feuille d'impôts Comme j'aime être franc, c'est c'que j'dirai Y'a pas d'euros qui soient plus vrai J'sais pas ... Le time est en chien Sur l'autographe, j'ai signé Bruno Je n'me reconnais plus dans vos journaux Mec solitaire et ordinaire Qui penche à gauche, comme le Kouchner Pour toutes les races, contre ceux qui chassent Même dans la masse, sont à la masse Je fais la pêche à la tasspèche Quand d'autres prêchent, j'envoie d'la fraîche Si les impôts font mon malheur Comment le fric, la thune, feraient mon bonheur ? Y'a trop d'misère dans le 20 heures Le bruit et l'odeur, et ceux qui meurent Si les nuages veulent dire adieu Sous le soleil, sous sa lumière Doc communique, fait ses prières Sûrement qu'le ciel veut se faire voir Et lui aussi, devenir une star Mes petites filles, ma femme en or Mes déductions pour le Trésor et Public Je paye la dîme et reste digne x3 J'sais pas remplir ma feuille d'impôts Comme j'aime être franc, c'est c'que j'dirai Y'a pas d'euros qui soient plus vrai J'sais pas ...1</t>
         </is>
       </c>
     </row>
@@ -1325,12 +1325,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Je reste simple</t>
+          <t>La bohème</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Se diminuer c'est le travail des grands Ma qualité, résister à l'élan J'achèterai pas la dernière Lamborghini Un vrai riche vit simplement Ils cherchent à manger, nous à maigrir Et comme un Tuche qui dépense trop On dirait qu't'as gagné au loto J'suis pas dans l'extase, j'suis un mec de la base J'suis pas dans l'extase, un mec de la base J'suis comme un bébé dans les bras de sa Maman J'me prends pas pour quelqu'un de grand J'suis comme un bébé dans les bras de sa Maman J'me prends pas pour quelqu'un de grand Je reste simple, je reste simple Je reste simple, je reste simple Je reste simple, je reste simple Je reste simple, je reste simple J'commence par le commencement Simplifier ma vie avec les gens Simple d'approche, simple dans mon comportement J'regarde d'où je viens, je n'fais pas de festin Chaque jours des larmes et du pain Ça fait 40 ans qu'on est dans l'quartier Mais calmez-vous ! Vous venez d'arriver Island va changer ma vie Mais l'instinct normal de quelqu'un c'est se faire petit Aucun orgueil, j'ai ressenti Quand dans mon bureau j'me suis assis Je reste simple, je reste simple J'suis comme un bébé dans les bras de sa Maman J'me prends pas pour quelqu'un de grand J'suis comme un bébé dans les bras de sa Maman J'me prends pas pour quelqu'un de grand Je reste simple, je reste simple Je reste simple, je reste simple Je reste simple, je reste simple Je reste simple, je reste simple Tu peux pas t'lancer dans des choses trop élevés Reste à ton niveau, conseil de Bruno Beaucoup travailler pour oublier Que t'existes ça aussi tu l'as oublié Tu vas exploser, t'as trois téléphones Tu vas exploser, t'as trois téléphones Tu vas exploser, t'as trois téléphones Tu vas exploser Je reste simple, je reste simple Je reste simple, je reste simple Je reste simple, je reste simple Je reste simple, je reste simple Je reste simple, je reste simple Je reste simple, je reste simple Je reste simple, je reste simple j'suis comme un bébé dans les bras de sa Maman j'me prends pas pour quelqu'un de grand Je reste simple, je reste simple</t>
+          <t>Je vous parle dun temps que les moins de vingt ans ne peuvent pas connaître Montmartre en ce temps-là accrochait ses lilas jusqu'à sous nos fenêtres Et dans lhumble garni, qui nous servait de nid, ne payait pas de mine Cest là quon sest connu, moi qui criait famine et toi qui posais nue x2 La bohème Ça voulait dire on est heureux La bohème Nous ne mangions quun jour sur deux Dans les cafés voisins, nous étions quelques-uns qui attendaient la gloire Et bien que miséreux, avec le ventre creux, nous ne cessions dy croire Et quand quelques bistrots contre un bon repas chaud, nous prenait une toile Nous récitions des vers, groupés autour du poêle, en oubliant lhiver x2 La bohème Ça voulait dire tu es jolie La bohème Et nous avions tous du génie Souvent il marrivait, devant mon chevalet, de passer des nuits blanches Retouchant le dessin, de la ligne dun sein, du galbe dune hanche Et ce nest quau matin quon sasseyait enfin devant un café-crème Épuises mais ravis, fallait-il que l'on saime et quon aime la vie La bohème Ça voulait dire on a vingt ans La bohème Et nous vivions de lair du temps Quand au hasard des jours, on allait faire un tour à mon ancienne adresse Je ne reconnais plus ni les murs, ni les rues qui ont vu ma jeunesse En haut dun escalier, je cherche latelier dont plus rien ne subsiste Dans son nouveau décor, Montmartre semble triste et ses lilas sont morts x2 La bohème On était jeunes, on était fous La bohème Ça ne veut plus rien dire du tout</t>
         </is>
       </c>
     </row>
@@ -1342,12 +1342,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>J’sais pas remplir ma feuille d’impôts</t>
+          <t>L’âge Ingrat</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>J'fais d'la chanson vue d'un trottoir Et j'suis taxé à tant par jour Je l'sais chanteur sentimental J'ai quelques fois provoqué l'scandale J'sais pas remplir ma feuille d'impôts Et l'inspecteur est inspectrice J'éteins le jour pour ... Lui parler, parler d'amour Elle a tout lu, sur mes tickets Même à l'époque, c'que j'écrivais C'était d'l'amour, elle s'en doutait En bas d'la tour j'fumais mon hasch, avec le cur J'sais pas remplir ma feuille d'impôts Comme j'aime être franc, c'est c'que j'dirai Y'a pas d'euros qui soient plus vrai J'sais pas ... Sois douce, et tais-toi En silence, fais moi confiance Viens me chercher, me réveiller Reste allongée, ou à 4 pattes Fais comme tu veux, je tires une latte Car j'n'entends plus battre mon cur Le 69 inverse le cur et le bonheur Vice et versa, ça saute aux yeux Faire tomber l'jour, lance moi c'regard Que j'redémarre avec lenteur En précurseur je sème le trouble Pour quelques roubles Je ne veux pas de vos milliards La Terre est rouge sous vos dollars J'sais pas remplir ma feuille d'impôts Comme j'aime être franc, c'est c'que j'dirai Y'a pas d'euros qui soient plus vrai J'sais pas ... Le time est en chien Sur l'autographe, j'ai signé Bruno Je n'me reconnais plus dans vos journaux Mec solitaire et ordinaire Qui penche à gauche, comme le Kouchner Pour toutes les races, contre ceux qui chassent Même dans la masse, sont à la masse Je fais la pêche à la tasspèche Quand d'autres prêchent, j'envoie d'la fraîche Si les impôts font mon malheur Comment le fric, la thune, feraient mon bonheur ? Y'a trop d'misère dans le 20 heures Le bruit et l'odeur, et ceux qui meurent Si les nuages veulent dire adieu Sous le soleil, sous sa lumière Doc communique, fait ses prières Sûrement qu'le ciel veut se faire voir Et lui aussi, devenir une star Mes petites filles, ma femme en or Mes déductions pour le Trésor et Public Je paye la dîme et reste digne x3 J'sais pas remplir ma feuille d'impôts Comme j'aime être franc, c'est c'que j'dirai Y'a pas d'euros qui soient plus vrai J'sais pas ...1</t>
+          <t>J'veux pas partir à la retraite J'ai 50 ans mais j'suis toujours de la fête C'est ce que disent les vieux qui portent des baskets J'ai des places en première dans un jumbo-jet J'veux pas lâcher mon poste Ou ma minette me jette Voyages, taxi, resto notes de frais Comité d'entreprises moi c'est ça mon biz Ouais Y'a plus de respect Tous ces jeunes freluquets Ont trop de toupet 'pet Mais moi jamais je partirai J'suis peut-être vieux Mais c'est moi le meilleur Toujours à l'heure en réunion, à l'extérieur J'veux pas vieillir J'veux pas mentir J'veux pas partir dans un dernier soupir J'veux pas vieillir J'veux pas mentir J'veux pas partir dans un dernier soupir Ouais Quand j'étais jeune J'étais la plus belle Avec ma copine Daphnée On se faisait toujours dragué Qu'ont-elles de plus que moi toutes ces petites meufs Emmanuelle, Pamela, Bardot Bimbo seuf J'ai pris de l'âge De la bouteille Miroir miroir, je deviens vieille Oh, j'vais m'refaire les lèvres le nez les seins Tirer la peau Y'a urgence J'suis tombé dans la fontaine de jouvence J'm'en balance J'dépense Pour mon retour en enfance Docteur, passez moi l'ordonnance Beauté physique Mon diagnostic Faire un petit peu D'aérobic Laisse parler ton cur Qu'indique la beauté intérieur J'ai 40 ans mais je veux en paraître 25 Y'a que le ke-Do Qui t'aime pour tes défauts J'veux pas vieillir J'veux pas mentir J'veux pas partir dans un dernier soupir J'veux pas vieillir J'veux pas mentir J'veux pas partir dans un dernier soupir J'fume comme un pompier J'me laisse aller L'alcool faut que j'arrête Je m'abîme la santé J'suis sorti du trou mais je bois comme un trou J'veux vivre à fond, j'appuie sur le champignon J'vis dans l'excès Toutes les drogues que je mixais Sur les années 70 moi je kiffais J'ai des tatouages sur tout mon corps On ne vit qu'une fois alors j'ai pas de remords Peut-être que j' serais le premier vieillard du rap français Qu'il reste au moins mes disques Dans les bacs de la Fnac OK J'veux pas vieillir J'veux pas mentir J'veux pas partir dans un dernier soupir J'veux pas vieillir J'veux pas mentir J'veux pas partir dans un dernier soupir J'veux pas vieillir J'veux pas mentir</t>
         </is>
       </c>
     </row>
@@ -1359,12 +1359,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>La bohème</t>
+          <t>La piscine</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Je vous parle dun temps que les moins de vingt ans ne peuvent pas connaître Montmartre en ce temps-là accrochait ses lilas jusqu'à sous nos fenêtres Et dans lhumble garni, qui nous servait de nid, ne payait pas de mine Cest là quon sest connu, moi qui criait famine et toi qui posais nue x2 La bohème Ça voulait dire on est heureux La bohème Nous ne mangions quun jour sur deux Dans les cafés voisins, nous étions quelques-uns qui attendaient la gloire Et bien que miséreux, avec le ventre creux, nous ne cessions dy croire Et quand quelques bistrots contre un bon repas chaud, nous prenait une toile Nous récitions des vers, groupés autour du poêle, en oubliant lhiver x2 La bohème Ça voulait dire tu es jolie La bohème Et nous avions tous du génie Souvent il marrivait, devant mon chevalet, de passer des nuits blanches Retouchant le dessin, de la ligne dun sein, du galbe dune hanche Et ce nest quau matin quon sasseyait enfin devant un café-crème Épuises mais ravis, fallait-il que l'on saime et quon aime la vie La bohème Ça voulait dire on a vingt ans La bohème Et nous vivions de lair du temps Quand au hasard des jours, on allait faire un tour à mon ancienne adresse Je ne reconnais plus ni les murs, ni les rues qui ont vu ma jeunesse En haut dun escalier, je cherche latelier dont plus rien ne subsiste Dans son nouveau décor, Montmartre semble triste et ses lilas sont morts x2 La bohème On était jeunes, on était fous La bohème Ça ne veut plus rien dire du tout</t>
+          <t>J'ai failli tomber dans la piscine quand je l'ai regardé sourire J'ai failli me noyer dans la piscine quand je l'ai regardé sourire Mon beau, ta peau qui brûle Mon beau, ta peau qui sue Mon beau, ta peau qui crie sous l'effet du bleu fou T'as replongé, mon beau, j'ai succombé trop tôt Mon coeur a coulé sous l'effet du bleu fou Sous l'effet du bleu fou Sous l'effet du bleu fou Sous l'effet du sort Écoute ma complainte, pour celle qui n'ont pas porté plainte Contre la forêt sainte, elle n'est vraiment plus sainte J'ai une carte bleue et sur moi, toujours du plastique La fille veut plus faire des gâteaux Elle veut parler médecine avec Bruno Il fait référence à sa peau Le gynéco guérit tes maux Rocco se dit supérieur Pourtant Clara me dit que je suis meilleur J'ai failli tomber dans la piscine quand je l'ai regardé sourire Eh Bruno, Eh Bruno J'ai failli me noyer dans la piscine quand je l'ai regardé sourire Eh Bruno, Eh Bruno J'avais pas envie de la regarder Mais j'ai quand même succombé Elle et moi, on avait un amour parfait Tout l'été, tout l'été Et je glisse, glisse, Mi Amor Toute la nuit, nuit, dans ton corps On est deux, deux, à avoir tord On est beau, beau Sur ce J'ai failli tomber dans la piscine quand je l'ai regardé sourire Elle m'a dit Bruno pourquoi tu me fais de la peine ? quand tu chantes avec ton coeur c'est là que je t'aime Rien n'a changé C'est le Doc Bruno, le plus populaire Les mots sont simples et le message est clair C'est le Doc Bruno, le plus populaire Les mots sont simples et le message est clair C'est le Doc Bruno, Bruno... J'ai failli tomber dans la piscine quand je l'ai regardé sourire J'ai failli me noyer dans la piscine quand je l'ai regardé sourire J'ai failli tomber dans la piscine quand je l'ai regardé sourire</t>
         </is>
       </c>
     </row>
@@ -1376,12 +1376,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>L’âge Ingrat</t>
+          <t>La poudre aux yeux</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>J'veux pas partir à la retraite J'ai 50 ans mais j'suis toujours de la fête C'est ce que disent les vieux qui portent des baskets J'ai des places en première dans un jumbo-jet J'veux pas lâcher mon poste Ou ma minette me jette Voyages, taxi, resto notes de frais Comité d'entreprises moi c'est ça mon biz Ouais Y'a plus de respect Tous ces jeunes freluquets Ont trop de toupet 'pet Mais moi jamais je partirai J'suis peut-être vieux Mais c'est moi le meilleur Toujours à l'heure en réunion, à l'extérieur J'veux pas vieillir J'veux pas mentir J'veux pas partir dans un dernier soupir J'veux pas vieillir J'veux pas mentir J'veux pas partir dans un dernier soupir Ouais Quand j'étais jeune J'étais la plus belle Avec ma copine Daphnée On se faisait toujours dragué Qu'ont-elles de plus que moi toutes ces petites meufs Emmanuelle, Pamela, Bardot Bimbo seuf J'ai pris de l'âge De la bouteille Miroir miroir, je deviens vieille Oh, j'vais m'refaire les lèvres le nez les seins Tirer la peau Y'a urgence J'suis tombé dans la fontaine de jouvence J'm'en balance J'dépense Pour mon retour en enfance Docteur, passez moi l'ordonnance Beauté physique Mon diagnostic Faire un petit peu D'aérobic Laisse parler ton cur Qu'indique la beauté intérieur J'ai 40 ans mais je veux en paraître 25 Y'a que le ke-Do Qui t'aime pour tes défauts J'veux pas vieillir J'veux pas mentir J'veux pas partir dans un dernier soupir J'veux pas vieillir J'veux pas mentir J'veux pas partir dans un dernier soupir J'fume comme un pompier J'me laisse aller L'alcool faut que j'arrête Je m'abîme la santé J'suis sorti du trou mais je bois comme un trou J'veux vivre à fond, j'appuie sur le champignon J'vis dans l'excès Toutes les drogues que je mixais Sur les années 70 moi je kiffais J'ai des tatouages sur tout mon corps On ne vit qu'une fois alors j'ai pas de remords Peut-être que j' serais le premier vieillard du rap français Qu'il reste au moins mes disques Dans les bacs de la Fnac OK J'veux pas vieillir J'veux pas mentir J'veux pas partir dans un dernier soupir J'veux pas vieillir J'veux pas mentir J'veux pas partir dans un dernier soupir J'veux pas vieillir J'veux pas mentir</t>
+          <t>La poudre aux yeux, t'as vu le film en noir et blanc Une star de feu à la peau noire Don't worry, be happy et le temps s'écoule Un sombre héros, reprendre à zéro Sur ma feuille blanche, c'est la lumière C'est m'accrocher à la Terre Mère The paradise, sous ma feuille blanche Il y a une femme et je t'écris depuis ses hanches C'est un message à retardement Un texte mouillé, une victoire de plus Oui c'est la femme ma seule valeur Dans la lumière, il faut qu'je pleure x2 Trop d'yeux d'Amérique sont dans la poudre The paradise sur ma feuille blanche Parler des femelles, parler des rebelles Eh oui sans cesse, parler d'elles Et parler fesse, c'est naturel Or, je suis caramel Dans le trou noir, je sens ses dents Dans les profondeurs de l'arrière-pensée Et dans l'fond j'en suis conscient Et ça dépend comment tu l'entends Faire l'amour avec le mythe C'est respecter le rituel Et l'intérieur, vu d'extérieur C'est nécessaire aux yeux des surs Aimé de toutes, my God C'est une femme qui viendra nous sauver Je cherche partout les filles, et les blancs d'yeux qui brillent What she can do ? Lil de la tigresse, une caresse qui ne rabaisse Que les machos que je blesse x3 Trop d'yeux d'Amérique sont dans la poudre The paradise sur ma feuille blanche Je désire aimer, être aimer Je veux m'extraire de ce monde d'hommes Ce monde étroit comme un rectum Tout le monde est ravi, trop d'avis, d'envie, de jalousie Et on survie, à se retrouver la tête baissée Filmer tes pieds, lécher tes cuisses Je suis le langage rap français Production Virgin, S.A.R.L. au capital universel J'ai les chaussures pour te faire la cour S'il y a un temps pour Je ne suis qu'un enfant, un mulâtre en plein jeu Le hasard m'a fait star, étoile de feu Je pense en français C'est tout c'que je sais, mais ça j'le sais</t>
         </is>
       </c>
     </row>
@@ -1393,12 +1393,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>La piscine</t>
+          <t>La vérité</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>J'ai failli tomber dans la piscine quand je l'ai regardé sourire J'ai failli me noyer dans la piscine quand je l'ai regardé sourire Mon beau, ta peau qui brûle Mon beau, ta peau qui sue Mon beau, ta peau qui crie sous l'effet du bleu fou T'as replongé, mon beau, j'ai succombé trop tôt Mon coeur a coulé sous l'effet du bleu fou Sous l'effet du bleu fou Sous l'effet du bleu fou Sous l'effet du sort Écoute ma complainte, pour celle qui n'ont pas porté plainte Contre la forêt sainte, elle n'est vraiment plus sainte J'ai une carte bleue et sur moi, toujours du plastique La fille veut plus faire des gâteaux Elle veut parler médecine avec Bruno Il fait référence à sa peau Le gynéco guérit tes maux Rocco se dit supérieur Pourtant Clara me dit que je suis meilleur J'ai failli tomber dans la piscine quand je l'ai regardé sourire Eh Bruno, Eh Bruno J'ai failli me noyer dans la piscine quand je l'ai regardé sourire Eh Bruno, Eh Bruno J'avais pas envie de la regarder Mais j'ai quand même succombé Elle et moi, on avait un amour parfait Tout l'été, tout l'été Et je glisse, glisse, Mi Amor Toute la nuit, nuit, dans ton corps On est deux, deux, à avoir tord On est beau, beau Sur ce J'ai failli tomber dans la piscine quand je l'ai regardé sourire Elle m'a dit Bruno pourquoi tu me fais de la peine ? quand tu chantes avec ton coeur c'est là que je t'aime Rien n'a changé C'est le Doc Bruno, le plus populaire Les mots sont simples et le message est clair C'est le Doc Bruno, le plus populaire Les mots sont simples et le message est clair C'est le Doc Bruno, Bruno... J'ai failli tomber dans la piscine quand je l'ai regardé sourire J'ai failli me noyer dans la piscine quand je l'ai regardé sourire J'ai failli tomber dans la piscine quand je l'ai regardé sourire</t>
+          <t>A reality, it's a big tune A big Dis l'heure 2 ragga Come on La tête penchée sur le côté, ça fait dix ans qu'j'suis coté J'parle au ralenti et mes cheveux ont beaucoup poussé J'ai un peu grossi parce que j'ai arrêté d'fumer J'ai deux-cent taspettes et cinquante unités Girlie Je t'ai promis que je reviendrai Girlie Je te garantis de l'amour, du vrai Reconnais-tu ma voix et est-ce que ça l'fait? ouais, ouais De la rue, d'mon toupet me vienne mon succès J'ai connu des galères avec des faux gangsters Dans ma carrière je suis le plus impliqué Toutes mes chansons sont radiodiffusées C'est moi qui dors à la télé-réalité C'est ma vérité, rien que ma vérité Je te garantis de l'amour, du vrai C'est pas programmé, c'est la réalité C'est ma vérité, rien que ma vérité Je t'ai promis que je reviendrai C'est pas programmé, c'est la réalité Je suis celui qui les rend folles Depuis qu'elles m'ont vu dans Nice Popol J'ai une marionnette dans les Guignols Dans les cours de récré on s'échange mon CD Dans les banlieues et les cités créoles Tu peux me voir sur la parabole C'est ma vérité, rien que ma vérité Je te garantis de l'amour, du vrai C'est pas programmé, c'est la réalité C'est ma vérité, rien que ma vérité Je t'ai promis que je reviendrai C'est pas programmé, c'est la réalité Sautez Dimi Donkya Doc Gynéco Sautez bien real man I take it higha Dancehall et ragga, vas-y dis-leur Reggae style Dancehall et ragga, vas-y dis-leur Fiesta, fiesta forever Celui qui s'bat contre le méchant rappeur Avec mon épée je lui transperce le cur Comme le héros à la fin du film J'embrasse la fille à la fin du clip C'est ma vérité, rien que ma vérité C'est pas programmé, c'est la réalité C'est ma vérité, rien que ma vérité Je t'ai promis que je reviendrai C'est pas programmé, c'est la réalité Je te garantis de l'amour, du vrai Sautez Sautez Sautez, sautez, sautez Sautez Dancehall et ragga, vas-y dis-leur Reggae style Dancehall et ragga, vas-y dis-leur Fiesta, fiesta forever Toc toc toc mais tu sais c'est qui là? C'est le Doc Doc Doc, le ragga killa Toc toc toc mais tu sais c'est qui là? C'est le Doc Doc Doc, le ragga killa Dis l'heure 2 ragga Yeah man</t>
         </is>
       </c>
     </row>
@@ -1410,12 +1410,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>La poudre aux yeux</t>
+          <t>Le mec en vogue</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>La poudre aux yeux, t'as vu le film en noir et blanc Une star de feu à la peau noire Don't worry, be happy et le temps s'écoule Un sombre héros, reprendre à zéro Sur ma feuille blanche, c'est la lumière C'est m'accrocher à la Terre Mère The paradise, sous ma feuille blanche Il y a une femme et je t'écris depuis ses hanches C'est un message à retardement Un texte mouillé, une victoire de plus Oui c'est la femme ma seule valeur Dans la lumière, il faut qu'je pleure x2 Trop d'yeux d'Amérique sont dans la poudre The paradise sur ma feuille blanche Parler des femelles, parler des rebelles Eh oui sans cesse, parler d'elles Et parler fesse, c'est naturel Or, je suis caramel Dans le trou noir, je sens ses dents Dans les profondeurs de l'arrière-pensée Et dans l'fond j'en suis conscient Et ça dépend comment tu l'entends Faire l'amour avec le mythe C'est respecter le rituel Et l'intérieur, vu d'extérieur C'est nécessaire aux yeux des surs Aimé de toutes, my God C'est une femme qui viendra nous sauver Je cherche partout les filles, et les blancs d'yeux qui brillent What she can do ? Lil de la tigresse, une caresse qui ne rabaisse Que les machos que je blesse x3 Trop d'yeux d'Amérique sont dans la poudre The paradise sur ma feuille blanche Je désire aimer, être aimer Je veux m'extraire de ce monde d'hommes Ce monde étroit comme un rectum Tout le monde est ravi, trop d'avis, d'envie, de jalousie Et on survie, à se retrouver la tête baissée Filmer tes pieds, lécher tes cuisses Je suis le langage rap français Production Virgin, S.A.R.L. au capital universel J'ai les chaussures pour te faire la cour S'il y a un temps pour Je ne suis qu'un enfant, un mulâtre en plein jeu Le hasard m'a fait star, étoile de feu Je pense en français C'est tout c'que je sais, mais ça j'le sais</t>
+          <t>Un moteur à leau, pas au pétrole Lindustrie veut méliminer ! Ce titre vaut plus cher que de lalcool Il fait chaud, dans le quartier à Gynéco Sur tous les visages les grandes et petites lèvres sont mouillées Les vilains eux ? Sont de plus en plus lèges qui lèchent à toujours la taspèche La marchande de glace, qui passe, avec ses Häagen-Dazs Me propose une boule cassis Mais moi ce que je veux cest de l'anis Cest le parfum que je préfère, quel délice Jadore quand ça glisse, jadore quand cest lisse Mec tas trop de vice Ragnagnas Teuch avec ou sans les règles je ne regarde jamais les dates Et moi je tape ! Tape ! Joue avec ton agate Et moi, je men tape ! Tape ! Ce que jveux, cest que jkiffe Exacte ! Certaines prennent de la drogue Moi je mange mes Kelloggs Jai autant de force dans la langue quun coup droit de Mr Borg Doc gynécologue tu te prends pour Snoop Doggy Dogg Elle ou jalouse Marie-Claire Jsuis le mec en gue-vo, le mec en vogue Elle ou jalouse Marie-Claire Jsuis le mec en gue-vo, le mec en vogue Vais-je la voler ou vais-je lacheter ? Ragnagnas Je lai pécho, je lai léchée Vous me connaissez je nai pas pu men empêcher Ragnagnas Il la pécho, il la léchée On le connaît il na pas pu sen empêcher Ragnagnas Oui je lai volée ! Oui je lai léchée Malgré quelle ma dit, ma dit cest une glace aux ragnagnas Tant pis Jla lèche, ça me donne la pêche Jla lèche jusquà ce que ma langue sassèche Doc gynécolangue ne lèche plus du tangue Doc gynécologue fait parti du gang bang langue Elle ou jalouse Marie-Claire Jsuis le mec en gue-vo, le mec en vogue Elle ou jalouse Marie-Claire Jsuis le mec en gue-vo, le mec en vogue Si Doc gynécologue vogue sur les femmes Cest parce que des fois il a le vogue à lâme A force de jouer à lhomme plein de charme Elles mont grillé, maintenant elles me crament Ces dames me matent et me mettent en échec Car au lieu du restaurant, je les emmène au grec Frites et mes salades ne passent pas Le Trianon pour moi cest le cinéma Je perd la côte mais reste à la hausse Valeur sure, elles sont sures que jassure Tous risques, elles écoutent mes disques Dautres bisquent ! Bisquent ! Ragent ! Ils ont la rage et me lenvoient sur Alphapage Elles maiment autant que les Pogues Simplement parce que je suis le mec en vogue En vogue, en vogue, en vogue Elle est jalouse, pourtant je suis un mari clair Elle est jalouse, parce que elle a envie de le faire La jalouse Elle est jalouse, pourtant je suis un mari clair Elle est jalouse, parce que elle a envie de le faire La jalouse1</t>
         </is>
       </c>
     </row>
@@ -1427,12 +1427,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>La vérité</t>
+          <t>Les censeurs</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>A reality, it's a big tune A big Dis l'heure 2 ragga Come on La tête penchée sur le côté, ça fait dix ans qu'j'suis coté J'parle au ralenti et mes cheveux ont beaucoup poussé J'ai un peu grossi parce que j'ai arrêté d'fumer J'ai deux-cent taspettes et cinquante unités Girlie Je t'ai promis que je reviendrai Girlie Je te garantis de l'amour, du vrai Reconnais-tu ma voix et est-ce que ça l'fait? ouais, ouais De la rue, d'mon toupet me vienne mon succès J'ai connu des galères avec des faux gangsters Dans ma carrière je suis le plus impliqué Toutes mes chansons sont radiodiffusées C'est moi qui dors à la télé-réalité C'est ma vérité, rien que ma vérité Je te garantis de l'amour, du vrai C'est pas programmé, c'est la réalité C'est ma vérité, rien que ma vérité Je t'ai promis que je reviendrai C'est pas programmé, c'est la réalité Je suis celui qui les rend folles Depuis qu'elles m'ont vu dans Nice Popol J'ai une marionnette dans les Guignols Dans les cours de récré on s'échange mon CD Dans les banlieues et les cités créoles Tu peux me voir sur la parabole C'est ma vérité, rien que ma vérité Je te garantis de l'amour, du vrai C'est pas programmé, c'est la réalité C'est ma vérité, rien que ma vérité Je t'ai promis que je reviendrai C'est pas programmé, c'est la réalité Sautez Dimi Donkya Doc Gynéco Sautez bien real man I take it higha Dancehall et ragga, vas-y dis-leur Reggae style Dancehall et ragga, vas-y dis-leur Fiesta, fiesta forever Celui qui s'bat contre le méchant rappeur Avec mon épée je lui transperce le cur Comme le héros à la fin du film J'embrasse la fille à la fin du clip C'est ma vérité, rien que ma vérité C'est pas programmé, c'est la réalité C'est ma vérité, rien que ma vérité Je t'ai promis que je reviendrai C'est pas programmé, c'est la réalité Je te garantis de l'amour, du vrai Sautez Sautez Sautez, sautez, sautez Sautez Dancehall et ragga, vas-y dis-leur Reggae style Dancehall et ragga, vas-y dis-leur Fiesta, fiesta forever Toc toc toc mais tu sais c'est qui là? C'est le Doc Doc Doc, le ragga killa Toc toc toc mais tu sais c'est qui là? C'est le Doc Doc Doc, le ragga killa Dis l'heure 2 ragga Yeah man</t>
+          <t>Les variétés ne sont pas variées À la télé toujours le même ciné Mon dessiné animé comme point de repère Entrecoupé par les messages publicitaires Café Grand-Mère et soins dentaires Il faut bien vivre, a dit l'animateur Faut suivre les infos à treize heures et vingt heures Tous les journaux ont la même première page Les Échos disent que la guerre des chaînes fait rage C'est pas varié, j'ai beau zapper Le même programme sur toutes les chaînes est programmé Messieurs les censeurs, bonsoir Faut pas m'en vouloir, je fais mon devoir Je vais m'asseoir et lire un livre ce soir J'aimerais savoir lire Dans tes pensées Entre tes lignes Ça fait rêver Supermarché, les rayons c'est pas varié Toujours les mêmes produits, j'ai déjà tout goûté Y a qu'l'emballage qui change et la couleur, j'ai d'jà donné D'la quantité sans qualité Vache folle et produits avariés Faut regarder la date avant d'acheter La direction veut bien encaisser Mais si tu tombes malade, elle niera toute responsabilité Des millions d'Français devant leur assiette Quelques millions d'Français devant ce casse-tête Malbouffe, OGM, je deviens ouf Messieurs les censeurs, bonsoir Faut pas m'en vouloir, je fais mon devoir Je vais cuisiner et manger bio ce soir J'aimerais savoir lire Dans tes pensées Entre tes lignes Ça fait rêver Rien n'a changé, y a plus de consommateurs Cinquante millions d'auditeurs, de téléspectateurs Monsieur l'censeur, mets mon CD dans ton lecteur Bruno alias Doc Gynéco J'parle au public sur un son typique Salsa des Îles Vierges et poétique Viens, viens, viens chez moi Il y a des noix d'coco Et du rhum à gogo Messieurs les censeurs, bonsoir Faut pas m'en vouloir, je fais mon devoir Je fais mon devoir J'aimerais savoir lire Dans tes pensées Entre tes lignes Ça fait rêver</t>
         </is>
       </c>
     </row>
@@ -1444,12 +1444,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Le mec en vogue</t>
+          <t>Les même droits</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Un moteur à leau, pas au pétrole Lindustrie veut méliminer ! Ce titre vaut plus cher que de lalcool Il fait chaud, dans le quartier à Gynéco Sur tous les visages les grandes et petites lèvres sont mouillées Les vilains eux ? Sont de plus en plus lèges qui lèchent à toujours la taspèche La marchande de glace, qui passe, avec ses Häagen-Dazs Me propose une boule cassis Mais moi ce que je veux cest de l'anis Cest le parfum que je préfère, quel délice Jadore quand ça glisse, jadore quand cest lisse Mec tas trop de vice Ragnagnas Teuch avec ou sans les règles je ne regarde jamais les dates Et moi je tape ! Tape ! Joue avec ton agate Et moi, je men tape ! Tape ! Ce que jveux, cest que jkiffe Exacte ! Certaines prennent de la drogue Moi je mange mes Kelloggs Jai autant de force dans la langue quun coup droit de Mr Borg Doc gynécologue tu te prends pour Snoop Doggy Dogg Elle ou jalouse Marie-Claire Jsuis le mec en gue-vo, le mec en vogue Elle ou jalouse Marie-Claire Jsuis le mec en gue-vo, le mec en vogue Vais-je la voler ou vais-je lacheter ? Ragnagnas Je lai pécho, je lai léchée Vous me connaissez je nai pas pu men empêcher Ragnagnas Il la pécho, il la léchée On le connaît il na pas pu sen empêcher Ragnagnas Oui je lai volée ! Oui je lai léchée Malgré quelle ma dit, ma dit cest une glace aux ragnagnas Tant pis Jla lèche, ça me donne la pêche Jla lèche jusquà ce que ma langue sassèche Doc gynécolangue ne lèche plus du tangue Doc gynécologue fait parti du gang bang langue Elle ou jalouse Marie-Claire Jsuis le mec en gue-vo, le mec en vogue Elle ou jalouse Marie-Claire Jsuis le mec en gue-vo, le mec en vogue Si Doc gynécologue vogue sur les femmes Cest parce que des fois il a le vogue à lâme A force de jouer à lhomme plein de charme Elles mont grillé, maintenant elles me crament Ces dames me matent et me mettent en échec Car au lieu du restaurant, je les emmène au grec Frites et mes salades ne passent pas Le Trianon pour moi cest le cinéma Je perd la côte mais reste à la hausse Valeur sure, elles sont sures que jassure Tous risques, elles écoutent mes disques Dautres bisquent ! Bisquent ! Ragent ! Ils ont la rage et me lenvoient sur Alphapage Elles maiment autant que les Pogues Simplement parce que je suis le mec en vogue En vogue, en vogue, en vogue Elle est jalouse, pourtant je suis un mari clair Elle est jalouse, parce que elle a envie de le faire La jalouse Elle est jalouse, pourtant je suis un mari clair Elle est jalouse, parce que elle a envie de le faire La jalouse1</t>
+          <t>Ärsenik, Doc Gynéco, MC Janik Tch tch Combien d'temps On va nous bluffer J'préfère faire ma loi pour avoir le droit Le droit d'casser des gueules dans l'allée du roi Ouvrir des portes aux potes, faire péter des parois Jésus sauveur descend d'sa croix, vient bénir ma rée-soi Lord have mercy Police, sexe tass', 8-6 roule haya La misère est mon vice miss, je suis faya Mon son c'est d'l'immigration L'insécurité sur les ondes de la nation Passe-moi le mic, fuck et suck my dick Choisis ton camp, viens danser typique Vex', complexe, infériorité Sexe, confort, sécurité Rhum Kenneth et des bombes pètent Marianne paye ses dettes façon Luc Reinette J'vois qu'on a tous un truc à faire Le fouet, le fer j'ai su m'y faire Combien d'temps ils vont tester ma résistance MC Janik Me dire de rester gentil, de garder patience Ärsenik Longtemps que notre musique chante ça Doc Gynéco Pour tout l'monde les mêmes droits les mêmes droits Combien d'temps ils vont tester ma résistance et tu l'sais Me dire de rester gentil, de garder patience Longtemps que notre musique chante ça écoute ça Pour tout l'monde les mêmes droits J'ai plus l'droit d'rien faire, même pas l'droit à m'taire J'erre dans ma tess, perds mon temps et j'pé-ra assis dans mon XXX Ça l'fait pas putain, je perds patience quand j'flaire un bon coup d'bière Dans les mêmes galères, de-mer tout-par Au quart de tour l'coup part De n'importe où, tous partent Couche-tard, ils errent dans les couloirs Combien d'temps ils vont nous tester Combien vont nous rester Empester les ondes, tous nous molester Ärsenik sur les Liaisons contre les gros bonnets vient se dresser Y a trop longtemps que notre musique té-chan ça Y a trop d'enfants victimes des pulsions d'un vieux dique-sa Dis ça à tous tes soss' préparez la rébellion Nique ça avec force laisse-les, c'est ces millions Le texte de loi XXX pays du droit Parigot dangerous tu peux te mettre un doigt Tes blablas, chez moi personne n'y croit Combien d'temps ils vont tester ma résistance Me dire de rester gentil, de garder patience MC Janik Longtemps que notre musique chante ça écoute ça Pour tout l'monde les mêmes droits les mêmes droits Combien d'temps ils vont tester ma résistance et tu l'sais Me dire de rester gentil, de garder patience C.A.L.B.O Longtemps que notre musique chante ça Doc Gynéco Pour tout l'monde les mêmes droits tch tch Combien d'temps ils vont tester ma résistance Me dire de rester gentil, de garder patience Que si je suis sage, un jour j'aurai la chance D'entrer dans la danse Mais maintenant J'ai les yeux ouverts et j'ai conscience Que plus le temps passe, plus il faut que j'avance Pas rester à espérer qu'ils me laissent une chance Pour progresser dans l'existence Longtemps... que notre musique chante ça Pour tout l'monde les mêmes droits Et jusqu'à quand ils vont nous dire de rester gentils Pour avoir demain c'qu'on n'a pas aujourd'hui À ceux qui étaient avant nous, ils avaient dit La même chose, aujourd'hui ils ont des ennuis, seulement MC Janik, C.A.L.B.O, les mêmes droits Combien d'temps ils vont tester ma résistance Me dire de rester gentil, de garder patience Longtemps que notre musique chante ça Pour tout l'monde les mêmes droits les mêmes droits Combien d'temps ils vont tester ma résistance Me dire de rester gentil, de garder patience Longtemps que notre musique chante ça trop longtemps Pour tout l'monde les mêmes droits les mêmes droits Combien d'temps ils vont tester ma résistance et tu l'sais Me dire de rester gentil, de garder patience écoute ça Longtemps que notre musique chante ça Ärsenik Pour tout l'monde les mêmes droits Combien d'temps ils vont tester ma résistance Me dire de rester gentil, de garder patience Longtemps que notre musique chante ça Pour tout l'monde les mêmes droits</t>
         </is>
       </c>
     </row>
@@ -1461,12 +1461,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Les censeurs</t>
+          <t>Le temps passe</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Les variétés ne sont pas variées À la télé toujours le même ciné Mon dessiné animé comme point de repère Entrecoupé par les messages publicitaires Café Grand-Mère et soins dentaires Il faut bien vivre, a dit l'animateur Faut suivre les infos à treize heures et vingt heures Tous les journaux ont la même première page Les Échos disent que la guerre des chaînes fait rage C'est pas varié, j'ai beau zapper Le même programme sur toutes les chaînes est programmé Messieurs les censeurs, bonsoir Faut pas m'en vouloir, je fais mon devoir Je vais m'asseoir et lire un livre ce soir J'aimerais savoir lire Dans tes pensées Entre tes lignes Ça fait rêver Supermarché, les rayons c'est pas varié Toujours les mêmes produits, j'ai déjà tout goûté Y a qu'l'emballage qui change et la couleur, j'ai d'jà donné D'la quantité sans qualité Vache folle et produits avariés Faut regarder la date avant d'acheter La direction veut bien encaisser Mais si tu tombes malade, elle niera toute responsabilité Des millions d'Français devant leur assiette Quelques millions d'Français devant ce casse-tête Malbouffe, OGM, je deviens ouf Messieurs les censeurs, bonsoir Faut pas m'en vouloir, je fais mon devoir Je vais cuisiner et manger bio ce soir J'aimerais savoir lire Dans tes pensées Entre tes lignes Ça fait rêver Rien n'a changé, y a plus de consommateurs Cinquante millions d'auditeurs, de téléspectateurs Monsieur l'censeur, mets mon CD dans ton lecteur Bruno alias Doc Gynéco J'parle au public sur un son typique Salsa des Îles Vierges et poétique Viens, viens, viens chez moi Il y a des noix d'coco Et du rhum à gogo Messieurs les censeurs, bonsoir Faut pas m'en vouloir, je fais mon devoir Je fais mon devoir J'aimerais savoir lire Dans tes pensées Entre tes lignes Ça fait rêver</t>
+          <t>Mes baskets blanches, mes locks l'encre a coulé comme les 3 Rivières Au fond des blocs, enfants des îles fils d'une classe ouvrière L'idole des jeunes, Doc restera le même De Porte de la Chapelle, aux ondes hertziennes A l'heure où le monde se bouscule Je repasse ma vie à l'envers J'en ai fait des rêves, des calculs J'ai jamais voulu vraiment me laisser faire Refrain Jamais, jamais... jamais, jamais Et le temps passe, non je ne regrette rien Non rien de rien, je ne regrette rien Rien ne s'efface, mon destin me ressemble bien Nos rêves, nos poings ont guidé nos refrains Et le temps passe, pourtant, je ne regrette rien Non rien de rien, je ne regrette rien La moindre trace, je l'ai bâtie de mes mains Mes rêves, nos poings, ont guidé nos destins Mes baskets blanche, mon RER l'encre a coulé dans ma carrière À temps plein, viser le haut contemple mon temple est légendaire Mon air AMER, mon teint mes rêves sont restés les mêmes J'ai tant porté le flambeau représenté l'honneur des miens Mes baskets blanches ma grande gueule de l'encre sur les mains Mon stylo était meurtri coupable ennemi numéro 1 Entre merde et pertes blanches j'ai le goût pour la revanche Boxeur, breakeur, rappeur, acteur attitude franche J'ai chanté les Hommes, leurs désirs Les destins fragiles et l'amour Je suis né dans la rue On a voulu que j' tombe sur place Moi, j'ai souvent fait face Et je combats toujours Le combat continue Jamais, jamais... jamais, jamais Et le temps passe, non je ne regrette rien Non rien de rien, je ne regrette rien Rien ne s'efface, mon destin me ressemble bien Nos rêves, nos poings ont guidé nos refrains Et le temps passe, pourtant, je ne regrette rien Non rien de rien, je ne regrette rien La moindre trace, je l'ai bâtie de mes mains Mes rêves, nos poings, ont guidé nos destins Dis l'heure de Hip Hop Rock des burnes dans le froc Fusion guitares et pe-ra pour civils et colboques Ministère, Johnny aussi burnés qu'un keuf sous Sarkozy Liberté dans ma musique et l'savoir comme Uzi Baskets blanches et blousons noirs génération, manque d'espoir Exempté de conneries que ce gardien me foute la paix Lascars abandonnés j'ai le rêve des cités dortoirs Mon rap tout-terrain mon R.T.T, c'est ça qui est la vérité L'être humain porte en lui le meilleur Ouais Je sens encore le poids de mes erreurs De mes erreurs Ouais Le pire a si souvent été là La peine guidait mes pas Mais je la garde au fond de moi Jusqu'au dernier souffle Jamais, jamais... jamais, jamais Et le temps passe, non je ne regrette rien Non rien de rien, je ne regrette rien Rien ne s'efface, mon destin me ressemble bien Nos rêves, nos poings ont guidé nos refrains Et le temps passe, pourtant, je ne regrette rien Non rien de rien, je ne regrette rien La moindre trace, je l'ai bâtie de mes mains Mes rêves, nos poings, ont guidé nos destins Ministère A.M.E.R Johnny Hallyday et ouais, ça le fait Dis l'heure 2 Hip Hop Rock Mon rock est sombre, mon rap est profond Sex comme une langue sur un téton Dur comme les blocs de béton Yeah, dis l'heure 2 Hip Hop Dis l'heure 2 Hip Hop Rock</t>
         </is>
       </c>
     </row>
@@ -1478,12 +1478,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Les même droits</t>
+          <t>L’homme qui ne valait pas dix centimes</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Ärsenik, Doc Gynéco, MC Janik Tch tch Combien d'temps On va nous bluffer J'préfère faire ma loi pour avoir le droit Le droit d'casser des gueules dans l'allée du roi Ouvrir des portes aux potes, faire péter des parois Jésus sauveur descend d'sa croix, vient bénir ma rée-soi Lord have mercy Police, sexe tass', 8-6 roule haya La misère est mon vice miss, je suis faya Mon son c'est d'l'immigration L'insécurité sur les ondes de la nation Passe-moi le mic, fuck et suck my dick Choisis ton camp, viens danser typique Vex', complexe, infériorité Sexe, confort, sécurité Rhum Kenneth et des bombes pètent Marianne paye ses dettes façon Luc Reinette J'vois qu'on a tous un truc à faire Le fouet, le fer j'ai su m'y faire Combien d'temps ils vont tester ma résistance MC Janik Me dire de rester gentil, de garder patience Ärsenik Longtemps que notre musique chante ça Doc Gynéco Pour tout l'monde les mêmes droits les mêmes droits Combien d'temps ils vont tester ma résistance et tu l'sais Me dire de rester gentil, de garder patience Longtemps que notre musique chante ça écoute ça Pour tout l'monde les mêmes droits J'ai plus l'droit d'rien faire, même pas l'droit à m'taire J'erre dans ma tess, perds mon temps et j'pé-ra assis dans mon XXX Ça l'fait pas putain, je perds patience quand j'flaire un bon coup d'bière Dans les mêmes galères, de-mer tout-par Au quart de tour l'coup part De n'importe où, tous partent Couche-tard, ils errent dans les couloirs Combien d'temps ils vont nous tester Combien vont nous rester Empester les ondes, tous nous molester Ärsenik sur les Liaisons contre les gros bonnets vient se dresser Y a trop longtemps que notre musique té-chan ça Y a trop d'enfants victimes des pulsions d'un vieux dique-sa Dis ça à tous tes soss' préparez la rébellion Nique ça avec force laisse-les, c'est ces millions Le texte de loi XXX pays du droit Parigot dangerous tu peux te mettre un doigt Tes blablas, chez moi personne n'y croit Combien d'temps ils vont tester ma résistance Me dire de rester gentil, de garder patience MC Janik Longtemps que notre musique chante ça écoute ça Pour tout l'monde les mêmes droits les mêmes droits Combien d'temps ils vont tester ma résistance et tu l'sais Me dire de rester gentil, de garder patience C.A.L.B.O Longtemps que notre musique chante ça Doc Gynéco Pour tout l'monde les mêmes droits tch tch Combien d'temps ils vont tester ma résistance Me dire de rester gentil, de garder patience Que si je suis sage, un jour j'aurai la chance D'entrer dans la danse Mais maintenant J'ai les yeux ouverts et j'ai conscience Que plus le temps passe, plus il faut que j'avance Pas rester à espérer qu'ils me laissent une chance Pour progresser dans l'existence Longtemps... que notre musique chante ça Pour tout l'monde les mêmes droits Et jusqu'à quand ils vont nous dire de rester gentils Pour avoir demain c'qu'on n'a pas aujourd'hui À ceux qui étaient avant nous, ils avaient dit La même chose, aujourd'hui ils ont des ennuis, seulement MC Janik, C.A.L.B.O, les mêmes droits Combien d'temps ils vont tester ma résistance Me dire de rester gentil, de garder patience Longtemps que notre musique chante ça Pour tout l'monde les mêmes droits les mêmes droits Combien d'temps ils vont tester ma résistance Me dire de rester gentil, de garder patience Longtemps que notre musique chante ça trop longtemps Pour tout l'monde les mêmes droits les mêmes droits Combien d'temps ils vont tester ma résistance et tu l'sais Me dire de rester gentil, de garder patience écoute ça Longtemps que notre musique chante ça Ärsenik Pour tout l'monde les mêmes droits Combien d'temps ils vont tester ma résistance Me dire de rester gentil, de garder patience Longtemps que notre musique chante ça Pour tout l'monde les mêmes droits</t>
+          <t>Liaisons dangerous Doc Gyneco Si tu savais ce qu'ils pensent des gens de couleur, ma sur ! Y'a pas de fleurs dans mon malheur Pour t'en offrir, je me fais rappeur Pourquoi subir tel un cireur de chaussures ? Pour m'en sortir, je suis conteur de mésaventures Un mec à la recherche d'une femme pure Qui se la raconte pas et qui a de l'allure, c'est sûr Et si toutes les meufs étaient carrées comme Mariah Je fumerais moins, je boirais moins de Bavaria Je combattrais la peste, la malaria J'aurais la Foi comme Mère Teresa Toutes ces promesses gravées sur le cercueil de Lady Di Comme à Dallas pour Kennedy Vous m'aurez pas, j'ai un holster sous mon Teddy Le Pape endort la masse avec des promesses à la messe Laisse, j'encaisse... Vamos todos juntos ! Que la guerra va a empezar La guerra empezará Como Zapata lo diría Hacer la revolución La victoria reinará Reinará Et si, pour percer, bercer les gens de bonne musique Faut signer sur des labels qui ne pensent qu'au fric Je le fais, et si je pouvais je ferais les pubs Qui vont avec les tubes et tu comprendrais comment on t'entube Demande à Virgin si j'ai des copines dans la machine Elle, elle a changé le cours de ma vie C'est des sadiques Je veux le contrôle de mes clips, de ma musique Fonce-dé mais pas te-bê Je suis pas la poule aux disques d'or ni le presse-billet Un coup de rhum vieux et je m'arrache si Dieu le veut J'en ai 23 et Il a des projets pour moi J'ai pas raison de vouloir faire les Liaisons ? Ou t'as peur qu'enfin arrive notre saison ? T'es qu'une balance, un mec comme toi peut suffire A faire sauter tout ce qu'on veut créer, notre empire Vamos todos juntos ! Que la guerra va a empezar La guerra empezará Como Zapata lo diría Hacer la revolución La victoria reinará Reinará Sortir de la musique comme j'y suis entré, libre Reprendre les livraisons lorsque mon bippeur vibre On déclare ce jeune branleur ivre révolutionnaire Avec le recul, la vérité a dû leur plaire Ils parlent de moi en exemplaire Ils disent que je suis fou Que dans la vie, j'ai fait mon trou Pas besoin de grimper dans leur estime Moi je suis l'homme qui ne valait pas dix centimes Y'a que les morts qui parlent pas Un dernier skeud avant qu'on me fasse sauter le pas Quoi qu'il arrive sur la planète Terre Dans le monde des affaires, le rap, les ministères C'est toujours un gangster qui contrôle l'affaire x2 Vamos todos juntos ! Que la guerra va a empezar La guerra empezará Como Zapata lo diría Hacer la revolución La victoria reinará Reinará</t>
         </is>
       </c>
     </row>
@@ -1495,12 +1495,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Le temps passe</t>
+          <t>Ma Bourgeoise</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Mes baskets blanches, mes locks l'encre a coulé comme les 3 Rivières Au fond des blocs, enfants des îles fils d'une classe ouvrière L'idole des jeunes, Doc restera le même De Porte de la Chapelle, aux ondes hertziennes A l'heure où le monde se bouscule Je repasse ma vie à l'envers J'en ai fait des rêves, des calculs J'ai jamais voulu vraiment me laisser faire Refrain Jamais, jamais... jamais, jamais Et le temps passe, non je ne regrette rien Non rien de rien, je ne regrette rien Rien ne s'efface, mon destin me ressemble bien Nos rêves, nos poings ont guidé nos refrains Et le temps passe, pourtant, je ne regrette rien Non rien de rien, je ne regrette rien La moindre trace, je l'ai bâtie de mes mains Mes rêves, nos poings, ont guidé nos destins Mes baskets blanche, mon RER l'encre a coulé dans ma carrière À temps plein, viser le haut contemple mon temple est légendaire Mon air AMER, mon teint mes rêves sont restés les mêmes J'ai tant porté le flambeau représenté l'honneur des miens Mes baskets blanches ma grande gueule de l'encre sur les mains Mon stylo était meurtri coupable ennemi numéro 1 Entre merde et pertes blanches j'ai le goût pour la revanche Boxeur, breakeur, rappeur, acteur attitude franche J'ai chanté les Hommes, leurs désirs Les destins fragiles et l'amour Je suis né dans la rue On a voulu que j' tombe sur place Moi, j'ai souvent fait face Et je combats toujours Le combat continue Jamais, jamais... jamais, jamais Et le temps passe, non je ne regrette rien Non rien de rien, je ne regrette rien Rien ne s'efface, mon destin me ressemble bien Nos rêves, nos poings ont guidé nos refrains Et le temps passe, pourtant, je ne regrette rien Non rien de rien, je ne regrette rien La moindre trace, je l'ai bâtie de mes mains Mes rêves, nos poings, ont guidé nos destins Dis l'heure de Hip Hop Rock des burnes dans le froc Fusion guitares et pe-ra pour civils et colboques Ministère, Johnny aussi burnés qu'un keuf sous Sarkozy Liberté dans ma musique et l'savoir comme Uzi Baskets blanches et blousons noirs génération, manque d'espoir Exempté de conneries que ce gardien me foute la paix Lascars abandonnés j'ai le rêve des cités dortoirs Mon rap tout-terrain mon R.T.T, c'est ça qui est la vérité L'être humain porte en lui le meilleur Ouais Je sens encore le poids de mes erreurs De mes erreurs Ouais Le pire a si souvent été là La peine guidait mes pas Mais je la garde au fond de moi Jusqu'au dernier souffle Jamais, jamais... jamais, jamais Et le temps passe, non je ne regrette rien Non rien de rien, je ne regrette rien Rien ne s'efface, mon destin me ressemble bien Nos rêves, nos poings ont guidé nos refrains Et le temps passe, pourtant, je ne regrette rien Non rien de rien, je ne regrette rien La moindre trace, je l'ai bâtie de mes mains Mes rêves, nos poings, ont guidé nos destins Ministère A.M.E.R Johnny Hallyday et ouais, ça le fait Dis l'heure 2 Hip Hop Rock Mon rock est sombre, mon rap est profond Sex comme une langue sur un téton Dur comme les blocs de béton Yeah, dis l'heure 2 Hip Hop Dis l'heure 2 Hip Hop Rock</t>
+          <t>Ma bourgeoise elle est pas comme les autres On dirait qu'elle fait partie des nôtres Elle pense pas qu'au fric Elle aime l'Afrique Elle y va..apporte du secours aux gens Avec ma bourgeoise on fait l'amour en cachette chez ses parents Elle m'dit t'es une belle personne, t'as une belle âme Moi j'pense qu'elle est bonne, qu'elle devrait être ma femme Ma bourgeoise me conseille des bouquins Elle ne lit pas d'Arlequin Et si tu la cherches elle crache son venin La goulue fait l'trottoir Ma bourgeoise respire l'air du soir Son père vend du pétrole Mais ma bourgeoise m'aime comme une folle Juste moi et ma bourgeoise ensemble, face au monde Juste moi et ma bourgeoise assis, sur le toit, de leur monde Elle m'dit comment peut-on manger un sandwich grec ? J'lui dis qu'il suffit d'être à sec J'fais du son pour ceux qui trouvent ça bon Ceux qui dorment sur un carton Elle comprend qu'on aie mal Qu'on s'conduise mal Dans la visite elle fut blessée J'lui dis parfois qu'il y a des morts, c'est hardcore J'me demande si j'ai eu raison de lui montrer Mais j'essaie d'la sauver Quand son père nous a découvert Elle est venue vivre chez ma mère Ma bourgeoise fait partie d'ma famille, elle m'donne envie de l'épouser Elle a des projets, une vie simple, ma bourgeoise veut juste changer de trajet Juste moi et ma bourgeoise, ensemble, face au monde Juste moi et ma bourgeoise, assis, sur le toit, de leur monde Elle danse du zouk et mange du colombo Elle est enrôlée j'la chambre mais elle s'en fout Elle aime vivre avec nous J'aime quand elle pleure, quand sa peau est couverte de ma sueur, ma soeur Ma bourgeoise elle est pas comme les autres, on dirait qu'elle fait partie des nôtres La femme d'en haut et l'homme d'en bas Pour elle l'amour c'est comme ça J'voudrais lui offrir des millions mais elle en a déjà Alors j'compense avec ma bonne humeur et un bouquet de rimes En ésperant qu'un jour, Bruno Beausire devienne son patronyme Juste moi et ma bourgeoise ensemble, face au monde Juste moi et ma bourgeoise assis, sur le toit, de leur monde2</t>
         </is>
       </c>
     </row>
@@ -1512,12 +1512,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>L’homme qui ne valait pas dix centimes</t>
+          <t>Né rue Case Nègres</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Liaisons dangerous Doc Gyneco Si tu savais ce qu'ils pensent des gens de couleur, ma sur ! Y'a pas de fleurs dans mon malheur Pour t'en offrir, je me fais rappeur Pourquoi subir tel un cireur de chaussures ? Pour m'en sortir, je suis conteur de mésaventures Un mec à la recherche d'une femme pure Qui se la raconte pas et qui a de l'allure, c'est sûr Et si toutes les meufs étaient carrées comme Mariah Je fumerais moins, je boirais moins de Bavaria Je combattrais la peste, la malaria J'aurais la Foi comme Mère Teresa Toutes ces promesses gravées sur le cercueil de Lady Di Comme à Dallas pour Kennedy Vous m'aurez pas, j'ai un holster sous mon Teddy Le Pape endort la masse avec des promesses à la messe Laisse, j'encaisse... Vamos todos juntos ! Que la guerra va a empezar La guerra empezará Como Zapata lo diría Hacer la revolución La victoria reinará Reinará Et si, pour percer, bercer les gens de bonne musique Faut signer sur des labels qui ne pensent qu'au fric Je le fais, et si je pouvais je ferais les pubs Qui vont avec les tubes et tu comprendrais comment on t'entube Demande à Virgin si j'ai des copines dans la machine Elle, elle a changé le cours de ma vie C'est des sadiques Je veux le contrôle de mes clips, de ma musique Fonce-dé mais pas te-bê Je suis pas la poule aux disques d'or ni le presse-billet Un coup de rhum vieux et je m'arrache si Dieu le veut J'en ai 23 et Il a des projets pour moi J'ai pas raison de vouloir faire les Liaisons ? Ou t'as peur qu'enfin arrive notre saison ? T'es qu'une balance, un mec comme toi peut suffire A faire sauter tout ce qu'on veut créer, notre empire Vamos todos juntos ! Que la guerra va a empezar La guerra empezará Como Zapata lo diría Hacer la revolución La victoria reinará Reinará Sortir de la musique comme j'y suis entré, libre Reprendre les livraisons lorsque mon bippeur vibre On déclare ce jeune branleur ivre révolutionnaire Avec le recul, la vérité a dû leur plaire Ils parlent de moi en exemplaire Ils disent que je suis fou Que dans la vie, j'ai fait mon trou Pas besoin de grimper dans leur estime Moi je suis l'homme qui ne valait pas dix centimes Y'a que les morts qui parlent pas Un dernier skeud avant qu'on me fasse sauter le pas Quoi qu'il arrive sur la planète Terre Dans le monde des affaires, le rap, les ministères C'est toujours un gangster qui contrôle l'affaire x2 Vamos todos juntos ! Que la guerra va a empezar La guerra empezará Como Zapata lo diría Hacer la revolución La victoria reinará Reinará</t>
+          <t>Là-bas il fait chaud on boit l'eau du coco Sous les cocotiers les filles sont bronzées Les maillots mouillés et les bondes à bomber Ça sent le colombo les plats épicés Y a du zouk à fond des fruits de la passion Franky Vincent est le saint patron On coupe la canne pour en prendre le sucre Mélanger citron vert et rhum Trois-Rivières Boulogne ou La Mauny et oui c'est clair Clair comme l'eau comme l'eau de la mer J'y vais quand c'est gratuit, congés bonifiés Dis moi timal, est-ce que tu connais ? Suis moi dans les hauteurs de la Soufrière Je suis le guide touristique qui t'emmène en Basse Terre On tape une pointe pour aller à la pointe C'est du frotter-frotter et les gens qui s'éreintent Ma mère est née là bas Mon père est né là bas Toi tu es né ici Dans la misère et les cris Ma mère est née là bas Mon père est né là bas Toi tu es né ici Dans la misère et les cris 22 Mai Abolition de l'esclavage Ce jour là moi-même même si j'étais dans les nuages Accroché à un fauteuil de la sueur sur le visage Mon attitude faisait flipper tous les membres de l'équipage Destination Paris city Pourquoi pas, on est pas limité dans la vie Maintenant mon thermomètre fait dans le négatif Je ne sais pas pourquoi mais ça me rend inactif C'est plus cool de rester au chaud, des clopes, un bon spliff De là, face ou à la tête je me vois mal dans une manif Assis au coin du radiateur Avec la musique j'essaie de prendre de la hauteur C'est une simple question de tentation Que j'aborde maintenant avec précaution Là comme on vie on est, on a fait la démonstration Notre origine est tropicale, pour nous pas de congélation Ma mère est née là bas Mon père est né là bas Toi tu es né ici Dans la misère et les cris Ma mère est née là bas Mon père est né là bas Toi tu es né ici Dans la misère et les cris J'veux porter des shorts toute ma vie Avec mon escorte quitter Paris Manger du poisson grillé sur la plage du Gosier Et prendre des bains de mer avec le ministère Mais je me suis noyé je ne sais pas nager Les rues sont profondes et mènent toutes au boulevard Ney Comment s'en sortir pour la fille du quartier Elle croit que pour percer il faut se faire trouer Certains jouent au foot et veulent devenir pros D'autres dealent et rêvent de kilos Les seringues mortes se ramassent à la pelle Sur les trottoirs de la rue La Chapelle On protège nos fils de tout ce vice Dans les cours d'école on ne sniffe plus de colle Drogue et alcool ont pris le monopole Ma vie n'est pas simple elle n'est pas funky Moi je suis né ici et mon enfant aussi Ma mère est née là bas Mon père est né là bas Toi tu es né ici Dans la misère et les cris Ma mère est née là bas Mon père est né là bas Toi tu es né ici Dans la misère et les cris</t>
         </is>
       </c>
     </row>
@@ -1529,12 +1529,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Ma Bourgeoise</t>
+          <t>Noirs et blancs</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Ma bourgeoise elle est pas comme les autres On dirait qu'elle fait partie des nôtres Elle pense pas qu'au fric Elle aime l'Afrique Elle y va..apporte du secours aux gens Avec ma bourgeoise on fait l'amour en cachette chez ses parents Elle m'dit t'es une belle personne, t'as une belle âme Moi j'pense qu'elle est bonne, qu'elle devrait être ma femme Ma bourgeoise me conseille des bouquins Elle ne lit pas d'Arlequin Et si tu la cherches elle crache son venin La goulue fait l'trottoir Ma bourgeoise respire l'air du soir Son père vend du pétrole Mais ma bourgeoise m'aime comme une folle Juste moi et ma bourgeoise ensemble, face au monde Juste moi et ma bourgeoise assis, sur le toit, de leur monde Elle m'dit comment peut-on manger un sandwich grec ? J'lui dis qu'il suffit d'être à sec J'fais du son pour ceux qui trouvent ça bon Ceux qui dorment sur un carton Elle comprend qu'on aie mal Qu'on s'conduise mal Dans la visite elle fut blessée J'lui dis parfois qu'il y a des morts, c'est hardcore J'me demande si j'ai eu raison de lui montrer Mais j'essaie d'la sauver Quand son père nous a découvert Elle est venue vivre chez ma mère Ma bourgeoise fait partie d'ma famille, elle m'donne envie de l'épouser Elle a des projets, une vie simple, ma bourgeoise veut juste changer de trajet Juste moi et ma bourgeoise, ensemble, face au monde Juste moi et ma bourgeoise, assis, sur le toit, de leur monde Elle danse du zouk et mange du colombo Elle est enrôlée j'la chambre mais elle s'en fout Elle aime vivre avec nous J'aime quand elle pleure, quand sa peau est couverte de ma sueur, ma soeur Ma bourgeoise elle est pas comme les autres, on dirait qu'elle fait partie des nôtres La femme d'en haut et l'homme d'en bas Pour elle l'amour c'est comme ça J'voudrais lui offrir des millions mais elle en a déjà Alors j'compense avec ma bonne humeur et un bouquet de rimes En ésperant qu'un jour, Bruno Beausire devienne son patronyme Juste moi et ma bourgeoise ensemble, face au monde Juste moi et ma bourgeoise assis, sur le toit, de leur monde2</t>
+          <t>Y'avait des mots pour le Secteur Des mots violents, presque en verlan Des mots qui meurent et font couler le sang Ces mots sont morts et, dorénavant Faut voir Maman, écoute Papa J'n'ai qu'les beaux mots pour parler à mes filles Oreilles sensibles, yeux plus sensibles Moi je leur cède tout c'que j'écris Et j'n'ai jamais voulu faire l'homme Plus que des textes, relis mes psaumes Laissez les noirs, laissez les blancs Mais qu'ils divorcent, fassent des enfants Qu'ils tendent leurs bras, des innocents Il n'y a pas de problèmes aux gens d'couleur Que n'a crée 100 ans de malheur Et moi je danse pour toute résistance J'veux pas partir comme un martyr J'irai mourir en révolutionnaire Un subterfuge, héhé, dans la lumière Laissez les noirs, laissez les blancs Mais qu'ils divorcent, fassent des enfants Qu'ils tendent leurs bras, des innocents J'f'rai pas rimer, nan, les femmes et leur cuisine Y'a trop d'ustensiles dans leur usine Des brunes comme Marylin, Karukera ou Joséphine J'serai toujours là pour elles, elles elles pluriel Laissez les noirs, laissez les blancs Mais qu'ils divorcent, fassent des enfants Qu'ils tendent leurs bras, des innocents Laissez les noirs, laissez les blancs Qu'ils se rencontrent comme des enfants Et tendent leurs bras, des innocents</t>
         </is>
       </c>
     </row>
@@ -1546,12 +1546,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Ma salope a moi (cover)</t>
+          <t>Obscurité</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t xml:space="preserve">Janvier - 0201 Klem - Mort vivant - 0201 LIM - Gamberge - 0301 Afro S - Mode demo - 0301 Hipo - Comeback - 0301 Jwles - Trop gentil - 0301 Klem - PAS DU MEME MONDE - 0401 Gambino la MG - Freestyle No Hook - 0401 Kenyon - Shatta - 0401 SAM - Dans le noir - 0501 Cinco - Entier - 0501 Fadah - Bocal - 0501 Gen - Solaris - 0501 Henri Bleu - Dragon sans ailes - 0501 Klem - L'HIVER - 0501 Le Juiice - ICONIQUE - 0501 Mouk - Tartin 1 - 0501 Oumar - Trauma Drill 1 Parabellum - 0601 6rano - DrillB - 0601 Jazzy Bazz - Panorama ft. Alpha Wann - 0601 Le 3ème il - Renaissance - 0601 Maka - Joujoux - 0601 Riski - Free Zelda - 0601 Simony - A13 - 0701 BEENDO Z - . INSPIRÉ DE FAITS RÉELS 4 - 0701 Bené - RS ft. Capo Plaza - 0701 Benjamin Epps - BMW BOYZ - 0701 Djeiz - Vilain ft. Bolémvn - 0701 Elias B4C - Bat4Clan - 0701 Faelix - Maintenant - 0701 JSX - Anarchie - 0701 Kaaris Kalash Criminel - Tu dois des sous - 0701 Laeti - La route est longue - 0701 La Honda - Réel 5 - 0701 La Peee - Phénomène 4 - 0701 Lucio Bukowski x Oster Lapwass - Ls dieux ne jouent plus au billard élctrique. - 0701 Moha K - Regarde-moi - 0701 Negrito - Kel bail - 0701 Nouwane - Martini - 0701 Rémy - 97 mesures - 0701 SONBEST - strAnge - 0701 Vald - Anunnaki - 0801 Klem - PAS COMME LES AUTRES HUMAINS - 0801 Timal - Freestyle Tarmac - 0901 JuL - À la russe - 0901 JuL - La recette - 0901 Klem - LE DERNIER - 0901 La Honda 19 - Docteur Lamaze 1 - 0901 LIM - Combattant - 0901 LP2.0 - Eric Zemmour - 1001 So La Lune - Tsukinatra ft. Dawg Sinatra - 1101 DIL - Cramé - 1101 Dmh - Quartiers Nord 11 La semi - 1101 Slkrack - Opensea - 1201 A2H - Solo - 1201 Cheu-B - Extendo - 1201 Julio Goba - Freestyle ploutocratie, Pt. 6 - 1201 Kai du M - GTA 23 - 1201 Kemmler - Dimitri Payet - 1201 Les Grands Enfants - Melancholy Hill - 1201 Luni - Tout pour moi ft. Mister V - 1201 Medja - Lil Devil King Harv - Calogero ft. Purp 1201 OMR - 75-91 ft. Chicaille Argenté - 1201 Smahlo - Horizon - 1201 Sto - STARDUST REMIX - 1201 Tommy Isaac - Big Fish ft. DYPE - 1301 Benjamin Epps - CE QUE LE PIPS DEMANDE - 1301 BRK - Shooter 3 ft. L2B Gang - 1301 Doria - Triste époque - 1301 Jey Brownie - Trop de love ft. Roissy - 1301 La Smala - Dans les mémoires ft. Scred Connexion - 1301 Les Frères Bizzy - 34 ft. Junior Bvndo - 1301 Nahir - Adriano - 1301 Nessbeal - La Dem ft. ZKR - 1301 Norsacce - Aller-retour Part.1 - 1301 P-dro - Journal intime, pt. 3 - 1301 Riski - OK PETASSE ft. Yuri J - 1401 Alkpote - Éteins la lumière ft. Francky Vincent - 1401 Atro Boi - Maux d'amour ft. Tallisker - 1401 Blaiz - Môme - 1401 Brvmsoo - Best Friend - 1401 Chanje - Canette - 1401 Cinco - Level - 1401 Elaka - Jurassic Park - 1401 Frenetik - RDP - 1401 Gotti Maras - En Brr - 1401 i300 - No Hook - 1401 Jonny Vegas - Noir - 1401 Josas - Khamsa - 1401 Kaeles - Questions - 1401 Kery James - LE POETE NOIR - 1401 Leonis - Bloqué en bas - Sherhood 5 - 1401 Lyms - Menottés ft. Negrito - 1401 Mini - Goddamn ft. Zaky 8ruki 1401 Monkey D - Bonne voix ft. Georgio - 1401 NTH - Low ft. Jaekers - 1401 Omar Syco - Négocie pas - 1401 Ramses - Quelle vie - 1401 Realo - 2 SEC 1401 Sizlac - Calibre - 1401 Solray - 1899 - 1401 Vves - Neymar Mbappé ft. ALP - 1401 Yanslo - Aicha - 1401 yung g - adversaires - 1501 Cheval Blanc - Sitcom - 1601 JOHEM - MAUVAISE DRILL 1 Je les aimes pas - 1701 Bob Marlich - Lundi - 1701 Jazzy Bazz - 1989 Freestyle - 1701 Luv Resval - S2 - 5 Shadow - 1801 Rocca - Mash Up ft. Souffrance - 1801 Squall p - Amsterdame - 1801 yswanj - Come Over On Top Björk Cambiar - 1901 8Ruki - Interlude 1901 Black D - Pefra - 1901 DOR - Authentique - 1901 Gemen - WHO ASKED? - 1901 Heskis - Temps mort - 1901 Jwles - Hors-jeu 1901 Rémy - Le moteur - 1901 ouley - Cry me a river - 1901 Venom - 998 - 2001 Allebou - Quidam - 2001 Chad de la Cour - EMO - 2001 Dmh - Quartiers Nord 12 Traficanté - 2001 Fresh - Freestyle Le cachot - 2001 Green Montana - WALDORF ASTORIA - 2001 J9ueve - Melody - 2001 Jazzy Bazz - Élément 115 ft. Nekfeu - 2001 Lamatrix - Maestro - 2001 LIM - Tourne en rond - 2001 Matheos - Le dernier des fainéants - 2001 Moha MMZ - CAUCHEMAR - 2001 Nero Dee - Cur noir - 2101 Booba - Pablo - 2101 Genezio - Elle m'appelle - 2101 Jayel - Perle rare - 2101 Kamas Skuh - Bienvenue à Ris 5 - 2101 Kaza - Sincère - 2101 MadeInParis - Baby ft. Squidji - 2101 Malty 2BZ - Gangsta ft. Tiitof - 2101 Niaks - Ninetta - 2101 OldPee - Dur - 2101 Popey - White Mauvais choix ft. DA Uzi - 2101 Rethno - Popelson - 2101 roseboy666 - Paradis ft. AnNie .Adaa - 2101 Triple Z - Passe à lépice 8 Capri-Sun - 2101 Voquab - Tourne pas rond Marchandage - 2101 YL - Prières ft. ISK - 2301 Baby Neelou - 20Janvier - 2301 Dmh - Quartiers Nord 13 Sans budget - 2301 Jolagreen23 - 3945 - 2301 Mac Seamus - Reset - 2301 Ozkar - Cinderella - 2301 Yanso - BX Capitale 5 ft. ZVdu17, Le M, Sky, Elengi Ya Trafic Jones Cruipy - 2401 Gouap - Switch 4 - 2401 La Smala - Hors du temps - 2601 Dany Dan - Pop Style libre - 2601 Jason Voriz - Jean Lou ft. Reta - 2601 Kaneki - Maison ft. DA Uzi - 2601 Kodes - Trop mabé 4 - 2601 Maka - Minimum - 2601 Théodore - Loco - 2601 Zamdane - Le monde par ma fenêtre 2601 Zidi - XY Part. 3 Ciel - 2701 Babysolo33 - LnlyBby - 2701 Chanceko - Y E S M A N !!! - 2701 Cinco - Booska Sacrifices - 2701 DerK16 - Alim6 - Signature - 2701 Freeze Corleone Ashe 22 - SCELLÉ PART. 4 - 2701 Gius - NO BLEM! - 2701 Juice - La lumière des spots - 2701 Oklmava - À quel prix ? - 2701 Skia - Verre d'eau - 2701 Slkrack - Hazi Life 5 Fuego - 2701 Tsew The Kid - Polaroïd 1 Blessé - 2801 4.4.2 - R8 ft. Hamza Alonzo - 2801 99 Wolfkid - Lean On ft. Chanceko EDGE - 2801 Aketo - Frais comme un daron - 2801 Biffty - Le temps passe - 2801 Billy la Ure - Délit ft. Key Largo - 2801 Celestino - Poisse - 2801 FrenchCali - Ciel - 2801 Fresh - La Douille 6 - 2801 GLK - Bizarre ft. Nahir Waïv - 2801 HV Manyy - Bloqué ft. Sasso - 2801 Jackmaboy - Le man il est gang - warra bang 1 - 2801 Kanoé - Hiver - 2801 La F - Appel manqué 10 - 2801 Larry - EN PÉPÉ 1 2801 Lemon Haze - Chronos - 2801 Nans - Serein - 2801 Rea - Amoroso - 2801 Rim'K - Iceberg - 2801 Rimkus - MAYDAY ft. Doria - 2801 Sicario - Bipolaire - 2801 Sinik - Balles perdues - 2801 Susanoô - Silence - 2801 Tyranik - Notifs - 2801 Uzi - Rotterdam ft. OBOY - 3001 JMK - BOSSY - 3001 LIM - Putain - 3001 Rim'4 - Repeat - 3001 Stony Stone - Step 2 - Angèle - 3101 F430 - Effet papillon 2 - 3101 Kenyon - Détails - 3101 Moji x Sboy - ELLE PLEURE EN HIVER 3101 Pirate - RS DRILL 4 Février - 0202 Araujo - SAC CHANEL - 0202 Beendo Z - GTA 24 - 0202 Bné - Ça recommence - 0202 Djalito - Oublie - 0202 Gotti Maras - Bx Drill 6 ft. Fresh la Douille - 0202 Henri Bleu - Wonderland - 0202 Les Grands Enfants - ride or die - 0202 Lotus - Lts 03 - Nike - 0202 Medja - Lil Devil King Harv - Shooter Clan ft. Purp 0202 Moubarak - L'espoir - 0202 Vilk - Phoque - 0302 313 - Oublier - 0302 Draviss - Tout donner - 0302 Ekloz - WAVES - 0302 Kpri - Volant - 0302 Simony - RSA Gris Nardo - 0302 thaHomey - SKIP TO MY LOU - 0302 TIF - Emoji DZ - 0302 Veerus - Wu-Tang ft. Limsa d'Aulnay - 0302 winnterzuko Skuna - PGM 0402 Bigor - Triple S - 0402 Bolémvn - Cho Na Cho ft. Alonzo - 0402 Cappuccino - La location - 0402 Coyote Jo Bastard - Booska CNLPG - 0402 Croma619 - Malin comme un singe - 0402 Dixon - D'autres filles - 0402 Gambino La MG - À tout moment - 0402 Gueule d'Ange - Mi Amor - 0402 i300 - Tookah 4 - 0402 JEUNESAINT - Babymama - 0402 Keeqaid - Freestyle x1 - 0402 Keeqaid - Freestyle x2 - 0402 Landy - R.A.S ft. SDM - 0402 La Rumeur - Saturé - 0402 SOPA - Mort - 0402 Vves - Trou noir - 0402 Yaro - Ma nana - 0402 yung g - Amulette - 0502 Osirus Jack - Ron Van Clief - 0602 6rano - Tupac Shakur 2 - 0602 Alkpote - Après minuit ft. Ouss Wayne - 0602 DIL - Représailles - 0602 Implaccable - Chap Chap Chap - 0602 Mapess - DEMI TOUR - 0602 Soumeya - Tout ce temps - 0702 Richi - DÉSERT - 0802 Kerchak - NH 2 - 0802 YUNG POOR ALO - Freestyle Psychoklaw - 0902 Dala - Serum - 0902 Dmh - Quartiers Nord 14 Héritage - 0902 Don Max FullBaz - WAVY - 0902 Josas - UEFA 0902 Le Croc - BAW 6 - 1002 Dabs - Billie Jean - 1002 leith - différent - 1002 Makala - Boss - 1002 Zamdane - Incomplet comme février - 1002 Yuzmv - Avenue de l'impasse - 1102 Bebew - Laisse nous faire ft. Elams - 1102 Bludelta - Maladie - 1102 Bolémvn - Boosk'atterrissage - 1102 Chanje - Miracle ft. EDGE - 1102 C.Sen Le Chimiste - Humain - 1102 Elflaco - Elle dit - 1102 Emraz - SOUS LA PLUIE - 1102 Freeze Corleone Ashe 22 - DÉGRADÉ - 1102 Frenetik - Déjà vu - 1102 La Miellerie - Écailles ft. Tawsen JeanJass - 1102 Lefa - Mise à jour - 1102 Leonis - Allô - 1102 Lorage - Mirage - 1102 Lujipeka - Pas à ma place ft. Lil Tooom - 1102 Naza - Vie de rêve ft. Imen Es - 1102 Omar Syco - Mina - 1102 Realo - PARTY ft. Zaky - 1102 Romy Rose - Joli Chéri ft. Negrito - 1102 Timal - Filtré ft. Gazo - 1102 YL - Tata Fatima - 1102 Yuzmv - Docteur - 1202 34murphy - 95 - 1302 BabySolo33, Bricksy 3G - Love Story ft. Azur - 1302 Mocaris - Fleur du ghetto - 1402 Aketo - Pas volé - 1402 Bné - Control - 1402 Jok'Air - Sorry not sorry ft. Tayc - 1402 Kima - Fake Love - 1402 Le7ept - Muse - 1402 Lyre - Ivresse - 1402 Sneazzy - Dernière fois - 1402 Max D. Carter - Finesse - 1602 A2H - Walou ft. Bakari - 1602 Bob Marlich - L'Haÿssien - 1602 GLK - Sadness, Pt. 1 Santé - 1602 Implaccable - 2.6M - 1602 Leto - Mozart Capitaine Jackson Episode 2 - 1602 Neskoo - Révolution - 1702 Amine Farsi - Suzuki ft. Le Risque - 1702 AnNie . Adaa - UN JOUR - 1702 Eline - Chute - 1702 Juice - CALLS Missed - 1702 Nahir - Boosk'Araï 2 - 1702 Tovaritch - Atmosphère - 1802 Coyote Jo Bastard Bhavi - Tchagala - 1802 Damys - TRAPU - 1802 DA Uzi - Hmmm Laisse tomber - 1802 Elh Kmer - K2 - 1802 Elvieto - Chronique ardente 3 - 1802 ISHA - La réincarnation de Biggie - 1802 Kai du M - Ça débite ft. SDM - 1802 Kanoé - Hiver 2 ft. La F - 1802 Kodes - Trop mabé 5 - 1802 K.S.A - Grand Prix - 1802 Mehdi YZ - Quiller - 1802 Naps - Le p'tit Marseillais - 1802 Saamou Skuu - Drill Of France 3 - 1802 Salek - ADRENALINE - 1802 Sam - Black - 1802 Stony Stone - Step 3 - NXM - 1802 Sysa - Tripoli - 1802 Voquab - Sang dencre Acceptation - 1802 YNG Trvpboy - Quattro - 2002 Mougli - Freestyle Hors-Série 2 - 2002 Slim C - PLF - 2102 Dwen - Milano - 2102 Tisco - Dans la sauce 3 ft. Ruby Nikara Yoro - 2102 Uzi - Arc-en-ciel - 2102 ZKR - Les gentils bandits - 2202 13Mini - Petit con - 2202 Djalito - Idées noires ft. So La Lune - 2202 Faelix - Détailler - 2202 thaHomey - 10BRICKS - 2202 RCKNSQT - Pixel - 2202 YL - Booska Piccolo - 2202 Zoxea - 24H ft. Busta Flex Lord Kossity 2302 Dika - DLB - 2302 Hyacinthe - Perdu la tête - 2302 Jwles - Argentine - 2302 Kepler - Dans ses bras ft. Gambino La MG - 2302 Kerchak - Sabor 2302 Oumar - Trauma Drill 2 La tess ne meurt jamais - 2302 Ron Brice - Addition ft. Ali - 2302 Routs Wayne - Middle - 2302 S-Tee - FILS DE DIEU FREESTYLE - 2302 Theodore - Okito - 2302 Zamdane - Flouka 2402 Absolem - Dégâts - 2402 BEN plg - Quand les lumières s'éteignent - 2402 Bolémvn - Bobby Shmurda ft. KeBlack - 2402 Bushi - Link Up - 2402 Davinhor - Floko ft. Le Juiice - 2402 eden dillinger - Penser mes plaies - 2402 FAYV - C'est FAYV - 2402 Gambino - TR - 2402 Golgoth - PÈLERINAGE ft. Sheldon - 2402 La Honda 19 - Train de vie - 2402 Liim's - 2 bigo - 2402 Lujipeka - Épilogue ft. Luv Resval - 2402 Sally - PARTOUT OÙ JE VAIS - 2402 Tsew The Kid - Polaroïd 2 Sourire - 2402 Veerus - 5 - 2502 100 Blaze - Leonidas - 2502 1D1R - Beldia - 2502 47MEOW - VIE 2 FOU - 2502 ALP - Débordé - 2502 Barack - 4 anneaux ft. Yaro - 2502 Biffty - Sauce Moula - 2502 Bosh - Téléphone - 2502 Celestino - Pull sept-cinq ft. Waltmann - 2502 DawaMafia - Roi - 2502 DOC OVG - XV BB EKIP ft. Pipsa - 2502 Elias B4C - Mauvaises Herbes - 2502 Empty7 - 2ON - 2502 Fababy - Affranchi - 2502 Frenetik - Shakespeare - 2502 Hornet la Frappe - Pulkra - 2502 Jey Brownie - Melodyne - 2502 Jones Cruipy - BMF - 2502 joysad - Anti stress - 2502 KD - Lyon c'est bandit ft. ZeGuerre - 2502 Kims la Rafale - AU CROMI 1 - 2502 La F - Dead - 2502 Lamatrix - Rookie - 2502 La Peee - Cocaïna ft. Mayo Kima - 2502 Larry - EN PÉPÉ 2 2502 Lrk - Dofé - 2502 Luther - Câlins - 2502 Maska - Démoli - 2502 Nanek - Absent 5 - Célestine - 2502 Norsacce - Phoenix ft. Alpha Wann - 2502 PCL Bachiflow - OK ft. DawaMafia - 2502 Popey - Eve - 2502 Rocca - Depuis le début - 2502 Saf - APDM - 2502 Sale Epoque - FERMETURE ft. DA Uzi OldPee - 2502 SAM - Faux voyous - 2502 Sinik - Cicatrices - 2502 Syen - Moonrock - 2502 T Garcia DJ Assad - Rockstar - 2502 Vegedream - On a lhabitude Ok Many ft. Naps - 2602 Riski - Mésaventures ordinaires - 2702 LIM - Tout va très vite - 2702 LP2.0 - Mentale 2 Batard 1 - 2702 nelick - J'avais juste envie de rapper ft. kofi bæ - 2702 Still Fresh - CONFIANCE - 2702 Youri - Malabar - 2802 Dmh - Quartiers Nord 15 Sentiments - 2802 Gambino La MG - Booska Uuhuh - 2802 OG L'Enf - Requin - 2802 Youri - D3 Mars - 0103 Balafré - Or Argent - 0103 Brulux - Koudjack - 0103 Youri - Voisins - 0203 AMK - Benef - 0203 Lesram - Wesh Enfoiré - 0203 Luv Resval - S2 - 6 ZLM - 0203 Moubarak - KODO Principes - 0203 Sultan - Kikazaru - 0203 Youri - Plaisir - 0203 Youssef Swatt's - Quelques notes suffisent - 0303 Alonzo - TRAFICANTE 0303 AP du 113 - Mirador ft. Denzo - 0303 Beendo Z - C'est comme le soleil - 0303 Henri Bleu - Paradis00 OsloHotel - 0303 Maydo - Comptes - 0303 Nahir - Glock ft. Lacrim - 0303 Nixy Rose - EX 0303 Stos - La tour ft. La Peee - 0303 Youri - Folle - 0403 Achile - Hector - 0403 Chad de la Cour - ENCORE UNE NUIT - 0403 Chad de la Cour - MYSELF - 0403 D. Ace - Lélection des méchants - 0403 Ekoms - Couleur saphir - 0403 Gambino La MG - Reste là ft. Tiakola - 0403 HIM - Le chemin - 0403 Jackmaboy - La rue m'attire 0403 KR Malsain - VARADERO - 0403 La Famax - J'suis en love - 0403 L'As - I.MINOGUE - 0403 Lefa - Terrain miné - 0403 Nakry - Le son du ghetto - 0403 Novy - EAPN - Real Shit - 0403 Sasso L'Allemand - Elle m'a dit je t'aime - 0403 Sicario - Yamanaka ft. Booba - 0403 Squadra - Tout donner ft. SAF - 0403 Youri - NRJ - 0503 Youri - D32 - 0603 Dmh - Quartiers Nord 16 BX - GTA - 0603 LIM - C'est fini - 0603 So La Zone - Ma vie - 0703 Nessbeal - Zone Euro - 0803 Rimkus - Booska Boîte Noire - 0903 A2H - Avec une rose - 0903 A2H - Masterclass - 0903 Allebou - J'essaie - 0903 Araujo - EN BAS - 0903 baby hayabusa - YURI - 0903 Dryssco - Parler - 0903 JNR - 243 ft. Kalash Criminel - 0903 JOHEM - GTO ft. LEXZE - 0903 Kasper 939 - 1st Class - 0903 K.S.A - Mannequin ft. Alpha Wann - 0903 Lacraps - Loi d'la calle - 0903 Noma - Static Shock 0903 Nyda - Charbon - 0903 Rapi Sati - My Men ft. Gazo - 0903 Skia - Lumière Freestyle - 0903 YNG Trvpboy - Je voulais - 0903 Zeu - OPP BLOCK - 1003 AM La Scampia - Jolie poupée ft. Timal - 1003 Brvmsoo - Game Over - 1003 GLK - Sadness, Pt. 2 Voleur - 1003 Le 3ème il - Adieu la Galère ft. Alonzo - 1003 RK - Sachet - 1003 Rsko - 100 mi-temps ft. Gazo - 1003 Upsilon - L - 1103 100 Blaze - D.S.C.P - 1103 8Ruki - Zookies - 1103 Antes Madzes - Bête et méchant - 1103 Benash - Ma Débora - 1103 Coyote Jo Bastard - FAFA ft. DrefGold - 1103 Dala - LVCVV - 1103 Elh Kmer - La douleur - 1103 Falcko - Dernière lettre - 1103 Frenetik - Houston - 1103 Gros Mo - La cité ft. Ratu - 1103 ISK - Snowfall - 1103 James Digger - Top Ten ft. Souffrance Cenza - 1103 KESPAR - Flex - 1103 Laeti - Je ne t'aime plus - 1103 L'Algerino - Sensación - 1103 L'As - II.PMV - 1103 Lonepsi - c'est tous les soirs la même chose - 1103 Mougli - Jungle 3 - 1103 Ritchy Boy - Les 4 fantastiques - 1103 Routs Wayne - Immature - 1103 Serane - 448 ft. Mike Shabb - 1103 Seven Binks - 7 Uzi - 1103 Stony Stone - Step 4 - BABY - 1103 Sysa - Cinco - 1103 White N - NOIR BLANC - 1103 Yaro - Booska Tout Droit - 1103 Younès - VLÀ LES PROBLÈMES ft. Médine - 1303 Cappuccino - La location Remix ft. Kaaris - 1303 Gapman - Wait - 1303 LIM - Ça rend fou ft. Les Microbes - 1303 Saisai - GTA 25 - 1303 Zokush - Rocco Morabito - 1503 313 - Rouge - 1503 Zokush - Maman - 1603 B.B. Jacques - Souvenir d'hiver 1603 BRK - Shooter 4 ft. Negrito - 1603 Josman - Fiesta Interlude - 1603 Josman - Mort ce soir - 1603 Le Croc - SHAWTY - 1603 Nero Dee - Mauvaises idées - 1603 sean - Vide - 1603 Soso Maness - Piranha - 1703 Almas - AKHA AKHA ft. Simba La Rue - 1703 Bekar - Avalanche - 1703 Black Jack - TTC - 1703 Disiz - RENCONTRE ft. Damso - 1703 Green Montana - PARFUM - 1703 HK La Paille - Intro - 1703 Lestin - Précis - 1703 Loud White-B - Rien de moins - 1703 luXe Timeless - FACTS - 1803 Aketo - Dalle de coyote - 1803 Akkai - ValeursPrincipes ft. Klemee MLKWAV - 1803 Captaine Roshi - Régiment - 1803 C.Sen Le Chimiste - Ciel Bleu - 1803 DA Uzi - On se reverra plus ft. Gazo - 1803 F430 - Effet papillon 3 - 1803 Gambino - Marseille à Paname - 1803 Hatik - Salam - 1803 Heezy Lee - Ex Aequo - 1803 Him - Audemars - 1803 Hornet La Frappe - Kawasaki ft. Landy - 1803 ISHA - On sourit pas sur les photos - 1803 Kai du M - Sauvage - 1803 Kanoé - Hiver 3 ft. Fresh LaDouille - 1803 Kerchak - Tantor - 1803 La Kadrilla - Mission 1803 Lemon Haze - Caillera - 1803 Leo SVR - Qu'un temps ft. Croma619 - 1803 L'As - III.APES - 1803 Madrane - Plata - 1803 MIG - 18 mars - 1803 Naps - Sun Valley - 1803 Nyluu - XO - 1803 RD - Villeurbanne - 1803 Saamou Skuu - French Drill 6 ft. La F - 1803 Sadandsolo - Pull up ft. thaHomey - 1803 SAF - BREAK ft. JuL - 1803 Susanoô Allebou - FORCE - 1803 TK - Quitter la terre - 1903 Good Bana - Dose - 1903 Zbig - Buscetta 2003 Bramo - Secteur miné ft. Diddi Trix 2003 CG6 - Tête de casseur 2003 Dawg Sinatra - Salem - 2003 Lyre - Last - 2003 Mécra - Cramé - 2103 Bosh - Himalaya ft. Soolking - 2103 Kronomuzik, Pandrezz Ronare - NOUS Y SOMMES 2103 OMR - 2Z22 ft. Sam's - 2103 rad cartier - Shoot le coeur ft. Joanna - 2103 Tejdeen - JE L'ADMETS JAMAIS - 2203 Gianni - Regarde - 2203 JOHEM - demons partis dans la pénombre. - 2203 Lesram - Booska Pré - 2203 Seyté - Le retour du printemps 2303 Biffty - Majestik - 2303 DrillDiscovery - TOC TOC ft. i300 - 2303 eden dillinger - Ulcère 2303 Emkal - Business - 2303 Heskis - Progrès - 2303 Kepler - Makelélé - 2303 Kima la Rafale - AU CROMI 2 - 2303 Kodes - Avoir être - 2303 Médine - Médine France - 2303 SKIA - LE GOÛT DES SHOOTERS Freestyle - 2303 TIF - .38 - 2303 Uzi - T'abuses ft. Timal ISK - 2403 313 - Soyouz - 2403 Brvmsoo - Shooter ft. Bné 2403 FAYV - Bisou - 2403 FXLL - Job - 2403 HIM - Baby ft. EDGE YZLA - 2403 KR Malsain - Double Dose ft. Alpha Wann - 2403 MLKWAV - YORUBAS - 2403 Oklmava - Cest la cité qui lé-par 1 - 2403 Vin's - Quelque part - 2403 Youssoupha - AMAPIANO - 2503 100 Blaze - Phénoménal ft. Lacrim - 2503 Ajar - Quand tu souffriras - 2503 Alrima - C'est Gâté - 2503 Cikey - Elle - 2503 Dabs - Harmonica - 2503 Deadi - Encore - 2503 Dina - Océan - 2503 Fababy - John Snow - 2503 Frenetik - Thanos Mouvement historique 4 - 2503 GLK - Sadness, Pt. 3 Dalida - 2503 Guy2Bezbar - Beretta - 2503 Jayel - La roue tourne - 2503 KESPAR - Subaru - 2503 Kobo - FUCKED.UP - 2503 Kodes - Nuit - 2503 La F - Dead Remix ft. Slkrack, Zeu, Saamou Skuu, Malty 2BZ, Hayce Lemsi Kanoé - 2503 Larry - EN PÉPÉ 3 - 2503 L'As - IV.TOTAL - 2503 Lous and The Yakuza - Kisé 2503 Lrk - Galactics ft. Bravbus, Olazermi Dinero 2503 Megaski - Full Gucci ft. Popey - 2503 NKP - Rosé - 2503 Norsacce - Heron Preston - 2503 Nouwane - Automatique ft. Fresh LaDouille - 2503 Novy - EAPN 2 - Drill NC 2503 Olazermi - Tiki-Taka 2503 Regasito - Bats toi petit ft. Memsti, Willy Klz, Maxi Jay Coyote Jo Bastard - 2503 Rsko - Problème - 2503 Sasso L'Allemand - J'ai pas le temps 2503 Skaodi - Y'a longtemps ft. Bolémvn - 2503 Thabiti - La Zendaya - 2503 Waltmann - Pusher IV - 2503 Winnterzuko - Heart - 2503 Zbig - DLG 13 - 2503 Zed - Mauvais 2703 Tisco - Paire de TN 2.0 - 2803 Bavaz - Épées Liquides - 2803 Henri Bleu - Pleur - 2803 Le Sid - FAIS ATTENTION !! - 2903 Anas - GTI - 2903 TLZ Clan - Tempête - 3003 Bigor - Mikel Arteta ft. Benab - 3003 D. Ace - Shonen vs Shonen ft. Zoro lFrérot, Volts Face, Ol Kainry, Negrito Senpai Cookiesan - 3003 Lim - Par où commencer - 3003 Niaks - Comparution immédiate - 3003 Prince Waly - Walygator - 3003 Rounhaa - MUSIC SOUNDS BETTER WITH YOU - 3003 Squadra - Baby ft. Leto - 3003 T2R - Marie - 3003 YellowStraps - MERCI ft. Roméo Elvis Swing - 3003 Youka - Je suis dans ça ft. Lybro, SenSey Dieson Samba - 3103 AM La Scampia - Basta - 3103 baby hayabusa - GUALA - 3103 BabySolo33 - LilWitch - 3103 Djado Mado - Sous la pluie - 3103 Kery James - Marianne - 3103 Keroué - KER - 3103 Lesram - Rotation ft. Alpha Wann - 3103 Carbonne - 0 questions - 3103 James Loup - Rien ne va plus 3103 Rousman - Histoire de terrain - 3103 Rsko - Loyal Avril - 0104 4.4.2 - Va bene ft. JuL, Naza, Soolking Tayc - 0104 Black Jack - Mulah ft. Doc OVG - 0104 Celestino - Bobos - 0104 Dadju - Picsou ft. Gazo - 0104 Dau - NO MERCY - 0104 Driver - Buju Banton ft. LMK - 0104 Genezio - Patate - 0104 Hidan - Oni - 0104 ISK - Vérité 5 - 0104 Kalash - Tombolo - 0104 Kemmler - Tout quitter - 0104 L'As - Paradoxe ft. Zamdane - 0104 Laws Babyface - Sexe Monnaie Drogue - 0104 Luni Sacks - R9 ft. Majdon Co - 0104 Mac Seamus - Héritage 0104 Marou Chenko - Mi amor 0104 Tissmey - Grinder - 0104 Walid - 96 - 0204 Houdi - Calmé - 0204 Slim C - Mauvais Move 0304 Salakid - On fait avec - 0404 Amad - Ciudad - 0504 54 - la mer - 0504 Bigflo Oli - Sacré bordel - 0504 Chiloo - Bah ouais - 0504 Moji x Sboy - VAMPIRE - 0504 Slkrack - L'Anneau - 0504 Sto - Jersey Drill 1 - 0604 Bekar - DEHØRS - 0604 Biffty - Histoire - 0604 Gius - INTERLUDE 12 - 0604 HDX - Pompei - 0604 Primero - Trac 0604 N'Seven7 - Drillstyle 01 Bibi Tout - 0604 Vegedream - Intro Lancelot du lac - 0604 Yuri J - Têtes brûlées ft. Okis - 0604 Zacky Le 6 - Lewis Hamilton - 0704 Gazy MP - Freestyle Diez - 0704 Luni - Rouler - 0704 Sirap - Douleur - 0704 Squeezie - Adieu les filles - 0704 sean - Piano Black - 0804 100 Blaze - Coco - 0804 Antes Madzes - Dans ma tête - 0804 Black M - C'est du Foot 2 rue - 0804 Farès - Ruelles - 0804 Favé - Mercedes - 0804 Frenetik - Elikya - 0804 Jok'Air - Big Drip ft. Aron LineMa - 0804 Loveni - Pillz ft. Kunta Aminello - 0804 OldPee - Moneytime ft. Green Montana 0804 Roro La Meute - On vient d'en bas - 0804 Sako - HXGN ft. Brav - 0804 Serane - Cut - 0804 Sheng - Stupéfaite 0804 Vves - VV - 0904 34murphy - sora - 1104 ISHA - Booska Labrador Bleu - 1104 RCKNQST - Nouvelle dose - 1204 FullBaz - CHEATCODES 1204 JNR Slice - Euros North Slice Freestyle 6 - 1204 Lucio Bukowski x Lionel Soulchildren - DESTINS OSSEUX - 1204 luXe Timeless - Glacé - 1304 8ruki - BMF - 1304 Boyya - Maudit - 1304 Houdi - Cauchemar 3 1304 Lyms - Générosité - 1304 Selug - Dernière fois - 1304 Ucyll - Eau salée - 1304 Urde - Petits morceaux - 1404 Bekar - Double Freestyle Mirasierra - 1404 Green Montana - NEYMAR JR ft. SDM - 1404 Junior Bvndo - 6975 ft. ZeGuerre - 1404 KESPAR - Atterris - 1404 San-Nom - Hamingja - 1404 Seth Gueko - Mara Salva ft. GRIBS - 1404 Vin's - Outrage I - 1404 Yome - Hors série 1 - Changer - 1504 Allebou - PINPONGYAANG ft. Susanoô - 1504 Aloïse Sauvage - Focus - 1504 Barack Adama - Grand cru - 1504 Cercle Fermé - Escucha ft. ALP Sofiane - 1504 Dadju - Toko Toko ft. Ronisia - 1504 Demi Portion - Petit prince - 1504 Farlot - Augmentation - 1504 Gambino - Normal - 1504 Glauque - Plan large - 1504 Kany - Chance - 1504 Kerchak - Jane - 1504 KT Gorique - BON MOOD ft. Lil Black - 1504 Kyo Itachi - JJ ft. JeanJass - 1504 LauCarré - En résumé - 1504 Lazzio - EVDCM - 1504 Lorenzo - Catastrophe - 1504 MadeInParis - Sex Remix ft. Eddin - 1504 Nakry - Y'a plus one - 1504 Waltmann - Long Bacon - 1504 Youri - Absences 1704 Di-Meh - Mawashi-geri 1704 Di-Meh - Remontodo - 1804 Heythem - Message - 1904 Dor - Séville Freestyle - 2004 Amad - Dans la zone ft. Steiner Inc - 2004 Dmh - Quartiers Nord 17 Signature - 2004 Gambi - ZAZA - 2004 Lacraps - C'est comme ça - 2004 Moyà - Station - 2104 Davodka - Requiem for a Drill - 2104 Hatik - Finir un texte - 2104 Lonepsi - mon désert - 2104 Loto - Digits - 2104 Max - Antarctique - 2104 Tiakola - M3lo - 2104 Zikxo - Booska'Intemporel - 2204 Achim - Matin midi soir - 2204 Asinine - On voit que moi dans la city - 2204 Axelence - Les mots - 2204 BFG - Shoot ft. Malty 2BZ - 2204 Bilton - ADN - 2204 Bolémvn - Wari - 2204 DIL - Alizé ft. BenZ - 2204 La Cour - DEMON - 2204 Loud - Uber Eats Freestyle 2204 N'seven7 - Drillstyle 02 La popo - 2204 Ritchy Boy - Palababe - 2204 Sokuu - Reste avec moi - 2204 Vegedream - Une équipe - 2204 Vova - Vaisseau - 2304 baby hayabusa - BOZOFLOW - 2304 Jolagreen23 - 23ZERO - 2604 Digistarsamo - Deadpool ft. Retro X - 2604 Lucio Bukowski Nestor Kéa - Matériel Boréal 2604 Lyms - Brisé 2604 Lyms - Loyauté - 2604 Ozkar - Doré - 2704 313 - Ailleurs - 2704 Furlax - RODEO GROOVE ft. Beeby - 2704 Gemen - SATAN 2 - 2704 Houdi - Enchanté - 2704 Keroué - Vésuve - 2704 Primero - Deux deux ft. Roméo Elvis - 2704 Rozzy - Jacquemüs - 2704 Stony Stone - Step 5 - Étoiles - 2804 Zaky - Amène - 2904 Black M - Outfit ft. Dr Bériz 2904 Elams - Monica ft. Flashko - 2904 Emkal - J'la connais, Pt. 1 - 2904 Hunter - Un homme - 2904 Lemon Haze - 9m2 - 2904 Leo - All Day All Night - 2904 MadeInParis - Sex Remix ft. Muni Long - 2904 Magnim - Du Firmament - 2904 Roméo Elvis - QUAND JE MARCHE COMME BEN MAZUÉ - 2904 Shay - DA - 2904 Soprano - Superman n'existe pas ft. Zamdane - 2904 Soso Maness - Crépuscule - 2904 Waïv - Trop méchant - 2904 Youssef Swatt's - Le rap est mort Mai - 0105 Chris 2 Coeur - Focus - 0205 Fiji God - Ultra Focus - 0305 Furax Barbarossa - 26 degrés 5 - 0305 Sysa - SYSA - 0405 Alonzo - PLAQUÉ 13 - 0405 Beendo Z - EDL75 - 0405 Ben.C - BACKWOODS ft. Gouap - 0405 HIBA - Cinq bouteilles 0405 LaFel109 - PAS HARAG 4 - 0405 Lestin - Précis Acoustique 0405 N'Seven7 - Drillstyle 03 Hes dead - 0405 Saamou Skuu - Anodin - 0405 La F - O.J - 0405 Leonis - Toute la night - 0405 mademoiselle lou - Solo 0405 Zidi - Comme d'habitude - 0505 Demi Portion - Légendaire 0505 Dika - Ingérables - 0505 Grems - Futura - 0505 Hyacinthe - Fureur de vivre - 0505 Irko - Carbon - 0505 JOHEM - Ville de bâtard - 0505 Lamatrix - Bad Kongo - 0505 LP2.0 - GTA 26 - 0505 Médine - Saint Modeste - 0505 Realo - Ibiza - 0505 Seth Gueko - Mange tes morts - 0505 Tizzy Miller - Nulle part - 0505 Vin's - Outrage II - 0505 Walk in Paris - Sacrifices ft. Chilla Nemir - 0605 1D1R - Tard la night - 0605 Bakari - SoloBinks 4 Le pacte - 0605 Chily - Bébé Na Bébé ft. Leto - 0605 C.Sen Le Chimiste - La vitre - 0605 Dajak - SABLIER - 0605 DA Uzi - Booska Braves 0605 Friz - O clair 2 la lune - 0605 Furlax - Sensation - 0605 i300 - Tookah 5 - 0605 ISK - El Golaa - 0605 JuL - Ça tourne dans ma tête - 0605 La Cour - EFFP - 0605 Larry - Rose - 0605 Lpee - Michael J. Fox - 0605 Mous-K - Petit frère - 0605 Niaks - La chienneté - 0605 Ouss Riane - Vision 4K ft. Nahir - 0605 Oklmava - C'est la cité qui lé-par 2 - 0605 Sasso L'Allemand - Curs abîmés - 0605 Seven Binks - Fumigèneft. ElGrandeToto - 0605 Sokra - Lozano - 0605 Tiakola - Si j'savais - 0605 TripleGo - Ice - 0605 Waltmann - Comme d'hab ft. Keroué - 0605 yung g - offre ton coeur ! - 0605 Zeu - ZIDANE ft. Venom - 0705 Salem - ... - 0805 baby hayabusa - BOZOFLOW2 - 0805 Douma - Baby Baby ft. Kalash Criminel 0805 SelaS - Courage 0905 AM La Scampia - Booska Fête Triste - 1005 Di-Meh - Promethazine 1005 Djeiz - Butin - 1005 Gianni - Tout en noir - 1005 Luther - LESSGUI - 1005 Timéa - JE TE CHERCHE - 1005 V2 ALMZ - FREESTYLE KSPER 1 - 1105 Amine Farsi - FRAUDE ft. Freeze Corleone - 1105 B.B. Jacques - Odyssée 1105 Calbo - J'écris - 1105 Gazo - CÉLINE 3X - 1105 Hatik - Star du rap - 1105 KT Gorique - HCV hold up ft. Mr Key - 1105 Theodora - Daddy Chocolat - 1105 Werenoi - Balmain - 1105 Yannou JR - Top Boy - 1105 Yanns - Soleil et nanas - 1105 Yanso - Hola Ouais ft. ElGrandeToto - 1105 YG Pablo - Incolore - 1105 Younès - ENTRE NOUS - 1205 Bramsito - God Bless U - 1205 DOR - Ouh Ouh - 1205 Soso Maness - À l'aube ft. Dinos - 1205 Tsew The Kid - Polaroïd 3 - Grosse tête - 1305 AMK - Toutatis ft. Slkrack - 1305 Chiloo - Je ne dors pas - 1305 Dala - FIN ft. Booba 1305 Dehmo - REPEAT - 1305 DJ Hamida - Ma bébé Mi amor ft. SAF - 1305 Doria - On prend tout - 1305 Farès - 0001 - 1305 Gotti Maras - Bumpy - 1305 Graya - La Castellane 5 - 1305 Hunter - Untitled1 - 1305 Jonny Vegas - En vie - 1305 Kemmler - Le Temps ft. Léa Castel - 1305 Kerchak - Tarzan - 1305 Kodes - Jack - 1305 Krilino - Poto Rico 1305 La Peee - 0.4 ft. KaNoé - 1305 L'As - LAMBO ft. DrillDiscovery - 1305 Livaï - THALES ft. Chanje - 1305 menace Santana - Vendredi13mai2022 - 1305 MIG - Vrai Savage - 1305 Omar Syco - Pas changé 1305 OMR - Mouv ft. ZeGuerre - 1305 Relo - PRP Plume Reconnait Plume ft. Sinik, R.E.D.K., Jacky Seth Gueko - 1305 Soolking - Askim ft. Reynmen - 1305 Stupeflip - Dans ton baladeur DTB - 1305 TK - Bisou Omri ft. Zaho Aymane Serhani - 1305 TripleGo - All Night - 1305 Veust - Première classe ft. Alpha Wann - 1305 Walk in Paris - Si tu veux ft. Sopico - 1505 3ARBI - Paname 1505 B-NØM - COCO AÇAÏ - 1505 FrenchCali - Sugar Ray leonard - 1505 Houdi - FPH 0 - 1505 Zeu - JJJJJ - 1605 Udeyfa - Choc générationnel - 1605 ZKR - Booska'méléon - 1705 Bob Marlich - Kyubi - 1705 eden dillinger - 40 mètres ft. Wallace Cleaver - 1705 Naps - La Maxance - 1705 Slkrack - Appel en absence ft. EDGE - 1805 Hakai - GRENADE - 1805 Henri Bleu - Palais de glace 1805 Ivory - Faux frères ft. YL 1805 Junior Bvndo - RDLB - 1805 Kai du M - Batman - 1805 Lamatrix - Malhonnête - 1805 La Rvfleuze - Serrure 1 - 1805 Lybro - Saiyan 2 - 1805 Seth Gueko - Last album - 1805 Smahlo - Trahison ft. Gotti Maras - 1805 Urde - Van der Sar - 1805 Good Bana - Les Humains - 1905 DosPunto - Je meurs avec - 1905 JSX - Shogun - 1905 JuL - Superstar - 1905 Kepler - Rondo Numba Nine ft. Larry - 1905 Keroué - Felice ft. Caballero - 1905 luXe Timeless - Tactiques Block - 1905 Sirap - Seul - 1905 Stavo - Haut risque - 1905 Tiakola - Coucher de soleil - 1905 Yome - Hors série 2 - Pourquoi - 2005 Allebou - Personne - 2005 Amné - Niya - 2005 baby hayabusa - BOZOFLOW3 - 2005 Boub'z - OMAX - 2005 Bigflo Oli - J'étais pas là - 2005 Black Mamba 28 - Cette Shit - 2005 Carbonne - MTP - 2005 Chester - Barré - 2005 Denzo - La rue en V.O 2005 Dinero - Dans ça - 2005 DOC OVG - 1000 ft. Freeze Corleone - 2005 Frenetik - HB Freestyle Season 4 ft. Hardest Bars - 2005 Harley - Sten ft. Genezio Jew Brownie 2005 Koffi Lossa - Streetbi ft. Yaya Krisso - 2005 La F - Vise et tire - 2005 La Honda 19 - Juste en crime - 2005 Malty 2BZ - Wow 2005 N'Seven7 - Gwara 2005 Nubi - S.A.L.E - 2005 REA - Nana - 2005 Réejo - Movie, Yeah Yeah - 2005 Roméo Elvis - MAQUETTE - 2005 SAF - MWAZABOUDJ - 2005 Shtar Academy - Oh la la la ft. Sofiane, Ryan, Perkiz, Nonô Blur - 2005 SLK - OUH OUH OUH ft. Liim's - 2005 Sokuu - Yoshi - 2005 So La Lune - Fin heureuse - 2005 Timal - La 15 GSXR - 2005 TripleGo - Mes pensées - 2005 Youri - Doggy Bag 2005 Youssef Swatt's - Solo - 2005 Zikxo - Déjà mort - 2205 Houdi - FPH 1 - 2205 Zeu - Von Durk ft. Goose28th - 2305 ISK - Booska Racines ft. Nahir, DA Uzi Niaks - 2305 Seka - Pharrell ft. 63OG - 2505 Barack Adama - Baggy ft. Lefa - 2505 Beendo Z - Booska Z - 2505 Di-Meh - Veuve Clicquot ft. Caballero 2505 Don Milli - Millimètre 1 - 2505 Emkal - Jla connais, Pt. 1 Remix ft. Lynda - 2505 Gambi - Paqueta - 2505 Kerchak - Obsessed With Me - 2505 Menavor - Cascade - 2505 N'Seven7 - Paris est magique - 2505 Prince Waly - Avertisseurs Part. II - 2505 Urde - Trempé - 2505 Wallace Cleaver - Armata - 2605 Dracks - Solo 2605 Fello - Tout l'été ft. Dinero - 2605 Novy - EAPN 3 - Johnny Dang - 2605 Pollux - LE MAL EST FAIT - 2605 Soso Maness - Peine de mort - 2605 TripleGo - Summer - 2705 Ateyaba - Finesse - 2705 Béles - EVERYDAY - 2705 Big Ben - C'est mon histoire 1 - 2705 Black Jack OBS - T.M ft. Goulag 2705 BLK 140 - Poppy - 2705 Chilla - Cauchemars - 2705 Dmh - Coeur - 2705 Furax Barbarossa - Brise de mer 2705 Gambino - Plata - 2705 HD La Relève - Mobulu 1 - Milli Milli - 2705 Huntrill - amiri. - 2705 Jeune Lion - AC MILAN - 2705 KronoMuzik, Pandrezz Ronare - Violette Citronelle ft. Alkpote - 2705 Lorage - Oxygène 2705 Michel - Da da da - 2705 Nans - Cagoulés - 2705 Naza - Bibi ft. Negrito - 2705 Nixy Rose - WAKA FLOCKA ft. Sossa Kah - 2705 RCKNSQT - Error 520 - 2705 Rizla - Fanées - 2705 Salimo - Wooh - 2705 SanaNael - Mr Mme ft. Elams - 2705 Seven Binks - Bleu ft. Bolémvn Sasso - 2705 So La Zone - Dans la ville - 2705 SOPA - Fou d'elle 2 - 2705 TK - La tartine - 2705 Uzibinski - Parabellum 2705 Vves - Benzo - 2705 Zalmad - Elle m'prend pour un loss - 2905 3ARBI - Bruce Wayne 2905 Azuul Smith - Mentale - 2905 Elso - Dope 2905 Fababy - C'est toi que j'aime - 2905 Houdi - FPH 2 - 3005 Gazo - MOLLY - </t>
+          <t>Un pays nouveau, une nouvelle langue, une nouvelle façon de s'habiller Une différente mentalité, y'a d'autres façons de penser Un jus de coco, , sans fourchette j'déguste un poisson grillé Y'a pas EDF mais j'suis mauvaise langue, le soleil ne s'arrête pas de briller Tu n'es pas le centre du monde Y'a aussi d'autres gens dans ce monde Y'a pas qu'nous, le monde ne dépend pas que de nous Le monde ne dépend pas que de nous Il faut accepter la différence, tout vient pas de mon village de France J'entends des gens crier Le centre commercial est devenu un marché La vie a pris le dessus sur vos philosophies Y'a différentes mentalités, y'a d'autres façons de penser Tu n'es pas le centre du monde Y'a aussi d'autres gens dans ce monde Y'a pas qu'nous, le monde ne dépend pas que de nous Le monde ne dépend pas que de nous Vous avez la connaissance Aujourd'hui le bled avance Vous avez le savoir faire Mais l'Afrique d'aujourd'hui n'est pas celle d'hier Mais l'Afrique d'aujourd'hui n'est pas celle d'hier Mais l'Afrique d'aujourd'hui n'est pas celle d'hier Tu n'es pas le centre du monde Y'a aussi d'autres gens dans ce monde Y'a pas qu'nous, le monde ne dépend pas que de nous Le monde ne dépend pas Tu n'es pas le centre du monde Y'a aussi d'autres gens dans ce monde Y'a pas qu'nous, le monde ne dépend pas que de nous Le monde ne dépend pas que de nous Un pays nouveau, une nouvelle langue, une autre façon de penser</t>
         </is>
       </c>
     </row>
@@ -1563,12 +1563,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Né rue Case Nègres</t>
+          <t>On lâchera pas l’affaire</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Là-bas il fait chaud on boit l'eau du coco Sous les cocotiers les filles sont bronzées Les maillots mouillés et les bondes à bomber Ça sent le colombo les plats épicés Y a du zouk à fond des fruits de la passion Franky Vincent est le saint patron On coupe la canne pour en prendre le sucre Mélanger citron vert et rhum Trois-Rivières Boulogne ou La Mauny et oui c'est clair Clair comme l'eau comme l'eau de la mer J'y vais quand c'est gratuit, congés bonifiés Dis moi timal, est-ce que tu connais ? Suis moi dans les hauteurs de la Soufrière Je suis le guide touristique qui t'emmène en Basse Terre On tape une pointe pour aller à la pointe C'est du frotter-frotter et les gens qui s'éreintent Ma mère est née là bas Mon père est né là bas Toi tu es né ici Dans la misère et les cris Ma mère est née là bas Mon père est né là bas Toi tu es né ici Dans la misère et les cris 22 Mai Abolition de l'esclavage Ce jour là moi-même même si j'étais dans les nuages Accroché à un fauteuil de la sueur sur le visage Mon attitude faisait flipper tous les membres de l'équipage Destination Paris city Pourquoi pas, on est pas limité dans la vie Maintenant mon thermomètre fait dans le négatif Je ne sais pas pourquoi mais ça me rend inactif C'est plus cool de rester au chaud, des clopes, un bon spliff De là, face ou à la tête je me vois mal dans une manif Assis au coin du radiateur Avec la musique j'essaie de prendre de la hauteur C'est une simple question de tentation Que j'aborde maintenant avec précaution Là comme on vie on est, on a fait la démonstration Notre origine est tropicale, pour nous pas de congélation Ma mère est née là bas Mon père est né là bas Toi tu es né ici Dans la misère et les cris Ma mère est née là bas Mon père est né là bas Toi tu es né ici Dans la misère et les cris J'veux porter des shorts toute ma vie Avec mon escorte quitter Paris Manger du poisson grillé sur la plage du Gosier Et prendre des bains de mer avec le ministère Mais je me suis noyé je ne sais pas nager Les rues sont profondes et mènent toutes au boulevard Ney Comment s'en sortir pour la fille du quartier Elle croit que pour percer il faut se faire trouer Certains jouent au foot et veulent devenir pros D'autres dealent et rêvent de kilos Les seringues mortes se ramassent à la pelle Sur les trottoirs de la rue La Chapelle On protège nos fils de tout ce vice Dans les cours d'école on ne sniffe plus de colle Drogue et alcool ont pris le monopole Ma vie n'est pas simple elle n'est pas funky Moi je suis né ici et mon enfant aussi Ma mère est née là bas Mon père est né là bas Toi tu es né ici Dans la misère et les cris Ma mère est née là bas Mon père est né là bas Toi tu es né ici Dans la misère et les cris</t>
+          <t>Originaire de la terre mère Où les marmots dansent dans des marres d'eau Faut dire tous ces colons y'en a marre d'eux Regarde nos femmes et notre faune, j'en suis fan J'ai le feu au cur je te jure Notre historique n'est fait que de coups de fouets Kunta a fui, après avoir brisé les chaînes Il était noir, faut que ce soit significatif Pour nous les jeunes Afrique, Antilles, il n'y a pas de différences Si ce n'est qu'il y a une minorité Cupide qui y croit encore dur comme fouets Le silence tue le poète de Karukera à Yaoundé Je vous convie à un apéritif de cannes à sucre et vin de palme Si t'es blanc d'être noir nous on est fiers noirs d'être Une fleur qui perd ses pétales C'est un problème de racines peut-être Destination différente via les mêmes bateaux Des bordures de Kribi jusqu'à l'île aux belles eaux Doc qui sait si nos aïeux ont siroté ensemble Tous dans le même nid puis séparés tel un envol d'oiseau On se laissera pas faire, on lâchera pas l'affaire On n'a pas le même destin mais nos galères sont les mêmes On se laissera pas faire, on lâchera pas l'affaire Première Classe Doc Communication font la paire Il n'y a pas de meufs à poil dans mon salon Pas de pétasse que j'connais pas qui bronze sur ma terasse J'vais produire Cosette et la Schtroumphette On fera gagner leur disque à la Skyroulette Citer des noms et de toute manière Qu'est-ce que je risque ? Des maisons de disques, de lÉtat ou du fisc Tous on veut qué-ma la musique le cinéma J'ai trop mis de coups pour sortir de ce putain de coma Trop mis de coups, aux politiques et aux zoulous Ma pause préférée prendre la fille à quatre pattes Qu'après l'amour, elle me fasse chauffer des pâtes Comme tu le sais je suis 100 mulâtre On lâchera pas l'affaire et on continue à se battre Nous ne sommes pas les mêmes noirs Mais je le suis quand même On se laissera pas faire, on lâchera pas l'affaire Tout le monde attend l'album du Ministère A.M.E.R Un étranger avec ou sans papiers J'ai le sang trop chaud trop dur à tempérer Pas que des racistes en France Même le climat me fait chier Cette différence n'a pas lieu aux yeux des lle-fi Que les hommes changent du Kosovo jusqu'en Serbie... On se laissera pas faire, on lâchera pas l'affaire On n'a pas le même destin mais nos galères sont les mêmes On se laissera pas faire, on lâchera pas l'affaire Première Classe Doc Communication font la paire Tous dans le même bateau, le 22 mai à l'Olympia Noirs, Blancs, Jaunes On fumait le même haïa Et dans ce même bateau se cachait Abdoulaï Un clandé tout comme moi et les fayas On est dans le même bateau Dans le même bateau, je te jure En ce qui concerne la musique et le fric et le fric Prends tes 10 et laisse-toi faire Allez viens, on continue nos affaires On est dans le même bateau de Place des fêtes à la Chapelle Bougnoules ou goujats en nous interpellant, ils nous appellent Avec Pit, j'complote et préviens mes potes Vas-y kiffe, sirote et mets des capotes Avant-gardiste face aux maisons de disques On craint ce qu'on ignore mais crois-tu j'ignore Que le secteur est craint? Vu qu'ils ignorent pas qu'on gère notre biz chez eux ça craint L'humanité groupe de voyageurs sur le bateau terre On se laissera pas faire, on lâchera pas l'affaire On n'a pas le même destin mais nos galères sont les mêmes On se laissera pas faire, on lâchera pas l'affaire Première Classe Doc Communication font la paireParoles rédigées et annotées par la communauté française de Rap Genius</t>
         </is>
       </c>
     </row>
@@ -1580,12 +1580,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Noirs et blancs</t>
+          <t>On lâchera pas l’affaire</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Y'avait des mots pour le Secteur Des mots violents, presque en verlan Des mots qui meurent et font couler le sang Ces mots sont morts et, dorénavant Faut voir Maman, écoute Papa J'n'ai qu'les beaux mots pour parler à mes filles Oreilles sensibles, yeux plus sensibles Moi je leur cède tout c'que j'écris Et j'n'ai jamais voulu faire l'homme Plus que des textes, relis mes psaumes Laissez les noirs, laissez les blancs Mais qu'ils divorcent, fassent des enfants Qu'ils tendent leurs bras, des innocents Il n'y a pas de problèmes aux gens d'couleur Que n'a crée 100 ans de malheur Et moi je danse pour toute résistance J'veux pas partir comme un martyr J'irai mourir en révolutionnaire Un subterfuge, héhé, dans la lumière Laissez les noirs, laissez les blancs Mais qu'ils divorcent, fassent des enfants Qu'ils tendent leurs bras, des innocents J'f'rai pas rimer, nan, les femmes et leur cuisine Y'a trop d'ustensiles dans leur usine Des brunes comme Marylin, Karukera ou Joséphine J'serai toujours là pour elles, elles elles pluriel Laissez les noirs, laissez les blancs Mais qu'ils divorcent, fassent des enfants Qu'ils tendent leurs bras, des innocents Laissez les noirs, laissez les blancs Qu'ils se rencontrent comme des enfants Et tendent leurs bras, des innocents</t>
+          <t>Originaire de la terre mère Où les marmots dansent dans des marres d'eau Faut dire tous ces colons y'en a marre d'eux Regarde nos femmes et notre faune, j'en suis fan J'ai le feu au cur je te jure Notre historique n'est fait que de coups de fouets Kunta a fui, après avoir brisé les chaînes Il était noir, faut que ce soit significatif Pour nous les jeunes Afrique, Antilles, il n'y a pas de différences Si ce n'est qu'il y a une minorité Cupide qui y croit encore dur comme fouets Le silence tue le poète de Karukera à Yaoundé Je vous convie à un apéritif de cannes à sucre et vin de palme Si t'es blanc d'être noir nous on est fiers noirs d'être Une fleur qui perd ses pétales C'est un problème de racines peut-être Destination différente via les mêmes bateaux Des bordures de Kribi jusqu'à l'île aux belles eaux Doc qui sait si nos aïeux ont siroté ensemble Tous dans le même nid puis séparés tel un envol d'oiseau On se laissera pas faire, on lâchera pas l'affaire On n'a pas le même destin mais nos galères sont les mêmes On se laissera pas faire, on lâchera pas l'affaire Première Classe Doc Communication font la paire Il n'y a pas de meufs à poil dans mon salon Pas de pétasse que j'connais pas qui bronze sur ma terasse J'vais produire Cosette et la Schtroumphette On fera gagner leur disque à la Skyroulette Citer des noms et de toute manière Qu'est-ce que je risque ? Des maisons de disques, de lÉtat ou du fisc Tous on veut qué-ma la musique le cinéma J'ai trop mis de coups pour sortir de ce putain de coma Trop mis de coups, aux politiques et aux zoulous Ma pause préférée prendre la fille à quatre pattes Qu'après l'amour, elle me fasse chauffer des pâtes Comme tu le sais je suis 100 mulâtre On lâchera pas l'affaire et on continue à se battre Nous ne sommes pas les mêmes noirs Mais je le suis quand même On se laissera pas faire, on lâchera pas l'affaire Tout le monde attend l'album du Ministère A.M.E.R Un étranger avec ou sans papiers J'ai le sang trop chaud trop dur à tempérer Pas que des racistes en France Même le climat me fait chier Cette différence n'a pas lieu aux yeux des lle-fi Que les hommes changent du Kosovo jusqu'en Serbie... On se laissera pas faire, on lâchera pas l'affaire On n'a pas le même destin mais nos galères sont les mêmes On se laissera pas faire, on lâchera pas l'affaire Première Classe Doc Communication font la paire Tous dans le même bateau, le 22 mai à l'Olympia Noirs, Blancs, Jaunes On fumait le même haïa Et dans ce même bateau se cachait Abdoulaï Un clandé tout comme moi et les fayas On est dans le même bateau Dans le même bateau, je te jure En ce qui concerne la musique et le fric et le fric Prends tes 10 et laisse-toi faire Allez viens, on continue nos affaires On est dans le même bateau de Place des fêtes à la Chapelle Bougnoules ou goujats en nous interpellant, ils nous appellent Avec Pit, j'complote et préviens mes potes Vas-y kiffe, sirote et mets des capotes Avant-gardiste face aux maisons de disques On craint ce qu'on ignore mais crois-tu j'ignore Que le secteur est craint? Vu qu'ils ignorent pas qu'on gère notre biz chez eux ça craint L'humanité groupe de voyageurs sur le bateau terre On se laissera pas faire, on lâchera pas l'affaire On n'a pas le même destin mais nos galères sont les mêmes On se laissera pas faire, on lâchera pas l'affaire Première Classe Doc Communication font la paireParoles rédigées et annotées par la communauté française de Rap Genius</t>
         </is>
       </c>
     </row>
@@ -1597,12 +1597,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Obscurité</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Un pays nouveau, une nouvelle langue, une nouvelle façon de s'habiller Une différente mentalité, y'a d'autres façons de penser Un jus de coco, , sans fourchette j'déguste un poisson grillé Y'a pas EDF mais j'suis mauvaise langue, le soleil ne s'arrête pas de briller Tu n'es pas le centre du monde Y'a aussi d'autres gens dans ce monde Y'a pas qu'nous, le monde ne dépend pas que de nous Le monde ne dépend pas que de nous Il faut accepter la différence, tout vient pas de mon village de France J'entends des gens crier Le centre commercial est devenu un marché La vie a pris le dessus sur vos philosophies Y'a différentes mentalités, y'a d'autres façons de penser Tu n'es pas le centre du monde Y'a aussi d'autres gens dans ce monde Y'a pas qu'nous, le monde ne dépend pas que de nous Le monde ne dépend pas que de nous Vous avez la connaissance Aujourd'hui le bled avance Vous avez le savoir faire Mais l'Afrique d'aujourd'hui n'est pas celle d'hier Mais l'Afrique d'aujourd'hui n'est pas celle d'hier Mais l'Afrique d'aujourd'hui n'est pas celle d'hier Tu n'es pas le centre du monde Y'a aussi d'autres gens dans ce monde Y'a pas qu'nous, le monde ne dépend pas que de nous Le monde ne dépend pas Tu n'es pas le centre du monde Y'a aussi d'autres gens dans ce monde Y'a pas qu'nous, le monde ne dépend pas que de nous Le monde ne dépend pas que de nous Un pays nouveau, une nouvelle langue, une autre façon de penser</t>
+          <t>Le premier single de Doc Gynéco viens voir, viens voir le docteur, non n'aie pas peur Viens voir, viens voir Gynéco, non n'aie pas peur</t>
         </is>
       </c>
     </row>
@@ -1614,12 +1614,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>On lâchera pas l’affaire</t>
+          <t>Oyé Sapapaya</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Originaire de la terre mère Où les marmots dansent dans des marres d'eau Faut dire tous ces colons y'en a marre d'eux Regarde nos femmes et notre faune, j'en suis fan J'ai le feu au cur je te jure Notre historique n'est fait que de coups de fouets Kunta a fui, après avoir brisé les chaînes Il était noir, faut que ce soit significatif Pour nous les jeunes Afrique, Antilles, il n'y a pas de différences Si ce n'est qu'il y a une minorité Cupide qui y croit encore dur comme fouets Le silence tue le poète de Karukera à Yaoundé Je vous convie à un apéritif de cannes à sucre et vin de palme Si t'es blanc d'être noir nous on est fiers noirs d'être Une fleur qui perd ses pétales C'est un problème de racines peut-être Destination différente via les mêmes bateaux Des bordures de Kribi jusqu'à l'île aux belles eaux Doc qui sait si nos aïeux ont siroté ensemble Tous dans le même nid puis séparés tel un envol d'oiseau On se laissera pas faire, on lâchera pas l'affaire On n'a pas le même destin mais nos galères sont les mêmes On se laissera pas faire, on lâchera pas l'affaire Première Classe Doc Communication font la paire Il n'y a pas de meufs à poil dans mon salon Pas de pétasse que j'connais pas qui bronze sur ma terasse J'vais produire Cosette et la Schtroumphette On fera gagner leur disque à la Skyroulette Citer des noms et de toute manière Qu'est-ce que je risque ? Des maisons de disques, de lÉtat ou du fisc Tous on veut qué-ma la musique le cinéma J'ai trop mis de coups pour sortir de ce putain de coma Trop mis de coups, aux politiques et aux zoulous Ma pause préférée prendre la fille à quatre pattes Qu'après l'amour, elle me fasse chauffer des pâtes Comme tu le sais je suis 100 mulâtre On lâchera pas l'affaire et on continue à se battre Nous ne sommes pas les mêmes noirs Mais je le suis quand même On se laissera pas faire, on lâchera pas l'affaire Tout le monde attend l'album du Ministère A.M.E.R Un étranger avec ou sans papiers J'ai le sang trop chaud trop dur à tempérer Pas que des racistes en France Même le climat me fait chier Cette différence n'a pas lieu aux yeux des lle-fi Que les hommes changent du Kosovo jusqu'en Serbie... On se laissera pas faire, on lâchera pas l'affaire On n'a pas le même destin mais nos galères sont les mêmes On se laissera pas faire, on lâchera pas l'affaire Première Classe Doc Communication font la paire Tous dans le même bateau, le 22 mai à l'Olympia Noirs, Blancs, Jaunes On fumait le même haïa Et dans ce même bateau se cachait Abdoulaï Un clandé tout comme moi et les fayas On est dans le même bateau Dans le même bateau, je te jure En ce qui concerne la musique et le fric et le fric Prends tes 10 et laisse-toi faire Allez viens, on continue nos affaires On est dans le même bateau de Place des fêtes à la Chapelle Bougnoules ou goujats en nous interpellant, ils nous appellent Avec Pit, j'complote et préviens mes potes Vas-y kiffe, sirote et mets des capotes Avant-gardiste face aux maisons de disques On craint ce qu'on ignore mais crois-tu j'ignore Que le secteur est craint? Vu qu'ils ignorent pas qu'on gère notre biz chez eux ça craint L'humanité groupe de voyageurs sur le bateau terre On se laissera pas faire, on lâchera pas l'affaire On n'a pas le même destin mais nos galères sont les mêmes On se laissera pas faire, on lâchera pas l'affaire Première Classe Doc Communication font la paireParoles rédigées et annotées par la communauté française de Rap Genius</t>
+          <t>Hey Hey ! Mira Mira Mira ! Tu passe à côté de quelque chose Non c'est de ce côté qu'il faut regarder Oyé Sapapaya ! ça vous dirait un ice cream avec mon ami et moi Ouaich, ouaich, même après minuit c'est gratuit pour les filles, ouais digi Doc Gynéco bubuBugy, Stomy Buggy Des guns des keufs des histoires de caille-ra Mais comment veux-tu faire kif-fer les te-ras Mauvais si Dia-na réapparaissait Ces machos directs la recrucifieraient Elle et moi nous sommes mariés Je suis le pit sur lequel il faut parier Mon calibre, du gros gibier Pour m'avoir, faut des balles pour sangliers Boum, boum Ici, y'a pas d'yo Juste des rates gonflées comme yoyo Qui bougent leur big bonda précieux comme un panda Les mecs s'mettent à bander Tout comme moi Bugsy Quereauma du cromi, Gynéco et Stomy A l'heure où mon secteur, Ä, la chapelle Devient plus célèbre que Virgin, Sony et Delabel J'ai de la bonne maquette pour de Burtel Un pepom, des balles à aillettes pour zulettes x2 O-yé Sa-pa-pa-ya ça vous dirait un ice cream a-vec mon a-mi et moi Pour les big bon-das et les p'tits tar-ma ah ah ah ah ah La bugs and doc mob alibi Implacable, la flicaille kop Toujours du beau boulot Pour les boîtes, les radios, les salauds En dalos, le pouvoir au peuple Nos paroles font reup Mais qua on qu'a dit là c'est du Doc Gynéco Qu'a on qu'a dit là c'est toujours au niveau Stomy à mes côtés depuis le début Un nouveau son qu'Abdoulaye passe en exclu C'est pour les mecs en chiens, les exclus Je suis le kung fu fighting J'ai la fureur de vivre, même ivre Ils peuvent pas me sacquer, toqués au saké Mes katas quéatta Pas besoin d'compter combien de danm j'ai Mais combien de dents j'te fais cracher Finies les conneries sur ta meuf je rebondis x2 O-yé Sa-pa-pa-ya ça vous dirait un ice cream a-vec mon a-mi et moi Pour les big bon-das et les p'tits tar-ma ah ah ah ah ah Dans ma rue j'ai 100 sur mon trottoir Madame Maigret, t'as 15 d'y croire, taspèch Un peu de sâleté, de crasse et une 16 Voilà comment jouir de l'hospitalité française Je suis nègre, juif et communiste Allez leur dire aux lepénistes Les maquereaux remaquent le coin Pas de mic mac N'écoute pas les pingouins qui te diront des bla bla bla Le nez plein de rablablabla Pimpon la bande à Papon Péfli sur mon nouveau couplet de Boyplay Oui ça me plaît, de Brigitte Femme de flic à histoire de seufs Un uniforme, une teub, d'la beu, des ieufs Et j'fais tourner à mes reufs x6 O-yé Sa-pa-pa-ya ça vous dirait un ice cream a-vec mon a-mi et moi Pour les big bon-das et les p'tits tar-ma ah ah ah ah ah</t>
         </is>
       </c>
     </row>
@@ -1631,12 +1631,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>On lâchera pas l’affaire</t>
+          <t>Pauvre de moi</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Originaire de la terre mère Où les marmots dansent dans des marres d'eau Faut dire tous ces colons y'en a marre d'eux Regarde nos femmes et notre faune, j'en suis fan J'ai le feu au cur je te jure Notre historique n'est fait que de coups de fouets Kunta a fui, après avoir brisé les chaînes Il était noir, faut que ce soit significatif Pour nous les jeunes Afrique, Antilles, il n'y a pas de différences Si ce n'est qu'il y a une minorité Cupide qui y croit encore dur comme fouets Le silence tue le poète de Karukera à Yaoundé Je vous convie à un apéritif de cannes à sucre et vin de palme Si t'es blanc d'être noir nous on est fiers noirs d'être Une fleur qui perd ses pétales C'est un problème de racines peut-être Destination différente via les mêmes bateaux Des bordures de Kribi jusqu'à l'île aux belles eaux Doc qui sait si nos aïeux ont siroté ensemble Tous dans le même nid puis séparés tel un envol d'oiseau On se laissera pas faire, on lâchera pas l'affaire On n'a pas le même destin mais nos galères sont les mêmes On se laissera pas faire, on lâchera pas l'affaire Première Classe Doc Communication font la paire Il n'y a pas de meufs à poil dans mon salon Pas de pétasse que j'connais pas qui bronze sur ma terasse J'vais produire Cosette et la Schtroumphette On fera gagner leur disque à la Skyroulette Citer des noms et de toute manière Qu'est-ce que je risque ? Des maisons de disques, de lÉtat ou du fisc Tous on veut qué-ma la musique le cinéma J'ai trop mis de coups pour sortir de ce putain de coma Trop mis de coups, aux politiques et aux zoulous Ma pause préférée prendre la fille à quatre pattes Qu'après l'amour, elle me fasse chauffer des pâtes Comme tu le sais je suis 100 mulâtre On lâchera pas l'affaire et on continue à se battre Nous ne sommes pas les mêmes noirs Mais je le suis quand même On se laissera pas faire, on lâchera pas l'affaire Tout le monde attend l'album du Ministère A.M.E.R Un étranger avec ou sans papiers J'ai le sang trop chaud trop dur à tempérer Pas que des racistes en France Même le climat me fait chier Cette différence n'a pas lieu aux yeux des lle-fi Que les hommes changent du Kosovo jusqu'en Serbie... On se laissera pas faire, on lâchera pas l'affaire On n'a pas le même destin mais nos galères sont les mêmes On se laissera pas faire, on lâchera pas l'affaire Première Classe Doc Communication font la paire Tous dans le même bateau, le 22 mai à l'Olympia Noirs, Blancs, Jaunes On fumait le même haïa Et dans ce même bateau se cachait Abdoulaï Un clandé tout comme moi et les fayas On est dans le même bateau Dans le même bateau, je te jure En ce qui concerne la musique et le fric et le fric Prends tes 10 et laisse-toi faire Allez viens, on continue nos affaires On est dans le même bateau de Place des fêtes à la Chapelle Bougnoules ou goujats en nous interpellant, ils nous appellent Avec Pit, j'complote et préviens mes potes Vas-y kiffe, sirote et mets des capotes Avant-gardiste face aux maisons de disques On craint ce qu'on ignore mais crois-tu j'ignore Que le secteur est craint? Vu qu'ils ignorent pas qu'on gère notre biz chez eux ça craint L'humanité groupe de voyageurs sur le bateau terre On se laissera pas faire, on lâchera pas l'affaire On n'a pas le même destin mais nos galères sont les mêmes On se laissera pas faire, on lâchera pas l'affaire Première Classe Doc Communication font la paireParoles rédigées et annotées par la communauté française de Rap Genius</t>
+          <t>Dans Paris, c'est dans cette ville que je vis Je vis comme ça, sans faire trop de bruits J'ai une chambre de bonne, un canapé qui fait lit Sur le mur, j'ai accroché une photo de Bob Marley Comme ça, quand j'me réveille, j'me sens plus gai J'me prive, j'repense à l'époque où j'avais pas de quoi vivre J'économise, j'vais au cinéma, j'achète un livre J'vis dans une pièce, yes, moi ça m'suffit J'donne toujours une p'tite pièce aux gens qui mendient Qu'est-ce que t'en dis ? J'ai acheté des pâtes J't'invite à manger, c'est comme ça qu'je vis, moi ça m'fait kiffer Je vis comme ça, d'amour et d'humour Paris est redevenue Paris, c'est la rentrée, rien n'a changé Ici tout est gris, mais c'est la vie, les mêmes bouchons, les mêmes meufs, les mêmes soirées Et moi, toujours le même je suis resté Heureux avec rien dans la poche Tranquille, comme quand j'étais mioche Pourquoi maintenant j'aurais besoin d'tout ça ? Les Ferrari, les gros bateaux, etc ? Moi ma maman ne m'a pas élevé comme ça Vous vous moquez, vous dites qu'ma vie elle fait pitié Vous, les méchants qui vous croyez tout puissants Ma belle, de jour, je vis comme ça, d'humour et d'amour Un jour comme les autres jours, je poursuis mon parcours Quand les derniers seront les premiers Quand la prière sera exaucée Les dictateurs feront la queue à l'ANPE J'partage pour qu'tout l'monde en fasse autant J'm'engage pour la bonne cause de temps en temps A l'aise, de quoi manger et payer mon loyer J'me suis privé pour faire kiffer ceux que j'aime Du 18ème, de la Bohème What's my motherfuckin name ? Gynéco ! C'est un jour comme les autres jours, des enfants jouent dans la cour Un jour comme les autres jours, je poursuis mon parcours Je vis comme ça, d'amour et d'humour, je vis comme ça, ma belle, de jour</t>
         </is>
       </c>
     </row>
@@ -1648,12 +1648,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Outro</t>
+          <t>Peur de manquer</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Le premier single de Doc Gynéco viens voir, viens voir le docteur, non n'aie pas peur Viens voir, viens voir Gynéco, non n'aie pas peur</t>
+          <t>T'as une féfé mais dessence t'es en manque Tu veux quitter la France mais ta peur qu'elle te manque Tu veux un yacht une villa faut que tu braques une banque Tu voles mais c'est pas de ta faute t'es un camé en manque Un costume derrière son bureau C'est moins flagrant un délit en col blanc Moins choquant Arrête de jouer à l'éthiopien Ici on meurt d'O.D jamais de faim J'crois que tu t'es fait serrer pour rien Le procureur a dit qu'il était mort pour rien Le dernier phone t'en avait pas besoin On a tous peur de manquer Accumuler au maximum pour se sécuriser On a tous peur de manquer Accumuler au maximum pour se sécuriser Hold up 9 chances sur 10 de se faire attraper Il a prit 20 ans mais il veut rester Il ne veut plus retourner dans la société Il n'arrive même plus à gouter la liberté Ça coûte cher mais comment je vais payer ? Il vaut 1000 et je gagne 2000 je le paye en 6 fois Mais y'a déjà 20 choses que j'achète en 10 fois Il y a des voleurs qui ne tuent pas Ils n'ont pas la main armée c'est du vol raffiné Gagner de façon démesurée eux aussi ils ont peur de manquer On a tous peur de manquer Accumuler au maximum pour se sécuriser On a tous peur de manquer Accumuler au maximum pour se sécuriser Vivre libre j'peux pas avoir de pression Kiffe chacune des mes chansons J'ai un forfait famille pour toute la maison Comment s'habiller comment manger La police fait sa ronde T'as peur de la vie dans ce monde Si on est 6 milliards une appli gratuite qui vaut 19 milliards Sache que rien n'est gratuit Le système est partout Pourquoi tu t'enfuis ? Une possibilité de sortir du temps Des moments à moi avec ma S à moi Du 20 ans d'âge comme R.E.M Je quitte lembouteillage On a tous peur de manquer Accumuler au maximum pour se sécuriser On a tous peur de manquer Accumuler au maximum pour se sécuriser On a tous peur de manquer Accumuler au maximum pour se sécuriser On a tous peur de manquer Accumuler au maximum pour se sécuriser On a tous peur de manquer On a tous peur de manquer On a tous peur de manquer</t>
         </is>
       </c>
     </row>
@@ -1665,12 +1665,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Oyé Sapapaya</t>
+          <t>Première Consultation</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Hey Hey ! Mira Mira Mira ! Tu passe à côté de quelque chose Non c'est de ce côté qu'il faut regarder Oyé Sapapaya ! ça vous dirait un ice cream avec mon ami et moi Ouaich, ouaich, même après minuit c'est gratuit pour les filles, ouais digi Doc Gynéco bubuBugy, Stomy Buggy Des guns des keufs des histoires de caille-ra Mais comment veux-tu faire kif-fer les te-ras Mauvais si Dia-na réapparaissait Ces machos directs la recrucifieraient Elle et moi nous sommes mariés Je suis le pit sur lequel il faut parier Mon calibre, du gros gibier Pour m'avoir, faut des balles pour sangliers Boum, boum Ici, y'a pas d'yo Juste des rates gonflées comme yoyo Qui bougent leur big bonda précieux comme un panda Les mecs s'mettent à bander Tout comme moi Bugsy Quereauma du cromi, Gynéco et Stomy A l'heure où mon secteur, Ä, la chapelle Devient plus célèbre que Virgin, Sony et Delabel J'ai de la bonne maquette pour de Burtel Un pepom, des balles à aillettes pour zulettes x2 O-yé Sa-pa-pa-ya ça vous dirait un ice cream a-vec mon a-mi et moi Pour les big bon-das et les p'tits tar-ma ah ah ah ah ah La bugs and doc mob alibi Implacable, la flicaille kop Toujours du beau boulot Pour les boîtes, les radios, les salauds En dalos, le pouvoir au peuple Nos paroles font reup Mais qua on qu'a dit là c'est du Doc Gynéco Qu'a on qu'a dit là c'est toujours au niveau Stomy à mes côtés depuis le début Un nouveau son qu'Abdoulaye passe en exclu C'est pour les mecs en chiens, les exclus Je suis le kung fu fighting J'ai la fureur de vivre, même ivre Ils peuvent pas me sacquer, toqués au saké Mes katas quéatta Pas besoin d'compter combien de danm j'ai Mais combien de dents j'te fais cracher Finies les conneries sur ta meuf je rebondis x2 O-yé Sa-pa-pa-ya ça vous dirait un ice cream a-vec mon a-mi et moi Pour les big bon-das et les p'tits tar-ma ah ah ah ah ah Dans ma rue j'ai 100 sur mon trottoir Madame Maigret, t'as 15 d'y croire, taspèch Un peu de sâleté, de crasse et une 16 Voilà comment jouir de l'hospitalité française Je suis nègre, juif et communiste Allez leur dire aux lepénistes Les maquereaux remaquent le coin Pas de mic mac N'écoute pas les pingouins qui te diront des bla bla bla Le nez plein de rablablabla Pimpon la bande à Papon Péfli sur mon nouveau couplet de Boyplay Oui ça me plaît, de Brigitte Femme de flic à histoire de seufs Un uniforme, une teub, d'la beu, des ieufs Et j'fais tourner à mes reufs x6 O-yé Sa-pa-pa-ya ça vous dirait un ice cream a-vec mon a-mi et moi Pour les big bon-das et les p'tits tar-ma ah ah ah ah ah</t>
+          <t>Han han, Doc Gynécologue se lève Mes clientes en sont déjà au rouge à lèvres Mais pas de mouron, à l'ouverture je serais prêt, lavé Sonnez puis entrez s'il-vous-plaît, patientez J'enfile mes gants tachetés et ma blouse craquée Ma secrétaire flaire Le carnet d'rendez-vous m'a rendu fou Trop d'patientes, trop de paires de fesses Ça me hante, trop d'herpès Dis-moi, dis-moi, son infection sera-t-elle belle, belle, belle ? Le Docteur a peur, c'est con, mais bon, vais-je assurer ? Comment va se passer la Première, la Première, la Première Consultation ? La Première, la Première, la Première, la Première, la Première, la Première Consultation La Première, la Première, la Première, la Première Consultation De peur de s'faire fouetter puis, au bled, réexpédiées Certaines veulent me forcer à falsifier mes certificats de virginité Elles savent que tout peut s'négocier Des malades imaginaires de 70 ans me font perdre mon temps Des fois, j'me crois dans la brousse au Viêt Nam Alors comme les cainris, j'opère au napalm sur ces dames Glisse ma langue et ma lame Des maris jaloux accompagnent leurs femmes J'suis donc obligé de travailler avec doigté et subtilité mais... Comme les sadiques, j'adore être regardé, ouais Je travaille où d'autres s'amusent La Première, la Première, la Première, la Première, la Première, la Première Consultation La Première, la Première, la Première, la Première Consultation Je prescris du mycoloque et des Duphastons Une patiente me fait remarquer que mon spéculum est rouillé Frotti Frotta j'ai fini le taff Des patientes que j'ai loupées, j'me méfie, je fais gaffe Je rentre chez moi, ma femme m'a fait des moules-frites Pourquoi, comme lui a dit monsieur Mari, elle a mis des habits sexy ? Le devoir conjugal, ça suffit J'ai fini de travailler et doit recommencer Je travaille où d'autres s'amusent Peut-être que j'abuse en tout cas j'accuse Toutes celles qui dans mon cabinet s'amusent C'était la Première, la Première, la Première Consultation La Première, la Première, la Première, la Première, la Première, la Première Consultation La Première, la Première, la Première, la Première Consultation Attention, attention, ne confondons pas. Est-ce que ça vous chatouille ou est-ce que ça vous gratouille ?</t>
         </is>
       </c>
     </row>
@@ -1682,12 +1682,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Pauvre de moi</t>
+          <t>Prince Charmant</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Dans Paris, c'est dans cette ville que je vis Je vis comme ça, sans faire trop de bruits J'ai une chambre de bonne, un canapé qui fait lit Sur le mur, j'ai accroché une photo de Bob Marley Comme ça, quand j'me réveille, j'me sens plus gai J'me prive, j'repense à l'époque où j'avais pas de quoi vivre J'économise, j'vais au cinéma, j'achète un livre J'vis dans une pièce, yes, moi ça m'suffit J'donne toujours une p'tite pièce aux gens qui mendient Qu'est-ce que t'en dis ? J'ai acheté des pâtes J't'invite à manger, c'est comme ça qu'je vis, moi ça m'fait kiffer Je vis comme ça, d'amour et d'humour Paris est redevenue Paris, c'est la rentrée, rien n'a changé Ici tout est gris, mais c'est la vie, les mêmes bouchons, les mêmes meufs, les mêmes soirées Et moi, toujours le même je suis resté Heureux avec rien dans la poche Tranquille, comme quand j'étais mioche Pourquoi maintenant j'aurais besoin d'tout ça ? Les Ferrari, les gros bateaux, etc ? Moi ma maman ne m'a pas élevé comme ça Vous vous moquez, vous dites qu'ma vie elle fait pitié Vous, les méchants qui vous croyez tout puissants Ma belle, de jour, je vis comme ça, d'humour et d'amour Un jour comme les autres jours, je poursuis mon parcours Quand les derniers seront les premiers Quand la prière sera exaucée Les dictateurs feront la queue à l'ANPE J'partage pour qu'tout l'monde en fasse autant J'm'engage pour la bonne cause de temps en temps A l'aise, de quoi manger et payer mon loyer J'me suis privé pour faire kiffer ceux que j'aime Du 18ème, de la Bohème What's my motherfuckin name ? Gynéco ! C'est un jour comme les autres jours, des enfants jouent dans la cour Un jour comme les autres jours, je poursuis mon parcours Je vis comme ça, d'amour et d'humour, je vis comme ça, ma belle, de jour</t>
+          <t>Je t'attends, ouais je t'attends, je t'attends Je t'attends, ouais je t'attends, je t'attends J'embrasse une grenouille et elle devient princesse Elle vérifie si je regarde YouPorn, des histoires de fesses ça pue Critique ce que j'mange sans cesse Décide d toutes les destinations d toute les vacances De mes fréquentations, veux entendre c'que je pense Elle n'est pas enceinte, elle écoute sans enceinte J'suis le prince charmant c'est qui ce mec J'suis le prince charmant, auquel tu n'crois plus J'suis le prince charmant c'est qui ce mec Moderne avec des histoires de What you talk about ça pue What you talk about J'suis le prince charmant What you talk about auquel tu n'crois plus What you talk about Je t'attends, ouais je t'attends, je t'attends J'aimerais trouver quelqu'un avec tout partager Je t'attends, ouais je t'attends, je t'attends J'aimerais trouver quelqu'un avec tout partager Oui tout l'temps, Oui tout l'temps Je t'attends, j'aimerais trouver quelqu'un avec tout partager Tu couches avec lui mais c'est mon nom qu'tu cries, oui tout l'temps Elle veut du soleil, conduire mon auto J'ai une maison avec squat au bord de l'eau Partir même sans valise en vacances Quand j'y pense, quitter la France Ma marque sur la ficelle vue imprenable, sur le point prenable Ça fait des étincelles, la sucette n'a plus un gout d'anis Parce qu'avec moi c'est après quand elle a finit Je t'attends, ouais je t'attends, je t'attends J'aimerais trouver quelqu'un avec tout partager Je t'attends, ouais je t'attends, je t'attends J'aimerais trouver quelqu'un avec tout partager Oui tout l'temps, Oui tout l'temps Je t'attends, j'aimerais trouver quelqu'un avec tout partager Je t'attends, ouais je t'attends Tu couche avec lui mais c'est mon nom qu'tu cries Oui tout l'temps, je t'attends, je t'attends, je t'attends Ouais je t'attends, oui tout l'temps je t'attends ça pue J'suis le prince charmant Ouais je t'attends, j'suis le prince charmant, j'suis le prince charmant</t>
         </is>
       </c>
     </row>
@@ -1699,12 +1699,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Peur de manquer</t>
+          <t>Quality Street (Dans ma rue 3e episode)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>T'as une féfé mais dessence t'es en manque Tu veux quitter la France mais ta peur qu'elle te manque Tu veux un yacht une villa faut que tu braques une banque Tu voles mais c'est pas de ta faute t'es un camé en manque Un costume derrière son bureau C'est moins flagrant un délit en col blanc Moins choquant Arrête de jouer à l'éthiopien Ici on meurt d'O.D jamais de faim J'crois que tu t'es fait serrer pour rien Le procureur a dit qu'il était mort pour rien Le dernier phone t'en avait pas besoin On a tous peur de manquer Accumuler au maximum pour se sécuriser On a tous peur de manquer Accumuler au maximum pour se sécuriser Hold up 9 chances sur 10 de se faire attraper Il a prit 20 ans mais il veut rester Il ne veut plus retourner dans la société Il n'arrive même plus à gouter la liberté Ça coûte cher mais comment je vais payer ? Il vaut 1000 et je gagne 2000 je le paye en 6 fois Mais y'a déjà 20 choses que j'achète en 10 fois Il y a des voleurs qui ne tuent pas Ils n'ont pas la main armée c'est du vol raffiné Gagner de façon démesurée eux aussi ils ont peur de manquer On a tous peur de manquer Accumuler au maximum pour se sécuriser On a tous peur de manquer Accumuler au maximum pour se sécuriser Vivre libre j'peux pas avoir de pression Kiffe chacune des mes chansons J'ai un forfait famille pour toute la maison Comment s'habiller comment manger La police fait sa ronde T'as peur de la vie dans ce monde Si on est 6 milliards une appli gratuite qui vaut 19 milliards Sache que rien n'est gratuit Le système est partout Pourquoi tu t'enfuis ? Une possibilité de sortir du temps Des moments à moi avec ma S à moi Du 20 ans d'âge comme R.E.M Je quitte lembouteillage On a tous peur de manquer Accumuler au maximum pour se sécuriser On a tous peur de manquer Accumuler au maximum pour se sécuriser On a tous peur de manquer Accumuler au maximum pour se sécuriser On a tous peur de manquer Accumuler au maximum pour se sécuriser On a tous peur de manquer On a tous peur de manquer On a tous peur de manquer</t>
+          <t>Respect à tous, sauf aux te-trai Respect à tous ceux qui ont grandit dans l'18 Et fait l'école rue Charles Hermite Respect aux p'tits, respect aux grands Respect aux jeunes, respect aux vieux Et à tout ceux qui sont pas tombés d'dans Respect aux parents, aux sportifs, aux étudiants Respect aussi à ceux qui envoient des mandats Ceux qui m'ont soutenus quand j'avais que dalle Là, ma rue était sale et j'crevais la dalle Des heures entières dans l'escalier Golri, fumer, manger c'qu'on a taper Et rappuyer sur la minuterie Faut que j'm'arrache avant qu'ma mère arrive Jouer aux rebelles rue La Chapelle ... Mais obligé d'faire la vaisselle Et pour mettre un terme ... Respect à tous ceux qui la ferment Ni vu ni connu, rien vu rien entendu Tranquille, pépère, j'fais mes affaires J'me ferai pas lire dans les faits divers Overdose de sales histoires Lui aussi c'est un gentil, j'peux pas te croire Quand j'jouais au foot au Boulevard Ney Et puis en club à Championnet J'fumerai jamais, c'est c'que j'disais Première division dans le district Fallait être physique Car dans ma rue c'était strict Dans l'18ème, à Porte de La Chapelle J'vais m'endormir devant Histoires Naturelles A tous, à ceux qui ont fait un stage au 23ème étage Et avec moi, siroté du 12 ans d'âge Tous les voisins avaient la rage Y'avait des lions en cage A trop fumer, ça sentait l'shit sur le palier Même trop d'balances, même trop d'jaloux Causent des problèmes mais même si Même si j'suis fou, moi je viens d'où ? De Paris 18ème D'un quartier éternel nommé Porte de La Chapelle D'un quartier éternel nommé Porte de La Chapelle</t>
         </is>
       </c>
     </row>
@@ -1716,12 +1716,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Première Consultation</t>
+          <t>Quoi qu’ils pensent ou disent</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Han han, Doc Gynécologue se lève Mes clientes en sont déjà au rouge à lèvres Mais pas de mouron, à l'ouverture je serais prêt, lavé Sonnez puis entrez s'il-vous-plaît, patientez J'enfile mes gants tachetés et ma blouse craquée Ma secrétaire flaire Le carnet d'rendez-vous m'a rendu fou Trop d'patientes, trop de paires de fesses Ça me hante, trop d'herpès Dis-moi, dis-moi, son infection sera-t-elle belle, belle, belle ? Le Docteur a peur, c'est con, mais bon, vais-je assurer ? Comment va se passer la Première, la Première, la Première Consultation ? La Première, la Première, la Première, la Première, la Première, la Première Consultation La Première, la Première, la Première, la Première Consultation De peur de s'faire fouetter puis, au bled, réexpédiées Certaines veulent me forcer à falsifier mes certificats de virginité Elles savent que tout peut s'négocier Des malades imaginaires de 70 ans me font perdre mon temps Des fois, j'me crois dans la brousse au Viêt Nam Alors comme les cainris, j'opère au napalm sur ces dames Glisse ma langue et ma lame Des maris jaloux accompagnent leurs femmes J'suis donc obligé de travailler avec doigté et subtilité mais... Comme les sadiques, j'adore être regardé, ouais Je travaille où d'autres s'amusent La Première, la Première, la Première, la Première, la Première, la Première Consultation La Première, la Première, la Première, la Première Consultation Je prescris du mycoloque et des Duphastons Une patiente me fait remarquer que mon spéculum est rouillé Frotti Frotta j'ai fini le taff Des patientes que j'ai loupées, j'me méfie, je fais gaffe Je rentre chez moi, ma femme m'a fait des moules-frites Pourquoi, comme lui a dit monsieur Mari, elle a mis des habits sexy ? Le devoir conjugal, ça suffit J'ai fini de travailler et doit recommencer Je travaille où d'autres s'amusent Peut-être que j'abuse en tout cas j'accuse Toutes celles qui dans mon cabinet s'amusent C'était la Première, la Première, la Première Consultation La Première, la Première, la Première, la Première, la Première, la Première Consultation La Première, la Première, la Première, la Première Consultation Attention, attention, ne confondons pas. Est-ce que ça vous chatouille ou est-ce que ça vous gratouille ?</t>
+          <t>Quoi qu'ils pensent ou disent Ne les écoute pas Quoi qu'ils pensent ou disent Il n'y a que toi pour moi Ils veulent te voir tomber Qu'entre nous ce soit terminé Ils veulent te voir pleurer Mais notre amour est sacré Ils disent que t'as changé Qu'à trop m'aimer ça va t'tuer Ils disent qu'ils sont tes amis Que ton p'tit cur, je l'ai tout pris Quoi qu'ils pensent ou disent Ne les écoute pas Quoi qu'ils pensent ou disent Il n'y a qu toi pour moi Ils savent te faire doutr Fais-moi confiance, fidélité Ils savent des choses sur ton passé Moi j'ai juste envie de t'aimer Ils doivent être dégoûtés On va tenir de longues années Ils n'ont rien compris Ils renforcent notre amour Quoi qu'ils pensent ou disent Ne les écoute pas Quoi qu'ils pensent ou disent Il n'y a que toi pour moi</t>
         </is>
       </c>
     </row>
@@ -1733,12 +1733,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Prince Charmant</t>
+          <t>Retweet</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Je t'attends, ouais je t'attends, je t'attends Je t'attends, ouais je t'attends, je t'attends J'embrasse une grenouille et elle devient princesse Elle vérifie si je regarde YouPorn, des histoires de fesses ça pue Critique ce que j'mange sans cesse Décide d toutes les destinations d toute les vacances De mes fréquentations, veux entendre c'que je pense Elle n'est pas enceinte, elle écoute sans enceinte J'suis le prince charmant c'est qui ce mec J'suis le prince charmant, auquel tu n'crois plus J'suis le prince charmant c'est qui ce mec Moderne avec des histoires de What you talk about ça pue What you talk about J'suis le prince charmant What you talk about auquel tu n'crois plus What you talk about Je t'attends, ouais je t'attends, je t'attends J'aimerais trouver quelqu'un avec tout partager Je t'attends, ouais je t'attends, je t'attends J'aimerais trouver quelqu'un avec tout partager Oui tout l'temps, Oui tout l'temps Je t'attends, j'aimerais trouver quelqu'un avec tout partager Tu couches avec lui mais c'est mon nom qu'tu cries, oui tout l'temps Elle veut du soleil, conduire mon auto J'ai une maison avec squat au bord de l'eau Partir même sans valise en vacances Quand j'y pense, quitter la France Ma marque sur la ficelle vue imprenable, sur le point prenable Ça fait des étincelles, la sucette n'a plus un gout d'anis Parce qu'avec moi c'est après quand elle a finit Je t'attends, ouais je t'attends, je t'attends J'aimerais trouver quelqu'un avec tout partager Je t'attends, ouais je t'attends, je t'attends J'aimerais trouver quelqu'un avec tout partager Oui tout l'temps, Oui tout l'temps Je t'attends, j'aimerais trouver quelqu'un avec tout partager Je t'attends, ouais je t'attends Tu couche avec lui mais c'est mon nom qu'tu cries Oui tout l'temps, je t'attends, je t'attends, je t'attends Ouais je t'attends, oui tout l'temps je t'attends ça pue J'suis le prince charmant Ouais je t'attends, j'suis le prince charmant, j'suis le prince charmant</t>
+          <t>Impression.. Impressionnisme.. Prends ton pinceau et crée la beauté comme Monnet Affine ton trait, même si ça n'peut rien t'apporter Observe la nature, tout est déjà là De l'égoïsme de papa à la survie de mama Tu n'te trompes pas quand tu dis l'enfer c'est les autres Mais tu es aussi l'autre pour un autre Donc apprends à marcher doucement sur la terre Sous chacun d'tes pas y'a plus de vie qu'dans tes artères Ils veulent tous leur nom en haut de l'affiche Elles veulent toutes leur sac Dior quand elles s'affichent Elle s'en fiche que sa copine divorce avec deux enfants en bas âge Tant qu'elle garde la maison et le compte blindé quand elle voyage De toute façon les nounous s'occuperont du reste Pendant qu'elle ira tapiner à Budapest La voûte céleste n'est là que pour ceux qui lèvent la tête On n'touche pas les étoiles avec la semelle de ses baskets Les gros culs twerkent sur Instagram, le clocher brûle de Notre-Dame Le Quartier Rouge dAmsterdam sert toujours des Croques-madame Les hommes sont contents même si ils sont perdus Ils noient leur solitude dans l'alcool et les histoires de cul Auguste Rodin a sculpté la beauté, certains Parisiens ont su garder leur sensualité L'uvre d'une vie beaucoup l'envie mais n'ont pas envie des à-côtés qui envahissent la vie C'est normal, on ne cherche que le plaisir dans ces villes de grande solitude remplies de certitudes et de similitudes Je vous laisse la renommée.. je ne garde que l'expérience Écoute, observe.. parle-moi.. Écoute, observe.. parle mieux Ils ont contracté la jalousie à la naissance Elle ne supporte plus les plus belles qu'elle depuis l'adolescence Ne connait de la France que l'Amérique pas la Renaissance En colonie d'vacances on ne lui a pas dit qu'elle venait d'une colonie de France La, Si, La, Sol, la pièce rapportée devenue folle Elle est du village mais elle veut une villa N6 Chanel N5, je n'suis pas du village Tous rêvent d'être dans la villa, grossière et vulgaire pour son âge Il était une fois, combien il y a, comme Viard Jalouse J'ai amené Charlotte à la maison du caviar Pourtant célibataire, il n'y a plus qu'moi qui est l'esprit d'famille C'est toi qui fait partie de notre famille J'aime les mondains, le bureau, le terrain Elle me demande pourquoi ne n'dis jamais du mal des autres Je n'y avait pas pensé, ce n'est pas ma culture, l'enfer c'est vous autres Elle aime voir les gens souffrirent, pour elle ça veut dire qu'elle va s'en sortir C'est comme s'il était de l'OM et il voudrait que Marseille perde Ils parient pour Paris, ils parient contre eux-mêmes les rageurs Squat à monté un festival pour aider le Brésil des favels C'est pas vrai dit le jaloux, il fait ça pour les sous, en plus ils sont gays avec Doc, wallah c'est vrai Elle pense que l'mal rapporte plus que l'bien Et c'est avec sa jalousie qu'elle veut sauver les siens ? Elle déteste qu'on n'la calcule pas.. Écoute, observe.. parle-moi.. Écoute, observe.. parle mieux X2 Elle déteste qu'on n'la calcule pas Mais pourquoi tu n'la regardes pas ?</t>
         </is>
       </c>
     </row>
@@ -1750,12 +1750,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Quality Street (Dans ma rue 3e episode)</t>
+          <t>Rue Mazarine</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Respect à tous, sauf aux te-trai Respect à tous ceux qui ont grandit dans l'18 Et fait l'école rue Charles Hermite Respect aux p'tits, respect aux grands Respect aux jeunes, respect aux vieux Et à tout ceux qui sont pas tombés d'dans Respect aux parents, aux sportifs, aux étudiants Respect aussi à ceux qui envoient des mandats Ceux qui m'ont soutenus quand j'avais que dalle Là, ma rue était sale et j'crevais la dalle Des heures entières dans l'escalier Golri, fumer, manger c'qu'on a taper Et rappuyer sur la minuterie Faut que j'm'arrache avant qu'ma mère arrive Jouer aux rebelles rue La Chapelle ... Mais obligé d'faire la vaisselle Et pour mettre un terme ... Respect à tous ceux qui la ferment Ni vu ni connu, rien vu rien entendu Tranquille, pépère, j'fais mes affaires J'me ferai pas lire dans les faits divers Overdose de sales histoires Lui aussi c'est un gentil, j'peux pas te croire Quand j'jouais au foot au Boulevard Ney Et puis en club à Championnet J'fumerai jamais, c'est c'que j'disais Première division dans le district Fallait être physique Car dans ma rue c'était strict Dans l'18ème, à Porte de La Chapelle J'vais m'endormir devant Histoires Naturelles A tous, à ceux qui ont fait un stage au 23ème étage Et avec moi, siroté du 12 ans d'âge Tous les voisins avaient la rage Y'avait des lions en cage A trop fumer, ça sentait l'shit sur le palier Même trop d'balances, même trop d'jaloux Causent des problèmes mais même si Même si j'suis fou, moi je viens d'où ? De Paris 18ème D'un quartier éternel nommé Porte de La Chapelle D'un quartier éternel nommé Porte de La Chapelle</t>
+          <t>Heureusement qu'c'est Gynéco qui garde un il sur vous Pour la famille, il est au garde-à-vous Mais Bruno, devant la femme, est à genoux Moitié-homme, moitié-enfant Je vous appellerai toutes Maman ! ... Je vous appellerai toutes Maman ! Oui, star, car rien à vendre, son entourage c'est sa famille Et t'as pas l'âge pour l'comprendre Moi j'avance seul ou bien accompagné J'te mets sur or... bite, ma couille Relation textuelle Sur la rive gauche du côté de chez elle Coopération si précise Mademoiselle, c'est une belle prise Une pensée à ceux qui n'reviendront pas Ça, c'est ma lettre à la fille de Saint-Germain Y'a trop d'histoires inventées à son sujet Rue Mazarine, je n't'abandonnerai jamais Moi j'étais prêt, malgré la jeunesse Puis j'ai mûri, été lu dans la presse Et quand on aime, on n'compte pas Et pour elle, je fais le premier pas Même qu'offrir des choses aux femmes c'est leur dire Je t'aime Les femmes aiment des choses, les choses de l'amour Les femmes aiment les choses et que j'leur fasse la cour A détraquer le système optique On va finir par l'faire remarquer Je suis une star, même avec un stick Enfin la guerre, finie la paix Grâce aux télés, aux magazines J'ai plein de copains, oui, mais ... Ma vraie copine, c'est Mazarine Heureusement qu'c'est Gynéco qui garde un il sur vous Pour la famille, il est au garde-à-vous Mais Bruno, devant la femme, est à genoux Moitié-homme, moitié-enfant Je vous appellerai toutes Maman ! ... Je vous appellerai toutes Maman ! Femmes des années 80 ou femmes des années 2000 Avec ta perception, tu mettras toujours dans l'mil J'ai une identité nouvelle pour les femelles Au dessus des yeux, un peu d'rimmel Que les hommes soient seuls ou en commun Moi je préfère la vie au féminin Alors à tous ces mecs, tous ces débiles Qui pensent qu'une femme de dos, c'est son profil Tout c'que j'dis, c'est confidentiel Alors mesdames, secret professionnel L'illusion des unes fait la couleur des autres Réinventer l'temps, dans la lumière et ses mouvements J'ai lil face au passé Et des choses, il s'en est passé Mesdemoiselles, rendez-moi mon innocence On n'm'a plus vu depuis l'Empire des Sens J'en ai marre de traîner pour faire le mal Lady, quand reviendras-tu ? Dis bébé, au moins le sais-tu ? Heureusement qu'c'est Gynéco qui garde un il sur vous Pour la famille, il est au garde-à-vous Mais Bruno, devant la femme, est à genoux Moitié-homme, moitié-enfant Je vous appellerai toutes Maman ! ... Je vous appellerai toutes Maman !1</t>
         </is>
       </c>
     </row>
@@ -1767,12 +1767,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Quoi qu’ils pensent ou disent</t>
+          <t>Si tu crois que je pèze</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Quoi qu'ils pensent ou disent Ne les écoute pas Quoi qu'ils pensent ou disent Il n'y a que toi pour moi Ils veulent te voir tomber Qu'entre nous ce soit terminé Ils veulent te voir pleurer Mais notre amour est sacré Ils disent que t'as changé Qu'à trop m'aimer ça va t'tuer Ils disent qu'ils sont tes amis Que ton p'tit cur, je l'ai tout pris Quoi qu'ils pensent ou disent Ne les écoute pas Quoi qu'ils pensent ou disent Il n'y a qu toi pour moi Ils savent te faire doutr Fais-moi confiance, fidélité Ils savent des choses sur ton passé Moi j'ai juste envie de t'aimer Ils doivent être dégoûtés On va tenir de longues années Ils n'ont rien compris Ils renforcent notre amour Quoi qu'ils pensent ou disent Ne les écoute pas Quoi qu'ils pensent ou disent Il n'y a que toi pour moi</t>
+          <t>Depuis qu'j'ai signé, je n'peux plus respirer On m'prend pour Crésus, on croit que j'suis blindé Oui j'fais d'la musique, ça rime avec fric, mais il y a un hic euuuh... Plus on m'donne des avances et plus j'les dépense Chèque déposé, aussitôt retiré Avec mon banquier, c'est la guerre J'suis à découvert depuis des millénaires Interdit d'chéquier, je n'ai plus d'carte bancaire Soit j'fais du rap ou je dérape Et j'vends l'réverbère dans la rue sous l'lampadaire Quand j'ouvre mon frigidaire, ça fait des courants d'air Les portes claquent, et mon ventre n'est pas dac' Plus rien à manger depuis le mois de juillet J'ai connu la faim et le froid en été Eddie Barclay ne m'a pas invité dans sa super soirée sur la côte cette été Je suis resté à la cité Si tu crois qu'je pèze, que j'habite dans l'16 Que je n'mange plus d'guez et que j'suis à l'aise Tu crois qu'je pèze, que j'habite dans l'16 Que je n'mange plus d'guez et que j'suis à l'aise Pour la femme d'affaires, je suis une bonne affaire Elle veut se marier, qu'on fasse des bébés Me manager et tout contrôler Elle me parle de points, de c'que j'vais gagner J'laisse tomber, la fille branchée me fait triper Elle s'habille chez XULY.Bët et fume des gros pét' Elle me parle de Dollita et boit d'la Corona Elle écoute mes morceaux et les trouve excellents Elle dit que ça l'fait, mais où est l'argent ? À la fille du quartier, de me maltraiter J'veux qu'tu m'achètes de l'or, j'veux rouler dehors J'en ai marre des transports, fini les corps-à-corps Où sont tes disques d'or ? Bruno, quitte le nord Aïe, aïe, aïe, aïe, aïe... Si tu crois qu'je pèze, que j'habite dans l'16 Que je n'mange plus d'guez et que j'suis à l'aise Tu crois qu'je pèze, que j'habite dans l'16 Que je n'mange plus d'guez et que j'suis à l'aise Album bouclé, promo lancée Que va-t-il se passer ? Est-ce que ça va marcher ? Je suis assis sur un siège éjectable Tout ça devient très inconfortable Où sont mes vrais ennemis ? Qui sont mes faux amis ? Dans ce drôle de biz, où les mecs se font la bise Dans ce drôle de showbiz qui n'subit jamais la crise On reprend mon contrat à coup d'avocat C'est Doc Junior contre Big Major J'ai tout perdu mais il me reste la rue Elle ne peut me trahir car je sais m'en servir Fini les studios, adieu les photos Plus personne aime le Doc Gyneco Retour dans l'ghetto, dans l'quartier le plus chaud ! Si tu crois qu'je pèze, que j'habite dans l'16 Que je n'mange plus d'guez et que j'suis à l'aise Tu crois qu'je pèze, que j'habite dans l'16 Que je n'mange plus d'guez et que j'suis à l'aise</t>
         </is>
       </c>
     </row>
@@ -1784,12 +1784,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Retweet</t>
+          <t>Solitaire</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Impression.. Impressionnisme.. Prends ton pinceau et crée la beauté comme Monnet Affine ton trait, même si ça n'peut rien t'apporter Observe la nature, tout est déjà là De l'égoïsme de papa à la survie de mama Tu n'te trompes pas quand tu dis l'enfer c'est les autres Mais tu es aussi l'autre pour un autre Donc apprends à marcher doucement sur la terre Sous chacun d'tes pas y'a plus de vie qu'dans tes artères Ils veulent tous leur nom en haut de l'affiche Elles veulent toutes leur sac Dior quand elles s'affichent Elle s'en fiche que sa copine divorce avec deux enfants en bas âge Tant qu'elle garde la maison et le compte blindé quand elle voyage De toute façon les nounous s'occuperont du reste Pendant qu'elle ira tapiner à Budapest La voûte céleste n'est là que pour ceux qui lèvent la tête On n'touche pas les étoiles avec la semelle de ses baskets Les gros culs twerkent sur Instagram, le clocher brûle de Notre-Dame Le Quartier Rouge dAmsterdam sert toujours des Croques-madame Les hommes sont contents même si ils sont perdus Ils noient leur solitude dans l'alcool et les histoires de cul Auguste Rodin a sculpté la beauté, certains Parisiens ont su garder leur sensualité L'uvre d'une vie beaucoup l'envie mais n'ont pas envie des à-côtés qui envahissent la vie C'est normal, on ne cherche que le plaisir dans ces villes de grande solitude remplies de certitudes et de similitudes Je vous laisse la renommée.. je ne garde que l'expérience Écoute, observe.. parle-moi.. Écoute, observe.. parle mieux Ils ont contracté la jalousie à la naissance Elle ne supporte plus les plus belles qu'elle depuis l'adolescence Ne connait de la France que l'Amérique pas la Renaissance En colonie d'vacances on ne lui a pas dit qu'elle venait d'une colonie de France La, Si, La, Sol, la pièce rapportée devenue folle Elle est du village mais elle veut une villa N6 Chanel N5, je n'suis pas du village Tous rêvent d'être dans la villa, grossière et vulgaire pour son âge Il était une fois, combien il y a, comme Viard Jalouse J'ai amené Charlotte à la maison du caviar Pourtant célibataire, il n'y a plus qu'moi qui est l'esprit d'famille C'est toi qui fait partie de notre famille J'aime les mondains, le bureau, le terrain Elle me demande pourquoi ne n'dis jamais du mal des autres Je n'y avait pas pensé, ce n'est pas ma culture, l'enfer c'est vous autres Elle aime voir les gens souffrirent, pour elle ça veut dire qu'elle va s'en sortir C'est comme s'il était de l'OM et il voudrait que Marseille perde Ils parient pour Paris, ils parient contre eux-mêmes les rageurs Squat à monté un festival pour aider le Brésil des favels C'est pas vrai dit le jaloux, il fait ça pour les sous, en plus ils sont gays avec Doc, wallah c'est vrai Elle pense que l'mal rapporte plus que l'bien Et c'est avec sa jalousie qu'elle veut sauver les siens ? Elle déteste qu'on n'la calcule pas.. Écoute, observe.. parle-moi.. Écoute, observe.. parle mieux X2 Elle déteste qu'on n'la calcule pas Mais pourquoi tu n'la regardes pas ?</t>
+          <t>Yeah, Whats up ? Its Daz Dillinger from the D.P.G., Dogg Pound in the house, we chilling with Doc Be brother soul with the french, you know what I mean ? We go kicking and chilling and have a real good time... Je vais foutre que dalle si je reste seul La ville s'emballe mais je reste seul Faut suivre la mode les boites, les files de bagnoles De plus en plus seul devant mon verre d'alcool... Je dois faire semblant dêtre heureux et faire des textes joyeux Faire kiffer les gens de 7 à 77 ans Moi dans la vie je reste seul, indépendant... Tes qu'obligé d'écouter les couplets Si tes pressé jvais tfaire ton refrain préféré Je métais marié avec le public Je voulais chanter des problèmes politiques Aider la vie avec ma musique Cque tu attends, cque tu ressens Cest cque je milite x2 Hey boy, t'es tellement seul ce soir Hey boy, tu peux compter sur moi what's up, yo? Hey boy, t'es tellement seul ce soir Je me sens seul Personne à aimer ni à appeler Tu peux compter sur moi I took fighters friends to makeem jump up To makeem, were gonna dance, man Who wanna come in ? To promise, to promise, to promise that Im coming back A free world where the soul about peace who got my back Wave your hands today, Write, Black, Green whatever that you do Sing a rap with that Its Dogg Pound, D.P.G., D.A.Z., just call me Dillinger Glad that you made it, the whole, where I was expecting clap your hands, and stamp your feet, and get ill with it The way that we party, you know we stay real with it My man Doc's, got me up and put me on a block Stop, , party dont stop ! x2 Hey boy, t'es tellement seul ce soir Hey boy, tu peux compter sur moi Hey boy, t'es tellement seul ce soir Je me sens seul Personne à aimer, ni à appeler Tu peux compter sur moi J'ai commencé par écrire et jai chanté Jamais, jamais, jaurais cru rapporter du blé Je me suis fait arnaquer mais vous savez Que le plus important cest que le message est passé Première Consultation , Liaisons , Quality Street De l'amour à donner, du papier à brûler Chacun son truc, je connais mon rayon Jai juste besoin dune feuille et dun crayon Ce qu'il y a de plus dur à faire mener une vie honnête Etre un rebelle mais toujours droit dans sa tête La rap hardcore ça mimpressionne pas Je kiffe sur le travailleur qui élève sa mi-fa Sur le scar-la quachète une maison à sa mama Tu sais ce que jattend Tu sais ce que jressens J'me sens seul, tellement seul... Personne à rappeler Je suis seul, solitaire, j'pourrais pleurer Dogg Pound in the house, we chilling with Doc Be brother soul with the french, you know what I mean ? x2 Hey boy, t'es tellement seul ce soir Hey boy, tu peux compter sur moi Hey boy, t'es tellement seul ce soir Je me sens seul Personne à aimer ni à appeler Tu peux compter sur moi Aidez moi Aidez moi Aidez moi La musique ne ment pas Aidez moi Si je tombe je peux compter sur toi Aidez moi Aidez moi...1</t>
         </is>
       </c>
     </row>
@@ -1801,12 +1801,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Rue Mazarine</t>
+          <t>Souveraine (Paris Cool Mix)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Heureusement qu'c'est Gynéco qui garde un il sur vous Pour la famille, il est au garde-à-vous Mais Bruno, devant la femme, est à genoux Moitié-homme, moitié-enfant Je vous appellerai toutes Maman ! ... Je vous appellerai toutes Maman ! Oui, star, car rien à vendre, son entourage c'est sa famille Et t'as pas l'âge pour l'comprendre Moi j'avance seul ou bien accompagné J'te mets sur or... bite, ma couille Relation textuelle Sur la rive gauche du côté de chez elle Coopération si précise Mademoiselle, c'est une belle prise Une pensée à ceux qui n'reviendront pas Ça, c'est ma lettre à la fille de Saint-Germain Y'a trop d'histoires inventées à son sujet Rue Mazarine, je n't'abandonnerai jamais Moi j'étais prêt, malgré la jeunesse Puis j'ai mûri, été lu dans la presse Et quand on aime, on n'compte pas Et pour elle, je fais le premier pas Même qu'offrir des choses aux femmes c'est leur dire Je t'aime Les femmes aiment des choses, les choses de l'amour Les femmes aiment les choses et que j'leur fasse la cour A détraquer le système optique On va finir par l'faire remarquer Je suis une star, même avec un stick Enfin la guerre, finie la paix Grâce aux télés, aux magazines J'ai plein de copains, oui, mais ... Ma vraie copine, c'est Mazarine Heureusement qu'c'est Gynéco qui garde un il sur vous Pour la famille, il est au garde-à-vous Mais Bruno, devant la femme, est à genoux Moitié-homme, moitié-enfant Je vous appellerai toutes Maman ! ... Je vous appellerai toutes Maman ! Femmes des années 80 ou femmes des années 2000 Avec ta perception, tu mettras toujours dans l'mil J'ai une identité nouvelle pour les femelles Au dessus des yeux, un peu d'rimmel Que les hommes soient seuls ou en commun Moi je préfère la vie au féminin Alors à tous ces mecs, tous ces débiles Qui pensent qu'une femme de dos, c'est son profil Tout c'que j'dis, c'est confidentiel Alors mesdames, secret professionnel L'illusion des unes fait la couleur des autres Réinventer l'temps, dans la lumière et ses mouvements J'ai lil face au passé Et des choses, il s'en est passé Mesdemoiselles, rendez-moi mon innocence On n'm'a plus vu depuis l'Empire des Sens J'en ai marre de traîner pour faire le mal Lady, quand reviendras-tu ? Dis bébé, au moins le sais-tu ? Heureusement qu'c'est Gynéco qui garde un il sur vous Pour la famille, il est au garde-à-vous Mais Bruno, devant la femme, est à genoux Moitié-homme, moitié-enfant Je vous appellerai toutes Maman ! ... Je vous appellerai toutes Maman !1</t>
+          <t>Couplet n1 Même si ça fait chier certains cest comme ça La vie est un combat alors je reste en bas Je suis resté comme je suis, tu peux tester Pas de magouilles, pas de combines, mec, jsuis pas corrompu Tous ces ragots qui passent sur moi à la télé Femmes, femmes écoutez cest pour me déstabiliser Ne sois pas étonné Ils vont mattaquer, me condamner ou me juger Ils ne maiment pas Mais ma musique leur dira la vérité Refrain n1 Cest le Doc Bruno le plus populaire Le plus aimé, le plus populaire Les mots sont simples et le message est clair clair Je nai besoin de personne La souveraine est gardienne de ton île Je taime, moi non plus, joli garçon des îles Je nai besoin de graisser la patte à personne La souveraine est gardienne de ton île Je taime, moi non plus, joli garçon des îles Couplet n2 Eh, tous ces jeunes qui foutent le feu Très rares sont ceux qui croient en eux Trop rares sont ceux qui croient en Dieu Viens, viens avec moi jouer le beau jeu Si jai un don, ouais, dans lfoot, dans lson Ma situation fait des envieux Ya trop de te-traits, ya trop de re-frè En vrai qui taiment par interêt Comptez plus sur lDoc pour vous faire des meufs Bruno marque déposée sur toutes les seufs Et les filles aiment que je vive dangereusement Risquer ma vie dans des buissons ardents Jai les mains propres et cest comme ça Même si ça fait chier certains cest comme ça Refrain n2 Cest le Doc Bruno le plus populaire Le plus aimé, le plus populaire Je nai besoin de personne La souveraine est gardienne de ton île Je taime, moi non plus, joli garçon des îles Je nai besoin de graisser la patte à personne La souveraine est gardienne de ton île Je taime, moi non plus, joli garçon des îles Couplet n3 Le peuple a envie découter la suite Le peuple se laisse manipuler par le vice, se rend complice de linjustice Le peuple a faim, il veut du pain Le peuple se plaint, le monde enquête Le peuple veut annuler la dette du Tiers-Monde Le peuple veut aussi regagner la coupe du monde Que demande le peuple ? Ma queue se le demande Vivre de baise et vivre à laise Loin des tempêtes, des naufrages et dlErika Loin des impôts et de la listeria Refrain n3 Cest le Doc Bruno le plus populaire Le plus aimé, le plus populaire Les mots sont simples et le message est clair Je veux un mec, un amant et un ex Je veux du sexe et sans complexe, latex Je nai besoin de personne La souveraine est gardienne de ton île Je taime, moi non plus, joli garçon des îles Je nai besoin de graisser la patte à personne La souveraine est gardienne de ton île Je taime, moi non plus, joli garçon des îles A Gwada là Mais qui vit là A Gwada là Je t'aime, moi non plus C'est moi</t>
         </is>
       </c>
     </row>
@@ -1818,12 +1818,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Si tu crois que je pèze</t>
+          <t>Taxi</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Depuis qu'j'ai signé, je n'peux plus respirer On m'prend pour Crésus, on croit que j'suis blindé Oui j'fais d'la musique, ça rime avec fric, mais il y a un hic euuuh... Plus on m'donne des avances et plus j'les dépense Chèque déposé, aussitôt retiré Avec mon banquier, c'est la guerre J'suis à découvert depuis des millénaires Interdit d'chéquier, je n'ai plus d'carte bancaire Soit j'fais du rap ou je dérape Et j'vends l'réverbère dans la rue sous l'lampadaire Quand j'ouvre mon frigidaire, ça fait des courants d'air Les portes claquent, et mon ventre n'est pas dac' Plus rien à manger depuis le mois de juillet J'ai connu la faim et le froid en été Eddie Barclay ne m'a pas invité dans sa super soirée sur la côte cette été Je suis resté à la cité Si tu crois qu'je pèze, que j'habite dans l'16 Que je n'mange plus d'guez et que j'suis à l'aise Tu crois qu'je pèze, que j'habite dans l'16 Que je n'mange plus d'guez et que j'suis à l'aise Pour la femme d'affaires, je suis une bonne affaire Elle veut se marier, qu'on fasse des bébés Me manager et tout contrôler Elle me parle de points, de c'que j'vais gagner J'laisse tomber, la fille branchée me fait triper Elle s'habille chez XULY.Bët et fume des gros pét' Elle me parle de Dollita et boit d'la Corona Elle écoute mes morceaux et les trouve excellents Elle dit que ça l'fait, mais où est l'argent ? À la fille du quartier, de me maltraiter J'veux qu'tu m'achètes de l'or, j'veux rouler dehors J'en ai marre des transports, fini les corps-à-corps Où sont tes disques d'or ? Bruno, quitte le nord Aïe, aïe, aïe, aïe, aïe... Si tu crois qu'je pèze, que j'habite dans l'16 Que je n'mange plus d'guez et que j'suis à l'aise Tu crois qu'je pèze, que j'habite dans l'16 Que je n'mange plus d'guez et que j'suis à l'aise Album bouclé, promo lancée Que va-t-il se passer ? Est-ce que ça va marcher ? Je suis assis sur un siège éjectable Tout ça devient très inconfortable Où sont mes vrais ennemis ? Qui sont mes faux amis ? Dans ce drôle de biz, où les mecs se font la bise Dans ce drôle de showbiz qui n'subit jamais la crise On reprend mon contrat à coup d'avocat C'est Doc Junior contre Big Major J'ai tout perdu mais il me reste la rue Elle ne peut me trahir car je sais m'en servir Fini les studios, adieu les photos Plus personne aime le Doc Gyneco Retour dans l'ghetto, dans l'quartier le plus chaud ! Si tu crois qu'je pèze, que j'habite dans l'16 Que je n'mange plus d'guez et que j'suis à l'aise Tu crois qu'je pèze, que j'habite dans l'16 Que je n'mange plus d'guez et que j'suis à l'aise</t>
+          <t>Yeah taxi Refrain Viens dans mon taxi S'aimer tout la nuit Tourner dans paris Ma baby sexy Couplet 1 Hey taxi, fais monter ma girly sexy Comme Joe le taxi moi je vis la nuit Laisse tourner le compteur, ça va durer des heures et des heures Comme quand je fais l'amour, ça dure des nuits et des jours C'est ça ma vie toujours assis avec une meuf a larrière de ton taco Et on s'effrime un max' sur la B.O Faut pas baisser, monte le son sur l'autoradio Mon kif kicker des beats avec mon bic, notes ton adresse, ton numéro, n'oublie pas le de-co, j'arrive illico ou que-do Du rap pro pour les accros J'ai du flow, je veux ser-po ça pour les rattes qui veulent quer-cro J'suis un mec réglo, un mac do Fais moi kiffer toute la nuit viens dans mon taxi Refrain Viens dans mon taxi S'aimer tout la nuit Tourner dans paris Ma baby sexy Viens dans mon taxi De midi à minuit Tourner dans paris Ma sexy baby Couplet 2 La misère du monde est bien plus dure que celle de té-ci Laisse monter ma femme dans ton taxi De Paris à New York on entend les même cris Yep taxi ! Yep taxi ! Sur les grands axes suis relax dans mon tax', je caresse tes cuisses Sentir le cuir sur ta peau Que le chauffeur jette un coup d'oeil dans le rétro Ma langue sur ta chair a l'arrière c'est chaud Fais moi kiffer toute la nuit viens dans le taco Refrain Pont Palapapa ..... Couplet 3 Cut ! Doc Gy, fais de jolies mélodies Embellie la soirée, allez sors du lit ma jolie Comme mes locks emmêlés sur ma te-tê Rejoins-nous, ce soir c'est la te-fê !</t>
         </is>
       </c>
     </row>
@@ -1835,12 +1835,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Solitaire</t>
+          <t>Tel père tel fils (Papa was a Rollin’ Stone)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Yeah, Whats up ? Its Daz Dillinger from the D.P.G., Dogg Pound in the house, we chilling with Doc Be brother soul with the french, you know what I mean ? We go kicking and chilling and have a real good time... Je vais foutre que dalle si je reste seul La ville s'emballe mais je reste seul Faut suivre la mode les boites, les files de bagnoles De plus en plus seul devant mon verre d'alcool... Je dois faire semblant dêtre heureux et faire des textes joyeux Faire kiffer les gens de 7 à 77 ans Moi dans la vie je reste seul, indépendant... Tes qu'obligé d'écouter les couplets Si tes pressé jvais tfaire ton refrain préféré Je métais marié avec le public Je voulais chanter des problèmes politiques Aider la vie avec ma musique Cque tu attends, cque tu ressens Cest cque je milite x2 Hey boy, t'es tellement seul ce soir Hey boy, tu peux compter sur moi what's up, yo? Hey boy, t'es tellement seul ce soir Je me sens seul Personne à aimer ni à appeler Tu peux compter sur moi I took fighters friends to makeem jump up To makeem, were gonna dance, man Who wanna come in ? To promise, to promise, to promise that Im coming back A free world where the soul about peace who got my back Wave your hands today, Write, Black, Green whatever that you do Sing a rap with that Its Dogg Pound, D.P.G., D.A.Z., just call me Dillinger Glad that you made it, the whole, where I was expecting clap your hands, and stamp your feet, and get ill with it The way that we party, you know we stay real with it My man Doc's, got me up and put me on a block Stop, , party dont stop ! x2 Hey boy, t'es tellement seul ce soir Hey boy, tu peux compter sur moi Hey boy, t'es tellement seul ce soir Je me sens seul Personne à aimer, ni à appeler Tu peux compter sur moi J'ai commencé par écrire et jai chanté Jamais, jamais, jaurais cru rapporter du blé Je me suis fait arnaquer mais vous savez Que le plus important cest que le message est passé Première Consultation , Liaisons , Quality Street De l'amour à donner, du papier à brûler Chacun son truc, je connais mon rayon Jai juste besoin dune feuille et dun crayon Ce qu'il y a de plus dur à faire mener une vie honnête Etre un rebelle mais toujours droit dans sa tête La rap hardcore ça mimpressionne pas Je kiffe sur le travailleur qui élève sa mi-fa Sur le scar-la quachète une maison à sa mama Tu sais ce que jattend Tu sais ce que jressens J'me sens seul, tellement seul... Personne à rappeler Je suis seul, solitaire, j'pourrais pleurer Dogg Pound in the house, we chilling with Doc Be brother soul with the french, you know what I mean ? x2 Hey boy, t'es tellement seul ce soir Hey boy, tu peux compter sur moi Hey boy, t'es tellement seul ce soir Je me sens seul Personne à aimer ni à appeler Tu peux compter sur moi Aidez moi Aidez moi Aidez moi La musique ne ment pas Aidez moi Si je tombe je peux compter sur toi Aidez moi Aidez moi...1</t>
+          <t>Mon père m'a dit Bruno, va te faire couper les cheveux J'lui ai dit Ah non monsieur, j'irai si je le veux Ce n'est pas du Elsa Mais Papa t'en va pas Faut que j'te parle de chez toi Des dettes et des PV De tout ce que tu m'as laissé Des demi-frères et surs De mon carnet de notes, fané comme une fleur Du 23ème étage t'es arrivé au rez-de-chaussée Sans te retourner Laissant au gardien ta clé Ça fait Papa was a rollin' stone Wherever he laid his hat was his home And when he died, all he left was alone Je suis livré à moi-même sur mon boulevard 2 francs dans la poche multiplié par mes lascars Et si Marie-Jeanne est toute proche de la flamme C'est pour enfouir ton absence au fin fond de mon âme Oublier que t'es parti Oublier ton visage Tes humeurs lunatiques Tourner la page J'ai pris de l'âge, je ne veux pas me retrouver à la maison d'arrêt Papa, je t'en supplie au poste, viens me chercher Papa was a rollin' stone Wherever he laid his hat was his home And when he died, all he left was alone C'était héréditaire, j'ai des reins d'acier Je te tiens par la taille et tu ne peux plus bouger Mords-toi les lèvres pour ne gémir Je sens la fin venir Laisse-moi partir Aucune fille sur la Terre ne pourra me retenir Je suis comme dit ma mère Le sosie de mon père Un mec qui galère Qui fout sa vie en l'air Papa tu m'a mis sur la Terre Dans la rue c'est la guerre Papa was a rollin' stone Wherever he laid his hat was his home And when he died, all he left was alone</t>
         </is>
       </c>
     </row>
@@ -1852,12 +1852,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Souveraine (Paris Cool Mix)</t>
+          <t>Tel une bombe (Remix) (Album version)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Couplet n1 Même si ça fait chier certains cest comme ça La vie est un combat alors je reste en bas Je suis resté comme je suis, tu peux tester Pas de magouilles, pas de combines, mec, jsuis pas corrompu Tous ces ragots qui passent sur moi à la télé Femmes, femmes écoutez cest pour me déstabiliser Ne sois pas étonné Ils vont mattaquer, me condamner ou me juger Ils ne maiment pas Mais ma musique leur dira la vérité Refrain n1 Cest le Doc Bruno le plus populaire Le plus aimé, le plus populaire Les mots sont simples et le message est clair clair Je nai besoin de personne La souveraine est gardienne de ton île Je taime, moi non plus, joli garçon des îles Je nai besoin de graisser la patte à personne La souveraine est gardienne de ton île Je taime, moi non plus, joli garçon des îles Couplet n2 Eh, tous ces jeunes qui foutent le feu Très rares sont ceux qui croient en eux Trop rares sont ceux qui croient en Dieu Viens, viens avec moi jouer le beau jeu Si jai un don, ouais, dans lfoot, dans lson Ma situation fait des envieux Ya trop de te-traits, ya trop de re-frè En vrai qui taiment par interêt Comptez plus sur lDoc pour vous faire des meufs Bruno marque déposée sur toutes les seufs Et les filles aiment que je vive dangereusement Risquer ma vie dans des buissons ardents Jai les mains propres et cest comme ça Même si ça fait chier certains cest comme ça Refrain n2 Cest le Doc Bruno le plus populaire Le plus aimé, le plus populaire Je nai besoin de personne La souveraine est gardienne de ton île Je taime, moi non plus, joli garçon des îles Je nai besoin de graisser la patte à personne La souveraine est gardienne de ton île Je taime, moi non plus, joli garçon des îles Couplet n3 Le peuple a envie découter la suite Le peuple se laisse manipuler par le vice, se rend complice de linjustice Le peuple a faim, il veut du pain Le peuple se plaint, le monde enquête Le peuple veut annuler la dette du Tiers-Monde Le peuple veut aussi regagner la coupe du monde Que demande le peuple ? Ma queue se le demande Vivre de baise et vivre à laise Loin des tempêtes, des naufrages et dlErika Loin des impôts et de la listeria Refrain n3 Cest le Doc Bruno le plus populaire Le plus aimé, le plus populaire Les mots sont simples et le message est clair Je veux un mec, un amant et un ex Je veux du sexe et sans complexe, latex Je nai besoin de personne La souveraine est gardienne de ton île Je taime, moi non plus, joli garçon des îles Je nai besoin de graisser la patte à personne La souveraine est gardienne de ton île Je taime, moi non plus, joli garçon des îles A Gwada là Mais qui vit là A Gwada là Je t'aime, moi non plus C'est moi</t>
+          <t>Un deux, un, devinez qui revient Je pèse et je baise En levrette, en brochettes, pickpocket, pichenette J'impose ma notoriété comme Vito Corleone Me regarde pas d'travers, enculé d'ta mère J'viens flamber sur l'album des Neg' Marrons Et tu m'connais Si t'es pas content, va t'faire mettre jusqu'aux trous d'nez J'te piétine à coups d'talon façon Joe Pesci L'affranchi, pas d'chichis, mon Secteur Ä te chie Devant lui tu fléchis Même si tu cries, on augmente la mélodie d'la tuerie Fait passer l'homicide pour un putain d'hara-kiri Les flics sucent leurs indics, personne sait c'est iq Va t'faire enculer J'veux c'qui m'revient, ne plus voir les richesses non étalées Stomy Bugsy, c'est comme ça qu'on m'appelle Tu sais, le beau gosse avec le costard, la coupe de champagne et le cigare Et les rattes de des rêves, j'en ai à la pelle J'ai tout connu, laisse-moi sortir du cul Les murs de chez moi sont tellement fins Que quand mon voisin chie, j'peux savoir si c'est des pâtes ou du riz Quand les fils de salopes prétendent faire du vrai hip-hop L'important c'est la maille, le flooze, la pêche, la classe quoi Appelle-moi Stomy Bugsy Montana Le calibre qu'il te faut en attendant le prochain album du M.Ä Mon premier est une taspé qui kiffe Gynéco Mon second un MC qui fait du rap à l'eau Le tout est une su que je baise sans poa Je touche ma SACEM et j'investis dans un BM Je pèse, je baise, toutes les filles m'aiment L'homme qui met son doigt dans ton intimité A prostitué ton rap sur le boulevard Ney Si tu veux pécho viens voir Gynéco Jamais de pénurie au PLC non non non J'investis en gros dans les rues du quartier J'suis sur toutes les radios, j'ai des clips vidéos On s'échange mes démos, j'ai une putain d'promo Un riche en sursis toi-même tu sais que Secteur Ä m'appuie Mais oui mais oui tel une bombe J'arrive et puis j'explose en fraction d'seconde Ferme ta gueule, creuse ta tombe, v'là Secteur Ä c'est l'hécatombe Je gronde comme le tonnerre et j'suis vénère comme King-Kong Est-ce que t'as bien saisi? C'est encore nous Les trois scars-la voyous Ben-J Jacky Djamatik Daddy viennent tchatcher pour vous 1-9-9-chut, l'année où tu rêves de pèze Lève-toi, bats-toi si tu n'veux pas être de la baise Maille, maille, maille, ma-ma-ma-maille Mais oui il n'y a que la maille qui m'aille Djamatik le dancehall a fait découper ça XXX Chaud, écoute ça Marre de vivre comme une victime de XXX 1-9-9-7 l'argent entre dans ma vie J'en ai marre de rêver, faut qu'j'assouvisse mes envies C'que j'ai pas eu hier, faut qu'j'l'obtienne aujourd'hui Tu veux d'la maille, des tunes, du fric, non non non non non il ne faut pas qu'tu flaires La monnaie dirige le monde, je l'ai déjà dit l'année dernière Comme nous t'aimes be-flam Et dans tous les mouvements Avoir des taspés tout l'temps Avoir les poches pleines d'argent Qu'on dise que t'es important Peser à cent pour cent Comme le temps c'est d'l'argent il faut qu't'agisses dès maintenant Mais oui mais oui tel une bombe J'arrive et puis j'explose en fraction d'seconde Ferme ta gueule, creuse ta tombe, v'là Secteur Ä c'est l'hécatombe Je gronde comme le tonnerre et j'suis vénère comme King-Kong Est-ce que t'as bien saisi? 1996, soit tu pèses, soit t'es d'la baise Le tirailleur revient donc bouge ton cul d'ma chaise Je fesse, blesse, laisse les MC flip-flap à leur place Quand l'Cain-cain pèse, les Caucasiens font la grimace, ouais Rien à foutre de l'état d'ton XXX je fourre tout dans ma BNP Le siège social reste j'crois qu'mon oreiller Mais cette fois François, ne paye pas en francs CFA J'veux qu'tu m'payes en francs lourds hé hé, la caisse est par là J'suis l'mec qui va t'faire perdre toute ta paye T'es encore d'la baise, un conseil, paye Hamed Däye Faut du wari-wari, plus de wari-wari Pour qu'j'puisse me retirer en retraite au pays Hamed Däye, Neg' Marrons, mem bagay, envoie le pognon Telle une bombe J'arrive et puis j'explose en fraction d'seconde Ferme ta gueule, creuse ta tombe, v'là Secteur Ä c'est l'hécatombe Je gronde comme le tonnerre et j'suis vénère comme King-Kong Est-ce que t'as bien saisi? Sorti du sixième chaudron Ärsenik le poison est dans ta maison Les douilles éclatent et l'hémoglobine souille mon sol écarlate Écarte les âmes sensibles quand les XXX Mais MC XXX trop bavards, de France ou de Navarre Je suis connu comme le flingueur le moins avare Avare en bastos, mon esprit part en testos XXX qui nous XXX et les microbes comme Domestos Si le rap était un système solaire, je serais son éclipse Despee dans l'il du cyclone, symptôme de l'Apocalypse L'ogre nègre ennemi d'la concurrence humide Qui ne comprend pas ne comprendra jamais le rugissement du tigre XXX 80 Ärsenik le ceau-mor Je prends le microphone et l'pays brûle comme Sodome et Gomorrhe Dans mon Secteur, je suis vecteur Cannibale sectaire, plus bas qu'terre XXX manière qu'Hannibal Lecter L'exterminateur expert tenace comme une gangrène Je suis la menace des cités où pousse la mauvaise graine Le french schizo à la rime exquise au micro XXX Despee, costaud mais allergique à la kryptonite verte Alerte, danger danger Rangez vos miches, je viens manger, changer XXX au purgatoire, un étranger Dans mon crâne et du métal dans ma poche XXX Ärsenik comme la mort te fauche Sur une mélodie sinistre, un concerto macabre affûté comme un sabre Tchoum tchoum, et on danse la biguine L'emprise de la XXX sauve-toi XXX Mon alcôve est un satané XXX l'antichambre de l'enfer Combat l'ambiance crépusculaire, mon groupuscule erre dans la brume Je danse avec le diable au clair de Lune Telle une bombe J'arrive et puis j'explose en fraction d'seconde Ferme ta gueule, creuse ta tombe, v'là Secteur Ä c'est l'hécatombe Je gronde comme le tonnerre et j'suis vénère comme King-Kong Est-ce que t'as bien saisi? Comme un guerrier Viêt-Cong, surgissant du Mékong Passi sonne le gong, tu m'connais à la longue Issap! Big, pas de tminik, je renique sur le ring Le numéro six, année un double-neuf sept Se la pète et glisse un feu d'artifice Quand mon Secteur Ä je hisse dans l'orifice du rap en France Je fous ça sans vice Et ce n'est plus gratis quand sur les pingres hostiles je pisse Les miens je rejoins Dans la bringue et je tringle Avec mes dingues dont les mots sur le cerveau sont des tringles Ma requête n'est pas des moindres, monnaie monnaie quitte à enfreindre Cette année damnée, donner l'plaisir, l'atteindre et XXX Laissez-nous rejoindre toutes celles qu'on entend se plaindre Telle une bombe J'arrive et puis j'explose en fraction d'seconde Ferme ta gueule, creuse ta tombe, v'là Secteur Ä c'est l'hécatombe Je gronde comme le tonnerre et j'suis vénère comme King-Kong Est-ce que t'as bien saisi? Pour le Secteur Ä, Ärsenik P.A.Double S.I Stomy Bugsy, Doc Gynéco Hamed Däye, Neg' Marrons Aaah! Comme King-Kong Est-ce que t'as bien saisi?</t>
         </is>
       </c>
     </row>
@@ -1869,12 +1869,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Taxi</t>
+          <t>Trop belle au naturel</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Yeah taxi Refrain Viens dans mon taxi S'aimer tout la nuit Tourner dans paris Ma baby sexy Couplet 1 Hey taxi, fais monter ma girly sexy Comme Joe le taxi moi je vis la nuit Laisse tourner le compteur, ça va durer des heures et des heures Comme quand je fais l'amour, ça dure des nuits et des jours C'est ça ma vie toujours assis avec une meuf a larrière de ton taco Et on s'effrime un max' sur la B.O Faut pas baisser, monte le son sur l'autoradio Mon kif kicker des beats avec mon bic, notes ton adresse, ton numéro, n'oublie pas le de-co, j'arrive illico ou que-do Du rap pro pour les accros J'ai du flow, je veux ser-po ça pour les rattes qui veulent quer-cro J'suis un mec réglo, un mac do Fais moi kiffer toute la nuit viens dans mon taxi Refrain Viens dans mon taxi S'aimer tout la nuit Tourner dans paris Ma baby sexy Viens dans mon taxi De midi à minuit Tourner dans paris Ma sexy baby Couplet 2 La misère du monde est bien plus dure que celle de té-ci Laisse monter ma femme dans ton taxi De Paris à New York on entend les même cris Yep taxi ! Yep taxi ! Sur les grands axes suis relax dans mon tax', je caresse tes cuisses Sentir le cuir sur ta peau Que le chauffeur jette un coup d'oeil dans le rétro Ma langue sur ta chair a l'arrière c'est chaud Fais moi kiffer toute la nuit viens dans le taco Refrain Pont Palapapa ..... Couplet 3 Cut ! Doc Gy, fais de jolies mélodies Embellie la soirée, allez sors du lit ma jolie Comme mes locks emmêlés sur ma te-tê Rejoins-nous, ce soir c'est la te-fê !</t>
+          <t>Wake up! Couplet 1 J'ai besoin d'amour pour avoir sommeil Besoin d'amour dès que j'te réveille Entre nous il n'y aura que toi et moi Tu n'seras jamais un top model Ni une actrice de charme Tu es bien trop belle N'écoute plus ce que les gens disent Les échos les plus doux resteront mes bises S'il y a trop d'bruit nous ferons nos valises Tu n'seras jamais un top model Ni une actrice de charme, tu es bien trop belle Refrain Trop belle au naturel, trop belle ! Trop belle au naturel, trop belle ! Trop belle au naturel, trop belle ! Trop belle au naturel, t'es trop belle ! Couplet 2 Il n'y a plus de barrières sociales Il n'y a plus ni le bien ni le mal Je te cherche et je te trouve plus là Tu me cherches mais tu n'me trouves pas Tu m'écoutes mais tu n'm'entends pas J'ai besoin d'la nuit pour avoir sommeil Besoin du jour dès que j'me réveille J'aimerai réfléchir, retrouver tes sourires Etre sage, accepter les chantages Car pour elle j'irai aux frontières du réveil aux frontières du réveil Oui, pour elle, aux frontières du réveil Refrain Couplet 3pont T'es trop douce au gout de miel Trop belle, déploie tes ailes Trop fière quand tu t'rebelles Trop femme ... C'que j'aime en elle, TOUT T'es trop belle sans ton rimmel Tu n'feras jamais un top model Ni une actrice de charme t'es bien trop belle Trop belle, trop belle, beaucoup trop belle Trop belle, trop belle, beaucoup trop belle Refrain T'es trop douce au gout de miel Trop belle, déploie tes ailes Trop fière quand tu te rebelles Trop femme ... Elle ...</t>
         </is>
       </c>
     </row>
@@ -1886,12 +1886,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Tel père tel fils (Papa was a Rollin’ Stone)</t>
+          <t>Trop jeune</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Mon père m'a dit Bruno, va te faire couper les cheveux J'lui ai dit Ah non monsieur, j'irai si je le veux Ce n'est pas du Elsa Mais Papa t'en va pas Faut que j'te parle de chez toi Des dettes et des PV De tout ce que tu m'as laissé Des demi-frères et surs De mon carnet de notes, fané comme une fleur Du 23ème étage t'es arrivé au rez-de-chaussée Sans te retourner Laissant au gardien ta clé Ça fait Papa was a rollin' stone Wherever he laid his hat was his home And when he died, all he left was alone Je suis livré à moi-même sur mon boulevard 2 francs dans la poche multiplié par mes lascars Et si Marie-Jeanne est toute proche de la flamme C'est pour enfouir ton absence au fin fond de mon âme Oublier que t'es parti Oublier ton visage Tes humeurs lunatiques Tourner la page J'ai pris de l'âge, je ne veux pas me retrouver à la maison d'arrêt Papa, je t'en supplie au poste, viens me chercher Papa was a rollin' stone Wherever he laid his hat was his home And when he died, all he left was alone C'était héréditaire, j'ai des reins d'acier Je te tiens par la taille et tu ne peux plus bouger Mords-toi les lèvres pour ne gémir Je sens la fin venir Laisse-moi partir Aucune fille sur la Terre ne pourra me retenir Je suis comme dit ma mère Le sosie de mon père Un mec qui galère Qui fout sa vie en l'air Papa tu m'a mis sur la Terre Dans la rue c'est la guerre Papa was a rollin' stone Wherever he laid his hat was his home And when he died, all he left was alone</t>
+          <t>J'étais trop fort et ils m'ont pas compris Suivez l'cercueil de lincompris Ma vie fût longue et douloureuse Je n'suis qu'une érection qui les rendaient heureuses Leurs distractions dans ce cortège Je souhaite qu'il y ait tous les élèves de ma promotion Du septième art, de la profession Membres du show-biz, de l'art pour la nation Un retraité d'l'éducation ruelle J'ai un doctorat délivré à Porte de la chapelle Ma vie s'abrège, mon silence vous protège L'argot vie, mes mots vous protègent Je joue mon rôle et je survie, Doc gît au milieu des sans abris Dans l'noir, j'ai vu l'espoir, les hommes puissants de ce monde d'argent Qui se disputent une mélodie Le dernier chanteur venu d'un trottoir Trop jeune pour parler d'la mort, trop jeune pour l'aimer Non je ne suis pas trop jeune, non je ne suis pas trop jeune pour rêver Personne n'a jamais vraiment su qui j'étais, ni quel était mon secret Le principal c'est que le message passait La voix du cur et le message de paix Même si les gens disent nous n'y arriverons jamais Mes opinions sur le sujet Coûtent beaucoup moins cher que celles de Strauss-Khan C'est beau la vie, Ebola vie Que fait Police du monde et Kofi Annan Famine, Misère à l'unisson, on voit mourir des nourrissons J'dégueule ma thèse sur du papier, exploitation et exclusion Les dirigeants, vous m'avez tué, message passé et moi j'y vais Grâce à Dieu, je m'en vais Trop jeune pour parler d'la mort, trop jeune pour l'aimer Non je ne suis pas trop jeune, non je ne suis pas trop jeune pour rêver Je le savais et j'ai laissé faire, mal au cur quand arrive l'hiver La drogue, la mort, les armes et la guerre Je le savais et j' ai dû me taire</t>
         </is>
       </c>
     </row>
@@ -1903,12 +1903,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Tel une bombe (Remix) (Album version)</t>
+          <t>Vaya con Dios</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Un deux, un, devinez qui revient Je pèse et je baise En levrette, en brochettes, pickpocket, pichenette J'impose ma notoriété comme Vito Corleone Me regarde pas d'travers, enculé d'ta mère J'viens flamber sur l'album des Neg' Marrons Et tu m'connais Si t'es pas content, va t'faire mettre jusqu'aux trous d'nez J'te piétine à coups d'talon façon Joe Pesci L'affranchi, pas d'chichis, mon Secteur Ä te chie Devant lui tu fléchis Même si tu cries, on augmente la mélodie d'la tuerie Fait passer l'homicide pour un putain d'hara-kiri Les flics sucent leurs indics, personne sait c'est iq Va t'faire enculer J'veux c'qui m'revient, ne plus voir les richesses non étalées Stomy Bugsy, c'est comme ça qu'on m'appelle Tu sais, le beau gosse avec le costard, la coupe de champagne et le cigare Et les rattes de des rêves, j'en ai à la pelle J'ai tout connu, laisse-moi sortir du cul Les murs de chez moi sont tellement fins Que quand mon voisin chie, j'peux savoir si c'est des pâtes ou du riz Quand les fils de salopes prétendent faire du vrai hip-hop L'important c'est la maille, le flooze, la pêche, la classe quoi Appelle-moi Stomy Bugsy Montana Le calibre qu'il te faut en attendant le prochain album du M.Ä Mon premier est une taspé qui kiffe Gynéco Mon second un MC qui fait du rap à l'eau Le tout est une su que je baise sans poa Je touche ma SACEM et j'investis dans un BM Je pèse, je baise, toutes les filles m'aiment L'homme qui met son doigt dans ton intimité A prostitué ton rap sur le boulevard Ney Si tu veux pécho viens voir Gynéco Jamais de pénurie au PLC non non non J'investis en gros dans les rues du quartier J'suis sur toutes les radios, j'ai des clips vidéos On s'échange mes démos, j'ai une putain d'promo Un riche en sursis toi-même tu sais que Secteur Ä m'appuie Mais oui mais oui tel une bombe J'arrive et puis j'explose en fraction d'seconde Ferme ta gueule, creuse ta tombe, v'là Secteur Ä c'est l'hécatombe Je gronde comme le tonnerre et j'suis vénère comme King-Kong Est-ce que t'as bien saisi? C'est encore nous Les trois scars-la voyous Ben-J Jacky Djamatik Daddy viennent tchatcher pour vous 1-9-9-chut, l'année où tu rêves de pèze Lève-toi, bats-toi si tu n'veux pas être de la baise Maille, maille, maille, ma-ma-ma-maille Mais oui il n'y a que la maille qui m'aille Djamatik le dancehall a fait découper ça XXX Chaud, écoute ça Marre de vivre comme une victime de XXX 1-9-9-7 l'argent entre dans ma vie J'en ai marre de rêver, faut qu'j'assouvisse mes envies C'que j'ai pas eu hier, faut qu'j'l'obtienne aujourd'hui Tu veux d'la maille, des tunes, du fric, non non non non non il ne faut pas qu'tu flaires La monnaie dirige le monde, je l'ai déjà dit l'année dernière Comme nous t'aimes be-flam Et dans tous les mouvements Avoir des taspés tout l'temps Avoir les poches pleines d'argent Qu'on dise que t'es important Peser à cent pour cent Comme le temps c'est d'l'argent il faut qu't'agisses dès maintenant Mais oui mais oui tel une bombe J'arrive et puis j'explose en fraction d'seconde Ferme ta gueule, creuse ta tombe, v'là Secteur Ä c'est l'hécatombe Je gronde comme le tonnerre et j'suis vénère comme King-Kong Est-ce que t'as bien saisi? 1996, soit tu pèses, soit t'es d'la baise Le tirailleur revient donc bouge ton cul d'ma chaise Je fesse, blesse, laisse les MC flip-flap à leur place Quand l'Cain-cain pèse, les Caucasiens font la grimace, ouais Rien à foutre de l'état d'ton XXX je fourre tout dans ma BNP Le siège social reste j'crois qu'mon oreiller Mais cette fois François, ne paye pas en francs CFA J'veux qu'tu m'payes en francs lourds hé hé, la caisse est par là J'suis l'mec qui va t'faire perdre toute ta paye T'es encore d'la baise, un conseil, paye Hamed Däye Faut du wari-wari, plus de wari-wari Pour qu'j'puisse me retirer en retraite au pays Hamed Däye, Neg' Marrons, mem bagay, envoie le pognon Telle une bombe J'arrive et puis j'explose en fraction d'seconde Ferme ta gueule, creuse ta tombe, v'là Secteur Ä c'est l'hécatombe Je gronde comme le tonnerre et j'suis vénère comme King-Kong Est-ce que t'as bien saisi? Sorti du sixième chaudron Ärsenik le poison est dans ta maison Les douilles éclatent et l'hémoglobine souille mon sol écarlate Écarte les âmes sensibles quand les XXX Mais MC XXX trop bavards, de France ou de Navarre Je suis connu comme le flingueur le moins avare Avare en bastos, mon esprit part en testos XXX qui nous XXX et les microbes comme Domestos Si le rap était un système solaire, je serais son éclipse Despee dans l'il du cyclone, symptôme de l'Apocalypse L'ogre nègre ennemi d'la concurrence humide Qui ne comprend pas ne comprendra jamais le rugissement du tigre XXX 80 Ärsenik le ceau-mor Je prends le microphone et l'pays brûle comme Sodome et Gomorrhe Dans mon Secteur, je suis vecteur Cannibale sectaire, plus bas qu'terre XXX manière qu'Hannibal Lecter L'exterminateur expert tenace comme une gangrène Je suis la menace des cités où pousse la mauvaise graine Le french schizo à la rime exquise au micro XXX Despee, costaud mais allergique à la kryptonite verte Alerte, danger danger Rangez vos miches, je viens manger, changer XXX au purgatoire, un étranger Dans mon crâne et du métal dans ma poche XXX Ärsenik comme la mort te fauche Sur une mélodie sinistre, un concerto macabre affûté comme un sabre Tchoum tchoum, et on danse la biguine L'emprise de la XXX sauve-toi XXX Mon alcôve est un satané XXX l'antichambre de l'enfer Combat l'ambiance crépusculaire, mon groupuscule erre dans la brume Je danse avec le diable au clair de Lune Telle une bombe J'arrive et puis j'explose en fraction d'seconde Ferme ta gueule, creuse ta tombe, v'là Secteur Ä c'est l'hécatombe Je gronde comme le tonnerre et j'suis vénère comme King-Kong Est-ce que t'as bien saisi? Comme un guerrier Viêt-Cong, surgissant du Mékong Passi sonne le gong, tu m'connais à la longue Issap! Big, pas de tminik, je renique sur le ring Le numéro six, année un double-neuf sept Se la pète et glisse un feu d'artifice Quand mon Secteur Ä je hisse dans l'orifice du rap en France Je fous ça sans vice Et ce n'est plus gratis quand sur les pingres hostiles je pisse Les miens je rejoins Dans la bringue et je tringle Avec mes dingues dont les mots sur le cerveau sont des tringles Ma requête n'est pas des moindres, monnaie monnaie quitte à enfreindre Cette année damnée, donner l'plaisir, l'atteindre et XXX Laissez-nous rejoindre toutes celles qu'on entend se plaindre Telle une bombe J'arrive et puis j'explose en fraction d'seconde Ferme ta gueule, creuse ta tombe, v'là Secteur Ä c'est l'hécatombe Je gronde comme le tonnerre et j'suis vénère comme King-Kong Est-ce que t'as bien saisi? Pour le Secteur Ä, Ärsenik P.A.Double S.I Stomy Bugsy, Doc Gynéco Hamed Däye, Neg' Marrons Aaah! Comme King-Kong Est-ce que t'as bien saisi?</t>
+          <t>On n'sait plus où on va, où se situe l'combat Y a trop d'mystères, faut s'taire, y a trop d'guerres ici-bas En zone de combat, dans mon lit j'me débats Ça s'bat, à la télé encore un débat Trop d'dégâts, de fumée devant les caméras On n'sait plus où on va, où est située la ligne de front Prendre position, qui peut répondre à nos questions Où va la nation, qui va trouver la solution Armageddon, révolution, on n'sait plus où l'on va Les mains sont sales et coule le sang L'argent blanchi dans toutes les ques-ban Où se situe l'combat pour les petites gens Dans l'urne, faut votr blanc En attendant un vrai enfant de la patri Et contre lui, de la tyrannie Y a trop d'élus du peuple qui ne viennent pas du peuple On n'sait plus où l'on va, moi je sais où je vais Dis-moi, vaya con dios, je sais où je vais Vaya con dios, je suis le nerf de la guerre Vaya con dios, je suis d'la branche populaire Vaya con dios, nous hériterons de la Terre Vaya con dios Lève ta main si tu aimes ce son Lève ta main si tu aimes ce son Lève ta main, oui prends position Lève ta main si tu aimes ça On n'sait plus où on va, choisir le bon chemin Faire du chemin et le faire vite et bien Politicien en jean et baskets J'aimerais porter toutes les casquettes J'veux prendre XXX annuler la dette Je dis les choses comme elles sont et tu t'demandes si Je vais marcher sur tes plates-bandes J'suis ambitieux, ils m'montrent du doigt, tous ces véreux Pour eux c'est fâcheux, mais moi j'en veux D'où je viens, où se situe l'combat Qui je suis, pas qu'un rappeur, j'remets les pendules à l'heure Appelle-moi Bruno Beausir, jeune ou vieux faut réagir Faut se souvenir, face à l'avenir Prendre position, contrôler la situation On n'sait plus où on va, je reste en vue des élections J'me présenterais si tu l'voulais Vaya con dios, je sais où je vais Lève ta main si tu aimes ce son Lève ta main si tu aimes ce son Lève ta main, oui prends position Lève ta main si tu aimes ça Et la voix du peuple était étouffée Lorsque le rap s'était égaré Qui a fait l'album, qui a fait passer le message J'te l'demande, j'te l'dis qui, Doc Gy' Du rap XXX pour les zoulettes, j'suis anti-stars Tu m'invites pas dans ta fête, quand j'arrive, j'branche ma guitare J'fous la pagaille, y a que des hommes de paille Facile à acheter, aïe, ils aiment trop la maille C'est ça leur bataille, le rap contre la variété On n'sait plus où on va, où se situe l'combat Mais décidé, je dois les découper Tu connais pas Brassens, tu t'es fait carotter Que mes ennemis restent des ennemis Que mes amis restent mes amis Toujours placé au premier rang Qui m'aime me suive, un pas en avant Nouvelle équipe, nouveau plan Dans toute la Ce-Fran, pour tous les gens Vaya con dios, je suis le nerf de la guerre Vaya con dios, je suis d'la branche populaire Vaya con dios, nous hériterons de la Terre Vaya con dios Lève ta main si tu aimes ce son Lève ta main si tu aimes ce son Lève ta main, oui prends position Lève ta main si tu aimes ça</t>
         </is>
       </c>
     </row>
@@ -1920,12 +1920,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Trop belle au naturel</t>
+          <t>Vida Loca</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Wake up! Couplet 1 J'ai besoin d'amour pour avoir sommeil Besoin d'amour dès que j'te réveille Entre nous il n'y aura que toi et moi Tu n'seras jamais un top model Ni une actrice de charme Tu es bien trop belle N'écoute plus ce que les gens disent Les échos les plus doux resteront mes bises S'il y a trop d'bruit nous ferons nos valises Tu n'seras jamais un top model Ni une actrice de charme, tu es bien trop belle Refrain Trop belle au naturel, trop belle ! Trop belle au naturel, trop belle ! Trop belle au naturel, trop belle ! Trop belle au naturel, t'es trop belle ! Couplet 2 Il n'y a plus de barrières sociales Il n'y a plus ni le bien ni le mal Je te cherche et je te trouve plus là Tu me cherches mais tu n'me trouves pas Tu m'écoutes mais tu n'm'entends pas J'ai besoin d'la nuit pour avoir sommeil Besoin du jour dès que j'me réveille J'aimerai réfléchir, retrouver tes sourires Etre sage, accepter les chantages Car pour elle j'irai aux frontières du réveil aux frontières du réveil Oui, pour elle, aux frontières du réveil Refrain Couplet 3pont T'es trop douce au gout de miel Trop belle, déploie tes ailes Trop fière quand tu t'rebelles Trop femme ... C'que j'aime en elle, TOUT T'es trop belle sans ton rimmel Tu n'feras jamais un top model Ni une actrice de charme t'es bien trop belle Trop belle, trop belle, beaucoup trop belle Trop belle, trop belle, beaucoup trop belle Refrain T'es trop douce au gout de miel Trop belle, déploie tes ailes Trop fière quand tu te rebelles Trop femme ... Elle ...</t>
+          <t>J'suis avec le frelot Doc Gyneco, miss viens danser la salsa Je roule un blunt et j'ai d'la salade pour mes rasta Première consultation nous a fait faire le tour du monde J'en ai connu des rousses, des brunes, des blondes Aujourd'hui Bakhaw invite le Doc sur son album J'ai connu la drogue, la prison, mais je dis stop Le 18ème, 93, c'est pas des lol, feche sua boca, mes titspe te cambriolent Grandit à Crack-land Porte de la Chapelle Entre les clandés, les prostituées, les seringues Truc de fou, truc de fou, truc de dingue Grandis à Crack-land Porte de la Chapelle Refrain Viva, viva la vie da loca, viva, viva X3 Qué pasa? sexy señorita, alors viva viva, la vida loca On a locomotive comme la feuille de coca J'suis de l'époque de la rabla, on parle Pikti même arabe là Un artisan, y en a pas beaucoup des comme ça C'est pas du rap industriel, c'est made in Stalingrad Porte de la Chapelle Chez nous pas de cabot fidèle, je fais de l'artistique qui fait que des couplets unique, de pesetas Donne-moi des tass et des kahbas, j'aime rassembler le peuple comme a Dibba Ils ont un plan pour le monde machiavélique, psychologique Ils préfèrent leurs chiens aux êtres humains Laisse-moi dans ma soirée bunga bunga avec du hip-hop et du ragga J'parle à mes kaïras sur un instru salsa Refrain Viva, viva la vie da loca, viva, viva X3</t>
         </is>
       </c>
     </row>
@@ -1937,12 +1937,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Trop jeune</t>
+          <t>Viens faire un tour dans les cités</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>J'étais trop fort et ils m'ont pas compris Suivez l'cercueil de lincompris Ma vie fût longue et douloureuse Je n'suis qu'une érection qui les rendaient heureuses Leurs distractions dans ce cortège Je souhaite qu'il y ait tous les élèves de ma promotion Du septième art, de la profession Membres du show-biz, de l'art pour la nation Un retraité d'l'éducation ruelle J'ai un doctorat délivré à Porte de la chapelle Ma vie s'abrège, mon silence vous protège L'argot vie, mes mots vous protègent Je joue mon rôle et je survie, Doc gît au milieu des sans abris Dans l'noir, j'ai vu l'espoir, les hommes puissants de ce monde d'argent Qui se disputent une mélodie Le dernier chanteur venu d'un trottoir Trop jeune pour parler d'la mort, trop jeune pour l'aimer Non je ne suis pas trop jeune, non je ne suis pas trop jeune pour rêver Personne n'a jamais vraiment su qui j'étais, ni quel était mon secret Le principal c'est que le message passait La voix du cur et le message de paix Même si les gens disent nous n'y arriverons jamais Mes opinions sur le sujet Coûtent beaucoup moins cher que celles de Strauss-Khan C'est beau la vie, Ebola vie Que fait Police du monde et Kofi Annan Famine, Misère à l'unisson, on voit mourir des nourrissons J'dégueule ma thèse sur du papier, exploitation et exclusion Les dirigeants, vous m'avez tué, message passé et moi j'y vais Grâce à Dieu, je m'en vais Trop jeune pour parler d'la mort, trop jeune pour l'aimer Non je ne suis pas trop jeune, non je ne suis pas trop jeune pour rêver Je le savais et j'ai laissé faire, mal au cur quand arrive l'hiver La drogue, la mort, les armes et la guerre Je le savais et j' ai dû me taire</t>
+          <t>J'ai vu des mères ne pouvant plus s'occuper de leurs gosses Des hommes qui boxent leurs mômes avec ge-ra c'est atroce J'ai vu des gamines devenir mère, des mères devenir père Des fusils toujours chargés exploser chez un grand-père J'ai vu des concierges dique-sa faire des avances à des femmes au foyer Entendu des sons che-lou à minuit dans les cages d'escalier J'ai vu des parents fous qui n'avaient plus d'autorité Dans leurs propres maisons, se faire commander par un mouflet Les , les PJ, les huissiers Dans les escaliers, les ascenseurs sont toujours bloqués Des loquets sur toutes les portes un appart' habité par une morte Mais où peut-on vivre de la sorte ? Fort heureusement ici, il n'y a pas trop d'homicides Mais on assiste à des suicides de personnes dites lucides Contre mon gré, je suis obligé de té-ma toutes ces conneries Ne me dis surtout pas que c'est la vie Tu veux voir plus d'une famille vivre dans une seule ce-piè Viens faire un tour dans les cités T'as besoin de faire un reportage sur les squatteurs d'escalier Viens faire un tour dans les cités Tu cherches un endroit chaud et mouvementé pour aller bronzer Viens faire un tour dans les cités Arrête de te faire des mythos, tu veux connaître la vérité Viens faire un tour dans les cités Viens faire un tour dans les cités Mais si t'es pas du quartier, il ne faut surtout pas t'exciter Les gens s'y croient invincibles et sont vraiment susceptibles J'ai vu des gamins tenter des coups presque impossibles Vis ta vie ou bienvenue dans le cercle infernal Où les gestes insensés sont devenus mouvement banal Normal, quand tant de religions se retrouvent mélangées J'ai vu une église, une synagogue, non loin d'une mosquée J'ai tendu l'oreille, entendu des ragots, des fachos et des commères Déjà rencontré des menteurs jurer sur la tête de leurs mères Vé-nères contre le régisseur qui rotte-ca les illettrés J'ai vu les trésors des dealers sur les boîtes à ttres-le Les caves sont plus accessibles, les villes devenues té-ci Malgré cela, on y trouve garer quelques voitures J'ai vu des poursuites, les fuites ont très vite cessé C'est difficile ici, les bandits sont très durs à débusquer Tu veux voir plus d'une famille vivre dans une seule ce-piè Viens faire un tour dans les cités T'as besoin de faire un reportage sur les squatteurs d'escalier Viens faire un tour dans les cités Tu cherches un endroit chaud et mouvementé pour aller bronzer Viens faire un tour dans les cités Arrête de te faire des mythos, tu veux connaître la vérité Viens faire un tour dans les cités Il n'y a pas que des mauvais côtés dans la vie des cités Nous ne vivons pas dans un monde parfait Mais on peut trouver des gens qui savent donner Sans essayer de se vanter par pure gentillesse, juste pour la solidarité Sans attendre un retour, c'est la vie dans les tours Les mairies ne captent pas toujours les appels au secours Parcours les allées sombres et vois les regards mesquins Et là, tu comprendras pourquoi si t'as pas de caillasse tu es en chien J'ai vu des familles se nourrir de châtaignes en automne J'ai déjà vu, entendu, un estomac qui résonne Aperçu les kisdés forcer la te-por du voisin Un facteur ouvrir le courrier, la concierge faire la catin J'ai vu des toxicos faire un appart' en plein jour Dans un coin, une voiture gé-bou comme si on y faisait l'amour Tu me crois ou tu me crois pas, mon gars Mais sache que des comme ça, pour toi j'en ai encore des tas Si tu penses qu'on peut vivre dans une seule ce-piè Ta meuf est sortie danser, mais elle n'est toujours pas rentrée Te procurer du rêve, mais tu ne sais où en trouver ? Tu cherches un endroit chaud et mouvementé pour aller bronzer Viens faire un tour dans les cités J'ai des copains chômeurs si tu veux les embaucher Viens faire un tour dans les cités Où sont passés ta sse-cai, tes papiers ? Viens faire un tour dans les cités Porter plainte mais où sont les kisdés Arrête de te faire des mythos, arrête de te faire des mythos</t>
         </is>
       </c>
     </row>
@@ -1954,61 +1954,10 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Vaya con Dios</t>
+          <t>West Indies</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
-        <is>
-          <t>On n'sait plus où on va, où se situe l'combat Y a trop d'mystères, faut s'taire, y a trop d'guerres ici-bas En zone de combat, dans mon lit j'me débats Ça s'bat, à la télé encore un débat Trop d'dégâts, de fumée devant les caméras On n'sait plus où on va, où est située la ligne de front Prendre position, qui peut répondre à nos questions Où va la nation, qui va trouver la solution Armageddon, révolution, on n'sait plus où l'on va Les mains sont sales et coule le sang L'argent blanchi dans toutes les ques-ban Où se situe l'combat pour les petites gens Dans l'urne, faut votr blanc En attendant un vrai enfant de la patri Et contre lui, de la tyrannie Y a trop d'élus du peuple qui ne viennent pas du peuple On n'sait plus où l'on va, moi je sais où je vais Dis-moi, vaya con dios, je sais où je vais Vaya con dios, je suis le nerf de la guerre Vaya con dios, je suis d'la branche populaire Vaya con dios, nous hériterons de la Terre Vaya con dios Lève ta main si tu aimes ce son Lève ta main si tu aimes ce son Lève ta main, oui prends position Lève ta main si tu aimes ça On n'sait plus où on va, choisir le bon chemin Faire du chemin et le faire vite et bien Politicien en jean et baskets J'aimerais porter toutes les casquettes J'veux prendre XXX annuler la dette Je dis les choses comme elles sont et tu t'demandes si Je vais marcher sur tes plates-bandes J'suis ambitieux, ils m'montrent du doigt, tous ces véreux Pour eux c'est fâcheux, mais moi j'en veux D'où je viens, où se situe l'combat Qui je suis, pas qu'un rappeur, j'remets les pendules à l'heure Appelle-moi Bruno Beausir, jeune ou vieux faut réagir Faut se souvenir, face à l'avenir Prendre position, contrôler la situation On n'sait plus où on va, je reste en vue des élections J'me présenterais si tu l'voulais Vaya con dios, je sais où je vais Lève ta main si tu aimes ce son Lève ta main si tu aimes ce son Lève ta main, oui prends position Lève ta main si tu aimes ça Et la voix du peuple était étouffée Lorsque le rap s'était égaré Qui a fait l'album, qui a fait passer le message J'te l'demande, j'te l'dis qui, Doc Gy' Du rap XXX pour les zoulettes, j'suis anti-stars Tu m'invites pas dans ta fête, quand j'arrive, j'branche ma guitare J'fous la pagaille, y a que des hommes de paille Facile à acheter, aïe, ils aiment trop la maille C'est ça leur bataille, le rap contre la variété On n'sait plus où on va, où se situe l'combat Mais décidé, je dois les découper Tu connais pas Brassens, tu t'es fait carotter Que mes ennemis restent des ennemis Que mes amis restent mes amis Toujours placé au premier rang Qui m'aime me suive, un pas en avant Nouvelle équipe, nouveau plan Dans toute la Ce-Fran, pour tous les gens Vaya con dios, je suis le nerf de la guerre Vaya con dios, je suis d'la branche populaire Vaya con dios, nous hériterons de la Terre Vaya con dios Lève ta main si tu aimes ce son Lève ta main si tu aimes ce son Lève ta main, oui prends position Lève ta main si tu aimes ça</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>Doc Gynéco</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Vida Loca</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>J'suis avec le frelot Doc Gyneco, miss viens danser la salsa Je roule un blunt et j'ai d'la salade pour mes rasta Première consultation nous a fait faire le tour du monde J'en ai connu des rousses, des brunes, des blondes Aujourd'hui Bakhaw invite le Doc sur son album J'ai connu la drogue, la prison, mais je dis stop Le 18ème, 93, c'est pas des lol, feche sua boca, mes titspe te cambriolent Grandit à Crack-land Porte de la Chapelle Entre les clandés, les prostituées, les seringues Truc de fou, truc de fou, truc de dingue Grandis à Crack-land Porte de la Chapelle Refrain Viva, viva la vie da loca, viva, viva X3 Qué pasa? sexy señorita, alors viva viva, la vida loca On a locomotive comme la feuille de coca J'suis de l'époque de la rabla, on parle Pikti même arabe là Un artisan, y en a pas beaucoup des comme ça C'est pas du rap industriel, c'est made in Stalingrad Porte de la Chapelle Chez nous pas de cabot fidèle, je fais de l'artistique qui fait que des couplets unique, de pesetas Donne-moi des tass et des kahbas, j'aime rassembler le peuple comme a Dibba Ils ont un plan pour le monde machiavélique, psychologique Ils préfèrent leurs chiens aux êtres humains Laisse-moi dans ma soirée bunga bunga avec du hip-hop et du ragga J'parle à mes kaïras sur un instru salsa Refrain Viva, viva la vie da loca, viva, viva X3</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>Doc Gynéco</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>Viens faire un tour dans les cités</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>J'ai vu des mères ne pouvant plus s'occuper de leurs gosses Des hommes qui boxent leurs mômes avec ge-ra c'est atroce J'ai vu des gamines devenir mère, des mères devenir père Des fusils toujours chargés exploser chez un grand-père J'ai vu des concierges dique-sa faire des avances à des femmes au foyer Entendu des sons che-lou à minuit dans les cages d'escalier J'ai vu des parents fous qui n'avaient plus d'autorité Dans leurs propres maisons, se faire commander par un mouflet Les , les PJ, les huissiers Dans les escaliers, les ascenseurs sont toujours bloqués Des loquets sur toutes les portes un appart' habité par une morte Mais où peut-on vivre de la sorte ? Fort heureusement ici, il n'y a pas trop d'homicides Mais on assiste à des suicides de personnes dites lucides Contre mon gré, je suis obligé de té-ma toutes ces conneries Ne me dis surtout pas que c'est la vie Tu veux voir plus d'une famille vivre dans une seule ce-piè Viens faire un tour dans les cités T'as besoin de faire un reportage sur les squatteurs d'escalier Viens faire un tour dans les cités Tu cherches un endroit chaud et mouvementé pour aller bronzer Viens faire un tour dans les cités Arrête de te faire des mythos, tu veux connaître la vérité Viens faire un tour dans les cités Viens faire un tour dans les cités Mais si t'es pas du quartier, il ne faut surtout pas t'exciter Les gens s'y croient invincibles et sont vraiment susceptibles J'ai vu des gamins tenter des coups presque impossibles Vis ta vie ou bienvenue dans le cercle infernal Où les gestes insensés sont devenus mouvement banal Normal, quand tant de religions se retrouvent mélangées J'ai vu une église, une synagogue, non loin d'une mosquée J'ai tendu l'oreille, entendu des ragots, des fachos et des commères Déjà rencontré des menteurs jurer sur la tête de leurs mères Vé-nères contre le régisseur qui rotte-ca les illettrés J'ai vu les trésors des dealers sur les boîtes à ttres-le Les caves sont plus accessibles, les villes devenues té-ci Malgré cela, on y trouve garer quelques voitures J'ai vu des poursuites, les fuites ont très vite cessé C'est difficile ici, les bandits sont très durs à débusquer Tu veux voir plus d'une famille vivre dans une seule ce-piè Viens faire un tour dans les cités T'as besoin de faire un reportage sur les squatteurs d'escalier Viens faire un tour dans les cités Tu cherches un endroit chaud et mouvementé pour aller bronzer Viens faire un tour dans les cités Arrête de te faire des mythos, tu veux connaître la vérité Viens faire un tour dans les cités Il n'y a pas que des mauvais côtés dans la vie des cités Nous ne vivons pas dans un monde parfait Mais on peut trouver des gens qui savent donner Sans essayer de se vanter par pure gentillesse, juste pour la solidarité Sans attendre un retour, c'est la vie dans les tours Les mairies ne captent pas toujours les appels au secours Parcours les allées sombres et vois les regards mesquins Et là, tu comprendras pourquoi si t'as pas de caillasse tu es en chien J'ai vu des familles se nourrir de châtaignes en automne J'ai déjà vu, entendu, un estomac qui résonne Aperçu les kisdés forcer la te-por du voisin Un facteur ouvrir le courrier, la concierge faire la catin J'ai vu des toxicos faire un appart' en plein jour Dans un coin, une voiture gé-bou comme si on y faisait l'amour Tu me crois ou tu me crois pas, mon gars Mais sache que des comme ça, pour toi j'en ai encore des tas Si tu penses qu'on peut vivre dans une seule ce-piè Ta meuf est sortie danser, mais elle n'est toujours pas rentrée Te procurer du rêve, mais tu ne sais où en trouver ? Tu cherches un endroit chaud et mouvementé pour aller bronzer Viens faire un tour dans les cités J'ai des copains chômeurs si tu veux les embaucher Viens faire un tour dans les cités Où sont passés ta sse-cai, tes papiers ? Viens faire un tour dans les cités Porter plainte mais où sont les kisdés Arrête de te faire des mythos, arrête de te faire des mythos</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>Doc Gynéco</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>West Indies</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
         <is>
           <t>West Indies Crew, ouahou x4 Faut s'battre dans la vie Faut prendre des coups et puis tant pis Depuis qu'on est petit on s'laisse pas faire et c'est ainsi Qu'on s'bat dans la vie Depuis des décennies Qu'on travaille à Paris Les Antilles ont tout compris Un qui s'en est sorti C'est toutes les îles qu'on réussies Quand tu passes à la télé Bruno faut pas faire malpoli Dis bonjour à ta famille, à la Guadeloupe, à ta mamie On a déjà du mal et c'est comme ça timal Inutile de nous faire du mal Administration et hôpital On va travailler même si on gagne que dalle On apporte du soleil dans la capitale Qui cotise pour les retraites Éponge les dettes, fait la recette En fait Qui travaille mais fait la fête West Indies Crew, ouahou x4 Dans ma BM Le son tipique que j'aime J'te dépose à la plage Pani problème Quitte le système Viens si tu aimes La canne à sucre traditionnelle Contrôle le monde industriel Le punch à la citronnelle Fait tourner la tête aux demoiselles Le zouk et le soleil Ça change de la grisaille de Porte de La Chapelle Allée des sages, tous les plus beaux paysages On s'rejoint à la nage Viens faire un stage Y'a pas de missiles Dans les grandes villes Y'a trop d'flics T'es pas tranquille Change de domiciles Viens sur nos îles West Indies Crew, ouahou x4 Peut-être qu'un jour ils seront décorés Il a eut trop froid, il a préféré rentrer Mais le combat, je vais continuer Tous les jours que Dieu fait mec, je vais lutter Le message, je vais faire passer En attendant fais moi chauffer mon poulet boucané Sers moi un punch Que je reprenne du punch Force et courage Dans tous les sondages Dans tout le monde, chez les gens de tout âge La question est Hé, tu fais quoi cet été ? West Indies Crew, ouahou x3 Pourquoi pas vous ? West Indies Crew, ouahou x12</t>
         </is>
